--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36455488204956</t>
+    <t xml:space="preserve">4.36455392837524</t>
   </si>
   <si>
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51181411743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4428858757019</t>
+    <t xml:space="preserve">4.51181507110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44288492202759</t>
   </si>
   <si>
     <t xml:space="preserve">4.41781902313232</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37708759307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33635568618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43975114822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49301528930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46795034408569</t>
+    <t xml:space="preserve">4.37708711624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33635520935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43975210189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4930157661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46795082092285</t>
   </si>
   <si>
     <t xml:space="preserve">4.41155242919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27995777130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19849395751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.966637134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12016439437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17342901229858</t>
+    <t xml:space="preserve">4.27995824813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19849443435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96663808822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12016487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1734299659729</t>
   </si>
   <si>
     <t xml:space="preserve">4.08569955825806</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">4.20476102828979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25802564620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17029619216919</t>
+    <t xml:space="preserve">4.25802516937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17029571533203</t>
   </si>
   <si>
     <t xml:space="preserve">4.27682495117188</t>
@@ -104,28 +104,28 @@
     <t xml:space="preserve">4.16089630126953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.073166847229</t>
+    <t xml:space="preserve">4.07316637039185</t>
   </si>
   <si>
     <t xml:space="preserve">3.94783806800842</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75044631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35879611968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23973417282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54365491867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39012765884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40266060829163</t>
+    <t xml:space="preserve">3.75044655799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35879564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23973441123962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54365468025208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39012742042542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40266084671021</t>
   </si>
   <si>
     <t xml:space="preserve">3.50605630874634</t>
@@ -134,82 +134,82 @@
     <t xml:space="preserve">3.49039030075073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63138437271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61571884155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69404864311218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82564401626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.741046667099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70344829559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80997681617737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86324214935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92903900146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8945746421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86010837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.885174036026</t>
+    <t xml:space="preserve">3.63138461112976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61571931838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69404888153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82564306259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74104690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70344805717468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80997824668884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86324119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.929039478302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89457368850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.860107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88517451286316</t>
   </si>
   <si>
     <t xml:space="preserve">3.84130930900574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86637544631958</t>
+    <t xml:space="preserve">3.86637496948242</t>
   </si>
   <si>
     <t xml:space="preserve">3.83817601203918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03870153427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06689977645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06376695632935</t>
+    <t xml:space="preserve">4.0387020111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0669002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0637674331665</t>
   </si>
   <si>
     <t xml:space="preserve">4.03243494033813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01050281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02616834640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10449934005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24235963821411</t>
+    <t xml:space="preserve">4.01050233840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02616882324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10449838638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24236011505127</t>
   </si>
   <si>
     <t xml:space="preserve">4.22356033325195</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15149688720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22982597351074</t>
+    <t xml:space="preserve">4.15149641036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2298264503479</t>
   </si>
   <si>
     <t xml:space="preserve">4.16716289520264</t>
@@ -221,25 +221,25 @@
     <t xml:space="preserve">4.04183483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92590594291687</t>
+    <t xml:space="preserve">3.92590546607971</t>
   </si>
   <si>
     <t xml:space="preserve">3.98856997489929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00736904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02930116653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04810047149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13583040237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06063318252563</t>
+    <t xml:space="preserve">4.00736856460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02930212020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04810094833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13583087921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06063365936279</t>
   </si>
   <si>
     <t xml:space="preserve">4.05749988555908</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">4.11389827728271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18596172332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2392258644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24862575531006</t>
+    <t xml:space="preserve">4.18596220016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23922634124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24862670898438</t>
   </si>
   <si>
     <t xml:space="preserve">4.17969608306885</t>
@@ -272,76 +272,76 @@
     <t xml:space="preserve">4.11703157424927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21102714538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24549341201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2204270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20162725448608</t>
+    <t xml:space="preserve">4.21102857589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24549293518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20162773132324</t>
   </si>
   <si>
     <t xml:space="preserve">4.23296022415161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12329721450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23609352111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18909549713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28309106826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28935813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25489234924316</t>
+    <t xml:space="preserve">4.12329769134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23609304428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18909502029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28309154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28935718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25489282608032</t>
   </si>
   <si>
     <t xml:space="preserve">4.31442356109619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31129026412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32382345199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29875802993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30815649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38648748397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39588594436646</t>
+    <t xml:space="preserve">4.31128978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32382297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29875707626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30815696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38648700714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39588642120361</t>
   </si>
   <si>
     <t xml:space="preserve">4.29249048233032</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22669363021851</t>
+    <t xml:space="preserve">4.22669315338135</t>
   </si>
   <si>
     <t xml:space="preserve">4.20789480209351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33322238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43207931518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37606048583984</t>
+    <t xml:space="preserve">4.33322143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43207883834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.376060962677</t>
   </si>
   <si>
     <t xml:space="preserve">4.36617469787598</t>
@@ -353,73 +353,73 @@
     <t xml:space="preserve">4.06630897521973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82575845718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92790985107422</t>
+    <t xml:space="preserve">3.82575702667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92790937423706</t>
   </si>
   <si>
     <t xml:space="preserve">3.92131853103638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0300612449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94109106063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84223413467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79939556121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76973867416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91143321990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08937549591064</t>
+    <t xml:space="preserve">4.03006219863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94109010696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84223365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79939675331116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76973843574524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91143369674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0893759727478</t>
   </si>
   <si>
     <t xml:space="preserve">4.07949018478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17505121231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10255670547485</t>
+    <t xml:space="preserve">4.17505168914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10255718231201</t>
   </si>
   <si>
     <t xml:space="preserve">4.10585165023804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08278512954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14539480209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1322135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08608055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07619524002075</t>
+    <t xml:space="preserve">4.08278560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14539384841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13221406936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08608102798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07619476318359</t>
   </si>
   <si>
     <t xml:space="preserve">4.02676630020142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00699472427368</t>
+    <t xml:space="preserve">4.00699615478516</t>
   </si>
   <si>
     <t xml:space="preserve">3.94438600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25084209442139</t>
+    <t xml:space="preserve">4.25084257125854</t>
   </si>
   <si>
     <t xml:space="preserve">4.22777509689331</t>
@@ -437,25 +437,25 @@
     <t xml:space="preserve">4.33651781082153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24754667282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16187191009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20470905303955</t>
+    <t xml:space="preserve">4.2475471496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16187047958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20470952987671</t>
   </si>
   <si>
     <t xml:space="preserve">4.09926128387451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1157374382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18493700027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13880395889282</t>
+    <t xml:space="preserve">4.11573696136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18493795394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13880491256714</t>
   </si>
   <si>
     <t xml:space="preserve">4.09267139434814</t>
@@ -467,22 +467,22 @@
     <t xml:space="preserve">4.05312824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12891864776611</t>
+    <t xml:space="preserve">4.12891817092896</t>
   </si>
   <si>
     <t xml:space="preserve">4.11903238296509</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14209890365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15527963638306</t>
+    <t xml:space="preserve">4.14209938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15528011322021</t>
   </si>
   <si>
     <t xml:space="preserve">4.22118473052979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20800399780273</t>
+    <t xml:space="preserve">4.20800447463989</t>
   </si>
   <si>
     <t xml:space="preserve">3.9839289188385</t>
@@ -494,55 +494,55 @@
     <t xml:space="preserve">4.03994750976562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0036997795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02347135543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03335666656494</t>
+    <t xml:space="preserve">4.00370025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02347087860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0333571434021</t>
   </si>
   <si>
     <t xml:space="preserve">4.01029062271118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00040531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99381375312805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97733855247498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98063278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91472935676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96415686607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98722338676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93120503425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99710845947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07289838790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04983282089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92461371421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90154838562012</t>
+    <t xml:space="preserve">4.00040578842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99381422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97733807563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98063373565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91472792625427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96415734291077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98722434043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93120551109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99710941314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07289886474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04983234405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9246141910553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90154767036438</t>
   </si>
   <si>
     <t xml:space="preserve">3.93450021743774</t>
@@ -554,49 +554,49 @@
     <t xml:space="preserve">3.96086192131042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94768118858337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93779492378235</t>
+    <t xml:space="preserve">3.94768071174622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93779540061951</t>
   </si>
   <si>
     <t xml:space="preserve">3.88836717605591</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84552931785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76314830780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72360563278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71701502799988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71042418479919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70053935050964</t>
+    <t xml:space="preserve">3.84552884101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76314783096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72360491752625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71701526641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71042466163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70053958892822</t>
   </si>
   <si>
     <t xml:space="preserve">3.65111041069031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79610013961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86530065536499</t>
+    <t xml:space="preserve">3.79610085487366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86530017852783</t>
   </si>
   <si>
     <t xml:space="preserve">3.86859536170959</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85871052742004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17175674438477</t>
+    <t xml:space="preserve">3.85870981216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17175722122192</t>
   </si>
   <si>
     <t xml:space="preserve">4.188232421875</t>
@@ -605,16 +605,16 @@
     <t xml:space="preserve">4.17834758758545</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16846084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22447967529297</t>
+    <t xml:space="preserve">4.16846132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22448015213013</t>
   </si>
   <si>
     <t xml:space="preserve">4.18164157867432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21789073944092</t>
+    <t xml:space="preserve">4.2178897857666</t>
   </si>
   <si>
     <t xml:space="preserve">4.23766088485718</t>
@@ -623,25 +623,25 @@
     <t xml:space="preserve">4.21129941940308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15198516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06301403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02017641067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99051952362061</t>
+    <t xml:space="preserve">4.15198469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06301355361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02017593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99051904678345</t>
   </si>
   <si>
     <t xml:space="preserve">4.01688051223755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85541486740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83234786987305</t>
+    <t xml:space="preserve">3.85541391372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83234739303589</t>
   </si>
   <si>
     <t xml:space="preserve">3.8521192073822</t>
@@ -650,31 +650,31 @@
     <t xml:space="preserve">3.95427107810974</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95097589492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01358556747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1355094909668</t>
+    <t xml:space="preserve">3.95097637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01358604431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13550901412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.26731777191162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25413751602173</t>
+    <t xml:space="preserve">4.25413703918457</t>
   </si>
   <si>
     <t xml:space="preserve">4.2442512512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20141315460205</t>
+    <t xml:space="preserve">4.20141363143921</t>
   </si>
   <si>
     <t xml:space="preserve">4.28049898147583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24095582962036</t>
+    <t xml:space="preserve">4.24095630645752</t>
   </si>
   <si>
     <t xml:space="preserve">4.10914707183838</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">4.14868974685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1915283203125</t>
+    <t xml:space="preserve">4.19152736663818</t>
   </si>
   <si>
     <t xml:space="preserve">4.21459341049194</t>
@@ -692,22 +692,22 @@
     <t xml:space="preserve">4.12232780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19482278823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28379392623901</t>
+    <t xml:space="preserve">4.19482326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28379344940186</t>
   </si>
   <si>
     <t xml:space="preserve">4.29697561264038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15857458114624</t>
+    <t xml:space="preserve">4.1585750579834</t>
   </si>
   <si>
     <t xml:space="preserve">4.12562370300293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2607274055481</t>
+    <t xml:space="preserve">4.26072692871094</t>
   </si>
   <si>
     <t xml:space="preserve">4.27061319351196</t>
@@ -716,88 +716,88 @@
     <t xml:space="preserve">4.23555040359497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24957609176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26359987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20048809051514</t>
+    <t xml:space="preserve">4.2495756149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26360082626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20048761367798</t>
   </si>
   <si>
     <t xml:space="preserve">4.20750045776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2215256690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17945098876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23204469680786</t>
+    <t xml:space="preserve">4.22152614593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17945003509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2320442199707</t>
   </si>
   <si>
     <t xml:space="preserve">4.2039942741394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21100759506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18646335601807</t>
+    <t xml:space="preserve">4.21100664138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18646287918091</t>
   </si>
   <si>
     <t xml:space="preserve">4.16893148422241</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24256277084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25308132171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29515695571899</t>
+    <t xml:space="preserve">4.24256372451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25308179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29515647888184</t>
   </si>
   <si>
     <t xml:space="preserve">4.27411890029907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25658845901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24606943130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19347620010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18295669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22503185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37580013275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38982582092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41086339950562</t>
+    <t xml:space="preserve">4.25658893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24606895446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19347524642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1829571723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22503137588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37580060958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38982629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41086292266846</t>
   </si>
   <si>
     <t xml:space="preserve">4.35125732421875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36177539825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36528158187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40735673904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28463840484619</t>
+    <t xml:space="preserve">4.36177587509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36528253555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40735721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28463792800903</t>
   </si>
   <si>
     <t xml:space="preserve">4.29866313934326</t>
@@ -806,67 +806,67 @@
     <t xml:space="preserve">4.35826969146729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878824234009</t>
+    <t xml:space="preserve">4.3687891960144</t>
   </si>
   <si>
     <t xml:space="preserve">4.31268835067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29165077209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28113222122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30918169021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26710748672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31619501113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38281297683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35476303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34424448013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34775066375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31970024108887</t>
+    <t xml:space="preserve">4.29165029525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28113126754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30918121337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2671070098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3161940574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35476350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34424495697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34775114059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31969976425171</t>
   </si>
   <si>
     <t xml:space="preserve">4.33723211288452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3056755065918</t>
+    <t xml:space="preserve">4.30567598342896</t>
   </si>
   <si>
     <t xml:space="preserve">4.33021974563599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39333200454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32320737838745</t>
+    <t xml:space="preserve">4.39333152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32320690155029</t>
   </si>
   <si>
     <t xml:space="preserve">4.40034484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41436958312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39683818817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40385055541992</t>
+    <t xml:space="preserve">4.41437005996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39683866500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40385150909424</t>
   </si>
   <si>
     <t xml:space="preserve">4.38631963729858</t>
@@ -875,22 +875,22 @@
     <t xml:space="preserve">4.30216932296753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2881441116333</t>
+    <t xml:space="preserve">4.28814458847046</t>
   </si>
   <si>
     <t xml:space="preserve">4.27762603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46345663070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49501276016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46696329116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45293807983398</t>
+    <t xml:space="preserve">4.46345710754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49501371383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46696376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4529390335083</t>
   </si>
   <si>
     <t xml:space="preserve">4.43891382217407</t>
@@ -899,28 +899,28 @@
     <t xml:space="preserve">4.45644426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49150657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50903844833374</t>
+    <t xml:space="preserve">4.47046995162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49150705337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50903797149658</t>
   </si>
   <si>
     <t xml:space="preserve">4.52306318283081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53708839416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51605129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55111265182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58617544174194</t>
+    <t xml:space="preserve">4.5370888710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51605081558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55111312866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5861759185791</t>
   </si>
   <si>
     <t xml:space="preserve">4.58266973495483</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">4.61422538757324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71590757369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71240043640137</t>
+    <t xml:space="preserve">4.71590662002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71240139007568</t>
   </si>
   <si>
     <t xml:space="preserve">4.69486999511719</t>
@@ -944,25 +944,25 @@
     <t xml:space="preserve">4.6808443069458</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6913628578186</t>
+    <t xml:space="preserve">4.69136333465576</t>
   </si>
   <si>
     <t xml:space="preserve">4.66471576690674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64508008956909</t>
+    <t xml:space="preserve">4.64508104324341</t>
   </si>
   <si>
     <t xml:space="preserve">4.67313098907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61703062057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62684869766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48800182342529</t>
+    <t xml:space="preserve">4.61703109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6268482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48800086975098</t>
   </si>
   <si>
     <t xml:space="preserve">4.60721349716187</t>
@@ -971,34 +971,34 @@
     <t xml:space="preserve">4.52025842666626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51324558258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53288078308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57776117324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61562824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66752052307129</t>
+    <t xml:space="preserve">4.51324510574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53288125991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57776069641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61562776565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66752099990845</t>
   </si>
   <si>
     <t xml:space="preserve">4.67453384399414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75447559356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74045038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70258331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70679140090942</t>
+    <t xml:space="preserve">4.75447607040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74045085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7025842666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70679044723511</t>
   </si>
   <si>
     <t xml:space="preserve">4.66611814498901</t>
@@ -1007,22 +1007,22 @@
     <t xml:space="preserve">4.93680095672607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95222854614258</t>
+    <t xml:space="preserve">4.95222759246826</t>
   </si>
   <si>
     <t xml:space="preserve">4.92137336730957</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81478309631348</t>
+    <t xml:space="preserve">4.81478357315063</t>
   </si>
   <si>
     <t xml:space="preserve">4.84563875198364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88631057739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01534080505371</t>
+    <t xml:space="preserve">4.88631010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01534128189087</t>
   </si>
   <si>
     <t xml:space="preserve">5.14296865463257</t>
@@ -1031,28 +1031,28 @@
     <t xml:space="preserve">5.11632061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20327520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0910758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02515745162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10510110855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18504285812378</t>
+    <t xml:space="preserve">5.20327568054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09107637405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02515888214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10510158538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18504333496094</t>
   </si>
   <si>
     <t xml:space="preserve">5.14577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18083524703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17101812362671</t>
+    <t xml:space="preserve">5.18083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17101907730103</t>
   </si>
   <si>
     <t xml:space="preserve">5.12333393096924</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">5.06302642822266</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07985544204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15839624404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16821336746216</t>
+    <t xml:space="preserve">5.07985591888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15839576721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.168212890625</t>
   </si>
   <si>
     <t xml:space="preserve">5.20748329162598</t>
@@ -1079,82 +1079,82 @@
     <t xml:space="preserve">5.29443836212158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28882837295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32950162887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38840579986572</t>
+    <t xml:space="preserve">5.28882884979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32950067520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38840627670288</t>
   </si>
   <si>
     <t xml:space="preserve">5.37999105453491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38419771194458</t>
+    <t xml:space="preserve">5.38419914245605</t>
   </si>
   <si>
     <t xml:space="preserve">5.38139295578003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41365051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46273803710938</t>
+    <t xml:space="preserve">5.41365098953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46273851394653</t>
   </si>
   <si>
     <t xml:space="preserve">5.42907810211182</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44029855728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51883840560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52444887161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54829168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55951070785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59036588668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68433284759521</t>
+    <t xml:space="preserve">5.44029808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51883888244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52444839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54829120635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55951118469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59036540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68433332443237</t>
   </si>
   <si>
     <t xml:space="preserve">5.66890573501587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65908765792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71799421310425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69134712219238</t>
+    <t xml:space="preserve">5.65908813476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71799373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69134616851807</t>
   </si>
   <si>
     <t xml:space="preserve">5.66469812393188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71518802642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76287364959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54688882827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53426599502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3435263633728</t>
+    <t xml:space="preserve">5.71518850326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76287412643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54688787460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53426551818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34352588653564</t>
   </si>
   <si>
     <t xml:space="preserve">5.35474586486816</t>
@@ -1169,28 +1169,28 @@
     <t xml:space="preserve">5.40383338928223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32108592987061</t>
+    <t xml:space="preserve">5.32108545303345</t>
   </si>
   <si>
     <t xml:space="preserve">5.14998054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91856813430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12473630905151</t>
+    <t xml:space="preserve">4.9185676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12473678588867</t>
   </si>
   <si>
     <t xml:space="preserve">5.13595581054688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23833894729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26779079437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12894296646118</t>
+    <t xml:space="preserve">5.23833799362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26779127120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12894344329834</t>
   </si>
   <si>
     <t xml:space="preserve">5.12613821029663</t>
@@ -1199,22 +1199,22 @@
     <t xml:space="preserve">5.1065034866333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96765613555908</t>
+    <t xml:space="preserve">4.96765565872192</t>
   </si>
   <si>
     <t xml:space="preserve">5.15979862213135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25797319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35755109786987</t>
+    <t xml:space="preserve">5.25797367095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35755062103271</t>
   </si>
   <si>
     <t xml:space="preserve">5.4837760925293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35053873062134</t>
+    <t xml:space="preserve">5.3505392074585</t>
   </si>
   <si>
     <t xml:space="preserve">5.43365335464478</t>
@@ -1223,73 +1223,73 @@
     <t xml:space="preserve">5.48856830596924</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51380014419556</t>
+    <t xml:space="preserve">5.5137996673584</t>
   </si>
   <si>
     <t xml:space="preserve">5.44552707672119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45146369934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38022184371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4054536819458</t>
+    <t xml:space="preserve">5.45146322250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38022232055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40545320510864</t>
   </si>
   <si>
     <t xml:space="preserve">5.32827520370483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32085371017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3742847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3876428604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51528358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55832624435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6102728843689</t>
+    <t xml:space="preserve">5.32085418701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37428569793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38764333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51528453826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55832576751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61027336120605</t>
   </si>
   <si>
     <t xml:space="preserve">5.55090522766113</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63253593444824</t>
+    <t xml:space="preserve">5.63253688812256</t>
   </si>
   <si>
     <t xml:space="preserve">5.6191782951355</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70080900192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76017761230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79134511947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7245569229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73939895629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72158765792847</t>
+    <t xml:space="preserve">5.70080947875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76017713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79134559631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72455644607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73939847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72158813476562</t>
   </si>
   <si>
     <t xml:space="preserve">5.73197746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82548236846924</t>
+    <t xml:space="preserve">5.82548189163208</t>
   </si>
   <si>
     <t xml:space="preserve">5.85071325302124</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">5.87594509124756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91156578063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90266036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58355760574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52715730667114</t>
+    <t xml:space="preserve">5.91156482696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90265989303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58355808258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5271577835083</t>
   </si>
   <si>
     <t xml:space="preserve">5.50934743881226</t>
@@ -1316,40 +1316,40 @@
     <t xml:space="preserve">5.44255876541138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35053825378418</t>
+    <t xml:space="preserve">5.35053777694702</t>
   </si>
   <si>
     <t xml:space="preserve">5.27187585830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2496132850647</t>
+    <t xml:space="preserve">5.24961233139038</t>
   </si>
   <si>
     <t xml:space="preserve">5.304527759552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14720249176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08338165283203</t>
+    <t xml:space="preserve">5.14720296859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08338212966919</t>
   </si>
   <si>
     <t xml:space="preserve">5.00323581695557</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1620454788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06111907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04182481765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03291940689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0136251449585</t>
+    <t xml:space="preserve">5.16204500198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.061119556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04182529449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03291988372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01362466812134</t>
   </si>
   <si>
     <t xml:space="preserve">5.03588771820068</t>
@@ -1358,28 +1358,28 @@
     <t xml:space="preserve">4.97058296203613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92160511016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00472021102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13681364059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23625516891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20360231399536</t>
+    <t xml:space="preserve">4.92160415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00471925735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13681411743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23625469207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20360279083252</t>
   </si>
   <si>
     <t xml:space="preserve">5.22438144683838</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34460115432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31640148162842</t>
+    <t xml:space="preserve">5.34460163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31640195846558</t>
   </si>
   <si>
     <t xml:space="preserve">5.23328638076782</t>
@@ -1388,94 +1388,94 @@
     <t xml:space="preserve">5.09970903396606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12939214706421</t>
+    <t xml:space="preserve">5.12939310073853</t>
   </si>
   <si>
     <t xml:space="preserve">5.1783709526062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15313959121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13978242874146</t>
+    <t xml:space="preserve">5.15313911437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13978147506714</t>
   </si>
   <si>
     <t xml:space="preserve">5.20953893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25258159637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27781248092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34014844894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37131690979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33569622039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10712909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05221462249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96167755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97206687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97652006149292</t>
+    <t xml:space="preserve">5.25258111953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27781295776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34014892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3713173866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33569669723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10712957382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0522141456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96167802810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97206735610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97652053833008</t>
   </si>
   <si>
     <t xml:space="preserve">4.89785766601562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7167854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74201631546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78951120376587</t>
+    <t xml:space="preserve">4.71678495407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74201679229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78951072692871</t>
   </si>
   <si>
     <t xml:space="preserve">4.65741682052612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63663864135742</t>
+    <t xml:space="preserve">4.63663911819458</t>
   </si>
   <si>
     <t xml:space="preserve">4.65444850921631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73162746429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67225933074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54164981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65296411514282</t>
+    <t xml:space="preserve">4.73162698745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67225885391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54164934158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65296459197998</t>
   </si>
   <si>
     <t xml:space="preserve">4.62773323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63812255859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45111322402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54758644104004</t>
+    <t xml:space="preserve">4.63812208175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45111417770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54758596420288</t>
   </si>
   <si>
     <t xml:space="preserve">4.55203914642334</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">4.59211254119873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71233224868774</t>
+    <t xml:space="preserve">4.71233320236206</t>
   </si>
   <si>
     <t xml:space="preserve">4.86223649978638</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">4.83255243301392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80138444900513</t>
+    <t xml:space="preserve">4.80138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">4.9601936340332</t>
@@ -1508,49 +1508,49 @@
     <t xml:space="preserve">5.06408739089966</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09822463989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10861349105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11158227920532</t>
+    <t xml:space="preserve">5.09822416305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10861301422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11158180236816</t>
   </si>
   <si>
     <t xml:space="preserve">4.94832038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82364749908447</t>
+    <t xml:space="preserve">4.82364702224731</t>
   </si>
   <si>
     <t xml:space="preserve">4.83552122116089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86372041702271</t>
+    <t xml:space="preserve">4.86371994018555</t>
   </si>
   <si>
     <t xml:space="preserve">4.73014307022095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88598346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86075305938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07596206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04924631118774</t>
+    <t xml:space="preserve">4.88598394393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86075258255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07596158981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04924488067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.97355127334595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97503566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09525585174561</t>
+    <t xml:space="preserve">4.97503519058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09525632858276</t>
   </si>
   <si>
     <t xml:space="preserve">5.05518293380737</t>
@@ -1562,25 +1562,25 @@
     <t xml:space="preserve">4.85184764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87559461593628</t>
+    <t xml:space="preserve">4.87559509277344</t>
   </si>
   <si>
     <t xml:space="preserve">4.81919479370117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86668872833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06260299682617</t>
+    <t xml:space="preserve">4.86668968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06260395050049</t>
   </si>
   <si>
     <t xml:space="preserve">5.14275074005127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11751937866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11009788513184</t>
+    <t xml:space="preserve">5.11751890182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11009836196899</t>
   </si>
   <si>
     <t xml:space="preserve">5.27484369277954</t>
@@ -1595,19 +1595,19 @@
     <t xml:space="preserve">5.07002449035645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1828236579895</t>
+    <t xml:space="preserve">5.18282413482666</t>
   </si>
   <si>
     <t xml:space="preserve">5.17243432998657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19321250915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25703382492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22141218185425</t>
+    <t xml:space="preserve">5.19321298599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2570333480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22141265869141</t>
   </si>
   <si>
     <t xml:space="preserve">5.27335977554321</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">5.34311676025391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35647535324097</t>
+    <t xml:space="preserve">5.35647583007812</t>
   </si>
   <si>
     <t xml:space="preserve">5.38170671463013</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">5.35795974731445</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45740032196045</t>
+    <t xml:space="preserve">5.45740079879761</t>
   </si>
   <si>
     <t xml:space="preserve">5.49153709411621</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">5.62956762313843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995742797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58652544021606</t>
+    <t xml:space="preserve">5.63995695114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58652591705322</t>
   </si>
   <si>
     <t xml:space="preserve">5.63847303390503</t>
@@ -1646,22 +1646,22 @@
     <t xml:space="preserve">5.65183067321777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70823001861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68299913406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69190359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57613611221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45294857025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58058881759644</t>
+    <t xml:space="preserve">5.70822954177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68299961090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69190406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45294809341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58058834075928</t>
   </si>
   <si>
     <t xml:space="preserve">5.67260932922363</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">5.70377731323242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53161096572876</t>
+    <t xml:space="preserve">5.53161001205444</t>
   </si>
   <si>
     <t xml:space="preserve">5.54942083358765</t>
@@ -1679,34 +1679,34 @@
     <t xml:space="preserve">5.61620998382568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69932460784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75720882415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68893527984619</t>
+    <t xml:space="preserve">5.69932508468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75720834732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68893480300903</t>
   </si>
   <si>
     <t xml:space="preserve">5.74830389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76908206939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75127172470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73494625091553</t>
+    <t xml:space="preserve">5.76908302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75127220153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73494577407837</t>
   </si>
   <si>
     <t xml:space="preserve">5.7750186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79876565933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86110258102417</t>
+    <t xml:space="preserve">5.79876661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86110162734985</t>
   </si>
   <si>
     <t xml:space="preserve">5.86258697509766</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">5.884850025177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88930177688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85665082931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88336515426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89523983001709</t>
+    <t xml:space="preserve">5.88930225372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85665035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88336563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89523935317993</t>
   </si>
   <si>
     <t xml:space="preserve">5.89820718765259</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">5.79728174209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86407136917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89227056503296</t>
+    <t xml:space="preserve">5.86407089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89227151870728</t>
   </si>
   <si>
     <t xml:space="preserve">5.90711259841919</t>
@@ -1748,91 +1748,91 @@
     <t xml:space="preserve">5.99616479873657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04811191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20395231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26331996917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41025495529175</t>
+    <t xml:space="preserve">6.04811239242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20395278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26332092285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41025638580322</t>
   </si>
   <si>
     <t xml:space="preserve">6.35237312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37463665008545</t>
+    <t xml:space="preserve">6.37463617324829</t>
   </si>
   <si>
     <t xml:space="preserve">6.39986658096313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40135145187378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37908840179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43548774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41916179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43845653533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.490403175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4859504699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51118278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62249612808228</t>
+    <t xml:space="preserve">6.40135192871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37908792495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43548727035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41916227340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4384560585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49040365219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48595094680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51118230819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62249708175659</t>
   </si>
   <si>
     <t xml:space="preserve">6.64624404907227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63585519790649</t>
+    <t xml:space="preserve">6.63585472106934</t>
   </si>
   <si>
     <t xml:space="preserve">6.67147588729858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65960264205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73084449768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68038034439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0618200302124</t>
+    <t xml:space="preserve">6.65960168838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73084259033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68038082122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06181859970093</t>
   </si>
   <si>
     <t xml:space="preserve">7.06478786468506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02174615859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87332630157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84512710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86590480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9564414024353</t>
+    <t xml:space="preserve">7.02174663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87332677841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84512662887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86590623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644092559814</t>
   </si>
   <si>
     <t xml:space="preserve">7.0573673248291</t>
@@ -1841,31 +1841,31 @@
     <t xml:space="preserve">7.00542020797729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93714666366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98909473419189</t>
+    <t xml:space="preserve">6.93714714050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98909425735474</t>
   </si>
   <si>
     <t xml:space="preserve">6.76794862747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68483400344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6788969039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60171747207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80505418777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76201200485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84957885742188</t>
+    <t xml:space="preserve">6.68483352661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67889738082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60171699523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8050537109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76201295852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84957933425903</t>
   </si>
   <si>
     <t xml:space="preserve">6.69670724868774</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">6.75607490539551</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79911661148071</t>
+    <t xml:space="preserve">6.79911613464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.50672960281372</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">6.45626640319824</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46962547302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63437032699585</t>
+    <t xml:space="preserve">6.46962451934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63437080383301</t>
   </si>
   <si>
     <t xml:space="preserve">6.58836078643799</t>
@@ -1907,22 +1907,22 @@
     <t xml:space="preserve">6.62398099899292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75459146499634</t>
+    <t xml:space="preserve">6.75459098815918</t>
   </si>
   <si>
     <t xml:space="preserve">6.81841087341309</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85106372833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87777948379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84215784072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89410543441772</t>
+    <t xml:space="preserve">6.85106420516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87777900695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84215927124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89410638809204</t>
   </si>
   <si>
     <t xml:space="preserve">6.95495796203613</t>
@@ -1934,31 +1934,31 @@
     <t xml:space="preserve">7.18562126159668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13581895828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10624694824219</t>
+    <t xml:space="preserve">7.13581848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1062479019165</t>
   </si>
   <si>
     <t xml:space="preserve">7.112473487854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2058539390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19340372085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36615753173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54046583175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58715677261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55914258956909</t>
+    <t xml:space="preserve">7.20585441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1934027671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36615705490112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54046678543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58715581893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55914354324341</t>
   </si>
   <si>
     <t xml:space="preserve">7.54824924468994</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">7.51245164871216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58560037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51089763641357</t>
+    <t xml:space="preserve">7.58560132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51089572906494</t>
   </si>
   <si>
     <t xml:space="preserve">7.51556396484375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48288154602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4595365524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44397497177124</t>
+    <t xml:space="preserve">7.48288297653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45953750610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44397354125977</t>
   </si>
   <si>
     <t xml:space="preserve">7.31479740142822</t>
@@ -1994,67 +1994,67 @@
     <t xml:space="preserve">7.30078935623169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37238216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31946611404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46109342575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26655244827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5171217918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59182548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50311422348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38327550888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37860774993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50000190734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99886083602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0813455581665</t>
+    <t xml:space="preserve">7.37238073348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31946706771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46109437942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26655149459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51712083816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59182500839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50311326980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38327598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37860631942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50000095367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99886035919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08134698867798</t>
   </si>
   <si>
     <t xml:space="preserve">7.24476289749146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1155858039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39261484146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34125566482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54669141769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52023410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33036041259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39105892181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31324005126953</t>
+    <t xml:space="preserve">7.11558532714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39261436462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34125375747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54669237136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52023363113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33036136627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39105844497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31324052810669</t>
   </si>
   <si>
     <t xml:space="preserve">7.65719223022461</t>
@@ -2063,61 +2063,61 @@
     <t xml:space="preserve">7.60427665710449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68520593643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70388174057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85173463821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82060718536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84006309509277</t>
+    <t xml:space="preserve">7.6852068901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70388078689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85173559188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82060813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84006118774414</t>
   </si>
   <si>
     <t xml:space="preserve">7.84395313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7116641998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74279069900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87897109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92566204071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8283896446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76146745681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90620756149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92176866531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83227968215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99569463729858</t>
+    <t xml:space="preserve">7.71166324615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74279165267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8789701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92566061019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82839059829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76146841049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9062066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92176961898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83228063583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99569654464722</t>
   </si>
   <si>
     <t xml:space="preserve">7.94900608062744</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94511413574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98402309417725</t>
+    <t xml:space="preserve">7.9451150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98402404785156</t>
   </si>
   <si>
     <t xml:space="preserve">8.11631298065186</t>
@@ -2129,16 +2129,16 @@
     <t xml:space="preserve">7.75368404388428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7708044052124</t>
+    <t xml:space="preserve">7.77080488204956</t>
   </si>
   <si>
     <t xml:space="preserve">7.76613521575928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9879150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88286256790161</t>
+    <t xml:space="preserve">7.98791408538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88286161422729</t>
   </si>
   <si>
     <t xml:space="preserve">7.97624254226685</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">8.24471092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35754585266113</t>
+    <t xml:space="preserve">8.35754489898682</t>
   </si>
   <si>
     <t xml:space="preserve">8.23692893981934</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">8.33030891418457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37699890136719</t>
+    <t xml:space="preserve">8.3769998550415</t>
   </si>
   <si>
     <t xml:space="preserve">8.40423583984375</t>
@@ -2171,10 +2171,10 @@
     <t xml:space="preserve">8.52096080780029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55208683013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45092487335205</t>
+    <t xml:space="preserve">8.55208778381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45092391967773</t>
   </si>
   <si>
     <t xml:space="preserve">8.48983478546143</t>
@@ -2186,31 +2186,31 @@
     <t xml:space="preserve">8.4664888381958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58321380615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63379573822021</t>
+    <t xml:space="preserve">8.58321475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63379669189453</t>
   </si>
   <si>
     <t xml:space="preserve">8.69215774536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5559778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43536281585693</t>
+    <t xml:space="preserve">8.55597877502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43536186218262</t>
   </si>
   <si>
     <t xml:space="preserve">8.53652381896973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71939468383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64935779571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66881275177002</t>
+    <t xml:space="preserve">8.71939373016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64935874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66881370544434</t>
   </si>
   <si>
     <t xml:space="preserve">8.68437671661377</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">8.39163684844971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35612773895264</t>
+    <t xml:space="preserve">8.35612869262695</t>
   </si>
   <si>
     <t xml:space="preserve">8.08390331268311</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">8.03656005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15097236633301</t>
+    <t xml:space="preserve">8.15097332000732</t>
   </si>
   <si>
     <t xml:space="preserve">8.0602331161499</t>
@@ -2282,19 +2282,19 @@
     <t xml:space="preserve">8.02077865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12335777282715</t>
+    <t xml:space="preserve">8.12335681915283</t>
   </si>
   <si>
     <t xml:space="preserve">8.22987937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98527097702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04444980621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94187211990356</t>
+    <t xml:space="preserve">7.98527193069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0444507598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94187307357788</t>
   </si>
   <si>
     <t xml:space="preserve">7.87322425842285</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">8.07601261138916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96554517745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09179401397705</t>
+    <t xml:space="preserve">7.96554613113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09179496765137</t>
   </si>
   <si>
     <t xml:space="preserve">8.0562858581543</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">8.00894260406494</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93792724609375</t>
+    <t xml:space="preserve">7.93792819976807</t>
   </si>
   <si>
     <t xml:space="preserve">7.92609167098999</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11546516418457</t>
+    <t xml:space="preserve">8.11546611785889</t>
   </si>
   <si>
     <t xml:space="preserve">8.19042587280273</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">8.21409893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10757446289062</t>
+    <t xml:space="preserve">8.10757541656494</t>
   </si>
   <si>
     <t xml:space="preserve">8.35218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74276542663574</t>
+    <t xml:space="preserve">8.74276638031006</t>
   </si>
   <si>
     <t xml:space="preserve">8.67569732666016</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">8.44686985015869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46265125274658</t>
+    <t xml:space="preserve">8.4626522064209</t>
   </si>
   <si>
     <t xml:space="preserve">8.51788520812988</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">8.6401891708374</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62835311889648</t>
+    <t xml:space="preserve">8.6283540725708</t>
   </si>
   <si>
     <t xml:space="preserve">8.94792175292969</t>
@@ -2390,10 +2390,10 @@
     <t xml:space="preserve">8.15491962432861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31667613983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9576530456543</t>
+    <t xml:space="preserve">8.31667518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95765399932861</t>
   </si>
   <si>
     <t xml:space="preserve">7.58600759506226</t>
@@ -2411,13 +2411,13 @@
     <t xml:space="preserve">7.44239902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67122507095337</t>
+    <t xml:space="preserve">7.67122411727905</t>
   </si>
   <si>
     <t xml:space="preserve">6.67385625839233</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21620225906372</t>
+    <t xml:space="preserve">6.21620178222656</t>
   </si>
   <si>
     <t xml:space="preserve">6.21778011322021</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">5.32140970230103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13045740127563</t>
+    <t xml:space="preserve">5.13045787811279</t>
   </si>
   <si>
     <t xml:space="preserve">5.12572336196899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02630186080933</t>
+    <t xml:space="preserve">5.02630233764648</t>
   </si>
   <si>
     <t xml:space="preserve">5.45554971694946</t>
@@ -2459,25 +2459,25 @@
     <t xml:space="preserve">6.19568681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24618577957153</t>
+    <t xml:space="preserve">6.24618625640869</t>
   </si>
   <si>
     <t xml:space="preserve">6.09153127670288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83271980285645</t>
+    <t xml:space="preserve">5.83271932601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.13256168365479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17832660675049</t>
+    <t xml:space="preserve">6.17832708358765</t>
   </si>
   <si>
     <t xml:space="preserve">6.34402894973755</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43555974960327</t>
+    <t xml:space="preserve">6.43556022644043</t>
   </si>
   <si>
     <t xml:space="preserve">6.53182458877563</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">6.58074760437012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00157785415649</t>
+    <t xml:space="preserve">6.00157737731934</t>
   </si>
   <si>
     <t xml:space="preserve">6.0504994392395</t>
@@ -2525,19 +2525,19 @@
     <t xml:space="preserve">6.11678028106689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96843719482422</t>
+    <t xml:space="preserve">5.96843671798706</t>
   </si>
   <si>
     <t xml:space="preserve">5.79957866668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70331430435181</t>
+    <t xml:space="preserve">5.70331382751465</t>
   </si>
   <si>
     <t xml:space="preserve">5.99210929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1199369430542</t>
+    <t xml:space="preserve">6.11993646621704</t>
   </si>
   <si>
     <t xml:space="preserve">5.875328540802</t>
@@ -2555,40 +2555,40 @@
     <t xml:space="preserve">5.84218835830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85165739059448</t>
+    <t xml:space="preserve">5.85165691375732</t>
   </si>
   <si>
     <t xml:space="preserve">5.81536054611206</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87217283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10573387145996</t>
+    <t xml:space="preserve">5.87217235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1057333946228</t>
   </si>
   <si>
     <t xml:space="preserve">6.19726514816284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22882795333862</t>
+    <t xml:space="preserve">6.22882747650146</t>
   </si>
   <si>
     <t xml:space="preserve">6.2856388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35823249816895</t>
+    <t xml:space="preserve">6.35823202133179</t>
   </si>
   <si>
     <t xml:space="preserve">6.55076217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76065254211426</t>
+    <t xml:space="preserve">6.7606520652771</t>
   </si>
   <si>
     <t xml:space="preserve">6.92004251480103</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06365060806274</t>
+    <t xml:space="preserve">7.0636510848999</t>
   </si>
   <si>
     <t xml:space="preserve">6.84587049484253</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">6.4103102684021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50815439224243</t>
+    <t xml:space="preserve">6.50815391540527</t>
   </si>
   <si>
     <t xml:space="preserve">6.56338691711426</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">6.66596555709839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61862182617188</t>
+    <t xml:space="preserve">6.61862134933472</t>
   </si>
   <si>
     <t xml:space="preserve">6.48606014251709</t>
@@ -61350,7 +61350,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.651400463</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>4306206</v>
@@ -61371,6 +61371,32 @@
         <v>1750</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6508101852</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>3702035</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>13.0050001144409</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>12.664999961853</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>13.0050001144409</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>12.789999961853</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1752">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36455392837524</t>
+    <t xml:space="preserve">4.36455583572388</t>
   </si>
   <si>
     <t xml:space="preserve">PST.MI</t>
@@ -47,55 +47,55 @@
     <t xml:space="preserve">4.51181507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44288492202759</t>
+    <t xml:space="preserve">4.44288444519043</t>
   </si>
   <si>
     <t xml:space="preserve">4.41781902313232</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37708711624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33635520935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43975210189819</t>
+    <t xml:space="preserve">4.37708759307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3363561630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43975114822388</t>
   </si>
   <si>
     <t xml:space="preserve">4.4930157661438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46795082092285</t>
+    <t xml:space="preserve">4.46795034408569</t>
   </si>
   <si>
     <t xml:space="preserve">4.41155242919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27995824813843</t>
+    <t xml:space="preserve">4.27995777130127</t>
   </si>
   <si>
     <t xml:space="preserve">4.19849443435669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96663808822632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12016487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1734299659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08569955825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20476102828979</t>
+    <t xml:space="preserve">3.966637134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1201639175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17342853546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08569860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20476150512695</t>
   </si>
   <si>
     <t xml:space="preserve">4.25802516937256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17029571533203</t>
+    <t xml:space="preserve">4.17029619216919</t>
   </si>
   <si>
     <t xml:space="preserve">4.27682495117188</t>
@@ -104,88 +104,88 @@
     <t xml:space="preserve">4.16089630126953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07316637039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94783806800842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75044655799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35879564285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23973441123962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54365468025208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39012742042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40266084671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50605630874634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49039030075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63138461112976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61571931838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69404888153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82564306259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74104690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70344805717468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80997824668884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86324119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.929039478302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89457368850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.860107421875</t>
+    <t xml:space="preserve">4.07316732406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94783782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75044631958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35879516601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23973417282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54365515708923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39012789726257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40266013145447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50605654716492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49039006233215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63138484954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61571860313416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69404864311218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82564353942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74104571342468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70344829559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80997729301453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86324214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92903852462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89457392692566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8601086139679</t>
   </si>
   <si>
     <t xml:space="preserve">3.88517451286316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84130930900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86637496948242</t>
+    <t xml:space="preserve">3.84130954742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86637473106384</t>
   </si>
   <si>
     <t xml:space="preserve">3.83817601203918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0387020111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0669002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0637674331665</t>
+    <t xml:space="preserve">4.03870153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06689977645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06376695632935</t>
   </si>
   <si>
     <t xml:space="preserve">4.03243494033813</t>
@@ -197,37 +197,37 @@
     <t xml:space="preserve">4.02616882324219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10449838638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24236011505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22356033325195</t>
+    <t xml:space="preserve">4.10449934005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24236059188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22355985641479</t>
   </si>
   <si>
     <t xml:space="preserve">4.15149641036987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2298264503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16716289520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.110764503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04183483123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92590546607971</t>
+    <t xml:space="preserve">4.22982740402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16716241836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11076498031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04183387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92590594291687</t>
   </si>
   <si>
     <t xml:space="preserve">3.98856997489929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00736856460571</t>
+    <t xml:space="preserve">4.00736904144287</t>
   </si>
   <si>
     <t xml:space="preserve">4.02930212020874</t>
@@ -236,52 +236,52 @@
     <t xml:space="preserve">4.04810094833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13583087921143</t>
+    <t xml:space="preserve">4.13583135604858</t>
   </si>
   <si>
     <t xml:space="preserve">4.06063365936279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05749988555908</t>
+    <t xml:space="preserve">4.05750036239624</t>
   </si>
   <si>
     <t xml:space="preserve">4.08883237838745</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05436658859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763168334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11389827728271</t>
+    <t xml:space="preserve">4.05436754226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11389780044556</t>
   </si>
   <si>
     <t xml:space="preserve">4.18596220016479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23922634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24862670898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17969608306885</t>
+    <t xml:space="preserve">4.23922681808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24862623214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17969512939453</t>
   </si>
   <si>
     <t xml:space="preserve">4.11703157424927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21102857589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24549293518066</t>
+    <t xml:space="preserve">4.21102714538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24549198150635</t>
   </si>
   <si>
     <t xml:space="preserve">4.22042751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20162773132324</t>
+    <t xml:space="preserve">4.20162725448608</t>
   </si>
   <si>
     <t xml:space="preserve">4.23296022415161</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">4.12329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23609304428101</t>
+    <t xml:space="preserve">4.23609209060669</t>
   </si>
   <si>
     <t xml:space="preserve">4.18909502029419</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">4.28935718536377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25489282608032</t>
+    <t xml:space="preserve">4.25489187240601</t>
   </si>
   <si>
     <t xml:space="preserve">4.31442356109619</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">4.31128978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32382297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29875707626343</t>
+    <t xml:space="preserve">4.32382249832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29875802993774</t>
   </si>
   <si>
     <t xml:space="preserve">4.30815696716309</t>
@@ -335,328 +335,328 @@
     <t xml:space="preserve">4.20789480209351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33322143554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43207883834839</t>
+    <t xml:space="preserve">4.33322191238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43207931518555</t>
   </si>
   <si>
     <t xml:space="preserve">4.376060962677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36617469787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41560316085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06630897521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82575702667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92790937423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92131853103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03006219863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94109010696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84223365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79939675331116</t>
+    <t xml:space="preserve">4.36617422103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.415602684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06630992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8257577419281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9279100894928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92131900787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03006172180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94109034538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84223318099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79939532279968</t>
   </si>
   <si>
     <t xml:space="preserve">3.76973843574524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91143369674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0893759727478</t>
+    <t xml:space="preserve">3.91143345832825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08937644958496</t>
   </si>
   <si>
     <t xml:space="preserve">4.07949018478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17505168914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10255718231201</t>
+    <t xml:space="preserve">4.17505121231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10255575180054</t>
   </si>
   <si>
     <t xml:space="preserve">4.10585165023804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08278560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14539384841919</t>
+    <t xml:space="preserve">4.08278512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14539480209351</t>
   </si>
   <si>
     <t xml:space="preserve">4.13221406936646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08608102798462</t>
+    <t xml:space="preserve">4.08608055114746</t>
   </si>
   <si>
     <t xml:space="preserve">4.07619476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02676630020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00699615478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94438600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25084257125854</t>
+    <t xml:space="preserve">4.02676582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00699472427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94438576698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25084209442139</t>
   </si>
   <si>
     <t xml:space="preserve">4.22777509689331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25743246078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26402235031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32333612442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33651781082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2475471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16187047958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20470952987671</t>
+    <t xml:space="preserve">4.25743198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26402187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32333707809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33651733398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24754667282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1618709564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20470857620239</t>
   </si>
   <si>
     <t xml:space="preserve">4.09926128387451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11573696136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18493795394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13880491256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09267139434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1124415397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05312824249268</t>
+    <t xml:space="preserve">4.1157374382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18493700027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13880443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09267044067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11244201660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05312871932983</t>
   </si>
   <si>
     <t xml:space="preserve">4.12891817092896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11903238296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14209938049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15528011322021</t>
+    <t xml:space="preserve">4.11903285980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14209985733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15527963638306</t>
   </si>
   <si>
     <t xml:space="preserve">4.22118473052979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20800447463989</t>
+    <t xml:space="preserve">4.20800399780273</t>
   </si>
   <si>
     <t xml:space="preserve">3.9839289188385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04324293136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03994750976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00370025634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02347087860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0333571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01029062271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00040578842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99381422996521</t>
+    <t xml:space="preserve">4.04324340820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03994798660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00369930267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02347135543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03335666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01029014587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00040483474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99381375312805</t>
   </si>
   <si>
     <t xml:space="preserve">3.97733807563782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98063373565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91472792625427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96415734291077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98722434043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93120551109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99710941314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07289886474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04983234405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9246141910553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90154767036438</t>
+    <t xml:space="preserve">3.98063325881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91472887992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96415710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98722386360168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93120431900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99710893630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07289981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04983282089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92461514472961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90154814720154</t>
   </si>
   <si>
     <t xml:space="preserve">3.93450021743774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97074770927429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96086192131042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94768071174622</t>
+    <t xml:space="preserve">3.97074747085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96086144447327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94768142700195</t>
   </si>
   <si>
     <t xml:space="preserve">3.93779540061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88836717605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84552884101868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76314783096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72360491752625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71701526641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71042466163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70053958892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65111041069031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79610085487366</t>
+    <t xml:space="preserve">3.88836693763733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8455286026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76314854621887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72360610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7170147895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71042537689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70053863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65111064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7961003780365</t>
   </si>
   <si>
     <t xml:space="preserve">3.86530017852783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86859536170959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85870981216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17175722122192</t>
+    <t xml:space="preserve">3.86859607696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85871076583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17175626754761</t>
   </si>
   <si>
     <t xml:space="preserve">4.188232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17834758758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16846132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22448015213013</t>
+    <t xml:space="preserve">4.17834711074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16846227645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22447919845581</t>
   </si>
   <si>
     <t xml:space="preserve">4.18164157867432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2178897857666</t>
+    <t xml:space="preserve">4.21788930892944</t>
   </si>
   <si>
     <t xml:space="preserve">4.23766088485718</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21129941940308</t>
+    <t xml:space="preserve">4.21129894256592</t>
   </si>
   <si>
     <t xml:space="preserve">4.15198469161987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06301355361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02017593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99051904678345</t>
+    <t xml:space="preserve">4.0630145072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02017641067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99051856994629</t>
   </si>
   <si>
     <t xml:space="preserve">4.01688051223755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85541391372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83234739303589</t>
+    <t xml:space="preserve">3.85541439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83234786987305</t>
   </si>
   <si>
     <t xml:space="preserve">3.8521192073822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95427107810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95097637176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01358604431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13550901412964</t>
+    <t xml:space="preserve">3.95427179336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95097613334656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01358556747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1355094909668</t>
   </si>
   <si>
     <t xml:space="preserve">4.26731777191162</t>
@@ -665,16 +665,16 @@
     <t xml:space="preserve">4.25413703918457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2442512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20141363143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28049898147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24095630645752</t>
+    <t xml:space="preserve">4.24425220489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20141315460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28049850463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24095582962036</t>
   </si>
   <si>
     <t xml:space="preserve">4.10914707183838</t>
@@ -683,55 +683,55 @@
     <t xml:space="preserve">4.14868974685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19152736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21459341049194</t>
+    <t xml:space="preserve">4.19152784347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21459436416626</t>
   </si>
   <si>
     <t xml:space="preserve">4.12232780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19482326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28379344940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29697561264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1585750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12562370300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26072692871094</t>
+    <t xml:space="preserve">4.19482278823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28379392623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29697513580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15857601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12562274932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26072788238525</t>
   </si>
   <si>
     <t xml:space="preserve">4.27061319351196</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23555040359497</t>
+    <t xml:space="preserve">4.23555088043213</t>
   </si>
   <si>
     <t xml:space="preserve">4.2495756149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26360082626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20048761367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20750045776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22152614593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17945003509521</t>
+    <t xml:space="preserve">4.26360034942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20048856735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20750093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22152519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17945098876953</t>
   </si>
   <si>
     <t xml:space="preserve">4.2320442199707</t>
@@ -743,22 +743,22 @@
     <t xml:space="preserve">4.21100664138794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18646287918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16893148422241</t>
+    <t xml:space="preserve">4.18646335601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16893243789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.24256372451782</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25308179855347</t>
+    <t xml:space="preserve">4.25308132171631</t>
   </si>
   <si>
     <t xml:space="preserve">4.29515647888184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27411890029907</t>
+    <t xml:space="preserve">4.27411937713623</t>
   </si>
   <si>
     <t xml:space="preserve">4.25658893585205</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">4.19347524642944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1829571723938</t>
+    <t xml:space="preserve">4.18295669555664</t>
   </si>
   <si>
     <t xml:space="preserve">4.22503137588501</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">4.37580060958862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38982629776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41086292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35125732421875</t>
+    <t xml:space="preserve">4.38982582092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41086339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35125684738159</t>
   </si>
   <si>
     <t xml:space="preserve">4.36177587509155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36528253555298</t>
+    <t xml:space="preserve">4.3652811050415</t>
   </si>
   <si>
     <t xml:space="preserve">4.40735721588135</t>
@@ -800,25 +800,25 @@
     <t xml:space="preserve">4.28463792800903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29866313934326</t>
+    <t xml:space="preserve">4.29866361618042</t>
   </si>
   <si>
     <t xml:space="preserve">4.35826969146729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687891960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31268835067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29165029525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28113126754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30918121337891</t>
+    <t xml:space="preserve">4.36878824234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31268882751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29165077209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28113222122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30918169021606</t>
   </si>
   <si>
     <t xml:space="preserve">4.2671070098877</t>
@@ -827,31 +827,31 @@
     <t xml:space="preserve">4.3161940574646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35476350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34424495697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34775114059448</t>
+    <t xml:space="preserve">4.38281345367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35476303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3442440032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34775066375732</t>
   </si>
   <si>
     <t xml:space="preserve">4.31969976425171</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33723211288452</t>
+    <t xml:space="preserve">4.33723163604736</t>
   </si>
   <si>
     <t xml:space="preserve">4.30567598342896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33021974563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39333152770996</t>
+    <t xml:space="preserve">4.33021926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39333200454712</t>
   </si>
   <si>
     <t xml:space="preserve">4.32320690155029</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">4.40034484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41437005996704</t>
+    <t xml:space="preserve">4.41436958312988</t>
   </si>
   <si>
     <t xml:space="preserve">4.39683866500854</t>
@@ -869,37 +869,37 @@
     <t xml:space="preserve">4.40385150909424</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38631963729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30216932296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28814458847046</t>
+    <t xml:space="preserve">4.38631916046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.302170753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2881441116333</t>
   </si>
   <si>
     <t xml:space="preserve">4.27762603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46345710754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49501371383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46696376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4529390335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43891382217407</t>
+    <t xml:space="preserve">4.46345663070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49501276016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46696329116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45293807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43891334533691</t>
   </si>
   <si>
     <t xml:space="preserve">4.45644426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47046995162964</t>
+    <t xml:space="preserve">4.47046947479248</t>
   </si>
   <si>
     <t xml:space="preserve">4.49150705337524</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">4.50903797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52306318283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5370888710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51605081558228</t>
+    <t xml:space="preserve">4.52306270599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53708744049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51605129241943</t>
   </si>
   <si>
     <t xml:space="preserve">4.55111312866211</t>
@@ -923,43 +923,43 @@
     <t xml:space="preserve">4.5861759185791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58266973495483</t>
+    <t xml:space="preserve">4.58266925811768</t>
   </si>
   <si>
     <t xml:space="preserve">4.61422538757324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71590662002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71240139007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69486999511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66331386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6808443069458</t>
+    <t xml:space="preserve">4.71590709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71240091323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69486904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6633129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68084573745728</t>
   </si>
   <si>
     <t xml:space="preserve">4.69136333465576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66471576690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64508104324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67313098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61703109741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6268482208252</t>
+    <t xml:space="preserve">4.66471529006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64508152008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67313146591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61703014373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62684869766235</t>
   </si>
   <si>
     <t xml:space="preserve">4.48800086975098</t>
@@ -968,34 +968,34 @@
     <t xml:space="preserve">4.60721349716187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52025842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51324510574341</t>
+    <t xml:space="preserve">4.5202579498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51324558258057</t>
   </si>
   <si>
     <t xml:space="preserve">4.53288125991821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57776069641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61562776565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66752099990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67453384399414</t>
+    <t xml:space="preserve">4.57776117324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61562824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66752147674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67453289031982</t>
   </si>
   <si>
     <t xml:space="preserve">4.75447607040405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74045085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7025842666626</t>
+    <t xml:space="preserve">4.74045133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70258283615112</t>
   </si>
   <si>
     <t xml:space="preserve">4.70679044723511</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">4.93680095672607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95222759246826</t>
+    <t xml:space="preserve">4.95222806930542</t>
   </si>
   <si>
     <t xml:space="preserve">4.92137336730957</t>
@@ -1019,28 +1019,28 @@
     <t xml:space="preserve">4.84563875198364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88631010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01534128189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14296865463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11632061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20327568054199</t>
+    <t xml:space="preserve">4.88631057739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01534080505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14296913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11632108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20327663421631</t>
   </si>
   <si>
     <t xml:space="preserve">5.09107637405396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02515888214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10510158538818</t>
+    <t xml:space="preserve">5.02515745162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10510063171387</t>
   </si>
   <si>
     <t xml:space="preserve">5.18504333496094</t>
@@ -1049,109 +1049,109 @@
     <t xml:space="preserve">5.14577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17101907730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12333393096924</t>
+    <t xml:space="preserve">5.18083620071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17101860046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12333345413208</t>
   </si>
   <si>
     <t xml:space="preserve">5.08125877380371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06302642822266</t>
+    <t xml:space="preserve">5.0630259513855</t>
   </si>
   <si>
     <t xml:space="preserve">5.07985591888428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15839576721191</t>
+    <t xml:space="preserve">5.15839529037476</t>
   </si>
   <si>
     <t xml:space="preserve">5.168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20748329162598</t>
+    <t xml:space="preserve">5.20748376846313</t>
   </si>
   <si>
     <t xml:space="preserve">5.29443836212158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28882884979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32950067520142</t>
+    <t xml:space="preserve">5.28882837295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32950115203857</t>
   </si>
   <si>
     <t xml:space="preserve">5.38840627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37999105453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38419914245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38139295578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41365098953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46273851394653</t>
+    <t xml:space="preserve">5.37999057769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38419771194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38139247894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41365003585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46273803710938</t>
   </si>
   <si>
     <t xml:space="preserve">5.42907810211182</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44029808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51883888244629</t>
+    <t xml:space="preserve">5.44029855728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51883792877197</t>
   </si>
   <si>
     <t xml:space="preserve">5.52444839477539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54829120635986</t>
+    <t xml:space="preserve">5.54829072952271</t>
   </si>
   <si>
     <t xml:space="preserve">5.55951118469238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59036540985107</t>
+    <t xml:space="preserve">5.59036588668823</t>
   </si>
   <si>
     <t xml:space="preserve">5.68433332443237</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66890573501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65908813476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71799373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69134616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66469812393188</t>
+    <t xml:space="preserve">5.66890525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65908861160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71799421310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69134664535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66469860076904</t>
   </si>
   <si>
     <t xml:space="preserve">5.71518850326538</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76287412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54688787460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53426551818848</t>
+    <t xml:space="preserve">5.76287364959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54688882827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53426599502563</t>
   </si>
   <si>
     <t xml:space="preserve">5.34352588653564</t>
@@ -1163,22 +1163,22 @@
     <t xml:space="preserve">5.39822340011597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37157583236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40383338928223</t>
+    <t xml:space="preserve">5.37157535552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40383291244507</t>
   </si>
   <si>
     <t xml:space="preserve">5.32108545303345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14998054504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9185676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12473678588867</t>
+    <t xml:space="preserve">5.14998149871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91856813430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1247353553772</t>
   </si>
   <si>
     <t xml:space="preserve">5.13595581054688</t>
@@ -1187,70 +1187,70 @@
     <t xml:space="preserve">5.23833799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26779127120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12894344329834</t>
+    <t xml:space="preserve">5.2677903175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1289439201355</t>
   </si>
   <si>
     <t xml:space="preserve">5.12613821029663</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1065034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96765565872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15979862213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25797367095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35755062103271</t>
+    <t xml:space="preserve">5.10650253295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96765518188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15979766845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25797271728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35755109786987</t>
   </si>
   <si>
     <t xml:space="preserve">5.4837760925293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3505392074585</t>
+    <t xml:space="preserve">5.35053873062134</t>
   </si>
   <si>
     <t xml:space="preserve">5.43365335464478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48856830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5137996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44552707672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45146322250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38022232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40545320510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32827520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32085418701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37428569793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38764333724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51528453826904</t>
+    <t xml:space="preserve">5.4885687828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51380014419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44552659988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45146417617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38022184371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4054536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32827568054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32085466384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37428617477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38764381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51528406143188</t>
   </si>
   <si>
     <t xml:space="preserve">5.55832576751709</t>
@@ -1262,49 +1262,49 @@
     <t xml:space="preserve">5.55090522766113</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63253688812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6191782951355</t>
+    <t xml:space="preserve">5.63253545761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61917781829834</t>
   </si>
   <si>
     <t xml:space="preserve">5.70080947875977</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76017713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79134559631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72455644607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73939847946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72158813476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73197746276855</t>
+    <t xml:space="preserve">5.76017761230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79134511947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7245569229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73939895629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72158765792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7319769859314</t>
   </si>
   <si>
     <t xml:space="preserve">5.82548189163208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85071325302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87594509124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91156482696533</t>
+    <t xml:space="preserve">5.8507137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87594556808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91156578063965</t>
   </si>
   <si>
     <t xml:space="preserve">5.90265989303589</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58355808258057</t>
+    <t xml:space="preserve">5.58355760574341</t>
   </si>
   <si>
     <t xml:space="preserve">5.5271577835083</t>
@@ -1313,19 +1313,19 @@
     <t xml:space="preserve">5.50934743881226</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44255876541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35053777694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27187585830688</t>
+    <t xml:space="preserve">5.44255924224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35053825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27187538146973</t>
   </si>
   <si>
     <t xml:space="preserve">5.24961233139038</t>
   </si>
   <si>
-    <t xml:space="preserve">5.304527759552</t>
+    <t xml:space="preserve">5.30452728271484</t>
   </si>
   <si>
     <t xml:space="preserve">5.14720296859741</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">5.08338212966919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00323581695557</t>
+    <t xml:space="preserve">5.00323534011841</t>
   </si>
   <si>
     <t xml:space="preserve">5.16204500198364</t>
@@ -1343,43 +1343,43 @@
     <t xml:space="preserve">5.061119556427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03291988372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01362466812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03588771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97058296203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92160415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00471925735474</t>
+    <t xml:space="preserve">5.04182481765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03291893005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0136251449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03588724136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97058343887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92160511016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00471973419189</t>
   </si>
   <si>
     <t xml:space="preserve">5.13681411743164</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23625469207764</t>
+    <t xml:space="preserve">5.23625516891479</t>
   </si>
   <si>
     <t xml:space="preserve">5.20360279083252</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22438144683838</t>
+    <t xml:space="preserve">5.22438192367554</t>
   </si>
   <si>
     <t xml:space="preserve">5.34460163116455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31640195846558</t>
+    <t xml:space="preserve">5.31640100479126</t>
   </si>
   <si>
     <t xml:space="preserve">5.23328638076782</t>
@@ -1388,22 +1388,22 @@
     <t xml:space="preserve">5.09970903396606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12939310073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1783709526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15313911437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13978147506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20953893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25258111953735</t>
+    <t xml:space="preserve">5.12939214706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17837142944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15313959121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13978242874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20953845977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25258159637451</t>
   </si>
   <si>
     <t xml:space="preserve">5.27781295776367</t>
@@ -1415,13 +1415,13 @@
     <t xml:space="preserve">5.3713173866272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33569669723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10712957382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0522141456604</t>
+    <t xml:space="preserve">5.33569622039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10713005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05221462249756</t>
   </si>
   <si>
     <t xml:space="preserve">4.96167802810669</t>
@@ -1430,34 +1430,34 @@
     <t xml:space="preserve">4.97206735610962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97652053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89785766601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71678495407104</t>
+    <t xml:space="preserve">4.97652006149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89785718917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7167854309082</t>
   </si>
   <si>
     <t xml:space="preserve">4.74201679229736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78951072692871</t>
+    <t xml:space="preserve">4.78951120376587</t>
   </si>
   <si>
     <t xml:space="preserve">4.65741682052612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63663911819458</t>
+    <t xml:space="preserve">4.63663864135742</t>
   </si>
   <si>
     <t xml:space="preserve">4.65444850921631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73162698745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67225885391235</t>
+    <t xml:space="preserve">4.73162651062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67225933074951</t>
   </si>
   <si>
     <t xml:space="preserve">4.54164934158325</t>
@@ -1466,19 +1466,19 @@
     <t xml:space="preserve">4.65296459197998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62773323059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63812208175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45111417770386</t>
+    <t xml:space="preserve">4.62773275375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63812303543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4511137008667</t>
   </si>
   <si>
     <t xml:space="preserve">4.54758596420288</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55203914642334</t>
+    <t xml:space="preserve">4.55203866958618</t>
   </si>
   <si>
     <t xml:space="preserve">4.69600629806519</t>
@@ -1487,31 +1487,31 @@
     <t xml:space="preserve">4.59211254119873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71233320236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86223649978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90082597732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83255243301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80138492584229</t>
+    <t xml:space="preserve">4.71233224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86223602294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9008264541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83255290985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80138397216797</t>
   </si>
   <si>
     <t xml:space="preserve">4.9601936340332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06408739089966</t>
+    <t xml:space="preserve">5.06408786773682</t>
   </si>
   <si>
     <t xml:space="preserve">5.09822416305542</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10861301422119</t>
+    <t xml:space="preserve">5.10861349105835</t>
   </si>
   <si>
     <t xml:space="preserve">5.11158180236816</t>
@@ -1520,40 +1520,40 @@
     <t xml:space="preserve">4.94832038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82364702224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83552122116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86371994018555</t>
+    <t xml:space="preserve">4.82364749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83552074432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86372041702271</t>
   </si>
   <si>
     <t xml:space="preserve">4.73014307022095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88598394393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86075258255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07596158981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04924488067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97355127334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97503519058228</t>
+    <t xml:space="preserve">4.88598346710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86075210571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07596111297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04924583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97355222702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97503566741943</t>
   </si>
   <si>
     <t xml:space="preserve">5.09525632858276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05518293380737</t>
+    <t xml:space="preserve">5.05518245697021</t>
   </si>
   <si>
     <t xml:space="preserve">5.12197160720825</t>
@@ -1565,25 +1565,25 @@
     <t xml:space="preserve">4.87559509277344</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81919479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86668968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06260395050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14275074005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11751890182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11009836196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27484369277954</t>
+    <t xml:space="preserve">4.81919527053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86668872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06260347366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14274978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11751842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11009788513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2748441696167</t>
   </si>
   <si>
     <t xml:space="preserve">5.20211887359619</t>
@@ -1598,46 +1598,46 @@
     <t xml:space="preserve">5.18282413482666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17243432998657</t>
+    <t xml:space="preserve">5.17243385314941</t>
   </si>
   <si>
     <t xml:space="preserve">5.19321298599243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2570333480835</t>
+    <t xml:space="preserve">5.25703382492065</t>
   </si>
   <si>
     <t xml:space="preserve">5.22141265869141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27335977554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34311676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35647583007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38170671463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35795974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45740079879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49153709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62956762313843</t>
+    <t xml:space="preserve">5.27336025238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34311628341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35647535324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38170623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35795927047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45740032196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49153757095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62956809997559</t>
   </si>
   <si>
     <t xml:space="preserve">5.63995695114136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58652591705322</t>
+    <t xml:space="preserve">5.58652544021606</t>
   </si>
   <si>
     <t xml:space="preserve">5.63847303390503</t>
@@ -1646,31 +1646,31 @@
     <t xml:space="preserve">5.65183067321777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70822954177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68299961090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69190406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57613658905029</t>
+    <t xml:space="preserve">5.70823049545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68299913406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69190359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57613611221313</t>
   </si>
   <si>
     <t xml:space="preserve">5.45294809341431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58058834075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67260932922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70377731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53161001205444</t>
+    <t xml:space="preserve">5.58058929443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67260885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70377779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53161096572876</t>
   </si>
   <si>
     <t xml:space="preserve">5.54942083358765</t>
@@ -1682,34 +1682,34 @@
     <t xml:space="preserve">5.69932508468628</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75720834732056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68893480300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74830389022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76908302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75127220153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73494577407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7750186920166</t>
+    <t xml:space="preserve">5.75720882415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68893575668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74830293655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76908254623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75127172470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73494625091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77501916885376</t>
   </si>
   <si>
     <t xml:space="preserve">5.79876661300659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86110162734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86258697509766</t>
+    <t xml:space="preserve">5.86110258102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86258745193481</t>
   </si>
   <si>
     <t xml:space="preserve">5.884850025177</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">5.88930225372314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85665035247803</t>
+    <t xml:space="preserve">5.85665082931519</t>
   </si>
   <si>
     <t xml:space="preserve">5.88336563110352</t>
@@ -1727,37 +1727,37 @@
     <t xml:space="preserve">5.89523935317993</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89820718765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79728174209595</t>
+    <t xml:space="preserve">5.8982081413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79728221893311</t>
   </si>
   <si>
     <t xml:space="preserve">5.86407089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89227151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90711259841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93085956573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99616479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04811239242554</t>
+    <t xml:space="preserve">5.8922700881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90711355209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93086051940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99616527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04811191558838</t>
   </si>
   <si>
     <t xml:space="preserve">6.20395278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26332092285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41025638580322</t>
+    <t xml:space="preserve">6.2633204460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41025543212891</t>
   </si>
   <si>
     <t xml:space="preserve">6.35237312316895</t>
@@ -1766,139 +1766,139 @@
     <t xml:space="preserve">6.37463617324829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39986658096313</t>
+    <t xml:space="preserve">6.39986705780029</t>
   </si>
   <si>
     <t xml:space="preserve">6.40135192871094</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37908792495728</t>
+    <t xml:space="preserve">6.37908697128296</t>
   </si>
   <si>
     <t xml:space="preserve">6.43548727035522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41916227340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4384560585022</t>
+    <t xml:space="preserve">6.41916131973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43845653533936</t>
   </si>
   <si>
     <t xml:space="preserve">6.49040365219116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48595094680786</t>
+    <t xml:space="preserve">6.48594999313354</t>
   </si>
   <si>
     <t xml:space="preserve">6.51118230819702</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62249708175659</t>
+    <t xml:space="preserve">6.62249660491943</t>
   </si>
   <si>
     <t xml:space="preserve">6.64624404907227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63585472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67147588729858</t>
+    <t xml:space="preserve">6.63585567474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67147445678711</t>
   </si>
   <si>
     <t xml:space="preserve">6.65960168838501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73084259033203</t>
+    <t xml:space="preserve">6.73084354400635</t>
   </si>
   <si>
     <t xml:space="preserve">6.68038082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06181859970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06478786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02174663543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87332677841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84512662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86590623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644092559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0573673248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00542020797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93714714050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98909425735474</t>
+    <t xml:space="preserve">7.06181955337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06478929519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0217456817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87332630157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84512758255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86590576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644044876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05736780166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00542163848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93714666366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98909521102905</t>
   </si>
   <si>
     <t xml:space="preserve">6.76794862747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68483352661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67889738082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60171699523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8050537109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76201295852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84957933425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69670724868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75607490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79911613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50672960281372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61952829360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6032018661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55125570297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51711845397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45626640319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46962451934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63437080383301</t>
+    <t xml:space="preserve">6.68483257293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67889547348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60171842575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80505323410034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76201248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84957885742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69670629501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75607538223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79911661148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50672912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61952781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60320234298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55125522613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51711893081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4562668800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4696249961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63437032699585</t>
   </si>
   <si>
     <t xml:space="preserve">6.58836078643799</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">6.75459098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81841087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106420516968</t>
+    <t xml:space="preserve">6.81841135025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8510627746582</t>
   </si>
   <si>
     <t xml:space="preserve">6.87777900695801</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">6.84215927124023</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89410638809204</t>
+    <t xml:space="preserve">6.89410495758057</t>
   </si>
   <si>
     <t xml:space="preserve">6.95495796203613</t>
@@ -1931,76 +1931,76 @@
     <t xml:space="preserve">7.06033515930176</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18562126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13581848144531</t>
+    <t xml:space="preserve">7.18562173843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13581800460815</t>
   </si>
   <si>
     <t xml:space="preserve">7.1062479019165</t>
   </si>
   <si>
-    <t xml:space="preserve">7.112473487854</t>
+    <t xml:space="preserve">7.11247396469116</t>
   </si>
   <si>
     <t xml:space="preserve">7.20585441589355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1934027671814</t>
+    <t xml:space="preserve">7.19340324401855</t>
   </si>
   <si>
     <t xml:space="preserve">7.36615705490112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54046678543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58715581893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55914354324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54824924468994</t>
+    <t xml:space="preserve">7.54046630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58715677261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55914211273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54824781417847</t>
   </si>
   <si>
     <t xml:space="preserve">7.51245164871216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58560132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51089572906494</t>
+    <t xml:space="preserve">7.58560037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51089715957642</t>
   </si>
   <si>
     <t xml:space="preserve">7.51556396484375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48288297653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45953750610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44397354125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31479740142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34748029708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30078935623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37238073348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31946706771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46109437942505</t>
+    <t xml:space="preserve">7.48288154602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45953559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4439754486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31479692459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34748077392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30079030990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37238264083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31946659088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46109390258789</t>
   </si>
   <si>
     <t xml:space="preserve">7.26655149459839</t>
@@ -2009,115 +2009,115 @@
     <t xml:space="preserve">7.51712083816528</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59182500839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50311326980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38327598571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37860631942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50000095367432</t>
+    <t xml:space="preserve">7.59182643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50311470031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38327646255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37860822677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50000143051147</t>
   </si>
   <si>
     <t xml:space="preserve">6.99886035919189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08134698867798</t>
+    <t xml:space="preserve">7.0813455581665</t>
   </si>
   <si>
     <t xml:space="preserve">7.24476289749146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11558532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39261436462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34125375747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54669237136841</t>
+    <t xml:space="preserve">7.11558628082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39261484146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34125566482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54669284820557</t>
   </si>
   <si>
     <t xml:space="preserve">7.52023363113403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33036136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39105844497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31324052810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65719223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60427665710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6852068901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70388078689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85173559188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82060813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84006118774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84395313262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71166324615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74279165267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8789701461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92566061019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82839059829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76146841049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9062066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92176961898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83228063583374</t>
+    <t xml:space="preserve">7.33036088943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39105796813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31324100494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65719270706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60427618026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68520450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70388221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85173416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82060718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84006309509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84395122528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71166276931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74279069900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87896966934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92566156387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82839012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76146697998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90620708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92176914215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83227920532227</t>
   </si>
   <si>
     <t xml:space="preserve">7.99569654464722</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94900608062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9451150894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98402404785156</t>
+    <t xml:space="preserve">7.94900512695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94511461257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9840235710144</t>
   </si>
   <si>
     <t xml:space="preserve">8.11631298065186</t>
@@ -2126,43 +2126,43 @@
     <t xml:space="preserve">8.00347805023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75368404388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77080488204956</t>
+    <t xml:space="preserve">7.75368452072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7708044052124</t>
   </si>
   <si>
     <t xml:space="preserve">7.76613521575928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98791408538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88286161422729</t>
+    <t xml:space="preserve">7.9879150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88286209106445</t>
   </si>
   <si>
     <t xml:space="preserve">7.97624254226685</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23303890228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24471092224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35754489898682</t>
+    <t xml:space="preserve">8.23303699493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24470996856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3575439453125</t>
   </si>
   <si>
     <t xml:space="preserve">8.23692893981934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33030891418457</t>
+    <t xml:space="preserve">8.33030986785889</t>
   </si>
   <si>
     <t xml:space="preserve">8.3769998550415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40423583984375</t>
+    <t xml:space="preserve">8.40423679351807</t>
   </si>
   <si>
     <t xml:space="preserve">8.50150585174561</t>
@@ -2174,64 +2174,64 @@
     <t xml:space="preserve">8.55208778381348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45092391967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48983478546143</t>
+    <t xml:space="preserve">8.45092487335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48983287811279</t>
   </si>
   <si>
     <t xml:space="preserve">8.47427082061768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4664888381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58321475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63379669189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69215774536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55597877502441</t>
+    <t xml:space="preserve">8.46648788452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58321380615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6337947845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69215869903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5559778213501</t>
   </si>
   <si>
     <t xml:space="preserve">8.43536186218262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53652381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71939373016357</t>
+    <t xml:space="preserve">8.53652477264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71939468383789</t>
   </si>
   <si>
     <t xml:space="preserve">8.64935874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66881370544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68437671661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73093032836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58100986480713</t>
+    <t xml:space="preserve">8.66881275177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68437576293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73093128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58100891113281</t>
   </si>
   <si>
     <t xml:space="preserve">8.6599178314209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55339336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62440872192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64807891845703</t>
+    <t xml:space="preserve">8.55339241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62440967559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64807987213135</t>
   </si>
   <si>
     <t xml:space="preserve">8.56917381286621</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">8.13913822174072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03656005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15097332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0602331161499</t>
+    <t xml:space="preserve">8.03655910491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15097236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06023216247559</t>
   </si>
   <si>
     <t xml:space="preserve">8.19437122344971</t>
@@ -2276,97 +2276,97 @@
     <t xml:space="preserve">8.02472400665283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09573936462402</t>
+    <t xml:space="preserve">8.09573745727539</t>
   </si>
   <si>
     <t xml:space="preserve">8.02077865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12335681915283</t>
+    <t xml:space="preserve">8.12335586547852</t>
   </si>
   <si>
     <t xml:space="preserve">8.22987937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98527193069458</t>
+    <t xml:space="preserve">7.98527050018311</t>
   </si>
   <si>
     <t xml:space="preserve">8.0444507598877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94187307357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87322425842285</t>
+    <t xml:space="preserve">7.94187211990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87322473526001</t>
   </si>
   <si>
     <t xml:space="preserve">8.07601261138916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96554613113403</t>
+    <t xml:space="preserve">7.96554470062256</t>
   </si>
   <si>
     <t xml:space="preserve">8.09179496765137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0562858581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00894260406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93792819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92609167098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11546611785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19042587280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21409893035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10757541656494</t>
+    <t xml:space="preserve">8.05628490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00894165039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93792915344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92609262466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11546516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19042682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21409702301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10757446289062</t>
   </si>
   <si>
     <t xml:space="preserve">8.35218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74276638031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67569732666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16675472259521</t>
+    <t xml:space="preserve">8.74276733398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67569637298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16675567626953</t>
   </si>
   <si>
     <t xml:space="preserve">8.28905773162842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44686985015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4626522064209</t>
+    <t xml:space="preserve">8.44687080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46265125274658</t>
   </si>
   <si>
     <t xml:space="preserve">8.51788520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60468196868896</t>
+    <t xml:space="preserve">8.60468101501465</t>
   </si>
   <si>
     <t xml:space="preserve">8.70725917816162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66386032104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6401891708374</t>
+    <t xml:space="preserve">8.66386127471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64019012451172</t>
   </si>
   <si>
     <t xml:space="preserve">8.6283540725708</t>
@@ -2375,103 +2375,103 @@
     <t xml:space="preserve">8.94792175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08206272125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9045238494873</t>
+    <t xml:space="preserve">9.08206176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90452289581299</t>
   </si>
   <si>
     <t xml:space="preserve">8.91241455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28116798400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15491962432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31667518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95765399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58600759506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30825853347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59074211120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64439725875854</t>
+    <t xml:space="preserve">8.28116703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1549186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31667613983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95765495300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5860071182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30826044082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5907416343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6443977355957</t>
   </si>
   <si>
     <t xml:space="preserve">7.44239902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67122411727905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67385625839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21620178222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21778011322021</t>
+    <t xml:space="preserve">7.67122554779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67385578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21620225906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21778059005737</t>
   </si>
   <si>
     <t xml:space="preserve">4.84797477722168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32140970230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13045787811279</t>
+    <t xml:space="preserve">5.32141017913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13045740127563</t>
   </si>
   <si>
     <t xml:space="preserve">5.12572336196899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02630233764648</t>
+    <t xml:space="preserve">5.02630138397217</t>
   </si>
   <si>
     <t xml:space="preserve">5.45554971694946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47290897369385</t>
+    <t xml:space="preserve">5.47290849685669</t>
   </si>
   <si>
     <t xml:space="preserve">5.66228294372559</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04892110824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10415506362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38979434967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19568681716919</t>
+    <t xml:space="preserve">6.04892158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10415601730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38979387283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19568634033203</t>
   </si>
   <si>
     <t xml:space="preserve">6.24618625640869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09153127670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83271932601929</t>
+    <t xml:space="preserve">6.09153079986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83271980285645</t>
   </si>
   <si>
     <t xml:space="preserve">6.13256168365479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17832708358765</t>
+    <t xml:space="preserve">6.17832660675049</t>
   </si>
   <si>
     <t xml:space="preserve">6.34402894973755</t>
@@ -2480,115 +2480,115 @@
     <t xml:space="preserve">6.43556022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53182458877563</t>
+    <t xml:space="preserve">6.53182554244995</t>
   </si>
   <si>
     <t xml:space="preserve">6.55391883850098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58074760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00157737731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0504994392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07574987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00631284713745</t>
+    <t xml:space="preserve">6.58074712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00157833099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05049991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07574939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00631237030029</t>
   </si>
   <si>
     <t xml:space="preserve">5.87848520278931</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97159337997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93214082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83745336532593</t>
+    <t xml:space="preserve">5.97159385681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9321403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83745384216309</t>
   </si>
   <si>
     <t xml:space="preserve">6.21935796737671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20831155776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33613872528076</t>
+    <t xml:space="preserve">6.20831203460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33613920211792</t>
   </si>
   <si>
     <t xml:space="preserve">6.11678028106689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96843671798706</t>
+    <t xml:space="preserve">5.96843767166138</t>
   </si>
   <si>
     <t xml:space="preserve">5.79957866668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70331382751465</t>
+    <t xml:space="preserve">5.70331335067749</t>
   </si>
   <si>
     <t xml:space="preserve">5.99210929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11993646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.875328540802</t>
+    <t xml:space="preserve">6.11993741989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87532901763916</t>
   </si>
   <si>
     <t xml:space="preserve">5.76801681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67017316818237</t>
+    <t xml:space="preserve">5.67017364501953</t>
   </si>
   <si>
     <t xml:space="preserve">5.88795375823975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84218835830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85165691375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81536054611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87217235565186</t>
+    <t xml:space="preserve">5.84218788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85165739059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81535959243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87217283248901</t>
   </si>
   <si>
     <t xml:space="preserve">6.1057333946228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19726514816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22882747650146</t>
+    <t xml:space="preserve">6.19726467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22882699966431</t>
   </si>
   <si>
     <t xml:space="preserve">6.2856388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35823202133179</t>
+    <t xml:space="preserve">6.35823249816895</t>
   </si>
   <si>
     <t xml:space="preserve">6.55076217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7606520652771</t>
+    <t xml:space="preserve">6.76065301895142</t>
   </si>
   <si>
     <t xml:space="preserve">6.92004251480103</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0636510848999</t>
+    <t xml:space="preserve">7.06364965438843</t>
   </si>
   <si>
     <t xml:space="preserve">6.84587049484253</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">6.76696491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4103102684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50815391540527</t>
+    <t xml:space="preserve">6.41031074523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50815343856812</t>
   </si>
   <si>
     <t xml:space="preserve">6.56338691711426</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">6.69594955444336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66596555709839</t>
+    <t xml:space="preserve">6.66596508026123</t>
   </si>
   <si>
     <t xml:space="preserve">6.61862134933472</t>
@@ -2618,16 +2618,16 @@
     <t xml:space="preserve">6.48606014251709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61970043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73284292221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43440723419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4803204536438</t>
+    <t xml:space="preserve">6.61969995498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73284244537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43440771102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48032093048096</t>
   </si>
   <si>
     <t xml:space="preserve">6.35077953338623</t>
@@ -2636,16 +2636,16 @@
     <t xml:space="preserve">6.54427146911621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34586048126221</t>
+    <t xml:space="preserve">6.34586095809937</t>
   </si>
   <si>
     <t xml:space="preserve">6.35733890533447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38521432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48852014541626</t>
+    <t xml:space="preserve">6.38521480560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48851919174194</t>
   </si>
   <si>
     <t xml:space="preserve">6.4524450302124</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">6.40161180496216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25075531005859</t>
+    <t xml:space="preserve">6.25075483322144</t>
   </si>
   <si>
     <t xml:space="preserve">6.30486679077148</t>
@@ -2666,22 +2666,22 @@
     <t xml:space="preserve">6.39997243881226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42784881591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44588613510132</t>
+    <t xml:space="preserve">6.42784833908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44588565826416</t>
   </si>
   <si>
     <t xml:space="preserve">6.71152591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76071929931641</t>
+    <t xml:space="preserve">6.76071977615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.82139015197754</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71316528320312</t>
+    <t xml:space="preserve">6.71316576004028</t>
   </si>
   <si>
     <t xml:space="preserve">6.68037080764771</t>
@@ -2693,34 +2693,34 @@
     <t xml:space="preserve">6.47704076766968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46064376831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23927593231201</t>
+    <t xml:space="preserve">6.46064424514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23927640914917</t>
   </si>
   <si>
     <t xml:space="preserve">6.35569906234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47376108169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5180344581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5163950920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41473054885864</t>
+    <t xml:space="preserve">6.47376155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51803493499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51639556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41473007202148</t>
   </si>
   <si>
     <t xml:space="preserve">6.46556282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57870626449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68365144729614</t>
+    <t xml:space="preserve">6.57870578765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68365097045898</t>
   </si>
   <si>
     <t xml:space="preserve">6.67545223236084</t>
@@ -2729,22 +2729,22 @@
     <t xml:space="preserve">6.59510326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56722784042358</t>
+    <t xml:space="preserve">6.56722831726074</t>
   </si>
   <si>
     <t xml:space="preserve">6.46392297744751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44260597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50983572006226</t>
+    <t xml:space="preserve">6.4426064491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50983619689941</t>
   </si>
   <si>
     <t xml:space="preserve">6.3983325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48524045944214</t>
+    <t xml:space="preserve">6.48523902893066</t>
   </si>
   <si>
     <t xml:space="preserve">6.50655651092529</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">6.43112802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4360466003418</t>
+    <t xml:space="preserve">6.43604755401611</t>
   </si>
   <si>
     <t xml:space="preserve">6.34094142913818</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">6.29338836669922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30650615692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52459478378296</t>
+    <t xml:space="preserve">6.30650520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52459383010864</t>
   </si>
   <si>
     <t xml:space="preserve">6.39013433456421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54263114929199</t>
+    <t xml:space="preserve">6.54263162612915</t>
   </si>
   <si>
     <t xml:space="preserve">6.53115272521973</t>
@@ -2783,22 +2783,22 @@
     <t xml:space="preserve">6.49671840667725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36389827728271</t>
+    <t xml:space="preserve">6.36389780044556</t>
   </si>
   <si>
     <t xml:space="preserve">6.14253091812134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22943830490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28026962280273</t>
+    <t xml:space="preserve">6.22943735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28027057647705</t>
   </si>
   <si>
     <t xml:space="preserve">6.26715183258057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21959924697876</t>
+    <t xml:space="preserve">6.21959972381592</t>
   </si>
   <si>
     <t xml:space="preserve">6.33766174316406</t>
@@ -2807,37 +2807,37 @@
     <t xml:space="preserve">6.21140098571777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20484113693237</t>
+    <t xml:space="preserve">6.20484161376953</t>
   </si>
   <si>
     <t xml:space="preserve">6.15892839431763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19500303268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63117837905884</t>
+    <t xml:space="preserve">6.19500350952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.631178855896</t>
   </si>
   <si>
     <t xml:space="preserve">6.57378673553467</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57050752639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57214641571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58690547943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5885443687439</t>
+    <t xml:space="preserve">6.57050704956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57214689254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58690500259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58854484558105</t>
   </si>
   <si>
     <t xml:space="preserve">6.25895357131958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.336021900177</t>
+    <t xml:space="preserve">6.33602237701416</t>
   </si>
   <si>
     <t xml:space="preserve">6.34422063827515</t>
@@ -2849,46 +2849,46 @@
     <t xml:space="preserve">6.23599672317505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22451877593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12449312210083</t>
+    <t xml:space="preserve">6.22451829910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12449359893799</t>
   </si>
   <si>
     <t xml:space="preserve">6.08021974563599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82441759109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74570941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7391505241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87688970565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93264198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11957359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32126426696777</t>
+    <t xml:space="preserve">5.82441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74570894241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73915004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87689065933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93264150619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11957406997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32126379013062</t>
   </si>
   <si>
     <t xml:space="preserve">6.2179594039917</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43768692016602</t>
+    <t xml:space="preserve">6.43768644332886</t>
   </si>
   <si>
     <t xml:space="preserve">6.59674263000488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54919004440308</t>
+    <t xml:space="preserve">6.54919052124023</t>
   </si>
   <si>
     <t xml:space="preserve">6.74760103225708</t>
@@ -2897,19 +2897,19 @@
     <t xml:space="preserve">6.97224807739258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06243419647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18213701248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25920486450195</t>
+    <t xml:space="preserve">7.06243515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18213748931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25920534133911</t>
   </si>
   <si>
     <t xml:space="preserve">7.14770174026489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18547868728638</t>
+    <t xml:space="preserve">7.18547773361206</t>
   </si>
   <si>
     <t xml:space="preserve">7.34753084182739</t>
@@ -2921,43 +2921,43 @@
     <t xml:space="preserve">7.35087299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13702917098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19383144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07855606079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10361623764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02342510223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0117301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02175426483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03177833557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97497701644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96996355056763</t>
+    <t xml:space="preserve">7.13702869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19383096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07855653762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10361671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02342557907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01172971725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0217547416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03177881240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97497606277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96996402740479</t>
   </si>
   <si>
     <t xml:space="preserve">7.0818977355957</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00838947296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98165845870972</t>
+    <t xml:space="preserve">7.00838994979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98165893554688</t>
   </si>
   <si>
     <t xml:space="preserve">6.82127618789673</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">6.96160984039307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99001121520996</t>
+    <t xml:space="preserve">6.99001216888428</t>
   </si>
   <si>
     <t xml:space="preserve">6.94991588592529</t>
@@ -2978,43 +2978,43 @@
     <t xml:space="preserve">6.9231858253479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13368797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28237628936768</t>
+    <t xml:space="preserve">7.13368844985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28237676620483</t>
   </si>
   <si>
     <t xml:space="preserve">7.178795337677</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12867546081543</t>
+    <t xml:space="preserve">7.1286768913269</t>
   </si>
   <si>
     <t xml:space="preserve">7.04514312744141</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97664642333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00003576278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94156360626221</t>
+    <t xml:space="preserve">6.976646900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00003528594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94156312942505</t>
   </si>
   <si>
     <t xml:space="preserve">7.01340103149414</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94824504852295</t>
+    <t xml:space="preserve">6.94824552536011</t>
   </si>
   <si>
     <t xml:space="preserve">6.90647888183594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85635948181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98500061035156</t>
+    <t xml:space="preserve">6.85635995864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98499965667725</t>
   </si>
   <si>
     <t xml:space="preserve">6.81626415252686</t>
@@ -3023,31 +3023,31 @@
     <t xml:space="preserve">6.8780779838562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74609708786011</t>
+    <t xml:space="preserve">6.74609661102295</t>
   </si>
   <si>
     <t xml:space="preserve">6.92819690704346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91650342941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40934610366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52796268463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70170927047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8988471031189</t>
+    <t xml:space="preserve">6.91650247573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4093451499939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52796220779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70171165466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89884757995605</t>
   </si>
   <si>
     <t xml:space="preserve">7.99407386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94729518890381</t>
+    <t xml:space="preserve">7.94729614257812</t>
   </si>
   <si>
     <t xml:space="preserve">8.06089973449707</t>
@@ -3056,61 +3056,61 @@
     <t xml:space="preserve">8.08428955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16113948822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06257247924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92056560516357</t>
+    <t xml:space="preserve">8.16114044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06257057189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9205641746521</t>
   </si>
   <si>
     <t xml:space="preserve">7.77187776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85039758682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05588912963867</t>
+    <t xml:space="preserve">7.85039806365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05588817596436</t>
   </si>
   <si>
     <t xml:space="preserve">7.9589900970459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97736787796021</t>
+    <t xml:space="preserve">7.97736740112305</t>
   </si>
   <si>
     <t xml:space="preserve">8.02581691741943</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85541105270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20958805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24968338012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31149864196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33154582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22796630859375</t>
+    <t xml:space="preserve">7.85541152954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2095890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24968433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31149768829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33154678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22796535491943</t>
   </si>
   <si>
     <t xml:space="preserve">8.38667774200439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47021102905273</t>
+    <t xml:space="preserve">8.47021007537842</t>
   </si>
   <si>
     <t xml:space="preserve">8.54538917541504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50780010223389</t>
+    <t xml:space="preserve">8.5078010559082</t>
   </si>
   <si>
     <t xml:space="preserve">8.58297920227051</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">8.53285980224609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71663188934326</t>
+    <t xml:space="preserve">8.71663093566895</t>
   </si>
   <si>
     <t xml:space="preserve">8.67068862915039</t>
@@ -3128,73 +3128,73 @@
     <t xml:space="preserve">8.73333835601807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63727474212646</t>
+    <t xml:space="preserve">8.63727569580078</t>
   </si>
   <si>
     <t xml:space="preserve">8.77510452270508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69992542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74586868286133</t>
+    <t xml:space="preserve">8.69992446899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7458667755127</t>
   </si>
   <si>
     <t xml:space="preserve">8.73751544952393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81269550323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00481796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06746959686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05493927001953</t>
+    <t xml:space="preserve">8.81269454956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0048189163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06746864318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05493831634521</t>
   </si>
   <si>
     <t xml:space="preserve">9.11341190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13847064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12594127655029</t>
+    <t xml:space="preserve">9.13847255706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12594223022461</t>
   </si>
   <si>
     <t xml:space="preserve">8.9964656829834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01735019683838</t>
+    <t xml:space="preserve">9.01734924316406</t>
   </si>
   <si>
     <t xml:space="preserve">9.00899600982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90875625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90040302276611</t>
+    <t xml:space="preserve">8.90875816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90040397644043</t>
   </si>
   <si>
     <t xml:space="preserve">9.00064277648926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.988112449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86699104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86281299591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06329250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02987957000732</t>
+    <t xml:space="preserve">8.98811340332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8669900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86281394958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06329154968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02988052368164</t>
   </si>
   <si>
     <t xml:space="preserve">9.04240894317627</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">9.10505771636963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23035717010498</t>
+    <t xml:space="preserve">9.23035621643066</t>
   </si>
   <si>
     <t xml:space="preserve">9.16353130340576</t>
@@ -3224,58 +3224,58 @@
     <t xml:space="preserve">9.376540184021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33477401733398</t>
+    <t xml:space="preserve">9.33477306365967</t>
   </si>
   <si>
     <t xml:space="preserve">9.21782779693604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22200393676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28883075714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43083667755127</t>
+    <t xml:space="preserve">9.22200489044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28882884979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43083572387695</t>
   </si>
   <si>
     <t xml:space="preserve">9.41830635070801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38071632385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46007251739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60625457763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77331924438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64384269714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5394287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.597900390625</t>
+    <t xml:space="preserve">9.38071537017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4600715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6062536239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77331829071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64384365081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53942680358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59790229797363</t>
   </si>
   <si>
     <t xml:space="preserve">9.61043071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66055107116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85685157775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94873714447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0740365982056</t>
+    <t xml:space="preserve">9.66055011749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85685253143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94873809814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0740385055542</t>
   </si>
   <si>
     <t xml:space="preserve">10.0907430648804</t>
@@ -3284,19 +3284,19 @@
     <t xml:space="preserve">10.0113878250122</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0364484786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0072107315063</t>
+    <t xml:space="preserve">10.0364475250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.007209777832</t>
   </si>
   <si>
     <t xml:space="preserve">10.082389831543</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0197420120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76914405822754</t>
+    <t xml:space="preserve">10.0197410583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76914310455322</t>
   </si>
   <si>
     <t xml:space="preserve">9.89285755157471</t>
@@ -3308,28 +3308,28 @@
     <t xml:space="preserve">9.64371109008789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8155345916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78546619415283</t>
+    <t xml:space="preserve">9.81553554534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78546714782715</t>
   </si>
   <si>
     <t xml:space="preserve">9.62652778625488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58357048034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57927513122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69096088409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60504913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74250888824463</t>
+    <t xml:space="preserve">9.583571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57927417755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69096183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6050500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74250984191895</t>
   </si>
   <si>
     <t xml:space="preserve">9.59645748138428</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">9.30005931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44611072540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4804744720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47618007659912</t>
+    <t xml:space="preserve">9.44610977172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48047542572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4761791229248</t>
   </si>
   <si>
     <t xml:space="preserve">9.44181442260742</t>
@@ -3356,19 +3356,19 @@
     <t xml:space="preserve">9.31294536590576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34301471710205</t>
+    <t xml:space="preserve">9.34301567077637</t>
   </si>
   <si>
     <t xml:space="preserve">9.02513790130615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11534690856934</t>
+    <t xml:space="preserve">9.11534595489502</t>
   </si>
   <si>
     <t xml:space="preserve">9.40315437316895</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54490947723389</t>
+    <t xml:space="preserve">9.54491138458252</t>
   </si>
   <si>
     <t xml:space="preserve">9.63082408905029</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">9.70814418792725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61363983154297</t>
+    <t xml:space="preserve">9.61364078521729</t>
   </si>
   <si>
     <t xml:space="preserve">9.59216213226318</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">9.75539684295654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90144824981689</t>
+    <t xml:space="preserve">9.90144920349121</t>
   </si>
   <si>
     <t xml:space="preserve">9.94869995117188</t>
@@ -3398,16 +3398,16 @@
     <t xml:space="preserve">9.98736190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.068977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0904550552368</t>
+    <t xml:space="preserve">10.0689783096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0904560089111</t>
   </si>
   <si>
     <t xml:space="preserve">10.0389089584351</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97447299957275</t>
+    <t xml:space="preserve">9.97447395324707</t>
   </si>
   <si>
     <t xml:space="preserve">9.91863059997559</t>
@@ -3416,19 +3416,19 @@
     <t xml:space="preserve">10.0002489089966</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87567520141602</t>
+    <t xml:space="preserve">9.8756742477417</t>
   </si>
   <si>
     <t xml:space="preserve">9.80264854431152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.017430305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99165725708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95729160308838</t>
+    <t xml:space="preserve">10.0174312591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99165630340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9572925567627</t>
   </si>
   <si>
     <t xml:space="preserve">9.8670825958252</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">9.9100399017334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96158695220947</t>
+    <t xml:space="preserve">9.96158790588379</t>
   </si>
   <si>
     <t xml:space="preserve">9.99595260620117</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">9.84560489654541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91433525085449</t>
+    <t xml:space="preserve">9.91433620452881</t>
   </si>
   <si>
     <t xml:space="preserve">9.9315185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0217266082764</t>
+    <t xml:space="preserve">10.0217256546021</t>
   </si>
   <si>
     <t xml:space="preserve">10.1806659698486</t>
@@ -3461,49 +3461,49 @@
     <t xml:space="preserve">10.08616065979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1248226165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2150287628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2880573272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2493963241577</t>
+    <t xml:space="preserve">10.1248216629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.215030670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2880563735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2493953704834</t>
   </si>
   <si>
     <t xml:space="preserve">10.3438997268677</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0947513580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1634836196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279167175293</t>
+    <t xml:space="preserve">10.0947523117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1634826660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.227915763855</t>
   </si>
   <si>
     <t xml:space="preserve">10.1849603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3911514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3310108184814</t>
+    <t xml:space="preserve">10.391152381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3310117721558</t>
   </si>
   <si>
     <t xml:space="preserve">10.4598817825317</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4641771316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4469938278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.584454536438</t>
+    <t xml:space="preserve">10.4641761779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4469947814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5844535827637</t>
   </si>
   <si>
     <t xml:space="preserve">10.6231155395508</t>
@@ -3512,37 +3512,37 @@
     <t xml:space="preserve">10.7390975952148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6746644973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6402988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.524317741394</t>
+    <t xml:space="preserve">10.6746635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6402997970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5243158340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.7863512039185</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7476892471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7262105941772</t>
+    <t xml:space="preserve">10.7476902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7262115478516</t>
   </si>
   <si>
     <t xml:space="preserve">10.8894462585449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7949419021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7777585983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6016368865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6918449401855</t>
+    <t xml:space="preserve">10.7949409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.777759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6016387939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6918458938599</t>
   </si>
   <si>
     <t xml:space="preserve">10.6531848907471</t>
@@ -3551,22 +3551,22 @@
     <t xml:space="preserve">10.782054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7047328948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7348022460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6875495910645</t>
+    <t xml:space="preserve">10.7047319412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7348012924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6875505447388</t>
   </si>
   <si>
     <t xml:space="preserve">10.5801591873169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5200204849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5329084396362</t>
+    <t xml:space="preserve">10.5200214385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5329074859619</t>
   </si>
   <si>
     <t xml:space="preserve">10.4341077804565</t>
@@ -3575,13 +3575,13 @@
     <t xml:space="preserve">10.3653774261475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3435649871826</t>
+    <t xml:space="preserve">10.3435640335083</t>
   </si>
   <si>
     <t xml:space="preserve">10.2606773376465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2301387786865</t>
+    <t xml:space="preserve">10.2301397323608</t>
   </si>
   <si>
     <t xml:space="preserve">10.0774507522583</t>
@@ -3596,19 +3596,19 @@
     <t xml:space="preserve">9.71972274780273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90295028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79824829101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72408485412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75898551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8942232131958</t>
+    <t xml:space="preserve">9.90294933319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79824733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72408580780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75898456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89422416687012</t>
   </si>
   <si>
     <t xml:space="preserve">9.75462341308594</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">9.64119625091553</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64555931091309</t>
+    <t xml:space="preserve">9.6455602645874</t>
   </si>
   <si>
     <t xml:space="preserve">9.66737174987793</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">9.57139682769775</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72844696044922</t>
+    <t xml:space="preserve">9.7284460067749</t>
   </si>
   <si>
     <t xml:space="preserve">9.82442378997803</t>
@@ -3650,13 +3650,13 @@
     <t xml:space="preserve">9.99892425537109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0818138122559</t>
+    <t xml:space="preserve">10.0818128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599994659424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0687246322632</t>
+    <t xml:space="preserve">10.0687255859375</t>
   </si>
   <si>
     <t xml:space="preserve">10.2126884460449</t>
@@ -3668,28 +3668,28 @@
     <t xml:space="preserve">10.2650394439697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.177788734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2083263397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.238862991333</t>
+    <t xml:space="preserve">10.1777877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2083253860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2388620376587</t>
   </si>
   <si>
     <t xml:space="preserve">10.1690626144409</t>
   </si>
   <si>
-    <t xml:space="preserve">10.121075630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1297988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0905380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1123504638672</t>
+    <t xml:space="preserve">10.1210746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1297998428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.090537071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1123514175415</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952390670776</t>
@@ -3716,43 +3716,43 @@
     <t xml:space="preserve">10.4177274703979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50159549713135</t>
+    <t xml:space="preserve">9.50159645080566</t>
   </si>
   <si>
     <t xml:space="preserve">9.56267166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60629653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41870880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5932092666626</t>
+    <t xml:space="preserve">9.60629749298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41870784759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59320831298828</t>
   </si>
   <si>
     <t xml:space="preserve">9.68045997619629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71536064147949</t>
+    <t xml:space="preserve">9.71535968780518</t>
   </si>
   <si>
     <t xml:space="preserve">9.62810897827148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39253234863281</t>
+    <t xml:space="preserve">9.39253330230713</t>
   </si>
   <si>
     <t xml:space="preserve">9.35763263702393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27910709381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75996494293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04789257049561</t>
+    <t xml:space="preserve">9.27910614013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75996589660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04789161682129</t>
   </si>
   <si>
     <t xml:space="preserve">8.96500396728516</t>
@@ -3764,22 +3764,22 @@
     <t xml:space="preserve">8.58895397186279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46854782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92235994338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75134754180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11081981658936</t>
+    <t xml:space="preserve">8.46854877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92235898971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75134706497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11082077026367</t>
   </si>
   <si>
     <t xml:space="preserve">8.82976531982422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38304138183594</t>
+    <t xml:space="preserve">8.38304233551025</t>
   </si>
   <si>
     <t xml:space="preserve">8.43364810943604</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">8.79050350189209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82540225982666</t>
+    <t xml:space="preserve">8.82540321350098</t>
   </si>
   <si>
     <t xml:space="preserve">9.05661773681641</t>
@@ -3809,31 +3809,31 @@
     <t xml:space="preserve">9.04352951049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20494270324707</t>
+    <t xml:space="preserve">9.20494365692139</t>
   </si>
   <si>
     <t xml:space="preserve">9.08279228210449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1874942779541</t>
+    <t xml:space="preserve">9.18749332427979</t>
   </si>
   <si>
     <t xml:space="preserve">9.26601886749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22675514221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07406806945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93883037567139</t>
+    <t xml:space="preserve">9.22675609588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07406711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93882942199707</t>
   </si>
   <si>
     <t xml:space="preserve">8.74687767028809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61338520050049</t>
+    <t xml:space="preserve">8.61338424682617</t>
   </si>
   <si>
     <t xml:space="preserve">8.78177738189697</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">8.58022880554199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4929780960083</t>
+    <t xml:space="preserve">8.49297714233398</t>
   </si>
   <si>
     <t xml:space="preserve">8.56103420257568</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">8.61687469482422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46505832672119</t>
+    <t xml:space="preserve">8.46505737304688</t>
   </si>
   <si>
     <t xml:space="preserve">8.22599220275879</t>
@@ -3887,28 +3887,28 @@
     <t xml:space="preserve">7.97296476364136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85430383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65013599395752</t>
+    <t xml:space="preserve">7.85430288314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65013694763184</t>
   </si>
   <si>
     <t xml:space="preserve">7.831618309021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01309967041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26438140869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43713855743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31847763061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39700222015381</t>
+    <t xml:space="preserve">8.01309871673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26438236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4371395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31847667694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39700317382812</t>
   </si>
   <si>
     <t xml:space="preserve">8.34639739990234</t>
@@ -3917,7 +3917,7 @@
     <t xml:space="preserve">8.31673145294189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29230117797852</t>
+    <t xml:space="preserve">8.29230213165283</t>
   </si>
   <si>
     <t xml:space="preserve">8.45458793640137</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">8.73815250396729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65526485443115</t>
+    <t xml:space="preserve">8.65526390075684</t>
   </si>
   <si>
     <t xml:space="preserve">8.82104110717773</t>
@@ -3956,34 +3956,34 @@
     <t xml:space="preserve">8.68143939971924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98518037796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7181921005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95551443099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21726703643799</t>
+    <t xml:space="preserve">7.98517990112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71819162368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9555139541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21726608276367</t>
   </si>
   <si>
     <t xml:space="preserve">7.80893230438232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8490686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03453540802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96692752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00347328186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94134664535522</t>
+    <t xml:space="preserve">7.84906911849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03453636169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96692800521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00347232818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94134569168091</t>
   </si>
   <si>
     <t xml:space="preserve">8.17341041564941</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">8.13321018218994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29583740234375</t>
+    <t xml:space="preserve">8.29583835601807</t>
   </si>
   <si>
     <t xml:space="preserve">8.23371028900146</t>
@@ -4004,52 +4004,52 @@
     <t xml:space="preserve">8.14600086212158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13869190216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86094522476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06377410888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93769121170044</t>
+    <t xml:space="preserve">8.13869094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81160879135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86094570159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0637731552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93769073486328</t>
   </si>
   <si>
     <t xml:space="preserve">7.78785467147827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8225736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65811824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26890754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45346307754517</t>
+    <t xml:space="preserve">7.82257270812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65811777114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26890802383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45346260070801</t>
   </si>
   <si>
     <t xml:space="preserve">7.59416389465332</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84632682800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67273569107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29814386367798</t>
+    <t xml:space="preserve">7.84632778167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67273616790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29814481735229</t>
   </si>
   <si>
     <t xml:space="preserve">7.39498996734619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42605352401733</t>
+    <t xml:space="preserve">7.42605400085449</t>
   </si>
   <si>
     <t xml:space="preserve">7.40960741043091</t>
@@ -4064,40 +4064,40 @@
     <t xml:space="preserve">7.46442651748657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53751802444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44615316390991</t>
+    <t xml:space="preserve">7.53751754760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44615364074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.57223606109619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65994501113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74582672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67456340789795</t>
+    <t xml:space="preserve">7.65994453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74582719802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67456293106079</t>
   </si>
   <si>
     <t xml:space="preserve">7.63253593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67821788787842</t>
+    <t xml:space="preserve">7.67821836471558</t>
   </si>
   <si>
     <t xml:space="preserve">7.79150867462158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79881858825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73303556442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63070917129517</t>
+    <t xml:space="preserve">7.79881811141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73303651809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63070869445801</t>
   </si>
   <si>
     <t xml:space="preserve">7.49183559417725</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">7.30179882049561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41326332092285</t>
+    <t xml:space="preserve">7.41326284408569</t>
   </si>
   <si>
     <t xml:space="preserve">7.37671756744385</t>
@@ -4115,16 +4115,16 @@
     <t xml:space="preserve">7.35296297073364</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18668031692505</t>
+    <t xml:space="preserve">7.18668079376221</t>
   </si>
   <si>
     <t xml:space="preserve">7.0953164100647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25977182388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20495319366455</t>
+    <t xml:space="preserve">7.2597713470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20495367050171</t>
   </si>
   <si>
     <t xml:space="preserve">7.40047216415405</t>
@@ -4136,7 +4136,7 @@
     <t xml:space="preserve">7.29083490371704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31093502044678</t>
+    <t xml:space="preserve">7.31093549728394</t>
   </si>
   <si>
     <t xml:space="preserve">7.38768100738525</t>
@@ -4151,10 +4151,10 @@
     <t xml:space="preserve">7.61609077453613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67639112472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55761814117432</t>
+    <t xml:space="preserve">7.67639064788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55761766433716</t>
   </si>
   <si>
     <t xml:space="preserve">7.59050798416138</t>
@@ -4163,58 +4163,58 @@
     <t xml:space="preserve">7.43153524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42788124084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21408987045288</t>
+    <t xml:space="preserve">7.42788076400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21408939361572</t>
   </si>
   <si>
     <t xml:space="preserve">7.28718042373657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13551712036133</t>
+    <t xml:space="preserve">7.13551664352417</t>
   </si>
   <si>
     <t xml:space="preserve">7.1446533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99664354324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11724376678467</t>
+    <t xml:space="preserve">6.99664306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11724424362183</t>
   </si>
   <si>
     <t xml:space="preserve">7.26342582702637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47721767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36940765380859</t>
+    <t xml:space="preserve">7.47721719741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36940813064575</t>
   </si>
   <si>
     <t xml:space="preserve">7.24515295028687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14648008346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16292572021484</t>
+    <t xml:space="preserve">7.14648056030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.162926197052</t>
   </si>
   <si>
     <t xml:space="preserve">6.99847078323364</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11358976364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22139883041382</t>
+    <t xml:space="preserve">7.11358880996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22139835357666</t>
   </si>
   <si>
     <t xml:space="preserve">7.40229940414429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67090892791748</t>
+    <t xml:space="preserve">7.67090845108032</t>
   </si>
   <si>
     <t xml:space="preserve">7.62888145446777</t>
@@ -4232,10 +4232,10 @@
     <t xml:space="preserve">7.77506351470947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84815454483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07839202880859</t>
+    <t xml:space="preserve">7.84815406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07839107513428</t>
   </si>
   <si>
     <t xml:space="preserve">8.01626396179199</t>
@@ -4265,31 +4265,31 @@
     <t xml:space="preserve">8.54251956939697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91162872314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80564785003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86594867706299</t>
+    <t xml:space="preserve">8.91162967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8056468963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86594772338867</t>
   </si>
   <si>
     <t xml:space="preserve">8.89883899688721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79285717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73255729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77458381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73535346984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69425392150879</t>
+    <t xml:space="preserve">8.79285621643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73255634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77458477020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73535442352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69425487518311</t>
   </si>
   <si>
     <t xml:space="preserve">8.78392505645752</t>
@@ -4301,16 +4301,16 @@
     <t xml:space="preserve">8.82315540313721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72227668762207</t>
+    <t xml:space="preserve">8.72227764129639</t>
   </si>
   <si>
     <t xml:space="preserve">8.80073833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76711082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82689189910889</t>
+    <t xml:space="preserve">8.76711177825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82689094543457</t>
   </si>
   <si>
     <t xml:space="preserve">8.80447387695312</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">8.72974872589111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83623218536377</t>
+    <t xml:space="preserve">8.83623313903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.67744159698486</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">8.75963973999023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86612129211426</t>
+    <t xml:space="preserve">8.86612224578857</t>
   </si>
   <si>
     <t xml:space="preserve">8.86799049377441</t>
@@ -4358,7 +4358,7 @@
     <t xml:space="preserve">8.61205768585205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62326717376709</t>
+    <t xml:space="preserve">8.62326622009277</t>
   </si>
   <si>
     <t xml:space="preserve">8.54480457305908</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">9.00996780395508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88480377197266</t>
+    <t xml:space="preserve">8.88480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">8.97260570526123</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">8.95579242706299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0604076385498</t>
+    <t xml:space="preserve">9.06040668487549</t>
   </si>
   <si>
     <t xml:space="preserve">8.98194599151611</t>
@@ -4394,19 +4394,19 @@
     <t xml:space="preserve">9.06414413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08842945098877</t>
+    <t xml:space="preserve">9.08842849731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.1388692855835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08095645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12205505371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9221658706665</t>
+    <t xml:space="preserve">9.08095741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12205600738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92216682434082</t>
   </si>
   <si>
     <t xml:space="preserve">8.95018768310547</t>
@@ -4415,13 +4415,13 @@
     <t xml:space="preserve">8.99315547943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00249576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13139533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10150623321533</t>
+    <t xml:space="preserve">9.00249481201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13139629364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10150718688965</t>
   </si>
   <si>
     <t xml:space="preserve">9.14073657989502</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">9.58348274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3873291015625</t>
+    <t xml:space="preserve">9.38733005523682</t>
   </si>
   <si>
     <t xml:space="preserve">9.52276802062988</t>
@@ -4454,7 +4454,7 @@
     <t xml:space="preserve">9.47139549255371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55546092987061</t>
+    <t xml:space="preserve">9.55545997619629</t>
   </si>
   <si>
     <t xml:space="preserve">9.55079078674316</t>
@@ -4466,34 +4466,34 @@
     <t xml:space="preserve">9.32007598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20612144470215</t>
+    <t xml:space="preserve">9.20612049102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.33689022064209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52743911743164</t>
+    <t xml:space="preserve">9.52743816375732</t>
   </si>
   <si>
     <t xml:space="preserve">9.38265895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3779878616333</t>
+    <t xml:space="preserve">9.37798881530762</t>
   </si>
   <si>
     <t xml:space="preserve">9.46205425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63485622406006</t>
+    <t xml:space="preserve">9.63485527038574</t>
   </si>
   <si>
     <t xml:space="preserve">9.57414150238037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54612064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48073577880859</t>
+    <t xml:space="preserve">9.54611968994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48073482513428</t>
   </si>
   <si>
     <t xml:space="preserve">9.32941722869873</t>
@@ -4505,13 +4505,13 @@
     <t xml:space="preserve">9.09403419494629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65502452850342</t>
+    <t xml:space="preserve">8.6550235748291</t>
   </si>
   <si>
     <t xml:space="preserve">8.41777229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50557327270508</t>
+    <t xml:space="preserve">8.50557422637939</t>
   </si>
   <si>
     <t xml:space="preserve">8.79513359069824</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">8.73722171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75403499603271</t>
+    <t xml:space="preserve">8.7540340423584</t>
   </si>
   <si>
     <t xml:space="preserve">8.58963966369629</t>
@@ -4553,13 +4553,13 @@
     <t xml:space="preserve">8.91469383239746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78018760681152</t>
+    <t xml:space="preserve">8.78018856048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.83996772766113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93337535858154</t>
+    <t xml:space="preserve">8.93337440490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.84557342529297</t>
@@ -4571,7 +4571,7 @@
     <t xml:space="preserve">8.86238574981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7970027923584</t>
+    <t xml:space="preserve">8.79700183868408</t>
   </si>
   <si>
     <t xml:space="preserve">8.89601230621338</t>
@@ -4589,7 +4589,7 @@
     <t xml:space="preserve">8.85117721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89414405822754</t>
+    <t xml:space="preserve">8.89414501190186</t>
   </si>
   <si>
     <t xml:space="preserve">8.98755073547363</t>
@@ -4610,13 +4610,13 @@
     <t xml:space="preserve">9.04919815063477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01930904388428</t>
+    <t xml:space="preserve">9.01930809020996</t>
   </si>
   <si>
     <t xml:space="preserve">9.27524185180664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24908924102783</t>
+    <t xml:space="preserve">9.24908828735352</t>
   </si>
   <si>
     <t xml:space="preserve">9.03985786437988</t>
@@ -4625,25 +4625,25 @@
     <t xml:space="preserve">9.1500768661499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12579250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05667114257812</t>
+    <t xml:space="preserve">9.12579154968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05667209625244</t>
   </si>
   <si>
     <t xml:space="preserve">9.11645126342773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34062671661377</t>
+    <t xml:space="preserve">9.34062576293945</t>
   </si>
   <si>
     <t xml:space="preserve">9.2528247833252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28645038604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31820774078369</t>
+    <t xml:space="preserve">9.28645133972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31820869445801</t>
   </si>
   <si>
     <t xml:space="preserve">9.25095653533936</t>
@@ -4652,13 +4652,13 @@
     <t xml:space="preserve">9.33128547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35930728912354</t>
+    <t xml:space="preserve">9.35930824279785</t>
   </si>
   <si>
     <t xml:space="preserve">9.42936229705811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40134048461914</t>
+    <t xml:space="preserve">9.40133953094482</t>
   </si>
   <si>
     <t xml:space="preserve">9.42316436767578</t>
@@ -5265,6 +5265,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.9549999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7950000762939</t>
   </si>
 </sst>
 </file>
@@ -61376,7 +61379,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6508101852</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>3702035</v>
@@ -61397,6 +61400,32 @@
         <v>1749</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6493055556</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>2818756</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>12.9200000762939</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>12.7399997711182</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>12.9200000762939</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>12.7950000762939</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1756">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,64 +44,64 @@
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51181507110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44288539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41781854629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37708711624146</t>
+    <t xml:space="preserve">4.51181554794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44288492202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41781949996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37708759307861</t>
   </si>
   <si>
     <t xml:space="preserve">4.33635568618774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43975162506104</t>
+    <t xml:space="preserve">4.43975114822388</t>
   </si>
   <si>
     <t xml:space="preserve">4.49301624298096</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46795034408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41155338287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27995824813843</t>
+    <t xml:space="preserve">4.46794986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41155242919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27995777130127</t>
   </si>
   <si>
     <t xml:space="preserve">4.19849443435669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96663761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1201639175415</t>
+    <t xml:space="preserve">3.96663665771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12016487121582</t>
   </si>
   <si>
     <t xml:space="preserve">4.17342901229858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08569955825806</t>
+    <t xml:space="preserve">4.0856990814209</t>
   </si>
   <si>
     <t xml:space="preserve">4.20476150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25802612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17029523849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27682447433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16089582443237</t>
+    <t xml:space="preserve">4.25802564620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17029619216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27682399749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16089534759521</t>
   </si>
   <si>
     <t xml:space="preserve">4.07316589355469</t>
@@ -110,16 +110,16 @@
     <t xml:space="preserve">3.94783854484558</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7504460811615</t>
+    <t xml:space="preserve">3.75044679641724</t>
   </si>
   <si>
     <t xml:space="preserve">3.35879588127136</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23973417282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54365539550781</t>
+    <t xml:space="preserve">3.23973393440247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54365515708923</t>
   </si>
   <si>
     <t xml:space="preserve">3.39012789726257</t>
@@ -128,55 +128,55 @@
     <t xml:space="preserve">3.40266013145447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50605607032776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49039053916931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63138484954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61571907997131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69404864311218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82564306259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74104714393616</t>
+    <t xml:space="preserve">3.50605654716492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49039006233215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63138461112976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61571836471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6940484046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82564353942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74104619026184</t>
   </si>
   <si>
     <t xml:space="preserve">3.70344853401184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80997705459595</t>
+    <t xml:space="preserve">3.80997729301453</t>
   </si>
   <si>
     <t xml:space="preserve">3.86324167251587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92903900146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89457392692566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86010837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88517355918884</t>
+    <t xml:space="preserve">3.929039478302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89457368850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86010813713074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88517379760742</t>
   </si>
   <si>
     <t xml:space="preserve">3.8413097858429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86637473106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83817529678345</t>
+    <t xml:space="preserve">3.86637496948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83817625045776</t>
   </si>
   <si>
     <t xml:space="preserve">4.03870153427124</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">4.03243446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01050281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02616786956787</t>
+    <t xml:space="preserve">4.01050233840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02616882324219</t>
   </si>
   <si>
     <t xml:space="preserve">4.10449838638306</t>
@@ -203,115 +203,115 @@
     <t xml:space="preserve">4.24235916137695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22355937957764</t>
+    <t xml:space="preserve">4.22356033325195</t>
   </si>
   <si>
     <t xml:space="preserve">4.15149688720703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2298264503479</t>
+    <t xml:space="preserve">4.22982740402222</t>
   </si>
   <si>
     <t xml:space="preserve">4.16716289520264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11076593399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04183435440063</t>
+    <t xml:space="preserve">4.110764503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04183483123779</t>
   </si>
   <si>
     <t xml:space="preserve">3.92590594291687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98856997489929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00736951828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02930212020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04810094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13583183288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06063413619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05750036239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08883190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05436706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763168334961</t>
+    <t xml:space="preserve">3.98857021331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00736999511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02930164337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04810047149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13583087921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06063365936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05749988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08883285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05436754226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
   </si>
   <si>
     <t xml:space="preserve">4.11389780044556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18596220016479</t>
+    <t xml:space="preserve">4.18596124649048</t>
   </si>
   <si>
     <t xml:space="preserve">4.23922681808472</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24862623214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17969560623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11703157424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21102714538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24549245834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22042655944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20162725448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23296022415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12329816818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23609352111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18909549713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28309154510498</t>
+    <t xml:space="preserve">4.2486252784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17969512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11703109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2110276222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24549293518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2204270362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20162868499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23295974731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12329769134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23609399795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18909502029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28309059143066</t>
   </si>
   <si>
     <t xml:space="preserve">4.28935766220093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25489187240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31442403793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3112907409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32382345199585</t>
+    <t xml:space="preserve">4.25489282608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31442308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31128978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32382297515869</t>
   </si>
   <si>
     <t xml:space="preserve">4.29875802993774</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">4.30815649032593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38648748397827</t>
+    <t xml:space="preserve">4.38648700714111</t>
   </si>
   <si>
     <t xml:space="preserve">4.39588642120361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29249048233032</t>
+    <t xml:space="preserve">4.29249095916748</t>
   </si>
   <si>
     <t xml:space="preserve">4.22669363021851</t>
@@ -335,103 +335,103 @@
     <t xml:space="preserve">4.20789432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33322286605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43207883834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37605953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36617517471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41560316085815</t>
+    <t xml:space="preserve">4.33322191238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43207931518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37606000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36617422103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.415602684021</t>
   </si>
   <si>
     <t xml:space="preserve">4.06630897521973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82575702667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92790961265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92131900787354</t>
+    <t xml:space="preserve">3.8257577419281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92790985107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92131924629211</t>
   </si>
   <si>
     <t xml:space="preserve">4.0300612449646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94109129905701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84223365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79939579963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7697389125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91143393516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08937501907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17505121231079</t>
+    <t xml:space="preserve">3.94109106063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84223389625549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.799396276474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76973867416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91143321990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08937549591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07949018478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17505073547363</t>
   </si>
   <si>
     <t xml:space="preserve">4.1025562286377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1058521270752</t>
+    <t xml:space="preserve">4.10585165023804</t>
   </si>
   <si>
     <t xml:space="preserve">4.08278608322144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14539480209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1322135925293</t>
+    <t xml:space="preserve">4.14539384841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13221406936646</t>
   </si>
   <si>
     <t xml:space="preserve">4.0860800743103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07619476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02676630020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.006995677948</t>
+    <t xml:space="preserve">4.07619524002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02676582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00699520111084</t>
   </si>
   <si>
     <t xml:space="preserve">3.94438576698303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25084161758423</t>
+    <t xml:space="preserve">4.25084209442139</t>
   </si>
   <si>
     <t xml:space="preserve">4.22777557373047</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25743246078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26402282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32333660125732</t>
+    <t xml:space="preserve">4.2574315071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26402235031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32333707809448</t>
   </si>
   <si>
     <t xml:space="preserve">4.33651781082153</t>
@@ -443,25 +443,25 @@
     <t xml:space="preserve">4.16187047958374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20470952987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09926128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1157374382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18493795394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1388053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09267139434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11244201660156</t>
+    <t xml:space="preserve">4.20470857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09926176071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11573648452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1849365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13880443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09267091751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11244249343872</t>
   </si>
   <si>
     <t xml:space="preserve">4.05312824249268</t>
@@ -470,25 +470,25 @@
     <t xml:space="preserve">4.12891864776611</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11903285980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14209842681885</t>
+    <t xml:space="preserve">4.1190333366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14209938049316</t>
   </si>
   <si>
     <t xml:space="preserve">4.15528011322021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22118520736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20800399780273</t>
+    <t xml:space="preserve">4.22118473052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20800495147705</t>
   </si>
   <si>
     <t xml:space="preserve">3.9839289188385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04324293136597</t>
+    <t xml:space="preserve">4.04324245452881</t>
   </si>
   <si>
     <t xml:space="preserve">4.03994750976562</t>
@@ -497,100 +497,100 @@
     <t xml:space="preserve">4.0036997795105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02347135543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03335618972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01028966903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00040483474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99381399154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97733783721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98063278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91472864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96415710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98722386360168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93120527267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99710988998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07290029525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04983329772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92461371421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9015474319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93450021743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97074770927429</t>
+    <t xml:space="preserve">4.02347183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03335666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01029062271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00040435791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99381446838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97733807563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98063325881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91472840309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96415686607361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98722457885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93120503425598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99710917472839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07289934158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04983234405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9246141910553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90154719352722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93449974060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97074723243713</t>
   </si>
   <si>
     <t xml:space="preserve">3.96086168289185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94768047332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93779540061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88836717605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8455286026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76314806938171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72360634803772</t>
+    <t xml:space="preserve">3.94768142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93779587745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88836693763733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84552931785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76314830780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72360610961914</t>
   </si>
   <si>
     <t xml:space="preserve">3.71701526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71042442321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70053887367249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65111064910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79610013961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86530089378357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86859536170959</t>
+    <t xml:space="preserve">3.71042513847351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70053911209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65111112594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79610133171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86529970169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86859607696533</t>
   </si>
   <si>
     <t xml:space="preserve">3.85870981216431</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">4.18823289871216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17834663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16846179962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22447967529297</t>
+    <t xml:space="preserve">4.17834711074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16846084594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22448062896729</t>
   </si>
   <si>
     <t xml:space="preserve">4.18164205551147</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">4.15198516845703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0630145072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02017688751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99051904678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01688146591187</t>
+    <t xml:space="preserve">4.06301355361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02017593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99051833152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01688051223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.85541486740112</t>
@@ -644,28 +644,28 @@
     <t xml:space="preserve">3.83234810829163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85211873054504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9542715549469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95097684860229</t>
+    <t xml:space="preserve">3.85211944580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95427083969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95097661018372</t>
   </si>
   <si>
     <t xml:space="preserve">4.01358509063721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13550853729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26731729507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25413656234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24425172805786</t>
+    <t xml:space="preserve">4.1355094909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26731777191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25413751602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24425077438354</t>
   </si>
   <si>
     <t xml:space="preserve">4.20141363143921</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">4.21459484100342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12232828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19482231140137</t>
+    <t xml:space="preserve">4.12232780456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19482326507568</t>
   </si>
   <si>
     <t xml:space="preserve">4.28379344940186</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">4.29697513580322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15857553482056</t>
+    <t xml:space="preserve">4.15857648849487</t>
   </si>
   <si>
     <t xml:space="preserve">4.12562322616577</t>
@@ -710,34 +710,34 @@
     <t xml:space="preserve">4.26072788238525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27061367034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23554992675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24957513809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26360130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20048761367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20750093460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2215256690979</t>
+    <t xml:space="preserve">4.27061319351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23555040359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24957609176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26360082626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20048856735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20749998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22152614593506</t>
   </si>
   <si>
     <t xml:space="preserve">4.17945051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27061319351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23204374313354</t>
+    <t xml:space="preserve">4.2706127166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23204469680786</t>
   </si>
   <si>
     <t xml:space="preserve">4.20399522781372</t>
@@ -746,85 +746,85 @@
     <t xml:space="preserve">4.21100664138794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18646335601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16893196105957</t>
+    <t xml:space="preserve">4.18646287918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16893148422241</t>
   </si>
   <si>
     <t xml:space="preserve">4.24256372451782</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25308227539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29515647888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27411985397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24606943130493</t>
+    <t xml:space="preserve">4.25308179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29515743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27411890029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25658798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24606895446777</t>
   </si>
   <si>
     <t xml:space="preserve">4.19347620010376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18295669555664</t>
+    <t xml:space="preserve">4.1829571723938</t>
   </si>
   <si>
     <t xml:space="preserve">4.22503137588501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37580013275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38982534408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41086387634277</t>
+    <t xml:space="preserve">4.37580060958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38982582092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4108624458313</t>
   </si>
   <si>
     <t xml:space="preserve">4.35125684738159</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36177539825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3652811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40735626220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28463840484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29866313934326</t>
+    <t xml:space="preserve">4.36177587509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36528158187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40735721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28463792800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29866361618042</t>
   </si>
   <si>
     <t xml:space="preserve">4.35826921463013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878871917725</t>
+    <t xml:space="preserve">4.36878776550293</t>
   </si>
   <si>
     <t xml:space="preserve">4.31268835067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29165029525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28113174438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30918169021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26710605621338</t>
+    <t xml:space="preserve">4.29165077209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28113222122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30918121337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26710748672485</t>
   </si>
   <si>
     <t xml:space="preserve">4.31619453430176</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">4.38281345367432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35476350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34424543380737</t>
+    <t xml:space="preserve">4.35476303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34424495697021</t>
   </si>
   <si>
     <t xml:space="preserve">4.34775018692017</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">4.33723211288452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30567502975464</t>
+    <t xml:space="preserve">4.30567646026611</t>
   </si>
   <si>
     <t xml:space="preserve">4.33021974563599</t>
@@ -866,52 +866,52 @@
     <t xml:space="preserve">4.41436958312988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39683818817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40385150909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38631916046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30217027664185</t>
+    <t xml:space="preserve">4.39683866500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40385103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38631963729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30216932296753</t>
   </si>
   <si>
     <t xml:space="preserve">4.2881441116333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27762651443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46345663070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49501323699951</t>
+    <t xml:space="preserve">4.27762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46345710754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49501371383667</t>
   </si>
   <si>
     <t xml:space="preserve">4.46696281433105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45293855667114</t>
+    <t xml:space="preserve">4.45293760299683</t>
   </si>
   <si>
     <t xml:space="preserve">4.43891286849976</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45644474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47046995162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4915075302124</t>
+    <t xml:space="preserve">4.45644426345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49150705337524</t>
   </si>
   <si>
     <t xml:space="preserve">4.50903844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52306270599365</t>
+    <t xml:space="preserve">4.52306365966797</t>
   </si>
   <si>
     <t xml:space="preserve">4.53708839416504</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">4.51605033874512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55111312866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58617496490479</t>
+    <t xml:space="preserve">4.55111265182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5861759185791</t>
   </si>
   <si>
     <t xml:space="preserve">4.58266973495483</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">4.61422538757324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71590662002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71240043640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69486951828003</t>
+    <t xml:space="preserve">4.71590709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71240091323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69486904144287</t>
   </si>
   <si>
     <t xml:space="preserve">4.66331386566162</t>
@@ -947,19 +947,19 @@
     <t xml:space="preserve">4.68084478378296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69136333465576</t>
+    <t xml:space="preserve">4.6913628578186</t>
   </si>
   <si>
     <t xml:space="preserve">4.66471529006958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64508104324341</t>
+    <t xml:space="preserve">4.64508056640625</t>
   </si>
   <si>
     <t xml:space="preserve">4.67313098907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61703157424927</t>
+    <t xml:space="preserve">4.61703062057495</t>
   </si>
   <si>
     <t xml:space="preserve">4.6268482208252</t>
@@ -968,16 +968,16 @@
     <t xml:space="preserve">4.48800086975098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60721349716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5202579498291</t>
+    <t xml:space="preserve">4.60721254348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52025842666626</t>
   </si>
   <si>
     <t xml:space="preserve">4.51324605941772</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5328803062439</t>
+    <t xml:space="preserve">4.53288078308105</t>
   </si>
   <si>
     <t xml:space="preserve">4.57776117324829</t>
@@ -986,103 +986,103 @@
     <t xml:space="preserve">4.61562824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66752147674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67453193664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75447559356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74045085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70258331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70679044723511</t>
+    <t xml:space="preserve">4.66752099990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67453336715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75447511672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74045133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70258283615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70679092407227</t>
   </si>
   <si>
     <t xml:space="preserve">4.66611766815186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93680143356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95222854614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92137336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81478261947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84563827514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88631057739258</t>
+    <t xml:space="preserve">4.93680095672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95222806930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92137384414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81478309631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84563875198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88631010055542</t>
   </si>
   <si>
     <t xml:space="preserve">5.01534080505371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14296817779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11632013320923</t>
+    <t xml:space="preserve">5.14296865463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11632061004639</t>
   </si>
   <si>
     <t xml:space="preserve">5.20327615737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0910758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0251579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10510110855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18504333496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14577293395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17101812362671</t>
+    <t xml:space="preserve">5.09107542037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02515840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10510206222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18504285812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14577341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18083620071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17101860046387</t>
   </si>
   <si>
     <t xml:space="preserve">5.12333345413208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08125734329224</t>
+    <t xml:space="preserve">5.08125782012939</t>
   </si>
   <si>
     <t xml:space="preserve">5.06302547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07985639572144</t>
+    <t xml:space="preserve">5.07985591888428</t>
   </si>
   <si>
     <t xml:space="preserve">5.15839576721191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16821336746216</t>
+    <t xml:space="preserve">5.16821384429932</t>
   </si>
   <si>
     <t xml:space="preserve">5.20748329162598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29443883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28882837295532</t>
+    <t xml:space="preserve">5.29443788528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28882884979248</t>
   </si>
   <si>
     <t xml:space="preserve">5.32950067520142</t>
@@ -1091,34 +1091,34 @@
     <t xml:space="preserve">5.38840627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37999057769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3841986656189</t>
+    <t xml:space="preserve">5.3799901008606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38419914245605</t>
   </si>
   <si>
     <t xml:space="preserve">5.38139343261719</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41365051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46273851394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42907810211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44029903411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51883792877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52444791793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54829025268555</t>
+    <t xml:space="preserve">5.41365003585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46273803710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42907857894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44029855728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51883840560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52444839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54829072952271</t>
   </si>
   <si>
     <t xml:space="preserve">5.55951118469238</t>
@@ -1127,79 +1127,79 @@
     <t xml:space="preserve">5.59036588668823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68433284759521</t>
+    <t xml:space="preserve">5.68433332443237</t>
   </si>
   <si>
     <t xml:space="preserve">5.66890573501587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65908861160278</t>
+    <t xml:space="preserve">5.65908765792847</t>
   </si>
   <si>
     <t xml:space="preserve">5.71799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69134569168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6646990776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71518898010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76287364959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54688882827759</t>
+    <t xml:space="preserve">5.69134616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66469860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71518802642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76287317276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54688835144043</t>
   </si>
   <si>
     <t xml:space="preserve">5.53426599502563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34352540969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35474634170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39822387695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37157583236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40383291244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32108545303345</t>
+    <t xml:space="preserve">5.34352588653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35474538803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39822340011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37157535552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40383386611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32108592987061</t>
   </si>
   <si>
     <t xml:space="preserve">5.14998054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91856861114502</t>
+    <t xml:space="preserve">4.91856813430786</t>
   </si>
   <si>
     <t xml:space="preserve">5.12473630905151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13595628738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23833894729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26779127120972</t>
+    <t xml:space="preserve">5.13595533370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23833847045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26779079437256</t>
   </si>
   <si>
     <t xml:space="preserve">5.12894344329834</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12613821029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10650300979614</t>
+    <t xml:space="preserve">5.12613868713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10650396347046</t>
   </si>
   <si>
     <t xml:space="preserve">4.96765613555908</t>
@@ -1208,31 +1208,31 @@
     <t xml:space="preserve">5.15979814529419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25797367095947</t>
+    <t xml:space="preserve">5.25797414779663</t>
   </si>
   <si>
     <t xml:space="preserve">5.35755014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48377561569214</t>
+    <t xml:space="preserve">5.48377656936646</t>
   </si>
   <si>
     <t xml:space="preserve">5.35053825378418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43365335464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4885687828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51379919052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44552612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45146417617798</t>
+    <t xml:space="preserve">5.43365383148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48856830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5137996673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44552707672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45146369934082</t>
   </si>
   <si>
     <t xml:space="preserve">5.38022232055664</t>
@@ -1241,112 +1241,112 @@
     <t xml:space="preserve">5.4054536819458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32827472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32085466384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37428569793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38764333724976</t>
+    <t xml:space="preserve">5.32827568054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32085418701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37428522109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3876428604126</t>
   </si>
   <si>
     <t xml:space="preserve">5.51528453826904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55832576751709</t>
+    <t xml:space="preserve">5.55832672119141</t>
   </si>
   <si>
     <t xml:space="preserve">5.6102728843689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55090522766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63253545761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61917877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70080947875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76017713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79134559631348</t>
+    <t xml:space="preserve">5.55090475082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63253688812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6191782951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70080900192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76017808914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79134511947632</t>
   </si>
   <si>
     <t xml:space="preserve">5.72455644607544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73939847946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72158765792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73197746276855</t>
+    <t xml:space="preserve">5.73939895629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72158861160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73197793960571</t>
   </si>
   <si>
     <t xml:space="preserve">5.82548236846924</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85071277618408</t>
+    <t xml:space="preserve">5.8507137298584</t>
   </si>
   <si>
     <t xml:space="preserve">5.87594509124756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91156530380249</t>
+    <t xml:space="preserve">5.91156578063965</t>
   </si>
   <si>
     <t xml:space="preserve">5.90266036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58355760574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52715826034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5093469619751</t>
+    <t xml:space="preserve">5.58355808258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5271577835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50934648513794</t>
   </si>
   <si>
     <t xml:space="preserve">5.44255876541138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27187585830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24961233139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.304527759552</t>
+    <t xml:space="preserve">5.27187490463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24961280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30452823638916</t>
   </si>
   <si>
     <t xml:space="preserve">5.14720296859741</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08338212966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00323581695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16204500198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06111907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03291940689087</t>
+    <t xml:space="preserve">5.08338260650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00323534011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16204452514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06112003326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04182481765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03292036056519</t>
   </si>
   <si>
     <t xml:space="preserve">5.0136251449585</t>
@@ -1355,34 +1355,34 @@
     <t xml:space="preserve">5.03588771820068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97058296203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92160511016846</t>
+    <t xml:space="preserve">4.97058343887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92160415649414</t>
   </si>
   <si>
     <t xml:space="preserve">5.00471973419189</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13681316375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23625516891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20360279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22438192367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34460115432739</t>
+    <t xml:space="preserve">5.13681364059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23625469207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20360231399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22438144683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34460210800171</t>
   </si>
   <si>
     <t xml:space="preserve">5.31640195846558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23328638076782</t>
+    <t xml:space="preserve">5.23328590393066</t>
   </si>
   <si>
     <t xml:space="preserve">5.09970855712891</t>
@@ -1391,37 +1391,37 @@
     <t xml:space="preserve">5.12939262390137</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17837047576904</t>
+    <t xml:space="preserve">5.17837142944336</t>
   </si>
   <si>
     <t xml:space="preserve">5.15313959121704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13978147506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20953893661499</t>
+    <t xml:space="preserve">5.1397819519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20953941345215</t>
   </si>
   <si>
     <t xml:space="preserve">5.25258111953735</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27781248092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34014844894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3713173866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33569574356079</t>
+    <t xml:space="preserve">5.27781200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34014940261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37131643295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33569622039795</t>
   </si>
   <si>
     <t xml:space="preserve">5.10712957382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05221509933472</t>
+    <t xml:space="preserve">5.0522141456604</t>
   </si>
   <si>
     <t xml:space="preserve">4.96167802810669</t>
@@ -1433,25 +1433,25 @@
     <t xml:space="preserve">4.97652006149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89785814285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7167854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74201631546021</t>
+    <t xml:space="preserve">4.89785766601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71678495407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74201536178589</t>
   </si>
   <si>
     <t xml:space="preserve">4.78951168060303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65741729736328</t>
+    <t xml:space="preserve">4.65741777420044</t>
   </si>
   <si>
     <t xml:space="preserve">4.63663864135742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65444898605347</t>
+    <t xml:space="preserve">4.65444850921631</t>
   </si>
   <si>
     <t xml:space="preserve">4.73162746429443</t>
@@ -1460,22 +1460,22 @@
     <t xml:space="preserve">4.67225885391235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54164934158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65296411514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62773323059082</t>
+    <t xml:space="preserve">4.54164981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65296459197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62773370742798</t>
   </si>
   <si>
     <t xml:space="preserve">4.63812255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4511137008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5475869178772</t>
+    <t xml:space="preserve">4.45111322402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54758644104004</t>
   </si>
   <si>
     <t xml:space="preserve">4.55203866958618</t>
@@ -1484,49 +1484,49 @@
     <t xml:space="preserve">4.69600582122803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59211206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7123327255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86223697662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9008264541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83255195617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80138492584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96019411087036</t>
+    <t xml:space="preserve">4.59211254119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71233224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86223649978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90082597732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83255290985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80138444900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9601936340332</t>
   </si>
   <si>
     <t xml:space="preserve">5.06408739089966</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09822368621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10861349105835</t>
+    <t xml:space="preserve">5.09822416305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10861396789551</t>
   </si>
   <si>
     <t xml:space="preserve">5.11158180236816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94832038879395</t>
+    <t xml:space="preserve">4.9483208656311</t>
   </si>
   <si>
     <t xml:space="preserve">4.82364702224731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83552122116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86372137069702</t>
+    <t xml:space="preserve">4.83552026748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86372041702271</t>
   </si>
   <si>
     <t xml:space="preserve">4.73014307022095</t>
@@ -1541,25 +1541,25 @@
     <t xml:space="preserve">5.07596158981323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04924631118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97355222702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97503614425659</t>
+    <t xml:space="preserve">5.04924535751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97355127334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97503519058228</t>
   </si>
   <si>
     <t xml:space="preserve">5.09525537490845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05518198013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12197160720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85184669494629</t>
+    <t xml:space="preserve">5.05518245697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12197208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85184764862061</t>
   </si>
   <si>
     <t xml:space="preserve">4.87559413909912</t>
@@ -1568,25 +1568,25 @@
     <t xml:space="preserve">4.81919479370117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86668968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06260395050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14275074005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11751842498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11009836196899</t>
+    <t xml:space="preserve">4.86668920516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06260347366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14275026321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11751794815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11009788513184</t>
   </si>
   <si>
     <t xml:space="preserve">5.27484369277954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20211839675903</t>
+    <t xml:space="preserve">5.20211791992188</t>
   </si>
   <si>
     <t xml:space="preserve">5.12642431259155</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">5.17243385314941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19321298599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25703382492065</t>
+    <t xml:space="preserve">5.19321250915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2570333480835</t>
   </si>
   <si>
     <t xml:space="preserve">5.22141313552856</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">5.35647535324097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38170576095581</t>
+    <t xml:space="preserve">5.38170623779297</t>
   </si>
   <si>
     <t xml:space="preserve">5.35795879364014</t>
@@ -1628,10 +1628,10 @@
     <t xml:space="preserve">5.45740079879761</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49153709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62956809997559</t>
+    <t xml:space="preserve">5.49153804779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62956762313843</t>
   </si>
   <si>
     <t xml:space="preserve">5.63995695114136</t>
@@ -1643,22 +1643,22 @@
     <t xml:space="preserve">5.63847255706787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65183067321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70823001861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68299913406372</t>
+    <t xml:space="preserve">5.65183115005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70822954177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6829981803894</t>
   </si>
   <si>
     <t xml:space="preserve">5.69190454483032</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57613563537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45294809341431</t>
+    <t xml:space="preserve">5.57613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45294713973999</t>
   </si>
   <si>
     <t xml:space="preserve">5.58058881759644</t>
@@ -1667,97 +1667,97 @@
     <t xml:space="preserve">5.67260980606079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70377731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53161001205444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5494213104248</t>
+    <t xml:space="preserve">5.70377779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5316104888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54942035675049</t>
   </si>
   <si>
     <t xml:space="preserve">5.61620998382568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69932413101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75720930099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68893575668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74830389022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76908302307129</t>
+    <t xml:space="preserve">5.69932556152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75720882415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68893527984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74830341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76908254623413</t>
   </si>
   <si>
     <t xml:space="preserve">5.75127220153809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73494577407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77501964569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79876613616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86110305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86258745193481</t>
+    <t xml:space="preserve">5.73494625091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77501916885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79876661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86110353469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8625864982605</t>
   </si>
   <si>
     <t xml:space="preserve">5.88484954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88930130004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85665035247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88336563110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89523887634277</t>
+    <t xml:space="preserve">5.88930225372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85664987564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88336610794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89523935317993</t>
   </si>
   <si>
     <t xml:space="preserve">5.89820766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79728174209595</t>
+    <t xml:space="preserve">5.79728126525879</t>
   </si>
   <si>
     <t xml:space="preserve">5.86407041549683</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89227104187012</t>
+    <t xml:space="preserve">5.89227056503296</t>
   </si>
   <si>
     <t xml:space="preserve">5.90711259841919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93085956573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99616432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04811239242554</t>
+    <t xml:space="preserve">5.93086051940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99616479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04811143875122</t>
   </si>
   <si>
     <t xml:space="preserve">6.20395278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26331996917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41025543212891</t>
+    <t xml:space="preserve">6.2633204460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41025590896606</t>
   </si>
   <si>
     <t xml:space="preserve">6.35237264633179</t>
@@ -1766,73 +1766,73 @@
     <t xml:space="preserve">6.37463521957397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39986705780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40135192871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37908887863159</t>
+    <t xml:space="preserve">6.39986753463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4013524055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37908840179443</t>
   </si>
   <si>
     <t xml:space="preserve">6.43548822402954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41916179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43845510482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49040269851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48594999313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51118135452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62249612808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64624500274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63585615158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67147636413574</t>
+    <t xml:space="preserve">6.41916131973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43845558166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.490403175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48595094680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51118230819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62249755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64624404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63585472106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67147541046143</t>
   </si>
   <si>
     <t xml:space="preserve">6.65960216522217</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73084354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68038082122803</t>
+    <t xml:space="preserve">6.73084306716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68038129806519</t>
   </si>
   <si>
     <t xml:space="preserve">7.0618200302124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06478881835938</t>
+    <t xml:space="preserve">7.06478786468506</t>
   </si>
   <si>
     <t xml:space="preserve">7.02174663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87332773208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84512567520142</t>
+    <t xml:space="preserve">6.87332630157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84512662887573</t>
   </si>
   <si>
     <t xml:space="preserve">6.86590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95644235610962</t>
+    <t xml:space="preserve">6.9564414024353</t>
   </si>
   <si>
     <t xml:space="preserve">7.0573673248291</t>
@@ -1844,40 +1844,40 @@
     <t xml:space="preserve">6.93714714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98909425735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76794910430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68483304977417</t>
+    <t xml:space="preserve">6.98909521102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76794862747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68483352661133</t>
   </si>
   <si>
     <t xml:space="preserve">6.67889642715454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60171842575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80505418777466</t>
+    <t xml:space="preserve">6.60171699523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8050537109375</t>
   </si>
   <si>
     <t xml:space="preserve">6.76201200485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84957981109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69670677185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75607490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79911613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5067286491394</t>
+    <t xml:space="preserve">6.84957790374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69670629501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75607442855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79911661148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50672960281372</t>
   </si>
   <si>
     <t xml:space="preserve">6.61952877044678</t>
@@ -1886,16 +1886,16 @@
     <t xml:space="preserve">6.6032018661499</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55125617980957</t>
+    <t xml:space="preserve">6.5512547492981</t>
   </si>
   <si>
     <t xml:space="preserve">6.51711845397949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45626735687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46962451934814</t>
+    <t xml:space="preserve">6.45626592636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4696249961853</t>
   </si>
   <si>
     <t xml:space="preserve">6.63436985015869</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">6.58836078643799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62398147583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75459051132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81841039657593</t>
+    <t xml:space="preserve">6.62398052215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75459098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8184118270874</t>
   </si>
   <si>
     <t xml:space="preserve">6.85106420516968</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">6.87777853012085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84215831756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89410591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95495843887329</t>
+    <t xml:space="preserve">6.84215879440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89410495758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95495748519897</t>
   </si>
   <si>
     <t xml:space="preserve">7.06033563613892</t>
@@ -1934,124 +1934,124 @@
     <t xml:space="preserve">7.18562173843384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13581848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10624885559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11247301101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2058539390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19340324401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36615705490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54046678543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58715677261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55914115905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54824638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51245260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58559942245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51089668273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51556396484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48288297653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45953750610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44397401809692</t>
+    <t xml:space="preserve">7.13581895828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1062479019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11247396469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20585346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1934027671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36615657806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54046726226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58715772628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55914306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54824829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51245212554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58560037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51089811325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5155668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48288249969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4595365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44397258758545</t>
   </si>
   <si>
     <t xml:space="preserve">7.31479692459106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34747934341431</t>
+    <t xml:space="preserve">7.34748077392578</t>
   </si>
   <si>
     <t xml:space="preserve">7.30078983306885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37238264083862</t>
+    <t xml:space="preserve">7.37238216400146</t>
   </si>
   <si>
     <t xml:space="preserve">7.31946611404419</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46109294891357</t>
+    <t xml:space="preserve">7.46109390258789</t>
   </si>
   <si>
     <t xml:space="preserve">7.26655101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5171217918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59182643890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50311517715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38327693939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37860679626465</t>
+    <t xml:space="preserve">7.51712131500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59182500839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50311422348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38327598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37860727310181</t>
   </si>
   <si>
     <t xml:space="preserve">7.50000286102295</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99886035919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08134603500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24476194381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11558532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39261531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34125471115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54669046401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52023410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33036088943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39105796813965</t>
+    <t xml:space="preserve">6.99885988235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08134698867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24476337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11558628082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39261341094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34125518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54669141769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52023220062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33036136627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39105749130249</t>
   </si>
   <si>
     <t xml:space="preserve">7.31324052810669</t>
@@ -2060,91 +2060,91 @@
     <t xml:space="preserve">7.65719223022461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60427713394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68520593643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70388078689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85173463821411</t>
+    <t xml:space="preserve">7.60427618026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6852068901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70388031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85173559188843</t>
   </si>
   <si>
     <t xml:space="preserve">7.82060813903809</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8400616645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84395265579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71166563034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74279022216797</t>
+    <t xml:space="preserve">7.84006214141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84395217895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71166467666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74279069900513</t>
   </si>
   <si>
     <t xml:space="preserve">7.8789701461792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92566108703613</t>
+    <t xml:space="preserve">7.92565965652466</t>
   </si>
   <si>
     <t xml:space="preserve">7.8283896446228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76146650314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90620613098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92177152633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8322811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9956955909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94900608062744</t>
+    <t xml:space="preserve">7.76146602630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9062066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9217700958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83227968215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99569606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9490065574646</t>
   </si>
   <si>
     <t xml:space="preserve">7.94511461257935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98402261734009</t>
+    <t xml:space="preserve">7.9840235710144</t>
   </si>
   <si>
     <t xml:space="preserve">8.11631298065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00347805023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75368547439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7708044052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76613616943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98791313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88286018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97624206542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23303699493408</t>
+    <t xml:space="preserve">8.00347900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75368595123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77080345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76613712310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98791456222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88286209106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97624111175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2330379486084</t>
   </si>
   <si>
     <t xml:space="preserve">8.24471092224121</t>
@@ -2159,34 +2159,34 @@
     <t xml:space="preserve">8.33030986785889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37699890136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40423583984375</t>
+    <t xml:space="preserve">8.3769998550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40423488616943</t>
   </si>
   <si>
     <t xml:space="preserve">8.50150680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52096176147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55208778381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45092487335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48983383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47426986694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46648979187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58321380615234</t>
+    <t xml:space="preserve">8.52095985412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55208683013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45092391967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48983287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47427082061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46648788452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58321475982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.63379573822021</t>
@@ -2204,19 +2204,19 @@
     <t xml:space="preserve">8.53652477264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71939373016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64935874938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66881275177002</t>
+    <t xml:space="preserve">8.71939468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64935779571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66881370544434</t>
   </si>
   <si>
     <t xml:space="preserve">8.68437576293945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73093128204346</t>
+    <t xml:space="preserve">8.73093223571777</t>
   </si>
   <si>
     <t xml:space="preserve">8.58100986480713</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">8.62440872192383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64807891845703</t>
+    <t xml:space="preserve">8.64807987213135</t>
   </si>
   <si>
     <t xml:space="preserve">8.56917381286621</t>
@@ -2240,22 +2240,22 @@
     <t xml:space="preserve">8.51394081115723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39163589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35612869262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08390331268311</t>
+    <t xml:space="preserve">8.39163684844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35612773895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08390140533447</t>
   </si>
   <si>
     <t xml:space="preserve">8.17069911956787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27722263336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1273021697998</t>
+    <t xml:space="preserve">8.2772216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12730121612549</t>
   </si>
   <si>
     <t xml:space="preserve">8.13913726806641</t>
@@ -2267,67 +2267,67 @@
     <t xml:space="preserve">8.15097332000732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06023216247559</t>
+    <t xml:space="preserve">8.06023120880127</t>
   </si>
   <si>
     <t xml:space="preserve">8.19437122344971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02472305297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09573841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02077865600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12335681915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22988128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98527002334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04444885253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94187355041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87322473526001</t>
+    <t xml:space="preserve">8.02472400665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09573936462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02077770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12335586547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22988033294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98527097702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04444980621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94187211990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87322425842285</t>
   </si>
   <si>
     <t xml:space="preserve">8.07601165771484</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9655442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09179401397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0562858581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00894165039062</t>
+    <t xml:space="preserve">7.96554374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09179496765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05628681182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00894260406494</t>
   </si>
   <si>
     <t xml:space="preserve">7.93792819976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92609119415283</t>
+    <t xml:space="preserve">7.92609071731567</t>
   </si>
   <si>
     <t xml:space="preserve">8.11546611785889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19042587280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21409702301025</t>
+    <t xml:space="preserve">8.19042682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21409797668457</t>
   </si>
   <si>
     <t xml:space="preserve">8.10757446289062</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">8.74276733398438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67569732666016</t>
+    <t xml:space="preserve">8.67569637298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.1667537689209</t>
@@ -2348,16 +2348,16 @@
     <t xml:space="preserve">8.28905868530273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44686985015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4626522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51788520812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60468292236328</t>
+    <t xml:space="preserve">8.44687080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46265125274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51788425445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60468101501465</t>
   </si>
   <si>
     <t xml:space="preserve">8.70725917816162</t>
@@ -2366,61 +2366,61 @@
     <t xml:space="preserve">8.66386032104492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6401891708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62835311889648</t>
+    <t xml:space="preserve">8.64018821716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6283540725708</t>
   </si>
   <si>
     <t xml:space="preserve">8.947922706604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08206272125244</t>
+    <t xml:space="preserve">9.08206176757812</t>
   </si>
   <si>
     <t xml:space="preserve">8.9045238494873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91241550445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28116798400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1549186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31667423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95765447616577</t>
+    <t xml:space="preserve">8.91241359710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28116607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15491962432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31667518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95765542984009</t>
   </si>
   <si>
     <t xml:space="preserve">7.58600807189941</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3082594871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59074211120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64439821243286</t>
+    <t xml:space="preserve">7.30825853347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5907416343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64439678192139</t>
   </si>
   <si>
     <t xml:space="preserve">7.44239902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67122602462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67385673522949</t>
+    <t xml:space="preserve">7.67122554779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67385578155518</t>
   </si>
   <si>
     <t xml:space="preserve">6.21620178222656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21778011322021</t>
+    <t xml:space="preserve">6.21778059005737</t>
   </si>
   <si>
     <t xml:space="preserve">4.84797525405884</t>
@@ -2432,25 +2432,25 @@
     <t xml:space="preserve">5.13045740127563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12572288513184</t>
+    <t xml:space="preserve">5.12572336196899</t>
   </si>
   <si>
     <t xml:space="preserve">5.02630186080933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4555492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47290849685669</t>
+    <t xml:space="preserve">5.45555019378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47290897369385</t>
   </si>
   <si>
     <t xml:space="preserve">5.66228294372559</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04892206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10415601730347</t>
+    <t xml:space="preserve">6.04892158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10415554046631</t>
   </si>
   <si>
     <t xml:space="preserve">6.38979482650757</t>
@@ -2459,37 +2459,37 @@
     <t xml:space="preserve">6.19568681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24618577957153</t>
+    <t xml:space="preserve">6.24618625640869</t>
   </si>
   <si>
     <t xml:space="preserve">6.09153032302856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83271932601929</t>
+    <t xml:space="preserve">5.83271980285645</t>
   </si>
   <si>
     <t xml:space="preserve">6.13256168365479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1783275604248</t>
+    <t xml:space="preserve">6.17832660675049</t>
   </si>
   <si>
     <t xml:space="preserve">6.34402942657471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43556070327759</t>
+    <t xml:space="preserve">6.43556022644043</t>
   </si>
   <si>
     <t xml:space="preserve">6.53182506561279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55391931533813</t>
+    <t xml:space="preserve">6.55391883850098</t>
   </si>
   <si>
     <t xml:space="preserve">6.58074712753296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00157833099365</t>
+    <t xml:space="preserve">6.00157785415649</t>
   </si>
   <si>
     <t xml:space="preserve">6.05049991607666</t>
@@ -2501,16 +2501,16 @@
     <t xml:space="preserve">6.00631237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87848472595215</t>
+    <t xml:space="preserve">5.87848424911499</t>
   </si>
   <si>
     <t xml:space="preserve">5.97159385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93214130401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83745288848877</t>
+    <t xml:space="preserve">5.93214082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83745384216309</t>
   </si>
   <si>
     <t xml:space="preserve">6.21935844421387</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">5.79957914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70331335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99210977554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11993646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87532901763916</t>
+    <t xml:space="preserve">5.70331478118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99210929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1199369430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87532806396484</t>
   </si>
   <si>
     <t xml:space="preserve">5.76801681518555</t>
@@ -2555,25 +2555,25 @@
     <t xml:space="preserve">5.84218835830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85165691375732</t>
+    <t xml:space="preserve">5.85165739059448</t>
   </si>
   <si>
     <t xml:space="preserve">5.81536054611206</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87217283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10573387145996</t>
+    <t xml:space="preserve">5.87217235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1057333946228</t>
   </si>
   <si>
     <t xml:space="preserve">6.19726467132568</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22882652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28563928604126</t>
+    <t xml:space="preserve">6.22882699966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28563976287842</t>
   </si>
   <si>
     <t xml:space="preserve">6.35823202133179</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">6.55076265335083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76065301895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92004203796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0636510848999</t>
+    <t xml:space="preserve">6.76065158843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92004299163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06365060806274</t>
   </si>
   <si>
     <t xml:space="preserve">6.84587001800537</t>
@@ -2603,28 +2603,28 @@
     <t xml:space="preserve">6.50815343856812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56338787078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6959490776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66596508026123</t>
+    <t xml:space="preserve">6.56338739395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69594955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66596460342407</t>
   </si>
   <si>
     <t xml:space="preserve">6.61862134933472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48606014251709</t>
+    <t xml:space="preserve">6.48606061935425</t>
   </si>
   <si>
     <t xml:space="preserve">6.61969995498657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73284292221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43440771102905</t>
+    <t xml:space="preserve">6.73284339904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43440675735474</t>
   </si>
   <si>
     <t xml:space="preserve">6.4803204536438</t>
@@ -2636,25 +2636,25 @@
     <t xml:space="preserve">6.54427146911621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34586048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35733938217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38521480560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48851919174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45244407653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40161228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25075483322144</t>
+    <t xml:space="preserve">6.34586000442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35733890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38521528244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4885196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45244455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40161275863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25075531005859</t>
   </si>
   <si>
     <t xml:space="preserve">6.30486679077148</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">6.42784881591797</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44588613510132</t>
+    <t xml:space="preserve">6.44588565826416</t>
   </si>
   <si>
     <t xml:space="preserve">6.71152639389038</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76071929931641</t>
+    <t xml:space="preserve">6.76071882247925</t>
   </si>
   <si>
     <t xml:space="preserve">6.82138967514038</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">6.71316623687744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68037128448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51311588287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47704172134399</t>
+    <t xml:space="preserve">6.68037080764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51311540603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47704076766968</t>
   </si>
   <si>
     <t xml:space="preserve">6.46064376831055</t>
@@ -2702,25 +2702,25 @@
     <t xml:space="preserve">6.35569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47376155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51803493499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51639556884766</t>
+    <t xml:space="preserve">6.47376203536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51803588867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5163950920105</t>
   </si>
   <si>
     <t xml:space="preserve">6.41473054885864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46556329727173</t>
+    <t xml:space="preserve">6.46556282043457</t>
   </si>
   <si>
     <t xml:space="preserve">6.57870626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68365144729614</t>
+    <t xml:space="preserve">6.68365049362183</t>
   </si>
   <si>
     <t xml:space="preserve">6.67545175552368</t>
@@ -2729,52 +2729,52 @@
     <t xml:space="preserve">6.59510326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56722784042358</t>
+    <t xml:space="preserve">6.56722736358643</t>
   </si>
   <si>
     <t xml:space="preserve">6.46392297744751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44260549545288</t>
+    <t xml:space="preserve">6.44260597229004</t>
   </si>
   <si>
     <t xml:space="preserve">6.50983619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39833307266235</t>
+    <t xml:space="preserve">6.39833211898804</t>
   </si>
   <si>
     <t xml:space="preserve">6.48523950576782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50655603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43112754821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43604707717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34094142913818</t>
+    <t xml:space="preserve">6.50655651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43112802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43604755401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34094190597534</t>
   </si>
   <si>
     <t xml:space="preserve">6.29338836669922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30650663375854</t>
+    <t xml:space="preserve">6.30650568008423</t>
   </si>
   <si>
     <t xml:space="preserve">6.5245943069458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39013385772705</t>
+    <t xml:space="preserve">6.39013433456421</t>
   </si>
   <si>
     <t xml:space="preserve">6.54263114929199</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53115320205688</t>
+    <t xml:space="preserve">6.53115367889404</t>
   </si>
   <si>
     <t xml:space="preserve">6.53443288803101</t>
@@ -2783,34 +2783,34 @@
     <t xml:space="preserve">6.49671792984009</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36389780044556</t>
+    <t xml:space="preserve">6.36389827728271</t>
   </si>
   <si>
     <t xml:space="preserve">6.14253091812134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22943830490112</t>
+    <t xml:space="preserve">6.22943782806396</t>
   </si>
   <si>
     <t xml:space="preserve">6.28027009963989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26715183258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21959924697876</t>
+    <t xml:space="preserve">6.26715230941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21959972381592</t>
   </si>
   <si>
     <t xml:space="preserve">6.33766174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21140050888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20484113693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15892839431763</t>
+    <t xml:space="preserve">6.21140098571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20484161376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15892791748047</t>
   </si>
   <si>
     <t xml:space="preserve">6.19500303268433</t>
@@ -2819,67 +2819,67 @@
     <t xml:space="preserve">6.63117837905884</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57378673553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57050704956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57214689254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58690547943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5885443687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25895261764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.336021900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34422063827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.226158618927</t>
+    <t xml:space="preserve">6.57378625869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57050800323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57214736938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58690452575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58854532241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25895357131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33602237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34422016143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22615814208984</t>
   </si>
   <si>
     <t xml:space="preserve">6.23599672317505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22451829910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12449312210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08021974563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82441806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74570989608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73915004730225</t>
+    <t xml:space="preserve">6.22451877593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12449359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08022022247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82441759109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74570941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7391505241394</t>
   </si>
   <si>
     <t xml:space="preserve">5.87689018249512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93264150619507</t>
+    <t xml:space="preserve">5.93264198303223</t>
   </si>
   <si>
     <t xml:space="preserve">6.11957454681396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32126426696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21795988082886</t>
+    <t xml:space="preserve">6.32126474380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2179594039917</t>
   </si>
   <si>
     <t xml:space="preserve">6.43768692016602</t>
@@ -2888,16 +2888,16 @@
     <t xml:space="preserve">6.59674310684204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54919004440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74760055541992</t>
+    <t xml:space="preserve">6.54919052124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74760007858276</t>
   </si>
   <si>
     <t xml:space="preserve">6.97224760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06243467330933</t>
+    <t xml:space="preserve">7.06243419647217</t>
   </si>
   <si>
     <t xml:space="preserve">7.18213653564453</t>
@@ -2906,25 +2906,25 @@
     <t xml:space="preserve">7.25920534133911</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14770174026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1854772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34753084182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27736473083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35087394714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13702869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19383144378662</t>
+    <t xml:space="preserve">7.14770269393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18547868728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34753179550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27736377716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35087299346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13702821731567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19383192062378</t>
   </si>
   <si>
     <t xml:space="preserve">7.07855606079102</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">7.10361623764038</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02342462539673</t>
+    <t xml:space="preserve">7.02342510223389</t>
   </si>
   <si>
     <t xml:space="preserve">7.01173067092896</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">7.0217547416687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03177833557129</t>
+    <t xml:space="preserve">7.03177785873413</t>
   </si>
   <si>
     <t xml:space="preserve">6.97497653961182</t>
@@ -2951,19 +2951,19 @@
     <t xml:space="preserve">6.96996450424194</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0818977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00838899612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98165845870972</t>
+    <t xml:space="preserve">7.08189725875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00838994979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98165798187256</t>
   </si>
   <si>
     <t xml:space="preserve">6.82127571105957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96160984039307</t>
+    <t xml:space="preserve">6.96161079406738</t>
   </si>
   <si>
     <t xml:space="preserve">6.99001216888428</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">6.9231858253479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13368797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28237628936768</t>
+    <t xml:space="preserve">7.1336874961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28237676620483</t>
   </si>
   <si>
     <t xml:space="preserve">7.17879581451416</t>
@@ -2993,13 +2993,13 @@
     <t xml:space="preserve">7.04514312744141</t>
   </si>
   <si>
-    <t xml:space="preserve">6.976646900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00003623962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94156312942505</t>
+    <t xml:space="preserve">6.97664642333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00003576278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94156265258789</t>
   </si>
   <si>
     <t xml:space="preserve">7.01340103149414</t>
@@ -3008,58 +3008,58 @@
     <t xml:space="preserve">6.94824552536011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90647840499878</t>
+    <t xml:space="preserve">6.90647983551025</t>
   </si>
   <si>
     <t xml:space="preserve">6.85635995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9850001335144</t>
+    <t xml:space="preserve">6.98500061035156</t>
   </si>
   <si>
     <t xml:space="preserve">6.81626415252686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8780779838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74609708786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92819738388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91650295257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40934610366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52796173095703</t>
+    <t xml:space="preserve">6.87807846069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74609661102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92819786071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91650247573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40934562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52796220779419</t>
   </si>
   <si>
     <t xml:space="preserve">7.70171022415161</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8988471031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99407339096069</t>
+    <t xml:space="preserve">7.89884757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99407386779785</t>
   </si>
   <si>
     <t xml:space="preserve">7.94729566574097</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06089973449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08428955078125</t>
+    <t xml:space="preserve">8.06090068817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08428859710693</t>
   </si>
   <si>
     <t xml:space="preserve">8.16114044189453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06257152557373</t>
+    <t xml:space="preserve">8.06257247924805</t>
   </si>
   <si>
     <t xml:space="preserve">7.92056560516357</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">7.77187728881836</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85039758682251</t>
+    <t xml:space="preserve">7.85039806365967</t>
   </si>
   <si>
     <t xml:space="preserve">8.05588817596436</t>
@@ -3077,13 +3077,13 @@
     <t xml:space="preserve">7.95899057388306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97736835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02581596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8554105758667</t>
+    <t xml:space="preserve">7.97736787796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02581691741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85541009902954</t>
   </si>
   <si>
     <t xml:space="preserve">8.20958805084229</t>
@@ -3092,10 +3092,10 @@
     <t xml:space="preserve">8.24968433380127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31149768829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33154582977295</t>
+    <t xml:space="preserve">8.31149864196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33154487609863</t>
   </si>
   <si>
     <t xml:space="preserve">8.22796535491943</t>
@@ -3110,19 +3110,19 @@
     <t xml:space="preserve">8.54539012908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5078010559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58297824859619</t>
+    <t xml:space="preserve">8.50780010223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58297920227051</t>
   </si>
   <si>
     <t xml:space="preserve">8.53286075592041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71663188934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67068862915039</t>
+    <t xml:space="preserve">8.71663284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67068958282471</t>
   </si>
   <si>
     <t xml:space="preserve">8.73333835601807</t>
@@ -3131,49 +3131,49 @@
     <t xml:space="preserve">8.63727569580078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77510356903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69992542266846</t>
+    <t xml:space="preserve">8.77510452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69992446899414</t>
   </si>
   <si>
     <t xml:space="preserve">8.74586772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73751544952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81269264221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00481796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06746864318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05493831634521</t>
+    <t xml:space="preserve">8.73751354217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81269359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00481986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06746768951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05493927001953</t>
   </si>
   <si>
     <t xml:space="preserve">9.11341094970703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13847064971924</t>
+    <t xml:space="preserve">9.13847160339355</t>
   </si>
   <si>
     <t xml:space="preserve">9.12594223022461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99646663665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01734924316406</t>
+    <t xml:space="preserve">8.99646472930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01734828948975</t>
   </si>
   <si>
     <t xml:space="preserve">9.00899505615234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90875625610352</t>
+    <t xml:space="preserve">8.90875720977783</t>
   </si>
   <si>
     <t xml:space="preserve">8.90040302276611</t>
@@ -3194,10 +3194,10 @@
     <t xml:space="preserve">9.06329250335693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02987861633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04240798950195</t>
+    <t xml:space="preserve">9.02987957000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04240703582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.12176418304443</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">9.11758804321289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10505771636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23035717010498</t>
+    <t xml:space="preserve">9.10505867004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2303581237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.16353130340576</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">9.18859195709229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37654113769531</t>
+    <t xml:space="preserve">9.37653923034668</t>
   </si>
   <si>
     <t xml:space="preserve">9.33477401733398</t>
@@ -3230,10 +3230,10 @@
     <t xml:space="preserve">9.21782684326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22200393676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28883075714111</t>
+    <t xml:space="preserve">9.22200489044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2888298034668</t>
   </si>
   <si>
     <t xml:space="preserve">9.43083572387695</t>
@@ -3242,16 +3242,16 @@
     <t xml:space="preserve">9.41830539703369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38071537017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46007251739502</t>
+    <t xml:space="preserve">9.38071632385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4600715637207</t>
   </si>
   <si>
     <t xml:space="preserve">9.60625457763672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77332019805908</t>
+    <t xml:space="preserve">9.77331924438477</t>
   </si>
   <si>
     <t xml:space="preserve">9.64384365081787</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">9.59790134429932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61043071746826</t>
+    <t xml:space="preserve">9.61043167114258</t>
   </si>
   <si>
     <t xml:space="preserve">9.66055107116699</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">9.85685157775879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94873809814453</t>
+    <t xml:space="preserve">9.94873714447021</t>
   </si>
   <si>
     <t xml:space="preserve">10.0740375518799</t>
@@ -3281,31 +3281,31 @@
     <t xml:space="preserve">10.0907430648804</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0113878250122</t>
+    <t xml:space="preserve">10.0113868713379</t>
   </si>
   <si>
     <t xml:space="preserve">10.0364484786987</t>
   </si>
   <si>
-    <t xml:space="preserve">10.007209777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.082389831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0197410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76914405822754</t>
+    <t xml:space="preserve">10.0072107315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0823907852173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0197401046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76914119720459</t>
   </si>
   <si>
     <t xml:space="preserve">9.89285755157471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75969219207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64371109008789</t>
+    <t xml:space="preserve">9.75969123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64371013641357</t>
   </si>
   <si>
     <t xml:space="preserve">9.81553649902344</t>
@@ -3314,28 +3314,28 @@
     <t xml:space="preserve">9.78546619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62652683258057</t>
+    <t xml:space="preserve">9.62652778625488</t>
   </si>
   <si>
     <t xml:space="preserve">9.58357048034668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57927417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69096088409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60504913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74251079559326</t>
+    <t xml:space="preserve">9.57927513122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69096279144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6050500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74250984191895</t>
   </si>
   <si>
     <t xml:space="preserve">9.59645748138428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63511848449707</t>
+    <t xml:space="preserve">9.63511943817139</t>
   </si>
   <si>
     <t xml:space="preserve">9.30005836486816</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">9.48047542572021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4761791229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44181537628174</t>
+    <t xml:space="preserve">9.47618007659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44181442260742</t>
   </si>
   <si>
     <t xml:space="preserve">9.31294631958008</t>
@@ -3359,16 +3359,16 @@
     <t xml:space="preserve">9.34301567077637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02513790130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1153450012207</t>
+    <t xml:space="preserve">9.02513885498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11534690856934</t>
   </si>
   <si>
     <t xml:space="preserve">9.40315341949463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54491138458252</t>
+    <t xml:space="preserve">9.5449104309082</t>
   </si>
   <si>
     <t xml:space="preserve">9.63082408905029</t>
@@ -3377,55 +3377,55 @@
     <t xml:space="preserve">9.70814514160156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61363983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59216213226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55779647827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75539588928223</t>
+    <t xml:space="preserve">9.61363887786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5921630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5577974319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75539684295654</t>
   </si>
   <si>
     <t xml:space="preserve">9.90144824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94870090484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98736095428467</t>
+    <t xml:space="preserve">9.94869899749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98736190795898</t>
   </si>
   <si>
     <t xml:space="preserve">10.0689783096313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0904560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389089584351</t>
+    <t xml:space="preserve">10.0904569625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389099121094</t>
   </si>
   <si>
     <t xml:space="preserve">9.97447395324707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91863059997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0002498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8756742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80264854431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0174293518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99165725708008</t>
+    <t xml:space="preserve">9.9186315536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0002479553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87567329406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80264759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.017430305481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99165630340576</t>
   </si>
   <si>
     <t xml:space="preserve">9.95729160308838</t>
@@ -3443,25 +3443,25 @@
     <t xml:space="preserve">9.99595260620117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84560489654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91433525085449</t>
+    <t xml:space="preserve">9.84560585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91433620452881</t>
   </si>
   <si>
     <t xml:space="preserve">9.93151760101318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0217266082764</t>
+    <t xml:space="preserve">10.0217256546021</t>
   </si>
   <si>
     <t xml:space="preserve">10.1806659698486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0861616134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1248226165771</t>
+    <t xml:space="preserve">10.08616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1248216629028</t>
   </si>
   <si>
     <t xml:space="preserve">10.2150297164917</t>
@@ -3473,34 +3473,34 @@
     <t xml:space="preserve">10.2493953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3438987731934</t>
+    <t xml:space="preserve">10.3438997268677</t>
   </si>
   <si>
     <t xml:space="preserve">10.0947523117065</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1634826660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.227915763855</t>
+    <t xml:space="preserve">10.1634817123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2279167175293</t>
   </si>
   <si>
     <t xml:space="preserve">10.1849603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3911514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3310117721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4598817825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4641771316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4469947814941</t>
+    <t xml:space="preserve">10.391152381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3310127258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4598808288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4641780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4469957351685</t>
   </si>
   <si>
     <t xml:space="preserve">10.5844554901123</t>
@@ -3515,19 +3515,19 @@
     <t xml:space="preserve">10.6746635437012</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6402978897095</t>
+    <t xml:space="preserve">10.6402988433838</t>
   </si>
   <si>
     <t xml:space="preserve">10.5243158340454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7863502502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7476892471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7262115478516</t>
+    <t xml:space="preserve">10.7863492965698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7476902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7262105941772</t>
   </si>
   <si>
     <t xml:space="preserve">10.8894453048706</t>
@@ -3536,25 +3536,25 @@
     <t xml:space="preserve">10.7949409484863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7777585983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6016368865967</t>
+    <t xml:space="preserve">10.777759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.601637840271</t>
   </si>
   <si>
     <t xml:space="preserve">10.6918458938599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6531839370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7820558547974</t>
+    <t xml:space="preserve">10.6531848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.782054901123</t>
   </si>
   <si>
     <t xml:space="preserve">10.7047328948975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7348022460938</t>
+    <t xml:space="preserve">10.7348031997681</t>
   </si>
   <si>
     <t xml:space="preserve">10.6875495910645</t>
@@ -3563,52 +3563,52 @@
     <t xml:space="preserve">10.5801591873169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5200204849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5329074859619</t>
+    <t xml:space="preserve">10.52001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5329065322876</t>
   </si>
   <si>
     <t xml:space="preserve">10.4341077804565</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3653764724731</t>
+    <t xml:space="preserve">10.3653774261475</t>
   </si>
   <si>
     <t xml:space="preserve">10.3435649871826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2606773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2301397323608</t>
+    <t xml:space="preserve">10.2606763839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2301387786865</t>
   </si>
   <si>
     <t xml:space="preserve">10.077449798584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66300964355469</t>
+    <t xml:space="preserve">9.66300868988037</t>
   </si>
   <si>
     <t xml:space="preserve">9.76771068572998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71972370147705</t>
+    <t xml:space="preserve">9.71972274780273</t>
   </si>
   <si>
     <t xml:space="preserve">9.90294933319092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79824829101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72408580780029</t>
+    <t xml:space="preserve">9.79824733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72408485412598</t>
   </si>
   <si>
     <t xml:space="preserve">9.75898551940918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89422416687012</t>
+    <t xml:space="preserve">9.8942232131958</t>
   </si>
   <si>
     <t xml:space="preserve">9.75462341308594</t>
@@ -3620,37 +3620,37 @@
     <t xml:space="preserve">9.64119625091553</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6455602645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66737079620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71099758148193</t>
+    <t xml:space="preserve">9.64555931091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66737270355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71099662780762</t>
   </si>
   <si>
     <t xml:space="preserve">9.78079795837402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79388618469238</t>
+    <t xml:space="preserve">9.79388523101807</t>
   </si>
   <si>
     <t xml:space="preserve">9.57139682769775</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7284460067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82442283630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9116735458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99892425537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0818138122559</t>
+    <t xml:space="preserve">9.72844696044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82442378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91167259216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99892520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0818128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599994659424</t>
@@ -3665,49 +3665,49 @@
     <t xml:space="preserve">10.2257766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2650384902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1777877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2083253860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.238862991333</t>
+    <t xml:space="preserve">10.2650394439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1777868270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2083263397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2388639450073</t>
   </si>
   <si>
     <t xml:space="preserve">10.1690635681152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.121075630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1298007965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.090537071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1123504638672</t>
+    <t xml:space="preserve">10.1210765838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1297998428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0905380249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1123495101929</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952390670776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0207376480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.619384765625</t>
+    <t xml:space="preserve">10.0207366943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61938381195068</t>
   </si>
   <si>
     <t xml:space="preserve">9.85496044158936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0730876922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95093631744385</t>
+    <t xml:space="preserve">10.0730886459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95093727111816</t>
   </si>
   <si>
     <t xml:space="preserve">10.4090032577515</t>
@@ -3719,19 +3719,19 @@
     <t xml:space="preserve">9.50159549713135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56267166137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60629653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41870784759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68045902252197</t>
+    <t xml:space="preserve">9.56267070770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60629749298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4187068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5932092666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68045997619629</t>
   </si>
   <si>
     <t xml:space="preserve">9.71535968780518</t>
@@ -3749,10 +3749,10 @@
     <t xml:space="preserve">9.27910614013672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75996589660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04789352416992</t>
+    <t xml:space="preserve">8.75996398925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04789257049561</t>
   </si>
   <si>
     <t xml:space="preserve">8.96500396728516</t>
@@ -3761,22 +3761,22 @@
     <t xml:space="preserve">8.60291290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58895301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46854782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92235994338989</t>
+    <t xml:space="preserve">8.58895397186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46854877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92235946655273</t>
   </si>
   <si>
     <t xml:space="preserve">7.75134754180908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11081886291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82976531982422</t>
+    <t xml:space="preserve">8.11082077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82976627349854</t>
   </si>
   <si>
     <t xml:space="preserve">8.38304233551025</t>
@@ -3791,10 +3791,10 @@
     <t xml:space="preserve">8.61512851715088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0042667388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81667709350586</t>
+    <t xml:space="preserve">9.00426578521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81667804718018</t>
   </si>
   <si>
     <t xml:space="preserve">8.79050254821777</t>
@@ -3809,19 +3809,19 @@
     <t xml:space="preserve">9.04352951049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20494365692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08279228210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18749237060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26601886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22675609588623</t>
+    <t xml:space="preserve">9.20494270324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08279323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18749332427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26601982116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22675514221191</t>
   </si>
   <si>
     <t xml:space="preserve">9.07406806945801</t>
@@ -3833,10 +3833,10 @@
     <t xml:space="preserve">8.74687767028809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61338329315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78177642822266</t>
+    <t xml:space="preserve">8.61338424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78177833557129</t>
   </si>
   <si>
     <t xml:space="preserve">8.71110534667969</t>
@@ -3845,31 +3845,31 @@
     <t xml:space="preserve">8.58022880554199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49297714233398</t>
+    <t xml:space="preserve">8.4929780960083</t>
   </si>
   <si>
     <t xml:space="preserve">8.56103420257568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42317771911621</t>
+    <t xml:space="preserve">8.42317867279053</t>
   </si>
   <si>
     <t xml:space="preserve">8.64479446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61687564849854</t>
+    <t xml:space="preserve">8.61687469482422</t>
   </si>
   <si>
     <t xml:space="preserve">8.46505832672119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22599124908447</t>
+    <t xml:space="preserve">8.22599220275879</t>
   </si>
   <si>
     <t xml:space="preserve">8.11605548858643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08988094329834</t>
+    <t xml:space="preserve">8.08987998962402</t>
   </si>
   <si>
     <t xml:space="preserve">8.14223003387451</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">7.85430383682251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65013599395752</t>
+    <t xml:space="preserve">7.65013694763184</t>
   </si>
   <si>
     <t xml:space="preserve">7.831618309021</t>
@@ -3899,25 +3899,25 @@
     <t xml:space="preserve">8.01309871673584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26438140869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43713855743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31847667694092</t>
+    <t xml:space="preserve">8.26438236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43713760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31847763061523</t>
   </si>
   <si>
     <t xml:space="preserve">8.39700222015381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34639739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31673240661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29230213165283</t>
+    <t xml:space="preserve">8.34639644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31673145294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29230117797852</t>
   </si>
   <si>
     <t xml:space="preserve">8.45458698272705</t>
@@ -3932,46 +3932,46 @@
     <t xml:space="preserve">8.50868320465088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66573619842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8559398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74251556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7381534576416</t>
+    <t xml:space="preserve">8.66573524475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85594081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74251461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73815250396729</t>
   </si>
   <si>
     <t xml:space="preserve">8.65526485443115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82104110717773</t>
+    <t xml:space="preserve">8.82104015350342</t>
   </si>
   <si>
     <t xml:space="preserve">8.80359077453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68143939971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98517990112305</t>
+    <t xml:space="preserve">8.68144035339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98517942428589</t>
   </si>
   <si>
     <t xml:space="preserve">7.71819305419922</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95551347732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21726608276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80893278121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84906911849976</t>
+    <t xml:space="preserve">7.9555139541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21726703643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80893230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8490686416626</t>
   </si>
   <si>
     <t xml:space="preserve">8.03453636169434</t>
@@ -3980,121 +3980,121 @@
     <t xml:space="preserve">7.96692800521851</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00347232818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94134569168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17341041564941</t>
+    <t xml:space="preserve">8.00347328186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94134616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1734094619751</t>
   </si>
   <si>
     <t xml:space="preserve">8.13321018218994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29583835601807</t>
+    <t xml:space="preserve">8.29583740234375</t>
   </si>
   <si>
     <t xml:space="preserve">8.23371028900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14234638214111</t>
+    <t xml:space="preserve">8.1423454284668</t>
   </si>
   <si>
     <t xml:space="preserve">8.14600086212158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13869094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81160879135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86094570159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0637731552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93769073486328</t>
+    <t xml:space="preserve">8.13869190216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81160926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86094522476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06377410888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93769121170044</t>
   </si>
   <si>
     <t xml:space="preserve">7.78785467147827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82257270812988</t>
+    <t xml:space="preserve">7.82257318496704</t>
   </si>
   <si>
     <t xml:space="preserve">7.65811777114868</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26890802383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45346260070801</t>
+    <t xml:space="preserve">7.26890754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45346307754517</t>
   </si>
   <si>
     <t xml:space="preserve">7.59416389465332</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84632778167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67273616790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29814481735229</t>
+    <t xml:space="preserve">7.84632730484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67273569107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29814386367798</t>
   </si>
   <si>
     <t xml:space="preserve">7.39498996734619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42605400085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40960741043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42239856719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36027145385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46442651748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53751754760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44615364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57223606109619</t>
+    <t xml:space="preserve">7.42605352401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40960788726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42239904403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36027097702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46442699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53751802444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44615316390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57223558425903</t>
   </si>
   <si>
     <t xml:space="preserve">7.65994453430176</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74582719802856</t>
+    <t xml:space="preserve">7.74582672119141</t>
   </si>
   <si>
     <t xml:space="preserve">7.67456293106079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63253593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67821836471558</t>
+    <t xml:space="preserve">7.63253545761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67821788787842</t>
   </si>
   <si>
     <t xml:space="preserve">7.79150867462158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79881811141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73303651809692</t>
+    <t xml:space="preserve">7.79881858825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73303604125977</t>
   </si>
   <si>
     <t xml:space="preserve">7.63070869445801</t>
@@ -4103,13 +4103,13 @@
     <t xml:space="preserve">7.49183559417725</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30179882049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41326284408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37671756744385</t>
+    <t xml:space="preserve">7.30179929733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41326332092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37671709060669</t>
   </si>
   <si>
     <t xml:space="preserve">7.35296297073364</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">7.2597713470459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20495367050171</t>
+    <t xml:space="preserve">7.20495319366455</t>
   </si>
   <si>
     <t xml:space="preserve">7.40047216415405</t>
@@ -4136,13 +4136,13 @@
     <t xml:space="preserve">7.29083490371704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31093549728394</t>
+    <t xml:space="preserve">7.31093454360962</t>
   </si>
   <si>
     <t xml:space="preserve">7.38768100738525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50097227096558</t>
+    <t xml:space="preserve">7.50097179412842</t>
   </si>
   <si>
     <t xml:space="preserve">7.60147190093994</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">7.67639064788818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55761766433716</t>
+    <t xml:space="preserve">7.55761814117432</t>
   </si>
   <si>
     <t xml:space="preserve">7.59050798416138</t>
@@ -4163,10 +4163,10 @@
     <t xml:space="preserve">7.43153524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42788076400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21408939361572</t>
+    <t xml:space="preserve">7.42788124084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21408987045288</t>
   </si>
   <si>
     <t xml:space="preserve">7.28718042373657</t>
@@ -4178,37 +4178,37 @@
     <t xml:space="preserve">7.1446533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99664306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11724424362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26342582702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47721719741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36940813064575</t>
+    <t xml:space="preserve">6.99664354324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11724376678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26342630386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47721767425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36940765380859</t>
   </si>
   <si>
     <t xml:space="preserve">7.24515295028687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14648056030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.162926197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99847078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11358880996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22139835357666</t>
+    <t xml:space="preserve">7.14648008346558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16292572021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99847030639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1135892868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22139883041382</t>
   </si>
   <si>
     <t xml:space="preserve">7.40229940414429</t>
@@ -4217,10 +4217,10 @@
     <t xml:space="preserve">7.67090845108032</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62888145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60329866409302</t>
+    <t xml:space="preserve">7.62888193130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60329914093018</t>
   </si>
   <si>
     <t xml:space="preserve">7.53020811080933</t>
@@ -4232,10 +4232,10 @@
     <t xml:space="preserve">7.77506351470947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84815406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07839107513428</t>
+    <t xml:space="preserve">7.84815454483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07839202880859</t>
   </si>
   <si>
     <t xml:space="preserve">8.01626396179199</t>
@@ -4259,7 +4259,7 @@
     <t xml:space="preserve">8.3872013092041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43836498260498</t>
+    <t xml:space="preserve">8.4383659362793</t>
   </si>
   <si>
     <t xml:space="preserve">8.54251956939697</t>
@@ -4268,10 +4268,10 @@
     <t xml:space="preserve">8.91162967681885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8056468963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86594772338867</t>
+    <t xml:space="preserve">8.80564785003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86594867706299</t>
   </si>
   <si>
     <t xml:space="preserve">8.89883899688721</t>
@@ -4280,16 +4280,16 @@
     <t xml:space="preserve">8.79285621643066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73255634307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77458477020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73535442352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69425487518311</t>
+    <t xml:space="preserve">8.73255729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77458381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73535346984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69425392150879</t>
   </si>
   <si>
     <t xml:space="preserve">8.78392505645752</t>
@@ -4301,16 +4301,16 @@
     <t xml:space="preserve">8.82315540313721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72227764129639</t>
+    <t xml:space="preserve">8.72227668762207</t>
   </si>
   <si>
     <t xml:space="preserve">8.80073833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76711177825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82689094543457</t>
+    <t xml:space="preserve">8.76711082458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82689189910889</t>
   </si>
   <si>
     <t xml:space="preserve">8.80447387695312</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">8.72974872589111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83623313903809</t>
+    <t xml:space="preserve">8.83623218536377</t>
   </si>
   <si>
     <t xml:space="preserve">8.67744159698486</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">8.75963973999023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86612224578857</t>
+    <t xml:space="preserve">8.86612129211426</t>
   </si>
   <si>
     <t xml:space="preserve">8.86799049377441</t>
@@ -4358,7 +4358,7 @@
     <t xml:space="preserve">8.61205768585205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62326622009277</t>
+    <t xml:space="preserve">8.62326717376709</t>
   </si>
   <si>
     <t xml:space="preserve">8.54480457305908</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">9.00996780395508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88480281829834</t>
+    <t xml:space="preserve">8.88480377197266</t>
   </si>
   <si>
     <t xml:space="preserve">8.97260570526123</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">8.95579242706299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06040668487549</t>
+    <t xml:space="preserve">9.0604076385498</t>
   </si>
   <si>
     <t xml:space="preserve">8.98194599151611</t>
@@ -4394,19 +4394,19 @@
     <t xml:space="preserve">9.06414413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08842849731445</t>
+    <t xml:space="preserve">9.08842945098877</t>
   </si>
   <si>
     <t xml:space="preserve">9.1388692855835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08095741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12205600738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92216682434082</t>
+    <t xml:space="preserve">9.08095645904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12205505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9221658706665</t>
   </si>
   <si>
     <t xml:space="preserve">8.95018768310547</t>
@@ -4415,13 +4415,13 @@
     <t xml:space="preserve">8.99315547943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00249481201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13139629364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10150718688965</t>
+    <t xml:space="preserve">9.00249576568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13139533996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10150623321533</t>
   </si>
   <si>
     <t xml:space="preserve">9.14073657989502</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">9.58348274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38733005523682</t>
+    <t xml:space="preserve">9.3873291015625</t>
   </si>
   <si>
     <t xml:space="preserve">9.52276802062988</t>
@@ -4454,7 +4454,7 @@
     <t xml:space="preserve">9.47139549255371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55545997619629</t>
+    <t xml:space="preserve">9.55546092987061</t>
   </si>
   <si>
     <t xml:space="preserve">9.55079078674316</t>
@@ -4466,34 +4466,34 @@
     <t xml:space="preserve">9.32007598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20612049102783</t>
+    <t xml:space="preserve">9.20612144470215</t>
   </si>
   <si>
     <t xml:space="preserve">9.33689022064209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52743816375732</t>
+    <t xml:space="preserve">9.52743911743164</t>
   </si>
   <si>
     <t xml:space="preserve">9.38265895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37798881530762</t>
+    <t xml:space="preserve">9.3779878616333</t>
   </si>
   <si>
     <t xml:space="preserve">9.46205425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63485527038574</t>
+    <t xml:space="preserve">9.63485622406006</t>
   </si>
   <si>
     <t xml:space="preserve">9.57414150238037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54611968994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48073482513428</t>
+    <t xml:space="preserve">9.54612064361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48073577880859</t>
   </si>
   <si>
     <t xml:space="preserve">9.32941722869873</t>
@@ -4505,13 +4505,13 @@
     <t xml:space="preserve">9.09403419494629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6550235748291</t>
+    <t xml:space="preserve">8.65502452850342</t>
   </si>
   <si>
     <t xml:space="preserve">8.41777229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50557422637939</t>
+    <t xml:space="preserve">8.50557327270508</t>
   </si>
   <si>
     <t xml:space="preserve">8.79513359069824</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">8.73722171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7540340423584</t>
+    <t xml:space="preserve">8.75403499603271</t>
   </si>
   <si>
     <t xml:space="preserve">8.58963966369629</t>
@@ -4553,13 +4553,13 @@
     <t xml:space="preserve">8.91469383239746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78018856048584</t>
+    <t xml:space="preserve">8.78018760681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.83996772766113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93337440490723</t>
+    <t xml:space="preserve">8.93337535858154</t>
   </si>
   <si>
     <t xml:space="preserve">8.84557342529297</t>
@@ -4571,7 +4571,7 @@
     <t xml:space="preserve">8.86238574981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79700183868408</t>
+    <t xml:space="preserve">8.7970027923584</t>
   </si>
   <si>
     <t xml:space="preserve">8.89601230621338</t>
@@ -4589,7 +4589,7 @@
     <t xml:space="preserve">8.85117721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89414501190186</t>
+    <t xml:space="preserve">8.89414405822754</t>
   </si>
   <si>
     <t xml:space="preserve">8.98755073547363</t>
@@ -4610,13 +4610,13 @@
     <t xml:space="preserve">9.04919815063477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01930809020996</t>
+    <t xml:space="preserve">9.01930904388428</t>
   </si>
   <si>
     <t xml:space="preserve">9.27524185180664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24908828735352</t>
+    <t xml:space="preserve">9.24908924102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.03985786437988</t>
@@ -4625,25 +4625,25 @@
     <t xml:space="preserve">9.1500768661499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12579154968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05667209625244</t>
+    <t xml:space="preserve">9.12579250335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05667114257812</t>
   </si>
   <si>
     <t xml:space="preserve">9.11645126342773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34062576293945</t>
+    <t xml:space="preserve">9.34062671661377</t>
   </si>
   <si>
     <t xml:space="preserve">9.2528247833252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28645133972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31820869445801</t>
+    <t xml:space="preserve">9.28645038604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31820774078369</t>
   </si>
   <si>
     <t xml:space="preserve">9.25095653533936</t>
@@ -4652,13 +4652,13 @@
     <t xml:space="preserve">9.33128547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35930824279785</t>
+    <t xml:space="preserve">9.35930728912354</t>
   </si>
   <si>
     <t xml:space="preserve">9.42936229705811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40133953094482</t>
+    <t xml:space="preserve">9.40134048461914</t>
   </si>
   <si>
     <t xml:space="preserve">9.42316436767578</t>
@@ -5277,6 +5277,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.3900003433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1750001907349</t>
   </si>
 </sst>
 </file>
@@ -61518,7 +61521,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6502430556</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>3597177</v>
@@ -61539,6 +61542,32 @@
         <v>1754</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6495601852</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>4000333</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>12.4200000762939</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>12.0200004577637</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>12.3900003433228</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>12.1750001907349</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51181554794312</t>
+    <t xml:space="preserve">4.5118145942688</t>
   </si>
   <si>
     <t xml:space="preserve">4.44288492202759</t>
@@ -53,37 +53,37 @@
     <t xml:space="preserve">4.41781949996948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37708759307861</t>
+    <t xml:space="preserve">4.37708711624146</t>
   </si>
   <si>
     <t xml:space="preserve">4.33635568618774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43975114822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49301624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46794986724854</t>
+    <t xml:space="preserve">4.43975162506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4930157661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46795034408569</t>
   </si>
   <si>
     <t xml:space="preserve">4.41155242919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27995777130127</t>
+    <t xml:space="preserve">4.27995824813843</t>
   </si>
   <si>
     <t xml:space="preserve">4.19849443435669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96663665771484</t>
+    <t xml:space="preserve">3.96663761138916</t>
   </si>
   <si>
     <t xml:space="preserve">4.12016487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17342901229858</t>
+    <t xml:space="preserve">4.17342853546143</t>
   </si>
   <si>
     <t xml:space="preserve">4.0856990814209</t>
@@ -92,115 +92,115 @@
     <t xml:space="preserve">4.20476150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25802564620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17029619216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27682399749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16089534759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07316589355469</t>
+    <t xml:space="preserve">4.25802612304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17029571533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27682542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16089630126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07316637039185</t>
   </si>
   <si>
     <t xml:space="preserve">3.94783854484558</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75044679641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35879588127136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23973393440247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54365515708923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39012789726257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40266013145447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50605654716492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49039006233215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63138461112976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61571836471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6940484046936</t>
+    <t xml:space="preserve">3.75044655799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3587954044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23973417282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54365539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39012742042542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40266060829163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50605607032776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49039053916931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6313841342926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61571884155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69404864311218</t>
   </si>
   <si>
     <t xml:space="preserve">3.82564353942871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74104619026184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70344853401184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80997729301453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86324167251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.929039478302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89457368850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86010813713074</t>
+    <t xml:space="preserve">3.741046667099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7034478187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80997753143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86324238777161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92903852462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89457416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86010789871216</t>
   </si>
   <si>
     <t xml:space="preserve">3.88517379760742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8413097858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86637496948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83817625045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03870153427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06689929962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06376695632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03243446350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01050233840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02616882324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10449838638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24235916137695</t>
+    <t xml:space="preserve">3.84130930900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86637473106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83817553520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03870105743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06690073013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06376647949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03243494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01050281524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02616834640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10449886322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24235963821411</t>
   </si>
   <si>
     <t xml:space="preserve">4.22356033325195</t>
@@ -209,103 +209,103 @@
     <t xml:space="preserve">4.15149688720703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22982740402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16716289520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.110764503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04183483123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92590594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98857021331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00736999511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02930164337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04810047149658</t>
+    <t xml:space="preserve">4.2298264503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16716241836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11076498031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04183387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92590570449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98857045173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00736856460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02930212020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04810094833374</t>
   </si>
   <si>
     <t xml:space="preserve">4.13583087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06063365936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05749988555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08883285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05436754226685</t>
+    <t xml:space="preserve">4.06063413619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05750036239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08883237838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05436706542969</t>
   </si>
   <si>
     <t xml:space="preserve">4.10763120651245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11389780044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18596124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23922681808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2486252784729</t>
+    <t xml:space="preserve">4.11389827728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18596172332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23922634124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24862670898438</t>
   </si>
   <si>
     <t xml:space="preserve">4.17969512939453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11703109741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2110276222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24549293518066</t>
+    <t xml:space="preserve">4.11703157424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21102809906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24549198150635</t>
   </si>
   <si>
     <t xml:space="preserve">4.2204270362854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20162868499756</t>
+    <t xml:space="preserve">4.20162725448608</t>
   </si>
   <si>
     <t xml:space="preserve">4.23295974731445</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12329769134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23609399795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18909502029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28309059143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28935766220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25489282608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31442308425903</t>
+    <t xml:space="preserve">4.12329721450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23609304428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18909549713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28309154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28935623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25489234924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31442403793335</t>
   </si>
   <si>
     <t xml:space="preserve">4.31128978729248</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">4.32382297515869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29875802993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30815649032593</t>
+    <t xml:space="preserve">4.29875755310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30815744400024</t>
   </si>
   <si>
     <t xml:space="preserve">4.38648700714111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39588642120361</t>
+    <t xml:space="preserve">4.39588594436646</t>
   </si>
   <si>
     <t xml:space="preserve">4.29249095916748</t>
@@ -332,16 +332,16 @@
     <t xml:space="preserve">4.22669363021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20789432525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33322191238403</t>
+    <t xml:space="preserve">4.20789384841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33322238922119</t>
   </si>
   <si>
     <t xml:space="preserve">4.43207931518555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37606000900269</t>
+    <t xml:space="preserve">4.37606048583984</t>
   </si>
   <si>
     <t xml:space="preserve">4.36617422103882</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">4.415602684021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06630897521973</t>
+    <t xml:space="preserve">4.06630849838257</t>
   </si>
   <si>
     <t xml:space="preserve">3.8257577419281</t>
@@ -359,25 +359,25 @@
     <t xml:space="preserve">3.92790985107422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92131924629211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0300612449646</t>
+    <t xml:space="preserve">3.92131876945496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03006172180176</t>
   </si>
   <si>
     <t xml:space="preserve">3.94109106063843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84223389625549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.799396276474</t>
+    <t xml:space="preserve">3.84223413467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79939556121826</t>
   </si>
   <si>
     <t xml:space="preserve">3.76973867416382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91143321990967</t>
+    <t xml:space="preserve">3.91143345832825</t>
   </si>
   <si>
     <t xml:space="preserve">4.08937549591064</t>
@@ -386,73 +386,73 @@
     <t xml:space="preserve">4.07949018478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17505073547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1025562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10585165023804</t>
+    <t xml:space="preserve">4.17505216598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10255575180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1058521270752</t>
   </si>
   <si>
     <t xml:space="preserve">4.08278608322144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14539384841919</t>
+    <t xml:space="preserve">4.14539480209351</t>
   </si>
   <si>
     <t xml:space="preserve">4.13221406936646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0860800743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07619524002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02676582336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00699520111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94438576698303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25084209442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22777557373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2574315071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26402235031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32333707809448</t>
+    <t xml:space="preserve">4.08608055114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07619476318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02676677703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00699472427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94438672065735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25084161758423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22777462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25743246078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26402282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32333660125732</t>
   </si>
   <si>
     <t xml:space="preserve">4.33651781082153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24754667282104</t>
+    <t xml:space="preserve">4.2475471496582</t>
   </si>
   <si>
     <t xml:space="preserve">4.16187047958374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20470857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09926176071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11573648452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1849365234375</t>
+    <t xml:space="preserve">4.20470905303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09926080703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1157374382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18493747711182</t>
   </si>
   <si>
     <t xml:space="preserve">4.13880443572998</t>
@@ -461,16 +461,16 @@
     <t xml:space="preserve">4.09267091751099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11244249343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05312824249268</t>
+    <t xml:space="preserve">4.11244201660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05312776565552</t>
   </si>
   <si>
     <t xml:space="preserve">4.12891864776611</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1190333366394</t>
+    <t xml:space="preserve">4.11903285980225</t>
   </si>
   <si>
     <t xml:space="preserve">4.14209938049316</t>
@@ -479,34 +479,34 @@
     <t xml:space="preserve">4.15528011322021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22118473052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20800495147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9839289188385</t>
+    <t xml:space="preserve">4.22118520736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20800447463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98392844200134</t>
   </si>
   <si>
     <t xml:space="preserve">4.04324245452881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03994750976562</t>
+    <t xml:space="preserve">4.03994703292847</t>
   </si>
   <si>
     <t xml:space="preserve">4.0036997795105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02347183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03335666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01029062271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00040435791016</t>
+    <t xml:space="preserve">4.02347087860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0333571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01029014587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00040531158447</t>
   </si>
   <si>
     <t xml:space="preserve">3.99381446838379</t>
@@ -515,193 +515,193 @@
     <t xml:space="preserve">3.97733807563782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98063325881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91472840309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96415686607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98722457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93120503425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99710917472839</t>
+    <t xml:space="preserve">3.980633020401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91472935676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96415710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98722338676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9312047958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99710893630981</t>
   </si>
   <si>
     <t xml:space="preserve">4.07289934158325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04983234405518</t>
+    <t xml:space="preserve">4.04983282089233</t>
   </si>
   <si>
     <t xml:space="preserve">3.9246141910553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90154719352722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93449974060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97074723243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96086168289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94768142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93779587745667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88836693763733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84552931785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76314830780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72360610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71701526641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71042513847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70053911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65111112594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79610133171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86529970169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86859607696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85870981216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17175626754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18823289871216</t>
+    <t xml:space="preserve">3.90154838562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93450021743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97074794769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.960862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94768071174622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93779468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88836598396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8455286026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76314878463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72360563278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71701502799988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71042466163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70053839683533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65111064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7961003780365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86530065536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86859512329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85871005058289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17175674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.188232421875</t>
   </si>
   <si>
     <t xml:space="preserve">4.17834711074829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16846084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22448062896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18164205551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2178897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23766088485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21129846572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15198516845703</t>
+    <t xml:space="preserve">4.16846132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22448015213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18164157867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21788930892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23766040802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21129941940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15198469161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.06301355361938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02017593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99051833152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01688051223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85541486740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83234810829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85211944580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95427083969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95097661018372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01358509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1355094909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26731777191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25413751602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24425077438354</t>
+    <t xml:space="preserve">4.02017641067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99051952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01688098907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85541462898254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83234786987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8521192073822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9542715549469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95097613334656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01358604431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13550901412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26731824874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25413703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2442512512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.20141363143921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28049898147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24095582962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10914707183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14868974685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19152736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21459484100342</t>
+    <t xml:space="preserve">4.28049802780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24095630645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10914659500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14869070053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19152784347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2145938873291</t>
   </si>
   <si>
     <t xml:space="preserve">4.12232780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19482326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28379344940186</t>
+    <t xml:space="preserve">4.19482278823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28379392623901</t>
   </si>
   <si>
     <t xml:space="preserve">4.29697513580322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15857648849487</t>
+    <t xml:space="preserve">4.1585750579834</t>
   </si>
   <si>
     <t xml:space="preserve">4.12562322616577</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">4.27061319351196</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23555040359497</t>
+    <t xml:space="preserve">4.23555088043213</t>
   </si>
   <si>
     <t xml:space="preserve">4.24957609176636</t>
@@ -722,61 +722,58 @@
     <t xml:space="preserve">4.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20048856735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20749998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22152614593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17945051193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2706127166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23204469680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20399522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21100664138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18646287918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16893148422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24256372451782</t>
+    <t xml:space="preserve">4.20048809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20750093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2215256690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17945003509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23204374313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2039942741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21100807189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18646335601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16893243789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24256277084351</t>
   </si>
   <si>
     <t xml:space="preserve">4.25308179855347</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29515743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27411890029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25658798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24606895446777</t>
+    <t xml:space="preserve">4.29515695571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27411985397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25658845901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24606990814209</t>
   </si>
   <si>
     <t xml:space="preserve">4.19347620010376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1829571723938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22503137588501</t>
+    <t xml:space="preserve">4.18295669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22503232955933</t>
   </si>
   <si>
     <t xml:space="preserve">4.37580060958862</t>
@@ -785,46 +782,46 @@
     <t xml:space="preserve">4.38982582092285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4108624458313</t>
+    <t xml:space="preserve">4.41086387634277</t>
   </si>
   <si>
     <t xml:space="preserve">4.35125684738159</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36177587509155</t>
+    <t xml:space="preserve">4.36177539825439</t>
   </si>
   <si>
     <t xml:space="preserve">4.36528158187866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40735721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28463792800903</t>
+    <t xml:space="preserve">4.40735626220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28463840484619</t>
   </si>
   <si>
     <t xml:space="preserve">4.29866361618042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35826921463013</t>
+    <t xml:space="preserve">4.35826969146729</t>
   </si>
   <si>
     <t xml:space="preserve">4.36878776550293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31268835067749</t>
+    <t xml:space="preserve">4.31268787384033</t>
   </si>
   <si>
     <t xml:space="preserve">4.29165077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28113222122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30918121337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26710748672485</t>
+    <t xml:space="preserve">4.28113174438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30918169021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2671070098877</t>
   </si>
   <si>
     <t xml:space="preserve">4.31619453430176</t>
@@ -833,22 +830,22 @@
     <t xml:space="preserve">4.38281345367432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35476303100586</t>
+    <t xml:space="preserve">4.35476350784302</t>
   </si>
   <si>
     <t xml:space="preserve">4.34424495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34775018692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31970024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33723211288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30567646026611</t>
+    <t xml:space="preserve">4.34775114059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31969976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33723163604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30567598342896</t>
   </si>
   <si>
     <t xml:space="preserve">4.33021974563599</t>
@@ -863,13 +860,13 @@
     <t xml:space="preserve">4.40034484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41436958312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39683866500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40385103225708</t>
+    <t xml:space="preserve">4.41437005996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3968391418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40385055541992</t>
   </si>
   <si>
     <t xml:space="preserve">4.38631963729858</t>
@@ -878,25 +875,25 @@
     <t xml:space="preserve">4.30216932296753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2881441116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27762603759766</t>
+    <t xml:space="preserve">4.28814458847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2776255607605</t>
   </si>
   <si>
     <t xml:space="preserve">4.46345710754395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49501371383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46696281433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45293760299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43891286849976</t>
+    <t xml:space="preserve">4.49501323699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46696329116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45293807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43891334533691</t>
   </si>
   <si>
     <t xml:space="preserve">4.45644426345825</t>
@@ -905,10 +902,10 @@
     <t xml:space="preserve">4.47046947479248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49150705337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50903844833374</t>
+    <t xml:space="preserve">4.4915075302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50903797149658</t>
   </si>
   <si>
     <t xml:space="preserve">4.52306365966797</t>
@@ -923,34 +920,34 @@
     <t xml:space="preserve">4.55111265182495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5861759185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58266973495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61422538757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71590709686279</t>
+    <t xml:space="preserve">4.58617544174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58266925811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6142258644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71590662002563</t>
   </si>
   <si>
     <t xml:space="preserve">4.71240091323853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69486904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66331386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68084478378296</t>
+    <t xml:space="preserve">4.69486951828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66331338882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6808443069458</t>
   </si>
   <si>
     <t xml:space="preserve">4.6913628578186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66471529006958</t>
+    <t xml:space="preserve">4.66471576690674</t>
   </si>
   <si>
     <t xml:space="preserve">4.64508056640625</t>
@@ -962,49 +959,49 @@
     <t xml:space="preserve">4.61703062057495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6268482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48800086975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60721254348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52025842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51324605941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53288078308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57776117324829</t>
+    <t xml:space="preserve">4.62684869766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48800039291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60721302032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52025890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51324558258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53288125991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57776069641113</t>
   </si>
   <si>
     <t xml:space="preserve">4.61562824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66752099990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67453336715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75447511672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74045133590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70258283615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70679092407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66611766815186</t>
+    <t xml:space="preserve">4.66752147674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67453384399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75447559356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74045085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70258331298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70679140090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66611862182617</t>
   </si>
   <si>
     <t xml:space="preserve">4.93680095672607</t>
@@ -1013,19 +1010,19 @@
     <t xml:space="preserve">4.95222806930542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92137384414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81478309631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84563875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88631010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01534080505371</t>
+    <t xml:space="preserve">4.92137336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81478357315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84563827514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88631057739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01534128189087</t>
   </si>
   <si>
     <t xml:space="preserve">5.14296865463257</t>
@@ -1034,31 +1031,31 @@
     <t xml:space="preserve">5.11632061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20327615737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09107542037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02515840530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10510206222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18504285812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14577341079712</t>
+    <t xml:space="preserve">5.20327568054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09107685089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0251579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10510110855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18504333496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14577293395996</t>
   </si>
   <si>
     <t xml:space="preserve">5.18083620071411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17101860046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12333345413208</t>
+    <t xml:space="preserve">5.17101764678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12333297729492</t>
   </si>
   <si>
     <t xml:space="preserve">5.08125782012939</t>
@@ -1067,7 +1064,7 @@
     <t xml:space="preserve">5.06302547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07985591888428</t>
+    <t xml:space="preserve">5.07985639572144</t>
   </si>
   <si>
     <t xml:space="preserve">5.15839576721191</t>
@@ -1076,46 +1073,46 @@
     <t xml:space="preserve">5.16821384429932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20748329162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29443788528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28882884979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32950067520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38840627670288</t>
+    <t xml:space="preserve">5.20748376846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29443836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28882789611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32950115203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38840675354004</t>
   </si>
   <si>
     <t xml:space="preserve">5.3799901008606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38419914245605</t>
+    <t xml:space="preserve">5.3841986656189</t>
   </si>
   <si>
     <t xml:space="preserve">5.38139343261719</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41365003585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46273803710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42907857894897</t>
+    <t xml:space="preserve">5.41365098953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46273851394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42907810211182</t>
   </si>
   <si>
     <t xml:space="preserve">5.44029855728149</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51883840560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52444839477539</t>
+    <t xml:space="preserve">5.51883888244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52444791793823</t>
   </si>
   <si>
     <t xml:space="preserve">5.54829072952271</t>
@@ -1127,16 +1124,16 @@
     <t xml:space="preserve">5.59036588668823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68433332443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66890573501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65908765792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71799373626709</t>
+    <t xml:space="preserve">5.68433284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66890668869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65908813476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71799421310425</t>
   </si>
   <si>
     <t xml:space="preserve">5.69134616851807</t>
@@ -1145,13 +1142,13 @@
     <t xml:space="preserve">5.66469860076904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71518802642822</t>
+    <t xml:space="preserve">5.71518850326538</t>
   </si>
   <si>
     <t xml:space="preserve">5.76287317276001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54688835144043</t>
+    <t xml:space="preserve">5.54688787460327</t>
   </si>
   <si>
     <t xml:space="preserve">5.53426599502563</t>
@@ -1160,109 +1157,109 @@
     <t xml:space="preserve">5.34352588653564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35474538803101</t>
+    <t xml:space="preserve">5.35474634170532</t>
   </si>
   <si>
     <t xml:space="preserve">5.39822340011597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37157535552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40383386611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32108592987061</t>
+    <t xml:space="preserve">5.3715763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40383338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32108497619629</t>
   </si>
   <si>
     <t xml:space="preserve">5.14998054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91856813430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12473630905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13595533370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23833847045898</t>
+    <t xml:space="preserve">4.9185676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12473583221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13595485687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23833799362183</t>
   </si>
   <si>
     <t xml:space="preserve">5.26779079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12894344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12613868713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10650396347046</t>
+    <t xml:space="preserve">5.1289439201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12613821029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10650300979614</t>
   </si>
   <si>
     <t xml:space="preserve">4.96765613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15979814529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25797414779663</t>
+    <t xml:space="preserve">5.15979766845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25797319412231</t>
   </si>
   <si>
     <t xml:space="preserve">5.35755014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48377656936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35053825378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43365383148193</t>
+    <t xml:space="preserve">5.4837760925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35053777694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43365335464478</t>
   </si>
   <si>
     <t xml:space="preserve">5.48856830596924</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5137996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44552707672119</t>
+    <t xml:space="preserve">5.51380014419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44552659988403</t>
   </si>
   <si>
     <t xml:space="preserve">5.45146369934082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38022232055664</t>
+    <t xml:space="preserve">5.3802227973938</t>
   </si>
   <si>
     <t xml:space="preserve">5.4054536819458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32827568054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32085418701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37428522109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3876428604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51528453826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55832672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6102728843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55090475082397</t>
+    <t xml:space="preserve">5.32827472686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32085371017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37428569793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38764333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5152850151062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55832624435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61027336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55090570449829</t>
   </si>
   <si>
     <t xml:space="preserve">5.63253688812256</t>
@@ -1271,13 +1268,13 @@
     <t xml:space="preserve">5.6191782951355</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70080900192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76017808914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79134511947632</t>
+    <t xml:space="preserve">5.70080947875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76017713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79134559631348</t>
   </si>
   <si>
     <t xml:space="preserve">5.72455644607544</t>
@@ -1286,19 +1283,19 @@
     <t xml:space="preserve">5.73939895629883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72158861160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73197793960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82548236846924</t>
+    <t xml:space="preserve">5.72158765792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73197746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82548189163208</t>
   </si>
   <si>
     <t xml:space="preserve">5.8507137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87594509124756</t>
+    <t xml:space="preserve">5.8759446144104</t>
   </si>
   <si>
     <t xml:space="preserve">5.91156578063965</t>
@@ -1310,55 +1307,58 @@
     <t xml:space="preserve">5.58355808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5271577835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50934648513794</t>
+    <t xml:space="preserve">5.52715826034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50934743881226</t>
   </si>
   <si>
     <t xml:space="preserve">5.44255876541138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27187490463257</t>
+    <t xml:space="preserve">5.35053730010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27187585830688</t>
   </si>
   <si>
     <t xml:space="preserve">5.24961280822754</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30452823638916</t>
+    <t xml:space="preserve">5.304527759552</t>
   </si>
   <si>
     <t xml:space="preserve">5.14720296859741</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08338260650635</t>
+    <t xml:space="preserve">5.08338212966919</t>
   </si>
   <si>
     <t xml:space="preserve">5.00323534011841</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16204452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06112003326416</t>
+    <t xml:space="preserve">5.16204404830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.061119556427</t>
   </si>
   <si>
     <t xml:space="preserve">5.04182481765747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03292036056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0136251449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03588771820068</t>
+    <t xml:space="preserve">5.03291893005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01362562179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03588819503784</t>
   </si>
   <si>
     <t xml:space="preserve">4.97058343887329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92160415649414</t>
+    <t xml:space="preserve">4.9216046333313</t>
   </si>
   <si>
     <t xml:space="preserve">5.00471973419189</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">5.13681364059448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23625469207764</t>
+    <t xml:space="preserve">5.23625421524048</t>
   </si>
   <si>
     <t xml:space="preserve">5.20360231399536</t>
@@ -1376,16 +1376,16 @@
     <t xml:space="preserve">5.22438144683838</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34460210800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31640195846558</t>
+    <t xml:space="preserve">5.34460115432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31640100479126</t>
   </si>
   <si>
     <t xml:space="preserve">5.23328590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09970855712891</t>
+    <t xml:space="preserve">5.09970808029175</t>
   </si>
   <si>
     <t xml:space="preserve">5.12939262390137</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">5.17837142944336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15313959121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1397819519043</t>
+    <t xml:space="preserve">5.1531400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13978147506714</t>
   </si>
   <si>
     <t xml:space="preserve">5.20953941345215</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">5.27781200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34014940261841</t>
+    <t xml:space="preserve">5.34014892578125</t>
   </si>
   <si>
     <t xml:space="preserve">5.37131643295288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33569622039795</t>
+    <t xml:space="preserve">5.33569574356079</t>
   </si>
   <si>
     <t xml:space="preserve">5.10712957382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0522141456604</t>
+    <t xml:space="preserve">5.05221462249756</t>
   </si>
   <si>
     <t xml:space="preserve">4.96167802810669</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">4.97652006149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89785766601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71678495407104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74201536178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78951168060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65741777420044</t>
+    <t xml:space="preserve">4.89785718917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7167854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74201679229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78951072692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65741729736328</t>
   </si>
   <si>
     <t xml:space="preserve">4.63663864135742</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">4.65444850921631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73162746429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67225885391235</t>
+    <t xml:space="preserve">4.73162698745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67225933074951</t>
   </si>
   <si>
     <t xml:space="preserve">4.54164981842041</t>
@@ -1466,43 +1466,43 @@
     <t xml:space="preserve">4.65296459197998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62773370742798</t>
+    <t xml:space="preserve">4.62773323059082</t>
   </si>
   <si>
     <t xml:space="preserve">4.63812255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45111322402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54758644104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55203866958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69600582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59211254119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71233224868774</t>
+    <t xml:space="preserve">4.45111417770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5475869178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55203914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69600629806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59211206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71233320236206</t>
   </si>
   <si>
     <t xml:space="preserve">4.86223649978638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90082597732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83255290985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80138444900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9601936340332</t>
+    <t xml:space="preserve">4.9008264541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83255243301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80138397216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96019411087036</t>
   </si>
   <si>
     <t xml:space="preserve">5.06408739089966</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">5.09822416305542</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10861396789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11158180236816</t>
+    <t xml:space="preserve">5.10861349105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11158227920532</t>
   </si>
   <si>
     <t xml:space="preserve">4.9483208656311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82364702224731</t>
+    <t xml:space="preserve">4.82364749908447</t>
   </si>
   <si>
     <t xml:space="preserve">4.83552026748657</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">4.88598442077637</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86075210571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07596158981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04924535751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97355127334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97503519058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09525537490845</t>
+    <t xml:space="preserve">4.86075305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07596206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04924583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97355222702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97503614425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09525632858276</t>
   </si>
   <si>
     <t xml:space="preserve">5.05518245697021</t>
@@ -1565,22 +1565,22 @@
     <t xml:space="preserve">4.87559413909912</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81919479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86668920516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06260347366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14275026321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11751794815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11009788513184</t>
+    <t xml:space="preserve">4.81919527053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86668968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06260299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14275074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11751890182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11009836196899</t>
   </si>
   <si>
     <t xml:space="preserve">5.27484369277954</t>
@@ -1592,124 +1592,124 @@
     <t xml:space="preserve">5.12642431259155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07002449035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18282413482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17243385314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19321250915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2570333480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22141313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27335929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34311723709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35647535324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38170623779297</t>
+    <t xml:space="preserve">5.0700249671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1828236579895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17243480682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19321346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25703287124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22141218185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27335977554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34311771392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35647487640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38170671463013</t>
   </si>
   <si>
     <t xml:space="preserve">5.35795879364014</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45740079879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49153804779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62956762313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63995695114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58652544021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63847255706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65183115005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70822954177856</t>
+    <t xml:space="preserve">5.45740032196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49153709411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62956809997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63995742797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58652591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63847398757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65183067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70823001861572</t>
   </si>
   <si>
     <t xml:space="preserve">5.6829981803894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69190454483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57613658905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45294713973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58058881759644</t>
+    <t xml:space="preserve">5.69190406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57613706588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45294809341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58058929443359</t>
   </si>
   <si>
     <t xml:space="preserve">5.67260980606079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70377779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5316104888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54942035675049</t>
+    <t xml:space="preserve">5.70377731323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53161096572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54942083358765</t>
   </si>
   <si>
     <t xml:space="preserve">5.61620998382568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69932556152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75720882415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68893527984619</t>
+    <t xml:space="preserve">5.69932460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75720834732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68893575668335</t>
   </si>
   <si>
     <t xml:space="preserve">5.74830341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76908254623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75127220153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73494625091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77501916885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79876661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86110353469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8625864982605</t>
+    <t xml:space="preserve">5.76908302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75127267837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73494577407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77501964569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79876613616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86110210418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86258697509766</t>
   </si>
   <si>
     <t xml:space="preserve">5.88484954833984</t>
@@ -1718,22 +1718,22 @@
     <t xml:space="preserve">5.88930225372314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85664987564087</t>
+    <t xml:space="preserve">5.85665035247803</t>
   </si>
   <si>
     <t xml:space="preserve">5.88336610794067</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89523935317993</t>
+    <t xml:space="preserve">5.89523983001709</t>
   </si>
   <si>
     <t xml:space="preserve">5.89820766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79728126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86407041549683</t>
+    <t xml:space="preserve">5.79728221893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86407089233398</t>
   </si>
   <si>
     <t xml:space="preserve">5.89227056503296</t>
@@ -1745,34 +1745,34 @@
     <t xml:space="preserve">5.93086051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99616479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04811143875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20395278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2633204460144</t>
+    <t xml:space="preserve">5.99616527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04811191558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20395183563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26331996917725</t>
   </si>
   <si>
     <t xml:space="preserve">6.41025590896606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35237264633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37463521957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39986753463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4013524055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37908840179443</t>
+    <t xml:space="preserve">6.35237216949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37463569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39986658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40135097503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37908697128296</t>
   </si>
   <si>
     <t xml:space="preserve">6.43548822402954</t>
@@ -1784,49 +1784,49 @@
     <t xml:space="preserve">6.43845558166504</t>
   </si>
   <si>
-    <t xml:space="preserve">6.490403175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48595094680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51118230819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62249755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64624404907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63585472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67147541046143</t>
+    <t xml:space="preserve">6.49040365219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48594999313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51118278503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62249660491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64624452590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63585567474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67147445678711</t>
   </si>
   <si>
     <t xml:space="preserve">6.65960216522217</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73084306716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68038129806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0618200302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06478786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02174663543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87332630157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84512662887573</t>
+    <t xml:space="preserve">6.73084354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68038082122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06181907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06478881835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02174615859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87332677841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84512615203857</t>
   </si>
   <si>
     <t xml:space="preserve">6.86590576171875</t>
@@ -1835,49 +1835,49 @@
     <t xml:space="preserve">6.9564414024353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0573673248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00541973114014</t>
+    <t xml:space="preserve">7.05736780166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00541925430298</t>
   </si>
   <si>
     <t xml:space="preserve">6.93714714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98909521102905</t>
+    <t xml:space="preserve">6.98909425735474</t>
   </si>
   <si>
     <t xml:space="preserve">6.76794862747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68483352661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67889642715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60171699523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8050537109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76201200485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84957790374756</t>
+    <t xml:space="preserve">6.68483304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67889738082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60171794891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80505323410034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76201248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84957933425903</t>
   </si>
   <si>
     <t xml:space="preserve">6.69670629501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75607442855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79911661148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50672960281372</t>
+    <t xml:space="preserve">6.75607395172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79911613464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50672912597656</t>
   </si>
   <si>
     <t xml:space="preserve">6.61952877044678</t>
@@ -1886,130 +1886,130 @@
     <t xml:space="preserve">6.6032018661499</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5512547492981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51711845397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45626592636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4696249961853</t>
+    <t xml:space="preserve">6.55125617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51711893081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45626640319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46962404251099</t>
   </si>
   <si>
     <t xml:space="preserve">6.63436985015869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58836078643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62398052215576</t>
+    <t xml:space="preserve">6.5883617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62398099899292</t>
   </si>
   <si>
     <t xml:space="preserve">6.75459098815918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8184118270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106420516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87777853012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84215879440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89410495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95495748519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06033563613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18562173843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13581895828247</t>
+    <t xml:space="preserve">6.81841087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87777948379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84215831756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89410591125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95495653152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06033611297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18562126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13581800460815</t>
   </si>
   <si>
     <t xml:space="preserve">7.1062479019165</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11247396469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20585346221924</t>
+    <t xml:space="preserve">7.11247301101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20585298538208</t>
   </si>
   <si>
     <t xml:space="preserve">7.1934027671814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36615657806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54046726226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58715772628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55914306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54824829101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51245212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58560037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51089811325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5155668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48288249969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4595365524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44397258758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31479692459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34748077392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30078983306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37238216400146</t>
+    <t xml:space="preserve">7.36615610122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54046630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58715629577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55914354324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54824876785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51245260238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58560132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51089668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51556539535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48288297653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45953750610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44397354125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31479740142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34748029708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30079030990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37238168716431</t>
   </si>
   <si>
     <t xml:space="preserve">7.31946611404419</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46109390258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26655101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51712131500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59182500839233</t>
+    <t xml:space="preserve">7.46109294891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26655149459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51712083816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59182548522949</t>
   </si>
   <si>
     <t xml:space="preserve">7.50311422348022</t>
@@ -2018,130 +2018,130 @@
     <t xml:space="preserve">7.38327598571777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37860727310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50000286102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99885988235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08134698867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24476337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11558628082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39261341094971</t>
+    <t xml:space="preserve">7.37860774993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50000095367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99886083602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0813455581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24476146697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11558532714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39261436462402</t>
   </si>
   <si>
     <t xml:space="preserve">7.34125518798828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54669141769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52023220062256</t>
+    <t xml:space="preserve">7.54669237136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52023315429688</t>
   </si>
   <si>
     <t xml:space="preserve">7.33036136627197</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39105749130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31324052810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65719223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60427618026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6852068901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70388031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85173559188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82060813903809</t>
+    <t xml:space="preserve">7.39105939865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31324148178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65719270706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60427761077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68520593643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70388221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85173463821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82060766220093</t>
   </si>
   <si>
     <t xml:space="preserve">7.84006214141846</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84395217895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71166467666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74279069900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8789701461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92565965652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8283896446228</t>
+    <t xml:space="preserve">7.84395265579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71166372299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74278926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87896919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92566108703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82838916778564</t>
   </si>
   <si>
     <t xml:space="preserve">7.76146602630615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9062066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9217700958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83227968215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99569606781006</t>
+    <t xml:space="preserve">7.90620708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92176961898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83228015899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99569511413574</t>
   </si>
   <si>
     <t xml:space="preserve">7.9490065574646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94511461257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9840235710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11631298065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00347900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75368595123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77080345153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76613712310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98791456222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88286209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97624111175537</t>
+    <t xml:space="preserve">7.94511556625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98402261734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11631202697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00347805023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75368642807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77080488204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76613569259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9879150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88286066055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97624158859253</t>
   </si>
   <si>
     <t xml:space="preserve">8.2330379486084</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">8.24471092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3575439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23692893981934</t>
+    <t xml:space="preserve">8.35754585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2369270324707</t>
   </si>
   <si>
     <t xml:space="preserve">8.33030986785889</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">8.3769998550415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40423488616943</t>
+    <t xml:space="preserve">8.40423679351807</t>
   </si>
   <si>
     <t xml:space="preserve">8.50150680541992</t>
@@ -2174,22 +2174,22 @@
     <t xml:space="preserve">8.55208683013916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45092391967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48983287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47427082061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46648788452148</t>
+    <t xml:space="preserve">8.45092487335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48983383178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47427177429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4664888381958</t>
   </si>
   <si>
     <t xml:space="preserve">8.58321475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63379573822021</t>
+    <t xml:space="preserve">8.63379669189453</t>
   </si>
   <si>
     <t xml:space="preserve">8.69215774536133</t>
@@ -2198,25 +2198,25 @@
     <t xml:space="preserve">8.55597877502441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43536186218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53652477264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71939468383789</t>
+    <t xml:space="preserve">8.43536281585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53652572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71939277648926</t>
   </si>
   <si>
     <t xml:space="preserve">8.64935779571533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66881370544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68437576293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73093223571777</t>
+    <t xml:space="preserve">8.66881275177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68437671661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73093128204346</t>
   </si>
   <si>
     <t xml:space="preserve">8.58100986480713</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">8.65991592407227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55339241027832</t>
+    <t xml:space="preserve">8.55339431762695</t>
   </si>
   <si>
     <t xml:space="preserve">8.62440872192383</t>
@@ -2234,40 +2234,40 @@
     <t xml:space="preserve">8.64807987213135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56917381286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51394081115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39163684844971</t>
+    <t xml:space="preserve">8.56917476654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51393985748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39163780212402</t>
   </si>
   <si>
     <t xml:space="preserve">8.35612773895264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08390140533447</t>
+    <t xml:space="preserve">8.08390331268311</t>
   </si>
   <si>
     <t xml:space="preserve">8.17069911956787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2772216796875</t>
+    <t xml:space="preserve">8.27722072601318</t>
   </si>
   <si>
     <t xml:space="preserve">8.12730121612549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13913726806641</t>
+    <t xml:space="preserve">8.13913822174072</t>
   </si>
   <si>
     <t xml:space="preserve">8.03656005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15097332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06023120880127</t>
+    <t xml:space="preserve">8.15097236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06023216247559</t>
   </si>
   <si>
     <t xml:space="preserve">8.19437122344971</t>
@@ -2279,22 +2279,22 @@
     <t xml:space="preserve">8.09573936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02077770233154</t>
+    <t xml:space="preserve">8.02077865600586</t>
   </si>
   <si>
     <t xml:space="preserve">8.12335586547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22988033294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98527097702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04444980621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94187211990356</t>
+    <t xml:space="preserve">8.22987842559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98527050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0444507598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94187307357788</t>
   </si>
   <si>
     <t xml:space="preserve">7.87322425842285</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">7.96554374694824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09179496765137</t>
+    <t xml:space="preserve">8.09179401397705</t>
   </si>
   <si>
     <t xml:space="preserve">8.05628681182861</t>
@@ -2315,34 +2315,34 @@
     <t xml:space="preserve">8.00894260406494</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93792819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92609071731567</t>
+    <t xml:space="preserve">7.93792676925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92609167098999</t>
   </si>
   <si>
     <t xml:space="preserve">8.11546611785889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19042682647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21409797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10757446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35218334197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74276733398438</t>
+    <t xml:space="preserve">8.19042778015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21409702301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10757541656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35218143463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74276638031006</t>
   </si>
   <si>
     <t xml:space="preserve">8.67569637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1667537689209</t>
+    <t xml:space="preserve">8.16675472259521</t>
   </si>
   <si>
     <t xml:space="preserve">8.28905868530273</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">8.46265125274658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51788425445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60468101501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70725917816162</t>
+    <t xml:space="preserve">8.51788520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60468196868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70726013183594</t>
   </si>
   <si>
     <t xml:space="preserve">8.66386032104492</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">8.64018821716309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6283540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.947922706604</t>
+    <t xml:space="preserve">8.62835311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94792175292969</t>
   </si>
   <si>
     <t xml:space="preserve">9.08206176757812</t>
@@ -2381,49 +2381,49 @@
     <t xml:space="preserve">8.9045238494873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91241359710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28116607666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15491962432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31667518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95765542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58600807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30825853347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5907416343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64439678192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44239902496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67122554779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67385578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21620178222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21778059005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84797525405884</t>
+    <t xml:space="preserve">8.91241550445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28116798400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1549186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31667613983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95765352249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58600854873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30825901031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59074211120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64439821243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44239854812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67122507095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67385625839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21620225906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21778011322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84797430038452</t>
   </si>
   <si>
     <t xml:space="preserve">5.32140970230103</t>
@@ -2438,58 +2438,58 @@
     <t xml:space="preserve">5.02630186080933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45555019378662</t>
+    <t xml:space="preserve">5.4555492401123</t>
   </si>
   <si>
     <t xml:space="preserve">5.47290897369385</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66228294372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04892158508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10415554046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38979482650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19568681716919</t>
+    <t xml:space="preserve">5.66228342056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04892206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10415601730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38979387283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19568634033203</t>
   </si>
   <si>
     <t xml:space="preserve">6.24618625640869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09153032302856</t>
+    <t xml:space="preserve">6.09153079986572</t>
   </si>
   <si>
     <t xml:space="preserve">5.83271980285645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13256168365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17832660675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34402942657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43556022644043</t>
+    <t xml:space="preserve">6.13256216049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17832708358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34402990341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43556070327759</t>
   </si>
   <si>
     <t xml:space="preserve">6.53182506561279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55391883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58074712753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00157785415649</t>
+    <t xml:space="preserve">6.55391836166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5807466506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00157833099365</t>
   </si>
   <si>
     <t xml:space="preserve">6.05049991607666</t>
@@ -2501,22 +2501,22 @@
     <t xml:space="preserve">6.00631237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87848424911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97159385681152</t>
+    <t xml:space="preserve">5.87848520278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97159433364868</t>
   </si>
   <si>
     <t xml:space="preserve">5.93214082717896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83745384216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21935844421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20831155776978</t>
+    <t xml:space="preserve">5.83745336532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21935796737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20831060409546</t>
   </si>
   <si>
     <t xml:space="preserve">6.33613872528076</t>
@@ -2525,145 +2525,145 @@
     <t xml:space="preserve">6.11678028106689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96843767166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79957914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70331478118896</t>
+    <t xml:space="preserve">5.96843862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79957866668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70331382751465</t>
   </si>
   <si>
     <t xml:space="preserve">5.99210929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1199369430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87532806396484</t>
+    <t xml:space="preserve">6.11993646621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.875328540802</t>
   </si>
   <si>
     <t xml:space="preserve">5.76801681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67017316818237</t>
+    <t xml:space="preserve">5.67017269134521</t>
   </si>
   <si>
     <t xml:space="preserve">5.88795375823975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84218835830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85165739059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81536054611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87217235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1057333946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19726467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22882699966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28563976287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35823202133179</t>
+    <t xml:space="preserve">5.84218788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85165691375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8153600692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87217283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10573434829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19726514816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22882652282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28563928604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35823249816895</t>
   </si>
   <si>
     <t xml:space="preserve">6.55076265335083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76065158843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92004299163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06365060806274</t>
+    <t xml:space="preserve">6.7606520652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92004251480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06365013122559</t>
   </si>
   <si>
     <t xml:space="preserve">6.84587001800537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76696443557739</t>
+    <t xml:space="preserve">6.76696538925171</t>
   </si>
   <si>
     <t xml:space="preserve">6.4103102684021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50815343856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56338739395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69594955444336</t>
+    <t xml:space="preserve">6.50815391540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56338691711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6959490776062</t>
   </si>
   <si>
     <t xml:space="preserve">6.66596460342407</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61862134933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48606061935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61969995498657</t>
+    <t xml:space="preserve">6.61862087249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48606014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61970043182373</t>
   </si>
   <si>
     <t xml:space="preserve">6.73284339904785</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43440675735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4803204536438</t>
+    <t xml:space="preserve">6.43440771102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48031997680664</t>
   </si>
   <si>
     <t xml:space="preserve">6.35077953338623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54427146911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34586000442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35733890533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38521528244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4885196685791</t>
+    <t xml:space="preserve">6.54427099227905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34586048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35733938217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38521432876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48851871490479</t>
   </si>
   <si>
     <t xml:space="preserve">6.45244455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40161275863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25075531005859</t>
+    <t xml:space="preserve">6.40161180496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25075483322144</t>
   </si>
   <si>
     <t xml:space="preserve">6.30486679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42456865310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39997291564941</t>
+    <t xml:space="preserve">6.42456912994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39997243881226</t>
   </si>
   <si>
     <t xml:space="preserve">6.42784881591797</t>
@@ -2672,46 +2672,46 @@
     <t xml:space="preserve">6.44588565826416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71152639389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76071882247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82138967514038</t>
+    <t xml:space="preserve">6.71152687072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76071929931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82138919830322</t>
   </si>
   <si>
     <t xml:space="preserve">6.71316623687744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68037080764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51311540603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47704076766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46064376831055</t>
+    <t xml:space="preserve">6.68037128448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51311588287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47704124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46064424514771</t>
   </si>
   <si>
     <t xml:space="preserve">6.23927640914917</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35569858551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47376203536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51803588867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5163950920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41473054885864</t>
+    <t xml:space="preserve">6.35569906234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47376155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51803493499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51639556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4147310256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.46556282043457</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">6.57870626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68365049362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67545175552368</t>
+    <t xml:space="preserve">6.68365097045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67545127868652</t>
   </si>
   <si>
     <t xml:space="preserve">6.59510326385498</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">6.56722736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46392297744751</t>
+    <t xml:space="preserve">6.46392250061035</t>
   </si>
   <si>
     <t xml:space="preserve">6.44260597229004</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">6.50983619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39833211898804</t>
+    <t xml:space="preserve">6.39833307266235</t>
   </si>
   <si>
     <t xml:space="preserve">6.48523950576782</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">6.50655651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43112802505493</t>
+    <t xml:space="preserve">6.43112754821777</t>
   </si>
   <si>
     <t xml:space="preserve">6.43604755401611</t>
@@ -2771,16 +2771,16 @@
     <t xml:space="preserve">6.39013433456421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54263114929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53115367889404</t>
+    <t xml:space="preserve">6.54263162612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53115320205688</t>
   </si>
   <si>
     <t xml:space="preserve">6.53443288803101</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49671792984009</t>
+    <t xml:space="preserve">6.49671840667725</t>
   </si>
   <si>
     <t xml:space="preserve">6.36389827728271</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">6.14253091812134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22943782806396</t>
+    <t xml:space="preserve">6.22943830490112</t>
   </si>
   <si>
     <t xml:space="preserve">6.28027009963989</t>
@@ -2798,73 +2798,73 @@
     <t xml:space="preserve">6.26715230941772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21959972381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33766174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21140098571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20484161376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15892791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19500303268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63117837905884</t>
+    <t xml:space="preserve">6.21959924697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3376612663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21140050888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20484113693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15892839431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19500350952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.631178855896</t>
   </si>
   <si>
     <t xml:space="preserve">6.57378625869751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57050800323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57214736938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58690452575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58854532241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25895357131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33602237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34422016143799</t>
+    <t xml:space="preserve">6.57050752639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57214689254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58690500259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58854484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25895309448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.336021900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34422063827515</t>
   </si>
   <si>
     <t xml:space="preserve">6.22615814208984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23599672317505</t>
+    <t xml:space="preserve">6.23599624633789</t>
   </si>
   <si>
     <t xml:space="preserve">6.22451877593994</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12449359893799</t>
+    <t xml:space="preserve">6.12449312210083</t>
   </si>
   <si>
     <t xml:space="preserve">6.08022022247314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82441759109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74570941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7391505241394</t>
+    <t xml:space="preserve">5.82441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74570989608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73915100097656</t>
   </si>
   <si>
     <t xml:space="preserve">5.87689018249512</t>
@@ -2873,13 +2873,13 @@
     <t xml:space="preserve">5.93264198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11957454681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32126474380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2179594039917</t>
+    <t xml:space="preserve">6.11957406997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32126379013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21795892715454</t>
   </si>
   <si>
     <t xml:space="preserve">6.43768692016602</t>
@@ -2891,49 +2891,49 @@
     <t xml:space="preserve">6.54919052124023</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74760007858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97224760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06243419647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18213653564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25920534133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14770269393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18547868728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34753179550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27736377716064</t>
+    <t xml:space="preserve">6.74760055541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97224712371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06243467330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18213796615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25920629501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14770221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18547773361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34753084182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2773642539978</t>
   </si>
   <si>
     <t xml:space="preserve">7.35087299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13702821731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19383192062378</t>
+    <t xml:space="preserve">7.13702917098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19383144378662</t>
   </si>
   <si>
     <t xml:space="preserve">7.07855606079102</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10361623764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02342510223389</t>
+    <t xml:space="preserve">7.10361576080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02342462539673</t>
   </si>
   <si>
     <t xml:space="preserve">7.01173067092896</t>
@@ -2942,19 +2942,19 @@
     <t xml:space="preserve">7.0217547416687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03177785873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97497653961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96996450424194</t>
+    <t xml:space="preserve">7.03177881240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97497606277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96996402740479</t>
   </si>
   <si>
     <t xml:space="preserve">7.08189725875854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00838994979858</t>
+    <t xml:space="preserve">7.00838947296143</t>
   </si>
   <si>
     <t xml:space="preserve">6.98165798187256</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">6.82127571105957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96161079406738</t>
+    <t xml:space="preserve">6.96160984039307</t>
   </si>
   <si>
     <t xml:space="preserve">6.99001216888428</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">6.9231858253479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1336874961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28237676620483</t>
+    <t xml:space="preserve">7.13368797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28237628936768</t>
   </si>
   <si>
     <t xml:space="preserve">7.17879581451416</t>
@@ -2990,31 +2990,31 @@
     <t xml:space="preserve">7.1286768913269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04514312744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97664642333984</t>
+    <t xml:space="preserve">7.04514265060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97664737701416</t>
   </si>
   <si>
     <t xml:space="preserve">7.00003576278687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94156265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01340103149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94824552536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90647983551025</t>
+    <t xml:space="preserve">6.94156312942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01340055465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94824504852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90647840499878</t>
   </si>
   <si>
     <t xml:space="preserve">6.85635995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98500061035156</t>
+    <t xml:space="preserve">6.9850001335144</t>
   </si>
   <si>
     <t xml:space="preserve">6.81626415252686</t>
@@ -3023,37 +3023,37 @@
     <t xml:space="preserve">6.87807846069336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74609661102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92819786071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91650247573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40934562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52796220779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70171022415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89884757995605</t>
+    <t xml:space="preserve">6.74609613418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92819690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91650342941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40934610366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52796173095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70170927047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89884805679321</t>
   </si>
   <si>
     <t xml:space="preserve">7.99407386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94729566574097</t>
+    <t xml:space="preserve">7.94729614257812</t>
   </si>
   <si>
     <t xml:space="preserve">8.06090068817139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08428859710693</t>
+    <t xml:space="preserve">8.08428955078125</t>
   </si>
   <si>
     <t xml:space="preserve">8.16114044189453</t>
@@ -3065,16 +3065,16 @@
     <t xml:space="preserve">7.92056560516357</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77187728881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85039806365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05588817596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95899057388306</t>
+    <t xml:space="preserve">7.7718768119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85039854049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05588912963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95899105072021</t>
   </si>
   <si>
     <t xml:space="preserve">7.97736787796021</t>
@@ -3083,22 +3083,22 @@
     <t xml:space="preserve">8.02581691741943</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85541009902954</t>
+    <t xml:space="preserve">7.85541105270386</t>
   </si>
   <si>
     <t xml:space="preserve">8.20958805084229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24968433380127</t>
+    <t xml:space="preserve">8.24968338012695</t>
   </si>
   <si>
     <t xml:space="preserve">8.31149864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33154487609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22796535491943</t>
+    <t xml:space="preserve">8.33154678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22796630859375</t>
   </si>
   <si>
     <t xml:space="preserve">8.38667678833008</t>
@@ -3110,49 +3110,49 @@
     <t xml:space="preserve">8.54539012908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50780010223389</t>
+    <t xml:space="preserve">8.50779914855957</t>
   </si>
   <si>
     <t xml:space="preserve">8.58297920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53286075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71663284301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67068958282471</t>
+    <t xml:space="preserve">8.53285980224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71663188934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67068862915039</t>
   </si>
   <si>
     <t xml:space="preserve">8.73333835601807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63727569580078</t>
+    <t xml:space="preserve">8.6372766494751</t>
   </si>
   <si>
     <t xml:space="preserve">8.77510452270508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69992446899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74586772918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73751354217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81269359588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00481986999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06746768951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05493927001953</t>
+    <t xml:space="preserve">8.69992542266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74586963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73751640319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81269454956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0048189163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06746864318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05494022369385</t>
   </si>
   <si>
     <t xml:space="preserve">9.11341094970703</t>
@@ -3164,13 +3164,13 @@
     <t xml:space="preserve">9.12594223022461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99646472930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01734828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00899505615234</t>
+    <t xml:space="preserve">8.99646663665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01734924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00899600982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.90875720977783</t>
@@ -3179,97 +3179,97 @@
     <t xml:space="preserve">8.90040302276611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00064277648926</t>
+    <t xml:space="preserve">9.00064182281494</t>
   </si>
   <si>
     <t xml:space="preserve">8.98811340332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8669900894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86281394958496</t>
+    <t xml:space="preserve">8.86699104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86281299591064</t>
   </si>
   <si>
     <t xml:space="preserve">9.06329250335693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02987957000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04240703582764</t>
+    <t xml:space="preserve">9.02987861633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04240798950195</t>
   </si>
   <si>
     <t xml:space="preserve">9.12176418304443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11758804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10505867004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2303581237793</t>
+    <t xml:space="preserve">9.11758899688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10505771636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23035717010498</t>
   </si>
   <si>
     <t xml:space="preserve">9.16353130340576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13011837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18859195709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37653923034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33477401733398</t>
+    <t xml:space="preserve">9.13011932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18859100341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37654113769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33477306365967</t>
   </si>
   <si>
     <t xml:space="preserve">9.21782684326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22200489044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2888298034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41830539703369</t>
+    <t xml:space="preserve">9.22200393676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28883075714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43083477020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41830635070801</t>
   </si>
   <si>
     <t xml:space="preserve">9.38071632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4600715637207</t>
+    <t xml:space="preserve">9.46007251739502</t>
   </si>
   <si>
     <t xml:space="preserve">9.60625457763672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77331924438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64384365081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53942775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59790134429932</t>
+    <t xml:space="preserve">9.77332019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64384460449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5394287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.597900390625</t>
   </si>
   <si>
     <t xml:space="preserve">9.61043167114258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66055107116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85685157775879</t>
+    <t xml:space="preserve">9.66055011749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85685253143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.94873714447021</t>
@@ -3281,40 +3281,40 @@
     <t xml:space="preserve">10.0907430648804</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0113868713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0364484786987</t>
+    <t xml:space="preserve">10.0113878250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0364465713501</t>
   </si>
   <si>
     <t xml:space="preserve">10.0072107315063</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0823907852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0197401046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76914119720459</t>
+    <t xml:space="preserve">10.082389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0197410583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76914310455322</t>
   </si>
   <si>
     <t xml:space="preserve">9.89285755157471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75969123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64371013641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81553649902344</t>
+    <t xml:space="preserve">9.75969219207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64371109008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81553554534912</t>
   </si>
   <si>
     <t xml:space="preserve">9.78546619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62652778625488</t>
+    <t xml:space="preserve">9.62652683258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.58357048034668</t>
@@ -3323,19 +3323,19 @@
     <t xml:space="preserve">9.57927513122559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69096279144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6050500869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74250984191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59645748138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63511943817139</t>
+    <t xml:space="preserve">9.69096183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60504913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74250888824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59645843505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63511848449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.30005836486816</t>
@@ -3344,82 +3344,82 @@
     <t xml:space="preserve">9.44611072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48047542572021</t>
+    <t xml:space="preserve">9.4804744720459</t>
   </si>
   <si>
     <t xml:space="preserve">9.47618007659912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44181442260742</t>
+    <t xml:space="preserve">9.44181632995605</t>
   </si>
   <si>
     <t xml:space="preserve">9.31294631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34301567077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02513885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11534690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40315341949463</t>
+    <t xml:space="preserve">9.34301471710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02513790130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11534595489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40315437316895</t>
   </si>
   <si>
     <t xml:space="preserve">9.5449104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63082408905029</t>
+    <t xml:space="preserve">9.63082313537598</t>
   </si>
   <si>
     <t xml:space="preserve">9.70814514160156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61363887786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5921630859375</t>
+    <t xml:space="preserve">9.61364078521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59216213226318</t>
   </si>
   <si>
     <t xml:space="preserve">9.5577974319458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75539684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90144824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94869899749756</t>
+    <t xml:space="preserve">9.75539588928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90144729614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94870090484619</t>
   </si>
   <si>
     <t xml:space="preserve">9.98736190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0689783096313</t>
+    <t xml:space="preserve">10.0689792633057</t>
   </si>
   <si>
     <t xml:space="preserve">10.0904569625854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0389099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97447395324707</t>
+    <t xml:space="preserve">10.0389089584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97447299957275</t>
   </si>
   <si>
     <t xml:space="preserve">9.9186315536499</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0002479553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80264759063721</t>
+    <t xml:space="preserve">10.0002489089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87567520141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80264854431152</t>
   </si>
   <si>
     <t xml:space="preserve">10.017430305481</t>
@@ -3431,37 +3431,37 @@
     <t xml:space="preserve">9.95729160308838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8670825958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9100399017334</t>
+    <t xml:space="preserve">9.86708164215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91003894805908</t>
   </si>
   <si>
     <t xml:space="preserve">9.96158790588379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99595260620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84560585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91433620452881</t>
+    <t xml:space="preserve">9.99595165252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84560489654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91433525085449</t>
   </si>
   <si>
     <t xml:space="preserve">9.93151760101318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0217256546021</t>
+    <t xml:space="preserve">10.0217266082764</t>
   </si>
   <si>
     <t xml:space="preserve">10.1806659698486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.08616065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1248216629028</t>
+    <t xml:space="preserve">10.0861597061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1248226165771</t>
   </si>
   <si>
     <t xml:space="preserve">10.2150297164917</t>
@@ -3470,79 +3470,79 @@
     <t xml:space="preserve">10.2880563735962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2493953704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3438997268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0947523117065</t>
+    <t xml:space="preserve">10.2493963241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3438987731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0947513580322</t>
   </si>
   <si>
     <t xml:space="preserve">10.1634817123413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2279167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1849603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.391152381897</t>
+    <t xml:space="preserve">10.2279176712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1849594116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3911514282227</t>
   </si>
   <si>
     <t xml:space="preserve">10.3310127258301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4598808288574</t>
+    <t xml:space="preserve">10.4598817825317</t>
   </si>
   <si>
     <t xml:space="preserve">10.4641780853271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4469957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5844554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6231155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7390975952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6746635437012</t>
+    <t xml:space="preserve">10.4469928741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.584454536438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6231145858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7390985488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6746625900269</t>
   </si>
   <si>
     <t xml:space="preserve">10.6402988433838</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243158340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7863492965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7476902008057</t>
+    <t xml:space="preserve">10.5243167877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7863512039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7476892471313</t>
   </si>
   <si>
     <t xml:space="preserve">10.7262105941772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8894453048706</t>
+    <t xml:space="preserve">10.8894462585449</t>
   </si>
   <si>
     <t xml:space="preserve">10.7949409484863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.777759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.601637840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6918458938599</t>
+    <t xml:space="preserve">10.7777585983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6016368865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6918468475342</t>
   </si>
   <si>
     <t xml:space="preserve">10.6531848907471</t>
@@ -3551,25 +3551,25 @@
     <t xml:space="preserve">10.782054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7047328948975</t>
+    <t xml:space="preserve">10.7047338485718</t>
   </si>
   <si>
     <t xml:space="preserve">10.7348031997681</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6875495910645</t>
+    <t xml:space="preserve">10.6875486373901</t>
   </si>
   <si>
     <t xml:space="preserve">10.5801591873169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.52001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5329065322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4341077804565</t>
+    <t xml:space="preserve">10.5200204849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5329074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4341087341309</t>
   </si>
   <si>
     <t xml:space="preserve">10.3653774261475</t>
@@ -3578,28 +3578,28 @@
     <t xml:space="preserve">10.3435649871826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2606763839722</t>
+    <t xml:space="preserve">10.2606773376465</t>
   </si>
   <si>
     <t xml:space="preserve">10.2301387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66300868988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76771068572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71972274780273</t>
+    <t xml:space="preserve">10.0774507522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66300964355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76770973205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71972179412842</t>
   </si>
   <si>
     <t xml:space="preserve">9.90294933319092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79824733734131</t>
+    <t xml:space="preserve">9.79824829101562</t>
   </si>
   <si>
     <t xml:space="preserve">9.72408485412598</t>
@@ -3611,52 +3611,52 @@
     <t xml:space="preserve">9.8942232131958</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75462341308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68482303619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64119625091553</t>
+    <t xml:space="preserve">9.75462245941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68482208251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64119720458984</t>
   </si>
   <si>
     <t xml:space="preserve">9.64555931091309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66737270355225</t>
+    <t xml:space="preserve">9.66737174987793</t>
   </si>
   <si>
     <t xml:space="preserve">9.71099662780762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78079795837402</t>
+    <t xml:space="preserve">9.78079891204834</t>
   </si>
   <si>
     <t xml:space="preserve">9.79388523101807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57139682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72844696044922</t>
+    <t xml:space="preserve">9.57139778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7284460067749</t>
   </si>
   <si>
     <t xml:space="preserve">9.82442378997803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91167259216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99892520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0818128585815</t>
+    <t xml:space="preserve">9.9116735458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99892425537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0818138122559</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599994659424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0687255859375</t>
+    <t xml:space="preserve">10.0687246322632</t>
   </si>
   <si>
     <t xml:space="preserve">10.2126884460449</t>
@@ -3668,28 +3668,28 @@
     <t xml:space="preserve">10.2650394439697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1777868270874</t>
+    <t xml:space="preserve">10.177788734436</t>
   </si>
   <si>
     <t xml:space="preserve">10.2083263397217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2388639450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1690635681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1210765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1297998428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0905380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1123495101929</t>
+    <t xml:space="preserve">10.238862991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1690626144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.121075630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1297988891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0905389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1123504638672</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952390670776</t>
@@ -3698,10 +3698,10 @@
     <t xml:space="preserve">10.0207366943359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61938381195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85496044158936</t>
+    <t xml:space="preserve">9.61938285827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85495948791504</t>
   </si>
   <si>
     <t xml:space="preserve">10.0730886459351</t>
@@ -3719,22 +3719,22 @@
     <t xml:space="preserve">9.50159549713135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56267070770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60629749298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4187068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5932092666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68045997619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71535968780518</t>
+    <t xml:space="preserve">9.56267166137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60629653930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41870784759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68046092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71536064147949</t>
   </si>
   <si>
     <t xml:space="preserve">9.62810897827148</t>
@@ -3746,37 +3746,37 @@
     <t xml:space="preserve">9.35763263702393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27910614013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75996398925781</t>
+    <t xml:space="preserve">9.27910709381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75996494293213</t>
   </si>
   <si>
     <t xml:space="preserve">9.04789257049561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96500396728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60291290283203</t>
+    <t xml:space="preserve">8.96500301361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60291385650635</t>
   </si>
   <si>
     <t xml:space="preserve">8.58895397186279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46854877471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92235946655273</t>
+    <t xml:space="preserve">8.46854782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92235994338989</t>
   </si>
   <si>
     <t xml:space="preserve">7.75134754180908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11082077026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82976627349854</t>
+    <t xml:space="preserve">8.11081981658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82976531982422</t>
   </si>
   <si>
     <t xml:space="preserve">8.38304233551025</t>
@@ -3788,46 +3788,46 @@
     <t xml:space="preserve">8.66224479675293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61512851715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00426578521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81667804718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79050254821777</t>
+    <t xml:space="preserve">8.61512756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0042667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81667900085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79050350189209</t>
   </si>
   <si>
     <t xml:space="preserve">8.82540321350098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05661678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04352951049805</t>
+    <t xml:space="preserve">9.05661773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04353046417236</t>
   </si>
   <si>
     <t xml:space="preserve">9.20494270324707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08279323577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18749332427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26601982116699</t>
+    <t xml:space="preserve">9.08279228210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1874942779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26601886749268</t>
   </si>
   <si>
     <t xml:space="preserve">9.22675514221191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07406806945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93882846832275</t>
+    <t xml:space="preserve">9.07406711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93882942199707</t>
   </si>
   <si>
     <t xml:space="preserve">8.74687767028809</t>
@@ -3836,13 +3836,13 @@
     <t xml:space="preserve">8.61338424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78177833557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71110534667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58022880554199</t>
+    <t xml:space="preserve">8.78177738189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.711106300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58022785186768</t>
   </si>
   <si>
     <t xml:space="preserve">8.4929780960083</t>
@@ -3854,10 +3854,10 @@
     <t xml:space="preserve">8.42317867279053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64479446411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61687469482422</t>
+    <t xml:space="preserve">8.64479351043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61687564849854</t>
   </si>
   <si>
     <t xml:space="preserve">8.46505832672119</t>
@@ -3866,10 +3866,10 @@
     <t xml:space="preserve">8.22599220275879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11605548858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08987998962402</t>
+    <t xml:space="preserve">8.11605644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08988094329834</t>
   </si>
   <si>
     <t xml:space="preserve">8.14223003387451</t>
@@ -3878,31 +3878,31 @@
     <t xml:space="preserve">8.18236637115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10035133361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03578472137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9729642868042</t>
+    <t xml:space="preserve">8.10035037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03578567504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97296476364136</t>
   </si>
   <si>
     <t xml:space="preserve">7.85430383682251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65013694763184</t>
+    <t xml:space="preserve">7.65013647079468</t>
   </si>
   <si>
     <t xml:space="preserve">7.831618309021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01309871673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26438236236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43713760375977</t>
+    <t xml:space="preserve">8.01309967041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26438140869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43713855743408</t>
   </si>
   <si>
     <t xml:space="preserve">8.31847763061523</t>
@@ -3911,13 +3911,13 @@
     <t xml:space="preserve">8.39700222015381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34639644622803</t>
+    <t xml:space="preserve">8.34639739990234</t>
   </si>
   <si>
     <t xml:space="preserve">8.31673145294189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29230117797852</t>
+    <t xml:space="preserve">8.29230213165283</t>
   </si>
   <si>
     <t xml:space="preserve">8.45458698272705</t>
@@ -3929,7 +3929,7 @@
     <t xml:space="preserve">8.44935321807861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50868320465088</t>
+    <t xml:space="preserve">8.5086841583252</t>
   </si>
   <si>
     <t xml:space="preserve">8.66573524475098</t>
@@ -3938,31 +3938,31 @@
     <t xml:space="preserve">8.85594081878662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74251461029053</t>
+    <t xml:space="preserve">8.74251556396484</t>
   </si>
   <si>
     <t xml:space="preserve">8.73815250396729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65526485443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82104015350342</t>
+    <t xml:space="preserve">8.65526390075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82104110717773</t>
   </si>
   <si>
     <t xml:space="preserve">8.80359077453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68144035339355</t>
+    <t xml:space="preserve">8.68143939971924</t>
   </si>
   <si>
     <t xml:space="preserve">7.98517942428589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71819305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9555139541626</t>
+    <t xml:space="preserve">7.7181921005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95551443099976</t>
   </si>
   <si>
     <t xml:space="preserve">8.21726703643799</t>
@@ -3977,16 +3977,16 @@
     <t xml:space="preserve">8.03453636169434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96692800521851</t>
+    <t xml:space="preserve">7.96692752838135</t>
   </si>
   <si>
     <t xml:space="preserve">8.00347328186035</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94134616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1734094619751</t>
+    <t xml:space="preserve">7.94134569168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17341041564941</t>
   </si>
   <si>
     <t xml:space="preserve">8.13321018218994</t>
@@ -3998,7 +3998,7 @@
     <t xml:space="preserve">8.23371028900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1423454284668</t>
+    <t xml:space="preserve">8.14234638214111</t>
   </si>
   <si>
     <t xml:space="preserve">8.14600086212158</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">7.86094522476196</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06377410888672</t>
+    <t xml:space="preserve">8.0637731552124</t>
   </si>
   <si>
     <t xml:space="preserve">7.93769121170044</t>
@@ -4022,10 +4022,10 @@
     <t xml:space="preserve">7.78785467147827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82257318496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65811777114868</t>
+    <t xml:space="preserve">7.82257270812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65811824798584</t>
   </si>
   <si>
     <t xml:space="preserve">7.26890754699707</t>
@@ -4034,16 +4034,16 @@
     <t xml:space="preserve">7.45346307754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84632730484009</t>
+    <t xml:space="preserve">7.59416341781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84632778167725</t>
   </si>
   <si>
     <t xml:space="preserve">7.67273569107056</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29814386367798</t>
+    <t xml:space="preserve">7.29814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">7.39498996734619</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">7.40960788726807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42239904403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36027097702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46442699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53751802444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44615316390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57223558425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65994453430176</t>
+    <t xml:space="preserve">7.42239856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36027145385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46442604064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53751707077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44615364074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57223606109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65994501113892</t>
   </si>
   <si>
     <t xml:space="preserve">7.74582672119141</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67456293106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63253545761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67821788787842</t>
+    <t xml:space="preserve">7.67456245422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6325364112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67821884155273</t>
   </si>
   <si>
     <t xml:space="preserve">7.79150867462158</t>
@@ -4094,22 +4094,22 @@
     <t xml:space="preserve">7.79881858825684</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73303604125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63070869445801</t>
+    <t xml:space="preserve">7.73303651809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63070917129517</t>
   </si>
   <si>
     <t xml:space="preserve">7.49183559417725</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30179929733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41326332092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37671709060669</t>
+    <t xml:space="preserve">7.30179882049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41326284408569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37671804428101</t>
   </si>
   <si>
     <t xml:space="preserve">7.35296297073364</t>
@@ -4124,40 +4124,40 @@
     <t xml:space="preserve">7.2597713470459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20495319366455</t>
+    <t xml:space="preserve">7.20495367050171</t>
   </si>
   <si>
     <t xml:space="preserve">7.40047216415405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20860767364502</t>
+    <t xml:space="preserve">7.20860719680786</t>
   </si>
   <si>
     <t xml:space="preserve">7.29083490371704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31093454360962</t>
+    <t xml:space="preserve">7.31093502044678</t>
   </si>
   <si>
     <t xml:space="preserve">7.38768100738525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50097179412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60147190093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61609077453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67639064788818</t>
+    <t xml:space="preserve">7.50097227096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6014723777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61609125137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67639112472534</t>
   </si>
   <si>
     <t xml:space="preserve">7.55761814117432</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59050798416138</t>
+    <t xml:space="preserve">7.59050893783569</t>
   </si>
   <si>
     <t xml:space="preserve">7.43153524398804</t>
@@ -4166,25 +4166,25 @@
     <t xml:space="preserve">7.42788124084473</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21408987045288</t>
+    <t xml:space="preserve">7.21408939361572</t>
   </si>
   <si>
     <t xml:space="preserve">7.28718042373657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13551664352417</t>
+    <t xml:space="preserve">7.13551712036133</t>
   </si>
   <si>
     <t xml:space="preserve">7.1446533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99664354324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11724376678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26342630386353</t>
+    <t xml:space="preserve">6.99664402008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11724424362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26342582702637</t>
   </si>
   <si>
     <t xml:space="preserve">7.47721767425537</t>
@@ -4202,19 +4202,19 @@
     <t xml:space="preserve">7.16292572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99847030639648</t>
+    <t xml:space="preserve">6.99847078323364</t>
   </si>
   <si>
     <t xml:space="preserve">7.1135892868042</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22139883041382</t>
+    <t xml:space="preserve">7.22139835357666</t>
   </si>
   <si>
     <t xml:space="preserve">7.40229940414429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67090845108032</t>
+    <t xml:space="preserve">7.67090892791748</t>
   </si>
   <si>
     <t xml:space="preserve">7.62888193130493</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">7.53020811080933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70379972457886</t>
+    <t xml:space="preserve">7.70380067825317</t>
   </si>
   <si>
     <t xml:space="preserve">7.77506351470947</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">8.0582914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08204650878906</t>
+    <t xml:space="preserve">8.08204555511475</t>
   </si>
   <si>
     <t xml:space="preserve">8.04001903533936</t>
@@ -4259,16 +4259,16 @@
     <t xml:space="preserve">8.3872013092041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4383659362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54251956939697</t>
+    <t xml:space="preserve">8.43836498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54252052307129</t>
   </si>
   <si>
     <t xml:space="preserve">8.91162967681885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80564785003662</t>
+    <t xml:space="preserve">8.8056468963623</t>
   </si>
   <si>
     <t xml:space="preserve">8.86594867706299</t>
@@ -4280,10 +4280,10 @@
     <t xml:space="preserve">8.79285621643066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73255729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77458381652832</t>
+    <t xml:space="preserve">8.73255634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77458477020264</t>
   </si>
   <si>
     <t xml:space="preserve">8.73535346984863</t>
@@ -15545,7 +15545,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G382" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15571,7 +15571,7 @@
         <v>6.03499984741211</v>
       </c>
       <c r="G383" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15597,7 +15597,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G384" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15623,7 +15623,7 @@
         <v>6.00500011444092</v>
       </c>
       <c r="G385" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15649,7 +15649,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G386" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15675,7 +15675,7 @@
         <v>5.94500017166138</v>
       </c>
       <c r="G387" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15701,7 +15701,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G388" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15727,7 +15727,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G389" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15779,7 +15779,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G391" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15805,7 +15805,7 @@
         <v>6.125</v>
       </c>
       <c r="G392" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15831,7 +15831,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G393" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15883,7 +15883,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G395" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15909,7 +15909,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G396" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15935,7 +15935,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G397" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15961,7 +15961,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G398" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15987,7 +15987,7 @@
         <v>6.02500009536743</v>
       </c>
       <c r="G399" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -16013,7 +16013,7 @@
         <v>6.03499984741211</v>
       </c>
       <c r="G400" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -16039,7 +16039,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G401" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -16065,7 +16065,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -16091,7 +16091,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G403" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -16117,7 +16117,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G404" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -16143,7 +16143,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G405" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -16169,7 +16169,7 @@
         <v>6.22499990463257</v>
       </c>
       <c r="G406" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16195,7 +16195,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16221,7 +16221,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G408" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16247,7 +16247,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G409" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16273,7 +16273,7 @@
         <v>6.21500015258789</v>
       </c>
       <c r="G410" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16299,7 +16299,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G411" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16325,7 +16325,7 @@
         <v>6.21500015258789</v>
       </c>
       <c r="G412" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16351,7 +16351,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G413" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16377,7 +16377,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G414" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16403,7 +16403,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G415" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16429,7 +16429,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G416" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16455,7 +16455,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G417" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16481,7 +16481,7 @@
         <v>6.10500001907349</v>
       </c>
       <c r="G418" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16507,7 +16507,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G419" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16533,7 +16533,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G420" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16559,7 +16559,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G421" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16585,7 +16585,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G422" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16611,7 +16611,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G423" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16637,7 +16637,7 @@
         <v>6.125</v>
       </c>
       <c r="G424" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16663,7 +16663,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G425" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16689,7 +16689,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G426" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16715,7 +16715,7 @@
         <v>6.10500001907349</v>
       </c>
       <c r="G427" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16741,7 +16741,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G428" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16767,7 +16767,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G429" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16793,7 +16793,7 @@
         <v>6.03499984741211</v>
       </c>
       <c r="G430" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16819,7 +16819,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G431" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16845,7 +16845,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G432" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16871,7 +16871,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16897,7 +16897,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G434" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16923,7 +16923,7 @@
         <v>6.25</v>
       </c>
       <c r="G435" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16949,7 +16949,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G436" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16975,7 +16975,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G437" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -17001,7 +17001,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G438" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -17027,7 +17027,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G439" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -17053,7 +17053,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G440" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -17079,7 +17079,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G441" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -17105,7 +17105,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G442" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -17131,7 +17131,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G443" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -17157,7 +17157,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G444" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17183,7 +17183,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G445" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17209,7 +17209,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G446" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17235,7 +17235,7 @@
         <v>6.21500015258789</v>
       </c>
       <c r="G447" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17261,7 +17261,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17287,7 +17287,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G449" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17313,7 +17313,7 @@
         <v>6.25</v>
       </c>
       <c r="G450" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17339,7 +17339,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G451" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17365,7 +17365,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G452" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17391,7 +17391,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G453" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17417,7 +17417,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G454" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17443,7 +17443,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G455" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17469,7 +17469,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G456" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17495,7 +17495,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G457" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17521,7 +17521,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G458" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17547,7 +17547,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G459" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17573,7 +17573,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G460" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17599,7 +17599,7 @@
         <v>6.25</v>
       </c>
       <c r="G461" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17625,7 +17625,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G462" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17651,7 +17651,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G463" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17677,7 +17677,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G464" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17703,7 +17703,7 @@
         <v>6.22499990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17729,7 +17729,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G466" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17755,7 +17755,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G467" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17781,7 +17781,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G468" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17807,7 +17807,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G469" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17833,7 +17833,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G470" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17859,7 +17859,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G471" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17885,7 +17885,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G472" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17911,7 +17911,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G473" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17937,7 +17937,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G474" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17963,7 +17963,7 @@
         <v>6.25500011444092</v>
       </c>
       <c r="G475" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17989,7 +17989,7 @@
         <v>6.22499990463257</v>
       </c>
       <c r="G476" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -18015,7 +18015,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G477" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -18041,7 +18041,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G478" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -18067,7 +18067,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -18093,7 +18093,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G480" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -18119,7 +18119,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G481" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -18145,7 +18145,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G482" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -18171,7 +18171,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G483" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18197,7 +18197,7 @@
         <v>6.10500001907349</v>
       </c>
       <c r="G484" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18223,7 +18223,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G485" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18249,7 +18249,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G486" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18275,7 +18275,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G487" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18301,7 +18301,7 @@
         <v>6.125</v>
       </c>
       <c r="G488" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18327,7 +18327,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G489" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18353,7 +18353,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G490" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18379,7 +18379,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G491" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18405,7 +18405,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G492" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18431,7 +18431,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G493" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18457,7 +18457,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G494" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18483,7 +18483,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G495" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18509,7 +18509,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G496" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18535,7 +18535,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G497" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18561,7 +18561,7 @@
         <v>6.125</v>
       </c>
       <c r="G498" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18587,7 +18587,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G499" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18613,7 +18613,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G500" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18639,7 +18639,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18665,7 +18665,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G502" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18691,7 +18691,7 @@
         <v>6.36499977111816</v>
       </c>
       <c r="G503" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18717,7 +18717,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G504" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18743,7 +18743,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G505" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18769,7 +18769,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G506" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18795,7 +18795,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G507" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18821,7 +18821,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18847,7 +18847,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G509" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18873,7 +18873,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G510" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18899,7 +18899,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G511" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18925,7 +18925,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G512" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18951,7 +18951,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G513" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18977,7 +18977,7 @@
         <v>6.375</v>
       </c>
       <c r="G514" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -19003,7 +19003,7 @@
         <v>6.40500020980835</v>
       </c>
       <c r="G515" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -19029,7 +19029,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G516" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -19055,7 +19055,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G517" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -19081,7 +19081,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G518" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -19107,7 +19107,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G519" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -19133,7 +19133,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G520" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -19159,7 +19159,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G521" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19185,7 +19185,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G522" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19211,7 +19211,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G523" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19237,7 +19237,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G524" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19263,7 +19263,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G525" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19289,7 +19289,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G526" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19315,7 +19315,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G527" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19341,7 +19341,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G528" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19367,7 +19367,7 @@
         <v>6.67500019073486</v>
       </c>
       <c r="G529" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19393,7 +19393,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G530" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19419,7 +19419,7 @@
         <v>6.65199995040894</v>
       </c>
       <c r="G531" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19445,7 +19445,7 @@
         <v>6.62400007247925</v>
       </c>
       <c r="G532" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19471,7 +19471,7 @@
         <v>6.66400003433228</v>
       </c>
       <c r="G533" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19497,7 +19497,7 @@
         <v>6.65199995040894</v>
       </c>
       <c r="G534" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19523,7 +19523,7 @@
         <v>6.58400011062622</v>
       </c>
       <c r="G535" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19549,7 +19549,7 @@
         <v>6.59800004959106</v>
       </c>
       <c r="G536" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19575,7 +19575,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G537" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19601,7 +19601,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G538" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19627,7 +19627,7 @@
         <v>6.44600009918213</v>
       </c>
       <c r="G539" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19653,7 +19653,7 @@
         <v>6.43599987030029</v>
       </c>
       <c r="G540" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19679,7 +19679,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G541" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19705,7 +19705,7 @@
         <v>6.46400022506714</v>
       </c>
       <c r="G542" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19731,7 +19731,7 @@
         <v>6.52799987792969</v>
       </c>
       <c r="G543" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19757,7 +19757,7 @@
         <v>6.58199977874756</v>
       </c>
       <c r="G544" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19783,7 +19783,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G545" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19809,7 +19809,7 @@
         <v>6.66599988937378</v>
       </c>
       <c r="G546" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19835,7 +19835,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G547" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19861,7 +19861,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G548" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19887,7 +19887,7 @@
         <v>6.70599985122681</v>
       </c>
       <c r="G549" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19913,7 +19913,7 @@
         <v>6.71199989318848</v>
       </c>
       <c r="G550" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19939,7 +19939,7 @@
         <v>6.65399980545044</v>
       </c>
       <c r="G551" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19965,7 +19965,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19991,7 +19991,7 @@
         <v>7.06199979782104</v>
       </c>
       <c r="G553" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -20017,7 +20017,7 @@
         <v>7.01800012588501</v>
       </c>
       <c r="G554" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -20043,7 +20043,7 @@
         <v>6.86600017547607</v>
       </c>
       <c r="G555" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -20069,7 +20069,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -20095,7 +20095,7 @@
         <v>6.96799993515015</v>
       </c>
       <c r="G557" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -20121,7 +20121,7 @@
         <v>7.15199995040894</v>
       </c>
       <c r="G558" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -20147,7 +20147,7 @@
         <v>7.33400011062622</v>
       </c>
       <c r="G559" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20173,7 +20173,7 @@
         <v>7.2960000038147</v>
       </c>
       <c r="G560" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20199,7 +20199,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G561" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20225,7 +20225,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G562" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20251,7 +20251,7 @@
         <v>7.16599988937378</v>
       </c>
       <c r="G563" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20277,7 +20277,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20303,7 +20303,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G565" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20329,7 +20329,7 @@
         <v>7.33799982070923</v>
       </c>
       <c r="G566" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20355,7 +20355,7 @@
         <v>7.38800001144409</v>
       </c>
       <c r="G567" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20381,7 +20381,7 @@
         <v>7.37400007247925</v>
       </c>
       <c r="G568" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20407,7 +20407,7 @@
         <v>7.30600023269653</v>
       </c>
       <c r="G569" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20433,7 +20433,7 @@
         <v>7.24599981307983</v>
       </c>
       <c r="G570" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20459,7 +20459,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G571" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20485,7 +20485,7 @@
         <v>7.24399995803833</v>
       </c>
       <c r="G572" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20511,7 +20511,7 @@
         <v>7.35599994659424</v>
       </c>
       <c r="G573" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20537,7 +20537,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G574" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20563,7 +20563,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G575" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20589,7 +20589,7 @@
         <v>7.42600011825562</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20615,7 +20615,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G577" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20641,7 +20641,7 @@
         <v>7.54199981689453</v>
       </c>
       <c r="G578" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20667,7 +20667,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G579" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20693,7 +20693,7 @@
         <v>7.68400001525879</v>
       </c>
       <c r="G580" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20719,7 +20719,7 @@
         <v>7.67199993133545</v>
       </c>
       <c r="G581" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20745,7 +20745,7 @@
         <v>7.67799997329712</v>
       </c>
       <c r="G582" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20771,7 +20771,7 @@
         <v>7.67399978637695</v>
       </c>
       <c r="G583" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20797,7 +20797,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G584" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20823,7 +20823,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G585" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20849,7 +20849,7 @@
         <v>7.74200010299683</v>
       </c>
       <c r="G586" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20875,7 +20875,7 @@
         <v>7.75799989700317</v>
       </c>
       <c r="G587" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20901,7 +20901,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G588" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20927,7 +20927,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G589" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20953,7 +20953,7 @@
         <v>7.87799978256226</v>
       </c>
       <c r="G590" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20979,7 +20979,7 @@
         <v>7.91200017929077</v>
       </c>
       <c r="G591" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -21005,7 +21005,7 @@
         <v>7.92799997329712</v>
       </c>
       <c r="G592" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -21031,7 +21031,7 @@
         <v>7.97200012207031</v>
       </c>
       <c r="G593" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -21057,7 +21057,7 @@
         <v>8.10599994659424</v>
       </c>
       <c r="G594" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -21083,7 +21083,7 @@
         <v>8.08399963378906</v>
       </c>
       <c r="G595" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -21109,7 +21109,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G596" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -21135,7 +21135,7 @@
         <v>8.1540002822876</v>
       </c>
       <c r="G597" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21161,7 +21161,7 @@
         <v>8.11600017547607</v>
       </c>
       <c r="G598" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21187,7 +21187,7 @@
         <v>8.07800006866455</v>
       </c>
       <c r="G599" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -21213,7 +21213,7 @@
         <v>8.10599994659424</v>
       </c>
       <c r="G600" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21239,7 +21239,7 @@
         <v>8.11600017547607</v>
       </c>
       <c r="G601" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21265,7 +21265,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G602" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21291,7 +21291,7 @@
         <v>8.1540002822876</v>
       </c>
       <c r="G603" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21317,7 +21317,7 @@
         <v>8.2180004119873</v>
       </c>
       <c r="G604" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21343,7 +21343,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G605" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21369,7 +21369,7 @@
         <v>7.89200019836426</v>
       </c>
       <c r="G606" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21395,7 +21395,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G607" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21421,7 +21421,7 @@
         <v>7.63600015640259</v>
       </c>
       <c r="G608" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21447,7 +21447,7 @@
         <v>7.69799995422363</v>
       </c>
       <c r="G609" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21473,7 +21473,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G610" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21499,7 +21499,7 @@
         <v>7.70599985122681</v>
       </c>
       <c r="G611" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21525,7 +21525,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G612" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21551,7 +21551,7 @@
         <v>7.3439998626709</v>
       </c>
       <c r="G613" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21577,7 +21577,7 @@
         <v>7.01399993896484</v>
       </c>
       <c r="G614" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21603,7 +21603,7 @@
         <v>7.30800008773804</v>
       </c>
       <c r="G615" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21629,7 +21629,7 @@
         <v>7.32399988174438</v>
       </c>
       <c r="G616" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21655,7 +21655,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G617" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21681,7 +21681,7 @@
         <v>7.51200008392334</v>
       </c>
       <c r="G618" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21707,7 +21707,7 @@
         <v>7.31400012969971</v>
       </c>
       <c r="G619" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21733,7 +21733,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G620" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21759,7 +21759,7 @@
         <v>7.28200006484985</v>
       </c>
       <c r="G621" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21785,7 +21785,7 @@
         <v>7.08400011062622</v>
       </c>
       <c r="G622" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21811,7 +21811,7 @@
         <v>7.35799980163574</v>
       </c>
       <c r="G623" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21837,7 +21837,7 @@
         <v>7.4980001449585</v>
       </c>
       <c r="G624" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21863,7 +21863,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G625" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21889,7 +21889,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G626" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21915,7 +21915,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G627" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21941,7 +21941,7 @@
         <v>7.32200002670288</v>
       </c>
       <c r="G628" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21967,7 +21967,7 @@
         <v>7.39599990844727</v>
       </c>
       <c r="G629" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21993,7 +21993,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G630" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -22019,7 +22019,7 @@
         <v>7.33799982070923</v>
       </c>
       <c r="G631" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -22045,7 +22045,7 @@
         <v>7.34600019454956</v>
       </c>
       <c r="G632" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -22071,7 +22071,7 @@
         <v>7.25</v>
       </c>
       <c r="G633" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -22097,7 +22097,7 @@
         <v>7.28399991989136</v>
       </c>
       <c r="G634" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -22123,7 +22123,7 @@
         <v>7.25</v>
       </c>
       <c r="G635" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22149,7 +22149,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G636" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22175,7 +22175,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G637" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22201,7 +22201,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G638" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22227,7 +22227,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G639" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22253,7 +22253,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G640" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22279,7 +22279,7 @@
         <v>7.39599990844727</v>
       </c>
       <c r="G641" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22305,7 +22305,7 @@
         <v>7.43200016021729</v>
       </c>
       <c r="G642" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22331,7 +22331,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22357,7 +22357,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G644" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22383,7 +22383,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G645" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22409,7 +22409,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G646" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22435,7 +22435,7 @@
         <v>7.57200002670288</v>
       </c>
       <c r="G647" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22461,7 +22461,7 @@
         <v>7.68200016021729</v>
       </c>
       <c r="G648" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22487,7 +22487,7 @@
         <v>7.76200008392334</v>
       </c>
       <c r="G649" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22513,7 +22513,7 @@
         <v>7.76200008392334</v>
       </c>
       <c r="G650" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22539,7 +22539,7 @@
         <v>7.80399990081787</v>
       </c>
       <c r="G651" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22565,7 +22565,7 @@
         <v>7.71400022506714</v>
       </c>
       <c r="G652" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22591,7 +22591,7 @@
         <v>7.73400020599365</v>
       </c>
       <c r="G653" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22617,7 +22617,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22643,7 +22643,7 @@
         <v>7.72399997711182</v>
       </c>
       <c r="G655" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22669,7 +22669,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G656" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22695,7 +22695,7 @@
         <v>7.88399982452393</v>
       </c>
       <c r="G657" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22721,7 +22721,7 @@
         <v>7.91800022125244</v>
       </c>
       <c r="G658" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22747,7 +22747,7 @@
         <v>7.96600008010864</v>
       </c>
       <c r="G659" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22773,7 +22773,7 @@
         <v>7.9539999961853</v>
       </c>
       <c r="G660" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22799,7 +22799,7 @@
         <v>7.52400016784668</v>
       </c>
       <c r="G661" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22825,7 +22825,7 @@
         <v>7.44799995422363</v>
       </c>
       <c r="G662" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22851,7 +22851,7 @@
         <v>7.39599990844727</v>
       </c>
       <c r="G663" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22877,7 +22877,7 @@
         <v>7.42399978637695</v>
       </c>
       <c r="G664" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22903,7 +22903,7 @@
         <v>7.33400011062622</v>
       </c>
       <c r="G665" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22929,7 +22929,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -25945,7 +25945,7 @@
         <v>7.68200016021729</v>
       </c>
       <c r="G782" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -61547,7 +61547,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6495601852</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>4000333</v>
@@ -61568,6 +61568,32 @@
         <v>1755</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495023148</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>2418850</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>12.2200002670288</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>12.2950000762939</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>12.3649997711182</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36455488204956</t>
+    <t xml:space="preserve">4.3645544052124</t>
   </si>
   <si>
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5118145942688</t>
+    <t xml:space="preserve">4.51181507110596</t>
   </si>
   <si>
     <t xml:space="preserve">4.44288492202759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41781949996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37708711624146</t>
+    <t xml:space="preserve">4.41781854629517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37708759307861</t>
   </si>
   <si>
     <t xml:space="preserve">4.33635568618774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43975162506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4930157661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46795034408569</t>
+    <t xml:space="preserve">4.43975067138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49301624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46794986724854</t>
   </si>
   <si>
     <t xml:space="preserve">4.41155242919922</t>
@@ -74,130 +74,130 @@
     <t xml:space="preserve">4.27995824813843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19849443435669</t>
+    <t xml:space="preserve">4.19849491119385</t>
   </si>
   <si>
     <t xml:space="preserve">3.96663761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12016487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17342853546143</t>
+    <t xml:space="preserve">4.12016439437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17342948913574</t>
   </si>
   <si>
     <t xml:space="preserve">4.0856990814209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20476150512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25802612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17029571533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27682542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16089630126953</t>
+    <t xml:space="preserve">4.20476055145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25802516937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17029619216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27682447433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16089582443237</t>
   </si>
   <si>
     <t xml:space="preserve">4.07316637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94783854484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75044655799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3587954044342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23973417282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54365539550781</t>
+    <t xml:space="preserve">3.94783878326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75044679641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35879564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23973393440247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54365515708923</t>
   </si>
   <si>
     <t xml:space="preserve">3.39012742042542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40266060829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50605607032776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49039053916931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6313841342926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61571884155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69404864311218</t>
+    <t xml:space="preserve">3.40266036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5060555934906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49039077758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63138484954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61571836471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69404888153076</t>
   </si>
   <si>
     <t xml:space="preserve">3.82564353942871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.741046667099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7034478187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80997753143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86324238777161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92903852462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89457416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86010789871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88517379760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84130930900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86637473106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83817553520203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03870105743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06690073013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06376647949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03243494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01050281524658</t>
+    <t xml:space="preserve">3.74104714393616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70344805717468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80997776985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86324167251587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92903900146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89457440376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8601086139679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.885174036026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84130954742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.866375207901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83817625045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03870248794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06689977645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06376695632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03243446350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01050233840942</t>
   </si>
   <si>
     <t xml:space="preserve">4.02616834640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10449886322021</t>
+    <t xml:space="preserve">4.10449838638306</t>
   </si>
   <si>
     <t xml:space="preserve">4.24235963821411</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">4.15149688720703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2298264503479</t>
+    <t xml:space="preserve">4.22982692718506</t>
   </si>
   <si>
     <t xml:space="preserve">4.16716241836548</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">4.04183387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92590570449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98857045173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00736856460571</t>
+    <t xml:space="preserve">3.92590594291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98856997489929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00736904144287</t>
   </si>
   <si>
     <t xml:space="preserve">4.02930212020874</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">4.04810094833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13583087921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06063413619995</t>
+    <t xml:space="preserve">4.13583040237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06063318252563</t>
   </si>
   <si>
     <t xml:space="preserve">4.05750036239624</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08883237838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05436706542969</t>
+    <t xml:space="preserve">4.08883285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05436658859253</t>
   </si>
   <si>
     <t xml:space="preserve">4.10763120651245</t>
@@ -260,199 +260,199 @@
     <t xml:space="preserve">4.18596172332764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23922634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24862670898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17969512939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11703157424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21102809906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24549198150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2204270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20162725448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23295974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12329721450806</t>
+    <t xml:space="preserve">4.23922681808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24862623214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17969560623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11703109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21102714538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24549245834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2016282081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23296022415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12329769134521</t>
   </si>
   <si>
     <t xml:space="preserve">4.23609304428101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18909549713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28309154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28935623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25489234924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31442403793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31128978729248</t>
+    <t xml:space="preserve">4.18909502029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28309059143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28935718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25489187240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31442308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31129026412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.32382297515869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29875755310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30815744400024</t>
+    <t xml:space="preserve">4.29875802993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30815649032593</t>
   </si>
   <si>
     <t xml:space="preserve">4.38648700714111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39588594436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29249095916748</t>
+    <t xml:space="preserve">4.39588689804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29249048233032</t>
   </si>
   <si>
     <t xml:space="preserve">4.22669363021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20789384841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33322238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43207931518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37606048583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36617422103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.415602684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06630849838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8257577419281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92790985107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92131876945496</t>
+    <t xml:space="preserve">4.20789432525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33322191238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43207979202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37605953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36617469787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41560316085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06630945205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82575750350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9279100894928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92131900787354</t>
   </si>
   <si>
     <t xml:space="preserve">4.03006172180176</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94109106063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84223413467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79939556121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76973867416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91143345832825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08937549591064</t>
+    <t xml:space="preserve">3.94109082221985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84223341941833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79939532279968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76973843574524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91143393516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08937644958496</t>
   </si>
   <si>
     <t xml:space="preserve">4.07949018478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17505216598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10255575180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1058521270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08278608322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14539480209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13221406936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08608055114746</t>
+    <t xml:space="preserve">4.17505168914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10255670547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10585117340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08278512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14539527893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1322135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0860800743103</t>
   </si>
   <si>
     <t xml:space="preserve">4.07619476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02676677703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00699472427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94438672065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25084161758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22777462005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25743246078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26402282714844</t>
+    <t xml:space="preserve">4.02676582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.006995677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94438576698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25084209442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22777509689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25743198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26402235031128</t>
   </si>
   <si>
     <t xml:space="preserve">4.32333660125732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33651781082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2475471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16187047958374</t>
+    <t xml:space="preserve">4.33651733398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24754762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1618709564209</t>
   </si>
   <si>
     <t xml:space="preserve">4.20470905303955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09926080703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1157374382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18493747711182</t>
+    <t xml:space="preserve">4.09926128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11573696136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18493700027466</t>
   </si>
   <si>
     <t xml:space="preserve">4.13880443572998</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">4.09267091751099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11244201660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05312776565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12891864776611</t>
+    <t xml:space="preserve">4.1124415397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05312728881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12891817092896</t>
   </si>
   <si>
     <t xml:space="preserve">4.11903285980225</t>
@@ -479,61 +479,61 @@
     <t xml:space="preserve">4.15528011322021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22118520736694</t>
+    <t xml:space="preserve">4.22118473052979</t>
   </si>
   <si>
     <t xml:space="preserve">4.20800447463989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98392844200134</t>
+    <t xml:space="preserve">3.9839289188385</t>
   </si>
   <si>
     <t xml:space="preserve">4.04324245452881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03994703292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0036997795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02347087860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0333571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01029014587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00040531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99381446838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97733807563782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.980633020401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91472935676575</t>
+    <t xml:space="preserve">4.03994750976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00369930267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02347183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03335666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01028966903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00040435791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99381422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97733759880066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98063373565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91472887992859</t>
   </si>
   <si>
     <t xml:space="preserve">3.96415710449219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98722338676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9312047958374</t>
+    <t xml:space="preserve">3.98722434043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93120455741882</t>
   </si>
   <si>
     <t xml:space="preserve">3.99710893630981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07289934158325</t>
+    <t xml:space="preserve">4.07289886474609</t>
   </si>
   <si>
     <t xml:space="preserve">4.04983282089233</t>
@@ -542,145 +542,145 @@
     <t xml:space="preserve">3.9246141910553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90154838562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93450021743774</t>
+    <t xml:space="preserve">3.9015486240387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9345006942749</t>
   </si>
   <si>
     <t xml:space="preserve">3.97074794769287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.960862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94768071174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93779468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88836598396301</t>
+    <t xml:space="preserve">3.96086239814758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94768047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93779540061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88836646080017</t>
   </si>
   <si>
     <t xml:space="preserve">3.8455286026001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76314878463745</t>
+    <t xml:space="preserve">3.76314854621887</t>
   </si>
   <si>
     <t xml:space="preserve">3.72360563278198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71701502799988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71042466163635</t>
+    <t xml:space="preserve">3.71701526641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71042513847351</t>
   </si>
   <si>
     <t xml:space="preserve">3.70053839683533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65111064910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7961003780365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86530065536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86859512329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85871005058289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17175674438477</t>
+    <t xml:space="preserve">3.65111088752747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79610133171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86530017852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86859607696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85871028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17175626754761</t>
   </si>
   <si>
     <t xml:space="preserve">4.188232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17834711074829</t>
+    <t xml:space="preserve">4.17834663391113</t>
   </si>
   <si>
     <t xml:space="preserve">4.16846132278442</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22448015213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18164157867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21788930892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23766040802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21129941940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15198469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06301355361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02017641067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99051952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01688098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85541462898254</t>
+    <t xml:space="preserve">4.22447967529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18164110183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2178897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23766088485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21129846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15198564529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06301403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02017545700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99051856994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01688051223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85541439056396</t>
   </si>
   <si>
     <t xml:space="preserve">3.83234786987305</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8521192073822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9542715549469</t>
+    <t xml:space="preserve">3.85211896896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95427179336548</t>
   </si>
   <si>
     <t xml:space="preserve">3.95097613334656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01358604431152</t>
+    <t xml:space="preserve">4.01358556747437</t>
   </si>
   <si>
     <t xml:space="preserve">4.13550901412964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26731824874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25413703918457</t>
+    <t xml:space="preserve">4.26731777191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25413656234741</t>
   </si>
   <si>
     <t xml:space="preserve">4.2442512512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20141363143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28049802780151</t>
+    <t xml:space="preserve">4.20141315460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28049898147583</t>
   </si>
   <si>
     <t xml:space="preserve">4.24095630645752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10914659500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14869070053101</t>
+    <t xml:space="preserve">4.10914754867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14868974685669</t>
   </si>
   <si>
     <t xml:space="preserve">4.19152784347534</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">4.2145938873291</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12232780456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19482278823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28379392623901</t>
+    <t xml:space="preserve">4.12232828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19482374191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28379344940186</t>
   </si>
   <si>
     <t xml:space="preserve">4.29697513580322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1585750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12562322616577</t>
+    <t xml:space="preserve">4.15857458114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12562274932861</t>
   </si>
   <si>
     <t xml:space="preserve">4.26072788238525</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">4.27061319351196</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23555088043213</t>
+    <t xml:space="preserve">4.23555135726929</t>
   </si>
   <si>
     <t xml:space="preserve">4.24957609176636</t>
@@ -725,22 +725,22 @@
     <t xml:space="preserve">4.20048809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20750093460083</t>
+    <t xml:space="preserve">4.20750045776367</t>
   </si>
   <si>
     <t xml:space="preserve">4.2215256690979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17945003509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23204374313354</t>
+    <t xml:space="preserve">4.17945098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2320442199707</t>
   </si>
   <si>
     <t xml:space="preserve">4.2039942741394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21100807189941</t>
+    <t xml:space="preserve">4.21100664138794</t>
   </si>
   <si>
     <t xml:space="preserve">4.18646335601807</t>
@@ -749,61 +749,61 @@
     <t xml:space="preserve">4.16893243789673</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24256277084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25308179855347</t>
+    <t xml:space="preserve">4.24256420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25308132171631</t>
   </si>
   <si>
     <t xml:space="preserve">4.29515695571899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27411985397339</t>
+    <t xml:space="preserve">4.27411937713623</t>
   </si>
   <si>
     <t xml:space="preserve">4.25658845901489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24606990814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19347620010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18295669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22503232955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37580060958862</t>
+    <t xml:space="preserve">4.24606943130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1934757232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1829571723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22503185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37580013275146</t>
   </si>
   <si>
     <t xml:space="preserve">4.38982582092285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41086387634277</t>
+    <t xml:space="preserve">4.41086339950562</t>
   </si>
   <si>
     <t xml:space="preserve">4.35125684738159</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36177539825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36528158187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40735626220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28463840484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29866361618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35826969146729</t>
+    <t xml:space="preserve">4.36177635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36528205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40735721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28463792800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29866313934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35827016830444</t>
   </si>
   <si>
     <t xml:space="preserve">4.36878776550293</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">4.31268787384033</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29165077209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28113174438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30918169021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2671070098877</t>
+    <t xml:space="preserve">4.29165029525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28113222122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30918121337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26710653305054</t>
   </si>
   <si>
     <t xml:space="preserve">4.31619453430176</t>
@@ -833,49 +833,49 @@
     <t xml:space="preserve">4.35476350784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34424495697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34775114059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31969976425171</t>
+    <t xml:space="preserve">4.3442440032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34775066375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31970071792603</t>
   </si>
   <si>
     <t xml:space="preserve">4.33723163604736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30567598342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33021974563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39333200454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32320690155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40034484863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41437005996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3968391418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40385055541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38631963729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30216932296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28814458847046</t>
+    <t xml:space="preserve">4.3056755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33021926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39333152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32320642471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40034437179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41436910629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39683818817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40385150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38632011413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30216979980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2881441116333</t>
   </si>
   <si>
     <t xml:space="preserve">4.2776255607605</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">4.45293807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43891334533691</t>
+    <t xml:space="preserve">4.43891286849976</t>
   </si>
   <si>
     <t xml:space="preserve">4.45644426345825</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">4.50903797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52306365966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53708839416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51605033874512</t>
+    <t xml:space="preserve">4.52306270599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53708791732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51605081558228</t>
   </si>
   <si>
     <t xml:space="preserve">4.55111265182495</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">4.58266925811768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6142258644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71590662002563</t>
+    <t xml:space="preserve">4.61422491073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71590757369995</t>
   </si>
   <si>
     <t xml:space="preserve">4.71240091323853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69486951828003</t>
+    <t xml:space="preserve">4.69486999511719</t>
   </si>
   <si>
     <t xml:space="preserve">4.66331338882446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6808443069458</t>
+    <t xml:space="preserve">4.68084478378296</t>
   </si>
   <si>
     <t xml:space="preserve">4.6913628578186</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">4.66471576690674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64508056640625</t>
+    <t xml:space="preserve">4.64508104324341</t>
   </si>
   <si>
     <t xml:space="preserve">4.67313098907471</t>
@@ -962,115 +962,115 @@
     <t xml:space="preserve">4.62684869766235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48800039291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60721302032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52025890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51324558258057</t>
+    <t xml:space="preserve">4.48800086975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60721349716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52025747299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51324510574341</t>
   </si>
   <si>
     <t xml:space="preserve">4.53288125991821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57776069641113</t>
+    <t xml:space="preserve">4.57776117324829</t>
   </si>
   <si>
     <t xml:space="preserve">4.61562824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66752147674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67453384399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75447559356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74045085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70258331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70679140090942</t>
+    <t xml:space="preserve">4.66752099990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67453336715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75447654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74045133590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70258283615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70679092407227</t>
   </si>
   <si>
     <t xml:space="preserve">4.66611862182617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93680095672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95222806930542</t>
+    <t xml:space="preserve">4.93680047988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95222759246826</t>
   </si>
   <si>
     <t xml:space="preserve">4.92137336730957</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81478357315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84563827514648</t>
+    <t xml:space="preserve">4.81478309631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84563875198364</t>
   </si>
   <si>
     <t xml:space="preserve">4.88631057739258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01534128189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14296865463257</t>
+    <t xml:space="preserve">5.01534080505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14296817779541</t>
   </si>
   <si>
     <t xml:space="preserve">5.11632061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20327568054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09107685089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0251579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10510110855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18504333496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14577293395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18083620071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17101764678955</t>
+    <t xml:space="preserve">5.20327615737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0910758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02515840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10510063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18504285812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14577341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17101860046387</t>
   </si>
   <si>
     <t xml:space="preserve">5.12333297729492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08125782012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06302547454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07985639572144</t>
+    <t xml:space="preserve">5.08125877380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0630259513855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07985496520996</t>
   </si>
   <si>
     <t xml:space="preserve">5.15839576721191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16821384429932</t>
+    <t xml:space="preserve">5.168212890625</t>
   </si>
   <si>
     <t xml:space="preserve">5.20748376846313</t>
@@ -1079,43 +1079,43 @@
     <t xml:space="preserve">5.29443836212158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28882789611816</t>
+    <t xml:space="preserve">5.28882837295532</t>
   </si>
   <si>
     <t xml:space="preserve">5.32950115203857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38840675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3799901008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3841986656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38139343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41365098953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46273851394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42907810211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44029855728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51883888244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52444791793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54829072952271</t>
+    <t xml:space="preserve">5.38840579986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37999105453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38419818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38139295578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41365003585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46273803710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42907762527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44029808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51883792877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52444839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54829120635986</t>
   </si>
   <si>
     <t xml:space="preserve">5.55951118469238</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">5.59036588668823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68433284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66890668869019</t>
+    <t xml:space="preserve">5.68433332443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66890573501587</t>
   </si>
   <si>
     <t xml:space="preserve">5.65908813476562</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">5.71799421310425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69134616851807</t>
+    <t xml:space="preserve">5.69134664535522</t>
   </si>
   <si>
     <t xml:space="preserve">5.66469860076904</t>
@@ -1145,82 +1145,82 @@
     <t xml:space="preserve">5.71518850326538</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76287317276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54688787460327</t>
+    <t xml:space="preserve">5.76287412643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54688882827759</t>
   </si>
   <si>
     <t xml:space="preserve">5.53426599502563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34352588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35474634170532</t>
+    <t xml:space="preserve">5.34352540969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35474586486816</t>
   </si>
   <si>
     <t xml:space="preserve">5.39822340011597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3715763092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40383338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32108497619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14998054504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9185676574707</t>
+    <t xml:space="preserve">5.37157535552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40383386611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32108640670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1499810218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91856861114502</t>
   </si>
   <si>
     <t xml:space="preserve">5.12473583221436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13595485687256</t>
+    <t xml:space="preserve">5.13595581054688</t>
   </si>
   <si>
     <t xml:space="preserve">5.23833799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26779079437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1289439201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12613821029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10650300979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96765613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15979766845703</t>
+    <t xml:space="preserve">5.2677903175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12894344329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12613773345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1065034866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96765565872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15979814529419</t>
   </si>
   <si>
     <t xml:space="preserve">5.25797319412231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35755014419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4837760925293</t>
+    <t xml:space="preserve">5.35755109786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48377656936646</t>
   </si>
   <si>
     <t xml:space="preserve">5.35053777694702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43365335464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48856830596924</t>
+    <t xml:space="preserve">5.43365383148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48856782913208</t>
   </si>
   <si>
     <t xml:space="preserve">5.51380014419556</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">5.45146369934082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3802227973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4054536819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32827472686768</t>
+    <t xml:space="preserve">5.38022232055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40545415878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32827568054199</t>
   </si>
   <si>
     <t xml:space="preserve">5.32085371017456</t>
@@ -1247,40 +1247,40 @@
     <t xml:space="preserve">5.37428569793701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38764333724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5152850151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55832624435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61027336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55090570449829</t>
+    <t xml:space="preserve">5.3876428604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51528406143188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55832576751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6102728843689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55090522766113</t>
   </si>
   <si>
     <t xml:space="preserve">5.63253688812256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6191782951355</t>
+    <t xml:space="preserve">5.61917781829834</t>
   </si>
   <si>
     <t xml:space="preserve">5.70080947875977</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76017713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79134559631348</t>
+    <t xml:space="preserve">5.76017761230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79134511947632</t>
   </si>
   <si>
     <t xml:space="preserve">5.72455644607544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73939895629883</t>
+    <t xml:space="preserve">5.73939847946167</t>
   </si>
   <si>
     <t xml:space="preserve">5.72158765792847</t>
@@ -1289,25 +1289,25 @@
     <t xml:space="preserve">5.73197746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82548189163208</t>
+    <t xml:space="preserve">5.82548236846924</t>
   </si>
   <si>
     <t xml:space="preserve">5.8507137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8759446144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91156578063965</t>
+    <t xml:space="preserve">5.87594509124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91156530380249</t>
   </si>
   <si>
     <t xml:space="preserve">5.90266036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58355808258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52715826034546</t>
+    <t xml:space="preserve">5.58355760574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5271577835083</t>
   </si>
   <si>
     <t xml:space="preserve">5.50934743881226</t>
@@ -1319,10 +1319,10 @@
     <t xml:space="preserve">5.35053730010986</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27187585830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24961280822754</t>
+    <t xml:space="preserve">5.27187538146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24961233139038</t>
   </si>
   <si>
     <t xml:space="preserve">5.304527759552</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">5.08338212966919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00323534011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16204404830933</t>
+    <t xml:space="preserve">5.00323581695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1620454788208</t>
   </si>
   <si>
     <t xml:space="preserve">5.061119556427</t>
@@ -1349,43 +1349,43 @@
     <t xml:space="preserve">5.03291893005371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01362562179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03588819503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97058343887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9216046333313</t>
+    <t xml:space="preserve">5.0136251449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03588771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97058296203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92160511016846</t>
   </si>
   <si>
     <t xml:space="preserve">5.00471973419189</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13681364059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23625421524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20360231399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22438144683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34460115432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31640100479126</t>
+    <t xml:space="preserve">5.13681411743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23625469207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20360279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22438192367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34460163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31640148162842</t>
   </si>
   <si>
     <t xml:space="preserve">5.23328590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09970808029175</t>
+    <t xml:space="preserve">5.09970903396606</t>
   </si>
   <si>
     <t xml:space="preserve">5.12939262390137</t>
@@ -1397,34 +1397,34 @@
     <t xml:space="preserve">5.1531400680542</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13978147506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20953941345215</t>
+    <t xml:space="preserve">5.13978242874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20953893661499</t>
   </si>
   <si>
     <t xml:space="preserve">5.25258111953735</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27781200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34014892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37131643295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33569574356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10712957382202</t>
+    <t xml:space="preserve">5.27781248092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34014844894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37131690979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33569622039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10712909698486</t>
   </si>
   <si>
     <t xml:space="preserve">5.05221462249756</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96167802810669</t>
+    <t xml:space="preserve">4.96167755126953</t>
   </si>
   <si>
     <t xml:space="preserve">4.97206735610962</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">4.97652006149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89785718917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7167854309082</t>
+    <t xml:space="preserve">4.89785766601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71678495407104</t>
   </si>
   <si>
     <t xml:space="preserve">4.74201679229736</t>
@@ -1451,34 +1451,34 @@
     <t xml:space="preserve">4.63663864135742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65444850921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73162698745728</t>
+    <t xml:space="preserve">4.65444898605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73162651062012</t>
   </si>
   <si>
     <t xml:space="preserve">4.67225933074951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54164981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65296459197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62773323059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63812255859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45111417770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5475869178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55203914642334</t>
+    <t xml:space="preserve">4.54164934158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65296411514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62773275375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63812303543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45111322402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54758596420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55203866958618</t>
   </si>
   <si>
     <t xml:space="preserve">4.69600629806519</t>
@@ -1487,91 +1487,91 @@
     <t xml:space="preserve">4.59211206436157</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71233320236206</t>
+    <t xml:space="preserve">4.71233224868774</t>
   </si>
   <si>
     <t xml:space="preserve">4.86223649978638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9008264541626</t>
+    <t xml:space="preserve">4.90082597732544</t>
   </si>
   <si>
     <t xml:space="preserve">4.83255243301392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80138397216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96019411087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06408739089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09822416305542</t>
+    <t xml:space="preserve">4.80138444900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96019458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06408786773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09822368621826</t>
   </si>
   <si>
     <t xml:space="preserve">5.10861349105835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11158227920532</t>
+    <t xml:space="preserve">5.11158180236816</t>
   </si>
   <si>
     <t xml:space="preserve">4.9483208656311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82364749908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83552026748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86372041702271</t>
+    <t xml:space="preserve">4.82364702224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83552074432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86372089385986</t>
   </si>
   <si>
     <t xml:space="preserve">4.73014307022095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88598442077637</t>
+    <t xml:space="preserve">4.88598299026489</t>
   </si>
   <si>
     <t xml:space="preserve">4.86075305938721</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07596206665039</t>
+    <t xml:space="preserve">5.07596111297607</t>
   </si>
   <si>
     <t xml:space="preserve">5.04924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97355222702026</t>
+    <t xml:space="preserve">4.97355127334595</t>
   </si>
   <si>
     <t xml:space="preserve">4.97503614425659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09525632858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05518245697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12197208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85184764862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87559413909912</t>
+    <t xml:space="preserve">5.09525537490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05518293380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12197160720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85184717178345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87559509277344</t>
   </si>
   <si>
     <t xml:space="preserve">4.81919527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86668968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06260299682617</t>
+    <t xml:space="preserve">4.86668872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06260347366333</t>
   </si>
   <si>
     <t xml:space="preserve">5.14275074005127</t>
@@ -1580,94 +1580,94 @@
     <t xml:space="preserve">5.11751890182495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11009836196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27484369277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20211791992188</t>
+    <t xml:space="preserve">5.11009788513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2748441696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20211839675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.12642431259155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0700249671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1828236579895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17243480682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19321346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25703287124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22141218185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27335977554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34311771392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35647487640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38170671463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35795879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45740032196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49153709411621</t>
+    <t xml:space="preserve">5.07002401351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18282318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17243385314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19321298599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25703382492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22141265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27336025238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34311723709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35647439956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38170623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35795974731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45740079879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49153757095337</t>
   </si>
   <si>
     <t xml:space="preserve">5.62956809997559</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995742797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58652591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63847398757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65183067321777</t>
+    <t xml:space="preserve">5.63995695114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58652448654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63847303390503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65183115005493</t>
   </si>
   <si>
     <t xml:space="preserve">5.70823001861572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6829981803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69190406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57613706588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45294809341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58058929443359</t>
+    <t xml:space="preserve">5.68299865722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69190359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57613658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45294761657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58058881759644</t>
   </si>
   <si>
     <t xml:space="preserve">5.67260980606079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70377731323242</t>
+    <t xml:space="preserve">5.70377779006958</t>
   </si>
   <si>
     <t xml:space="preserve">5.53161096572876</t>
@@ -1679,40 +1679,40 @@
     <t xml:space="preserve">5.61620998382568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69932460784912</t>
+    <t xml:space="preserve">5.69932556152344</t>
   </si>
   <si>
     <t xml:space="preserve">5.75720834732056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68893575668335</t>
+    <t xml:space="preserve">5.68893527984619</t>
   </si>
   <si>
     <t xml:space="preserve">5.74830341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76908302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75127267837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73494577407837</t>
+    <t xml:space="preserve">5.76908254623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75127220153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73494625091553</t>
   </si>
   <si>
     <t xml:space="preserve">5.77501964569092</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79876613616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86110210418701</t>
+    <t xml:space="preserve">5.79876708984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86110258102417</t>
   </si>
   <si>
     <t xml:space="preserve">5.86258697509766</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88484954833984</t>
+    <t xml:space="preserve">5.88485050201416</t>
   </si>
   <si>
     <t xml:space="preserve">5.88930225372314</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">5.85665035247803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88336610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89523983001709</t>
+    <t xml:space="preserve">5.88336563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89523935317993</t>
   </si>
   <si>
     <t xml:space="preserve">5.89820766448975</t>
@@ -1736,52 +1736,52 @@
     <t xml:space="preserve">5.86407089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89227056503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90711259841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93086051940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99616527557373</t>
+    <t xml:space="preserve">5.8922700881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90711307525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93086004257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99616479873657</t>
   </si>
   <si>
     <t xml:space="preserve">6.04811191558838</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20395183563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26331996917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41025590896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35237216949463</t>
+    <t xml:space="preserve">6.20395278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2633204460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41025495529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35237312316895</t>
   </si>
   <si>
     <t xml:space="preserve">6.37463569641113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39986658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40135097503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37908697128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43548822402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41916131973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43845558166504</t>
+    <t xml:space="preserve">6.39986610412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40135192871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37908744812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43548679351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41916084289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43845653533936</t>
   </si>
   <si>
     <t xml:space="preserve">6.49040365219116</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">6.48594999313354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51118278503418</t>
+    <t xml:space="preserve">6.51118230819702</t>
   </si>
   <si>
     <t xml:space="preserve">6.62249660491943</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64624452590942</t>
+    <t xml:space="preserve">6.64624309539795</t>
   </si>
   <si>
     <t xml:space="preserve">6.63585567474365</t>
@@ -1805,61 +1805,61 @@
     <t xml:space="preserve">6.67147445678711</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65960216522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73084354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68038082122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06181907653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06478881835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02174615859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87332677841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84512615203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86590576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9564414024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05736780166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00541925430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93714714050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98909425735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76794862747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68483304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67889738082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60171794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80505323410034</t>
+    <t xml:space="preserve">6.65960168838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73084306716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68037986755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06182098388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06478786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02174663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87332582473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84512662887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86590528488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644187927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05736684799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00542116165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93714761734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98909330368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76794815063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68483400344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67889642715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60171842575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8050537109375</t>
   </si>
   <si>
     <t xml:space="preserve">6.76201248168945</t>
@@ -1871,61 +1871,61 @@
     <t xml:space="preserve">6.69670629501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75607395172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79911613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50672912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61952877044678</t>
+    <t xml:space="preserve">6.75607633590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79911661148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50672960281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61952924728394</t>
   </si>
   <si>
     <t xml:space="preserve">6.6032018661499</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55125617980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51711893081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45626640319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46962404251099</t>
+    <t xml:space="preserve">6.55125522613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51711845397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4562668800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46962547302246</t>
   </si>
   <si>
     <t xml:space="preserve">6.63436985015869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5883617401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62398099899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75459098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81841087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106372833252</t>
+    <t xml:space="preserve">6.58836126327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62398052215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75459051132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81841135025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106420516968</t>
   </si>
   <si>
     <t xml:space="preserve">6.87777948379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84215831756592</t>
+    <t xml:space="preserve">6.84215974807739</t>
   </si>
   <si>
     <t xml:space="preserve">6.89410591125488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95495653152466</t>
+    <t xml:space="preserve">6.95495843887329</t>
   </si>
   <si>
     <t xml:space="preserve">7.06033611297607</t>
@@ -1934,298 +1934,298 @@
     <t xml:space="preserve">7.18562126159668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13581800460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1062479019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11247301101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20585298538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1934027671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36615610122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54046630859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58715629577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55914354324341</t>
+    <t xml:space="preserve">7.13581848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10624742507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11247396469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20585346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19340372085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36615705490112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54046535491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58715677261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55914211273193</t>
   </si>
   <si>
     <t xml:space="preserve">7.54824876785278</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51245260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58560132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51089668273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51556539535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48288297653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45953750610352</t>
+    <t xml:space="preserve">7.51245212554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58560037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51089715957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51556444168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48288202285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45953607559204</t>
   </si>
   <si>
     <t xml:space="preserve">7.44397354125977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31479740142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34748029708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30079030990601</t>
+    <t xml:space="preserve">7.31479787826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34748125076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30078935623169</t>
   </si>
   <si>
     <t xml:space="preserve">7.37238168716431</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31946611404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46109294891357</t>
+    <t xml:space="preserve">7.31946563720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46109247207642</t>
   </si>
   <si>
     <t xml:space="preserve">7.26655149459839</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51712083816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59182548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50311422348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38327598571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37860774993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50000095367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99886083602905</t>
+    <t xml:space="preserve">7.5171217918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59182453155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50311517715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38327550888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37860727310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50000190734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99886131286621</t>
   </si>
   <si>
     <t xml:space="preserve">7.0813455581665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24476146697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11558532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39261436462402</t>
+    <t xml:space="preserve">7.24476194381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1155858039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39261484146118</t>
   </si>
   <si>
     <t xml:space="preserve">7.34125518798828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54669237136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52023315429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33036136627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39105939865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31324148178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65719270706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60427761077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68520593643188</t>
+    <t xml:space="preserve">7.54669189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52023410797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33036041259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39105749130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31324100494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65719318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60427665710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68520641326904</t>
   </si>
   <si>
     <t xml:space="preserve">7.70388221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85173463821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82060766220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84006214141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84395265579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71166372299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74278926849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87896919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92566108703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82838916778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76146602630615</t>
+    <t xml:space="preserve">7.85173416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82060718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84006118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84395408630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7116641998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74279022216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87897062301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92566061019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82839012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76146650314331</t>
   </si>
   <si>
     <t xml:space="preserve">7.90620708465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92176961898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83228015899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99569511413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9490065574646</t>
+    <t xml:space="preserve">7.92177104949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83227920532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9956955909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94900608062744</t>
   </si>
   <si>
     <t xml:space="preserve">7.94511556625366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98402261734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11631202697754</t>
+    <t xml:space="preserve">7.98402452468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11631298065186</t>
   </si>
   <si>
     <t xml:space="preserve">8.00347805023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75368642807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77080488204956</t>
+    <t xml:space="preserve">7.75368452072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77080535888672</t>
   </si>
   <si>
     <t xml:space="preserve">7.76613569259644</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9879150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88286066055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97624158859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2330379486084</t>
+    <t xml:space="preserve">7.98791408538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88286209106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97624063491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23303699493408</t>
   </si>
   <si>
     <t xml:space="preserve">8.24471092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35754585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2369270324707</t>
+    <t xml:space="preserve">8.35754489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23692798614502</t>
   </si>
   <si>
     <t xml:space="preserve">8.33030986785889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3769998550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40423679351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50150680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52095985412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55208683013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45092487335205</t>
+    <t xml:space="preserve">8.37699890136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40423488616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50150585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52096176147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55208778381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45092582702637</t>
   </si>
   <si>
     <t xml:space="preserve">8.48983383178711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47427177429199</t>
+    <t xml:space="preserve">8.47427082061768</t>
   </si>
   <si>
     <t xml:space="preserve">8.4664888381958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58321475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63379669189453</t>
+    <t xml:space="preserve">8.58321380615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63379573822021</t>
   </si>
   <si>
     <t xml:space="preserve">8.69215774536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55597877502441</t>
+    <t xml:space="preserve">8.5559778213501</t>
   </si>
   <si>
     <t xml:space="preserve">8.43536281585693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53652572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71939277648926</t>
+    <t xml:space="preserve">8.53652381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71939468383789</t>
   </si>
   <si>
     <t xml:space="preserve">8.64935779571533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66881275177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68437671661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73093128204346</t>
+    <t xml:space="preserve">8.66881370544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68437480926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73093032836914</t>
   </si>
   <si>
     <t xml:space="preserve">8.58100986480713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65991592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55339431762695</t>
+    <t xml:space="preserve">8.65991687774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55339336395264</t>
   </si>
   <si>
     <t xml:space="preserve">8.62440872192383</t>
@@ -2237,28 +2237,28 @@
     <t xml:space="preserve">8.56917476654053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51393985748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39163780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35612773895264</t>
+    <t xml:space="preserve">8.51393890380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39163684844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35612869262695</t>
   </si>
   <si>
     <t xml:space="preserve">8.08390331268311</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17069911956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27722072601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12730121612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13913822174072</t>
+    <t xml:space="preserve">8.17070007324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2772216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12730312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13913726806641</t>
   </si>
   <si>
     <t xml:space="preserve">8.03656005859375</t>
@@ -2267,25 +2267,25 @@
     <t xml:space="preserve">8.15097236633301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06023216247559</t>
+    <t xml:space="preserve">8.06023025512695</t>
   </si>
   <si>
     <t xml:space="preserve">8.19437122344971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02472400665283</t>
+    <t xml:space="preserve">8.02472305297852</t>
   </si>
   <si>
     <t xml:space="preserve">8.09573936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02077865600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12335586547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22987842559814</t>
+    <t xml:space="preserve">8.02077770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12335681915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22987937927246</t>
   </si>
   <si>
     <t xml:space="preserve">7.98527050018311</t>
@@ -2294,67 +2294,67 @@
     <t xml:space="preserve">8.0444507598877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94187307357788</t>
+    <t xml:space="preserve">7.94187211990356</t>
   </si>
   <si>
     <t xml:space="preserve">7.87322425842285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07601165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96554374694824</t>
+    <t xml:space="preserve">8.07601261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96554470062256</t>
   </si>
   <si>
     <t xml:space="preserve">8.09179401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05628681182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00894260406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93792676925659</t>
+    <t xml:space="preserve">8.0562858581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00894165039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93792915344238</t>
   </si>
   <si>
     <t xml:space="preserve">7.92609167098999</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11546611785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19042778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21409702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10757541656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35218143463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74276638031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67569637298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16675472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28905868530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44687080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46265125274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51788520812988</t>
+    <t xml:space="preserve">8.11546516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19042587280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21409797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10757446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35218334197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74276733398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67569541931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16675567626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28905773162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44686889648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4626522064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5178861618042</t>
   </si>
   <si>
     <t xml:space="preserve">8.60468196868896</t>
@@ -2363,10 +2363,10 @@
     <t xml:space="preserve">8.70726013183594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66386032104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64018821716309</t>
+    <t xml:space="preserve">8.66385936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6401891708374</t>
   </si>
   <si>
     <t xml:space="preserve">8.62835311889648</t>
@@ -2375,16 +2375,16 @@
     <t xml:space="preserve">8.94792175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08206176757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9045238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91241550445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28116798400879</t>
+    <t xml:space="preserve">9.08206272125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90452480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91241455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28116703033447</t>
   </si>
   <si>
     <t xml:space="preserve">8.1549186706543</t>
@@ -2393,25 +2393,25 @@
     <t xml:space="preserve">8.31667613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95765352249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58600854873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30825901031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59074211120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64439821243286</t>
+    <t xml:space="preserve">7.95765399932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5860071182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3082594871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59074068069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64439725875854</t>
   </si>
   <si>
     <t xml:space="preserve">7.44239854812622</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67122507095337</t>
+    <t xml:space="preserve">7.67122602462769</t>
   </si>
   <si>
     <t xml:space="preserve">6.67385625839233</t>
@@ -2423,34 +2423,34 @@
     <t xml:space="preserve">6.21778011322021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84797430038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32140970230103</t>
+    <t xml:space="preserve">4.847975730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32140874862671</t>
   </si>
   <si>
     <t xml:space="preserve">5.13045740127563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12572336196899</t>
+    <t xml:space="preserve">5.12572383880615</t>
   </si>
   <si>
     <t xml:space="preserve">5.02630186080933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4555492401123</t>
+    <t xml:space="preserve">5.45554971694946</t>
   </si>
   <si>
     <t xml:space="preserve">5.47290897369385</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66228342056274</t>
+    <t xml:space="preserve">5.66228294372559</t>
   </si>
   <si>
     <t xml:space="preserve">6.04892206192017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10415601730347</t>
+    <t xml:space="preserve">6.10415554046631</t>
   </si>
   <si>
     <t xml:space="preserve">6.38979387283325</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">6.19568634033203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24618625640869</t>
+    <t xml:space="preserve">6.24618577957153</t>
   </si>
   <si>
     <t xml:space="preserve">6.09153079986572</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">5.83271980285645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13256216049194</t>
+    <t xml:space="preserve">6.13256168365479</t>
   </si>
   <si>
     <t xml:space="preserve">6.17832708358765</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34402990341187</t>
+    <t xml:space="preserve">6.34402942657471</t>
   </si>
   <si>
     <t xml:space="preserve">6.43556070327759</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">6.53182506561279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55391836166382</t>
+    <t xml:space="preserve">6.55391883850098</t>
   </si>
   <si>
     <t xml:space="preserve">6.5807466506958</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">6.00157833099365</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05049991607666</t>
+    <t xml:space="preserve">6.0504994392395</t>
   </si>
   <si>
     <t xml:space="preserve">6.07574892044067</t>
@@ -2501,22 +2501,22 @@
     <t xml:space="preserve">6.00631237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87848520278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97159433364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93214082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83745336532593</t>
+    <t xml:space="preserve">5.87848567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97159385681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93214130401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83745384216309</t>
   </si>
   <si>
     <t xml:space="preserve">6.21935796737671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20831060409546</t>
+    <t xml:space="preserve">6.20831108093262</t>
   </si>
   <si>
     <t xml:space="preserve">6.33613872528076</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">6.11678028106689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96843862533569</t>
+    <t xml:space="preserve">5.96843767166138</t>
   </si>
   <si>
     <t xml:space="preserve">5.79957866668701</t>
@@ -2534,175 +2534,175 @@
     <t xml:space="preserve">5.70331382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99210929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11993646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.875328540802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76801681518555</t>
+    <t xml:space="preserve">5.99210977554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1199369430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87532901763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76801633834839</t>
   </si>
   <si>
     <t xml:space="preserve">5.67017269134521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88795375823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84218788146973</t>
+    <t xml:space="preserve">5.88795280456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84218835830688</t>
   </si>
   <si>
     <t xml:space="preserve">5.85165691375732</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8153600692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87217283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10573434829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19726514816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22882652282715</t>
+    <t xml:space="preserve">5.81535959243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87217235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10573387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19726371765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22882699966431</t>
   </si>
   <si>
     <t xml:space="preserve">6.28563928604126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35823249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55076265335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7606520652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92004251480103</t>
+    <t xml:space="preserve">6.35823202133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55076313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76065301895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92004299163818</t>
   </si>
   <si>
     <t xml:space="preserve">7.06365013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84587001800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76696538925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4103102684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50815391540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56338691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6959490776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66596460342407</t>
+    <t xml:space="preserve">6.84586954116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76696443557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41030931472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50815343856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56338834762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69595003128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66596508026123</t>
   </si>
   <si>
     <t xml:space="preserve">6.61862087249756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48606014251709</t>
+    <t xml:space="preserve">6.48606061935425</t>
   </si>
   <si>
     <t xml:space="preserve">6.61970043182373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73284339904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43440771102905</t>
+    <t xml:space="preserve">6.73284292221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43440675735474</t>
   </si>
   <si>
     <t xml:space="preserve">6.48031997680664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35077953338623</t>
+    <t xml:space="preserve">6.35078001022339</t>
   </si>
   <si>
     <t xml:space="preserve">6.54427099227905</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34586048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35733938217163</t>
+    <t xml:space="preserve">6.34586095809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35733890533447</t>
   </si>
   <si>
     <t xml:space="preserve">6.38521432876587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48851871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45244455337524</t>
+    <t xml:space="preserve">6.48851919174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4524450302124</t>
   </si>
   <si>
     <t xml:space="preserve">6.40161180496216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25075483322144</t>
+    <t xml:space="preserve">6.25075435638428</t>
   </si>
   <si>
     <t xml:space="preserve">6.30486679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42456912994385</t>
+    <t xml:space="preserve">6.42456865310669</t>
   </si>
   <si>
     <t xml:space="preserve">6.39997243881226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42784881591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44588565826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71152687072754</t>
+    <t xml:space="preserve">6.42784929275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44588613510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71152591705322</t>
   </si>
   <si>
     <t xml:space="preserve">6.76071929931641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82138919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71316623687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68037128448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51311588287354</t>
+    <t xml:space="preserve">6.82139015197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71316576004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68037080764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51311540603638</t>
   </si>
   <si>
     <t xml:space="preserve">6.47704124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46064424514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23927640914917</t>
+    <t xml:space="preserve">6.46064376831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23927545547485</t>
   </si>
   <si>
     <t xml:space="preserve">6.35569906234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47376155853271</t>
+    <t xml:space="preserve">6.47376108169556</t>
   </si>
   <si>
     <t xml:space="preserve">6.51803493499756</t>
@@ -2711,10 +2711,10 @@
     <t xml:space="preserve">6.51639556884766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4147310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46556282043457</t>
+    <t xml:space="preserve">6.41472959518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46556234359741</t>
   </si>
   <si>
     <t xml:space="preserve">6.57870626449585</t>
@@ -2723,52 +2723,52 @@
     <t xml:space="preserve">6.68365097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67545127868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59510326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56722736358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46392250061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44260597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50983619689941</t>
+    <t xml:space="preserve">6.67545223236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59510374069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56722784042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46392297744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4426064491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50983572006226</t>
   </si>
   <si>
     <t xml:space="preserve">6.39833307266235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48523950576782</t>
+    <t xml:space="preserve">6.48523902893066</t>
   </si>
   <si>
     <t xml:space="preserve">6.50655651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43112754821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43604755401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34094190597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29338836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30650568008423</t>
+    <t xml:space="preserve">6.43112802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4360466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34094142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29338884353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30650615692139</t>
   </si>
   <si>
     <t xml:space="preserve">6.5245943069458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39013433456421</t>
+    <t xml:space="preserve">6.39013338088989</t>
   </si>
   <si>
     <t xml:space="preserve">6.54263162612915</t>
@@ -2777,25 +2777,25 @@
     <t xml:space="preserve">6.53115320205688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53443288803101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49671840667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36389827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14253091812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22943830490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28027009963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26715230941772</t>
+    <t xml:space="preserve">6.53443193435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4967188835144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36389780044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14253044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22943782806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28026962280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26715278625488</t>
   </si>
   <si>
     <t xml:space="preserve">6.21959924697876</t>
@@ -2807,37 +2807,37 @@
     <t xml:space="preserve">6.21140050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20484113693237</t>
+    <t xml:space="preserve">6.20484161376953</t>
   </si>
   <si>
     <t xml:space="preserve">6.15892839431763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19500350952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.631178855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57378625869751</t>
+    <t xml:space="preserve">6.19500303268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63117790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57378673553467</t>
   </si>
   <si>
     <t xml:space="preserve">6.57050752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57214689254761</t>
+    <t xml:space="preserve">6.57214641571045</t>
   </si>
   <si>
     <t xml:space="preserve">6.58690500259399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58854484558105</t>
+    <t xml:space="preserve">6.58854532241821</t>
   </si>
   <si>
     <t xml:space="preserve">6.25895309448242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.336021900177</t>
+    <t xml:space="preserve">6.33602237701416</t>
   </si>
   <si>
     <t xml:space="preserve">6.34422063827515</t>
@@ -2846,28 +2846,28 @@
     <t xml:space="preserve">6.22615814208984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23599624633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22451877593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12449312210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08022022247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82441806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74570989608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73915100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87689018249512</t>
+    <t xml:space="preserve">6.23599720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22451829910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12449359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08021926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82441759109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74570941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73915004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87689065933228</t>
   </si>
   <si>
     <t xml:space="preserve">5.93264198303223</t>
@@ -2876,151 +2876,151 @@
     <t xml:space="preserve">6.11957406997681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32126379013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21795892715454</t>
+    <t xml:space="preserve">6.32126426696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21795988082886</t>
   </si>
   <si>
     <t xml:space="preserve">6.43768692016602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59674310684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54919052124023</t>
+    <t xml:space="preserve">6.59674263000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54919004440308</t>
   </si>
   <si>
     <t xml:space="preserve">6.74760055541992</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97224712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06243467330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18213796615601</t>
+    <t xml:space="preserve">6.97224760055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06243562698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18213605880737</t>
   </si>
   <si>
     <t xml:space="preserve">7.25920629501343</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14770221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18547773361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34753084182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2773642539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35087299346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13702917098999</t>
+    <t xml:space="preserve">7.14770269393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18547821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34753036499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27736377716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35087251663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13702869415283</t>
   </si>
   <si>
     <t xml:space="preserve">7.19383144378662</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07855606079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10361576080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02342462539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01173067092896</t>
+    <t xml:space="preserve">7.07855653762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10361623764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02342510223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01172971725464</t>
   </si>
   <si>
     <t xml:space="preserve">7.0217547416687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03177881240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97497606277466</t>
+    <t xml:space="preserve">7.03177833557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97497701644897</t>
   </si>
   <si>
     <t xml:space="preserve">6.96996402740479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08189725875854</t>
+    <t xml:space="preserve">7.0818977355957</t>
   </si>
   <si>
     <t xml:space="preserve">7.00838947296143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98165798187256</t>
+    <t xml:space="preserve">6.98165893554688</t>
   </si>
   <si>
     <t xml:space="preserve">6.82127571105957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96160984039307</t>
+    <t xml:space="preserve">6.96161031723022</t>
   </si>
   <si>
     <t xml:space="preserve">6.99001216888428</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94991540908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96829319000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9231858253479</t>
+    <t xml:space="preserve">6.94991636276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9682936668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92318630218506</t>
   </si>
   <si>
     <t xml:space="preserve">7.13368797302246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28237628936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17879581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1286768913269</t>
+    <t xml:space="preserve">7.28237676620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.178795337677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12867546081543</t>
   </si>
   <si>
     <t xml:space="preserve">7.04514265060425</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97664737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00003576278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94156312942505</t>
+    <t xml:space="preserve">6.97664594650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00003528594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94156360626221</t>
   </si>
   <si>
     <t xml:space="preserve">7.01340055465698</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94824504852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90647840499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85635995864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9850001335144</t>
+    <t xml:space="preserve">6.94824552536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9064793586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85635948181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98499965667725</t>
   </si>
   <si>
     <t xml:space="preserve">6.81626415252686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87807846069336</t>
+    <t xml:space="preserve">6.87807750701904</t>
   </si>
   <si>
     <t xml:space="preserve">6.74609613418579</t>
@@ -3029,19 +3029,19 @@
     <t xml:space="preserve">6.92819690704346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91650342941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40934610366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52796173095703</t>
+    <t xml:space="preserve">6.91650247573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40934562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52796316146851</t>
   </si>
   <si>
     <t xml:space="preserve">7.70170927047729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89884805679321</t>
+    <t xml:space="preserve">7.89884662628174</t>
   </si>
   <si>
     <t xml:space="preserve">7.99407386779785</t>
@@ -3056,34 +3056,34 @@
     <t xml:space="preserve">8.08428955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16114044189453</t>
+    <t xml:space="preserve">8.16113948822021</t>
   </si>
   <si>
     <t xml:space="preserve">8.06257247924805</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92056560516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7718768119812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85039854049683</t>
+    <t xml:space="preserve">7.92056608200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77187728881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85039806365967</t>
   </si>
   <si>
     <t xml:space="preserve">8.05588912963867</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95899105072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97736787796021</t>
+    <t xml:space="preserve">7.95898914337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97736835479736</t>
   </si>
   <si>
     <t xml:space="preserve">8.02581691741943</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85541105270386</t>
+    <t xml:space="preserve">7.85541009902954</t>
   </si>
   <si>
     <t xml:space="preserve">8.20958805084229</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">8.24968338012695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31149864196777</t>
+    <t xml:space="preserve">8.31149959564209</t>
   </si>
   <si>
     <t xml:space="preserve">8.33154678344727</t>
@@ -3101,25 +3101,25 @@
     <t xml:space="preserve">8.22796630859375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38667678833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47021102905273</t>
+    <t xml:space="preserve">8.38667774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4702091217041</t>
   </si>
   <si>
     <t xml:space="preserve">8.54539012908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50779914855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58297920227051</t>
+    <t xml:space="preserve">8.5078010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58298015594482</t>
   </si>
   <si>
     <t xml:space="preserve">8.53285980224609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71663188934326</t>
+    <t xml:space="preserve">8.71663284301758</t>
   </si>
   <si>
     <t xml:space="preserve">8.67068862915039</t>
@@ -3128,19 +3128,19 @@
     <t xml:space="preserve">8.73333835601807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6372766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77510452270508</t>
+    <t xml:space="preserve">8.63727569580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77510547637939</t>
   </si>
   <si>
     <t xml:space="preserve">8.69992542266846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74586963653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73751640319824</t>
+    <t xml:space="preserve">8.74586772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73751449584961</t>
   </si>
   <si>
     <t xml:space="preserve">8.81269454956055</t>
@@ -3152,19 +3152,19 @@
     <t xml:space="preserve">9.06746864318848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05494022369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11341094970703</t>
+    <t xml:space="preserve">9.05493927001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11341190338135</t>
   </si>
   <si>
     <t xml:space="preserve">9.13847160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12594223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99646663665771</t>
+    <t xml:space="preserve">9.12594127655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9964656829834</t>
   </si>
   <si>
     <t xml:space="preserve">9.01734924316406</t>
@@ -3173,43 +3173,43 @@
     <t xml:space="preserve">9.00899600982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90875720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90040302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00064182281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98811340332031</t>
+    <t xml:space="preserve">8.90875625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90040397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00064373016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.988112449646</t>
   </si>
   <si>
     <t xml:space="preserve">8.86699104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86281299591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06329250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02987861633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04240798950195</t>
+    <t xml:space="preserve">8.86281490325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06329345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02987957000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04240894317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.12176418304443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11758899688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10505771636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23035717010498</t>
+    <t xml:space="preserve">9.11758804321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10505867004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2303581237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.16353130340576</t>
@@ -3221,70 +3221,70 @@
     <t xml:space="preserve">9.18859100341797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37654113769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33477306365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21782684326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22200393676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28883075714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43083477020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41830635070801</t>
+    <t xml:space="preserve">9.376540184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33477401733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21782779693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22200298309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28882884979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43083667755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41830539703369</t>
   </si>
   <si>
     <t xml:space="preserve">9.38071632385254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46007251739502</t>
+    <t xml:space="preserve">9.4600715637207</t>
   </si>
   <si>
     <t xml:space="preserve">9.60625457763672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77332019805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64384460449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5394287109375</t>
+    <t xml:space="preserve">9.77331829071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64384269714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53942680358887</t>
   </si>
   <si>
     <t xml:space="preserve">9.597900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61043167114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66055011749268</t>
+    <t xml:space="preserve">9.61043071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66054916381836</t>
   </si>
   <si>
     <t xml:space="preserve">9.85685253143311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94873714447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0740375518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0907430648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0113878250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0364465713501</t>
+    <t xml:space="preserve">9.94873809814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0740365982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0907440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0113868713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0364475250244</t>
   </si>
   <si>
     <t xml:space="preserve">10.0072107315063</t>
@@ -3293,10 +3293,10 @@
     <t xml:space="preserve">10.082389831543</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0197410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76914310455322</t>
+    <t xml:space="preserve">10.0197401046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76914215087891</t>
   </si>
   <si>
     <t xml:space="preserve">9.89285755157471</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">9.75969219207764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64371109008789</t>
+    <t xml:space="preserve">9.64371013641357</t>
   </si>
   <si>
     <t xml:space="preserve">9.81553554534912</t>
@@ -3314,43 +3314,43 @@
     <t xml:space="preserve">9.78546619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62652683258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58357048034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57927513122559</t>
+    <t xml:space="preserve">9.62652778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.583571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57927417755127</t>
   </si>
   <si>
     <t xml:space="preserve">9.69096183776855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60504913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74250888824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59645843505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63511848449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30005836486816</t>
+    <t xml:space="preserve">9.6050500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74250984191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59645748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63511943817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30005931854248</t>
   </si>
   <si>
     <t xml:space="preserve">9.44611072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4804744720459</t>
+    <t xml:space="preserve">9.48047542572021</t>
   </si>
   <si>
     <t xml:space="preserve">9.47618007659912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44181632995605</t>
+    <t xml:space="preserve">9.44181537628174</t>
   </si>
   <si>
     <t xml:space="preserve">9.31294631958008</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">9.34301471710205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02513790130615</t>
+    <t xml:space="preserve">9.02513885498047</t>
   </si>
   <si>
     <t xml:space="preserve">9.11534595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40315437316895</t>
+    <t xml:space="preserve">9.40315341949463</t>
   </si>
   <si>
     <t xml:space="preserve">9.5449104309082</t>
@@ -3374,10 +3374,10 @@
     <t xml:space="preserve">9.63082313537598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70814514160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61364078521729</t>
+    <t xml:space="preserve">9.70814418792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61363983154297</t>
   </si>
   <si>
     <t xml:space="preserve">9.59216213226318</t>
@@ -3386,52 +3386,52 @@
     <t xml:space="preserve">9.5577974319458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75539588928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90144729614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94870090484619</t>
+    <t xml:space="preserve">9.75539684295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90144824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94869995117188</t>
   </si>
   <si>
     <t xml:space="preserve">9.98736190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0689792633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0904569625854</t>
+    <t xml:space="preserve">10.0689783096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0904560089111</t>
   </si>
   <si>
     <t xml:space="preserve">10.0389089584351</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97447299957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9186315536499</t>
+    <t xml:space="preserve">9.97447490692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91863059997559</t>
   </si>
   <si>
     <t xml:space="preserve">10.0002489089966</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87567520141602</t>
+    <t xml:space="preserve">9.8756742477417</t>
   </si>
   <si>
     <t xml:space="preserve">9.80264854431152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.017430305481</t>
+    <t xml:space="preserve">10.0174312591553</t>
   </si>
   <si>
     <t xml:space="preserve">9.99165630340576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95729160308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86708164215088</t>
+    <t xml:space="preserve">9.9572925567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8670825958252</t>
   </si>
   <si>
     <t xml:space="preserve">9.91003894805908</t>
@@ -3449,76 +3449,76 @@
     <t xml:space="preserve">9.91433525085449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93151760101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0217266082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1806659698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0861597061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1248226165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2150297164917</t>
+    <t xml:space="preserve">9.9315185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0217256546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1806650161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1248216629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2150316238403</t>
   </si>
   <si>
     <t xml:space="preserve">10.2880563735962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2493963241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3438987731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0947513580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1634817123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279176712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1849594116211</t>
+    <t xml:space="preserve">10.2493953704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3438997268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0947523117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1634826660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.227915763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1849603652954</t>
   </si>
   <si>
     <t xml:space="preserve">10.3911514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3310127258301</t>
+    <t xml:space="preserve">10.3310117721558</t>
   </si>
   <si>
     <t xml:space="preserve">10.4598817825317</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4641780853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4469928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.584454536438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6231145858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7390985488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6746625900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6402988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5243167877197</t>
+    <t xml:space="preserve">10.4641771316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4469947814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5844535827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6231155395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7390975952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6746635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6402997970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5243148803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.7863512039185</t>
@@ -3527,61 +3527,61 @@
     <t xml:space="preserve">10.7476892471313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7262105941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8894462585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949409484863</t>
+    <t xml:space="preserve">10.7262115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8894453048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.794939994812</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777585983276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6016368865967</t>
+    <t xml:space="preserve">10.6016387939453</t>
   </si>
   <si>
     <t xml:space="preserve">10.6918468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6531848907471</t>
+    <t xml:space="preserve">10.6531839370728</t>
   </si>
   <si>
     <t xml:space="preserve">10.782054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7047338485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7348031997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6875486373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801591873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5200204849243</t>
+    <t xml:space="preserve">10.7047328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7348022460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6875505447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801601409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5200214385986</t>
   </si>
   <si>
     <t xml:space="preserve">10.5329074859619</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4341087341309</t>
+    <t xml:space="preserve">10.4341077804565</t>
   </si>
   <si>
     <t xml:space="preserve">10.3653774261475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3435649871826</t>
+    <t xml:space="preserve">10.3435640335083</t>
   </si>
   <si>
     <t xml:space="preserve">10.2606773376465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2301387786865</t>
+    <t xml:space="preserve">10.2301397323608</t>
   </si>
   <si>
     <t xml:space="preserve">10.0774507522583</t>
@@ -3590,10 +3590,10 @@
     <t xml:space="preserve">9.66300964355469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76770973205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71972179412842</t>
+    <t xml:space="preserve">9.76771068572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71972370147705</t>
   </si>
   <si>
     <t xml:space="preserve">9.90294933319092</t>
@@ -3602,46 +3602,46 @@
     <t xml:space="preserve">9.79824829101562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72408485412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75898551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8942232131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75462245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68482208251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64119720458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64555931091309</t>
+    <t xml:space="preserve">9.72408580780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75898456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89422416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75462341308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68482303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64119625091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6455602645874</t>
   </si>
   <si>
     <t xml:space="preserve">9.66737174987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71099662780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78079891204834</t>
+    <t xml:space="preserve">9.71099758148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78079795837402</t>
   </si>
   <si>
     <t xml:space="preserve">9.79388523101807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57139778137207</t>
+    <t xml:space="preserve">9.57139682769775</t>
   </si>
   <si>
     <t xml:space="preserve">9.7284460067749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82442378997803</t>
+    <t xml:space="preserve">9.82442283630371</t>
   </si>
   <si>
     <t xml:space="preserve">9.9116735458374</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">9.99892425537109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0818138122559</t>
+    <t xml:space="preserve">10.0818128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599994659424</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">10.0687246322632</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2126884460449</t>
+    <t xml:space="preserve">10.2126874923706</t>
   </si>
   <si>
     <t xml:space="preserve">10.2257766723633</t>
@@ -3668,10 +3668,10 @@
     <t xml:space="preserve">10.2650394439697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.177788734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2083263397217</t>
+    <t xml:space="preserve">10.1777877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2083253860474</t>
   </si>
   <si>
     <t xml:space="preserve">10.238862991333</t>
@@ -3680,16 +3680,16 @@
     <t xml:space="preserve">10.1690626144409</t>
   </si>
   <si>
-    <t xml:space="preserve">10.121075630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1297988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0905389785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1123504638672</t>
+    <t xml:space="preserve">10.1210746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1298007965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.090537071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1123514175415</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952390670776</t>
@@ -3698,16 +3698,16 @@
     <t xml:space="preserve">10.0207366943359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61938285827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85495948791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0730886459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95093727111816</t>
+    <t xml:space="preserve">9.619384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85496044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0730876922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95093631744385</t>
   </si>
   <si>
     <t xml:space="preserve">10.4090032577515</t>
@@ -3716,61 +3716,61 @@
     <t xml:space="preserve">10.4177274703979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50159549713135</t>
+    <t xml:space="preserve">9.50159645080566</t>
   </si>
   <si>
     <t xml:space="preserve">9.56267166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60629653930664</t>
+    <t xml:space="preserve">9.60629749298096</t>
   </si>
   <si>
     <t xml:space="preserve">9.41870784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68046092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71536064147949</t>
+    <t xml:space="preserve">9.5932092666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68045997619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71535968780518</t>
   </si>
   <si>
     <t xml:space="preserve">9.62810897827148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39253234863281</t>
+    <t xml:space="preserve">9.39253330230713</t>
   </si>
   <si>
     <t xml:space="preserve">9.35763263702393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27910709381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75996494293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04789257049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96500301361084</t>
+    <t xml:space="preserve">9.27910614013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75996589660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04789161682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96500396728516</t>
   </si>
   <si>
     <t xml:space="preserve">8.60291385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58895397186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46854782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92235994338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75134754180908</t>
+    <t xml:space="preserve">8.58895301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46854877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92235898971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75134801864624</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081981658936</t>
@@ -3785,19 +3785,19 @@
     <t xml:space="preserve">8.43364810943604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66224479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61512756347656</t>
+    <t xml:space="preserve">8.66224575042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61512851715088</t>
   </si>
   <si>
     <t xml:space="preserve">9.0042667388916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81667900085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79050350189209</t>
+    <t xml:space="preserve">8.81667804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79050254821777</t>
   </si>
   <si>
     <t xml:space="preserve">8.82540321350098</t>
@@ -3806,22 +3806,22 @@
     <t xml:space="preserve">9.05661773681641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04353046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20494270324707</t>
+    <t xml:space="preserve">9.04352951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20494365692139</t>
   </si>
   <si>
     <t xml:space="preserve">9.08279228210449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1874942779541</t>
+    <t xml:space="preserve">9.18749332427979</t>
   </si>
   <si>
     <t xml:space="preserve">9.26601886749268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22675514221191</t>
+    <t xml:space="preserve">9.22675609588623</t>
   </si>
   <si>
     <t xml:space="preserve">9.07406711578369</t>
@@ -3839,13 +3839,13 @@
     <t xml:space="preserve">8.78177738189697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.711106300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58022785186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4929780960083</t>
+    <t xml:space="preserve">8.71110439300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58022880554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49297714233398</t>
   </si>
   <si>
     <t xml:space="preserve">8.56103420257568</t>
@@ -3854,19 +3854,19 @@
     <t xml:space="preserve">8.42317867279053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64479351043701</t>
+    <t xml:space="preserve">8.64479446411133</t>
   </si>
   <si>
     <t xml:space="preserve">8.61687564849854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46505832672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22599220275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11605644226074</t>
+    <t xml:space="preserve">8.46505737304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22599124908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11605548858643</t>
   </si>
   <si>
     <t xml:space="preserve">8.08988094329834</t>
@@ -3881,31 +3881,31 @@
     <t xml:space="preserve">8.10035037994385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03578567504883</t>
+    <t xml:space="preserve">8.03578472137451</t>
   </si>
   <si>
     <t xml:space="preserve">7.97296476364136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85430383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65013647079468</t>
+    <t xml:space="preserve">7.85430288314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65013694763184</t>
   </si>
   <si>
     <t xml:space="preserve">7.831618309021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01309967041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26438140869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43713855743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31847763061523</t>
+    <t xml:space="preserve">8.01309871673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26438236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4371395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31847667694092</t>
   </si>
   <si>
     <t xml:space="preserve">8.39700222015381</t>
@@ -3920,25 +3920,25 @@
     <t xml:space="preserve">8.29230213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45458698272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31149673461914</t>
+    <t xml:space="preserve">8.45458793640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31149768829346</t>
   </si>
   <si>
     <t xml:space="preserve">8.44935321807861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5086841583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66573524475098</t>
+    <t xml:space="preserve">8.50868320465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66573429107666</t>
   </si>
   <si>
     <t xml:space="preserve">8.85594081878662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74251556396484</t>
+    <t xml:space="preserve">8.74251461029053</t>
   </si>
   <si>
     <t xml:space="preserve">8.73815250396729</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">8.65526390075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82104110717773</t>
+    <t xml:space="preserve">8.82104015350342</t>
   </si>
   <si>
     <t xml:space="preserve">8.80359077453613</t>
@@ -3956,31 +3956,31 @@
     <t xml:space="preserve">8.68143939971924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98517942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7181921005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95551443099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21726703643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80893230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8490686416626</t>
+    <t xml:space="preserve">7.98517894744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71819162368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95551300048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21726608276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80893325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84906816482544</t>
   </si>
   <si>
     <t xml:space="preserve">8.03453636169434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96692752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00347328186035</t>
+    <t xml:space="preserve">7.96692800521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00347232818604</t>
   </si>
   <si>
     <t xml:space="preserve">7.94134569168091</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">8.13321018218994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29583740234375</t>
+    <t xml:space="preserve">8.29583835601807</t>
   </si>
   <si>
     <t xml:space="preserve">8.23371028900146</t>
@@ -4004,19 +4004,19 @@
     <t xml:space="preserve">8.14600086212158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13869190216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86094522476196</t>
+    <t xml:space="preserve">8.13869094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81160879135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86094570159912</t>
   </si>
   <si>
     <t xml:space="preserve">8.0637731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93769121170044</t>
+    <t xml:space="preserve">7.93769073486328</t>
   </si>
   <si>
     <t xml:space="preserve">7.78785467147827</t>
@@ -4025,34 +4025,34 @@
     <t xml:space="preserve">7.82257270812988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65811824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26890754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45346307754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59416341781616</t>
+    <t xml:space="preserve">7.65811777114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26890802383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45346260070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59416389465332</t>
   </si>
   <si>
     <t xml:space="preserve">7.84632778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67273569107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29814434051514</t>
+    <t xml:space="preserve">7.67273616790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29814481735229</t>
   </si>
   <si>
     <t xml:space="preserve">7.39498996734619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42605352401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40960788726807</t>
+    <t xml:space="preserve">7.42605400085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40960741043091</t>
   </si>
   <si>
     <t xml:space="preserve">7.42239856719971</t>
@@ -4061,10 +4061,10 @@
     <t xml:space="preserve">7.36027145385742</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46442604064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53751707077026</t>
+    <t xml:space="preserve">7.46442651748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53751754760742</t>
   </si>
   <si>
     <t xml:space="preserve">7.44615364074707</t>
@@ -4073,31 +4073,31 @@
     <t xml:space="preserve">7.57223606109619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65994501113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74582672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67456245422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6325364112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67821884155273</t>
+    <t xml:space="preserve">7.65994453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74582719802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67456293106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63253593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67821836471558</t>
   </si>
   <si>
     <t xml:space="preserve">7.79150867462158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79881858825684</t>
+    <t xml:space="preserve">7.79881811141968</t>
   </si>
   <si>
     <t xml:space="preserve">7.73303651809692</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63070917129517</t>
+    <t xml:space="preserve">7.63070869445801</t>
   </si>
   <si>
     <t xml:space="preserve">7.49183559417725</t>
@@ -4109,7 +4109,7 @@
     <t xml:space="preserve">7.41326284408569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37671804428101</t>
+    <t xml:space="preserve">7.37671756744385</t>
   </si>
   <si>
     <t xml:space="preserve">7.35296297073364</t>
@@ -4130,13 +4130,13 @@
     <t xml:space="preserve">7.40047216415405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20860719680786</t>
+    <t xml:space="preserve">7.20860767364502</t>
   </si>
   <si>
     <t xml:space="preserve">7.29083490371704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31093502044678</t>
+    <t xml:space="preserve">7.31093549728394</t>
   </si>
   <si>
     <t xml:space="preserve">7.38768100738525</t>
@@ -4145,25 +4145,25 @@
     <t xml:space="preserve">7.50097227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6014723777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61609125137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67639112472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55761814117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59050893783569</t>
+    <t xml:space="preserve">7.60147190093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61609077453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67639064788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55761766433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59050798416138</t>
   </si>
   <si>
     <t xml:space="preserve">7.43153524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42788124084473</t>
+    <t xml:space="preserve">7.42788076400757</t>
   </si>
   <si>
     <t xml:space="preserve">7.21408939361572</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">7.28718042373657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13551712036133</t>
+    <t xml:space="preserve">7.13551664352417</t>
   </si>
   <si>
     <t xml:space="preserve">7.1446533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99664402008057</t>
+    <t xml:space="preserve">6.99664306640625</t>
   </si>
   <si>
     <t xml:space="preserve">7.11724424362183</t>
@@ -4187,25 +4187,25 @@
     <t xml:space="preserve">7.26342582702637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47721767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36940765380859</t>
+    <t xml:space="preserve">7.47721719741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36940813064575</t>
   </si>
   <si>
     <t xml:space="preserve">7.24515295028687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14648008346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16292572021484</t>
+    <t xml:space="preserve">7.14648056030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.162926197052</t>
   </si>
   <si>
     <t xml:space="preserve">6.99847078323364</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1135892868042</t>
+    <t xml:space="preserve">7.11358880996704</t>
   </si>
   <si>
     <t xml:space="preserve">7.22139835357666</t>
@@ -4214,28 +4214,28 @@
     <t xml:space="preserve">7.40229940414429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67090892791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62888193130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60329914093018</t>
+    <t xml:space="preserve">7.67090845108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62888145446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60329866409302</t>
   </si>
   <si>
     <t xml:space="preserve">7.53020811080933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70380067825317</t>
+    <t xml:space="preserve">7.70379972457886</t>
   </si>
   <si>
     <t xml:space="preserve">7.77506351470947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84815454483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07839202880859</t>
+    <t xml:space="preserve">7.84815406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07839107513428</t>
   </si>
   <si>
     <t xml:space="preserve">8.01626396179199</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">8.0582914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08204555511475</t>
+    <t xml:space="preserve">8.08204650878906</t>
   </si>
   <si>
     <t xml:space="preserve">8.04001903533936</t>
@@ -4262,7 +4262,7 @@
     <t xml:space="preserve">8.43836498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54252052307129</t>
+    <t xml:space="preserve">8.54251956939697</t>
   </si>
   <si>
     <t xml:space="preserve">8.91162967681885</t>
@@ -4271,7 +4271,7 @@
     <t xml:space="preserve">8.8056468963623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86594867706299</t>
+    <t xml:space="preserve">8.86594772338867</t>
   </si>
   <si>
     <t xml:space="preserve">8.89883899688721</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">8.77458477020264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73535346984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69425392150879</t>
+    <t xml:space="preserve">8.73535442352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69425487518311</t>
   </si>
   <si>
     <t xml:space="preserve">8.78392505645752</t>
@@ -4301,16 +4301,16 @@
     <t xml:space="preserve">8.82315540313721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72227668762207</t>
+    <t xml:space="preserve">8.72227764129639</t>
   </si>
   <si>
     <t xml:space="preserve">8.80073833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76711082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82689189910889</t>
+    <t xml:space="preserve">8.76711177825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82689094543457</t>
   </si>
   <si>
     <t xml:space="preserve">8.80447387695312</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">8.72974872589111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83623218536377</t>
+    <t xml:space="preserve">8.83623313903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.67744159698486</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">8.75963973999023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86612129211426</t>
+    <t xml:space="preserve">8.86612224578857</t>
   </si>
   <si>
     <t xml:space="preserve">8.86799049377441</t>
@@ -4358,7 +4358,7 @@
     <t xml:space="preserve">8.61205768585205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62326717376709</t>
+    <t xml:space="preserve">8.62326622009277</t>
   </si>
   <si>
     <t xml:space="preserve">8.54480457305908</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">9.00996780395508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88480377197266</t>
+    <t xml:space="preserve">8.88480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">8.97260570526123</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">8.95579242706299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0604076385498</t>
+    <t xml:space="preserve">9.06040668487549</t>
   </si>
   <si>
     <t xml:space="preserve">8.98194599151611</t>
@@ -4394,19 +4394,19 @@
     <t xml:space="preserve">9.06414413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08842945098877</t>
+    <t xml:space="preserve">9.08842849731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.1388692855835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08095645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12205505371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9221658706665</t>
+    <t xml:space="preserve">9.08095741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12205600738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92216682434082</t>
   </si>
   <si>
     <t xml:space="preserve">8.95018768310547</t>
@@ -4415,13 +4415,13 @@
     <t xml:space="preserve">8.99315547943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00249576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13139533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10150623321533</t>
+    <t xml:space="preserve">9.00249481201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13139629364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10150718688965</t>
   </si>
   <si>
     <t xml:space="preserve">9.14073657989502</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">9.58348274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3873291015625</t>
+    <t xml:space="preserve">9.38733005523682</t>
   </si>
   <si>
     <t xml:space="preserve">9.52276802062988</t>
@@ -4454,7 +4454,7 @@
     <t xml:space="preserve">9.47139549255371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55546092987061</t>
+    <t xml:space="preserve">9.55545997619629</t>
   </si>
   <si>
     <t xml:space="preserve">9.55079078674316</t>
@@ -4466,34 +4466,34 @@
     <t xml:space="preserve">9.32007598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20612144470215</t>
+    <t xml:space="preserve">9.20612049102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.33689022064209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52743911743164</t>
+    <t xml:space="preserve">9.52743816375732</t>
   </si>
   <si>
     <t xml:space="preserve">9.38265895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3779878616333</t>
+    <t xml:space="preserve">9.37798881530762</t>
   </si>
   <si>
     <t xml:space="preserve">9.46205425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63485622406006</t>
+    <t xml:space="preserve">9.63485527038574</t>
   </si>
   <si>
     <t xml:space="preserve">9.57414150238037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54612064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48073577880859</t>
+    <t xml:space="preserve">9.54611968994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48073482513428</t>
   </si>
   <si>
     <t xml:space="preserve">9.32941722869873</t>
@@ -4505,13 +4505,13 @@
     <t xml:space="preserve">9.09403419494629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65502452850342</t>
+    <t xml:space="preserve">8.6550235748291</t>
   </si>
   <si>
     <t xml:space="preserve">8.41777229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50557327270508</t>
+    <t xml:space="preserve">8.50557422637939</t>
   </si>
   <si>
     <t xml:space="preserve">8.79513359069824</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">8.73722171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75403499603271</t>
+    <t xml:space="preserve">8.7540340423584</t>
   </si>
   <si>
     <t xml:space="preserve">8.58963966369629</t>
@@ -4553,13 +4553,13 @@
     <t xml:space="preserve">8.91469383239746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78018760681152</t>
+    <t xml:space="preserve">8.78018856048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.83996772766113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93337535858154</t>
+    <t xml:space="preserve">8.93337440490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.84557342529297</t>
@@ -4571,7 +4571,7 @@
     <t xml:space="preserve">8.86238574981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7970027923584</t>
+    <t xml:space="preserve">8.79700183868408</t>
   </si>
   <si>
     <t xml:space="preserve">8.89601230621338</t>
@@ -4589,7 +4589,7 @@
     <t xml:space="preserve">8.85117721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89414405822754</t>
+    <t xml:space="preserve">8.89414501190186</t>
   </si>
   <si>
     <t xml:space="preserve">8.98755073547363</t>
@@ -4610,13 +4610,13 @@
     <t xml:space="preserve">9.04919815063477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01930904388428</t>
+    <t xml:space="preserve">9.01930809020996</t>
   </si>
   <si>
     <t xml:space="preserve">9.27524185180664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24908924102783</t>
+    <t xml:space="preserve">9.24908828735352</t>
   </si>
   <si>
     <t xml:space="preserve">9.03985786437988</t>
@@ -4625,25 +4625,25 @@
     <t xml:space="preserve">9.1500768661499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12579250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05667114257812</t>
+    <t xml:space="preserve">9.12579154968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05667209625244</t>
   </si>
   <si>
     <t xml:space="preserve">9.11645126342773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34062671661377</t>
+    <t xml:space="preserve">9.34062576293945</t>
   </si>
   <si>
     <t xml:space="preserve">9.2528247833252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28645038604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31820774078369</t>
+    <t xml:space="preserve">9.28645133972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31820869445801</t>
   </si>
   <si>
     <t xml:space="preserve">9.25095653533936</t>
@@ -4652,13 +4652,13 @@
     <t xml:space="preserve">9.33128547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35930728912354</t>
+    <t xml:space="preserve">9.35930824279785</t>
   </si>
   <si>
     <t xml:space="preserve">9.42936229705811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40134048461914</t>
+    <t xml:space="preserve">9.40133953094482</t>
   </si>
   <si>
     <t xml:space="preserve">9.42316436767578</t>
@@ -61573,7 +61573,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6495023148</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>2418850</v>
@@ -61594,6 +61594,32 @@
         <v>1739</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6494907407</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>1980020</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>12.5150003433228</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>12.4700002670288</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>12.4200000762939</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1759">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">4.51181554794312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44288444519043</t>
+    <t xml:space="preserve">4.44288539886475</t>
   </si>
   <si>
     <t xml:space="preserve">4.41781902313232</t>
@@ -59,76 +59,76 @@
     <t xml:space="preserve">4.3363561630249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43975162506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49301671981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46795082092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41155290603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27995777130127</t>
+    <t xml:space="preserve">4.43975114822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49301624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46795034408569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41155242919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27995872497559</t>
   </si>
   <si>
     <t xml:space="preserve">4.19849491119385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96663737297058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12016439437866</t>
+    <t xml:space="preserve">3.96663761138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1201639175415</t>
   </si>
   <si>
     <t xml:space="preserve">4.17342901229858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0856990814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20476150512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25802612304688</t>
+    <t xml:space="preserve">4.08570003509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20476102828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25802564620972</t>
   </si>
   <si>
     <t xml:space="preserve">4.17029571533203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27682399749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16089677810669</t>
+    <t xml:space="preserve">4.27682495117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16089630126953</t>
   </si>
   <si>
     <t xml:space="preserve">4.073166847229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.947838306427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7504460811615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3587954044342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23973369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54365491867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39012742042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40266060829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50605654716492</t>
+    <t xml:space="preserve">3.94783854484558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75044655799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35879564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23973417282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54365539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39012718200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40266132354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50605630874634</t>
   </si>
   <si>
     <t xml:space="preserve">3.49039030075073</t>
@@ -137,94 +137,94 @@
     <t xml:space="preserve">3.63138437271118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61571907997131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69404864311218</t>
+    <t xml:space="preserve">3.61571860313416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69404911994934</t>
   </si>
   <si>
     <t xml:space="preserve">3.82564306259155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74104690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70344805717468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80997729301453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86324119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92903923988342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89457416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86010789871216</t>
+    <t xml:space="preserve">3.74104619026184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70344877243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80997681617737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86324214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92903804779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89457392692566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86010885238647</t>
   </si>
   <si>
     <t xml:space="preserve">3.885174036026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84130954742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.866375207901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83817601203918</t>
+    <t xml:space="preserve">3.8413097858429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86637544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83817625045776</t>
   </si>
   <si>
     <t xml:space="preserve">4.03870105743408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0669002532959</t>
+    <t xml:space="preserve">4.06689929962158</t>
   </si>
   <si>
     <t xml:space="preserve">4.06376695632935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03243494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01050281524658</t>
+    <t xml:space="preserve">4.03243541717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01050186157227</t>
   </si>
   <si>
     <t xml:space="preserve">4.02616834640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10449934005737</t>
+    <t xml:space="preserve">4.10449743270874</t>
   </si>
   <si>
     <t xml:space="preserve">4.24236011505127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22356081008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15149593353271</t>
+    <t xml:space="preserve">4.22355985641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15149736404419</t>
   </si>
   <si>
     <t xml:space="preserve">4.2298264503479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16716289520264</t>
+    <t xml:space="preserve">4.16716241836548</t>
   </si>
   <si>
     <t xml:space="preserve">4.110764503479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04183387756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92590594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98857021331787</t>
+    <t xml:space="preserve">4.04183435440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92590475082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98857045173645</t>
   </si>
   <si>
     <t xml:space="preserve">4.00736951828003</t>
@@ -233,28 +233,28 @@
     <t xml:space="preserve">4.02930212020874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04810047149658</t>
+    <t xml:space="preserve">4.0481014251709</t>
   </si>
   <si>
     <t xml:space="preserve">4.13583087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06063413619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05749988555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08883237838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05436706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763216018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11389780044556</t>
+    <t xml:space="preserve">4.06063365936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05750036239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08883285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05436754226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1138973236084</t>
   </si>
   <si>
     <t xml:space="preserve">4.18596172332764</t>
@@ -263,34 +263,34 @@
     <t xml:space="preserve">4.23922634124756</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24862623214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17969560623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11703157424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21102714538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24549245834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2204270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20162773132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23295974731445</t>
+    <t xml:space="preserve">4.24862575531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17969512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11703109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2110276222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24549293518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22042751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2016282081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23296022415161</t>
   </si>
   <si>
     <t xml:space="preserve">4.12329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23609256744385</t>
+    <t xml:space="preserve">4.23609399795532</t>
   </si>
   <si>
     <t xml:space="preserve">4.18909502029419</t>
@@ -299,37 +299,37 @@
     <t xml:space="preserve">4.28309154510498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28935766220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25489234924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31442403793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31128931045532</t>
+    <t xml:space="preserve">4.28935670852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25489187240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31442308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31128978729248</t>
   </si>
   <si>
     <t xml:space="preserve">4.32382297515869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29875802993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30815649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38648653030396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39588737487793</t>
+    <t xml:space="preserve">4.29875659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30815696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38648748397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39588594436646</t>
   </si>
   <si>
     <t xml:space="preserve">4.29249048233032</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22669315338135</t>
+    <t xml:space="preserve">4.22669363021851</t>
   </si>
   <si>
     <t xml:space="preserve">4.20789432525635</t>
@@ -338,49 +338,49 @@
     <t xml:space="preserve">4.33322286605835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43207883834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.376060962677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36617422103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41560316085815</t>
+    <t xml:space="preserve">4.43207979202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37606000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36617469787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.415602684021</t>
   </si>
   <si>
     <t xml:space="preserve">4.06630945205688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8257577419281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92790937423706</t>
+    <t xml:space="preserve">3.82575798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92790961265564</t>
   </si>
   <si>
     <t xml:space="preserve">3.92131876945496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0300612449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94109106063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84223413467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79939579963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7697389125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91143345832825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0893759727478</t>
+    <t xml:space="preserve">4.03006076812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94109034538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84223365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79939532279968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76973819732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91143393516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08937549591064</t>
   </si>
   <si>
     <t xml:space="preserve">4.07949018478394</t>
@@ -389,64 +389,64 @@
     <t xml:space="preserve">4.17505216598511</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1025562286377</t>
+    <t xml:space="preserve">4.10255670547485</t>
   </si>
   <si>
     <t xml:space="preserve">4.10585165023804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08278512954712</t>
+    <t xml:space="preserve">4.08278560638428</t>
   </si>
   <si>
     <t xml:space="preserve">4.14539432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13221406936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0860800743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07619476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02676677703857</t>
+    <t xml:space="preserve">4.13221263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08608055114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07619428634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02676630020142</t>
   </si>
   <si>
     <t xml:space="preserve">4.00699472427368</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94438576698303</t>
+    <t xml:space="preserve">3.94438552856445</t>
   </si>
   <si>
     <t xml:space="preserve">4.25084161758423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22777509689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25743198394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26402187347412</t>
+    <t xml:space="preserve">4.22777557373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25743246078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26402235031128</t>
   </si>
   <si>
     <t xml:space="preserve">4.32333612442017</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33651781082153</t>
+    <t xml:space="preserve">4.33651733398438</t>
   </si>
   <si>
     <t xml:space="preserve">4.24754667282104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1618709564209</t>
+    <t xml:space="preserve">4.16187047958374</t>
   </si>
   <si>
     <t xml:space="preserve">4.20470905303955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0992603302002</t>
+    <t xml:space="preserve">4.09926080703735</t>
   </si>
   <si>
     <t xml:space="preserve">4.1157374382019</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">4.18493700027466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13880443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09267091751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11244249343872</t>
+    <t xml:space="preserve">4.13880491256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09267139434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1124415397644</t>
   </si>
   <si>
     <t xml:space="preserve">4.05312824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12891912460327</t>
+    <t xml:space="preserve">4.12891864776611</t>
   </si>
   <si>
     <t xml:space="preserve">4.11903238296509</t>
@@ -476,61 +476,61 @@
     <t xml:space="preserve">4.14209890365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15528059005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22118520736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20800352096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98392796516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04324293136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03994750976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00369930267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02347183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03335666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01028966903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00040531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99381399154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97733759880066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.980633020401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91472887992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96415662765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98722338676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9312047958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99710988998413</t>
+    <t xml:space="preserve">4.15528011322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22118473052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20800399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98392939567566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04324245452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03994703292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00370025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02347135543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0333571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01029014587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00040483474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99381446838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97733783721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98063373565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91472864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96415710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98722434043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93120527267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99710941314697</t>
   </si>
   <si>
     <t xml:space="preserve">4.07289981842041</t>
@@ -539,76 +539,76 @@
     <t xml:space="preserve">4.04983377456665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92461490631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9015474319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9345006942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97074747085571</t>
+    <t xml:space="preserve">3.9246141910553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90154790878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93449974060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97074770927429</t>
   </si>
   <si>
     <t xml:space="preserve">3.96086168289185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94768118858337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93779516220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88836765289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84552907943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76314878463745</t>
+    <t xml:space="preserve">3.94768142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93779492378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88836669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84552955627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76314806938171</t>
   </si>
   <si>
     <t xml:space="preserve">3.7236053943634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71701550483704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71042513847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70053887367249</t>
+    <t xml:space="preserve">3.71701455116272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71042394638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70053863525391</t>
   </si>
   <si>
     <t xml:space="preserve">3.65111112594604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79610061645508</t>
+    <t xml:space="preserve">3.79610180854797</t>
   </si>
   <si>
     <t xml:space="preserve">3.86530041694641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86859536170959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85870957374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17175674438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.188232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17834711074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16846084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22447919845581</t>
+    <t xml:space="preserve">3.86859512329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85870981216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17175626754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18823289871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17834615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16846036911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22448015213013</t>
   </si>
   <si>
     <t xml:space="preserve">4.18164205551147</t>
@@ -617,52 +617,52 @@
     <t xml:space="preserve">4.2178897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23766136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21129846572876</t>
+    <t xml:space="preserve">4.23766088485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21129989624023</t>
   </si>
   <si>
     <t xml:space="preserve">4.15198516845703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06301355361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02017641067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99051880836487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01688003540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85541462898254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83234763145447</t>
+    <t xml:space="preserve">4.06301403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02017593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99051904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01688146591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85541439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83234810829163</t>
   </si>
   <si>
     <t xml:space="preserve">3.85211968421936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95427107810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95097661018372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01358509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1355094909668</t>
+    <t xml:space="preserve">3.9542715549469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95097589492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01358556747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13550901412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.26731777191162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25413703918457</t>
+    <t xml:space="preserve">4.25413656234741</t>
   </si>
   <si>
     <t xml:space="preserve">4.24425172805786</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">4.24095582962036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10914659500122</t>
+    <t xml:space="preserve">4.10914754867554</t>
   </si>
   <si>
     <t xml:space="preserve">4.14868927001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19152736663818</t>
+    <t xml:space="preserve">4.19152784347534</t>
   </si>
   <si>
     <t xml:space="preserve">4.21459436416626</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">4.12232780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19482278823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28379487991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29697465896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1585750579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12562322616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26072692871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27061414718628</t>
+    <t xml:space="preserve">4.19482326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28379392623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29697561264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15857553482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12562370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26072835922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27061223983765</t>
   </si>
   <si>
     <t xml:space="preserve">4.23555040359497</t>
@@ -719,28 +719,28 @@
     <t xml:space="preserve">4.24957609176636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26360034942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20048809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20750093460083</t>
+    <t xml:space="preserve">4.26360082626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20048761367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20750045776367</t>
   </si>
   <si>
     <t xml:space="preserve">4.2215256690979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17945051193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27061367034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23204374313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2039942741394</t>
+    <t xml:space="preserve">4.17945003509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2706127166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2320442199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20399475097656</t>
   </si>
   <si>
     <t xml:space="preserve">4.2110071182251</t>
@@ -749,52 +749,52 @@
     <t xml:space="preserve">4.18646335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16893196105957</t>
+    <t xml:space="preserve">4.16893243789673</t>
   </si>
   <si>
     <t xml:space="preserve">4.24256324768066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25308179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29515647888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27411842346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25658893585205</t>
+    <t xml:space="preserve">4.25308275222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29515695571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27411937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25658845901489</t>
   </si>
   <si>
     <t xml:space="preserve">4.24606943130493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19347620010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1829571723938</t>
+    <t xml:space="preserve">4.1934757232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18295764923096</t>
   </si>
   <si>
     <t xml:space="preserve">4.22503232955933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37580060958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38982582092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41086292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35125780105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36177492141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36528158187866</t>
+    <t xml:space="preserve">4.37580108642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38982534408569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41086387634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35125732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36177635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36528205871582</t>
   </si>
   <si>
     <t xml:space="preserve">4.40735673904419</t>
@@ -803,37 +803,37 @@
     <t xml:space="preserve">4.28463840484619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29866313934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35826969146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36878824234009</t>
+    <t xml:space="preserve">4.29866361618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35826873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36878776550293</t>
   </si>
   <si>
     <t xml:space="preserve">4.31268835067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29165029525757</t>
+    <t xml:space="preserve">4.29165077209473</t>
   </si>
   <si>
     <t xml:space="preserve">4.28113174438477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30918264389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26710653305054</t>
+    <t xml:space="preserve">4.30918169021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26710748672485</t>
   </si>
   <si>
     <t xml:space="preserve">4.31619453430176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38281297683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35476350784302</t>
+    <t xml:space="preserve">4.38281345367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35476398468018</t>
   </si>
   <si>
     <t xml:space="preserve">4.34424495697021</t>
@@ -842,52 +842,52 @@
     <t xml:space="preserve">4.34775066375732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31969976425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33723163604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30567502975464</t>
+    <t xml:space="preserve">4.31970119476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33723115921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30567598342896</t>
   </si>
   <si>
     <t xml:space="preserve">4.33021974563599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39333200454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32320737838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40034532546997</t>
+    <t xml:space="preserve">4.39333152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32320642471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40034484863281</t>
   </si>
   <si>
     <t xml:space="preserve">4.41436910629272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39683771133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40385103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38632011413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30216932296753</t>
+    <t xml:space="preserve">4.39683818817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40385055541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38631868362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30216979980469</t>
   </si>
   <si>
     <t xml:space="preserve">4.2881441116333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27762603759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4634575843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49501276016235</t>
+    <t xml:space="preserve">4.2776255607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46345710754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49501323699951</t>
   </si>
   <si>
     <t xml:space="preserve">4.46696329116821</t>
@@ -896,25 +896,25 @@
     <t xml:space="preserve">4.45293855667114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43891382217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45644474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47046899795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4915075302124</t>
+    <t xml:space="preserve">4.43891334533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45644426345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49150657653809</t>
   </si>
   <si>
     <t xml:space="preserve">4.50903844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52306270599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53708791732788</t>
+    <t xml:space="preserve">4.52306413650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53708744049072</t>
   </si>
   <si>
     <t xml:space="preserve">4.51605081558228</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">4.5861759185791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58266925811768</t>
+    <t xml:space="preserve">4.58266878128052</t>
   </si>
   <si>
     <t xml:space="preserve">4.6142258644104</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">4.71240091323853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69486951828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66331386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68084478378296</t>
+    <t xml:space="preserve">4.69486999511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66331338882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68084526062012</t>
   </si>
   <si>
     <t xml:space="preserve">4.69136333465576</t>
@@ -959,22 +959,22 @@
     <t xml:space="preserve">4.67313098907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61703062057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62684869766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48800086975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60721445083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52025890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51324558258057</t>
+    <t xml:space="preserve">4.61703109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6268482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48800039291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60721349716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5202579498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51324510574341</t>
   </si>
   <si>
     <t xml:space="preserve">4.53288078308105</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">4.66752099990845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67453241348267</t>
+    <t xml:space="preserve">4.67453289031982</t>
   </si>
   <si>
     <t xml:space="preserve">4.75447559356689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74045133590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70258331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70679044723511</t>
+    <t xml:space="preserve">4.74045038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70258378982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70679092407227</t>
   </si>
   <si>
     <t xml:space="preserve">4.66611814498901</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">4.93680095672607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95222902297974</t>
+    <t xml:space="preserve">4.95222854614258</t>
   </si>
   <si>
     <t xml:space="preserve">4.92137336730957</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">4.81478357315063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84563875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88631010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01534128189087</t>
+    <t xml:space="preserve">4.84563827514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88631105422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01534080505371</t>
   </si>
   <si>
     <t xml:space="preserve">5.14296817779541</t>
@@ -1034,40 +1034,40 @@
     <t xml:space="preserve">5.11632061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20327520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09107637405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0251579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10510110855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18504285812378</t>
+    <t xml:space="preserve">5.20327615737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09107542037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02515840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10510063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1850438117981</t>
   </si>
   <si>
     <t xml:space="preserve">5.14577341079712</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18083572387695</t>
+    <t xml:space="preserve">5.18083620071411</t>
   </si>
   <si>
     <t xml:space="preserve">5.17101812362671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12333297729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08125877380371</t>
+    <t xml:space="preserve">5.12333345413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08125734329224</t>
   </si>
   <si>
     <t xml:space="preserve">5.0630259513855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07985544204712</t>
+    <t xml:space="preserve">5.07985591888428</t>
   </si>
   <si>
     <t xml:space="preserve">5.15839529037476</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">5.16821336746216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20748329162598</t>
+    <t xml:space="preserve">5.20748376846313</t>
   </si>
   <si>
     <t xml:space="preserve">5.29443788528442</t>
@@ -1088,31 +1088,31 @@
     <t xml:space="preserve">5.32950115203857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38840627670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37999153137207</t>
+    <t xml:space="preserve">5.38840579986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37999057769775</t>
   </si>
   <si>
     <t xml:space="preserve">5.3841986656189</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38139390945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41365051269531</t>
+    <t xml:space="preserve">5.38139343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41365098953247</t>
   </si>
   <si>
     <t xml:space="preserve">5.46273803710938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42907810211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44029855728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51883840560913</t>
+    <t xml:space="preserve">5.42907857894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44029808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51883888244629</t>
   </si>
   <si>
     <t xml:space="preserve">5.52444791793823</t>
@@ -1121,10 +1121,10 @@
     <t xml:space="preserve">5.54829025268555</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55951070785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59036540985107</t>
+    <t xml:space="preserve">5.55951118469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59036588668823</t>
   </si>
   <si>
     <t xml:space="preserve">5.68433332443237</t>
@@ -1133,19 +1133,19 @@
     <t xml:space="preserve">5.66890525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65908813476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71799373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69134569168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6646990776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71518850326538</t>
+    <t xml:space="preserve">5.65908765792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71799325942993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69134616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66469955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71518802642822</t>
   </si>
   <si>
     <t xml:space="preserve">5.76287364959717</t>
@@ -1157,40 +1157,40 @@
     <t xml:space="preserve">5.53426647186279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34352540969849</t>
+    <t xml:space="preserve">5.3435263633728</t>
   </si>
   <si>
     <t xml:space="preserve">5.35474634170532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39822340011597</t>
+    <t xml:space="preserve">5.39822292327881</t>
   </si>
   <si>
     <t xml:space="preserve">5.37157583236694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40383338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32108545303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1499810218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91856813430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12473583221436</t>
+    <t xml:space="preserve">5.40383291244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32108497619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14998006820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91856861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12473630905151</t>
   </si>
   <si>
     <t xml:space="preserve">5.13595628738403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23833847045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2677903175354</t>
+    <t xml:space="preserve">5.23833799362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26779127120972</t>
   </si>
   <si>
     <t xml:space="preserve">5.1289439201355</t>
@@ -1202,40 +1202,40 @@
     <t xml:space="preserve">5.10650300979614</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96765661239624</t>
+    <t xml:space="preserve">4.96765613555908</t>
   </si>
   <si>
     <t xml:space="preserve">5.15979814529419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25797414779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35755062103271</t>
+    <t xml:space="preserve">5.25797319412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35755109786987</t>
   </si>
   <si>
     <t xml:space="preserve">5.4837760925293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35053825378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43365383148193</t>
+    <t xml:space="preserve">5.35053873062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43365335464478</t>
   </si>
   <si>
     <t xml:space="preserve">5.4885687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51380062103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44552707672119</t>
+    <t xml:space="preserve">5.5137996673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44552659988403</t>
   </si>
   <si>
     <t xml:space="preserve">5.45146417617798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38022184371948</t>
+    <t xml:space="preserve">5.38022232055664</t>
   </si>
   <si>
     <t xml:space="preserve">5.4054536819458</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">5.32827520370483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32085418701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37428569793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38764333724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51528406143188</t>
+    <t xml:space="preserve">5.32085371017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37428522109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3876428604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51528358459473</t>
   </si>
   <si>
     <t xml:space="preserve">5.55832576751709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61027383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55090475082397</t>
+    <t xml:space="preserve">5.61027336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55090522766113</t>
   </si>
   <si>
     <t xml:space="preserve">5.63253593444824</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">5.61917877197266</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70080900192261</t>
+    <t xml:space="preserve">5.70080947875977</t>
   </si>
   <si>
     <t xml:space="preserve">5.76017713546753</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">5.7245569229126</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73939847946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72158813476562</t>
+    <t xml:space="preserve">5.73939800262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72158765792847</t>
   </si>
   <si>
     <t xml:space="preserve">5.7319769859314</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">5.82548189163208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85071229934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8759446144104</t>
+    <t xml:space="preserve">5.85071277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87594509124756</t>
   </si>
   <si>
     <t xml:space="preserve">5.91156530380249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90266036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58355760574341</t>
+    <t xml:space="preserve">5.90265989303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58355712890625</t>
   </si>
   <si>
     <t xml:space="preserve">5.5271577835083</t>
@@ -1328,58 +1328,58 @@
     <t xml:space="preserve">5.24961280822754</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30452871322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14720296859741</t>
+    <t xml:space="preserve">5.304527759552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14720249176025</t>
   </si>
   <si>
     <t xml:space="preserve">5.08338212966919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00323581695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16204500198364</t>
+    <t xml:space="preserve">5.00323534011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16204404830933</t>
   </si>
   <si>
     <t xml:space="preserve">5.06111907958984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03291988372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01362562179565</t>
+    <t xml:space="preserve">5.04182481765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03291940689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0136251449585</t>
   </si>
   <si>
     <t xml:space="preserve">5.03588771820068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97058296203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92160367965698</t>
+    <t xml:space="preserve">4.97058391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9216046333313</t>
   </si>
   <si>
     <t xml:space="preserve">5.00471973419189</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13681364059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23625469207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20360326766968</t>
+    <t xml:space="preserve">5.13681316375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23625516891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20360279083252</t>
   </si>
   <si>
     <t xml:space="preserve">5.22438144683838</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34460163116455</t>
+    <t xml:space="preserve">5.34460067749023</t>
   </si>
   <si>
     <t xml:space="preserve">5.31640195846558</t>
@@ -1388,22 +1388,22 @@
     <t xml:space="preserve">5.23328685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09970951080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12939262390137</t>
+    <t xml:space="preserve">5.09970903396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12939214706421</t>
   </si>
   <si>
     <t xml:space="preserve">5.17837047576904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1531400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13978147506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20953845977783</t>
+    <t xml:space="preserve">5.15313959121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1397819519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20953989028931</t>
   </si>
   <si>
     <t xml:space="preserve">5.2525806427002</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">5.27781248092651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34014940261841</t>
+    <t xml:space="preserve">5.34014892578125</t>
   </si>
   <si>
     <t xml:space="preserve">5.37131690979004</t>
@@ -1424,19 +1424,19 @@
     <t xml:space="preserve">5.10712957382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0522141456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96167755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97206783294678</t>
+    <t xml:space="preserve">5.05221557617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96167802810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97206687927246</t>
   </si>
   <si>
     <t xml:space="preserve">4.97652006149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89785718917847</t>
+    <t xml:space="preserve">4.89785766601562</t>
   </si>
   <si>
     <t xml:space="preserve">4.71678495407104</t>
@@ -1445,28 +1445,28 @@
     <t xml:space="preserve">4.74201631546021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78951072692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65741682052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63663864135742</t>
+    <t xml:space="preserve">4.78951168060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65741777420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63663768768311</t>
   </si>
   <si>
     <t xml:space="preserve">4.65444898605347</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73162698745728</t>
+    <t xml:space="preserve">4.73162651062012</t>
   </si>
   <si>
     <t xml:space="preserve">4.67225885391235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54164934158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65296411514282</t>
+    <t xml:space="preserve">4.54164981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65296459197998</t>
   </si>
   <si>
     <t xml:space="preserve">4.62773323059082</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">4.63812255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45111322402954</t>
+    <t xml:space="preserve">4.4511137008667</t>
   </si>
   <si>
     <t xml:space="preserve">4.54758596420288</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">4.55203866958618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69600629806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59211206436157</t>
+    <t xml:space="preserve">4.69600582122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59211254119873</t>
   </si>
   <si>
     <t xml:space="preserve">4.7123327255249</t>
@@ -1496,13 +1496,13 @@
     <t xml:space="preserve">4.86223649978638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90082550048828</t>
+    <t xml:space="preserve">4.9008264541626</t>
   </si>
   <si>
     <t xml:space="preserve">4.83255243301392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80138397216797</t>
+    <t xml:space="preserve">4.80138444900513</t>
   </si>
   <si>
     <t xml:space="preserve">4.96019411087036</t>
@@ -1514,13 +1514,13 @@
     <t xml:space="preserve">5.09822463989258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10861492156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11158180236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94832038879395</t>
+    <t xml:space="preserve">5.10861396789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11158227920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94831991195679</t>
   </si>
   <si>
     <t xml:space="preserve">4.82364797592163</t>
@@ -1538,58 +1538,58 @@
     <t xml:space="preserve">4.88598394393921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86075305938721</t>
+    <t xml:space="preserve">4.86075210571289</t>
   </si>
   <si>
     <t xml:space="preserve">5.07596158981323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04924488067627</t>
+    <t xml:space="preserve">5.04924583435059</t>
   </si>
   <si>
     <t xml:space="preserve">4.97355127334595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97503614425659</t>
+    <t xml:space="preserve">4.97503566741943</t>
   </si>
   <si>
     <t xml:space="preserve">5.09525632858276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05518293380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12197113037109</t>
+    <t xml:space="preserve">5.05518198013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12197160720825</t>
   </si>
   <si>
     <t xml:space="preserve">4.85184764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8755955696106</t>
+    <t xml:space="preserve">4.87559509277344</t>
   </si>
   <si>
     <t xml:space="preserve">4.81919431686401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86669015884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06260299682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14274978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11751937866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11009788513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27484464645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20211839675903</t>
+    <t xml:space="preserve">4.86668920516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06260395050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14275026321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11751890182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11009836196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27484369277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20211791992188</t>
   </si>
   <si>
     <t xml:space="preserve">5.12642431259155</t>
@@ -1598,31 +1598,31 @@
     <t xml:space="preserve">5.07002449035645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1828236579895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17243385314941</t>
+    <t xml:space="preserve">5.18282413482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17243337631226</t>
   </si>
   <si>
     <t xml:space="preserve">5.19321298599243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25703430175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22141218185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27336025238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34311723709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35647583007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38170623779297</t>
+    <t xml:space="preserve">5.25703382492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22141313552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27335977554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34311628341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35647487640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38170719146729</t>
   </si>
   <si>
     <t xml:space="preserve">5.35795927047729</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">5.63995742797852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58652544021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63847303390503</t>
+    <t xml:space="preserve">5.58652591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63847255706787</t>
   </si>
   <si>
     <t xml:space="preserve">5.65183067321777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70822954177856</t>
+    <t xml:space="preserve">5.70823001861572</t>
   </si>
   <si>
     <t xml:space="preserve">5.68299865722656</t>
@@ -1664,82 +1664,82 @@
     <t xml:space="preserve">5.45294809341431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58058881759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67260932922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70377826690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5316104888916</t>
+    <t xml:space="preserve">5.58058977127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67260885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70377731323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53160953521729</t>
   </si>
   <si>
     <t xml:space="preserve">5.54942083358765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61620998382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69932460784912</t>
+    <t xml:space="preserve">5.61620950698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69932508468628</t>
   </si>
   <si>
     <t xml:space="preserve">5.75720882415771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68893575668335</t>
+    <t xml:space="preserve">5.68893527984619</t>
   </si>
   <si>
     <t xml:space="preserve">5.74830341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76908254623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75127220153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73494577407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7750186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79876661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86110305786133</t>
+    <t xml:space="preserve">5.76908302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75127267837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73494672775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77501916885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79876613616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86110210418701</t>
   </si>
   <si>
     <t xml:space="preserve">5.86258697509766</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88485050201416</t>
+    <t xml:space="preserve">5.88484954833984</t>
   </si>
   <si>
     <t xml:space="preserve">5.88930225372314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85665082931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88336563110352</t>
+    <t xml:space="preserve">5.85664987564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88336610794067</t>
   </si>
   <si>
     <t xml:space="preserve">5.89523887634277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8982081413269</t>
+    <t xml:space="preserve">5.89820766448975</t>
   </si>
   <si>
     <t xml:space="preserve">5.79728221893311</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8640718460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89227056503296</t>
+    <t xml:space="preserve">5.86407136917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89227104187012</t>
   </si>
   <si>
     <t xml:space="preserve">5.90711307525635</t>
@@ -1751,28 +1751,28 @@
     <t xml:space="preserve">5.99616479873657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04811191558838</t>
+    <t xml:space="preserve">6.04811143875122</t>
   </si>
   <si>
     <t xml:space="preserve">6.20395231246948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2633204460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41025638580322</t>
+    <t xml:space="preserve">6.26331996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41025590896606</t>
   </si>
   <si>
     <t xml:space="preserve">6.35237312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37463617324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39986658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40135145187378</t>
+    <t xml:space="preserve">6.37463521957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39986705780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40135097503662</t>
   </si>
   <si>
     <t xml:space="preserve">6.37908840179443</t>
@@ -1781,61 +1781,61 @@
     <t xml:space="preserve">6.43548774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41916179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43845653533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49040365219116</t>
+    <t xml:space="preserve">6.41916084289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43845558166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.490403175354</t>
   </si>
   <si>
     <t xml:space="preserve">6.48595094680786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51118135452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62249660491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64624404907227</t>
+    <t xml:space="preserve">6.51118278503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62249708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64624452590942</t>
   </si>
   <si>
     <t xml:space="preserve">6.63585472106934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67147541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65960168838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73084354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68038082122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06181859970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06478929519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02174663543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87332677841187</t>
+    <t xml:space="preserve">6.67147493362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65960121154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73084259033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68037986755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06182050704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06478834152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02174615859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87332725524902</t>
   </si>
   <si>
     <t xml:space="preserve">6.84512710571289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86590576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644092559814</t>
+    <t xml:space="preserve">6.86590480804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644235610962</t>
   </si>
   <si>
     <t xml:space="preserve">7.05736780166626</t>
@@ -1844,40 +1844,40 @@
     <t xml:space="preserve">7.00542020797729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93714570999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98909378051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76794862747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68483352661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67889595031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60171747207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80505323410034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76201105117798</t>
+    <t xml:space="preserve">6.93714714050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98909425735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76794815063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68483304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6788969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60171794891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8050537109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76201248168945</t>
   </si>
   <si>
     <t xml:space="preserve">6.84957933425903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69670677185059</t>
+    <t xml:space="preserve">6.69670724868774</t>
   </si>
   <si>
     <t xml:space="preserve">6.75607490539551</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79911661148071</t>
+    <t xml:space="preserve">6.79911518096924</t>
   </si>
   <si>
     <t xml:space="preserve">6.5067286491394</t>
@@ -1886,55 +1886,55 @@
     <t xml:space="preserve">6.61952877044678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60320234298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55125570297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51711893081665</t>
+    <t xml:space="preserve">6.60320281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55125522613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51711797714233</t>
   </si>
   <si>
     <t xml:space="preserve">6.4562668800354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46962356567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63437080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58836078643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62398099899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75459146499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81841039657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106420516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87777948379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84215927124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89410543441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95495653152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06033611297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18562173843384</t>
+    <t xml:space="preserve">6.46962404251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63436985015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58836030960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62398052215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75459003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81841135025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106325149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87778043746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84215879440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89410591125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9549560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06033563613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18562126159668</t>
   </si>
   <si>
     <t xml:space="preserve">7.13581848144531</t>
@@ -1943,67 +1943,67 @@
     <t xml:space="preserve">7.1062479019165</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11247396469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20585346221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19340372085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36615657806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54046630859375</t>
+    <t xml:space="preserve">7.11247301101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2058539390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19340419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36615562438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54046678543091</t>
   </si>
   <si>
     <t xml:space="preserve">7.58715677261353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55914211273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54824781417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51245307922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58560085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51089668273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51556539535522</t>
+    <t xml:space="preserve">7.55914115905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54824733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51245260238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58559989929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5108962059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51556491851807</t>
   </si>
   <si>
     <t xml:space="preserve">7.48288297653198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45953750610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44397401809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31479644775391</t>
+    <t xml:space="preserve">7.4595365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44397449493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31479692459106</t>
   </si>
   <si>
     <t xml:space="preserve">7.34748125076294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30078935623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37238168716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31946611404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46109294891357</t>
+    <t xml:space="preserve">7.30079030990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37238216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31946659088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46109437942505</t>
   </si>
   <si>
     <t xml:space="preserve">7.26655054092407</t>
@@ -2012,34 +2012,34 @@
     <t xml:space="preserve">7.5171217918396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59182596206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50311470031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38327693939209</t>
+    <t xml:space="preserve">7.59182643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50311422348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38327550888062</t>
   </si>
   <si>
     <t xml:space="preserve">7.37860774993896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50000190734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99886083602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08134698867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24476194381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11558532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39261388778687</t>
+    <t xml:space="preserve">7.50000143051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99886131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08134603500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24476289749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11558628082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39261531829834</t>
   </si>
   <si>
     <t xml:space="preserve">7.34125518798828</t>
@@ -2048,22 +2048,22 @@
     <t xml:space="preserve">7.54669189453125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52023410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33036088943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39105749130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31324148178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65719175338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60427570343018</t>
+    <t xml:space="preserve">7.52023363113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33036136627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39105796813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31324052810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65719223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60427761077881</t>
   </si>
   <si>
     <t xml:space="preserve">7.6852068901062</t>
@@ -2072,55 +2072,55 @@
     <t xml:space="preserve">7.70388221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85173416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82060813903809</t>
+    <t xml:space="preserve">7.85173559188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82060766220093</t>
   </si>
   <si>
     <t xml:space="preserve">7.8400616645813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84395265579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71166467666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7427921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87896919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92566108703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82838869094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76146745681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90620565414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92177057266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83228015899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99569654464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9490065574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9451150894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98402261734009</t>
+    <t xml:space="preserve">7.84395170211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71166372299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74279117584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87897109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92566204071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82839059829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76146650314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90620613098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92176866531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83227968215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9956955909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94900608062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94511461257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98402309417725</t>
   </si>
   <si>
     <t xml:space="preserve">8.11631298065186</t>
@@ -2129,16 +2129,16 @@
     <t xml:space="preserve">8.00347709655762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75368547439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77080392837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76613569259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98791408538818</t>
+    <t xml:space="preserve">7.75368452072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77080535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76613521575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9879150390625</t>
   </si>
   <si>
     <t xml:space="preserve">7.88286209106445</t>
@@ -2147,34 +2147,34 @@
     <t xml:space="preserve">7.97624111175537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2330379486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24471092224121</t>
+    <t xml:space="preserve">8.23303699493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24470901489258</t>
   </si>
   <si>
     <t xml:space="preserve">8.3575439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23692798614502</t>
+    <t xml:space="preserve">8.23692893981934</t>
   </si>
   <si>
     <t xml:space="preserve">8.33030796051025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37699890136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40423679351807</t>
+    <t xml:space="preserve">8.3769998550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40423488616943</t>
   </si>
   <si>
     <t xml:space="preserve">8.50150585174561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52095890045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55208683013916</t>
+    <t xml:space="preserve">8.52096080780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55208778381348</t>
   </si>
   <si>
     <t xml:space="preserve">8.45092487335205</t>
@@ -2183,16 +2183,16 @@
     <t xml:space="preserve">8.48983383178711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47427082061768</t>
+    <t xml:space="preserve">8.47426986694336</t>
   </si>
   <si>
     <t xml:space="preserve">8.4664888381958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58321380615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6337947845459</t>
+    <t xml:space="preserve">8.58321475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63379573822021</t>
   </si>
   <si>
     <t xml:space="preserve">8.69215774536133</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">8.5559778213501</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43536281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53652477264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71939373016357</t>
+    <t xml:space="preserve">8.43536186218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53652381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71939563751221</t>
   </si>
   <si>
     <t xml:space="preserve">8.64935779571533</t>
@@ -2216,43 +2216,43 @@
     <t xml:space="preserve">8.66881275177002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68437767028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73093032836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58100891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65991687774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55339336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62440776824951</t>
+    <t xml:space="preserve">8.68437576293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73093128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58101081848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65991592407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55339431762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62440872192383</t>
   </si>
   <si>
     <t xml:space="preserve">8.64807891845703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56917476654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51393985748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39163684844971</t>
+    <t xml:space="preserve">8.56917381286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51394081115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39163494110107</t>
   </si>
   <si>
     <t xml:space="preserve">8.35612773895264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08390331268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17069911956787</t>
+    <t xml:space="preserve">8.08390235900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17069816589355</t>
   </si>
   <si>
     <t xml:space="preserve">8.2772216796875</t>
@@ -2267,40 +2267,40 @@
     <t xml:space="preserve">8.03656005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15097332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0602331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19437122344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02472305297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09573841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02077865600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12335681915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22988033294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98527050018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0444507598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94187355041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87322330474854</t>
+    <t xml:space="preserve">8.15097427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06023120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19437026977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02472496032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09573936462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02077770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12335777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22987937927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98527193069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04444885253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94187259674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87322473526001</t>
   </si>
   <si>
     <t xml:space="preserve">8.07601261138916</t>
@@ -2309,28 +2309,28 @@
     <t xml:space="preserve">7.96554517745972</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09179496765137</t>
+    <t xml:space="preserve">8.09179306030273</t>
   </si>
   <si>
     <t xml:space="preserve">8.0562858581543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00894165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93792676925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92609262466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11546421051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19042682647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21409702301025</t>
+    <t xml:space="preserve">8.00894069671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93792819976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92609024047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11546516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19042491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21409893035889</t>
   </si>
   <si>
     <t xml:space="preserve">8.10757541656494</t>
@@ -2342,34 +2342,34 @@
     <t xml:space="preserve">8.74276733398438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67569732666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16675567626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28905868530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44686985015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46265125274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5178861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60468101501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70726013183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66386127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64018821716309</t>
+    <t xml:space="preserve">8.67569637298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1667537689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28905963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44686889648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4626522064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51788520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60468196868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70725917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66386032104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6401891708374</t>
   </si>
   <si>
     <t xml:space="preserve">8.6283540725708</t>
@@ -2378,46 +2378,46 @@
     <t xml:space="preserve">8.94792175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08206176757812</t>
+    <t xml:space="preserve">9.08206367492676</t>
   </si>
   <si>
     <t xml:space="preserve">8.9045238494873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91241359710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28116703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1549186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31667518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95765447616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5860071182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3082594871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59074211120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64439678192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44239902496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67122554779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67385482788086</t>
+    <t xml:space="preserve">8.91241455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28116798400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15491771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31667613983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9576530456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58600854873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30825901031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59074115753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64439821243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44239854812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67122507095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67385625839233</t>
   </si>
   <si>
     <t xml:space="preserve">6.21620178222656</t>
@@ -2429,28 +2429,28 @@
     <t xml:space="preserve">4.84797477722168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32141065597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13045692443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12572288513184</t>
+    <t xml:space="preserve">5.32141017913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13045740127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12572336196899</t>
   </si>
   <si>
     <t xml:space="preserve">5.02630186080933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45554876327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47290802001953</t>
+    <t xml:space="preserve">5.4555492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47290849685669</t>
   </si>
   <si>
     <t xml:space="preserve">5.66228294372559</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04892110824585</t>
+    <t xml:space="preserve">6.04892158508301</t>
   </si>
   <si>
     <t xml:space="preserve">6.10415554046631</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">6.38979387283325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19568634033203</t>
+    <t xml:space="preserve">6.19568681716919</t>
   </si>
   <si>
     <t xml:space="preserve">6.24618577957153</t>
@@ -2468,25 +2468,25 @@
     <t xml:space="preserve">6.09153079986572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8327202796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13256168365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17832660675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34402942657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43555927276611</t>
+    <t xml:space="preserve">5.83271932601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13256216049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17832708358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34402894973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43556022644043</t>
   </si>
   <si>
     <t xml:space="preserve">6.53182506561279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55391836166382</t>
+    <t xml:space="preserve">6.55391883850098</t>
   </si>
   <si>
     <t xml:space="preserve">6.58074760437012</t>
@@ -2495,31 +2495,31 @@
     <t xml:space="preserve">6.00157785415649</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05049991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07574892044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00631237030029</t>
+    <t xml:space="preserve">6.0504994392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07574939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00631189346313</t>
   </si>
   <si>
     <t xml:space="preserve">5.87848472595215</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97159433364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93214130401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83745384216309</t>
+    <t xml:space="preserve">5.97159385681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93214082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83745431900024</t>
   </si>
   <si>
     <t xml:space="preserve">6.21935796737671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20831108093262</t>
+    <t xml:space="preserve">6.20831155776978</t>
   </si>
   <si>
     <t xml:space="preserve">6.33613920211792</t>
@@ -2528,19 +2528,19 @@
     <t xml:space="preserve">6.11678075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96843767166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79957914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70331382751465</t>
+    <t xml:space="preserve">5.96843814849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79957962036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70331430435181</t>
   </si>
   <si>
     <t xml:space="preserve">5.99210929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11993741989136</t>
+    <t xml:space="preserve">6.11993646621704</t>
   </si>
   <si>
     <t xml:space="preserve">5.875328540802</t>
@@ -2552,13 +2552,13 @@
     <t xml:space="preserve">5.67017364501953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88795328140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84218835830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85165739059448</t>
+    <t xml:space="preserve">5.88795375823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84218788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85165691375732</t>
   </si>
   <si>
     <t xml:space="preserve">5.81536054611206</t>
@@ -2576,25 +2576,25 @@
     <t xml:space="preserve">6.22882652282715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2856388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35823249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55076265335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76065301895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92004203796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06365013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84587097167969</t>
+    <t xml:space="preserve">6.28563928604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35823202133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55076217651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76065158843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92004251480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06365060806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84587049484253</t>
   </si>
   <si>
     <t xml:space="preserve">6.76696491241455</t>
@@ -2606,22 +2606,22 @@
     <t xml:space="preserve">6.50815343856812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56338691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6959490776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66596460342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61862230300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48606014251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61969947814941</t>
+    <t xml:space="preserve">6.56338739395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69594955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66596508026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61862087249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48606061935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61970090866089</t>
   </si>
   <si>
     <t xml:space="preserve">6.73284292221069</t>
@@ -2639,37 +2639,37 @@
     <t xml:space="preserve">6.54427146911621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34586095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35733938217163</t>
+    <t xml:space="preserve">6.34586000442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35733842849731</t>
   </si>
   <si>
     <t xml:space="preserve">6.38521480560303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4885196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4524450302124</t>
+    <t xml:space="preserve">6.48851919174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45244455337524</t>
   </si>
   <si>
     <t xml:space="preserve">6.40161275863647</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25075531005859</t>
+    <t xml:space="preserve">6.25075435638428</t>
   </si>
   <si>
     <t xml:space="preserve">6.30486679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42456912994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39997243881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42784881591797</t>
+    <t xml:space="preserve">6.42456865310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39997291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42784833908081</t>
   </si>
   <si>
     <t xml:space="preserve">6.44588613510132</t>
@@ -2693,10 +2693,10 @@
     <t xml:space="preserve">6.51311492919922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47704124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46064424514771</t>
+    <t xml:space="preserve">6.47704076766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46064376831055</t>
   </si>
   <si>
     <t xml:space="preserve">6.23927688598633</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">6.5163950920105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41473054885864</t>
+    <t xml:space="preserve">6.41473007202148</t>
   </si>
   <si>
     <t xml:space="preserve">6.46556329727173</t>
@@ -2726,16 +2726,16 @@
     <t xml:space="preserve">6.68365097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67545223236084</t>
+    <t xml:space="preserve">6.67545175552368</t>
   </si>
   <si>
     <t xml:space="preserve">6.59510374069214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56722831726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46392250061035</t>
+    <t xml:space="preserve">6.56722784042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46392345428467</t>
   </si>
   <si>
     <t xml:space="preserve">6.44260597229004</t>
@@ -2744,19 +2744,19 @@
     <t xml:space="preserve">6.50983619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3983325958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48523950576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50655651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43112850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43604755401611</t>
+    <t xml:space="preserve">6.39833211898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48523998260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50655698776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43112754821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43604707717896</t>
   </si>
   <si>
     <t xml:space="preserve">6.34094095230103</t>
@@ -2765,19 +2765,19 @@
     <t xml:space="preserve">6.29338836669922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30650568008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52459383010864</t>
+    <t xml:space="preserve">6.30650615692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52459478378296</t>
   </si>
   <si>
     <t xml:space="preserve">6.39013433456421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54263162612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53115320205688</t>
+    <t xml:space="preserve">6.54263114929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53115272521973</t>
   </si>
   <si>
     <t xml:space="preserve">6.53443241119385</t>
@@ -2786,67 +2786,67 @@
     <t xml:space="preserve">6.49671745300293</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36389780044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14253091812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22943830490112</t>
+    <t xml:space="preserve">6.36389875411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14253044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22943735122681</t>
   </si>
   <si>
     <t xml:space="preserve">6.28027009963989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26715230941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2195987701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33766222000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21140003204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20484161376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15892839431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19500255584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63117837905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57378721237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57050752639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57214689254761</t>
+    <t xml:space="preserve">6.26715135574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21960020065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3376612663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21140050888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20484113693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15892887115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19500303268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63117790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57378625869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57050704956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57214641571045</t>
   </si>
   <si>
     <t xml:space="preserve">6.58690547943115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58854484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25895309448242</t>
+    <t xml:space="preserve">6.5885443687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25895357131958</t>
   </si>
   <si>
     <t xml:space="preserve">6.33602237701416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34422063827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.226158618927</t>
+    <t xml:space="preserve">6.3442211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22615766525269</t>
   </si>
   <si>
     <t xml:space="preserve">6.23599672317505</t>
@@ -2855,25 +2855,25 @@
     <t xml:space="preserve">6.22451829910278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12449359893799</t>
+    <t xml:space="preserve">6.12449264526367</t>
   </si>
   <si>
     <t xml:space="preserve">6.08021974563599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82441806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74570894241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7391505241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87689018249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93264150619507</t>
+    <t xml:space="preserve">5.82441759109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74570941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73915004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87688970565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93264198303223</t>
   </si>
   <si>
     <t xml:space="preserve">6.11957454681396</t>
@@ -2882,52 +2882,52 @@
     <t xml:space="preserve">6.32126426696777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2179594039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43768739700317</t>
+    <t xml:space="preserve">6.21795988082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43768692016602</t>
   </si>
   <si>
     <t xml:space="preserve">6.59674263000488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54919099807739</t>
+    <t xml:space="preserve">6.54919052124023</t>
   </si>
   <si>
     <t xml:space="preserve">6.74760103225708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97224760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06243515014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18213748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25920581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14770221710205</t>
+    <t xml:space="preserve">6.97224807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06243467330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18213653564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25920486450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14770174026489</t>
   </si>
   <si>
     <t xml:space="preserve">7.18547773361206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34753084182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27736473083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35087299346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13702821731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19383144378662</t>
+    <t xml:space="preserve">7.34753227233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27736377716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3508734703064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13702869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19383239746094</t>
   </si>
   <si>
     <t xml:space="preserve">7.07855606079102</t>
@@ -2936,76 +2936,76 @@
     <t xml:space="preserve">7.10361623764038</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02342557907104</t>
+    <t xml:space="preserve">7.02342510223389</t>
   </si>
   <si>
     <t xml:space="preserve">7.0117301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0217547416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03177881240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97497606277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96996450424194</t>
+    <t xml:space="preserve">7.02175426483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03177833557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97497653961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96996355056763</t>
   </si>
   <si>
     <t xml:space="preserve">7.08189725875854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00838899612427</t>
+    <t xml:space="preserve">7.00838947296143</t>
   </si>
   <si>
     <t xml:space="preserve">6.98165845870972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82127618789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96161031723022</t>
+    <t xml:space="preserve">6.82127666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96161079406738</t>
   </si>
   <si>
     <t xml:space="preserve">6.99001216888428</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94991588592529</t>
+    <t xml:space="preserve">6.94991540908813</t>
   </si>
   <si>
     <t xml:space="preserve">6.96829319000244</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9231858253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13368797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28237533569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17879581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1286768913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04514312744141</t>
+    <t xml:space="preserve">6.92318630218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13368844985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28237676620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17879486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12867641448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04514360427856</t>
   </si>
   <si>
     <t xml:space="preserve">6.97664642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00003528594971</t>
+    <t xml:space="preserve">7.00003576278687</t>
   </si>
   <si>
     <t xml:space="preserve">6.94156312942505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0134015083313</t>
+    <t xml:space="preserve">7.01340103149414</t>
   </si>
   <si>
     <t xml:space="preserve">6.94824504852295</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">6.85635995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98500061035156</t>
+    <t xml:space="preserve">6.9850001335144</t>
   </si>
   <si>
     <t xml:space="preserve">6.8162636756897</t>
@@ -3029,106 +3029,106 @@
     <t xml:space="preserve">6.74609708786011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92819738388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91650247573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40934562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52796316146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70171117782593</t>
+    <t xml:space="preserve">6.92819690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91650295257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40934610366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52796268463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70170927047729</t>
   </si>
   <si>
     <t xml:space="preserve">7.8988471031189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99407386779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94729614257812</t>
+    <t xml:space="preserve">7.99407529830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94729566574097</t>
   </si>
   <si>
     <t xml:space="preserve">8.06090068817139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08429050445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16114044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06257152557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92056512832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77187776565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85039806365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05588817596436</t>
+    <t xml:space="preserve">8.08428955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16113948822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06257057189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92056655883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77187633514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85039854049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05589008331299</t>
   </si>
   <si>
     <t xml:space="preserve">7.95899057388306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97736787796021</t>
+    <t xml:space="preserve">7.97736740112305</t>
   </si>
   <si>
     <t xml:space="preserve">8.02581596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85541152954102</t>
+    <t xml:space="preserve">7.8554105758667</t>
   </si>
   <si>
     <t xml:space="preserve">8.2095890045166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24968338012695</t>
+    <t xml:space="preserve">8.24968433380127</t>
   </si>
   <si>
     <t xml:space="preserve">8.31149864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33154582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22796535491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38667678833008</t>
+    <t xml:space="preserve">8.33154487609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22796726226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38667774200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.47021102905273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54538917541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50779914855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58297920227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53286075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71663188934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67068958282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73333835601807</t>
+    <t xml:space="preserve">8.54539012908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5078010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58297824859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53285980224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71663284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67068862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73333740234375</t>
   </si>
   <si>
     <t xml:space="preserve">8.63727569580078</t>
@@ -3140,16 +3140,16 @@
     <t xml:space="preserve">8.69992542266846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74586772918701</t>
+    <t xml:space="preserve">8.74586868286133</t>
   </si>
   <si>
     <t xml:space="preserve">8.73751354217529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81269359588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00481986999512</t>
+    <t xml:space="preserve">8.81269454956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0048189163208</t>
   </si>
   <si>
     <t xml:space="preserve">9.06746864318848</t>
@@ -3158,22 +3158,22 @@
     <t xml:space="preserve">9.05493831634521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11341190338135</t>
+    <t xml:space="preserve">9.11341094970703</t>
   </si>
   <si>
     <t xml:space="preserve">9.13847064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12594127655029</t>
+    <t xml:space="preserve">9.12594223022461</t>
   </si>
   <si>
     <t xml:space="preserve">8.99646663665771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01734924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00899505615234</t>
+    <t xml:space="preserve">9.01735019683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00899696350098</t>
   </si>
   <si>
     <t xml:space="preserve">8.90875720977783</t>
@@ -3185,40 +3185,40 @@
     <t xml:space="preserve">9.00064182281494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98811435699463</t>
+    <t xml:space="preserve">8.98811340332031</t>
   </si>
   <si>
     <t xml:space="preserve">8.8669900894165</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86281204223633</t>
+    <t xml:space="preserve">8.86281394958496</t>
   </si>
   <si>
     <t xml:space="preserve">9.06329250335693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02987957000732</t>
+    <t xml:space="preserve">9.02987766265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.04240894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12176418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11758708953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10505867004395</t>
+    <t xml:space="preserve">9.12176513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11758804321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10505771636963</t>
   </si>
   <si>
     <t xml:space="preserve">9.23035717010498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16353225708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13011932373047</t>
+    <t xml:space="preserve">9.16353130340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13011837005615</t>
   </si>
   <si>
     <t xml:space="preserve">9.18859100341797</t>
@@ -3227,16 +3227,16 @@
     <t xml:space="preserve">9.376540184021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33477306365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2178258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22200489044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28883171081543</t>
+    <t xml:space="preserve">9.33477401733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21782684326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22200393676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28883075714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.43083572387695</t>
@@ -3245,16 +3245,16 @@
     <t xml:space="preserve">9.41830635070801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38071537017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46007251739502</t>
+    <t xml:space="preserve">9.38071632385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4600715637207</t>
   </si>
   <si>
     <t xml:space="preserve">9.60625457763672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77332019805908</t>
+    <t xml:space="preserve">9.77331924438477</t>
   </si>
   <si>
     <t xml:space="preserve">9.64384365081787</t>
@@ -3263,34 +3263,34 @@
     <t xml:space="preserve">9.53942775726318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59790229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61043167114258</t>
+    <t xml:space="preserve">9.597900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61043071746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.66055107116699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85685253143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94873809814453</t>
+    <t xml:space="preserve">9.85685157775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94873905181885</t>
   </si>
   <si>
     <t xml:space="preserve">10.0740375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0907440185547</t>
+    <t xml:space="preserve">10.0907430648804</t>
   </si>
   <si>
     <t xml:space="preserve">10.0113878250122</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0364465713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.007209777832</t>
+    <t xml:space="preserve">10.0364475250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0072088241577</t>
   </si>
   <si>
     <t xml:space="preserve">10.082389831543</t>
@@ -3299,22 +3299,22 @@
     <t xml:space="preserve">10.0197410583496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76914310455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89285659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75969219207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64371109008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81553554534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78546714782715</t>
+    <t xml:space="preserve">9.76914405822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89285755157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75969123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64371013641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8155345916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78546619415283</t>
   </si>
   <si>
     <t xml:space="preserve">9.62652683258057</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">9.57927513122559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69096088409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6050500869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74250888824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59645748138428</t>
+    <t xml:space="preserve">9.69096183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60504913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74251079559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59645843505859</t>
   </si>
   <si>
     <t xml:space="preserve">9.63511943817139</t>
@@ -3344,73 +3344,73 @@
     <t xml:space="preserve">9.30005931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44610977172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4804744720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4761791229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44181537628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31294536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34301567077637</t>
+    <t xml:space="preserve">9.44611072540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48047542572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47618007659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44181442260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31294631958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34301471710205</t>
   </si>
   <si>
     <t xml:space="preserve">9.02513790130615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1153450012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40315532684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54490947723389</t>
+    <t xml:space="preserve">9.11534595489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40315246582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5449104309082</t>
   </si>
   <si>
     <t xml:space="preserve">9.63082313537598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70814323425293</t>
+    <t xml:space="preserve">9.70814418792725</t>
   </si>
   <si>
     <t xml:space="preserve">9.61363983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59216117858887</t>
+    <t xml:space="preserve">9.59216213226318</t>
   </si>
   <si>
     <t xml:space="preserve">9.5577974319458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75539684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90144824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94869995117188</t>
+    <t xml:space="preserve">9.75539588928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90144729614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94870090484619</t>
   </si>
   <si>
     <t xml:space="preserve">9.98736095428467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0689783096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0904560089111</t>
+    <t xml:space="preserve">10.0689792633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0904550552368</t>
   </si>
   <si>
     <t xml:space="preserve">10.0389089584351</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97447395324707</t>
+    <t xml:space="preserve">9.97447490692139</t>
   </si>
   <si>
     <t xml:space="preserve">9.91863059997559</t>
@@ -3422,16 +3422,16 @@
     <t xml:space="preserve">9.8756742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80264949798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0174312591553</t>
+    <t xml:space="preserve">9.80264854431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.017430305481</t>
   </si>
   <si>
     <t xml:space="preserve">9.99165725708008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95729064941406</t>
+    <t xml:space="preserve">9.95729160308838</t>
   </si>
   <si>
     <t xml:space="preserve">9.8670825958252</t>
@@ -3440,7 +3440,7 @@
     <t xml:space="preserve">9.9100399017334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96158695220947</t>
+    <t xml:space="preserve">9.96158790588379</t>
   </si>
   <si>
     <t xml:space="preserve">9.99595260620117</t>
@@ -3449,22 +3449,22 @@
     <t xml:space="preserve">9.84560489654541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91433620452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9315185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0217256546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1806659698486</t>
+    <t xml:space="preserve">9.91433525085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93151760101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0217266082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1806640625</t>
   </si>
   <si>
     <t xml:space="preserve">10.08616065979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1248216629028</t>
+    <t xml:space="preserve">10.1248226165771</t>
   </si>
   <si>
     <t xml:space="preserve">10.215030670166</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">10.2880563735962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2493953704834</t>
+    <t xml:space="preserve">10.2493963241577</t>
   </si>
   <si>
     <t xml:space="preserve">10.3438987731934</t>
@@ -3485,13 +3485,13 @@
     <t xml:space="preserve">10.1634826660156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.227915763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1849613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.391152381897</t>
+    <t xml:space="preserve">10.2279167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1849594116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3911514282227</t>
   </si>
   <si>
     <t xml:space="preserve">10.3310117721558</t>
@@ -3503,19 +3503,19 @@
     <t xml:space="preserve">10.4641771316528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4469947814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5844535827637</t>
+    <t xml:space="preserve">10.4469938278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5844554901123</t>
   </si>
   <si>
     <t xml:space="preserve">10.6231155395508</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7390985488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6746644973755</t>
+    <t xml:space="preserve">10.7390975952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6746635437012</t>
   </si>
   <si>
     <t xml:space="preserve">10.6402988433838</t>
@@ -3527,22 +3527,22 @@
     <t xml:space="preserve">10.7863512039185</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7476892471313</t>
+    <t xml:space="preserve">10.7476902008057</t>
   </si>
   <si>
     <t xml:space="preserve">10.7262115478516</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8894462585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949419021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.777759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6016368865967</t>
+    <t xml:space="preserve">10.8894453048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7777576446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.601637840271</t>
   </si>
   <si>
     <t xml:space="preserve">10.6918458938599</t>
@@ -3554,16 +3554,16 @@
     <t xml:space="preserve">10.782054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7047319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7348012924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6875495910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801601409912</t>
+    <t xml:space="preserve">10.7047328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7348022460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6875505447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801591873169</t>
   </si>
   <si>
     <t xml:space="preserve">10.5200204849243</t>
@@ -3572,28 +3572,28 @@
     <t xml:space="preserve">10.5329074859619</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4341068267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3653783798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3435649871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2606763839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2301387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0774507522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66300964355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76771068572998</t>
+    <t xml:space="preserve">10.4341077804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3653774261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3435640335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2606773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2301397323608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.077449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66300868988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76770973205566</t>
   </si>
   <si>
     <t xml:space="preserve">9.71972274780273</t>
@@ -3602,19 +3602,19 @@
     <t xml:space="preserve">9.90294933319092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79824733734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72408485412598</t>
+    <t xml:space="preserve">9.79824829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72408580780029</t>
   </si>
   <si>
     <t xml:space="preserve">9.75898551940918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8942232131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75462341308594</t>
+    <t xml:space="preserve">9.89422512054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75462245941162</t>
   </si>
   <si>
     <t xml:space="preserve">9.68482303619385</t>
@@ -3644,16 +3644,16 @@
     <t xml:space="preserve">9.72844696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82442378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9116735458374</t>
+    <t xml:space="preserve">9.82442283630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91167259216309</t>
   </si>
   <si>
     <t xml:space="preserve">9.99892425537109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0818138122559</t>
+    <t xml:space="preserve">10.0818128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599994659424</t>
@@ -3665,10 +3665,10 @@
     <t xml:space="preserve">10.2126884460449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.225775718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2650384902954</t>
+    <t xml:space="preserve">10.2257766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2650394439697</t>
   </si>
   <si>
     <t xml:space="preserve">10.1777877807617</t>
@@ -3680,19 +3680,19 @@
     <t xml:space="preserve">10.238862991333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1690626144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.121075630188</t>
+    <t xml:space="preserve">10.1690635681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1210765838623</t>
   </si>
   <si>
     <t xml:space="preserve">10.1297998428345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0905380249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1123495101929</t>
+    <t xml:space="preserve">10.090537071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1123504638672</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952390670776</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">10.0207366943359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61938381195068</t>
+    <t xml:space="preserve">9.619384765625</t>
   </si>
   <si>
     <t xml:space="preserve">9.85496044158936</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">10.0730876922607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95093631744385</t>
+    <t xml:space="preserve">9.95093727111816</t>
   </si>
   <si>
     <t xml:space="preserve">10.4090032577515</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">9.56267166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60629749298096</t>
+    <t xml:space="preserve">9.60629653930664</t>
   </si>
   <si>
     <t xml:space="preserve">9.41870784759521</t>
@@ -3740,37 +3740,37 @@
     <t xml:space="preserve">9.71535968780518</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62810802459717</t>
+    <t xml:space="preserve">9.62810897827148</t>
   </si>
   <si>
     <t xml:space="preserve">9.39253234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35763168334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27910709381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75996494293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04789257049561</t>
+    <t xml:space="preserve">9.35763359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27910614013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75996589660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04789352416992</t>
   </si>
   <si>
     <t xml:space="preserve">8.96500396728516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60291290283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58895397186279</t>
+    <t xml:space="preserve">8.60291385650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58895301818848</t>
   </si>
   <si>
     <t xml:space="preserve">8.46854877471924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92235946655273</t>
+    <t xml:space="preserve">7.92235898971558</t>
   </si>
   <si>
     <t xml:space="preserve">7.75134754180908</t>
@@ -3782,10 +3782,10 @@
     <t xml:space="preserve">8.82976627349854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38304138183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43364810943604</t>
+    <t xml:space="preserve">8.38304233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43364906311035</t>
   </si>
   <si>
     <t xml:space="preserve">8.66224479675293</t>
@@ -3797,31 +3797,31 @@
     <t xml:space="preserve">9.00426578521729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81667900085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79050350189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82540225982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05661773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04352951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20494270324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08279228210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1874942779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26601982116699</t>
+    <t xml:space="preserve">8.81667804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79050254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82540321350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05661678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04353046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20494365692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08279323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18749332427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26601791381836</t>
   </si>
   <si>
     <t xml:space="preserve">9.22675609588623</t>
@@ -3833,16 +3833,16 @@
     <t xml:space="preserve">8.93882942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74687671661377</t>
+    <t xml:space="preserve">8.74687767028809</t>
   </si>
   <si>
     <t xml:space="preserve">8.61338424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78177833557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71110534667969</t>
+    <t xml:space="preserve">8.78177642822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71110439300537</t>
   </si>
   <si>
     <t xml:space="preserve">8.58022880554199</t>
@@ -3860,28 +3860,28 @@
     <t xml:space="preserve">8.64479446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6168737411499</t>
+    <t xml:space="preserve">8.61687469482422</t>
   </si>
   <si>
     <t xml:space="preserve">8.46505832672119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22599220275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11605644226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08987998962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14223003387451</t>
+    <t xml:space="preserve">8.22599124908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11605548858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08988094329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14223098754883</t>
   </si>
   <si>
     <t xml:space="preserve">8.18236637115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10035037994385</t>
+    <t xml:space="preserve">8.10035133361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.03578472137451</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">8.43713855743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31847763061523</t>
+    <t xml:space="preserve">8.31847667694092</t>
   </si>
   <si>
     <t xml:space="preserve">8.39700222015381</t>
@@ -3923,7 +3923,7 @@
     <t xml:space="preserve">8.29230117797852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45458698272705</t>
+    <t xml:space="preserve">8.45458793640137</t>
   </si>
   <si>
     <t xml:space="preserve">8.31149673461914</t>
@@ -3938,46 +3938,46 @@
     <t xml:space="preserve">8.66573524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85594081878662</t>
+    <t xml:space="preserve">8.8559398651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.74251556396484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73815250396729</t>
+    <t xml:space="preserve">8.7381534576416</t>
   </si>
   <si>
     <t xml:space="preserve">8.65526485443115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82104015350342</t>
+    <t xml:space="preserve">8.82104110717773</t>
   </si>
   <si>
     <t xml:space="preserve">8.80359077453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68144035339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98518037796021</t>
+    <t xml:space="preserve">8.68143939971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98517990112305</t>
   </si>
   <si>
     <t xml:space="preserve">7.7181921005249</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95551490783691</t>
+    <t xml:space="preserve">7.95551443099976</t>
   </si>
   <si>
     <t xml:space="preserve">8.21726608276367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80893230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8490686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03453636169434</t>
+    <t xml:space="preserve">7.8089337348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84906816482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03453731536865</t>
   </si>
   <si>
     <t xml:space="preserve">7.96692800521851</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">8.1734094619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13321018218994</t>
+    <t xml:space="preserve">8.13321113586426</t>
   </si>
   <si>
     <t xml:space="preserve">8.29583740234375</t>
@@ -4007,52 +4007,52 @@
     <t xml:space="preserve">8.14600086212158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13869190216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86094522476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06377410888672</t>
+    <t xml:space="preserve">8.13869094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81160879135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86094617843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0637731552124</t>
   </si>
   <si>
     <t xml:space="preserve">7.93769121170044</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78785467147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82257318496704</t>
+    <t xml:space="preserve">7.78785419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82257270812988</t>
   </si>
   <si>
     <t xml:space="preserve">7.65811777114868</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26890754699707</t>
+    <t xml:space="preserve">7.26890802383423</t>
   </si>
   <si>
     <t xml:space="preserve">7.45346307754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59416389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84632730484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67273569107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29814386367798</t>
+    <t xml:space="preserve">7.59416341781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8463282585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67273616790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">7.39498996734619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42605352401733</t>
+    <t xml:space="preserve">7.42605400085449</t>
   </si>
   <si>
     <t xml:space="preserve">7.40960788726807</t>
@@ -4061,19 +4061,19 @@
     <t xml:space="preserve">7.42239904403687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36027097702026</t>
+    <t xml:space="preserve">7.36027145385742</t>
   </si>
   <si>
     <t xml:space="preserve">7.46442699432373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53751802444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44615316390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57223558425903</t>
+    <t xml:space="preserve">7.53751754760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44615364074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57223606109619</t>
   </si>
   <si>
     <t xml:space="preserve">7.65994453430176</t>
@@ -4085,10 +4085,10 @@
     <t xml:space="preserve">7.67456293106079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63253545761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67821788787842</t>
+    <t xml:space="preserve">7.63253593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67821836471558</t>
   </si>
   <si>
     <t xml:space="preserve">7.79150867462158</t>
@@ -4097,22 +4097,22 @@
     <t xml:space="preserve">7.79881858825684</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73303604125977</t>
+    <t xml:space="preserve">7.73303651809692</t>
   </si>
   <si>
     <t xml:space="preserve">7.63070869445801</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49183559417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30179929733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41326332092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37671709060669</t>
+    <t xml:space="preserve">7.4918360710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30179882049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41326284408569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37671756744385</t>
   </si>
   <si>
     <t xml:space="preserve">7.35296297073364</t>
@@ -4133,13 +4133,13 @@
     <t xml:space="preserve">7.40047216415405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20860767364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29083490371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31093454360962</t>
+    <t xml:space="preserve">7.20860815048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2908353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31093502044678</t>
   </si>
   <si>
     <t xml:space="preserve">7.38768100738525</t>
@@ -4154,22 +4154,22 @@
     <t xml:space="preserve">7.61609077453613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67639064788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55761814117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59050798416138</t>
+    <t xml:space="preserve">7.67639017105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55761766433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59050846099854</t>
   </si>
   <si>
     <t xml:space="preserve">7.43153524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42788124084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21408987045288</t>
+    <t xml:space="preserve">7.42788076400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21408939361572</t>
   </si>
   <si>
     <t xml:space="preserve">7.28718042373657</t>
@@ -4187,19 +4187,19 @@
     <t xml:space="preserve">7.11724376678467</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26342630386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47721767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36940765380859</t>
+    <t xml:space="preserve">7.26342582702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47721719741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36940813064575</t>
   </si>
   <si>
     <t xml:space="preserve">7.24515295028687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14648008346558</t>
+    <t xml:space="preserve">7.14648056030273</t>
   </si>
   <si>
     <t xml:space="preserve">7.16292572021484</t>
@@ -4208,10 +4208,10 @@
     <t xml:space="preserve">6.99847030639648</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1135892868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22139883041382</t>
+    <t xml:space="preserve">7.11358880996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22139835357666</t>
   </si>
   <si>
     <t xml:space="preserve">7.40229940414429</t>
@@ -4226,10 +4226,10 @@
     <t xml:space="preserve">7.60329914093018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53020811080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70379972457886</t>
+    <t xml:space="preserve">7.53020858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7037992477417</t>
   </si>
   <si>
     <t xml:space="preserve">7.77506351470947</t>
@@ -4241,13 +4241,13 @@
     <t xml:space="preserve">8.07839202880859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01626396179199</t>
+    <t xml:space="preserve">8.01626491546631</t>
   </si>
   <si>
     <t xml:space="preserve">8.0582914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08204650878906</t>
+    <t xml:space="preserve">8.08204555511475</t>
   </si>
   <si>
     <t xml:space="preserve">8.04001903533936</t>
@@ -4262,7 +4262,7 @@
     <t xml:space="preserve">8.3872013092041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4383659362793</t>
+    <t xml:space="preserve">8.43836498260498</t>
   </si>
   <si>
     <t xml:space="preserve">8.54251956939697</t>
@@ -4271,7 +4271,7 @@
     <t xml:space="preserve">8.91162967681885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80564785003662</t>
+    <t xml:space="preserve">8.8056468963623</t>
   </si>
   <si>
     <t xml:space="preserve">8.86594867706299</t>
@@ -4283,16 +4283,16 @@
     <t xml:space="preserve">8.79285621643066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73255729675293</t>
+    <t xml:space="preserve">8.73255634307861</t>
   </si>
   <si>
     <t xml:space="preserve">8.77458381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73535346984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69425392150879</t>
+    <t xml:space="preserve">8.73535442352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69425487518311</t>
   </si>
   <si>
     <t xml:space="preserve">8.78392505645752</t>
@@ -4304,16 +4304,16 @@
     <t xml:space="preserve">8.82315540313721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72227668762207</t>
+    <t xml:space="preserve">8.72227764129639</t>
   </si>
   <si>
     <t xml:space="preserve">8.80073833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76711082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82689189910889</t>
+    <t xml:space="preserve">8.76711177825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82689094543457</t>
   </si>
   <si>
     <t xml:space="preserve">8.80447387695312</t>
@@ -4322,7 +4322,7 @@
     <t xml:space="preserve">8.72974872589111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83623218536377</t>
+    <t xml:space="preserve">8.83623313903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.67744159698486</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">8.75963973999023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86612129211426</t>
+    <t xml:space="preserve">8.86612224578857</t>
   </si>
   <si>
     <t xml:space="preserve">8.86799049377441</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">8.61205768585205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62326717376709</t>
+    <t xml:space="preserve">8.62326622009277</t>
   </si>
   <si>
     <t xml:space="preserve">8.54480457305908</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">9.00996780395508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88480377197266</t>
+    <t xml:space="preserve">8.88480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">8.97260570526123</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">8.95579242706299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0604076385498</t>
+    <t xml:space="preserve">9.06040668487549</t>
   </si>
   <si>
     <t xml:space="preserve">8.98194599151611</t>
@@ -4397,19 +4397,19 @@
     <t xml:space="preserve">9.06414413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08842945098877</t>
+    <t xml:space="preserve">9.08842849731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.1388692855835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08095645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12205505371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9221658706665</t>
+    <t xml:space="preserve">9.08095741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12205600738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92216682434082</t>
   </si>
   <si>
     <t xml:space="preserve">8.95018768310547</t>
@@ -4418,13 +4418,13 @@
     <t xml:space="preserve">8.99315547943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00249576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13139533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10150623321533</t>
+    <t xml:space="preserve">9.00249481201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13139629364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10150718688965</t>
   </si>
   <si>
     <t xml:space="preserve">9.14073657989502</t>
@@ -4448,7 +4448,7 @@
     <t xml:space="preserve">9.58348274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3873291015625</t>
+    <t xml:space="preserve">9.38733005523682</t>
   </si>
   <si>
     <t xml:space="preserve">9.52276802062988</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">9.47139549255371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55546092987061</t>
+    <t xml:space="preserve">9.55545997619629</t>
   </si>
   <si>
     <t xml:space="preserve">9.55079078674316</t>
@@ -4469,34 +4469,34 @@
     <t xml:space="preserve">9.32007598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20612144470215</t>
+    <t xml:space="preserve">9.20612049102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.33689022064209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52743911743164</t>
+    <t xml:space="preserve">9.52743816375732</t>
   </si>
   <si>
     <t xml:space="preserve">9.38265895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3779878616333</t>
+    <t xml:space="preserve">9.37798881530762</t>
   </si>
   <si>
     <t xml:space="preserve">9.46205425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63485622406006</t>
+    <t xml:space="preserve">9.63485527038574</t>
   </si>
   <si>
     <t xml:space="preserve">9.57414150238037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54612064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48073577880859</t>
+    <t xml:space="preserve">9.54611968994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48073482513428</t>
   </si>
   <si>
     <t xml:space="preserve">9.32941722869873</t>
@@ -4508,13 +4508,13 @@
     <t xml:space="preserve">9.09403419494629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65502452850342</t>
+    <t xml:space="preserve">8.6550235748291</t>
   </si>
   <si>
     <t xml:space="preserve">8.41777229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50557327270508</t>
+    <t xml:space="preserve">8.50557422637939</t>
   </si>
   <si>
     <t xml:space="preserve">8.79513359069824</t>
@@ -4523,7 +4523,7 @@
     <t xml:space="preserve">8.73722171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75403499603271</t>
+    <t xml:space="preserve">8.7540340423584</t>
   </si>
   <si>
     <t xml:space="preserve">8.58963966369629</t>
@@ -4556,13 +4556,13 @@
     <t xml:space="preserve">8.91469383239746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78018760681152</t>
+    <t xml:space="preserve">8.78018856048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.83996772766113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93337535858154</t>
+    <t xml:space="preserve">8.93337440490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.84557342529297</t>
@@ -4574,7 +4574,7 @@
     <t xml:space="preserve">8.86238574981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7970027923584</t>
+    <t xml:space="preserve">8.79700183868408</t>
   </si>
   <si>
     <t xml:space="preserve">8.89601230621338</t>
@@ -4592,7 +4592,7 @@
     <t xml:space="preserve">8.85117721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89414405822754</t>
+    <t xml:space="preserve">8.89414501190186</t>
   </si>
   <si>
     <t xml:space="preserve">8.98755073547363</t>
@@ -4613,13 +4613,13 @@
     <t xml:space="preserve">9.04919815063477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01930904388428</t>
+    <t xml:space="preserve">9.01930809020996</t>
   </si>
   <si>
     <t xml:space="preserve">9.27524185180664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24908924102783</t>
+    <t xml:space="preserve">9.24908828735352</t>
   </si>
   <si>
     <t xml:space="preserve">9.03985786437988</t>
@@ -4628,25 +4628,25 @@
     <t xml:space="preserve">9.1500768661499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12579250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05667114257812</t>
+    <t xml:space="preserve">9.12579154968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05667209625244</t>
   </si>
   <si>
     <t xml:space="preserve">9.11645126342773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34062671661377</t>
+    <t xml:space="preserve">9.34062576293945</t>
   </si>
   <si>
     <t xml:space="preserve">9.2528247833252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28645038604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31820774078369</t>
+    <t xml:space="preserve">9.28645133972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31820869445801</t>
   </si>
   <si>
     <t xml:space="preserve">9.25095653533936</t>
@@ -4655,13 +4655,13 @@
     <t xml:space="preserve">9.33128547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35930728912354</t>
+    <t xml:space="preserve">9.35930824279785</t>
   </si>
   <si>
     <t xml:space="preserve">9.42936229705811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40134048461914</t>
+    <t xml:space="preserve">9.40133953094482</t>
   </si>
   <si>
     <t xml:space="preserve">9.42316436767578</t>
@@ -5286,6 +5286,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.4250001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6199998855591</t>
   </si>
 </sst>
 </file>
@@ -61631,7 +61634,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6494675926</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>1918170</v>
@@ -61652,6 +61655,32 @@
         <v>1757</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6493518519</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>9199583</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>12.6499996185303</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>12.4499998092651</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>12.4499998092651</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>12.6199998855591</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="1760">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,118 +38,118 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3645544052124</t>
+    <t xml:space="preserve">4.36455535888672</t>
   </si>
   <si>
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51181554794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44288539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41781902313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37708759307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3363561630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43975114822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49301624298096</t>
+    <t xml:space="preserve">4.51181507110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44288492202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41781854629517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37708711624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33635568618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43975210189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49301528930664</t>
   </si>
   <si>
     <t xml:space="preserve">4.46795034408569</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41155242919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27995872497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19849491119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96663761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1201639175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17342901229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08570003509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20476102828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25802564620972</t>
+    <t xml:space="preserve">4.41155290603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27995777130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19849443435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96663784980774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12016439437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17342853546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0856990814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20476055145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25802612304688</t>
   </si>
   <si>
     <t xml:space="preserve">4.17029571533203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27682495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16089630126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.073166847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94783854484558</t>
+    <t xml:space="preserve">4.27682447433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16089677810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07316589355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94783878326416</t>
   </si>
   <si>
     <t xml:space="preserve">3.75044655799866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35879564285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23973417282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54365539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39012718200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40266132354736</t>
+    <t xml:space="preserve">3.3587954044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23973345756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54365515708923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39012813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40266013145447</t>
   </si>
   <si>
     <t xml:space="preserve">3.50605630874634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49039030075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63138437271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61571860313416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69404911994934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82564306259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74104619026184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70344877243042</t>
+    <t xml:space="preserve">3.49038982391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6313841342926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61571884155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69404864311218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82564282417297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74104595184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70344829559326</t>
   </si>
   <si>
     <t xml:space="preserve">3.80997681617737</t>
@@ -158,121 +158,121 @@
     <t xml:space="preserve">3.86324214935303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92903804779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89457392692566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86010885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.885174036026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8413097858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86637544631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83817625045776</t>
+    <t xml:space="preserve">3.92903900146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89457368850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86010813713074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88517427444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84130954742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86637449264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83817648887634</t>
   </si>
   <si>
     <t xml:space="preserve">4.03870105743408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06689929962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06376695632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03243541717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01050186157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02616834640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10449743270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24236011505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22355985641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15149736404419</t>
+    <t xml:space="preserve">4.0669002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0637674331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03243494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01050233840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02616739273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10449838638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24235916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22356033325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15149641036987</t>
   </si>
   <si>
     <t xml:space="preserve">4.2298264503479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16716241836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.110764503479</t>
+    <t xml:space="preserve">4.16716289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11076498031616</t>
   </si>
   <si>
     <t xml:space="preserve">4.04183435440063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92590475082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98857045173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00736951828003</t>
+    <t xml:space="preserve">3.92590522766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98856949806213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00736904144287</t>
   </si>
   <si>
     <t xml:space="preserve">4.02930212020874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0481014251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13583087921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06063365936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05750036239624</t>
+    <t xml:space="preserve">4.04810094833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13583040237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06063318252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0575008392334</t>
   </si>
   <si>
     <t xml:space="preserve">4.08883285522461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05436754226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10763120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1138973236084</t>
+    <t xml:space="preserve">4.05436706542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10763168334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11389875411987</t>
   </si>
   <si>
     <t xml:space="preserve">4.18596172332764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23922634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24862575531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17969512939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11703109741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2110276222229</t>
+    <t xml:space="preserve">4.2392258644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24862623214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17969560623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11703157424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21102809906006</t>
   </si>
   <si>
     <t xml:space="preserve">4.24549293518066</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">4.22042751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2016282081604</t>
+    <t xml:space="preserve">4.20162725448608</t>
   </si>
   <si>
     <t xml:space="preserve">4.23296022415161</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">4.12329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23609399795532</t>
+    <t xml:space="preserve">4.23609304428101</t>
   </si>
   <si>
     <t xml:space="preserve">4.18909502029419</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">4.28309154510498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28935670852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25489187240601</t>
+    <t xml:space="preserve">4.28935718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25489282608032</t>
   </si>
   <si>
     <t xml:space="preserve">4.31442308425903</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">4.31128978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32382297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29875659942627</t>
+    <t xml:space="preserve">4.32382249832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29875707626343</t>
   </si>
   <si>
     <t xml:space="preserve">4.30815696716309</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">4.38648748397827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39588594436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29249048233032</t>
+    <t xml:space="preserve">4.39588642120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29249095916748</t>
   </si>
   <si>
     <t xml:space="preserve">4.22669363021851</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">4.20789432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33322286605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43207979202271</t>
+    <t xml:space="preserve">4.33322238922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43207883834839</t>
   </si>
   <si>
     <t xml:space="preserve">4.37606000900269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36617469787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.415602684021</t>
+    <t xml:space="preserve">4.36617422103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41560363769531</t>
   </si>
   <si>
     <t xml:space="preserve">4.06630945205688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82575798034668</t>
+    <t xml:space="preserve">3.82575702667236</t>
   </si>
   <si>
     <t xml:space="preserve">3.92790961265564</t>
@@ -362,19 +362,19 @@
     <t xml:space="preserve">3.92131876945496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03006076812744</t>
+    <t xml:space="preserve">4.03006172180176</t>
   </si>
   <si>
     <t xml:space="preserve">3.94109034538269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84223365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79939532279968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76973819732666</t>
+    <t xml:space="preserve">3.84223341941833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79939556121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76973843574524</t>
   </si>
   <si>
     <t xml:space="preserve">3.91143393516541</t>
@@ -383,58 +383,58 @@
     <t xml:space="preserve">4.08937549591064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07949018478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17505216598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10255670547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10585165023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08278560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14539432525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13221263885498</t>
+    <t xml:space="preserve">4.07948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17505168914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1025562286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10585117340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08278608322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14539480209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1322135925293</t>
   </si>
   <si>
     <t xml:space="preserve">4.08608055114746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07619428634644</t>
+    <t xml:space="preserve">4.07619476318359</t>
   </si>
   <si>
     <t xml:space="preserve">4.02676630020142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00699472427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94438552856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25084161758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22777557373047</t>
+    <t xml:space="preserve">4.006995677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94438600540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25084209442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22777462005615</t>
   </si>
   <si>
     <t xml:space="preserve">4.25743246078491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26402235031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32333612442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33651733398438</t>
+    <t xml:space="preserve">4.26402187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32333660125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33651781082153</t>
   </si>
   <si>
     <t xml:space="preserve">4.24754667282104</t>
@@ -443,19 +443,19 @@
     <t xml:space="preserve">4.16187047958374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20470905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09926080703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1157374382019</t>
+    <t xml:space="preserve">4.20470857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09926176071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11573696136475</t>
   </si>
   <si>
     <t xml:space="preserve">4.18493700027466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13880491256714</t>
+    <t xml:space="preserve">4.13880443572998</t>
   </si>
   <si>
     <t xml:space="preserve">4.09267139434814</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">4.05312824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12891864776611</t>
+    <t xml:space="preserve">4.12891817092896</t>
   </si>
   <si>
     <t xml:space="preserve">4.11903238296509</t>
@@ -476,46 +476,46 @@
     <t xml:space="preserve">4.14209890365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15528011322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22118473052979</t>
+    <t xml:space="preserve">4.15528059005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22118520736694</t>
   </si>
   <si>
     <t xml:space="preserve">4.20800399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98392939567566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04324245452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03994703292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00370025634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02347135543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0333571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01029014587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00040483474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99381446838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97733783721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98063373565674</t>
+    <t xml:space="preserve">3.98392820358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04324293136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03994750976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0036997795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02347183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03335666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01028966903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.000403881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99381399154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97733759880066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98063349723816</t>
   </si>
   <si>
     <t xml:space="preserve">3.91472864151001</t>
@@ -524,88 +524,88 @@
     <t xml:space="preserve">3.96415710449219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98722434043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93120527267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99710941314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07289981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04983377456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9246141910553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90154790878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93449974060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97074770927429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96086168289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94768142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93779492378235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88836669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84552955627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76314806938171</t>
+    <t xml:space="preserve">3.98722410202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93120503425598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99710988998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07289934158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04983329772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92461466789246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90154838562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93450093269348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97074723243713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.960862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94768071174622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93779540061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88836765289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84552907943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76314878463745</t>
   </si>
   <si>
     <t xml:space="preserve">3.7236053943634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71701455116272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71042394638062</t>
+    <t xml:space="preserve">3.71701502799988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71042442321777</t>
   </si>
   <si>
     <t xml:space="preserve">3.70053863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65111112594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79610180854797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86530041694641</t>
+    <t xml:space="preserve">3.65111017227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79610109329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86529994010925</t>
   </si>
   <si>
     <t xml:space="preserve">3.86859512329102</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85870981216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17175626754761</t>
+    <t xml:space="preserve">3.85871028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17175674438477</t>
   </si>
   <si>
     <t xml:space="preserve">4.18823289871216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17834615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16846036911011</t>
+    <t xml:space="preserve">4.17834711074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16846084594727</t>
   </si>
   <si>
     <t xml:space="preserve">4.22448015213013</t>
@@ -614,139 +614,139 @@
     <t xml:space="preserve">4.18164205551147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2178897857666</t>
+    <t xml:space="preserve">4.21788930892944</t>
   </si>
   <si>
     <t xml:space="preserve">4.23766088485718</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21129989624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15198516845703</t>
+    <t xml:space="preserve">4.21129941940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15198469161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.06301403045654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02017593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99051904678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01688146591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85541439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83234810829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85211968421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9542715549469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95097589492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01358556747437</t>
+    <t xml:space="preserve">4.02017641067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99051928520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01688003540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85541534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83234858512878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85211873054504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95427131652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95097684860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01358604431152</t>
   </si>
   <si>
     <t xml:space="preserve">4.13550901412964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26731777191162</t>
+    <t xml:space="preserve">4.26731824874878</t>
   </si>
   <si>
     <t xml:space="preserve">4.25413656234741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24425172805786</t>
+    <t xml:space="preserve">4.24425029754639</t>
   </si>
   <si>
     <t xml:space="preserve">4.20141315460205</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28049898147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24095582962036</t>
+    <t xml:space="preserve">4.28049850463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24095678329468</t>
   </si>
   <si>
     <t xml:space="preserve">4.10914754867554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14868927001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19152784347534</t>
+    <t xml:space="preserve">4.14868974685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19152736663818</t>
   </si>
   <si>
     <t xml:space="preserve">4.21459436416626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12232780456543</t>
+    <t xml:space="preserve">4.12232828140259</t>
   </si>
   <si>
     <t xml:space="preserve">4.19482326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28379392623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29697561264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15857553482056</t>
+    <t xml:space="preserve">4.28379440307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29697465896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1585750579834</t>
   </si>
   <si>
     <t xml:space="preserve">4.12562370300293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26072835922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27061223983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23555040359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24957609176636</t>
+    <t xml:space="preserve">4.26072692871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2706127166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23555088043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2495756149292</t>
   </si>
   <si>
     <t xml:space="preserve">4.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20048761367798</t>
+    <t xml:space="preserve">4.20048809051514</t>
   </si>
   <si>
     <t xml:space="preserve">4.20750045776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2215256690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17945003509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2706127166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2320442199707</t>
+    <t xml:space="preserve">4.22152614593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17945098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27061367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23204374313354</t>
   </si>
   <si>
     <t xml:space="preserve">4.20399475097656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2110071182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18646335601807</t>
+    <t xml:space="preserve">4.21100664138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18646383285522</t>
   </si>
   <si>
     <t xml:space="preserve">4.16893243789673</t>
@@ -755,58 +755,58 @@
     <t xml:space="preserve">4.24256324768066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25308275222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29515695571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27411937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25658845901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24606943130493</t>
+    <t xml:space="preserve">4.25308227539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29515647888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27411842346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25658798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24606990814209</t>
   </si>
   <si>
     <t xml:space="preserve">4.1934757232666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18295764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22503232955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37580108642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38982534408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41086387634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35125732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36177635192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36528205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40735673904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28463840484619</t>
+    <t xml:space="preserve">4.1829571723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22503185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37580013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38982629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41086339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35125637054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36177539825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36528158187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40735721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28463792800903</t>
   </si>
   <si>
     <t xml:space="preserve">4.29866361618042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35826873779297</t>
+    <t xml:space="preserve">4.35826921463013</t>
   </si>
   <si>
     <t xml:space="preserve">4.36878776550293</t>
@@ -818,49 +818,49 @@
     <t xml:space="preserve">4.29165077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28113174438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30918169021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26710748672485</t>
+    <t xml:space="preserve">4.28113269805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30918264389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26710653305054</t>
   </si>
   <si>
     <t xml:space="preserve">4.31619453430176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38281345367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35476398468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34424495697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34775066375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31970119476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33723115921021</t>
+    <t xml:space="preserve">4.38281297683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35476350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34424543380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34775114059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31970071792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33723211288452</t>
   </si>
   <si>
     <t xml:space="preserve">4.30567598342896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33021974563599</t>
+    <t xml:space="preserve">4.33021926879883</t>
   </si>
   <si>
     <t xml:space="preserve">4.39333152770996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32320642471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40034484863281</t>
+    <t xml:space="preserve">4.32320690155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40034437179565</t>
   </si>
   <si>
     <t xml:space="preserve">4.41436910629272</t>
@@ -869,85 +869,85 @@
     <t xml:space="preserve">4.39683818817139</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40385055541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38631868362427</t>
+    <t xml:space="preserve">4.40385103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38631963729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.30216979980469</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2881441116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2776255607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46345710754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49501323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46696329116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45293855667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43891334533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45644426345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49150657653809</t>
+    <t xml:space="preserve">4.28814506530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27762651443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4634575843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49501371383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46696376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45293807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43891382217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45644474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47046899795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49150705337524</t>
   </si>
   <si>
     <t xml:space="preserve">4.50903844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52306413650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53708744049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51605081558228</t>
+    <t xml:space="preserve">4.52306318283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53708791732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51604986190796</t>
   </si>
   <si>
     <t xml:space="preserve">4.55111312866211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5861759185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58266878128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6142258644104</t>
+    <t xml:space="preserve">4.58617544174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58266925811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61422634124756</t>
   </si>
   <si>
     <t xml:space="preserve">4.71590709686279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71240091323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69486999511719</t>
+    <t xml:space="preserve">4.71239995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69486951828003</t>
   </si>
   <si>
     <t xml:space="preserve">4.66331338882446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68084526062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69136333465576</t>
+    <t xml:space="preserve">4.68084478378296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6913628578186</t>
   </si>
   <si>
     <t xml:space="preserve">4.66471576690674</t>
@@ -956,25 +956,25 @@
     <t xml:space="preserve">4.64508056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67313098907471</t>
+    <t xml:space="preserve">4.67313051223755</t>
   </si>
   <si>
     <t xml:space="preserve">4.61703109741211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6268482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48800039291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60721349716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5202579498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51324510574341</t>
+    <t xml:space="preserve">4.62684869766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48800086975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60721302032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52025842666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51324558258057</t>
   </si>
   <si>
     <t xml:space="preserve">4.53288078308105</t>
@@ -983,52 +983,52 @@
     <t xml:space="preserve">4.57776021957397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61562824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66752099990845</t>
+    <t xml:space="preserve">4.61562871932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66752052307129</t>
   </si>
   <si>
     <t xml:space="preserve">4.67453289031982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75447559356689</t>
+    <t xml:space="preserve">4.75447607040405</t>
   </si>
   <si>
     <t xml:space="preserve">4.74045038223267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70258378982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70679092407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66611814498901</t>
+    <t xml:space="preserve">4.70258283615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70679044723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66611862182617</t>
   </si>
   <si>
     <t xml:space="preserve">4.93680095672607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95222854614258</t>
+    <t xml:space="preserve">4.95222806930542</t>
   </si>
   <si>
     <t xml:space="preserve">4.92137336730957</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81478357315063</t>
+    <t xml:space="preserve">4.81478261947632</t>
   </si>
   <si>
     <t xml:space="preserve">4.84563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88631105422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01534080505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14296817779541</t>
+    <t xml:space="preserve">4.88630962371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01534128189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14296865463257</t>
   </si>
   <si>
     <t xml:space="preserve">5.11632061004639</t>
@@ -1037,34 +1037,34 @@
     <t xml:space="preserve">5.20327615737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09107542037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02515840530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10510063171387</t>
+    <t xml:space="preserve">5.09107637405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0251579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10510158538818</t>
   </si>
   <si>
     <t xml:space="preserve">5.1850438117981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14577341079712</t>
+    <t xml:space="preserve">5.14577293395996</t>
   </si>
   <si>
     <t xml:space="preserve">5.18083620071411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17101812362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12333345413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08125734329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0630259513855</t>
+    <t xml:space="preserve">5.17101860046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12333393096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08125829696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06302642822266</t>
   </si>
   <si>
     <t xml:space="preserve">5.07985591888428</t>
@@ -1073,31 +1073,31 @@
     <t xml:space="preserve">5.15839529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16821336746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20748376846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29443788528442</t>
+    <t xml:space="preserve">5.16821384429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20748329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29443883895874</t>
   </si>
   <si>
     <t xml:space="preserve">5.28882837295532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32950115203857</t>
+    <t xml:space="preserve">5.32950019836426</t>
   </si>
   <si>
     <t xml:space="preserve">5.38840579986572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37999057769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3841986656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38139343261719</t>
+    <t xml:space="preserve">5.37999105453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38419818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38139295578003</t>
   </si>
   <si>
     <t xml:space="preserve">5.41365098953247</t>
@@ -1112,40 +1112,40 @@
     <t xml:space="preserve">5.44029808044434</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51883888244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52444791793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54829025268555</t>
+    <t xml:space="preserve">5.51883840560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52444744110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54829120635986</t>
   </si>
   <si>
     <t xml:space="preserve">5.55951118469238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59036588668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68433332443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66890525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65908765792847</t>
+    <t xml:space="preserve">5.59036636352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68433380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66890573501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65908813476562</t>
   </si>
   <si>
     <t xml:space="preserve">5.71799325942993</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69134616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66469955444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71518802642822</t>
+    <t xml:space="preserve">5.69134569168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66469812393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71518850326538</t>
   </si>
   <si>
     <t xml:space="preserve">5.76287364959717</t>
@@ -1154,28 +1154,28 @@
     <t xml:space="preserve">5.54688835144043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53426647186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3435263633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35474634170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39822292327881</t>
+    <t xml:space="preserve">5.53426551818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34352588653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35474538803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39822340011597</t>
   </si>
   <si>
     <t xml:space="preserve">5.37157583236694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40383291244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32108497619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14998006820679</t>
+    <t xml:space="preserve">5.40383386611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32108545303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14998054504395</t>
   </si>
   <si>
     <t xml:space="preserve">4.91856861114502</t>
@@ -1184,151 +1184,151 @@
     <t xml:space="preserve">5.12473630905151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13595628738403</t>
+    <t xml:space="preserve">5.13595581054688</t>
   </si>
   <si>
     <t xml:space="preserve">5.23833799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26779127120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1289439201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12613821029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10650300979614</t>
+    <t xml:space="preserve">5.26779079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12894344329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12613916397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10650396347046</t>
   </si>
   <si>
     <t xml:space="preserve">4.96765613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15979814529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25797319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35755109786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4837760925293</t>
+    <t xml:space="preserve">5.15979909896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25797367095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35755014419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48377561569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35053825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43365383148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4885687828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5137996673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44552659988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45146417617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38022232055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40545320510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32827520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32085418701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37428569793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3876428604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51528453826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55832624435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61027240753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55090522766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6325364112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61917877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70080900192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76017665863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79134511947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7245569229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73939847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72158861160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73197746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82548236846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85071277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87594509124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91156625747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90265989303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58355808258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52715730667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5093469619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44255924224854</t>
   </si>
   <si>
     <t xml:space="preserve">5.35053873062134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43365335464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4885687828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5137996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44552659988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45146417617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38022232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4054536819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32827520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32085371017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37428522109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3876428604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51528358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55832576751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61027336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55090522766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63253593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61917877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70080947875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76017713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79134511947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7245569229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73939800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72158765792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7319769859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82548189163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85071277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87594509124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91156530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90265989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58355712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5271577835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50934743881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44255828857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35053777694702</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.27187585830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24961280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.304527759552</t>
+    <t xml:space="preserve">5.24961233139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30452871322632</t>
   </si>
   <si>
     <t xml:space="preserve">5.14720249176025</t>
@@ -1337,40 +1337,40 @@
     <t xml:space="preserve">5.08338212966919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00323534011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16204404830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06111907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04182481765747</t>
+    <t xml:space="preserve">5.00323486328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16204500198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06112003326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04182434082031</t>
   </si>
   <si>
     <t xml:space="preserve">5.03291940689087</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0136251449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03588771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97058391571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9216046333313</t>
+    <t xml:space="preserve">5.01362419128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03588724136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97058248519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92160511016846</t>
   </si>
   <si>
     <t xml:space="preserve">5.00471973419189</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13681316375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23625516891479</t>
+    <t xml:space="preserve">5.13681268692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23625564575195</t>
   </si>
   <si>
     <t xml:space="preserve">5.20360279083252</t>
@@ -1379,34 +1379,34 @@
     <t xml:space="preserve">5.22438144683838</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34460067749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31640195846558</t>
+    <t xml:space="preserve">5.34460210800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31640148162842</t>
   </si>
   <si>
     <t xml:space="preserve">5.23328685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09970903396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12939214706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17837047576904</t>
+    <t xml:space="preserve">5.09970855712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12939262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17837142944336</t>
   </si>
   <si>
     <t xml:space="preserve">5.15313959121704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1397819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20953989028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2525806427002</t>
+    <t xml:space="preserve">5.13978147506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20953893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25258111953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.27781248092651</t>
@@ -1418,46 +1418,46 @@
     <t xml:space="preserve">5.37131690979004</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33569622039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10712957382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05221557617188</t>
+    <t xml:space="preserve">5.33569669723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10712909698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05221366882324</t>
   </si>
   <si>
     <t xml:space="preserve">4.96167802810669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97206687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97652006149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89785766601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71678495407104</t>
+    <t xml:space="preserve">4.97206783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97651958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89785718917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7167854309082</t>
   </si>
   <si>
     <t xml:space="preserve">4.74201631546021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78951168060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65741777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63663768768311</t>
+    <t xml:space="preserve">4.78951120376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65741682052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63663864135742</t>
   </si>
   <si>
     <t xml:space="preserve">4.65444898605347</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73162651062012</t>
+    <t xml:space="preserve">4.73162698745728</t>
   </si>
   <si>
     <t xml:space="preserve">4.67225885391235</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">4.54164981842041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65296459197998</t>
+    <t xml:space="preserve">4.65296506881714</t>
   </si>
   <si>
     <t xml:space="preserve">4.62773323059082</t>
@@ -1478,37 +1478,37 @@
     <t xml:space="preserve">4.4511137008667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54758596420288</t>
+    <t xml:space="preserve">4.54758644104004</t>
   </si>
   <si>
     <t xml:space="preserve">4.55203866958618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69600582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59211254119873</t>
+    <t xml:space="preserve">4.6960072517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59211206436157</t>
   </si>
   <si>
     <t xml:space="preserve">4.7123327255249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86223649978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9008264541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83255243301392</t>
+    <t xml:space="preserve">4.86223745346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90082597732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83255290985107</t>
   </si>
   <si>
     <t xml:space="preserve">4.80138444900513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96019411087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06408786773682</t>
+    <t xml:space="preserve">4.96019315719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06408739089966</t>
   </si>
   <si>
     <t xml:space="preserve">5.09822463989258</t>
@@ -1523,10 +1523,10 @@
     <t xml:space="preserve">4.94831991195679</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82364797592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83552074432373</t>
+    <t xml:space="preserve">4.82364702224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83552122116089</t>
   </si>
   <si>
     <t xml:space="preserve">4.86372041702271</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">4.73014307022095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88598394393921</t>
+    <t xml:space="preserve">4.88598442077637</t>
   </si>
   <si>
     <t xml:space="preserve">4.86075210571289</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">5.07596158981323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04924583435059</t>
+    <t xml:space="preserve">5.04924535751343</t>
   </si>
   <si>
     <t xml:space="preserve">4.97355127334595</t>
@@ -1556,58 +1556,58 @@
     <t xml:space="preserve">5.09525632858276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05518198013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12197160720825</t>
+    <t xml:space="preserve">5.05518293380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12197113037109</t>
   </si>
   <si>
     <t xml:space="preserve">4.85184764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87559509277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81919431686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86668920516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06260395050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14275026321411</t>
+    <t xml:space="preserve">4.87559461593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81919479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86668872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06260251998901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14274978637695</t>
   </si>
   <si>
     <t xml:space="preserve">5.11751890182495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11009836196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27484369277954</t>
+    <t xml:space="preserve">5.11009740829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2748441696167</t>
   </si>
   <si>
     <t xml:space="preserve">5.20211791992188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12642431259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07002449035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18282413482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17243337631226</t>
+    <t xml:space="preserve">5.12642383575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07002401351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1828236579895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17243432998657</t>
   </si>
   <si>
     <t xml:space="preserve">5.19321298599243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25703382492065</t>
+    <t xml:space="preserve">5.25703430175781</t>
   </si>
   <si>
     <t xml:space="preserve">5.22141313552856</t>
@@ -1616,43 +1616,43 @@
     <t xml:space="preserve">5.27335977554321</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34311628341675</t>
+    <t xml:space="preserve">5.34311723709106</t>
   </si>
   <si>
     <t xml:space="preserve">5.35647487640381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38170719146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35795927047729</t>
+    <t xml:space="preserve">5.38170623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35795974731445</t>
   </si>
   <si>
     <t xml:space="preserve">5.45740032196045</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49153661727905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62956762313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63995742797852</t>
+    <t xml:space="preserve">5.49153709411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62956809997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63995695114136</t>
   </si>
   <si>
     <t xml:space="preserve">5.58652591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63847255706787</t>
+    <t xml:space="preserve">5.63847303390503</t>
   </si>
   <si>
     <t xml:space="preserve">5.65183067321777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70823001861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68299865722656</t>
+    <t xml:space="preserve">5.70823049545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68299913406372</t>
   </si>
   <si>
     <t xml:space="preserve">5.69190406799316</t>
@@ -1661,55 +1661,55 @@
     <t xml:space="preserve">5.57613658905029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45294809341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58058977127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67260885238647</t>
+    <t xml:space="preserve">5.45294857025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58058881759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67260980606079</t>
   </si>
   <si>
     <t xml:space="preserve">5.70377731323242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53160953521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54942083358765</t>
+    <t xml:space="preserve">5.5316104888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5494213104248</t>
   </si>
   <si>
     <t xml:space="preserve">5.61620950698853</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69932508468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75720882415771</t>
+    <t xml:space="preserve">5.69932460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75720834732056</t>
   </si>
   <si>
     <t xml:space="preserve">5.68893527984619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74830341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76908302307129</t>
+    <t xml:space="preserve">5.74830293655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76908254623413</t>
   </si>
   <si>
     <t xml:space="preserve">5.75127267837524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73494672775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77501916885376</t>
+    <t xml:space="preserve">5.73494625091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77501964569092</t>
   </si>
   <si>
     <t xml:space="preserve">5.79876613616943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86110210418701</t>
+    <t xml:space="preserve">5.86110305786133</t>
   </si>
   <si>
     <t xml:space="preserve">5.86258697509766</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">5.88930225372314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85664987564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88336610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89523887634277</t>
+    <t xml:space="preserve">5.85664939880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88336563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89523839950562</t>
   </si>
   <si>
     <t xml:space="preserve">5.89820766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79728221893311</t>
+    <t xml:space="preserve">5.79728174209595</t>
   </si>
   <si>
     <t xml:space="preserve">5.86407136917114</t>
@@ -1748,16 +1748,16 @@
     <t xml:space="preserve">5.93086004257202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99616479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04811143875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20395231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26331996917725</t>
+    <t xml:space="preserve">5.99616384506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04811191558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20395278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2633204460144</t>
   </si>
   <si>
     <t xml:space="preserve">6.41025590896606</t>
@@ -1766,76 +1766,76 @@
     <t xml:space="preserve">6.35237312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37463521957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39986705780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40135097503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37908840179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43548774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41916084289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43845558166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.490403175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48595094680786</t>
+    <t xml:space="preserve">6.37463617324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39986753463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40135192871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37908887863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43548822402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41916179656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4384560585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49040365219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48594999313354</t>
   </si>
   <si>
     <t xml:space="preserve">6.51118278503418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62249708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64624452590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63585472106934</t>
+    <t xml:space="preserve">6.62249660491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64624404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63585519790649</t>
   </si>
   <si>
     <t xml:space="preserve">6.67147493362427</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65960121154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73084259033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68037986755371</t>
+    <t xml:space="preserve">6.65960168838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73084402084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68038034439087</t>
   </si>
   <si>
     <t xml:space="preserve">7.06182050704956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06478834152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02174615859985</t>
+    <t xml:space="preserve">7.06479024887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02174758911133</t>
   </si>
   <si>
     <t xml:space="preserve">6.87332725524902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84512710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86590480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644235610962</t>
+    <t xml:space="preserve">6.84512662887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86590671539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9564414024353</t>
   </si>
   <si>
     <t xml:space="preserve">7.05736780166626</t>
@@ -1844,22 +1844,22 @@
     <t xml:space="preserve">7.00542020797729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93714714050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98909425735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76794815063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68483304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6788969039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60171794891357</t>
+    <t xml:space="preserve">6.93714666366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98909473419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76794910430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68483352661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67889642715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60171842575073</t>
   </si>
   <si>
     <t xml:space="preserve">6.8050537109375</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">6.76201248168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84957933425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69670724868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75607490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79911518096924</t>
+    <t xml:space="preserve">6.84957981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6967077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75607538223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79911661148071</t>
   </si>
   <si>
     <t xml:space="preserve">6.5067286491394</t>
@@ -1886,106 +1886,106 @@
     <t xml:space="preserve">6.61952877044678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60320281982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55125522613525</t>
+    <t xml:space="preserve">6.6032018661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55125570297241</t>
   </si>
   <si>
     <t xml:space="preserve">6.51711797714233</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4562668800354</t>
+    <t xml:space="preserve">6.45626544952393</t>
   </si>
   <si>
     <t xml:space="preserve">6.46962404251099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63436985015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58836030960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62398052215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75459003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81841135025024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106325149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87778043746948</t>
+    <t xml:space="preserve">6.63437032699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58836078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6239800453186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7545919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81841087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106420516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87777948379517</t>
   </si>
   <si>
     <t xml:space="preserve">6.84215879440308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89410591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9549560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06033563613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18562126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13581848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1062479019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11247301101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2058539390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19340419769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36615562438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54046678543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58715677261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55914115905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54824733734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51245260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58559989929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5108962059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51556491851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48288297653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4595365524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44397449493408</t>
+    <t xml:space="preserve">6.89410543441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95495748519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06033515930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.185622215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.135817527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10624885559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11247396469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20585441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19340372085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36615657806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54046630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58715724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55914211273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54824781417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51245307922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58560037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51089715957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51556539535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48288249969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45953750610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44397401809692</t>
   </si>
   <si>
     <t xml:space="preserve">7.31479692459106</t>
@@ -1994,49 +1994,49 @@
     <t xml:space="preserve">7.34748125076294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30079030990601</t>
+    <t xml:space="preserve">7.30078983306885</t>
   </si>
   <si>
     <t xml:space="preserve">7.37238216400146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31946659088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46109437942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26655054092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5171217918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59182643890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50311422348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38327550888062</t>
+    <t xml:space="preserve">7.31946611404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46109294891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26655101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51712226867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59182596206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50311470031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38327598571777</t>
   </si>
   <si>
     <t xml:space="preserve">7.37860774993896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50000143051147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99886131286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08134603500366</t>
+    <t xml:space="preserve">7.50000190734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99886035919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08134698867798</t>
   </si>
   <si>
     <t xml:space="preserve">7.24476289749146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11558628082275</t>
+    <t xml:space="preserve">7.1155858039856</t>
   </si>
   <si>
     <t xml:space="preserve">7.39261531829834</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">7.34125518798828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54669189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52023363113403</t>
+    <t xml:space="preserve">7.54669237136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52023506164551</t>
   </si>
   <si>
     <t xml:space="preserve">7.33036136627197</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">7.39105796813965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31324052810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65719223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60427761077881</t>
+    <t xml:space="preserve">7.31324100494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65719175338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60427665710449</t>
   </si>
   <si>
     <t xml:space="preserve">7.6852068901062</t>
@@ -2072,61 +2072,61 @@
     <t xml:space="preserve">7.70388221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85173559188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82060766220093</t>
+    <t xml:space="preserve">7.85173463821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82060861587524</t>
   </si>
   <si>
     <t xml:space="preserve">7.8400616645813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84395170211792</t>
+    <t xml:space="preserve">7.84395408630371</t>
   </si>
   <si>
     <t xml:space="preserve">7.71166372299194</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74279117584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87897109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92566204071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82839059829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76146650314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90620613098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92176866531372</t>
+    <t xml:space="preserve">7.74279165267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8789701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92566013336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82839012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76146697998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9062066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9217700958252</t>
   </si>
   <si>
     <t xml:space="preserve">7.83227968215942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9956955909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94900608062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94511461257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98402309417725</t>
+    <t xml:space="preserve">7.99569463729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9490065574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94511556625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98402261734009</t>
   </si>
   <si>
     <t xml:space="preserve">8.11631298065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00347709655762</t>
+    <t xml:space="preserve">8.00347805023193</t>
   </si>
   <si>
     <t xml:space="preserve">7.75368452072144</t>
@@ -2135,22 +2135,22 @@
     <t xml:space="preserve">7.77080535888672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76613521575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9879150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88286209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97624111175537</t>
+    <t xml:space="preserve">7.76613569259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98791360855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88286161422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97624206542969</t>
   </si>
   <si>
     <t xml:space="preserve">8.23303699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24470901489258</t>
+    <t xml:space="preserve">8.24471092224121</t>
   </si>
   <si>
     <t xml:space="preserve">8.3575439453125</t>
@@ -2159,25 +2159,25 @@
     <t xml:space="preserve">8.23692893981934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33030796051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3769998550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40423488616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50150585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52096080780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55208778381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45092487335205</t>
+    <t xml:space="preserve">8.33030891418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37699890136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40423583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50150680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52096176147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55208683013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45092391967773</t>
   </si>
   <si>
     <t xml:space="preserve">8.48983383178711</t>
@@ -2186,10 +2186,10 @@
     <t xml:space="preserve">8.47426986694336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4664888381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58321475982666</t>
+    <t xml:space="preserve">8.46648788452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58321380615234</t>
   </si>
   <si>
     <t xml:space="preserve">8.63379573822021</t>
@@ -2198,178 +2198,178 @@
     <t xml:space="preserve">8.69215774536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5559778213501</t>
+    <t xml:space="preserve">8.55597877502441</t>
   </si>
   <si>
     <t xml:space="preserve">8.43536186218262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53652381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71939563751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64935779571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66881275177002</t>
+    <t xml:space="preserve">8.53652477264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71939373016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64935874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6688117980957</t>
   </si>
   <si>
     <t xml:space="preserve">8.68437576293945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73093128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58101081848145</t>
+    <t xml:space="preserve">8.73093032836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58100986480713</t>
   </si>
   <si>
     <t xml:space="preserve">8.65991592407227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55339431762695</t>
+    <t xml:space="preserve">8.55339241027832</t>
   </si>
   <si>
     <t xml:space="preserve">8.62440872192383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64807891845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56917381286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51394081115723</t>
+    <t xml:space="preserve">8.64808082580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56917285919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51393985748291</t>
   </si>
   <si>
     <t xml:space="preserve">8.39163494110107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35612773895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08390235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17069816589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2772216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1273021697998</t>
+    <t xml:space="preserve">8.35612964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08390331268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17070007324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27722263336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12730121612549</t>
   </si>
   <si>
     <t xml:space="preserve">8.13913726806641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03656005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15097427368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06023120880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19437026977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02472496032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09573936462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02077770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12335777282715</t>
+    <t xml:space="preserve">8.03655910491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15097236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06023216247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19437313079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02472305297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09573841094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02077865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12335681915283</t>
   </si>
   <si>
     <t xml:space="preserve">8.22987937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98527193069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04444885253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94187259674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87322473526001</t>
+    <t xml:space="preserve">7.98527002334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04444980621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94187211990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87322425842285</t>
   </si>
   <si>
     <t xml:space="preserve">8.07601261138916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96554517745972</t>
+    <t xml:space="preserve">7.96554470062256</t>
   </si>
   <si>
     <t xml:space="preserve">8.09179306030273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0562858581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00894069671631</t>
+    <t xml:space="preserve">8.05628681182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00894165039062</t>
   </si>
   <si>
     <t xml:space="preserve">7.93792819976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92609024047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11546516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19042491912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21409893035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10757541656494</t>
+    <t xml:space="preserve">7.92609167098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11546611785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19042587280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21409702301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10757350921631</t>
   </si>
   <si>
     <t xml:space="preserve">8.35218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74276733398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67569637298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1667537689209</t>
+    <t xml:space="preserve">8.74276638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67569732666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16675567626953</t>
   </si>
   <si>
     <t xml:space="preserve">8.28905963897705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44686889648438</t>
+    <t xml:space="preserve">8.44686985015869</t>
   </si>
   <si>
     <t xml:space="preserve">8.4626522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51788520812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60468196868896</t>
+    <t xml:space="preserve">8.5178861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60468101501465</t>
   </si>
   <si>
     <t xml:space="preserve">8.70725917816162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66386032104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6401891708374</t>
+    <t xml:space="preserve">8.66386127471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64019012451172</t>
   </si>
   <si>
     <t xml:space="preserve">8.6283540725708</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">8.94792175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08206367492676</t>
+    <t xml:space="preserve">9.08206272125244</t>
   </si>
   <si>
     <t xml:space="preserve">8.9045238494873</t>
@@ -2390,34 +2390,34 @@
     <t xml:space="preserve">8.28116798400879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15491771697998</t>
+    <t xml:space="preserve">8.15491962432861</t>
   </si>
   <si>
     <t xml:space="preserve">8.31667613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9576530456543</t>
+    <t xml:space="preserve">7.95765352249146</t>
   </si>
   <si>
     <t xml:space="preserve">7.58600854873657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30825901031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59074115753174</t>
+    <t xml:space="preserve">7.3082594871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5907416343689</t>
   </si>
   <si>
     <t xml:space="preserve">7.64439821243286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44239854812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67122507095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67385625839233</t>
+    <t xml:space="preserve">7.44239902496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67122650146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67385578155518</t>
   </si>
   <si>
     <t xml:space="preserve">6.21620178222656</t>
@@ -2426,37 +2426,37 @@
     <t xml:space="preserve">6.21778011322021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84797477722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32141017913818</t>
+    <t xml:space="preserve">4.84797525405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32140970230103</t>
   </si>
   <si>
     <t xml:space="preserve">5.13045740127563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12572336196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02630186080933</t>
+    <t xml:space="preserve">5.12572288513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02630138397217</t>
   </si>
   <si>
     <t xml:space="preserve">5.4555492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47290849685669</t>
+    <t xml:space="preserve">5.47290802001953</t>
   </si>
   <si>
     <t xml:space="preserve">5.66228294372559</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04892158508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10415554046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38979387283325</t>
+    <t xml:space="preserve">6.04892110824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10415601730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38979434967041</t>
   </si>
   <si>
     <t xml:space="preserve">6.19568681716919</t>
@@ -2465,10 +2465,10 @@
     <t xml:space="preserve">6.24618577957153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09153079986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83271932601929</t>
+    <t xml:space="preserve">6.09153127670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8327202796936</t>
   </si>
   <si>
     <t xml:space="preserve">6.13256216049194</t>
@@ -2483,37 +2483,37 @@
     <t xml:space="preserve">6.43556022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53182506561279</t>
+    <t xml:space="preserve">6.53182554244995</t>
   </si>
   <si>
     <t xml:space="preserve">6.55391883850098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58074760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00157785415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0504994392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07574939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00631189346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87848472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97159385681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93214082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83745431900024</t>
+    <t xml:space="preserve">6.58074712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00157833099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05049991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07574892044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00631284713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87848520278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97159337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93214130401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83745384216309</t>
   </si>
   <si>
     <t xml:space="preserve">6.21935796737671</t>
@@ -2522,25 +2522,25 @@
     <t xml:space="preserve">6.20831155776978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33613920211792</t>
+    <t xml:space="preserve">6.33613872528076</t>
   </si>
   <si>
     <t xml:space="preserve">6.11678075790405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96843814849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79957962036133</t>
+    <t xml:space="preserve">5.96843719482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79957914352417</t>
   </si>
   <si>
     <t xml:space="preserve">5.70331430435181</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99210929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11993646621704</t>
+    <t xml:space="preserve">5.9921088218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1199369430542</t>
   </si>
   <si>
     <t xml:space="preserve">5.875328540802</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">5.67017364501953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88795375823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84218788146973</t>
+    <t xml:space="preserve">5.8879542350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84218835830688</t>
   </si>
   <si>
     <t xml:space="preserve">5.85165691375732</t>
@@ -2564,64 +2564,64 @@
     <t xml:space="preserve">5.81536054611206</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87217235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10573387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19726419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22882652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28563928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35823202133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55076217651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76065158843994</t>
+    <t xml:space="preserve">5.87217283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1057333946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19726467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22882747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28563976287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35823154449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55076265335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76065254211426</t>
   </si>
   <si>
     <t xml:space="preserve">6.92004251480103</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06365060806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84587049484253</t>
+    <t xml:space="preserve">7.06364965438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84587001800537</t>
   </si>
   <si>
     <t xml:space="preserve">6.76696491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4103102684021</t>
+    <t xml:space="preserve">6.41030979156494</t>
   </si>
   <si>
     <t xml:space="preserve">6.50815343856812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56338739395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69594955444336</t>
+    <t xml:space="preserve">6.56338691711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6959490776062</t>
   </si>
   <si>
     <t xml:space="preserve">6.66596508026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61862087249756</t>
+    <t xml:space="preserve">6.61862182617188</t>
   </si>
   <si>
     <t xml:space="preserve">6.48606061935425</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61970090866089</t>
+    <t xml:space="preserve">6.61969947814941</t>
   </si>
   <si>
     <t xml:space="preserve">6.73284292221069</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">6.43440771102905</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4803204536438</t>
+    <t xml:space="preserve">6.48032093048096</t>
   </si>
   <si>
     <t xml:space="preserve">6.35077953338623</t>
@@ -2639,10 +2639,10 @@
     <t xml:space="preserve">6.54427146911621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34586000442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35733842849731</t>
+    <t xml:space="preserve">6.34586048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35733890533447</t>
   </si>
   <si>
     <t xml:space="preserve">6.38521480560303</t>
@@ -2654,55 +2654,55 @@
     <t xml:space="preserve">6.45244455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40161275863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25075435638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30486679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42456865310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39997291564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42784833908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44588613510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71152591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76071977615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82138967514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71316528320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68037128448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51311492919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47704076766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46064376831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23927688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35569953918457</t>
+    <t xml:space="preserve">6.40161228179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25075483322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30486631393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42456912994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39997243881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42784881591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44588565826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71152544021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76071882247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82139015197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71316576004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68037080764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51311540603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47704124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46064329147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23927640914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35569858551025</t>
   </si>
   <si>
     <t xml:space="preserve">6.47376155853271</t>
@@ -2717,25 +2717,25 @@
     <t xml:space="preserve">6.41473007202148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46556329727173</t>
+    <t xml:space="preserve">6.46556282043457</t>
   </si>
   <si>
     <t xml:space="preserve">6.57870626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68365097045898</t>
+    <t xml:space="preserve">6.68365049362183</t>
   </si>
   <si>
     <t xml:space="preserve">6.67545175552368</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59510374069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56722784042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46392345428467</t>
+    <t xml:space="preserve">6.59510278701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56722736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46392250061035</t>
   </si>
   <si>
     <t xml:space="preserve">6.44260597229004</t>
@@ -2747,19 +2747,19 @@
     <t xml:space="preserve">6.39833211898804</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48523998260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50655698776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43112754821777</t>
+    <t xml:space="preserve">6.48523902893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50655603408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43112802505493</t>
   </si>
   <si>
     <t xml:space="preserve">6.43604707717896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34094095230103</t>
+    <t xml:space="preserve">6.34094142913818</t>
   </si>
   <si>
     <t xml:space="preserve">6.29338836669922</t>
@@ -2768,43 +2768,43 @@
     <t xml:space="preserve">6.30650615692139</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52459478378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39013433456421</t>
+    <t xml:space="preserve">6.5245943069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39013385772705</t>
   </si>
   <si>
     <t xml:space="preserve">6.54263114929199</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53115272521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53443241119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49671745300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36389875411987</t>
+    <t xml:space="preserve">6.53115320205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53443193435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49671792984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36389780044556</t>
   </si>
   <si>
     <t xml:space="preserve">6.14253044128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22943735122681</t>
+    <t xml:space="preserve">6.22943782806396</t>
   </si>
   <si>
     <t xml:space="preserve">6.28027009963989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26715135574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21960020065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3376612663269</t>
+    <t xml:space="preserve">6.26715230941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21959972381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33766174316406</t>
   </si>
   <si>
     <t xml:space="preserve">6.21140050888062</t>
@@ -2813,13 +2813,13 @@
     <t xml:space="preserve">6.20484113693237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15892887115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19500303268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63117790222168</t>
+    <t xml:space="preserve">6.15892791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19500350952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.631178855896</t>
   </si>
   <si>
     <t xml:space="preserve">6.57378625869751</t>
@@ -2828,49 +2828,49 @@
     <t xml:space="preserve">6.57050704956055</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57214641571045</t>
+    <t xml:space="preserve">6.57214689254761</t>
   </si>
   <si>
     <t xml:space="preserve">6.58690547943115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5885443687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25895357131958</t>
+    <t xml:space="preserve">6.58854484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25895309448242</t>
   </si>
   <si>
     <t xml:space="preserve">6.33602237701416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3442211151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22615766525269</t>
+    <t xml:space="preserve">6.34422016143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.226158618927</t>
   </si>
   <si>
     <t xml:space="preserve">6.23599672317505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22451829910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12449264526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08021974563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82441759109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74570941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73915004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87688970565796</t>
+    <t xml:space="preserve">6.22451877593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12449359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08022022247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82441854476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74570894241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73915100097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87689018249512</t>
   </si>
   <si>
     <t xml:space="preserve">5.93264198303223</t>
@@ -2882,88 +2882,88 @@
     <t xml:space="preserve">6.32126426696777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21795988082886</t>
+    <t xml:space="preserve">6.2179594039917</t>
   </si>
   <si>
     <t xml:space="preserve">6.43768692016602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59674263000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54919052124023</t>
+    <t xml:space="preserve">6.59674310684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54919004440308</t>
   </si>
   <si>
     <t xml:space="preserve">6.74760103225708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97224807739258</t>
+    <t xml:space="preserve">6.97224760055542</t>
   </si>
   <si>
     <t xml:space="preserve">7.06243467330933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18213653564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25920486450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14770174026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18547773361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34753227233887</t>
+    <t xml:space="preserve">7.18213796615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25920534133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14770221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18547821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34753131866455</t>
   </si>
   <si>
     <t xml:space="preserve">7.27736377716064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3508734703064</t>
+    <t xml:space="preserve">7.35087251663208</t>
   </si>
   <si>
     <t xml:space="preserve">7.13702869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19383239746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07855606079102</t>
+    <t xml:space="preserve">7.19383144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07855653762817</t>
   </si>
   <si>
     <t xml:space="preserve">7.10361623764038</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02342510223389</t>
+    <t xml:space="preserve">7.02342557907104</t>
   </si>
   <si>
     <t xml:space="preserve">7.0117301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02175426483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03177833557129</t>
+    <t xml:space="preserve">7.0217547416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03177881240845</t>
   </si>
   <si>
     <t xml:space="preserve">6.97497653961182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96996355056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08189725875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00838947296143</t>
+    <t xml:space="preserve">6.9699649810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0818977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00838899612427</t>
   </si>
   <si>
     <t xml:space="preserve">6.98165845870972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82127666473389</t>
+    <t xml:space="preserve">6.82127571105957</t>
   </si>
   <si>
     <t xml:space="preserve">6.96161079406738</t>
@@ -2972,31 +2972,31 @@
     <t xml:space="preserve">6.99001216888428</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94991540908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96829319000244</t>
+    <t xml:space="preserve">6.94991588592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9682936668396</t>
   </si>
   <si>
     <t xml:space="preserve">6.92318630218506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13368844985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28237676620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17879486083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12867641448975</t>
+    <t xml:space="preserve">7.13368797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28237628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17879581451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1286768913269</t>
   </si>
   <si>
     <t xml:space="preserve">7.04514360427856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97664642333984</t>
+    <t xml:space="preserve">6.976646900177</t>
   </si>
   <si>
     <t xml:space="preserve">7.00003576278687</t>
@@ -3005,19 +3005,19 @@
     <t xml:space="preserve">6.94156312942505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01340103149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94824504852295</t>
+    <t xml:space="preserve">7.0134015083313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94824552536011</t>
   </si>
   <si>
     <t xml:space="preserve">6.90647888183594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85635995864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9850001335144</t>
+    <t xml:space="preserve">6.85635900497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98500061035156</t>
   </si>
   <si>
     <t xml:space="preserve">6.8162636756897</t>
@@ -3026,31 +3026,31 @@
     <t xml:space="preserve">6.8780779838562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74609708786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92819690704346</t>
+    <t xml:space="preserve">6.74609661102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92819738388062</t>
   </si>
   <si>
     <t xml:space="preserve">6.91650295257568</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40934610366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52796268463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70170927047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8988471031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99407529830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94729566574097</t>
+    <t xml:space="preserve">7.40934562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52796316146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70171022415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89884757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99407386779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94729661941528</t>
   </si>
   <si>
     <t xml:space="preserve">8.06090068817139</t>
@@ -3059,49 +3059,49 @@
     <t xml:space="preserve">8.08428955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16113948822021</t>
+    <t xml:space="preserve">8.16114044189453</t>
   </si>
   <si>
     <t xml:space="preserve">8.06257057189941</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92056655883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77187633514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85039854049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05589008331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95899057388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97736740112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02581596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8554105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2095890045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24968433380127</t>
+    <t xml:space="preserve">7.92056560516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77187776565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85039806365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05588817596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95899152755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97736787796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02581691741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85541105270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20958805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24968338012695</t>
   </si>
   <si>
     <t xml:space="preserve">8.31149864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33154487609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22796726226807</t>
+    <t xml:space="preserve">8.33154678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22796535491943</t>
   </si>
   <si>
     <t xml:space="preserve">8.38667774200439</t>
@@ -3113,19 +3113,19 @@
     <t xml:space="preserve">8.54539012908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5078010559082</t>
+    <t xml:space="preserve">8.50779914855957</t>
   </si>
   <si>
     <t xml:space="preserve">8.58297824859619</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53285980224609</t>
+    <t xml:space="preserve">8.53286075592041</t>
   </si>
   <si>
     <t xml:space="preserve">8.71663284301758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67068862915039</t>
+    <t xml:space="preserve">8.67068958282471</t>
   </si>
   <si>
     <t xml:space="preserve">8.73333740234375</t>
@@ -3134,40 +3134,40 @@
     <t xml:space="preserve">8.63727569580078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77510452270508</t>
+    <t xml:space="preserve">8.77510547637939</t>
   </si>
   <si>
     <t xml:space="preserve">8.69992542266846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74586868286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73751354217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81269454956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0048189163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06746864318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05493831634521</t>
+    <t xml:space="preserve">8.74586772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73751449584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81269359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00481986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06746768951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05493927001953</t>
   </si>
   <si>
     <t xml:space="preserve">9.11341094970703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13847064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12594223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99646663665771</t>
+    <t xml:space="preserve">9.13847160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12594127655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9964656829834</t>
   </si>
   <si>
     <t xml:space="preserve">9.01735019683838</t>
@@ -3191,25 +3191,25 @@
     <t xml:space="preserve">8.8669900894165</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86281394958496</t>
+    <t xml:space="preserve">8.86281299591064</t>
   </si>
   <si>
     <t xml:space="preserve">9.06329250335693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02987766265869</t>
+    <t xml:space="preserve">9.02987957000732</t>
   </si>
   <si>
     <t xml:space="preserve">9.04240894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12176513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11758804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10505771636963</t>
+    <t xml:space="preserve">9.12176418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11758899688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10505867004395</t>
   </si>
   <si>
     <t xml:space="preserve">9.23035717010498</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">9.13011837005615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18859100341797</t>
+    <t xml:space="preserve">9.18859004974365</t>
   </si>
   <si>
     <t xml:space="preserve">9.376540184021</t>
@@ -3236,16 +3236,16 @@
     <t xml:space="preserve">9.22200393676758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28883075714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41830635070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38071632385254</t>
+    <t xml:space="preserve">9.2888298034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43083477020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41830539703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38071537017822</t>
   </si>
   <si>
     <t xml:space="preserve">9.4600715637207</t>
@@ -3254,43 +3254,43 @@
     <t xml:space="preserve">9.60625457763672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77331924438477</t>
+    <t xml:space="preserve">9.77332019805908</t>
   </si>
   <si>
     <t xml:space="preserve">9.64384365081787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53942775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.597900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61043071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66055107116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85685157775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94873905181885</t>
+    <t xml:space="preserve">9.5394287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59790134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61043167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66055011749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85685253143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94873809814453</t>
   </si>
   <si>
     <t xml:space="preserve">10.0740375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0907430648804</t>
+    <t xml:space="preserve">10.0907440185547</t>
   </si>
   <si>
     <t xml:space="preserve">10.0113878250122</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0364475250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0072088241577</t>
+    <t xml:space="preserve">10.0364465713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0072107315063</t>
   </si>
   <si>
     <t xml:space="preserve">10.082389831543</t>
@@ -3299,22 +3299,22 @@
     <t xml:space="preserve">10.0197410583496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76914405822754</t>
+    <t xml:space="preserve">9.76914310455322</t>
   </si>
   <si>
     <t xml:space="preserve">9.89285755157471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75969123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64371013641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8155345916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78546619415283</t>
+    <t xml:space="preserve">9.75969219207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64371109008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81553554534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78546714782715</t>
   </si>
   <si>
     <t xml:space="preserve">9.62652683258057</t>
@@ -3329,13 +3329,13 @@
     <t xml:space="preserve">9.69096183776855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60504913330078</t>
+    <t xml:space="preserve">9.6050500869751</t>
   </si>
   <si>
     <t xml:space="preserve">9.74251079559326</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59645843505859</t>
+    <t xml:space="preserve">9.59645748138428</t>
   </si>
   <si>
     <t xml:space="preserve">9.63511943817139</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">9.30005931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44611072540283</t>
+    <t xml:space="preserve">9.44610977172852</t>
   </si>
   <si>
     <t xml:space="preserve">9.48047542572021</t>
@@ -3356,10 +3356,10 @@
     <t xml:space="preserve">9.44181442260742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31294631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34301471710205</t>
+    <t xml:space="preserve">9.31294536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34301567077637</t>
   </si>
   <si>
     <t xml:space="preserve">9.02513790130615</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">9.11534595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40315246582031</t>
+    <t xml:space="preserve">9.40315437316895</t>
   </si>
   <si>
     <t xml:space="preserve">9.5449104309082</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">9.63082313537598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70814418792725</t>
+    <t xml:space="preserve">9.70814514160156</t>
   </si>
   <si>
     <t xml:space="preserve">9.61363983154297</t>
@@ -3389,46 +3389,46 @@
     <t xml:space="preserve">9.5577974319458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75539588928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90144729614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94870090484619</t>
+    <t xml:space="preserve">9.75539684295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90144824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94869995117188</t>
   </si>
   <si>
     <t xml:space="preserve">9.98736095428467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0689792633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0904550552368</t>
+    <t xml:space="preserve">10.068977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0904560089111</t>
   </si>
   <si>
     <t xml:space="preserve">10.0389089584351</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97447490692139</t>
+    <t xml:space="preserve">9.97447395324707</t>
   </si>
   <si>
     <t xml:space="preserve">9.91863059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0002489089966</t>
+    <t xml:space="preserve">10.0002479553223</t>
   </si>
   <si>
     <t xml:space="preserve">9.8756742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80264854431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.017430305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99165725708008</t>
+    <t xml:space="preserve">9.80264949798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0174312591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99165630340576</t>
   </si>
   <si>
     <t xml:space="preserve">9.95729160308838</t>
@@ -3437,40 +3437,40 @@
     <t xml:space="preserve">9.8670825958252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9100399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96158790588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99595260620117</t>
+    <t xml:space="preserve">9.91004085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96158695220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99595355987549</t>
   </si>
   <si>
     <t xml:space="preserve">9.84560489654541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91433525085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93151760101318</t>
+    <t xml:space="preserve">9.91433620452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9315185546875</t>
   </si>
   <si>
     <t xml:space="preserve">10.0217266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1806640625</t>
+    <t xml:space="preserve">10.1806659698486</t>
   </si>
   <si>
     <t xml:space="preserve">10.08616065979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1248226165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.215030670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2880563735962</t>
+    <t xml:space="preserve">10.1248216629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2150297164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2880573272705</t>
   </si>
   <si>
     <t xml:space="preserve">10.2493963241577</t>
@@ -3488,10 +3488,10 @@
     <t xml:space="preserve">10.2279167175293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1849594116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3911514282227</t>
+    <t xml:space="preserve">10.1849603652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.391152381897</t>
   </si>
   <si>
     <t xml:space="preserve">10.3310117721558</t>
@@ -3506,13 +3506,13 @@
     <t xml:space="preserve">10.4469938278198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5844554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6231155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7390975952148</t>
+    <t xml:space="preserve">10.584454536438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6231164932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7390985488892</t>
   </si>
   <si>
     <t xml:space="preserve">10.6746635437012</t>
@@ -3521,10 +3521,10 @@
     <t xml:space="preserve">10.6402988433838</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5243167877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7863512039185</t>
+    <t xml:space="preserve">10.524317741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7863502502441</t>
   </si>
   <si>
     <t xml:space="preserve">10.7476902008057</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">10.7262115478516</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8894453048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949409484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7777576446533</t>
+    <t xml:space="preserve">10.8894462585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949419021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.777759552002</t>
   </si>
   <si>
     <t xml:space="preserve">10.601637840271</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">10.6531848907471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.782054901123</t>
+    <t xml:space="preserve">10.7820539474487</t>
   </si>
   <si>
     <t xml:space="preserve">10.7047328948975</t>
@@ -3560,13 +3560,13 @@
     <t xml:space="preserve">10.7348022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6875505447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801591873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5200204849243</t>
+    <t xml:space="preserve">10.6875495910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.52001953125</t>
   </si>
   <si>
     <t xml:space="preserve">10.5329074859619</t>
@@ -3575,19 +3575,19 @@
     <t xml:space="preserve">10.4341077804565</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3653774261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3435640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2606773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2301397323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.077449798584</t>
+    <t xml:space="preserve">10.3653764724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3435649871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2606763839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2301387786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0774507522583</t>
   </si>
   <si>
     <t xml:space="preserve">9.66300868988037</t>
@@ -3602,19 +3602,19 @@
     <t xml:space="preserve">9.90294933319092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79824829101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72408580780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75898551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89422512054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75462245941162</t>
+    <t xml:space="preserve">9.79824733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72408485412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75898456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8942232131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75462341308594</t>
   </si>
   <si>
     <t xml:space="preserve">9.68482303619385</t>
@@ -3626,10 +3626,10 @@
     <t xml:space="preserve">9.6455602645874</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66737174987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71099758148193</t>
+    <t xml:space="preserve">9.66737270355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71099662780762</t>
   </si>
   <si>
     <t xml:space="preserve">9.78079795837402</t>
@@ -3638,16 +3638,16 @@
     <t xml:space="preserve">9.79388618469238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57139682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72844696044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82442283630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91167259216309</t>
+    <t xml:space="preserve">9.57139778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7284460067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82442378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9116735458374</t>
   </si>
   <si>
     <t xml:space="preserve">9.99892425537109</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">10.2257766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2650394439697</t>
+    <t xml:space="preserve">10.2650384902954</t>
   </si>
   <si>
     <t xml:space="preserve">10.1777877807617</t>
@@ -3680,16 +3680,16 @@
     <t xml:space="preserve">10.238862991333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1690635681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1210765838623</t>
+    <t xml:space="preserve">10.1690626144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.121075630188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1297998428345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.090537071228</t>
+    <t xml:space="preserve">10.0905380249023</t>
   </si>
   <si>
     <t xml:space="preserve">10.1123504638672</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">10.0207366943359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.619384765625</t>
+    <t xml:space="preserve">9.61938381195068</t>
   </si>
   <si>
     <t xml:space="preserve">9.85496044158936</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">9.56267166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60629653930664</t>
+    <t xml:space="preserve">9.60629749298096</t>
   </si>
   <si>
     <t xml:space="preserve">9.41870784759521</t>
@@ -3743,19 +3743,19 @@
     <t xml:space="preserve">9.62810897827148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39253234863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35763359069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27910614013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75996589660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04789352416992</t>
+    <t xml:space="preserve">9.39253330230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35763168334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27910709381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75996494293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04789257049561</t>
   </si>
   <si>
     <t xml:space="preserve">8.96500396728516</t>
@@ -3764,28 +3764,28 @@
     <t xml:space="preserve">8.60291385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58895301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46854877471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92235898971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75134754180908</t>
+    <t xml:space="preserve">8.58895492553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46854782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92235946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75134706497192</t>
   </si>
   <si>
     <t xml:space="preserve">8.11081981658936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82976627349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38304233551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43364906311035</t>
+    <t xml:space="preserve">8.82976531982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38304138183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43364810943604</t>
   </si>
   <si>
     <t xml:space="preserve">8.66224479675293</t>
@@ -3794,10 +3794,10 @@
     <t xml:space="preserve">8.61512851715088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00426578521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81667804718018</t>
+    <t xml:space="preserve">9.0042667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81667900085449</t>
   </si>
   <si>
     <t xml:space="preserve">8.79050254821777</t>
@@ -3806,31 +3806,31 @@
     <t xml:space="preserve">8.82540321350098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05661678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04353046417236</t>
+    <t xml:space="preserve">9.05661773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04352951049805</t>
   </si>
   <si>
     <t xml:space="preserve">9.20494365692139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08279323577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18749332427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26601791381836</t>
+    <t xml:space="preserve">9.08279228210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1874942779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26601982116699</t>
   </si>
   <si>
     <t xml:space="preserve">9.22675609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07406806945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93882942199707</t>
+    <t xml:space="preserve">9.07406711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93882846832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.74687767028809</t>
@@ -3839,16 +3839,16 @@
     <t xml:space="preserve">8.61338424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78177642822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71110439300537</t>
+    <t xml:space="preserve">8.78177738189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71110534667969</t>
   </si>
   <si>
     <t xml:space="preserve">8.58022880554199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4929780960083</t>
+    <t xml:space="preserve">8.49297714233398</t>
   </si>
   <si>
     <t xml:space="preserve">8.56103420257568</t>
@@ -3860,13 +3860,13 @@
     <t xml:space="preserve">8.64479446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61687469482422</t>
+    <t xml:space="preserve">8.6168737411499</t>
   </si>
   <si>
     <t xml:space="preserve">8.46505832672119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22599124908447</t>
+    <t xml:space="preserve">8.22599220275879</t>
   </si>
   <si>
     <t xml:space="preserve">8.11605548858643</t>
@@ -3875,16 +3875,16 @@
     <t xml:space="preserve">8.08988094329834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14223098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18236637115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10035133361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03578472137451</t>
+    <t xml:space="preserve">8.14223003387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18236541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10035037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03578567504883</t>
   </si>
   <si>
     <t xml:space="preserve">7.9729642868042</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">7.85430383682251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65013599395752</t>
+    <t xml:space="preserve">7.65013694763184</t>
   </si>
   <si>
     <t xml:space="preserve">7.831618309021</t>
@@ -3902,13 +3902,13 @@
     <t xml:space="preserve">8.01309967041016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26438140869141</t>
+    <t xml:space="preserve">8.26438236236572</t>
   </si>
   <si>
     <t xml:space="preserve">8.43713855743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31847667694092</t>
+    <t xml:space="preserve">8.31847763061523</t>
   </si>
   <si>
     <t xml:space="preserve">8.39700222015381</t>
@@ -3917,64 +3917,64 @@
     <t xml:space="preserve">8.34639739990234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31673145294189</t>
+    <t xml:space="preserve">8.31673240661621</t>
   </si>
   <si>
     <t xml:space="preserve">8.29230117797852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45458793640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31149673461914</t>
+    <t xml:space="preserve">8.45458698272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31149578094482</t>
   </si>
   <si>
     <t xml:space="preserve">8.44935321807861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50868320465088</t>
+    <t xml:space="preserve">8.5086841583252</t>
   </si>
   <si>
     <t xml:space="preserve">8.66573524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8559398651123</t>
+    <t xml:space="preserve">8.85594081878662</t>
   </si>
   <si>
     <t xml:space="preserve">8.74251556396484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7381534576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65526485443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82104110717773</t>
+    <t xml:space="preserve">8.73815250396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65526390075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82104015350342</t>
   </si>
   <si>
     <t xml:space="preserve">8.80359077453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68143939971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98517990112305</t>
+    <t xml:space="preserve">8.68144035339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98518037796021</t>
   </si>
   <si>
     <t xml:space="preserve">7.7181921005249</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95551443099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21726608276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8089337348938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84906816482544</t>
+    <t xml:space="preserve">7.95551490783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21726703643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80893230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8490686416626</t>
   </si>
   <si>
     <t xml:space="preserve">8.03453731536865</t>
@@ -5289,6 +5289,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.6199998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5649995803833</t>
   </si>
 </sst>
 </file>
@@ -61660,7 +61663,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6493518519</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>9199583</v>
@@ -61681,6 +61684,32 @@
         <v>1758</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6493634259</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>7697130</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>12.6499996185303</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>12.4849996566772</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>12.6199998855591</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>12.5649995803833</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1773">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30965423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24381256103516</t>
+    <t xml:space="preserve">4.30965375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.243812084198</t>
   </si>
   <si>
     <t xml:space="preserve">4.21987009048462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18096399307251</t>
+    <t xml:space="preserve">4.18096256256104</t>
   </si>
   <si>
     <t xml:space="preserve">4.14205646514893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24081897735596</t>
+    <t xml:space="preserve">4.24081993103027</t>
   </si>
   <si>
     <t xml:space="preserve">4.29169797897339</t>
@@ -68,28 +68,28 @@
     <t xml:space="preserve">4.26775407791138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21388483047485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08818483352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01037263870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78890490531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93555212020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98643016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90263199806213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01635789871216</t>
+    <t xml:space="preserve">4.2138843536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08818531036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01037216186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78890419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93555164337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98642992973328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90263175964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01635837554932</t>
   </si>
   <si>
     <t xml:space="preserve">4.06723594665527</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">3.98343706130981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08519268035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97445845603943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89066052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7709481716156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58240032196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829820632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09457111358643</t>
+    <t xml:space="preserve">4.0851936340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97445869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89066004753113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77094769477844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58239984512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829844474792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.094571352005</t>
   </si>
   <si>
     <t xml:space="preserve">3.38487434387207</t>
@@ -125,19 +125,19 @@
     <t xml:space="preserve">3.23822593688965</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25019764900208</t>
+    <t xml:space="preserve">3.25019669532776</t>
   </si>
   <si>
     <t xml:space="preserve">3.34896039962769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33399653434753</t>
+    <t xml:space="preserve">3.33399677276611</t>
   </si>
   <si>
     <t xml:space="preserve">3.46867299079895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4537091255188</t>
+    <t xml:space="preserve">3.45370817184448</t>
   </si>
   <si>
     <t xml:space="preserve">3.52852988243103</t>
@@ -149,37 +149,37 @@
     <t xml:space="preserve">3.57342147827148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53750777244568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63926362991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69014191627502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75299096107483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72006940841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68714880943298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71109104156494</t>
+    <t xml:space="preserve">3.5375075340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63926386833191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69014120101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75299024581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72006988525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6871485710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71109056472778</t>
   </si>
   <si>
     <t xml:space="preserve">3.66919207572937</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69313383102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66619896888733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85773897171021</t>
+    <t xml:space="preserve">3.69313430786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66619873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85773849487305</t>
   </si>
   <si>
     <t xml:space="preserve">3.88467359542847</t>
@@ -188,52 +188,52 @@
     <t xml:space="preserve">3.8816819190979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85175371170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83080339431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84576773643494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92058777809143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05227184295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03431510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96548080444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04030132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98044395446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92657399177551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86073207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74999809265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80985355377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8278112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84876036643982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86671805381775</t>
+    <t xml:space="preserve">3.85175347328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83080387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84576821327209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92058849334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0522723197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03431558609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96548008918762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04030084609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98044443130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92657351493835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86073160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74999785423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80985426902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82781100273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84876012802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86671757698059</t>
   </si>
   <si>
     <t xml:space="preserve">3.95051646232605</t>
@@ -242,106 +242,106 @@
     <t xml:space="preserve">3.87868881225586</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8756959438324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90562438964844</t>
+    <t xml:space="preserve">3.87569665908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90562415122986</t>
   </si>
   <si>
     <t xml:space="preserve">3.87270283699036</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92358040809631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92956686019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99840188026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04927921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05825805664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99241590499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93255949020386</t>
+    <t xml:space="preserve">3.92358064651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92956566810608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99840116500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04927968978882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05825757980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99241614341736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93255972862244</t>
   </si>
   <si>
     <t xml:space="preserve">4.02234363555908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05526494979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03132247924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01336574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04329347610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93854522705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04628562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00139474868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09716367721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06424331665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12110757827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11811447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13008594512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1061429977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11512136459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18994092941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19891929626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10015630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03730821609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01935148239136</t>
+    <t xml:space="preserve">4.05526399612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03132200241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01336526870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04329442977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93854427337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04628705978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00139379501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09117889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09716415405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06424427032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12110710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11811399459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13008499145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10614252090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11512184143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19892072677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10015726089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03730773925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0193510055542</t>
   </si>
   <si>
     <t xml:space="preserve">4.13906383514404</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23349046707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17998170852661</t>
+    <t xml:space="preserve">4.23349142074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17998218536377</t>
   </si>
   <si>
     <t xml:space="preserve">4.17053937911987</t>
@@ -356,190 +356,190 @@
     <t xml:space="preserve">3.65433692932129</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75191164016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74561667442322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84948682785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76450228691101</t>
+    <t xml:space="preserve">3.75191211700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74561619758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8494861125946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76450181007385</t>
   </si>
   <si>
     <t xml:space="preserve">3.6700747013092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62915587425232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60082817077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73617458343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90614342689514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89670038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98798108100891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91873359680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188096046448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89984750747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95965218544006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94706106185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90299510955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89355206489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84633922576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82745361328125</t>
+    <t xml:space="preserve">3.62915635108948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60082769393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73617386817932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90614247322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89669990539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98798012733459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91873264312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89984798431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95965147018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94706130027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90299558639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89355254173279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84633851051331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82745385169983</t>
   </si>
   <si>
     <t xml:space="preserve">3.76764988899231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06037473678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0383415222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06666994094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07296419143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1296215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14221096038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05722713470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9753897190094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01630783081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91558599472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93132305145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99742317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95335674285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929102897644</t>
+    <t xml:space="preserve">4.06037425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03834104537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06666946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07296466827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12962055206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14221143722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05722665786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97538995742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01630878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9155855178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93132376670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99742269515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95335698127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929007530212</t>
   </si>
   <si>
     <t xml:space="preserve">3.92817568778992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87152028083801</t>
+    <t xml:space="preserve">3.87151885032654</t>
   </si>
   <si>
     <t xml:space="preserve">3.94391369819641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93447160720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95650458335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96909475326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03204679489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01945638656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8054211139679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86207723617554</t>
+    <t xml:space="preserve">3.93447136878967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95650386810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9690945148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03204584121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.019455909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80542087554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8620777130127</t>
   </si>
   <si>
     <t xml:space="preserve">3.8589289188385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82430529594421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84319186210632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85263419151306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83060073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82115817070007</t>
+    <t xml:space="preserve">3.82430601119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84319162368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85263466835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83060145378113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82115793228149</t>
   </si>
   <si>
     <t xml:space="preserve">3.81486344337463</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79912638664246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80227303504944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73932147026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78653478622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80856847763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75505876541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81801080703735</t>
+    <t xml:space="preserve">3.7991247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80227255821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7393217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78653526306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80856776237488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75505995750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81801128387451</t>
   </si>
   <si>
     <t xml:space="preserve">3.89040493965149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86837196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74876403808594</t>
+    <t xml:space="preserve">3.86837148666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74876427650452</t>
   </si>
   <si>
     <t xml:space="preserve">3.72673106193542</t>
@@ -548,115 +548,115 @@
     <t xml:space="preserve">3.75820660591125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79282975196838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338718414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77079772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76135420799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71414041519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67322278022766</t>
+    <t xml:space="preserve">3.79283094406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338742256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77079653739929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76135396957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71414136886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67322206497192</t>
   </si>
   <si>
     <t xml:space="preserve">3.59453296661377</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55676221847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55046653747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54417157173157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53472924232483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48751521110535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62600874900818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69210743904114</t>
+    <t xml:space="preserve">3.55676198005676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55046677589417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54417133331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53472852706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4875156879425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62600898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6921067237854</t>
   </si>
   <si>
     <t xml:space="preserve">3.69525480270386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68581223487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00056982040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112820625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98168468475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03519296646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99427533149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02889823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04778337478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02260398864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96594667434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88096284866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84004426002502</t>
+    <t xml:space="preserve">3.68581295013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98483204841614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00057077407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98168540000916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03519344329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99427461624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0288987159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04778385162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0226035118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96594738960266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88096189498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84004402160645</t>
   </si>
   <si>
     <t xml:space="preserve">3.81171560287476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83689570426941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68266487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66063213348389</t>
+    <t xml:space="preserve">3.83689594268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68266439437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66063189506531</t>
   </si>
   <si>
     <t xml:space="preserve">3.6795175075531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77709245681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77394413948059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83374953269958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95020914077759</t>
+    <t xml:space="preserve">3.77709293365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77394485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83374810218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95020890235901</t>
   </si>
   <si>
     <t xml:space="preserve">4.07611227035522</t>
@@ -668,19 +668,19 @@
     <t xml:space="preserve">4.05407905578613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01316022872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08870124816895</t>
+    <t xml:space="preserve">4.01316070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08870267868042</t>
   </si>
   <si>
     <t xml:space="preserve">4.05093193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92502903938293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9627993106842</t>
+    <t xml:space="preserve">3.92502856254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96279978752136</t>
   </si>
   <si>
     <t xml:space="preserve">4.00371789932251</t>
@@ -689,13 +689,13 @@
     <t xml:space="preserve">4.0257511138916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93761873245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00686454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09185028076172</t>
+    <t xml:space="preserve">3.93761825561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00686550140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09184980392456</t>
   </si>
   <si>
     <t xml:space="preserve">4.10444021224976</t>
@@ -704,55 +704,52 @@
     <t xml:space="preserve">3.97224187850952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94076561927795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981658935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07925939559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04576921463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05916500091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07256078720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01227712631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01897525787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03237152099609</t>
+    <t xml:space="preserve">3.94076633453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06981706619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07925987243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04576826095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05916452407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07256126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0122766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01897478103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03237199783325</t>
   </si>
   <si>
     <t xml:space="preserve">3.99218201637268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07926034927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04241991043091</t>
+    <t xml:space="preserve">4.04241895675659</t>
   </si>
   <si>
     <t xml:space="preserve">4.01562595367432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02232360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99887943267822</t>
+    <t xml:space="preserve">4.02232456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99888038635254</t>
   </si>
   <si>
     <t xml:space="preserve">3.98213458061218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05246639251709</t>
+    <t xml:space="preserve">4.05246686935425</t>
   </si>
   <si>
     <t xml:space="preserve">4.06251382827759</t>
@@ -761,19 +758,19 @@
     <t xml:space="preserve">4.10270404815674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08260822296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06586360931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05581569671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00557851791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9955313205719</t>
+    <t xml:space="preserve">4.08260869979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06586313247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05581617355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00557899475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99553060531616</t>
   </si>
   <si>
     <t xml:space="preserve">4.03572082519531</t>
@@ -782,49 +779,49 @@
     <t xml:space="preserve">4.17973375320435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19313049316406</t>
+    <t xml:space="preserve">4.19313097000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.21322584152222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15629005432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16633796691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16968631744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.209876537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09265613555908</t>
+    <t xml:space="preserve">4.15628957748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16633701324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16968679428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20987606048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09265661239624</t>
   </si>
   <si>
     <t xml:space="preserve">4.1060528755188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16298913955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17303657531738</t>
+    <t xml:space="preserve">4.16298866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17303562164307</t>
   </si>
   <si>
     <t xml:space="preserve">4.11945009231567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09935474395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08930778503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11609983444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0759105682373</t>
+    <t xml:space="preserve">4.09935522079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08930730819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11610078811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07591152191162</t>
   </si>
   <si>
     <t xml:space="preserve">4.12279939651489</t>
@@ -833,34 +830,34 @@
     <t xml:space="preserve">4.18643236160278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15963983535767</t>
+    <t xml:space="preserve">4.15963888168335</t>
   </si>
   <si>
     <t xml:space="preserve">4.14959144592285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15294027328491</t>
+    <t xml:space="preserve">4.15294122695923</t>
   </si>
   <si>
     <t xml:space="preserve">4.12614774703979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14289331436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11275100708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13619518280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19648027420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12949752807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20317840576172</t>
+    <t xml:space="preserve">4.14289379119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11275148391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13619565963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19647979736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12949705123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20317792892456</t>
   </si>
   <si>
     <t xml:space="preserve">4.21657466888428</t>
@@ -869,28 +866,28 @@
     <t xml:space="preserve">4.19982862472534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20652770996094</t>
+    <t xml:space="preserve">4.20652723312378</t>
   </si>
   <si>
     <t xml:space="preserve">4.189781665802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10940170288086</t>
+    <t xml:space="preserve">4.10940217971802</t>
   </si>
   <si>
     <t xml:space="preserve">4.0960054397583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0859580039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26346206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29360437393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26681137084961</t>
+    <t xml:space="preserve">4.08595752716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26346302032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2936053276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26681184768677</t>
   </si>
   <si>
     <t xml:space="preserve">4.25341558456421</t>
@@ -899,31 +896,31 @@
     <t xml:space="preserve">4.24001932144165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25676488876343</t>
+    <t xml:space="preserve">4.25676441192627</t>
   </si>
   <si>
     <t xml:space="preserve">4.27016067504883</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29025602340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30700159072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32039833068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33379507064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3137001991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34719085693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38068294525146</t>
+    <t xml:space="preserve">4.29025554656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30700206756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32039785385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33379459381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31369972229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34719133377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38068246841431</t>
   </si>
   <si>
     <t xml:space="preserve">4.37733364105225</t>
@@ -932,7 +929,7 @@
     <t xml:space="preserve">4.40747594833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50460052490234</t>
+    <t xml:space="preserve">4.5046010017395</t>
   </si>
   <si>
     <t xml:space="preserve">4.50125169754028</t>
@@ -941,40 +938,40 @@
     <t xml:space="preserve">4.48450613021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45436382293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47110986709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4811577796936</t>
+    <t xml:space="preserve">4.45436429977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47111034393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48115730285645</t>
   </si>
   <si>
     <t xml:space="preserve">4.45570373535156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43694829940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46374225616455</t>
+    <t xml:space="preserve">4.43694877624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46374177932739</t>
   </si>
   <si>
     <t xml:space="preserve">4.41015577316284</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41953277587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28690719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40077781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31771850585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31102085113525</t>
+    <t xml:space="preserve">4.41953325271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28690767288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40077829360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31771945953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3110203742981</t>
   </si>
   <si>
     <t xml:space="preserve">4.32977628707886</t>
@@ -986,16 +983,16 @@
     <t xml:space="preserve">4.40881538391113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45838260650635</t>
+    <t xml:space="preserve">4.45838308334351</t>
   </si>
   <si>
     <t xml:space="preserve">4.46508073806763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54144191741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52804565429688</t>
+    <t xml:space="preserve">4.54144239425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52804470062256</t>
   </si>
   <si>
     <t xml:space="preserve">4.49187421798706</t>
@@ -1004,28 +1001,28 @@
     <t xml:space="preserve">4.49589395523071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4570426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71559715270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73033285140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70086145401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59904766082764</t>
+    <t xml:space="preserve">4.45704412460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71559762954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73033380508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70086193084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59904718399048</t>
   </si>
   <si>
     <t xml:space="preserve">4.62852001190186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6673698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79061841964722</t>
+    <t xml:space="preserve">4.66736936569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79061889648438</t>
   </si>
   <si>
     <t xml:space="preserve">4.91252756118774</t>
@@ -1034,55 +1031,55 @@
     <t xml:space="preserve">4.88707399368286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97013282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86295938491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79999589920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87635707855225</t>
+    <t xml:space="preserve">4.97013330459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86296033859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79999542236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87635564804077</t>
   </si>
   <si>
     <t xml:space="preserve">4.95271635055542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91520595550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9486985206604</t>
+    <t xml:space="preserve">4.91520643234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94869804382324</t>
   </si>
   <si>
     <t xml:space="preserve">4.93932008743286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89377212524414</t>
+    <t xml:space="preserve">4.8937726020813</t>
   </si>
   <si>
     <t xml:space="preserve">4.85358190536499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83616733551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85224294662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92726373672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93664073944092</t>
+    <t xml:space="preserve">4.8361668586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8522424697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9272632598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93664121627808</t>
   </si>
   <si>
     <t xml:space="preserve">4.97415161132812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05720996856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05185222625732</t>
+    <t xml:space="preserve">5.05721092224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05185127258301</t>
   </si>
   <si>
     <t xml:space="preserve">5.09070205688477</t>
@@ -1091,13 +1088,13 @@
     <t xml:space="preserve">5.14696788787842</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13893032073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14294815063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14026832580566</t>
+    <t xml:space="preserve">5.13892936706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14294910430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14026880264282</t>
   </si>
   <si>
     <t xml:space="preserve">5.17108058929443</t>
@@ -1106,13 +1103,13 @@
     <t xml:space="preserve">5.21796941757202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1858172416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19653511047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27155637741089</t>
+    <t xml:space="preserve">5.18581771850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19653415679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27155590057373</t>
   </si>
   <si>
     <t xml:space="preserve">5.27691411972046</t>
@@ -1133,7 +1130,7 @@
     <t xml:space="preserve">5.41489887237549</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40552091598511</t>
+    <t xml:space="preserve">5.40552139282227</t>
   </si>
   <si>
     <t xml:space="preserve">5.46178770065308</t>
@@ -1142,22 +1139,22 @@
     <t xml:space="preserve">5.43633413314819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41088008880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45910692214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50465679168701</t>
+    <t xml:space="preserve">5.41088104248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45910787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50465631484985</t>
   </si>
   <si>
     <t xml:space="preserve">5.29834890365601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.286292552948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10409832000732</t>
+    <t xml:space="preserve">5.28629207611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10409784317017</t>
   </si>
   <si>
     <t xml:space="preserve">5.11481618881226</t>
@@ -1172,43 +1169,43 @@
     <t xml:space="preserve">5.16170358657837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08266401290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91922616958618</t>
+    <t xml:space="preserve">5.08266353607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91922521591187</t>
   </si>
   <si>
     <t xml:space="preserve">4.69818162918091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89511203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90582895278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00362396240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03175687789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89913034439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89645051956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87769556045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74506998062134</t>
+    <t xml:space="preserve">4.89511108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90582799911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00362348556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03175640106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89913082122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89645099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87769651412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74506950378418</t>
   </si>
   <si>
     <t xml:space="preserve">4.92860269546509</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02237892150879</t>
+    <t xml:space="preserve">5.02237939834595</t>
   </si>
   <si>
     <t xml:space="preserve">5.11749505996704</t>
@@ -1217,112 +1214,115 @@
     <t xml:space="preserve">5.23806476593018</t>
   </si>
   <si>
+    <t xml:space="preserve">5.11079692840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19018793106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24264240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26674270629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20152854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.207200050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13915061950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1632513999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08953094482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08244276046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13347959518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14623880386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26816082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30927419662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35889339447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30218505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3801589012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36739921569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44537305831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50208139419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53185176849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46805620193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48223257064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46522045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47514486312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56445980072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58855962753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61266088485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64668607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63817977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33337497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27950191497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26249074935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19869470596313</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1107964515686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19018745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24264192581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26674270629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20152854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20719957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13915014266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1632513999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08953094482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08244276046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13348007202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14623832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26816129684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30927419662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35889339447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30218553543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38015937805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3673996925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44537305831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5020809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53185176849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46805667877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48223400115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4652214050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4751443862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56445932388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58856010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61266088485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64668560028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63817977905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33337545394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27950191497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26248979568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19869375228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03565835952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01439332962036</t>
+    <t xml:space="preserve">5.0356593132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0143928527832</t>
   </si>
   <si>
     <t xml:space="preserve">5.0668478012085</t>
@@ -1334,82 +1334,82 @@
     <t xml:space="preserve">4.85561180114746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77905511856079</t>
+    <t xml:space="preserve">4.77905559539795</t>
   </si>
   <si>
     <t xml:space="preserve">4.93074893951416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83434534072876</t>
+    <t xml:space="preserve">4.83434581756592</t>
   </si>
   <si>
     <t xml:space="preserve">4.81591558456421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80740976333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78897905349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81024503707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74786615371704</t>
+    <t xml:space="preserve">4.80741024017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78897953033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8102445602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7478666305542</t>
   </si>
   <si>
     <t xml:space="preserve">4.70108222961426</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78047323226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9066481590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00163412094116</t>
+    <t xml:space="preserve">4.78047370910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90664768218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.001633644104</t>
   </si>
   <si>
     <t xml:space="preserve">4.97044467926025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99029207229614</t>
+    <t xml:space="preserve">4.9902925491333</t>
   </si>
   <si>
     <t xml:space="preserve">5.10512638092041</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07819032669067</t>
+    <t xml:space="preserve">5.0781888961792</t>
   </si>
   <si>
     <t xml:space="preserve">4.99879884719849</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87120580673218</t>
+    <t xml:space="preserve">4.87120532989502</t>
   </si>
   <si>
     <t xml:space="preserve">4.89955997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94634342193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92224264144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90948343276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97611522674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0172290802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04132843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1008734703064</t>
+    <t xml:space="preserve">4.94634389877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92224311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90948390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97611618041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01722860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04133033752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10087203979492</t>
   </si>
   <si>
     <t xml:space="preserve">5.13064479827881</t>
@@ -1418,28 +1418,28 @@
     <t xml:space="preserve">5.09662008285522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87829399108887</t>
+    <t xml:space="preserve">4.87829446792603</t>
   </si>
   <si>
     <t xml:space="preserve">4.82583951950073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73936033248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74928426742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75353622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67839860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50543975830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52954149246216</t>
+    <t xml:space="preserve">4.7393593788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74928331375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75353717803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67839908599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50544023513794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52954053878784</t>
   </si>
   <si>
     <t xml:space="preserve">4.57490730285645</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">4.42888450622559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44589614868164</t>
+    <t xml:space="preserve">4.44589710235596</t>
   </si>
   <si>
     <t xml:space="preserve">4.51961708068848</t>
@@ -1460,52 +1460,52 @@
     <t xml:space="preserve">4.46290922164917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3381519317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44447898864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42037773132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43030214309692</t>
+    <t xml:space="preserve">4.33815240859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4444785118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4203782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43030166625977</t>
   </si>
   <si>
     <t xml:space="preserve">4.25167274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34382295608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34807538986206</t>
+    <t xml:space="preserve">4.34382247924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34807634353638</t>
   </si>
   <si>
     <t xml:space="preserve">4.48559188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38635396957397</t>
+    <t xml:space="preserve">4.38635301589966</t>
   </si>
   <si>
     <t xml:space="preserve">4.50118732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64437484741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68123435974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61602020263672</t>
+    <t xml:space="preserve">4.64437437057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68123483657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61602067947388</t>
   </si>
   <si>
     <t xml:space="preserve">4.58624887466431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73794174194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83718204498291</t>
+    <t xml:space="preserve">4.73794221878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83718109130859</t>
   </si>
   <si>
     <t xml:space="preserve">4.86978769302368</t>
@@ -1514,94 +1514,94 @@
     <t xml:space="preserve">4.87971162796021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8825478553772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72660112380981</t>
+    <t xml:space="preserve">4.88254690170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7266001701355</t>
   </si>
   <si>
     <t xml:space="preserve">4.60751390457153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61885595321655</t>
+    <t xml:space="preserve">4.61885547637939</t>
   </si>
   <si>
     <t xml:space="preserve">4.64579200744629</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51819896697998</t>
+    <t xml:space="preserve">4.51819944381714</t>
   </si>
   <si>
     <t xml:space="preserve">4.66705751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64295625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84852266311646</t>
+    <t xml:space="preserve">4.64295673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84852313995361</t>
   </si>
   <si>
     <t xml:space="preserve">4.8230037689209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75070238113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75211906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86695289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82867479324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89247131347656</t>
+    <t xml:space="preserve">4.75070190429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7521185874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86695337295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82867527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89247035980225</t>
   </si>
   <si>
     <t xml:space="preserve">4.63445091247559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65713357925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60326099395752</t>
+    <t xml:space="preserve">4.65713405609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60326147079468</t>
   </si>
   <si>
     <t xml:space="preserve">4.64862775802612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83576345443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91231870651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88821840286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8811297416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03849411010742</t>
+    <t xml:space="preserve">4.8357629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91231918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88821792602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88112926483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03849363327026</t>
   </si>
   <si>
     <t xml:space="preserve">4.96902704238892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89672422409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8428521156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95059680938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94067335128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96052122116089</t>
+    <t xml:space="preserve">4.89672470092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84285163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95059728622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94067239761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96052074432373</t>
   </si>
   <si>
     <t xml:space="preserve">5.02148199081421</t>
@@ -1616,64 +1616,64 @@
     <t xml:space="preserve">5.1037073135376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11646699905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14056825637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11788558959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21287059783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24547815322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37732410430908</t>
+    <t xml:space="preserve">5.11646747589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14056873321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11788511276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21287107467651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24547719955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37732315063477</t>
   </si>
   <si>
     <t xml:space="preserve">5.38724756240845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33621072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38583040237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39858913421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45246076583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42836046218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43686628341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32628726959229</t>
+    <t xml:space="preserve">5.33620977401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38582944869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39858865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45246171951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42836141586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43686723709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32628631591797</t>
   </si>
   <si>
     <t xml:space="preserve">5.20861768722534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33053922653198</t>
+    <t xml:space="preserve">5.3305401802063</t>
   </si>
   <si>
     <t xml:space="preserve">5.41843700408936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44820785522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28375577926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30076789855957</t>
+    <t xml:space="preserve">5.44820833206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28375625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30076742172241</t>
   </si>
   <si>
     <t xml:space="preserve">5.36456394195557</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">5.44395542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49924612045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43403148651123</t>
+    <t xml:space="preserve">5.49924516677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43403100967407</t>
   </si>
   <si>
     <t xml:space="preserve">5.49073934555054</t>
@@ -1694,181 +1694,181 @@
     <t xml:space="preserve">5.51058721542358</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49357509613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47798013687134</t>
+    <t xml:space="preserve">5.49357414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4779806137085</t>
   </si>
   <si>
     <t xml:space="preserve">5.51625823974609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53894186019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5984845161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59990215301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62116670608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62542057037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59423160552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61974954605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6310920715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63392734527588</t>
+    <t xml:space="preserve">5.53894090652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59848403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59990262985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62116813659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62542009353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59423208236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61975002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63109111785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63392686843872</t>
   </si>
   <si>
     <t xml:space="preserve">5.53752326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60131978988647</t>
+    <t xml:space="preserve">5.60131883621216</t>
   </si>
   <si>
     <t xml:space="preserve">5.62825584411621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64243268966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66511583328247</t>
+    <t xml:space="preserve">5.64243316650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66511631011963</t>
   </si>
   <si>
     <t xml:space="preserve">5.72749471664429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77711343765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92597103118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98268032073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12303113937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06774234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08900737762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11310863494873</t>
+    <t xml:space="preserve">5.7771143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92597198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98267889022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1230320930481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06774282455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08900833129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11310768127441</t>
   </si>
   <si>
     <t xml:space="preserve">6.11452627182007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09326028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14713287353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13153839111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14996719360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19958877563477</t>
+    <t xml:space="preserve">6.09325981140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.147132396698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13153791427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14996814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19958829879761</t>
   </si>
   <si>
     <t xml:space="preserve">6.19533443450928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21943473815918</t>
+    <t xml:space="preserve">6.2194356918335</t>
   </si>
   <si>
     <t xml:space="preserve">6.3257622718811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34844732284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3385214805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37254667282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36120557785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42925405502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38105344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540042877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74823665618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70712471008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56535291671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53841829299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.558265209198</t>
+    <t xml:space="preserve">6.34844541549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33852291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37254619598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3612060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42925548553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38105297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540090560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74823617935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70712280273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56535243988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53841686248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55826473236084</t>
   </si>
   <si>
     <t xml:space="preserve">6.64474391937256</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74114799499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6915283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62631320953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67593336105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46469736099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38530588150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37963533401489</t>
+    <t xml:space="preserve">6.74114751815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69152784347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62631416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67593383789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46469688415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3853063583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37963438034058</t>
   </si>
   <si>
     <t xml:space="preserve">6.30591440200806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50013875961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45902729034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54267072677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39664649963379</t>
+    <t xml:space="preserve">6.50014019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45902585983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54266929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39664793014526</t>
   </si>
   <si>
     <t xml:space="preserve">6.45335483551025</t>
@@ -1877,22 +1877,22 @@
     <t xml:space="preserve">6.49446821212769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21518135070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32292747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30733108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25771284103394</t>
+    <t xml:space="preserve">6.21518182754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32292795181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30733299255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25771379470825</t>
   </si>
   <si>
     <t xml:space="preserve">6.22510528564453</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16698026657104</t>
+    <t xml:space="preserve">6.1669807434082</t>
   </si>
   <si>
     <t xml:space="preserve">6.1797399520874</t>
@@ -1901,64 +1901,64 @@
     <t xml:space="preserve">6.33710432052612</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29315519332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32717943191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45193815231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51289844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54408836364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5696063041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53558111190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58520078659058</t>
+    <t xml:space="preserve">6.29315567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32717990875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45193862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51289796829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5440878868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56960678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53558158874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58520126342773</t>
   </si>
   <si>
     <t xml:space="preserve">6.64332675933838</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74398231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86365556716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81608295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78783798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.793785572052</t>
+    <t xml:space="preserve">6.74398279190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86365509033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81608438491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78783702850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79378509521484</t>
   </si>
   <si>
     <t xml:space="preserve">6.882981300354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87108898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03609991073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20260000228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24719905853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22043943405151</t>
+    <t xml:space="preserve">6.87108850479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03610134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20259952545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24719953536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22044086456299</t>
   </si>
   <si>
     <t xml:space="preserve">7.21003437042236</t>
@@ -1967,202 +1967,202 @@
     <t xml:space="preserve">7.17584180831909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24571323394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17435550689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1788158416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14759540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12529706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11043119430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9870433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01826143264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97366333007812</t>
+    <t xml:space="preserve">7.24571180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17435503005981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17881488800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14759635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12529754638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11043167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98704195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01826238632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97366380691528</t>
   </si>
   <si>
     <t xml:space="preserve">7.04204797744751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99150419235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12678289413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94095802307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18030071258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25165891647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16692209243774</t>
+    <t xml:space="preserve">6.99150371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12678384780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94095945358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18030214309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25165843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16692304611206</t>
   </si>
   <si>
     <t xml:space="preserve">7.05245351791382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04799365997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16394901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68526363372803</t>
+    <t xml:space="preserve">7.0479941368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16394805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68526268005371</t>
   </si>
   <si>
     <t xml:space="preserve">6.76405191421509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9201455116272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79675769805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06137418746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01231575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20854711532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18327522277832</t>
+    <t xml:space="preserve">6.92014741897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79675722122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06137371063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01231527328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20854759216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18327474594116</t>
   </si>
   <si>
     <t xml:space="preserve">7.00190925598145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05988788604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98555660247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31409692764282</t>
+    <t xml:space="preserve">7.05988597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98555612564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31409645080566</t>
   </si>
   <si>
     <t xml:space="preserve">7.26355123519897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34085607528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35869359970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49992275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47018909454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48877239227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49248933792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36612606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39586019515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52593755722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57053518295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.477623462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41369867324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55195093154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56681966781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48133897781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63743257522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59283304214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58911895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62628221511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75264596939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6448655128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40626573562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42261838912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41815853118896</t>
+    <t xml:space="preserve">7.34085464477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35869407653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49992179870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4701886177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48877143859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49248695373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.366126537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3958592414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52593803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57053661346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47762250900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41369771957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55195379257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56681823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48133754730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63743162155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59283447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58911752700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62628507614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75264549255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64486598968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40626525878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42261791229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41815757751465</t>
   </si>
   <si>
     <t xml:space="preserve">7.63000011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52965307235718</t>
+    <t xml:space="preserve">7.52965593338013</t>
   </si>
   <si>
     <t xml:space="preserve">7.6188497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86413908004761</t>
+    <t xml:space="preserve">7.86414003372192</t>
   </si>
   <si>
     <t xml:space="preserve">7.87528991699219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98306894302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86785745620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95705461502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00165176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02766609191895</t>
+    <t xml:space="preserve">7.98306798934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8678560256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95705223083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0016508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02766799926758</t>
   </si>
   <si>
     <t xml:space="preserve">8.12057971954346</t>
@@ -2171,22 +2171,22 @@
     <t xml:space="preserve">8.13916110992432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1688928604126</t>
+    <t xml:space="preserve">8.16889476776123</t>
   </si>
   <si>
     <t xml:space="preserve">8.07226371765137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10942935943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09456443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08713054656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19862651824951</t>
+    <t xml:space="preserve">8.10942840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09456348419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08712959289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1986255645752</t>
   </si>
   <si>
     <t xml:space="preserve">8.24694061279297</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">8.30268859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17261028289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05739879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15402793884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32870483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26180839538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28039073944092</t>
+    <t xml:space="preserve">8.17260932922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05739688873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15402889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32870292663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26180744171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28038883209229</t>
   </si>
   <si>
     <t xml:space="preserve">8.29525470733643</t>
@@ -2222,28 +2222,28 @@
     <t xml:space="preserve">8.19652080535889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27188968658447</t>
+    <t xml:space="preserve">8.27189064025879</t>
   </si>
   <si>
     <t xml:space="preserve">8.17014122009277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23797512054443</t>
+    <t xml:space="preserve">8.2379732131958</t>
   </si>
   <si>
     <t xml:space="preserve">8.26058578491211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18521308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13245487213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01563167572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9817156791687</t>
+    <t xml:space="preserve">8.18521499633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13245582580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01563262939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98171615600586</t>
   </si>
   <si>
     <t xml:space="preserve">7.72168731689453</t>
@@ -2261,52 +2261,52 @@
     <t xml:space="preserve">7.77444648742676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67646646499634</t>
+    <t xml:space="preserve">7.67646551132202</t>
   </si>
   <si>
     <t xml:space="preserve">7.78575229644775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82720565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66515970230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73299407958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66139078140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75937271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86112356185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6274733543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68400096893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58602142333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5204496383667</t>
+    <t xml:space="preserve">7.69907855987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82720470428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66515922546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73299217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66139125823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7593731880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86112308502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62747430801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6840033531189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58602237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52044773101807</t>
   </si>
   <si>
     <t xml:space="preserve">7.71415090560913</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60863161087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72922563552856</t>
+    <t xml:space="preserve">7.60863256454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72922420501709</t>
   </si>
   <si>
     <t xml:space="preserve">7.69530868530273</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">7.75183582305908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82343626022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8460488319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74429845809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97794580459595</t>
+    <t xml:space="preserve">7.82343721389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84604787826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74429893493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97794675827026</t>
   </si>
   <si>
     <t xml:space="preserve">8.35102939605713</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">8.28696441650391</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80082702636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.917649269104</t>
+    <t xml:space="preserve">7.80082750320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91765117645264</t>
   </si>
   <si>
     <t xml:space="preserve">8.06839084625244</t>
@@ -2363,19 +2363,19 @@
     <t xml:space="preserve">8.31711292266846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27565956115723</t>
+    <t xml:space="preserve">8.27565765380859</t>
   </si>
   <si>
     <t xml:space="preserve">8.25304794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24174308776855</t>
+    <t xml:space="preserve">8.24174404144287</t>
   </si>
   <si>
     <t xml:space="preserve">8.54699230194092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67512321472168</t>
+    <t xml:space="preserve">8.67512130737305</t>
   </si>
   <si>
     <t xml:space="preserve">8.50553894042969</t>
@@ -2384,40 +2384,40 @@
     <t xml:space="preserve">8.51307582855225</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91011333465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78952217102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60109615325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24610185623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.980797290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25062417984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30187511444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10892772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32750177383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37482118606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93767166137695</t>
+    <t xml:space="preserve">7.9101128578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78952074050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94402933120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60109567642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24610090255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98079776763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25062322616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3018741607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10892724990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32750082015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37482070922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93767213821411</t>
   </si>
   <si>
     <t xml:space="preserve">5.93918037414551</t>
@@ -2429,31 +2429,31 @@
     <t xml:space="preserve">5.08297300338745</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90057706832886</t>
+    <t xml:space="preserve">4.9005765914917</t>
   </si>
   <si>
     <t xml:space="preserve">4.89605474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80108785629272</t>
+    <t xml:space="preserve">4.80108880996704</t>
   </si>
   <si>
     <t xml:space="preserve">5.21110248565674</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22768449783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40857315063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77788686752319</t>
+    <t xml:space="preserve">5.22768402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40857267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77788734436035</t>
   </si>
   <si>
     <t xml:space="preserve">5.83064651489258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10348653793335</t>
+    <t xml:space="preserve">6.10348749160767</t>
   </si>
   <si>
     <t xml:space="preserve">5.91807651519775</t>
@@ -2462,16 +2462,16 @@
     <t xml:space="preserve">5.96631336212158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81858730316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.571373462677</t>
+    <t xml:space="preserve">5.81858777999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57137298583984</t>
   </si>
   <si>
     <t xml:space="preserve">5.85777997970581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9014949798584</t>
+    <t xml:space="preserve">5.90149450302124</t>
   </si>
   <si>
     <t xml:space="preserve">6.05977249145508</t>
@@ -2480,13 +2480,13 @@
     <t xml:space="preserve">6.14720249176025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2391529083252</t>
+    <t xml:space="preserve">6.23915386199951</t>
   </si>
   <si>
     <t xml:space="preserve">6.26025724411011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2858829498291</t>
+    <t xml:space="preserve">6.28588390350342</t>
   </si>
   <si>
     <t xml:space="preserve">5.73266506195068</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">5.8035135269165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73718786239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61508798599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70402383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66633939743042</t>
+    <t xml:space="preserve">5.73718738555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61508750915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70402431488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66633987426758</t>
   </si>
   <si>
     <t xml:space="preserve">5.57589483261108</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">5.94068717956543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93013572692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05223560333252</t>
+    <t xml:space="preserve">5.93013477325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05223512649536</t>
   </si>
   <si>
     <t xml:space="preserve">5.84270572662354</t>
@@ -2531,13 +2531,13 @@
     <t xml:space="preserve">5.53971719741821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4477653503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72362041473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84572124481201</t>
+    <t xml:space="preserve">5.44776582717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7236213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8457202911377</t>
   </si>
   <si>
     <t xml:space="preserve">5.61207294464111</t>
@@ -2549,16 +2549,16 @@
     <t xml:space="preserve">5.41610956192017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62413167953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58041763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58946132659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55479097366333</t>
+    <t xml:space="preserve">5.62413215637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58041715621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58946180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55479145050049</t>
   </si>
   <si>
     <t xml:space="preserve">5.60905790328979</t>
@@ -2567,76 +2567,76 @@
     <t xml:space="preserve">5.83215379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91958379745483</t>
+    <t xml:space="preserve">5.91958427429199</t>
   </si>
   <si>
     <t xml:space="preserve">5.94973182678223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00399875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07333898544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25724267959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45772743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60997581481934</t>
+    <t xml:space="preserve">6.00399827957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07333850860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25724315643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45772790908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60997629165649</t>
   </si>
   <si>
     <t xml:space="preserve">6.74714946746826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53912734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4637565612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12308359146118</t>
+    <t xml:space="preserve">6.53912687301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46375751495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12308311462402</t>
   </si>
   <si>
     <t xml:space="preserve">6.21654319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26930236816406</t>
+    <t xml:space="preserve">6.26930093765259</t>
   </si>
   <si>
     <t xml:space="preserve">6.39592409133911</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36728429794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32206058502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19543838500977</t>
+    <t xml:space="preserve">6.36728286743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32206010818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19543933868408</t>
   </si>
   <si>
     <t xml:space="preserve">6.32309150695801</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4311637878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14610147476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1899561882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06621932983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25104141235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06152153015137</t>
+    <t xml:space="preserve">6.43116474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1461009979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18995714187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06621980667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25104188919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06152105331421</t>
   </si>
   <si>
     <t xml:space="preserve">6.07248544692993</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">6.163330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11477470397949</t>
+    <t xml:space="preserve">6.11477565765381</t>
   </si>
   <si>
     <t xml:space="preserve">5.9706768989563</t>
@@ -2660,49 +2660,49 @@
     <t xml:space="preserve">6.02236413955688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13670301437378</t>
+    <t xml:space="preserve">6.13670253753662</t>
   </si>
   <si>
     <t xml:space="preserve">6.11320924758911</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13983488082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15706491470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41080331802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45779228210449</t>
+    <t xml:space="preserve">6.13983583450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15706443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41080284118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45779180526733</t>
   </si>
   <si>
     <t xml:space="preserve">6.51574373245239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41236877441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38104295730591</t>
+    <t xml:space="preserve">6.4123682975769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38104343414307</t>
   </si>
   <si>
     <t xml:space="preserve">6.22128248214722</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18682432174683</t>
+    <t xml:space="preserve">6.18682384490967</t>
   </si>
   <si>
     <t xml:space="preserve">6.17116165161133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95971250534058</t>
+    <t xml:space="preserve">5.95971298217773</t>
   </si>
   <si>
     <t xml:space="preserve">6.07091903686523</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18369197845459</t>
+    <t xml:space="preserve">6.18369150161743</t>
   </si>
   <si>
     <t xml:space="preserve">6.22598123550415</t>
@@ -2714,28 +2714,28 @@
     <t xml:space="preserve">6.12730503082275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17586040496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28393363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3841757774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37634468078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29959678649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27296924591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17429399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15393209457397</t>
+    <t xml:space="preserve">6.1758599281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28393411636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38417673110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37634515762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29959583282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2729697227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17429447174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15393161773682</t>
   </si>
   <si>
     <t xml:space="preserve">6.21815013885498</t>
@@ -2747,16 +2747,16 @@
     <t xml:space="preserve">6.194655418396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21501731872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14296865463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14766597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05682277679443</t>
+    <t xml:space="preserve">6.21501684188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14296817779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1476674079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05682325363159</t>
   </si>
   <si>
     <t xml:space="preserve">6.01140022277832</t>
@@ -2765,94 +2765,94 @@
     <t xml:space="preserve">6.02393054962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23224687576294</t>
+    <t xml:space="preserve">6.23224639892578</t>
   </si>
   <si>
     <t xml:space="preserve">6.10381126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24947595596313</t>
+    <t xml:space="preserve">6.24947547912598</t>
   </si>
   <si>
     <t xml:space="preserve">6.23851156234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24164342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20562028884888</t>
+    <t xml:space="preserve">6.24164438247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20561933517456</t>
   </si>
   <si>
     <t xml:space="preserve">6.07875108718872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86730194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95031499862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99886989593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9863395690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94091701507568</t>
+    <t xml:space="preserve">5.86730241775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95031547546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99887084960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98634004592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94091749191284</t>
   </si>
   <si>
     <t xml:space="preserve">6.05368995666504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93308687210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92682027816772</t>
+    <t xml:space="preserve">5.93308591842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92682075500488</t>
   </si>
   <si>
     <t xml:space="preserve">5.88296461105347</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91742372512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33405542373657</t>
+    <t xml:space="preserve">5.91742324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33405494689941</t>
   </si>
   <si>
     <t xml:space="preserve">6.27923488616943</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27610158920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27766847610474</t>
+    <t xml:space="preserve">6.27610301971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27766752243042</t>
   </si>
   <si>
     <t xml:space="preserve">6.29176568984985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29333162307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97850894927979</t>
+    <t xml:space="preserve">6.29333209991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97850847244263</t>
   </si>
   <si>
     <t xml:space="preserve">6.05212354660034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05995559692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94718217849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9565806388855</t>
+    <t xml:space="preserve">6.05995512008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94718313217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95658016204834</t>
   </si>
   <si>
     <t xml:space="preserve">5.94561672210693</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85007333755493</t>
+    <t xml:space="preserve">5.85007286071777</t>
   </si>
   <si>
     <t xml:space="preserve">5.80778360366821</t>
@@ -2864,94 +2864,94 @@
     <t xml:space="preserve">5.48826122283936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48199558258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61356401443481</t>
+    <t xml:space="preserve">5.48199605941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61356449127197</t>
   </si>
   <si>
     <t xml:space="preserve">5.6668176651001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.845374584198</t>
+    <t xml:space="preserve">5.84537410736084</t>
   </si>
   <si>
     <t xml:space="preserve">6.03802728652954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9393515586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14923286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30116271972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25574016571045</t>
+    <t xml:space="preserve">5.93935108184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1492338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3011622428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25574064254761</t>
   </si>
   <si>
     <t xml:space="preserve">6.44526100158691</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6598424911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74598836898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86032629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93394184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82743549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86351919174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.018310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95128774642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02150201797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81724071502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87149858474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76138830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78532457351685</t>
+    <t xml:space="preserve">6.65984201431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74598741531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86032676696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93394088745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82743453979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86351823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01830959320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95128679275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02150249481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81723928451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87149715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76138734817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78532409667969</t>
   </si>
   <si>
     <t xml:space="preserve">6.70872640609741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69755601882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70713090896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71670579910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66244888305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65766096115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76457786560059</t>
+    <t xml:space="preserve">6.69755506515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70713043212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71670532226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66244840621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65766048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7645788192749</t>
   </si>
   <si>
     <t xml:space="preserve">6.69436454772949</t>
@@ -2960,79 +2960,79 @@
     <t xml:space="preserve">6.66883134841919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51563501358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64968204498291</t>
+    <t xml:space="preserve">6.51563549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64968109130859</t>
   </si>
   <si>
     <t xml:space="preserve">6.67681074142456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63851118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65606451034546</t>
+    <t xml:space="preserve">6.63851022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65606498718262</t>
   </si>
   <si>
     <t xml:space="preserve">6.61297845840454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81404876708984</t>
+    <t xml:space="preserve">6.814049243927</t>
   </si>
   <si>
     <t xml:space="preserve">6.9560751914978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85713481903076</t>
+    <t xml:space="preserve">6.85713529586792</t>
   </si>
   <si>
     <t xml:space="preserve">6.80926132202148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72947120666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66404438018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68638515472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63053178787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69915103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63691473007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59702014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54914665222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67202377319336</t>
+    <t xml:space="preserve">6.7294716835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66404342651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68638467788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63053274154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69915151596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63691520690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59702110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54914712905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67202281951904</t>
   </si>
   <si>
     <t xml:space="preserve">6.5108470916748</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56989192962646</t>
+    <t xml:space="preserve">6.56989145278931</t>
   </si>
   <si>
     <t xml:space="preserve">6.44382429122925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6177659034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60659503936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07735443115234</t>
+    <t xml:space="preserve">6.61776494979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60659456253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07735538482666</t>
   </si>
   <si>
     <t xml:space="preserve">7.1906566619873</t>
@@ -3041,106 +3041,106 @@
     <t xml:space="preserve">7.35661935806274</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54492330551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63588285446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5912013053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69971513748169</t>
+    <t xml:space="preserve">7.54492282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63588380813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59120082855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69971418380737</t>
   </si>
   <si>
     <t xml:space="preserve">7.7220573425293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79546451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70131158828735</t>
+    <t xml:space="preserve">7.79546403884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70131254196167</t>
   </si>
   <si>
     <t xml:space="preserve">7.56566905975342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4236421585083</t>
+    <t xml:space="preserve">7.42364311218262</t>
   </si>
   <si>
     <t xml:space="preserve">7.49864435195923</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69492816925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60237121582031</t>
+    <t xml:space="preserve">7.69492864608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60237169265747</t>
   </si>
   <si>
     <t xml:space="preserve">7.61992597579956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66620445251465</t>
+    <t xml:space="preserve">7.66620349884033</t>
   </si>
   <si>
     <t xml:space="preserve">7.5034327507019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84174108505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88003969192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908452987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9582347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85929489135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01089572906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09068584442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16249656677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1265926361084</t>
+    <t xml:space="preserve">7.84174156188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88004112243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95823383331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85929441452026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01089477539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09068489074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16249561309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12659168243408</t>
   </si>
   <si>
     <t xml:space="preserve">8.19840145111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15052795410156</t>
+    <t xml:space="preserve">8.15052890777588</t>
   </si>
   <si>
     <t xml:space="preserve">8.32606601715088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28218173980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34202289581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25026512145996</t>
+    <t xml:space="preserve">8.28218078613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3420238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25026607513428</t>
   </si>
   <si>
     <t xml:space="preserve">8.38191795349121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31010723114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35399150848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34601211547852</t>
+    <t xml:space="preserve">8.31010913848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3539924621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34601306915283</t>
   </si>
   <si>
     <t xml:space="preserve">8.41782379150391</t>
@@ -3149,22 +3149,22 @@
     <t xml:space="preserve">8.60134029388428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66118240356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64921474456787</t>
+    <t xml:space="preserve">8.66118335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64921379089355</t>
   </si>
   <si>
     <t xml:space="preserve">8.70506763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7170352935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59336185455322</t>
+    <t xml:space="preserve">8.72900295257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71703624725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59336090087891</t>
   </si>
   <si>
     <t xml:space="preserve">8.61330890655518</t>
@@ -3173,28 +3173,28 @@
     <t xml:space="preserve">8.6053295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50958251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5016040802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59735107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58538246154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46968746185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46569633483887</t>
+    <t xml:space="preserve">8.50958156585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50160312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59735202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58538150787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46968650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4656982421875</t>
   </si>
   <si>
     <t xml:space="preserve">8.65719413757324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62527847290039</t>
+    <t xml:space="preserve">8.62527656555176</t>
   </si>
   <si>
     <t xml:space="preserve">8.63724517822266</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">8.81677341461182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75294017791748</t>
+    <t xml:space="preserve">8.7529411315918</t>
   </si>
   <si>
     <t xml:space="preserve">8.72102546691895</t>
@@ -3224,82 +3224,82 @@
     <t xml:space="preserve">8.95640468597412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9165096282959</t>
+    <t xml:space="preserve">8.91651058197021</t>
   </si>
   <si>
     <t xml:space="preserve">8.8048038482666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80879402160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87262630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00826644897461</t>
+    <t xml:space="preserve">8.80879306793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87262535095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00826835632324</t>
   </si>
   <si>
     <t xml:space="preserve">8.99629974365234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96039485931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03619575500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17582702636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33540725708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21173191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11199569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16784858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17981719970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22768878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41519737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50296497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62265014648438</t>
+    <t xml:space="preserve">8.96039390563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03619480133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17582607269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33540534973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21173095703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11199474334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16784763336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17981624603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22768974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41519546508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50296401977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62264919281006</t>
   </si>
   <si>
     <t xml:space="preserve">9.63860702514648</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56280708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58674335479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55881786346436</t>
+    <t xml:space="preserve">9.56280612945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.586745262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55881690979004</t>
   </si>
   <si>
     <t xml:space="preserve">9.63062763214111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57078742980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33141613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44958686828613</t>
+    <t xml:space="preserve">9.57078647613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33141708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44958782196045</t>
   </si>
   <si>
     <t xml:space="preserve">9.32238864898682</t>
@@ -3314,46 +3314,46 @@
     <t xml:space="preserve">9.34700870513916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19519138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15415954589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15005683898926</t>
+    <t xml:space="preserve">9.1951904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15416049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15005588531494</t>
   </si>
   <si>
     <t xml:space="preserve">9.25673866271973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17467498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3059778213501</t>
+    <t xml:space="preserve">9.17467594146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30597591400146</t>
   </si>
   <si>
     <t xml:space="preserve">9.16646957397461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20339870452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88335037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02285766601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05568504333496</t>
+    <t xml:space="preserve">9.20339775085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88335132598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02285861968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05568408966064</t>
   </si>
   <si>
     <t xml:space="preserve">9.05158042907715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01875495910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89566135406494</t>
+    <t xml:space="preserve">9.01875591278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89566040039062</t>
   </si>
   <si>
     <t xml:space="preserve">8.92438316345215</t>
@@ -3362,10 +3362,10 @@
     <t xml:space="preserve">8.62074851989746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70691394805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98182678222656</t>
+    <t xml:space="preserve">8.7069149017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98182582855225</t>
   </si>
   <si>
     <t xml:space="preserve">9.11723041534424</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">9.27315235137939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18288230895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16236591339111</t>
+    <t xml:space="preserve">9.18288135528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16236686706543</t>
   </si>
   <si>
     <t xml:space="preserve">9.12954139709473</t>
@@ -3389,10 +3389,10 @@
     <t xml:space="preserve">9.31828594207764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45779418945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50292778015137</t>
+    <t xml:space="preserve">9.45779323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50292873382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.53985786437988</t>
@@ -3401,49 +3401,49 @@
     <t xml:space="preserve">9.61781787872314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63833332061768</t>
+    <t xml:space="preserve">9.63833236694336</t>
   </si>
   <si>
     <t xml:space="preserve">9.58909606933594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52754592895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47420597076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55216598510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4331750869751</t>
+    <t xml:space="preserve">9.52754688262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47420787811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55216693878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43317413330078</t>
   </si>
   <si>
     <t xml:space="preserve">9.3634204864502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56857967376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54396152496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51113605499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42496776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46600151062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51523971557617</t>
+    <t xml:space="preserve">9.56857872009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54395961761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51113510131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42496871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46599960327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51523876190186</t>
   </si>
   <si>
     <t xml:space="preserve">9.54806423187256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40445232391357</t>
+    <t xml:space="preserve">9.40445423126221</t>
   </si>
   <si>
     <t xml:space="preserve">9.4701042175293</t>
@@ -3452,16 +3452,16 @@
     <t xml:space="preserve">9.48651695251465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57268333435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72449970245361</t>
+    <t xml:space="preserve">9.57268238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72450065612793</t>
   </si>
   <si>
     <t xml:space="preserve">9.63422966003418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67115879058838</t>
+    <t xml:space="preserve">9.67115783691406</t>
   </si>
   <si>
     <t xml:space="preserve">9.75732421875</t>
@@ -3470,10 +3470,10 @@
     <t xml:space="preserve">9.8270788192749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79015064239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88041973114014</t>
+    <t xml:space="preserve">9.79015159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88042068481445</t>
   </si>
   <si>
     <t xml:space="preserve">9.64243602752686</t>
@@ -3482,10 +3482,10 @@
     <t xml:space="preserve">9.70808696746826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76963329315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72860336303711</t>
+    <t xml:space="preserve">9.76963424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72860240936279</t>
   </si>
   <si>
     <t xml:space="preserve">9.92555522918701</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">9.86810970306396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9912052154541</t>
+    <t xml:space="preserve">9.99120616912842</t>
   </si>
   <si>
     <t xml:space="preserve">9.9953088760376</t>
@@ -3506,22 +3506,22 @@
     <t xml:space="preserve">10.1101970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1471252441406</t>
+    <t xml:space="preserve">10.1471242904663</t>
   </si>
   <si>
     <t xml:space="preserve">10.2579107284546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1963634490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1635389328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.052752494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3030462265015</t>
+    <t xml:space="preserve">10.196364402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.163537979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0527515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3030452728271</t>
   </si>
   <si>
     <t xml:space="preserve">10.2661180496216</t>
@@ -3530,34 +3530,34 @@
     <t xml:space="preserve">10.2456016540527</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4015235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3112516403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2948389053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1266098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.212776184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1758470535278</t>
+    <t xml:space="preserve">10.4015216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3112525939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2948398590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1266107559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2127752304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1758480072021</t>
   </si>
   <si>
     <t xml:space="preserve">10.2989435195923</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2250843048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2538080215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2086734771729</t>
+    <t xml:space="preserve">10.2250852584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2538089752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2086725234985</t>
   </si>
   <si>
     <t xml:space="preserve">10.1060934066772</t>
@@ -3566,16 +3566,16 @@
     <t xml:space="preserve">10.0486497879028</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0609588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96658706665039</t>
+    <t xml:space="preserve">10.060959815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96658611297607</t>
   </si>
   <si>
     <t xml:space="preserve">9.90093517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88010025024414</t>
+    <t xml:space="preserve">9.88009929656982</t>
   </si>
   <si>
     <t xml:space="preserve">9.80092620849609</t>
@@ -3587,16 +3587,16 @@
     <t xml:space="preserve">9.62590980529785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23003959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33004760742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28421115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45922660827637</t>
+    <t xml:space="preserve">9.23003768920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33004856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28421020507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.459228515625</t>
   </si>
   <si>
     <t xml:space="preserve">9.35921764373779</t>
@@ -3605,13 +3605,13 @@
     <t xml:space="preserve">9.28837871551514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32171535491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45089340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31754589080811</t>
+    <t xml:space="preserve">9.32171440124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45089244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31754779815674</t>
   </si>
   <si>
     <t xml:space="preserve">9.25087451934814</t>
@@ -3620,22 +3620,22 @@
     <t xml:space="preserve">9.20920372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21337032318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.234206199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27587699890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34254932403564</t>
+    <t xml:space="preserve">9.21337127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23420715332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27587604522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34255027770996</t>
   </si>
   <si>
     <t xml:space="preserve">9.3550500869751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1425313949585</t>
+    <t xml:space="preserve">9.14253044128418</t>
   </si>
   <si>
     <t xml:space="preserve">9.2925443649292</t>
@@ -3647,10 +3647,10 @@
     <t xml:space="preserve">9.46756076812744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55090236663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63007736206055</t>
+    <t xml:space="preserve">9.5509033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63007640838623</t>
   </si>
   <si>
     <t xml:space="preserve">9.6092414855957</t>
@@ -3659,49 +3659,49 @@
     <t xml:space="preserve">9.61757564544678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75508689880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7675895690918</t>
+    <t xml:space="preserve">9.75508880615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76759052276611</t>
   </si>
   <si>
     <t xml:space="preserve">9.80509376525879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72175216674805</t>
+    <t xml:space="preserve">9.72175121307373</t>
   </si>
   <si>
     <t xml:space="preserve">9.75092124938965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78009033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71341705322266</t>
+    <t xml:space="preserve">9.78009128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71341800689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.66758060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67591285705566</t>
+    <t xml:space="preserve">9.67591381072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.6384105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65924644470215</t>
+    <t xml:space="preserve">9.65924549102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.7384204864502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57173728942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18836784362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41338920593262</t>
+    <t xml:space="preserve">9.57173824310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18836688995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4133882522583</t>
   </si>
   <si>
     <t xml:space="preserve">9.62174224853516</t>
@@ -3725,10 +3725,10 @@
     <t xml:space="preserve">9.17586803436279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99668407440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16336536407471</t>
+    <t xml:space="preserve">8.99668216705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16336631774902</t>
   </si>
   <si>
     <t xml:space="preserve">9.24670791625977</t>
@@ -3740,25 +3740,25 @@
     <t xml:space="preserve">9.19670295715332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97168064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93834495544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86333847045898</t>
+    <t xml:space="preserve">8.97168159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93834590911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86333751678467</t>
   </si>
   <si>
     <t xml:space="preserve">8.36745738983154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64248275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56330871582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21744346618652</t>
+    <t xml:space="preserve">8.64248371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56330966949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21744251251221</t>
   </si>
   <si>
     <t xml:space="preserve">8.20410823822021</t>
@@ -3767,16 +3767,16 @@
     <t xml:space="preserve">8.08909797668457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56738138198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4040322303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74739837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43412971496582</t>
+    <t xml:space="preserve">7.56738233566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40403270721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74739933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43413066864014</t>
   </si>
   <si>
     <t xml:space="preserve">8.00742340087891</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">8.27411556243896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22910976409912</t>
+    <t xml:space="preserve">8.22911071777344</t>
   </si>
   <si>
     <t xml:space="preserve">8.6008129119873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42162799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39662647247314</t>
+    <t xml:space="preserve">8.42162895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39662742614746</t>
   </si>
   <si>
     <t xml:space="preserve">8.42996311187744</t>
@@ -3809,34 +3809,34 @@
     <t xml:space="preserve">8.63831615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7924976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67582035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77582836151123</t>
+    <t xml:space="preserve">8.79249668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67581939697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77582931518555</t>
   </si>
   <si>
     <t xml:space="preserve">8.85083675384521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81333351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66748428344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53830623626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35495567321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22744369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38829231262207</t>
+    <t xml:space="preserve">8.81333160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6674861907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35495662689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22744464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38829326629639</t>
   </si>
   <si>
     <t xml:space="preserve">8.32078647613525</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">8.19577407836914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11243343353271</t>
+    <t xml:space="preserve">8.11243438720703</t>
   </si>
   <si>
     <t xml:space="preserve">8.17744064331055</t>
@@ -3854,94 +3854,94 @@
     <t xml:space="preserve">8.04576015472412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25744724273682</t>
+    <t xml:space="preserve">8.2574462890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.23077869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08576393127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8574104309082</t>
+    <t xml:space="preserve">8.08576488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85740995407104</t>
   </si>
   <si>
     <t xml:space="preserve">7.75239849090576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72739696502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77740097045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81573867797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73739767074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67572593688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61571884155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50237512588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30735778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4807071685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65405654907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89407968521118</t>
+    <t xml:space="preserve">7.7273964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77740144729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81573915481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73739814758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67572546005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61571931838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50237560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30735731124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48070669174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65405559539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89408016204834</t>
   </si>
   <si>
     <t xml:space="preserve">8.05909538269043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94575119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02075672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97242069244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94408369064331</t>
+    <t xml:space="preserve">7.94575166702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0207576751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97241926193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94408416748047</t>
   </si>
   <si>
     <t xml:space="preserve">7.92074775695801</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07576179504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908262252808</t>
+    <t xml:space="preserve">8.07576274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908405303955</t>
   </si>
   <si>
     <t xml:space="preserve">8.07076263427734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1274356842041</t>
+    <t xml:space="preserve">8.12743473052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.27744960784912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45913219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35079002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3466215133667</t>
+    <t xml:space="preserve">8.45913314819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35078811645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34662246704102</t>
   </si>
   <si>
     <t xml:space="preserve">8.26744842529297</t>
@@ -3953,28 +3953,28 @@
     <t xml:space="preserve">8.40912818908691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29245090484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62738800048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37236261367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5990514755249</t>
+    <t xml:space="preserve">8.29244995117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62738752365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37236356735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59905099868774</t>
   </si>
   <si>
     <t xml:space="preserve">7.84907531738281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45903873443604</t>
+    <t xml:space="preserve">7.45903730392456</t>
   </si>
   <si>
     <t xml:space="preserve">7.49737501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67453336715698</t>
+    <t xml:space="preserve">7.67453241348267</t>
   </si>
   <si>
     <t xml:space="preserve">7.6099534034729</t>
@@ -3983,22 +3983,22 @@
     <t xml:space="preserve">7.64486122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58551740646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80718469619751</t>
+    <t xml:space="preserve">7.58551836013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80718374252319</t>
   </si>
   <si>
     <t xml:space="preserve">7.76878499984741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92412519454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86478233337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77751111984253</t>
+    <t xml:space="preserve">7.92412614822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86478185653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77751159667969</t>
   </si>
   <si>
     <t xml:space="preserve">7.78100252151489</t>
@@ -4007,22 +4007,22 @@
     <t xml:space="preserve">7.77402114868164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.461594581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50872039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70245981216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58202600479126</t>
+    <t xml:space="preserve">7.46159410476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50871992111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70246028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58202695846558</t>
   </si>
   <si>
     <t xml:space="preserve">7.43890380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47206735610962</t>
+    <t xml:space="preserve">7.47206687927246</t>
   </si>
   <si>
     <t xml:space="preserve">7.31498050689697</t>
@@ -4034,16 +4034,16 @@
     <t xml:space="preserve">7.1194953918457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25389194488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49475765228271</t>
+    <t xml:space="preserve">7.25389242172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4947566986084</t>
   </si>
   <si>
     <t xml:space="preserve">7.32894325256348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97113561630249</t>
+    <t xml:space="preserve">6.97113609313965</t>
   </si>
   <si>
     <t xml:space="preserve">7.06364250183105</t>
@@ -4052,10 +4052,10 @@
     <t xml:space="preserve">7.09331464767456</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07760572433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08982276916504</t>
+    <t xml:space="preserve">7.07760524749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0898232460022</t>
   </si>
   <si>
     <t xml:space="preserve">7.03047943115234</t>
@@ -4064,13 +4064,13 @@
     <t xml:space="preserve">7.12996768951416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19978332519531</t>
+    <t xml:space="preserve">7.19978427886963</t>
   </si>
   <si>
     <t xml:space="preserve">7.11251354217529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23294687271118</t>
+    <t xml:space="preserve">7.23294639587402</t>
   </si>
   <si>
     <t xml:space="preserve">7.31672525405884</t>
@@ -4085,10 +4085,10 @@
     <t xml:space="preserve">7.2905445098877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33418035507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4423942565918</t>
+    <t xml:space="preserve">7.33417987823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44239377975464</t>
   </si>
   <si>
     <t xml:space="preserve">7.44937658309937</t>
@@ -4097,46 +4097,46 @@
     <t xml:space="preserve">7.38654184341431</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28879976272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15614891052246</t>
+    <t xml:space="preserve">7.28879928588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1561484336853</t>
   </si>
   <si>
     <t xml:space="preserve">6.97462749481201</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08109664916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04618883132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02349853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8646674156189</t>
+    <t xml:space="preserve">7.08109712600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04618835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02349901199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86466693878174</t>
   </si>
   <si>
     <t xml:space="preserve">6.7773962020874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93448305130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88212108612061</t>
+    <t xml:space="preserve">6.93448257446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88212060928345</t>
   </si>
   <si>
     <t xml:space="preserve">7.06887865066528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88561153411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9641547203064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98335409164429</t>
+    <t xml:space="preserve">6.88561105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96415424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98335361480713</t>
   </si>
   <si>
     <t xml:space="preserve">7.0566611289978</t>
@@ -4145,34 +4145,34 @@
     <t xml:space="preserve">7.16487598419189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26087284088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27483701705933</t>
+    <t xml:space="preserve">7.26087236404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27483654022217</t>
   </si>
   <si>
     <t xml:space="preserve">7.33243465423584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21898317337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25040054321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09855031967163</t>
+    <t xml:space="preserve">7.21898365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25039958953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09854984283447</t>
   </si>
   <si>
     <t xml:space="preserve">7.09505987167358</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89084768295288</t>
+    <t xml:space="preserve">6.89084815979004</t>
   </si>
   <si>
     <t xml:space="preserve">6.96066379547119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8157958984375</t>
+    <t xml:space="preserve">6.81579542160034</t>
   </si>
   <si>
     <t xml:space="preserve">6.82452249526978</t>
@@ -4187,13 +4187,13 @@
     <t xml:space="preserve">6.9379734992981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1421856880188</t>
+    <t xml:space="preserve">7.14218616485596</t>
   </si>
   <si>
     <t xml:space="preserve">7.03920650482178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92051935195923</t>
+    <t xml:space="preserve">6.92051982879639</t>
   </si>
   <si>
     <t xml:space="preserve">6.8262677192688</t>
@@ -4202,13 +4202,13 @@
     <t xml:space="preserve">6.84197664260864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68489027023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79485034942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89782905578613</t>
+    <t xml:space="preserve">6.684889793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79485082626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89782953262329</t>
   </si>
   <si>
     <t xml:space="preserve">7.07062435150146</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">7.19280195236206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35861587524414</t>
+    <t xml:space="preserve">7.35861539840698</t>
   </si>
   <si>
     <t xml:space="preserve">7.42668628692627</t>
@@ -4235,7 +4235,7 @@
     <t xml:space="preserve">7.49650239944458</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71642255783081</t>
+    <t xml:space="preserve">7.71642303466797</t>
   </si>
   <si>
     <t xml:space="preserve">7.65707921981812</t>
@@ -4244,22 +4244,22 @@
     <t xml:space="preserve">7.69722318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71991300582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67976903915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.632643699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87699890136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01139640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06026649475098</t>
+    <t xml:space="preserve">7.71991395950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67976999282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63264322280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87700033187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01139545440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06026744842529</t>
   </si>
   <si>
     <t xml:space="preserve">8.15975475311279</t>
@@ -4268,7 +4268,7 @@
     <t xml:space="preserve">8.51232624053955</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41109180450439</t>
+    <t xml:space="preserve">8.41109371185303</t>
   </si>
   <si>
     <t xml:space="preserve">8.4686918258667</t>
@@ -4283,25 +4283,25 @@
     <t xml:space="preserve">8.34127712249756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38142013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34394931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30469131469727</t>
+    <t xml:space="preserve">8.38142108917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34394836425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30469036102295</t>
   </si>
   <si>
     <t xml:space="preserve">8.39034366607666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.281494140625</t>
+    <t xml:space="preserve">8.28149318695068</t>
   </si>
   <si>
     <t xml:space="preserve">8.42781639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33145809173584</t>
+    <t xml:space="preserve">8.33145713806152</t>
   </si>
   <si>
     <t xml:space="preserve">8.40640354156494</t>
@@ -4310,13 +4310,13 @@
     <t xml:space="preserve">8.37428283691406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43138408660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40997219085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33859539031982</t>
+    <t xml:space="preserve">8.4313850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40997123718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33859443664551</t>
   </si>
   <si>
     <t xml:space="preserve">8.44030666351318</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">8.36714649200439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46885776519775</t>
+    <t xml:space="preserve">8.46885681152344</t>
   </si>
   <si>
     <t xml:space="preserve">8.47064208984375</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">8.07271671295166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07985496520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21903800964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2868480682373</t>
+    <t xml:space="preserve">8.07985401153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21903896331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28684711456299</t>
   </si>
   <si>
     <t xml:space="preserve">8.21725463867188</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">8.23688411712646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16193675994873</t>
+    <t xml:space="preserve">8.16193771362305</t>
   </si>
   <si>
     <t xml:space="preserve">8.25294303894043</t>
@@ -4373,7 +4373,7 @@
     <t xml:space="preserve">8.39748096466064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6062593460083</t>
+    <t xml:space="preserve">8.60625839233398</t>
   </si>
   <si>
     <t xml:space="preserve">8.48670196533203</t>
@@ -4385,10 +4385,10 @@
     <t xml:space="preserve">8.55451011657715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65443706512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57949256896973</t>
+    <t xml:space="preserve">8.65443801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57949161529541</t>
   </si>
   <si>
     <t xml:space="preserve">8.65800666809082</t>
@@ -4400,22 +4400,22 @@
     <t xml:space="preserve">8.72938346862793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6740665435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71332359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5223913192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54915714263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5901985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59911918640137</t>
+    <t xml:space="preserve">8.67406558990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71332263946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52239036560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54915618896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59019947052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59912109375</t>
   </si>
   <si>
     <t xml:space="preserve">8.72224521636963</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">9.09162044525146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9934778213501</t>
+    <t xml:space="preserve">8.99347686767578</t>
   </si>
   <si>
     <t xml:space="preserve">9.00239944458008</t>
@@ -4448,16 +4448,16 @@
     <t xml:space="preserve">8.96671104431152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09608173370361</t>
+    <t xml:space="preserve">9.0960807800293</t>
   </si>
   <si>
     <t xml:space="preserve">9.04701042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1273078918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12284755706787</t>
+    <t xml:space="preserve">9.12730884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12284851074219</t>
   </si>
   <si>
     <t xml:space="preserve">8.84001731872559</t>
@@ -4466,10 +4466,10 @@
     <t xml:space="preserve">8.9024715423584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79362201690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91853141784668</t>
+    <t xml:space="preserve">8.79362297058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.918532371521</t>
   </si>
   <si>
     <t xml:space="preserve">9.10054302215576</t>
@@ -4481,10 +4481,10 @@
     <t xml:space="preserve">8.95778846740723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03808879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20314598083496</t>
+    <t xml:space="preserve">9.03808784484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20314693450928</t>
   </si>
   <si>
     <t xml:space="preserve">9.1451530456543</t>
@@ -4505,16 +4505,16 @@
     <t xml:space="preserve">8.68655776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2672176361084</t>
+    <t xml:space="preserve">8.26721858978271</t>
   </si>
   <si>
     <t xml:space="preserve">8.0405969619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1244649887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40105056762695</t>
+    <t xml:space="preserve">8.12446403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40104961395264</t>
   </si>
   <si>
     <t xml:space="preserve">8.34573268890381</t>
@@ -4550,25 +4550,25 @@
     <t xml:space="preserve">8.37785243988037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51525211334229</t>
+    <t xml:space="preserve">8.5152530670166</t>
   </si>
   <si>
     <t xml:space="preserve">8.38677406311035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44387626647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53309631347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4492301940918</t>
+    <t xml:space="preserve">8.44387531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53309726715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44922924041748</t>
   </si>
   <si>
     <t xml:space="preserve">8.54737186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46528816223145</t>
+    <t xml:space="preserve">8.46528911590576</t>
   </si>
   <si>
     <t xml:space="preserve">8.40283489227295</t>
@@ -4577,10 +4577,10 @@
     <t xml:space="preserve">8.49740886688232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21011638641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28327941894531</t>
+    <t xml:space="preserve">8.21011734008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.283278465271</t>
   </si>
   <si>
     <t xml:space="preserve">8.19227313995361</t>
@@ -4589,10 +4589,10 @@
     <t xml:space="preserve">8.45458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49562549591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5848445892334</t>
+    <t xml:space="preserve">8.49562358856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58484554290771</t>
   </si>
   <si>
     <t xml:space="preserve">8.47956371307373</t>
@@ -4616,13 +4616,13 @@
     <t xml:space="preserve">8.85964584350586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8346643447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63480949401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74008846282959</t>
+    <t xml:space="preserve">8.83466529846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63480854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74008941650391</t>
   </si>
   <si>
     <t xml:space="preserve">8.71689319610596</t>
@@ -4634,52 +4634,52 @@
     <t xml:space="preserve">8.70797061920166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92210006713867</t>
+    <t xml:space="preserve">8.92210102081299</t>
   </si>
   <si>
     <t xml:space="preserve">8.83823299407959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87035274505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9006872177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83644962310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91317749023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93994522094727</t>
+    <t xml:space="preserve">8.87035179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90068626403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91317844390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93994426727295</t>
   </si>
   <si>
     <t xml:space="preserve">9.00686073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98009395599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00094127655029</t>
+    <t xml:space="preserve">8.98009490966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00094032287598</t>
   </si>
   <si>
     <t xml:space="preserve">8.90951347351074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87965869903564</t>
+    <t xml:space="preserve">8.87965965270996</t>
   </si>
   <si>
     <t xml:space="preserve">8.84420776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88339233398438</t>
+    <t xml:space="preserve">8.88339138031006</t>
   </si>
   <si>
     <t xml:space="preserve">8.85353755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06997871398926</t>
+    <t xml:space="preserve">9.06997776031494</t>
   </si>
   <si>
     <t xml:space="preserve">9.18006420135498</t>
@@ -4703,7 +4703,7 @@
     <t xml:space="preserve">9.04758739471436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11662578582764</t>
+    <t xml:space="preserve">9.11662483215332</t>
   </si>
   <si>
     <t xml:space="preserve">9.12595367431641</t>
@@ -4721,19 +4721,19 @@
     <t xml:space="preserve">9.26962566375732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27335643768311</t>
+    <t xml:space="preserve">9.27335739135742</t>
   </si>
   <si>
     <t xml:space="preserve">9.29948043823242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42262744903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43195533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54390716552734</t>
+    <t xml:space="preserve">9.42262649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43195629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54390811920166</t>
   </si>
   <si>
     <t xml:space="preserve">9.64186668395996</t>
@@ -4751,7 +4751,7 @@
     <t xml:space="preserve">9.59521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38530921936035</t>
+    <t xml:space="preserve">9.38531017303467</t>
   </si>
   <si>
     <t xml:space="preserve">9.38064479827881</t>
@@ -4760,7 +4760,7 @@
     <t xml:space="preserve">9.3993034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26775932312012</t>
+    <t xml:space="preserve">9.26776027679443</t>
   </si>
   <si>
     <t xml:space="preserve">9.41329765319824</t>
@@ -4769,7 +4769,7 @@
     <t xml:space="preserve">9.4879322052002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45528030395508</t>
+    <t xml:space="preserve">9.45527935028076</t>
   </si>
   <si>
     <t xml:space="preserve">9.47860240936279</t>
@@ -4787,7 +4787,7 @@
     <t xml:space="preserve">9.37598037719727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38997364044189</t>
+    <t xml:space="preserve">9.38997459411621</t>
   </si>
   <si>
     <t xml:space="preserve">9.41796207427979</t>
@@ -4808,7 +4808,7 @@
     <t xml:space="preserve">9.47393798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39463901519775</t>
+    <t xml:space="preserve">9.39463806152344</t>
   </si>
   <si>
     <t xml:space="preserve">9.60454845428467</t>
@@ -4817,7 +4817,7 @@
     <t xml:space="preserve">9.49726104736328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44128513336182</t>
+    <t xml:space="preserve">9.44128608703613</t>
   </si>
   <si>
     <t xml:space="preserve">9.43662071228027</t>
@@ -4829,13 +4829,13 @@
     <t xml:space="preserve">9.4086332321167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34332847595215</t>
+    <t xml:space="preserve">9.34332752227783</t>
   </si>
   <si>
     <t xml:space="preserve">9.26029586791992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20432090759277</t>
+    <t xml:space="preserve">9.20431995391846</t>
   </si>
   <si>
     <t xml:space="preserve">9.02706241607666</t>
@@ -4847,13 +4847,13 @@
     <t xml:space="preserve">8.90764808654785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98974514007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90205001831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10729503631592</t>
+    <t xml:space="preserve">8.98974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90204906463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10729598999023</t>
   </si>
   <si>
     <t xml:space="preserve">9.17446613311768</t>
@@ -4862,10 +4862,10 @@
     <t xml:space="preserve">9.09423446655273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20991706848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23417472839355</t>
+    <t xml:space="preserve">9.20991802215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23417377471924</t>
   </si>
   <si>
     <t xml:space="preserve">9.03639221191406</t>
@@ -4874,19 +4874,19 @@
     <t xml:space="preserve">8.57179164886475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55126762390137</t>
+    <t xml:space="preserve">8.55126667022705</t>
   </si>
   <si>
     <t xml:space="preserve">8.55499935150146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48969459533691</t>
+    <t xml:space="preserve">8.4896936416626</t>
   </si>
   <si>
     <t xml:space="preserve">8.61097431182861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52887630462646</t>
+    <t xml:space="preserve">8.52887725830078</t>
   </si>
   <si>
     <t xml:space="preserve">8.58112049102783</t>
@@ -5328,6 +5328,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.1199998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2449998855591</t>
   </si>
 </sst>
 </file>
@@ -15593,7 +15596,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G382" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15619,7 +15622,7 @@
         <v>6.03499984741211</v>
       </c>
       <c r="G383" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15645,7 +15648,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G384" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15671,7 +15674,7 @@
         <v>6.00500011444092</v>
       </c>
       <c r="G385" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15697,7 +15700,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G386" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15723,7 +15726,7 @@
         <v>5.94500017166138</v>
       </c>
       <c r="G387" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15749,7 +15752,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G388" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15775,7 +15778,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G389" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15827,7 +15830,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G391" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15853,7 +15856,7 @@
         <v>6.125</v>
       </c>
       <c r="G392" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15879,7 +15882,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G393" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15931,7 +15934,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G395" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15957,7 +15960,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G396" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15983,7 +15986,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G397" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -16009,7 +16012,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G398" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -16035,7 +16038,7 @@
         <v>6.02500009536743</v>
       </c>
       <c r="G399" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -16061,7 +16064,7 @@
         <v>6.03499984741211</v>
       </c>
       <c r="G400" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -16087,7 +16090,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G401" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -16113,7 +16116,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -16139,7 +16142,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G403" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -16165,7 +16168,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G404" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -16191,7 +16194,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G405" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -16217,7 +16220,7 @@
         <v>6.22499990463257</v>
       </c>
       <c r="G406" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16243,7 +16246,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G407" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16269,7 +16272,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G408" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16295,7 +16298,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G409" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16321,7 +16324,7 @@
         <v>6.21500015258789</v>
       </c>
       <c r="G410" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16347,7 +16350,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G411" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16373,7 +16376,7 @@
         <v>6.21500015258789</v>
       </c>
       <c r="G412" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16399,7 +16402,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G413" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16425,7 +16428,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G414" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16451,7 +16454,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G415" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16477,7 +16480,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G416" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16503,7 +16506,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G417" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16529,7 +16532,7 @@
         <v>6.10500001907349</v>
       </c>
       <c r="G418" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16555,7 +16558,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G419" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16581,7 +16584,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G420" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16607,7 +16610,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G421" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16633,7 +16636,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G422" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16659,7 +16662,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G423" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16685,7 +16688,7 @@
         <v>6.125</v>
       </c>
       <c r="G424" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16711,7 +16714,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G425" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16737,7 +16740,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G426" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16763,7 +16766,7 @@
         <v>6.10500001907349</v>
       </c>
       <c r="G427" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16789,7 +16792,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G428" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16815,7 +16818,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G429" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16841,7 +16844,7 @@
         <v>6.03499984741211</v>
       </c>
       <c r="G430" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16867,7 +16870,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G431" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16893,7 +16896,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G432" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16919,7 +16922,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16945,7 +16948,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G434" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16971,7 +16974,7 @@
         <v>6.25</v>
       </c>
       <c r="G435" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16997,7 +17000,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G436" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -17023,7 +17026,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G437" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -17049,7 +17052,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G438" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -17075,7 +17078,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G439" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -17101,7 +17104,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G440" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -17127,7 +17130,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G441" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -17153,7 +17156,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G442" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -17179,7 +17182,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G443" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -17205,7 +17208,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G444" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17231,7 +17234,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G445" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17257,7 +17260,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G446" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17283,7 +17286,7 @@
         <v>6.21500015258789</v>
       </c>
       <c r="G447" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17309,7 +17312,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17335,7 +17338,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G449" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17361,7 +17364,7 @@
         <v>6.25</v>
       </c>
       <c r="G450" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17387,7 +17390,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G451" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17413,7 +17416,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G452" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17439,7 +17442,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G453" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17465,7 +17468,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G454" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17491,7 +17494,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G455" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17517,7 +17520,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G456" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17543,7 +17546,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G457" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17569,7 +17572,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G458" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17595,7 +17598,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G459" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17621,7 +17624,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G460" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17647,7 +17650,7 @@
         <v>6.25</v>
       </c>
       <c r="G461" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17673,7 +17676,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G462" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17699,7 +17702,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G463" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17725,7 +17728,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G464" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17751,7 +17754,7 @@
         <v>6.22499990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17777,7 +17780,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G466" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17803,7 +17806,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G467" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17829,7 +17832,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G468" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17855,7 +17858,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G469" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17881,7 +17884,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G470" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17907,7 +17910,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G471" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17933,7 +17936,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G472" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17959,7 +17962,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G473" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17985,7 +17988,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G474" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -18011,7 +18014,7 @@
         <v>6.25500011444092</v>
       </c>
       <c r="G475" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -18037,7 +18040,7 @@
         <v>6.22499990463257</v>
       </c>
       <c r="G476" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -18063,7 +18066,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G477" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -18089,7 +18092,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G478" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -18115,7 +18118,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -18141,7 +18144,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G480" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -18167,7 +18170,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G481" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -18193,7 +18196,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G482" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -18219,7 +18222,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G483" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18245,7 +18248,7 @@
         <v>6.10500001907349</v>
       </c>
       <c r="G484" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18271,7 +18274,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G485" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18297,7 +18300,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G486" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18323,7 +18326,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G487" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18349,7 +18352,7 @@
         <v>6.125</v>
       </c>
       <c r="G488" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18375,7 +18378,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G489" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18401,7 +18404,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G490" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18427,7 +18430,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G491" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18453,7 +18456,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G492" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18479,7 +18482,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G493" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18505,7 +18508,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G494" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18531,7 +18534,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G495" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18557,7 +18560,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G496" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18583,7 +18586,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G497" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18609,7 +18612,7 @@
         <v>6.125</v>
       </c>
       <c r="G498" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18635,7 +18638,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G499" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18661,7 +18664,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G500" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18687,7 +18690,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18713,7 +18716,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G502" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18739,7 +18742,7 @@
         <v>6.36499977111816</v>
       </c>
       <c r="G503" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18765,7 +18768,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G504" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18791,7 +18794,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G505" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18817,7 +18820,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G506" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18843,7 +18846,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G507" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18869,7 +18872,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18895,7 +18898,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G509" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18921,7 +18924,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G510" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18947,7 +18950,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G511" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18973,7 +18976,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G512" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18999,7 +19002,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G513" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -19025,7 +19028,7 @@
         <v>6.375</v>
       </c>
       <c r="G514" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -19051,7 +19054,7 @@
         <v>6.40500020980835</v>
       </c>
       <c r="G515" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -19077,7 +19080,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G516" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -19103,7 +19106,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G517" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -19129,7 +19132,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G518" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -19155,7 +19158,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G519" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -19181,7 +19184,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G520" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -19207,7 +19210,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G521" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19233,7 +19236,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G522" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19259,7 +19262,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G523" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19285,7 +19288,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G524" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19311,7 +19314,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G525" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19337,7 +19340,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G526" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19363,7 +19366,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G527" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19389,7 +19392,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G528" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19415,7 +19418,7 @@
         <v>6.67500019073486</v>
       </c>
       <c r="G529" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19441,7 +19444,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G530" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19467,7 +19470,7 @@
         <v>6.65199995040894</v>
       </c>
       <c r="G531" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19493,7 +19496,7 @@
         <v>6.62400007247925</v>
       </c>
       <c r="G532" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19519,7 +19522,7 @@
         <v>6.66400003433228</v>
       </c>
       <c r="G533" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19545,7 +19548,7 @@
         <v>6.65199995040894</v>
       </c>
       <c r="G534" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19571,7 +19574,7 @@
         <v>6.58400011062622</v>
       </c>
       <c r="G535" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19597,7 +19600,7 @@
         <v>6.59800004959106</v>
       </c>
       <c r="G536" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19623,7 +19626,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G537" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19649,7 +19652,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G538" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19675,7 +19678,7 @@
         <v>6.44600009918213</v>
       </c>
       <c r="G539" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19701,7 +19704,7 @@
         <v>6.43599987030029</v>
       </c>
       <c r="G540" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19727,7 +19730,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G541" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19753,7 +19756,7 @@
         <v>6.46400022506714</v>
       </c>
       <c r="G542" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19779,7 +19782,7 @@
         <v>6.52799987792969</v>
       </c>
       <c r="G543" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19805,7 +19808,7 @@
         <v>6.58199977874756</v>
       </c>
       <c r="G544" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19831,7 +19834,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G545" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19857,7 +19860,7 @@
         <v>6.66599988937378</v>
       </c>
       <c r="G546" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19883,7 +19886,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G547" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19909,7 +19912,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G548" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19935,7 +19938,7 @@
         <v>6.70599985122681</v>
       </c>
       <c r="G549" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19961,7 +19964,7 @@
         <v>6.71199989318848</v>
       </c>
       <c r="G550" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19987,7 +19990,7 @@
         <v>6.65399980545044</v>
       </c>
       <c r="G551" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -20013,7 +20016,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -20039,7 +20042,7 @@
         <v>7.06199979782104</v>
       </c>
       <c r="G553" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -20065,7 +20068,7 @@
         <v>7.01800012588501</v>
       </c>
       <c r="G554" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -20091,7 +20094,7 @@
         <v>6.86600017547607</v>
       </c>
       <c r="G555" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -20117,7 +20120,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -20143,7 +20146,7 @@
         <v>6.96799993515015</v>
       </c>
       <c r="G557" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -20169,7 +20172,7 @@
         <v>7.15199995040894</v>
       </c>
       <c r="G558" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -20195,7 +20198,7 @@
         <v>7.33400011062622</v>
       </c>
       <c r="G559" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20221,7 +20224,7 @@
         <v>7.2960000038147</v>
       </c>
       <c r="G560" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20247,7 +20250,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G561" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20273,7 +20276,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G562" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20299,7 +20302,7 @@
         <v>7.16599988937378</v>
       </c>
       <c r="G563" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20325,7 +20328,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20351,7 +20354,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G565" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20377,7 +20380,7 @@
         <v>7.33799982070923</v>
       </c>
       <c r="G566" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20403,7 +20406,7 @@
         <v>7.38800001144409</v>
       </c>
       <c r="G567" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20429,7 +20432,7 @@
         <v>7.37400007247925</v>
       </c>
       <c r="G568" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20455,7 +20458,7 @@
         <v>7.30600023269653</v>
       </c>
       <c r="G569" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20481,7 +20484,7 @@
         <v>7.24599981307983</v>
       </c>
       <c r="G570" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20507,7 +20510,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G571" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20533,7 +20536,7 @@
         <v>7.24399995803833</v>
       </c>
       <c r="G572" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20559,7 +20562,7 @@
         <v>7.35599994659424</v>
       </c>
       <c r="G573" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20585,7 +20588,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G574" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20611,7 +20614,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G575" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20637,7 +20640,7 @@
         <v>7.42600011825562</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20663,7 +20666,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G577" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20689,7 +20692,7 @@
         <v>7.54199981689453</v>
       </c>
       <c r="G578" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20715,7 +20718,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G579" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20741,7 +20744,7 @@
         <v>7.68400001525879</v>
       </c>
       <c r="G580" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20767,7 +20770,7 @@
         <v>7.67199993133545</v>
       </c>
       <c r="G581" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20793,7 +20796,7 @@
         <v>7.67799997329712</v>
       </c>
       <c r="G582" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20819,7 +20822,7 @@
         <v>7.67399978637695</v>
       </c>
       <c r="G583" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20845,7 +20848,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G584" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20871,7 +20874,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G585" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20897,7 +20900,7 @@
         <v>7.74200010299683</v>
       </c>
       <c r="G586" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20923,7 +20926,7 @@
         <v>7.75799989700317</v>
       </c>
       <c r="G587" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20949,7 +20952,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G588" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20975,7 +20978,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G589" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -21001,7 +21004,7 @@
         <v>7.87799978256226</v>
       </c>
       <c r="G590" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -21027,7 +21030,7 @@
         <v>7.91200017929077</v>
       </c>
       <c r="G591" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -21053,7 +21056,7 @@
         <v>7.92799997329712</v>
       </c>
       <c r="G592" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -21079,7 +21082,7 @@
         <v>7.97200012207031</v>
       </c>
       <c r="G593" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -21105,7 +21108,7 @@
         <v>8.10599994659424</v>
       </c>
       <c r="G594" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -21131,7 +21134,7 @@
         <v>8.08399963378906</v>
       </c>
       <c r="G595" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -21157,7 +21160,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G596" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -21183,7 +21186,7 @@
         <v>8.1540002822876</v>
       </c>
       <c r="G597" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21209,7 +21212,7 @@
         <v>8.11600017547607</v>
       </c>
       <c r="G598" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21235,7 +21238,7 @@
         <v>8.07800006866455</v>
       </c>
       <c r="G599" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -21261,7 +21264,7 @@
         <v>8.10599994659424</v>
       </c>
       <c r="G600" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21287,7 +21290,7 @@
         <v>8.11600017547607</v>
       </c>
       <c r="G601" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21313,7 +21316,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G602" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21339,7 +21342,7 @@
         <v>8.1540002822876</v>
       </c>
       <c r="G603" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21365,7 +21368,7 @@
         <v>8.2180004119873</v>
       </c>
       <c r="G604" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21391,7 +21394,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G605" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21417,7 +21420,7 @@
         <v>7.89200019836426</v>
       </c>
       <c r="G606" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21443,7 +21446,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G607" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21469,7 +21472,7 @@
         <v>7.63600015640259</v>
       </c>
       <c r="G608" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21495,7 +21498,7 @@
         <v>7.69799995422363</v>
       </c>
       <c r="G609" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21521,7 +21524,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G610" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21547,7 +21550,7 @@
         <v>7.70599985122681</v>
       </c>
       <c r="G611" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21573,7 +21576,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G612" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21599,7 +21602,7 @@
         <v>7.3439998626709</v>
       </c>
       <c r="G613" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21625,7 +21628,7 @@
         <v>7.01399993896484</v>
       </c>
       <c r="G614" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21651,7 +21654,7 @@
         <v>7.30800008773804</v>
       </c>
       <c r="G615" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21677,7 +21680,7 @@
         <v>7.32399988174438</v>
       </c>
       <c r="G616" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21703,7 +21706,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G617" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21729,7 +21732,7 @@
         <v>7.51200008392334</v>
       </c>
       <c r="G618" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21755,7 +21758,7 @@
         <v>7.31400012969971</v>
       </c>
       <c r="G619" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21781,7 +21784,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G620" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21807,7 +21810,7 @@
         <v>7.28200006484985</v>
       </c>
       <c r="G621" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21833,7 +21836,7 @@
         <v>7.08400011062622</v>
       </c>
       <c r="G622" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21859,7 +21862,7 @@
         <v>7.35799980163574</v>
       </c>
       <c r="G623" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21885,7 +21888,7 @@
         <v>7.4980001449585</v>
       </c>
       <c r="G624" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21911,7 +21914,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G625" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21937,7 +21940,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G626" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21963,7 +21966,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G627" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21989,7 +21992,7 @@
         <v>7.32200002670288</v>
       </c>
       <c r="G628" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -22015,7 +22018,7 @@
         <v>7.39599990844727</v>
       </c>
       <c r="G629" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -22041,7 +22044,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G630" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -22067,7 +22070,7 @@
         <v>7.33799982070923</v>
       </c>
       <c r="G631" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -22093,7 +22096,7 @@
         <v>7.34600019454956</v>
       </c>
       <c r="G632" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -22119,7 +22122,7 @@
         <v>7.25</v>
       </c>
       <c r="G633" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -22145,7 +22148,7 @@
         <v>7.28399991989136</v>
       </c>
       <c r="G634" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -22171,7 +22174,7 @@
         <v>7.25</v>
       </c>
       <c r="G635" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22197,7 +22200,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G636" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22223,7 +22226,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G637" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22249,7 +22252,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G638" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22275,7 +22278,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G639" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22301,7 +22304,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G640" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22327,7 +22330,7 @@
         <v>7.39599990844727</v>
       </c>
       <c r="G641" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22353,7 +22356,7 @@
         <v>7.43200016021729</v>
       </c>
       <c r="G642" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22379,7 +22382,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22405,7 +22408,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G644" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22431,7 +22434,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G645" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22457,7 +22460,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G646" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22483,7 +22486,7 @@
         <v>7.57200002670288</v>
       </c>
       <c r="G647" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22509,7 +22512,7 @@
         <v>7.68200016021729</v>
       </c>
       <c r="G648" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22535,7 +22538,7 @@
         <v>7.76200008392334</v>
       </c>
       <c r="G649" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22561,7 +22564,7 @@
         <v>7.76200008392334</v>
       </c>
       <c r="G650" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22587,7 +22590,7 @@
         <v>7.80399990081787</v>
       </c>
       <c r="G651" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22613,7 +22616,7 @@
         <v>7.71400022506714</v>
       </c>
       <c r="G652" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22639,7 +22642,7 @@
         <v>7.73400020599365</v>
       </c>
       <c r="G653" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22665,7 +22668,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22691,7 +22694,7 @@
         <v>7.72399997711182</v>
       </c>
       <c r="G655" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22717,7 +22720,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G656" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22743,7 +22746,7 @@
         <v>7.88399982452393</v>
       </c>
       <c r="G657" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22769,7 +22772,7 @@
         <v>7.91800022125244</v>
       </c>
       <c r="G658" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22795,7 +22798,7 @@
         <v>7.96600008010864</v>
       </c>
       <c r="G659" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22821,7 +22824,7 @@
         <v>7.9539999961853</v>
       </c>
       <c r="G660" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22847,7 +22850,7 @@
         <v>7.52400016784668</v>
       </c>
       <c r="G661" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22873,7 +22876,7 @@
         <v>7.44799995422363</v>
       </c>
       <c r="G662" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22899,7 +22902,7 @@
         <v>7.39599990844727</v>
       </c>
       <c r="G663" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22925,7 +22928,7 @@
         <v>7.42399978637695</v>
       </c>
       <c r="G664" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22951,7 +22954,7 @@
         <v>7.33400011062622</v>
       </c>
       <c r="G665" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22977,7 +22980,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -25993,7 +25996,7 @@
         <v>7.68200016021729</v>
       </c>
       <c r="G782" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -62089,7 +62092,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6501388889</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>970195</v>
@@ -62110,6 +62113,32 @@
         <v>1767</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6495949074</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>1339728</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>12.2550001144409</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>12.1350002288818</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>12.164999961853</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>12.2449998855591</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1775">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,46 +47,46 @@
     <t xml:space="preserve">4.30965423583984</t>
   </si>
   <si>
-    <t xml:space="preserve">4.243812084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2198691368103</t>
+    <t xml:space="preserve">4.24381256103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21986961364746</t>
   </si>
   <si>
     <t xml:space="preserve">4.18096303939819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14205646514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24081945419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29169797897339</t>
+    <t xml:space="preserve">4.14205598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24081897735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29169654846191</t>
   </si>
   <si>
     <t xml:space="preserve">4.26775503158569</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21388387680054</t>
+    <t xml:space="preserve">4.2138843536377</t>
   </si>
   <si>
     <t xml:space="preserve">4.08818626403809</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01037311553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78890490531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93555235862732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98642945289612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90263104438782</t>
+    <t xml:space="preserve">4.01037263870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7889039516449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93555164337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98643016815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90263152122498</t>
   </si>
   <si>
     <t xml:space="preserve">4.01635837554932</t>
@@ -95,181 +95,181 @@
     <t xml:space="preserve">4.06723642349243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98343825340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08519315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97445845603943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89066076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77094721794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58240008354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829820632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09457182884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38487386703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23822617530823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25019693374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34896039962769</t>
+    <t xml:space="preserve">3.98343777656555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08519220352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97445893287659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89066004753113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77094793319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58240056037903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2082986831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.094571352005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38487434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23822665214539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2501974105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34895992279053</t>
   </si>
   <si>
     <t xml:space="preserve">3.33399653434753</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46867322921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45370841026306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52852964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65422773361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57342100143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5375075340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63926267623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69014143943787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75299096107483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72006964683533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68714833259583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7110903263092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66919207572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69313383102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66619896888733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85773921012878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8846743106842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88168120384216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85175323486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83080387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84576845169067</t>
+    <t xml:space="preserve">3.46867275238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45370984077454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52852892875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65422821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57342195510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53750729560852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63926339149475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69014167785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75299024581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72006940841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68714880943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71109080314636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66919183731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69313430786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66619849205017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85773992538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88467407226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88168168067932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8517529964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83080363273621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84576773643494</t>
   </si>
   <si>
     <t xml:space="preserve">3.92058849334717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0522723197937</t>
+    <t xml:space="preserve">4.05227184295654</t>
   </si>
   <si>
     <t xml:space="preserve">4.03431510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96548080444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04030084609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98044395446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92657351493835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86073184013367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74999785423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80985426902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82781100273132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84876036643982</t>
+    <t xml:space="preserve">3.96548104286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0403003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98044419288635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92657423019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86073231697083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74999737739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80985355377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82781076431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8487606048584</t>
   </si>
   <si>
     <t xml:space="preserve">3.86671757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95051646232605</t>
+    <t xml:space="preserve">3.95051574707031</t>
   </si>
   <si>
     <t xml:space="preserve">3.87868785858154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87569665908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90562415122986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87270331382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92358112335205</t>
+    <t xml:space="preserve">3.8756959438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90562343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87270259857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92358136177063</t>
   </si>
   <si>
     <t xml:space="preserve">3.92956686019897</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9984016418457</t>
+    <t xml:space="preserve">3.99840116500854</t>
   </si>
   <si>
     <t xml:space="preserve">4.04927921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05825757980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99241542816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93255996704102</t>
+    <t xml:space="preserve">4.05825853347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99241590499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93255925178528</t>
   </si>
   <si>
     <t xml:space="preserve">4.02234411239624</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">4.05526542663574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03132200241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01336622238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04329395294189</t>
+    <t xml:space="preserve">4.03132295608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01336479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04329347610474</t>
   </si>
   <si>
     <t xml:space="preserve">3.93854546546936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04628610610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00139379501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117841720581</t>
+    <t xml:space="preserve">4.04628658294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00139427185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09117889404297</t>
   </si>
   <si>
     <t xml:space="preserve">4.09716463088989</t>
@@ -311,94 +311,94 @@
     <t xml:space="preserve">4.11811399459839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13008546829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10614252090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11512088775635</t>
+    <t xml:space="preserve">4.13008499145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1061429977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11512136459351</t>
   </si>
   <si>
     <t xml:space="preserve">4.18994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19892072677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10015678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03730773925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01935052871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13906335830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23349094390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17998170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17053937911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21775341033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88410949707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65433645248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75191259384155</t>
+    <t xml:space="preserve">4.19891977310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10015773773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03730821609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0193510055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13906383514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23349142074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17998266220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17053985595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2177529335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88410973548889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65433692932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75191187858582</t>
   </si>
   <si>
     <t xml:space="preserve">3.74561595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84948563575745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76450228691101</t>
+    <t xml:space="preserve">3.84948706626892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76450181007385</t>
   </si>
   <si>
     <t xml:space="preserve">3.67007493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62915563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60082817077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73617339134216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90614342689514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89669942855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98798084259033</t>
+    <t xml:space="preserve">3.6291561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60082793235779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73617458343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90614318847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89669990539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98798012733459</t>
   </si>
   <si>
     <t xml:space="preserve">3.91873335838318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92188096046448</t>
+    <t xml:space="preserve">3.92188024520874</t>
   </si>
   <si>
     <t xml:space="preserve">3.89984774589539</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95965170860291</t>
+    <t xml:space="preserve">3.95965147018433</t>
   </si>
   <si>
     <t xml:space="preserve">3.94706153869629</t>
@@ -407,145 +407,145 @@
     <t xml:space="preserve">3.90299510955811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89355278015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84633946418762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82745385169983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76764941215515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06037330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03834104537964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06666994094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07296419143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12962055206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14221096038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05722761154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9753897190094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01630830764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9155855178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93132328987122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99742317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95335721969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929079055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9281759262085</t>
+    <t xml:space="preserve">3.89355301856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84633898735046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82745313644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76764965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06037521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03834056854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06666946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07296371459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12962102890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1422119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05722713470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97538995742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01630783081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91558599472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93132400512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99742245674133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95335650444031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929055213928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92817568778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.87152004241943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94391393661499</t>
+    <t xml:space="preserve">3.94391369819641</t>
   </si>
   <si>
     <t xml:space="preserve">3.93447136878967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95650410652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96909475326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0320463180542</t>
+    <t xml:space="preserve">3.95650291442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9690945148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03204584121704</t>
   </si>
   <si>
     <t xml:space="preserve">4.01945543289185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80542039871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86207723617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85893034934998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82430529594421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84319138526917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85263419151306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83060073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82115864753723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8148627281189</t>
+    <t xml:space="preserve">3.805419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86207675933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85892939567566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82430601119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84319162368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85263395309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83060145378113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82115817070007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81486320495605</t>
   </si>
   <si>
     <t xml:space="preserve">3.79912543296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80227279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73932123184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78653502464294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80856823921204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75505900382996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81801080703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89040470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86837220191956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74876356124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72673177719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75820708274841</t>
+    <t xml:space="preserve">3.80227327346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7393217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78653454780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80856776237488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75505948066711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81801128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89040541648865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86837196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74876379966736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72673106193542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75820732116699</t>
   </si>
   <si>
     <t xml:space="preserve">3.79283022880554</t>
@@ -554,28 +554,28 @@
     <t xml:space="preserve">3.78338766098022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77079653739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76135468482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71414065361023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67322254180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59453272819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55676221847534</t>
+    <t xml:space="preserve">3.77079725265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76135492324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71414136886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67322278022766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59453296661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55676198005676</t>
   </si>
   <si>
     <t xml:space="preserve">3.55046677589417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54417157173157</t>
+    <t xml:space="preserve">3.54417204856873</t>
   </si>
   <si>
     <t xml:space="preserve">3.53472852706909</t>
@@ -584,58 +584,58 @@
     <t xml:space="preserve">3.48751544952393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62600898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69210815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69525480270386</t>
+    <t xml:space="preserve">3.62600874900818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69210720062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69525575637817</t>
   </si>
   <si>
     <t xml:space="preserve">3.6858127117157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98483300209045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00057077407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112725257874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98168468475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03519344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99427533149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0288987159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04778385162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02260398864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96594643592834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88096237182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84004354476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81171607971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83689641952515</t>
+    <t xml:space="preserve">3.98483228683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00057029724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112772941589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.981684923172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0351939201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99427509307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02889823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04778337478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0226035118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96594715118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88096213340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84004330635071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81171560287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83689570426941</t>
   </si>
   <si>
     <t xml:space="preserve">3.6826651096344</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">3.67951726913452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77709245681763</t>
+    <t xml:space="preserve">3.77709221839905</t>
   </si>
   <si>
     <t xml:space="preserve">3.77394485473633</t>
@@ -656,61 +656,61 @@
     <t xml:space="preserve">3.83374929428101</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95020890235901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07611179351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06352186203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05407953262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01316022872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08870267868042</t>
+    <t xml:space="preserve">3.95020961761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07611131668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06352233886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05407905578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01316070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08870220184326</t>
   </si>
   <si>
     <t xml:space="preserve">4.05093145370483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92502808570862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96280002593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00371789932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0257511138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93761920928955</t>
+    <t xml:space="preserve">3.92502856254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9627993106842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00371837615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02575159072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93761897087097</t>
   </si>
   <si>
     <t xml:space="preserve">4.00686502456665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09185028076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10444021224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97224187850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94076609611511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981706619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07925987243652</t>
+    <t xml:space="preserve">4.0918493270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10444068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97224259376526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94076681137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06981754302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07925939559937</t>
   </si>
   <si>
     <t xml:space="preserve">4.04576826095581</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">4.07256174087524</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0122766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01897525787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03237199783325</t>
+    <t xml:space="preserve">4.01227712631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01897478103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03237152099609</t>
   </si>
   <si>
     <t xml:space="preserve">3.99218225479126</t>
@@ -737,19 +737,19 @@
     <t xml:space="preserve">4.07926034927368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04241943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01562643051147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02232360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99888062477112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98213481903076</t>
+    <t xml:space="preserve">4.04241895675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01562595367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0223240852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99888038635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98213458061218</t>
   </si>
   <si>
     <t xml:space="preserve">4.05246639251709</t>
@@ -758,55 +758,55 @@
     <t xml:space="preserve">4.06251430511475</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10270309448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08260917663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06586360931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05581617355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00557899475098</t>
+    <t xml:space="preserve">4.10270357131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08260822296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06586313247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05581569671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00557851791382</t>
   </si>
   <si>
     <t xml:space="preserve">3.99553084373474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03572130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17973375320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19313097000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21322536468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15629005432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16633701324463</t>
+    <t xml:space="preserve">4.03572082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1797342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19313144683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21322584152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15629053115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16633796691895</t>
   </si>
   <si>
     <t xml:space="preserve">4.16968679428101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.209876537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0926570892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10605382919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16298913955688</t>
+    <t xml:space="preserve">4.20987510681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09265613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1060528755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16298866271973</t>
   </si>
   <si>
     <t xml:space="preserve">4.17303562164307</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">4.11945009231567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09935474395752</t>
+    <t xml:space="preserve">4.09935426712036</t>
   </si>
   <si>
     <t xml:space="preserve">4.08930730819702</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">4.0759105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12279891967773</t>
+    <t xml:space="preserve">4.12279844284058</t>
   </si>
   <si>
     <t xml:space="preserve">4.18643236160278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15963935852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14959144592285</t>
+    <t xml:space="preserve">4.15963888168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14959192276001</t>
   </si>
   <si>
     <t xml:space="preserve">4.15294075012207</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">4.12614774703979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14289426803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11275148391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13619518280029</t>
+    <t xml:space="preserve">4.14289379119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11275100708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13619565963745</t>
   </si>
   <si>
     <t xml:space="preserve">4.19647932052612</t>
@@ -863,73 +863,73 @@
     <t xml:space="preserve">4.20317840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21657514572144</t>
+    <t xml:space="preserve">4.21657466888428</t>
   </si>
   <si>
     <t xml:space="preserve">4.1998291015625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20652770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18978214263916</t>
+    <t xml:space="preserve">4.20652723312378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.189781665802</t>
   </si>
   <si>
     <t xml:space="preserve">4.10940217971802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09600448608398</t>
+    <t xml:space="preserve">4.0960054397583</t>
   </si>
   <si>
     <t xml:space="preserve">4.0859580039978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26346302032471</t>
+    <t xml:space="preserve">4.26346254348755</t>
   </si>
   <si>
     <t xml:space="preserve">4.2936053276062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26681184768677</t>
+    <t xml:space="preserve">4.26681137084961</t>
   </si>
   <si>
     <t xml:space="preserve">4.25341510772705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24001932144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25676441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27016067504883</t>
+    <t xml:space="preserve">4.24001836776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25676488876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27016162872314</t>
   </si>
   <si>
     <t xml:space="preserve">4.29025602340698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3070011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32039785385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33379459381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31370067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34719133377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38068294525146</t>
+    <t xml:space="preserve">4.30700159072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32039880752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33379411697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3137001991272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34719085693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38068246841431</t>
   </si>
   <si>
     <t xml:space="preserve">4.37733364105225</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40747547149658</t>
+    <t xml:space="preserve">4.40747594833374</t>
   </si>
   <si>
     <t xml:space="preserve">4.50460147857666</t>
@@ -938,19 +938,19 @@
     <t xml:space="preserve">4.50125217437744</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48450613021851</t>
+    <t xml:space="preserve">4.48450708389282</t>
   </si>
   <si>
     <t xml:space="preserve">4.45436429977417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47111034393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48115825653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45570373535156</t>
+    <t xml:space="preserve">4.47110986709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48115730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4557032585144</t>
   </si>
   <si>
     <t xml:space="preserve">4.43694829940796</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">4.46374177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41015529632568</t>
+    <t xml:space="preserve">4.41015577316284</t>
   </si>
   <si>
     <t xml:space="preserve">4.41953325271606</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">4.28690671920776</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40077924728394</t>
+    <t xml:space="preserve">4.4007773399353</t>
   </si>
   <si>
     <t xml:space="preserve">4.31771898269653</t>
@@ -977,40 +977,40 @@
     <t xml:space="preserve">4.31101989746094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32977533340454</t>
+    <t xml:space="preserve">4.32977628707886</t>
   </si>
   <si>
     <t xml:space="preserve">4.37264442443848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40881490707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45838356018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4650821685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54144191741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52804565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49187421798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4958930015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45704317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7155966758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73033380508423</t>
+    <t xml:space="preserve">4.40881538391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45838308334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46508121490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54144287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52804517745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49187469482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49589347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45704364776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71559762954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73033332824707</t>
   </si>
   <si>
     <t xml:space="preserve">4.70086145401001</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">4.59904718399048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62851905822754</t>
+    <t xml:space="preserve">4.6285195350647</t>
   </si>
   <si>
     <t xml:space="preserve">4.66736936569214</t>
@@ -1028,31 +1028,31 @@
     <t xml:space="preserve">4.79061841964722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9125280380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8870735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97013282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86296033859253</t>
+    <t xml:space="preserve">4.91252756118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88707399368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97013235092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86295986175537</t>
   </si>
   <si>
     <t xml:space="preserve">4.79999589920044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87635660171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95271682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91520690917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94869804382324</t>
+    <t xml:space="preserve">4.87635564804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95271635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91520595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9486985206604</t>
   </si>
   <si>
     <t xml:space="preserve">4.93932104110718</t>
@@ -1061,43 +1061,43 @@
     <t xml:space="preserve">4.8937726020813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85358142852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83616733551025</t>
+    <t xml:space="preserve">4.85358190536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83616638183594</t>
   </si>
   <si>
     <t xml:space="preserve">4.8522424697876</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92726278305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93664073944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97415208816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05721044540405</t>
+    <t xml:space="preserve">4.9272632598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93664121627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97415256500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05721092224121</t>
   </si>
   <si>
     <t xml:space="preserve">5.05185174942017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09070158004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14696741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13892984390259</t>
+    <t xml:space="preserve">5.09070205688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1469669342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13892889022827</t>
   </si>
   <si>
     <t xml:space="preserve">5.14294862747192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14026927947998</t>
+    <t xml:space="preserve">5.14026880264282</t>
   </si>
   <si>
     <t xml:space="preserve">5.17108154296875</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">5.21796989440918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1858172416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19653511047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27155590057373</t>
+    <t xml:space="preserve">5.18581819534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19653463363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27155542373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.27691411972046</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29968881607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31040573120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33987760543823</t>
+    <t xml:space="preserve">5.29968786239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31040620803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33987808227539</t>
   </si>
   <si>
     <t xml:space="preserve">5.42963552474976</t>
@@ -1133,100 +1133,100 @@
     <t xml:space="preserve">5.41489887237549</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40552186965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46178674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43633413314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41088056564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45910787582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50465726852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29834890365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28629159927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10409784317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1148157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15634536743164</t>
+    <t xml:space="preserve">5.40552139282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46178770065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43633460998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41088008880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45910739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50465631484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29834842681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28629302978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10409879684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11481523513794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15634489059448</t>
   </si>
   <si>
     <t xml:space="preserve">5.1308913230896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16170310974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08266353607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91922521591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69818258285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89511156082153</t>
+    <t xml:space="preserve">5.16170358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08266305923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91922569274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69818162918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89511108398438</t>
   </si>
   <si>
     <t xml:space="preserve">4.90582895278931</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00362300872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03175687789917</t>
+    <t xml:space="preserve">5.00362396240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03175735473633</t>
   </si>
   <si>
     <t xml:space="preserve">4.89913129806519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89645051956177</t>
+    <t xml:space="preserve">4.89645147323608</t>
   </si>
   <si>
     <t xml:space="preserve">4.87769603729248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74506998062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92860269546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02238035202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11749505996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23806381225586</t>
+    <t xml:space="preserve">4.7450704574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92860317230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02237892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11749410629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23806428909302</t>
   </si>
   <si>
     <t xml:space="preserve">5.1107964515686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19018793106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24264240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26674222946167</t>
+    <t xml:space="preserve">5.19018745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24264287948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26674270629883</t>
   </si>
   <si>
     <t xml:space="preserve">5.20152902603149</t>
@@ -1235,37 +1235,37 @@
     <t xml:space="preserve">5.20720052719116</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13915061950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16325092315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08953142166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08244371414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13348054885864</t>
+    <t xml:space="preserve">5.13915109634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1632513999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08953094482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08244276046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13347959518433</t>
   </si>
   <si>
     <t xml:space="preserve">5.14623928070068</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26816034317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30927419662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35889339447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30218601226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38015985488892</t>
+    <t xml:space="preserve">5.26816129684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30927467346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35889434814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30218648910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38015937805176</t>
   </si>
   <si>
     <t xml:space="preserve">5.36739921569824</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">5.44537305831909</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50208044052124</t>
+    <t xml:space="preserve">5.5020809173584</t>
   </si>
   <si>
     <t xml:space="preserve">5.53185224533081</t>
@@ -1286,82 +1286,82 @@
     <t xml:space="preserve">5.48223304748535</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46522092819214</t>
+    <t xml:space="preserve">5.46522045135498</t>
   </si>
   <si>
     <t xml:space="preserve">5.4751443862915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5644588470459</t>
+    <t xml:space="preserve">5.56445932388306</t>
   </si>
   <si>
     <t xml:space="preserve">5.58855962753296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61266136169434</t>
+    <t xml:space="preserve">5.61266088485718</t>
   </si>
   <si>
     <t xml:space="preserve">5.64668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63817977905273</t>
+    <t xml:space="preserve">5.63818025588989</t>
   </si>
   <si>
     <t xml:space="preserve">5.33337497711182</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27950143814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26248931884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19869327545166</t>
+    <t xml:space="preserve">5.27950191497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26248979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19869422912598</t>
   </si>
   <si>
     <t xml:space="preserve">5.03565883636475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01439332962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06684827804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91657209396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85561084747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77905559539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93074941635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83434581756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81591558456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80740976333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78898048400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81024503707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7478666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70108222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78047323226929</t>
+    <t xml:space="preserve">5.0143928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06684732437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91657161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8556113243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77905511856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.930748462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83434629440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81591606140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80740928649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78897905349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81024408340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74786615371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70108270645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78047370910645</t>
   </si>
   <si>
     <t xml:space="preserve">4.9066481590271</t>
@@ -1376,25 +1376,25 @@
     <t xml:space="preserve">4.9902925491333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10512542724609</t>
+    <t xml:space="preserve">5.10512590408325</t>
   </si>
   <si>
     <t xml:space="preserve">5.07818984985352</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99879884719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87120628356934</t>
+    <t xml:space="preserve">4.99879837036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87120532989502</t>
   </si>
   <si>
     <t xml:space="preserve">4.89955997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94634389877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92224311828613</t>
+    <t xml:space="preserve">4.94634342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92224264144897</t>
   </si>
   <si>
     <t xml:space="preserve">4.90948390960693</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">4.97611522674561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0172290802002</t>
+    <t xml:space="preserve">5.01722860336304</t>
   </si>
   <si>
     <t xml:space="preserve">5.04132890701294</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">5.13064432144165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09661960601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87829446792603</t>
+    <t xml:space="preserve">5.09662008285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87829399108887</t>
   </si>
   <si>
     <t xml:space="preserve">4.82583951950073</t>
@@ -1436,28 +1436,28 @@
     <t xml:space="preserve">4.67839860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50544023513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.529541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5749077796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44873237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42888402938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4458966255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51961660385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46290969848633</t>
+    <t xml:space="preserve">4.50543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52954053878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57490730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44873285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42888498306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44589710235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51961755752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46290826797485</t>
   </si>
   <si>
     <t xml:space="preserve">4.33815145492554</t>
@@ -1466,58 +1466,58 @@
     <t xml:space="preserve">4.4444785118103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4203782081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43030166625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25167274475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34382200241089</t>
+    <t xml:space="preserve">4.42037773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43030214309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25167322158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34382247924805</t>
   </si>
   <si>
     <t xml:space="preserve">4.34807538986206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48559236526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38635349273682</t>
+    <t xml:space="preserve">4.48559284210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38635301589966</t>
   </si>
   <si>
     <t xml:space="preserve">4.50118684768677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64437389373779</t>
+    <t xml:space="preserve">4.64437437057495</t>
   </si>
   <si>
     <t xml:space="preserve">4.68123435974121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61602067947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58624935150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7379412651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83718061447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86978816986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87971210479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88254690170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7266001701355</t>
+    <t xml:space="preserve">4.61602115631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58624839782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73794221878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83718204498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86978769302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87971115112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88254737854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72660160064697</t>
   </si>
   <si>
     <t xml:space="preserve">4.60751438140869</t>
@@ -1526,19 +1526,19 @@
     <t xml:space="preserve">4.61885595321655</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64579105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51819944381714</t>
+    <t xml:space="preserve">4.64579153060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5181999206543</t>
   </si>
   <si>
     <t xml:space="preserve">4.66705751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64295625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8485221862793</t>
+    <t xml:space="preserve">4.64295768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84852313995361</t>
   </si>
   <si>
     <t xml:space="preserve">4.82300424575806</t>
@@ -1550,109 +1550,109 @@
     <t xml:space="preserve">4.75211954116821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86695337295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82867527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8924708366394</t>
+    <t xml:space="preserve">4.86695289611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82867479324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89247131347656</t>
   </si>
   <si>
     <t xml:space="preserve">4.63445091247559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65713357925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60326099395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64862775802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83576345443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91231966018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88821840286255</t>
+    <t xml:space="preserve">4.65713310241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60326147079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64862680435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8357629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91231870651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88821792602539</t>
   </si>
   <si>
     <t xml:space="preserve">4.88113021850586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03849458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96902751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89672374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84285163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95059633255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94067239761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96052026748657</t>
+    <t xml:space="preserve">5.03849411010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96902704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89672422409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84285116195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95059680938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94067287445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96052074432373</t>
   </si>
   <si>
     <t xml:space="preserve">5.02148199081421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98745727539062</t>
+    <t xml:space="preserve">4.98745679855347</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707647323608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10370779037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11646747589111</t>
+    <t xml:space="preserve">5.10370826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11646699905396</t>
   </si>
   <si>
     <t xml:space="preserve">5.14056825637817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11788511276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2128701210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24547815322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37732410430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38724803924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33621025085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38582992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39858961105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45246076583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42836093902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43686676025391</t>
+    <t xml:space="preserve">5.11788463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21287059783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24547719955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37732362747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38724708557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33621072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38583040237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39858865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45246124267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42835998535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43686723709106</t>
   </si>
   <si>
     <t xml:space="preserve">5.32628631591797</t>
@@ -1661,82 +1661,82 @@
     <t xml:space="preserve">5.20861768722534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33053970336914</t>
+    <t xml:space="preserve">5.33053922653198</t>
   </si>
   <si>
     <t xml:space="preserve">5.4184365272522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44820833206177</t>
+    <t xml:space="preserve">5.44820785522461</t>
   </si>
   <si>
     <t xml:space="preserve">5.2837553024292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30076837539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36456441879272</t>
+    <t xml:space="preserve">5.30076885223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36456394195557</t>
   </si>
   <si>
     <t xml:space="preserve">5.4439549446106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49924516677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43403100967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49073934555054</t>
+    <t xml:space="preserve">5.49924564361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43403148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49073886871338</t>
   </si>
   <si>
     <t xml:space="preserve">5.51058721542358</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4935736656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47798013687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51625728607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53894090652466</t>
+    <t xml:space="preserve">5.49357414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4779806137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51625776290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53894138336182</t>
   </si>
   <si>
     <t xml:space="preserve">5.59848403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59990167617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62116813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62542057037354</t>
+    <t xml:space="preserve">5.59990262985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62116765975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62542009353638</t>
   </si>
   <si>
     <t xml:space="preserve">5.59423160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61974954605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63109111785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63392734527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53752326965332</t>
+    <t xml:space="preserve">5.61975002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63109159469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63392639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53752279281616</t>
   </si>
   <si>
     <t xml:space="preserve">5.60131931304932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62825632095337</t>
+    <t xml:space="preserve">5.62825584411621</t>
   </si>
   <si>
     <t xml:space="preserve">5.64243316650391</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">5.66511583328247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72749471664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77711391448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92597198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98267889022827</t>
+    <t xml:space="preserve">5.72749519348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7771143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92597103118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98268032073975</t>
   </si>
   <si>
     <t xml:space="preserve">6.12303161621094</t>
@@ -1763,70 +1763,70 @@
     <t xml:space="preserve">6.06774234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08900785446167</t>
+    <t xml:space="preserve">6.08900690078735</t>
   </si>
   <si>
     <t xml:space="preserve">6.11310768127441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11452579498291</t>
+    <t xml:space="preserve">6.11452627182007</t>
   </si>
   <si>
     <t xml:space="preserve">6.09326028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14713335037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13153791427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14996767044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19958782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19533443450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21943521499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32576274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34844589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33852195739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3725471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36120557785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42925500869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38105344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540042877197</t>
+    <t xml:space="preserve">6.14713287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13153743743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14996814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19958734512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19533491134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2194356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3257622718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34844636917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33852243423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37254667282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36120462417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42925405502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38105249404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540090560913</t>
   </si>
   <si>
     <t xml:space="preserve">6.74823665618896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70712375640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56535387039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53841638565063</t>
+    <t xml:space="preserve">6.70712327957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56535339355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53841686248779</t>
   </si>
   <si>
     <t xml:space="preserve">6.558265209198</t>
@@ -1838,106 +1838,106 @@
     <t xml:space="preserve">6.74114751815796</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69152784347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62631464004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67593431472778</t>
+    <t xml:space="preserve">6.69152927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62631368637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67593383789062</t>
   </si>
   <si>
     <t xml:space="preserve">6.46469688415527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38530588150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37963628768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30591535568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50013971328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45902729034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54267072677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39664745330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45335578918457</t>
+    <t xml:space="preserve">6.38530683517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37963485717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30591487884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50014019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45902681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54267024993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39664793014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45335531234741</t>
   </si>
   <si>
     <t xml:space="preserve">6.49446773529053</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21518135070801</t>
+    <t xml:space="preserve">6.21518182754517</t>
   </si>
   <si>
     <t xml:space="preserve">6.32292795181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30733203887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25771331787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22510671615601</t>
+    <t xml:space="preserve">6.30733156204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25771284103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22510528564453</t>
   </si>
   <si>
     <t xml:space="preserve">6.16698026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17973947525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33710479736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29315614700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32717943191528</t>
+    <t xml:space="preserve">6.17974042892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33710336685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29315567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32717990875244</t>
   </si>
   <si>
     <t xml:space="preserve">6.45193767547607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51289653778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5440878868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5696063041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53558254241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58520078659058</t>
+    <t xml:space="preserve">6.51289844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54408836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56960678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53558206558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58520126342773</t>
   </si>
   <si>
     <t xml:space="preserve">6.64332628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74398326873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86365413665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81608438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78783798217773</t>
+    <t xml:space="preserve">6.74398374557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86365509033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81608390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78783845901489</t>
   </si>
   <si>
     <t xml:space="preserve">6.79378509521484</t>
@@ -1946,103 +1946,103 @@
     <t xml:space="preserve">6.88298082351685</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87108945846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03610134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20260047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24719953536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22043895721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21003389358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17584228515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24571132659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17435503005981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17881488800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14759731292725</t>
+    <t xml:space="preserve">6.87108898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0361008644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20260000228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24719905853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22044038772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21003246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17584180831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24571228027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17435455322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17881536483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14759683609009</t>
   </si>
   <si>
     <t xml:space="preserve">7.12529706954956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11043167114258</t>
+    <t xml:space="preserve">7.11043119430542</t>
   </si>
   <si>
     <t xml:space="preserve">6.98704290390015</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01826190948486</t>
+    <t xml:space="preserve">7.01826143264771</t>
   </si>
   <si>
     <t xml:space="preserve">6.97366333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04204654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99150276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12678337097168</t>
+    <t xml:space="preserve">7.04204750061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99150371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.126784324646</t>
   </si>
   <si>
     <t xml:space="preserve">6.94095849990845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18030118942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25165939331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16692161560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05245399475098</t>
+    <t xml:space="preserve">7.18030214309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25165748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16692304611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05245447158813</t>
   </si>
   <si>
     <t xml:space="preserve">7.04799365997314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16394853591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68526220321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76405239105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92014646530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79675722122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06137466430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0123143196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20854711532593</t>
+    <t xml:space="preserve">7.16394805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68526172637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7640528678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92014598846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79675817489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06137228012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01231527328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20854663848877</t>
   </si>
   <si>
     <t xml:space="preserve">7.183274269104</t>
@@ -2051,106 +2051,106 @@
     <t xml:space="preserve">7.00190877914429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05988645553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98555612564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31409597396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26355123519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34085559844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35869359970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49992179870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47019004821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48877239227295</t>
+    <t xml:space="preserve">7.05988597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98555660247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31409788131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26355171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34085512161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35869312286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49992275238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47018957138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48877286911011</t>
   </si>
   <si>
     <t xml:space="preserve">7.49248886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36612701416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39585828781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52593660354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5705361366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.477623462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41369915008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55195140838623</t>
+    <t xml:space="preserve">7.36612796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39586019515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5259370803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57053518295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47762298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41369819641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55195283889771</t>
   </si>
   <si>
     <t xml:space="preserve">7.566819190979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48133897781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63743162155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59283447265625</t>
+    <t xml:space="preserve">7.48133850097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63743209838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59283542633057</t>
   </si>
   <si>
     <t xml:space="preserve">7.58911800384521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62628269195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75264406204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64486408233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40626621246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4226188659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41815805435181</t>
+    <t xml:space="preserve">7.62628412246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75264358520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64486694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40626668930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42261791229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41815853118896</t>
   </si>
   <si>
     <t xml:space="preserve">7.62999963760376</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52965259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61885070800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86413955688477</t>
+    <t xml:space="preserve">7.52965497970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6188497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86414003372192</t>
   </si>
   <si>
     <t xml:space="preserve">7.87528896331787</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98306703567505</t>
+    <t xml:space="preserve">7.98306894302368</t>
   </si>
   <si>
     <t xml:space="preserve">7.8678560256958</t>
@@ -2162,31 +2162,31 @@
     <t xml:space="preserve">8.00164985656738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02766704559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12057781219482</t>
+    <t xml:space="preserve">8.02766799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12057971954346</t>
   </si>
   <si>
     <t xml:space="preserve">8.13916206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1688928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07226276397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1094274520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09456253051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08713054656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1986255645752</t>
+    <t xml:space="preserve">8.16889381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07226467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10942935943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09456348419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08713150024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19862461090088</t>
   </si>
   <si>
     <t xml:space="preserve">8.24694061279297</t>
@@ -2198,25 +2198,25 @@
     <t xml:space="preserve">8.17261028289795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05739784240723</t>
+    <t xml:space="preserve">8.05739879608154</t>
   </si>
   <si>
     <t xml:space="preserve">8.15402793884277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32870388031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26180744171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28038787841797</t>
+    <t xml:space="preserve">8.32870483398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26180648803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28038883209229</t>
   </si>
   <si>
     <t xml:space="preserve">8.29525470733643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33972263336182</t>
+    <t xml:space="preserve">8.33972358703613</t>
   </si>
   <si>
     <t xml:space="preserve">8.19651985168457</t>
@@ -2231,67 +2231,67 @@
     <t xml:space="preserve">8.23797416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26058578491211</t>
+    <t xml:space="preserve">8.26058483123779</t>
   </si>
   <si>
     <t xml:space="preserve">8.18521404266357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13245487213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0156307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9817156791687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72168874740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80459403991699</t>
+    <t xml:space="preserve">8.13245677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01563167572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98171472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72168684005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80459547042847</t>
   </si>
   <si>
     <t xml:space="preserve">7.90634489059448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76313972473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77444648742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67646598815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78575229644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8272066116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66515970230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73299312591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66139030456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75937223434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86112213134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6274733543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68400239944458</t>
+    <t xml:space="preserve">7.76314115524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77444696426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67646646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78575325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69907808303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82720565795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66515922546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73299360275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66139125823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75937271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86112308502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62747478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68400192260742</t>
   </si>
   <si>
     <t xml:space="preserve">7.58602094650269</t>
@@ -2300,40 +2300,40 @@
     <t xml:space="preserve">7.52044820785522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71415042877197</t>
+    <t xml:space="preserve">7.71414947509766</t>
   </si>
   <si>
     <t xml:space="preserve">7.60863208770752</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72922372817993</t>
+    <t xml:space="preserve">7.72922468185425</t>
   </si>
   <si>
     <t xml:space="preserve">7.69530773162842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65008497238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58225345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57094717025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75183391571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82343721389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84604740142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74429750442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97794628143311</t>
+    <t xml:space="preserve">7.65008592605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58225297927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57094764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75183629989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82343912124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8460488319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74429845809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97794675827026</t>
   </si>
   <si>
     <t xml:space="preserve">8.35102939605713</t>
@@ -2342,112 +2342,112 @@
     <t xml:space="preserve">8.28696537017822</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80082559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91765022277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06839084625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08346557617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13622570037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21913051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31711292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27565956115723</t>
+    <t xml:space="preserve">7.80082702636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91765069961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06839179992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08346462249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13622379302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21912956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31711196899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27565860748291</t>
   </si>
   <si>
     <t xml:space="preserve">8.25304889678955</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24174213409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5469913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67512226104736</t>
+    <t xml:space="preserve">8.24174404144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54699230194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67512130737305</t>
   </si>
   <si>
     <t xml:space="preserve">8.50553798675537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51307487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91011333465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78952026367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60109424591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24610042572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98079824447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25062370300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30187463760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10892724990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32750082015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37482023239136</t>
+    <t xml:space="preserve">8.51307678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9101128578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78951930999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94402885437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6010947227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24610233306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.980797290802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25062322616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30187511444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10892677307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32750177383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37482070922852</t>
   </si>
   <si>
     <t xml:space="preserve">5.93767213821411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93918037414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63075160980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08297348022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90057706832886</t>
+    <t xml:space="preserve">5.93917989730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63075113296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08297252655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9005765914917</t>
   </si>
   <si>
     <t xml:space="preserve">4.89605474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80108785629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21110200881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22768449783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40857362747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77788686752319</t>
+    <t xml:space="preserve">4.80108880996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21110343933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22768497467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40857315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77788734436035</t>
   </si>
   <si>
     <t xml:space="preserve">5.83064651489258</t>
@@ -2462,109 +2462,109 @@
     <t xml:space="preserve">5.96631336212158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81858777999878</t>
+    <t xml:space="preserve">5.81858730316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.57137298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85777997970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9014949798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05977249145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1472020149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23915338516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26025772094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2858829498291</t>
+    <t xml:space="preserve">5.85777950286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90149545669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05977296829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14720153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23915386199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26025724411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28588342666626</t>
   </si>
   <si>
     <t xml:space="preserve">5.73266506195068</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77939510345459</t>
+    <t xml:space="preserve">5.77939558029175</t>
   </si>
   <si>
     <t xml:space="preserve">5.8035135269165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73718786239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61508798599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70402479171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66633939743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57589530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94068765640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93013525009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05223560333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84270620346069</t>
+    <t xml:space="preserve">5.73718738555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61508750915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70402431488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66633987426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57589435577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94068670272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93013620376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05223512649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84270572662354</t>
   </si>
   <si>
     <t xml:space="preserve">5.70100927352905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53971767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44776487350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72362041473389</t>
+    <t xml:space="preserve">5.53971672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44776582717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7236213684082</t>
   </si>
   <si>
     <t xml:space="preserve">5.84572076797485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61207294464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50956916809082</t>
+    <t xml:space="preserve">5.61207246780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50956869125366</t>
   </si>
   <si>
     <t xml:space="preserve">5.41611003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62413311004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58041715621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58946228027344</t>
+    <t xml:space="preserve">5.62413263320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58041667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58946180343628</t>
   </si>
   <si>
     <t xml:space="preserve">5.55479097366333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60905742645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83215379714966</t>
+    <t xml:space="preserve">5.60905790328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83215427398682</t>
   </si>
   <si>
     <t xml:space="preserve">5.91958379745483</t>
@@ -2576,55 +2576,55 @@
     <t xml:space="preserve">6.00399875640869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07333898544312</t>
+    <t xml:space="preserve">6.07333850860596</t>
   </si>
   <si>
     <t xml:space="preserve">6.25724315643311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45772790908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60997629165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7471489906311</t>
+    <t xml:space="preserve">6.45772743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60997581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74715042114258</t>
   </si>
   <si>
     <t xml:space="preserve">6.53912687301636</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46375751495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12308263778687</t>
+    <t xml:space="preserve">6.46375703811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12308311462402</t>
   </si>
   <si>
     <t xml:space="preserve">6.21654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26930141448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39592409133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36728286743164</t>
+    <t xml:space="preserve">6.26930046081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39592361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3672833442688</t>
   </si>
   <si>
     <t xml:space="preserve">6.32206058502197</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19543886184692</t>
+    <t xml:space="preserve">6.19543933868408</t>
   </si>
   <si>
     <t xml:space="preserve">6.32309103012085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43116426467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14610147476196</t>
+    <t xml:space="preserve">6.43116474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14610052108765</t>
   </si>
   <si>
     <t xml:space="preserve">6.18995666503906</t>
@@ -2636,31 +2636,31 @@
     <t xml:space="preserve">6.25104188919067</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06152153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07248497009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09911203384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19778776168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16333055496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11477518081665</t>
+    <t xml:space="preserve">6.06152200698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07248544692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09911251068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19778823852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.163330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11477470397949</t>
   </si>
   <si>
     <t xml:space="preserve">5.97067737579346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0223650932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13670349121094</t>
+    <t xml:space="preserve">6.02236461639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13670301437378</t>
   </si>
   <si>
     <t xml:space="preserve">6.11320877075195</t>
@@ -2669,19 +2669,19 @@
     <t xml:space="preserve">6.13983583450317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15706443786621</t>
+    <t xml:space="preserve">6.15706491470337</t>
   </si>
   <si>
     <t xml:space="preserve">6.41080284118652</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45779228210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51574420928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41236877441406</t>
+    <t xml:space="preserve">6.45779180526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51574373245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41236925125122</t>
   </si>
   <si>
     <t xml:space="preserve">6.38104343414307</t>
@@ -2690,118 +2690,118 @@
     <t xml:space="preserve">6.22128200531006</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18682384490967</t>
+    <t xml:space="preserve">6.18682432174683</t>
   </si>
   <si>
     <t xml:space="preserve">6.17116165161133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95971250534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07091903686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18369150161743</t>
+    <t xml:space="preserve">5.95971298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07091856002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18369102478027</t>
   </si>
   <si>
     <t xml:space="preserve">6.22598123550415</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22441577911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12730503082275</t>
+    <t xml:space="preserve">6.22441530227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12730550765991</t>
   </si>
   <si>
     <t xml:space="preserve">6.17586088180542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28393316268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38417625427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37634420394897</t>
+    <t xml:space="preserve">6.28393363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38417673110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37634468078613</t>
   </si>
   <si>
     <t xml:space="preserve">6.29959630966187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27297067642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17429351806641</t>
+    <t xml:space="preserve">6.2729697227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17429399490356</t>
   </si>
   <si>
     <t xml:space="preserve">6.15393209457397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21815061569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1116418838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.194655418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21501731872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14296770095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14766693115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05682229995728</t>
+    <t xml:space="preserve">6.21815013885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11164236068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19465589523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21501779556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14296817779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14766645431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05682277679443</t>
   </si>
   <si>
     <t xml:space="preserve">6.01139974594116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02393007278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23224687576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10381078720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24947547912598</t>
+    <t xml:space="preserve">6.02393102645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23224639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10381126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24947595596313</t>
   </si>
   <si>
     <t xml:space="preserve">6.23851156234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24164390563965</t>
+    <t xml:space="preserve">6.24164342880249</t>
   </si>
   <si>
     <t xml:space="preserve">6.20561933517456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0787501335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86730194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95031547546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99887037277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9863395690918</t>
+    <t xml:space="preserve">6.07875108718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86730241775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95031499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9988694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98634052276611</t>
   </si>
   <si>
     <t xml:space="preserve">5.94091749191284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0536904335022</t>
+    <t xml:space="preserve">6.05368995666504</t>
   </si>
   <si>
     <t xml:space="preserve">5.93308639526367</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">5.92682123184204</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88296508789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91742372512817</t>
+    <t xml:space="preserve">5.88296461105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91742324829102</t>
   </si>
   <si>
     <t xml:space="preserve">6.33405542373657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27923488616943</t>
+    <t xml:space="preserve">6.27923536300659</t>
   </si>
   <si>
     <t xml:space="preserve">6.2761025428772</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">6.2917652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29333162307739</t>
+    <t xml:space="preserve">6.29333114624023</t>
   </si>
   <si>
     <t xml:space="preserve">5.97850799560547</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">6.05995512008667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94718265533447</t>
+    <t xml:space="preserve">5.94718313217163</t>
   </si>
   <si>
     <t xml:space="preserve">5.95658016204834</t>
@@ -2852,16 +2852,16 @@
     <t xml:space="preserve">5.94561624526978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85007286071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80778408050537</t>
+    <t xml:space="preserve">5.85007333755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80778312683105</t>
   </si>
   <si>
     <t xml:space="preserve">5.56344318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48826169967651</t>
+    <t xml:space="preserve">5.48826122283936</t>
   </si>
   <si>
     <t xml:space="preserve">5.48199605941772</t>
@@ -2870,10 +2870,10 @@
     <t xml:space="preserve">5.61356401443481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66681861877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84537410736084</t>
+    <t xml:space="preserve">5.6668176651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.845374584198</t>
   </si>
   <si>
     <t xml:space="preserve">6.03802728652954</t>
@@ -2885,13 +2885,13 @@
     <t xml:space="preserve">6.1492338180542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30116271972656</t>
+    <t xml:space="preserve">6.3011622428894</t>
   </si>
   <si>
     <t xml:space="preserve">6.25574064254761</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44526100158691</t>
+    <t xml:space="preserve">6.44526052474976</t>
   </si>
   <si>
     <t xml:space="preserve">6.65984201431274</t>
@@ -2900,19 +2900,19 @@
     <t xml:space="preserve">6.74598789215088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86032724380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93394184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82743453979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86351776123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01830911636353</t>
+    <t xml:space="preserve">6.86032629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93394136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82743501663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86351823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.018310546875</t>
   </si>
   <si>
     <t xml:space="preserve">6.95128726959229</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">7.02150249481201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81723928451538</t>
+    <t xml:space="preserve">6.81724071502686</t>
   </si>
   <si>
     <t xml:space="preserve">6.871497631073</t>
@@ -2930,19 +2930,19 @@
     <t xml:space="preserve">6.76138734817505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78532409667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70872688293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69755506515503</t>
+    <t xml:space="preserve">6.78532457351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70872640609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69755601882935</t>
   </si>
   <si>
     <t xml:space="preserve">6.70713090896606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71670579910278</t>
+    <t xml:space="preserve">6.71670532226562</t>
   </si>
   <si>
     <t xml:space="preserve">6.66244888305664</t>
@@ -2954,79 +2954,79 @@
     <t xml:space="preserve">6.7645788192749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69436454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66883134841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51563549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64968109130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67681074142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63851118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65606451034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61297845840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81404876708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95607423782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85713481903076</t>
+    <t xml:space="preserve">6.69436407089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66883087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51563501358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64968156814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6768102645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63851070404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65606498718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6129789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81404829025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95607471466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85713529586792</t>
   </si>
   <si>
     <t xml:space="preserve">6.80926179885864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72947120666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66404390335083</t>
+    <t xml:space="preserve">6.7294716835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66404485702515</t>
   </si>
   <si>
     <t xml:space="preserve">6.68638515472412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63053321838379</t>
+    <t xml:space="preserve">6.63053226470947</t>
   </si>
   <si>
     <t xml:space="preserve">6.69915151596069</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63691520690918</t>
+    <t xml:space="preserve">6.63691473007202</t>
   </si>
   <si>
     <t xml:space="preserve">6.59702014923096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54914617538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6720232963562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51084756851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56989192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44382476806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61776494979858</t>
+    <t xml:space="preserve">6.54914665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67202377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5108470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56989240646362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44382429122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61776542663574</t>
   </si>
   <si>
     <t xml:space="preserve">6.60659503936768</t>
@@ -3035,100 +3035,100 @@
     <t xml:space="preserve">7.0773549079895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19065761566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35662031173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54492330551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63588333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5912013053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72205686569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79546356201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7013111114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56566858291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42364311218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49864482879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69492769241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60237216949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61992645263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66620254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50343370437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84174108505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88004112243652</t>
+    <t xml:space="preserve">7.1906566619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35661888122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63588285446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59120082855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69971466064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72205591201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79546403884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70131063461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5656681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42364263534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49864530563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69492864608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60237169265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61992502212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66620206832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5034327507019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84174203872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88003969192505</t>
   </si>
   <si>
     <t xml:space="preserve">7.93908405303955</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9582347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85929393768311</t>
+    <t xml:space="preserve">7.95823431015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85929679870605</t>
   </si>
   <si>
     <t xml:space="preserve">8.01089572906494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09068489074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16249561309814</t>
+    <t xml:space="preserve">8.09068584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16249465942383</t>
   </si>
   <si>
     <t xml:space="preserve">8.12659168243408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19840049743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15052795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32606506347656</t>
+    <t xml:space="preserve">8.19840240478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1505298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3260669708252</t>
   </si>
   <si>
     <t xml:space="preserve">8.28218078613281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34202194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25026607513428</t>
+    <t xml:space="preserve">8.3420238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25026416778564</t>
   </si>
   <si>
     <t xml:space="preserve">8.38191795349121</t>
@@ -3143,37 +3143,37 @@
     <t xml:space="preserve">8.34601211547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41782283782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60133934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66118144989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64921283721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70506477355957</t>
+    <t xml:space="preserve">8.41782379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60134029388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66118240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64921379089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70506572723389</t>
   </si>
   <si>
     <t xml:space="preserve">8.72900295257568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71703433990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59336090087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61330986022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60532855987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50958251953125</t>
+    <t xml:space="preserve">8.7170352935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59336185455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61330890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6053295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50958156585693</t>
   </si>
   <si>
     <t xml:space="preserve">8.50160312652588</t>
@@ -3182,25 +3182,25 @@
     <t xml:space="preserve">8.59735012054443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58538150787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46968555450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46569633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65719318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62527751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63724613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71304512023926</t>
+    <t xml:space="preserve">8.58538246154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46968650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46569728851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65719413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62527847290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63724517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71304702758789</t>
   </si>
   <si>
     <t xml:space="preserve">8.70905590057373</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">8.69708728790283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81677150726318</t>
+    <t xml:space="preserve">8.81677341461182</t>
   </si>
   <si>
     <t xml:space="preserve">8.7529411315918</t>
@@ -3221,55 +3221,55 @@
     <t xml:space="preserve">8.77687740325928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95640468597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91650867462158</t>
+    <t xml:space="preserve">8.95640563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91651058197021</t>
   </si>
   <si>
     <t xml:space="preserve">8.8048038482666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80879306793213</t>
+    <t xml:space="preserve">8.80879211425781</t>
   </si>
   <si>
     <t xml:space="preserve">8.87262535095215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00826835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99629974365234</t>
+    <t xml:space="preserve">9.00826740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99629878997803</t>
   </si>
   <si>
     <t xml:space="preserve">8.96039390563965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03619384765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17582607269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33540534973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21173191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11199474334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16784763336182</t>
+    <t xml:space="preserve">9.03619575500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17582702636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33540725708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21173286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11199569702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16784858703613</t>
   </si>
   <si>
     <t xml:space="preserve">9.17981624603271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22769069671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41519546508789</t>
+    <t xml:space="preserve">9.22768974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41519737243652</t>
   </si>
   <si>
     <t xml:space="preserve">9.50296497344971</t>
@@ -3281,58 +3281,58 @@
     <t xml:space="preserve">9.63860702514648</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56280612945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58674335479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55881690979004</t>
+    <t xml:space="preserve">9.56280708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58674430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55881786346436</t>
   </si>
   <si>
     <t xml:space="preserve">9.63062858581543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57078552246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33141708374023</t>
+    <t xml:space="preserve">9.57078742980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33141613006592</t>
   </si>
   <si>
     <t xml:space="preserve">9.44958686828613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32238864898682</t>
+    <t xml:space="preserve">9.32238960266113</t>
   </si>
   <si>
     <t xml:space="preserve">9.21160411834717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37573051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34700775146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19519138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15415954589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15005588531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25673866271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17467594146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30597591400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16646862030029</t>
+    <t xml:space="preserve">9.37573146820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34700870513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1951904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15416049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15005683898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25673770904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1746768951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30597686767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16646957397461</t>
   </si>
   <si>
     <t xml:space="preserve">9.20339775085449</t>
@@ -3347,58 +3347,58 @@
     <t xml:space="preserve">9.05568313598633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05157947540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01875495910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89565944671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92438220977783</t>
+    <t xml:space="preserve">9.05158042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01875591278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89566040039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92438316345215</t>
   </si>
   <si>
     <t xml:space="preserve">8.62074851989746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70691394805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98182773590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11723136901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19929504394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315139770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18288040161133</t>
+    <t xml:space="preserve">8.70691585540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98182582855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11722946166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.199294090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315235137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18288230895996</t>
   </si>
   <si>
     <t xml:space="preserve">9.16236591339111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12954044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31828594207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45779323577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50292778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53985691070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61781692504883</t>
+    <t xml:space="preserve">9.12954139709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31828689575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45779418945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50292873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53985786437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61781787872314</t>
   </si>
   <si>
     <t xml:space="preserve">9.63833236694336</t>
@@ -3407,16 +3407,16 @@
     <t xml:space="preserve">9.58909511566162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52754592895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47420597076416</t>
+    <t xml:space="preserve">9.52754688262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47420692443848</t>
   </si>
   <si>
     <t xml:space="preserve">9.55216693878174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4331750869751</t>
+    <t xml:space="preserve">9.43317604064941</t>
   </si>
   <si>
     <t xml:space="preserve">9.36342144012451</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">9.54396057128906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51113510131836</t>
+    <t xml:space="preserve">9.51113605499268</t>
   </si>
   <si>
     <t xml:space="preserve">9.42496776580811</t>
@@ -3437,61 +3437,61 @@
     <t xml:space="preserve">9.46599960327148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51523780822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54806327819824</t>
+    <t xml:space="preserve">9.51523876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54806423187256</t>
   </si>
   <si>
     <t xml:space="preserve">9.40445232391357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47010231018066</t>
+    <t xml:space="preserve">9.47010326385498</t>
   </si>
   <si>
     <t xml:space="preserve">9.48651695251465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57268238067627</t>
+    <t xml:space="preserve">9.57268333435059</t>
   </si>
   <si>
     <t xml:space="preserve">9.72449970245361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63422966003418</t>
+    <t xml:space="preserve">9.6342306137085</t>
   </si>
   <si>
     <t xml:space="preserve">9.67115879058838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82707977294922</t>
+    <t xml:space="preserve">9.75732517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8270788192749</t>
   </si>
   <si>
     <t xml:space="preserve">9.79015064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88041973114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64243507385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70808696746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76963424682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72860240936279</t>
+    <t xml:space="preserve">9.88042068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64243698120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70808601379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76963329315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72860145568848</t>
   </si>
   <si>
     <t xml:space="preserve">9.92555522918701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86810970306396</t>
+    <t xml:space="preserve">9.86810874938965</t>
   </si>
   <si>
     <t xml:space="preserve">9.9912052154541</t>
@@ -3512,13 +3512,13 @@
     <t xml:space="preserve">10.2579107284546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1963634490967</t>
+    <t xml:space="preserve">10.1963624954224</t>
   </si>
   <si>
     <t xml:space="preserve">10.1635389328003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0527534484863</t>
+    <t xml:space="preserve">10.052752494812</t>
   </si>
   <si>
     <t xml:space="preserve">10.3030462265015</t>
@@ -3536,28 +3536,28 @@
     <t xml:space="preserve">10.3112516403198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2948389053345</t>
+    <t xml:space="preserve">10.2948398590088</t>
   </si>
   <si>
     <t xml:space="preserve">10.1266098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2127742767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1758470535278</t>
+    <t xml:space="preserve">10.212776184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1758480072021</t>
   </si>
   <si>
     <t xml:space="preserve">10.298942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2250852584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2538070678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2086715698242</t>
+    <t xml:space="preserve">10.2250862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2538080215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2086734771729</t>
   </si>
   <si>
     <t xml:space="preserve">10.1060934066772</t>
@@ -3569,10 +3569,10 @@
     <t xml:space="preserve">10.0609588623047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96658611297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90093517303467</t>
+    <t xml:space="preserve">9.96658706665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90093612670898</t>
   </si>
   <si>
     <t xml:space="preserve">9.88010025024414</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">9.80092716217041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77175712585449</t>
+    <t xml:space="preserve">9.77175807952881</t>
   </si>
   <si>
     <t xml:space="preserve">9.62590980529785</t>
@@ -3596,28 +3596,28 @@
     <t xml:space="preserve">9.28421115875244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.459228515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35921764373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28837776184082</t>
+    <t xml:space="preserve">9.45922660827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35921669006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28837871551514</t>
   </si>
   <si>
     <t xml:space="preserve">9.32171440124512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45089244842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31754779815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25087547302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20920276641846</t>
+    <t xml:space="preserve">9.45089340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31754684448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25087451934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20920372009277</t>
   </si>
   <si>
     <t xml:space="preserve">9.21337032318115</t>
@@ -3626,13 +3626,13 @@
     <t xml:space="preserve">9.23420524597168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27587604522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34255027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35505104064941</t>
+    <t xml:space="preserve">9.27587699890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34254932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3550500869751</t>
   </si>
   <si>
     <t xml:space="preserve">9.1425313949585</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">9.80509376525879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72175216674805</t>
+    <t xml:space="preserve">9.72175121307373</t>
   </si>
   <si>
     <t xml:space="preserve">9.75092124938965</t>
@@ -3683,13 +3683,13 @@
     <t xml:space="preserve">9.66758060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67591285705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63841152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65924644470215</t>
+    <t xml:space="preserve">9.67591381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6384105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65924739837646</t>
   </si>
   <si>
     <t xml:space="preserve">9.7384204864502</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">9.18836784362793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41338920593262</t>
+    <t xml:space="preserve">9.41339015960693</t>
   </si>
   <si>
     <t xml:space="preserve">9.62174224853516</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">9.94260692596436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95094013214111</t>
+    <t xml:space="preserve">9.9509391784668</t>
   </si>
   <si>
     <t xml:space="preserve">9.07585716247559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13419723510742</t>
+    <t xml:space="preserve">9.13419628143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.17586708068848</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">9.24670791625977</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28004455566406</t>
+    <t xml:space="preserve">9.28004360198975</t>
   </si>
   <si>
     <t xml:space="preserve">9.196702003479</t>
@@ -3743,16 +3743,16 @@
     <t xml:space="preserve">8.97168064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93834495544434</t>
+    <t xml:space="preserve">8.93834590911865</t>
   </si>
   <si>
     <t xml:space="preserve">8.86333751678467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36745738983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64248371124268</t>
+    <t xml:space="preserve">8.36745834350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64248275756836</t>
   </si>
   <si>
     <t xml:space="preserve">8.56330871582031</t>
@@ -3764,16 +3764,16 @@
     <t xml:space="preserve">8.20410823822021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08909702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40403270721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74739837646484</t>
+    <t xml:space="preserve">8.08909797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56738090515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4040322303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.747398853302</t>
   </si>
   <si>
     <t xml:space="preserve">8.43412971496582</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">8.05576133728027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27411556243896</t>
+    <t xml:space="preserve">8.27411651611328</t>
   </si>
   <si>
     <t xml:space="preserve">8.22911071777344</t>
@@ -3794,46 +3794,46 @@
     <t xml:space="preserve">8.60081195831299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42162990570068</t>
+    <t xml:space="preserve">8.42162895202637</t>
   </si>
   <si>
     <t xml:space="preserve">8.39662742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42996215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65081787109375</t>
+    <t xml:space="preserve">8.42996406555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65081882476807</t>
   </si>
   <si>
     <t xml:space="preserve">8.63831615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79249668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67581939697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77583026885986</t>
+    <t xml:space="preserve">8.79249858856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67582035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77582931518555</t>
   </si>
   <si>
     <t xml:space="preserve">8.8508358001709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81333160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6674861907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53830814361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35495662689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22744464874268</t>
+    <t xml:space="preserve">8.81333255767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66748428344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35495567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22744369506836</t>
   </si>
   <si>
     <t xml:space="preserve">8.38829231262207</t>
@@ -3845,13 +3845,13 @@
     <t xml:space="preserve">8.19577407836914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11243343353271</t>
+    <t xml:space="preserve">8.1124324798584</t>
   </si>
   <si>
     <t xml:space="preserve">8.17743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04576110839844</t>
+    <t xml:space="preserve">8.04576015472412</t>
   </si>
   <si>
     <t xml:space="preserve">8.25744724273682</t>
@@ -3860,10 +3860,10 @@
     <t xml:space="preserve">8.23077869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08576393127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85740995407104</t>
+    <t xml:space="preserve">8.0857629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85740900039673</t>
   </si>
   <si>
     <t xml:space="preserve">7.75239944458008</t>
@@ -3875,22 +3875,22 @@
     <t xml:space="preserve">7.77740097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81573915481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73739767074585</t>
+    <t xml:space="preserve">7.81573963165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73739862442017</t>
   </si>
   <si>
     <t xml:space="preserve">7.67572593688965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61571979522705</t>
+    <t xml:space="preserve">7.61571836471558</t>
   </si>
   <si>
     <t xml:space="preserve">7.50237607955933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30735635757446</t>
+    <t xml:space="preserve">7.30735683441162</t>
   </si>
   <si>
     <t xml:space="preserve">7.48070669174194</t>
@@ -3902,10 +3902,10 @@
     <t xml:space="preserve">7.89407920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05909538269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94575166702271</t>
+    <t xml:space="preserve">8.05909633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94575071334839</t>
   </si>
   <si>
     <t xml:space="preserve">8.0207576751709</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">7.97242021560669</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94408369064331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92074775695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07576274871826</t>
+    <t xml:space="preserve">7.94408464431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92074871063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07576179504395</t>
   </si>
   <si>
     <t xml:space="preserve">7.93908357620239</t>
@@ -3956,40 +3956,40 @@
     <t xml:space="preserve">8.29244995117188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62738847732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37236309051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5990514755249</t>
+    <t xml:space="preserve">7.62738800048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37236261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59905099868774</t>
   </si>
   <si>
     <t xml:space="preserve">7.84907579421997</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45903730392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49737548828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67453193664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6099534034729</t>
+    <t xml:space="preserve">7.45903778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49737596511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67453289031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60995292663574</t>
   </si>
   <si>
     <t xml:space="preserve">7.64486169815063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58551836013794</t>
+    <t xml:space="preserve">7.58551788330078</t>
   </si>
   <si>
     <t xml:space="preserve">7.80718421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76878547668457</t>
+    <t xml:space="preserve">7.76878452301025</t>
   </si>
   <si>
     <t xml:space="preserve">7.92412567138672</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">7.77751207351685</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78100299835205</t>
+    <t xml:space="preserve">7.78100204467773</t>
   </si>
   <si>
     <t xml:space="preserve">7.7740216255188</t>
@@ -4010,25 +4010,25 @@
     <t xml:space="preserve">7.461594581604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50871992111206</t>
+    <t xml:space="preserve">7.50872039794922</t>
   </si>
   <si>
     <t xml:space="preserve">7.70246028900146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58202695846558</t>
+    <t xml:space="preserve">7.58202648162842</t>
   </si>
   <si>
     <t xml:space="preserve">7.43890428543091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47206735610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31498098373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94320964813232</t>
+    <t xml:space="preserve">7.4720664024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31498050689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94321012496948</t>
   </si>
   <si>
     <t xml:space="preserve">7.11949586868286</t>
@@ -4037,13 +4037,13 @@
     <t xml:space="preserve">7.25389194488525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49475622177124</t>
+    <t xml:space="preserve">7.49475717544556</t>
   </si>
   <si>
     <t xml:space="preserve">7.32894325256348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97113561630249</t>
+    <t xml:space="preserve">6.97113609313965</t>
   </si>
   <si>
     <t xml:space="preserve">7.06364250183105</t>
@@ -4052,7 +4052,7 @@
     <t xml:space="preserve">7.0933141708374</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0776047706604</t>
+    <t xml:space="preserve">7.07760524749756</t>
   </si>
   <si>
     <t xml:space="preserve">7.0898232460022</t>
@@ -4061,13 +4061,13 @@
     <t xml:space="preserve">7.03047943115234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12996768951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19978427886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11251306533813</t>
+    <t xml:space="preserve">7.129967212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19978332519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11251354217529</t>
   </si>
   <si>
     <t xml:space="preserve">7.23294687271118</t>
@@ -4076,25 +4076,25 @@
     <t xml:space="preserve">7.316725730896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39875936508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33068895339966</t>
+    <t xml:space="preserve">7.39875984191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3306884765625</t>
   </si>
   <si>
     <t xml:space="preserve">7.29054498672485</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33417987823486</t>
+    <t xml:space="preserve">7.33418083190918</t>
   </si>
   <si>
     <t xml:space="preserve">7.4423942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44937658309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38654136657715</t>
+    <t xml:space="preserve">7.44937610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38654184341431</t>
   </si>
   <si>
     <t xml:space="preserve">7.28879976272583</t>
@@ -4103,10 +4103,10 @@
     <t xml:space="preserve">7.15614891052246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97462701797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08109712600708</t>
+    <t xml:space="preserve">6.97462749481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08109664916992</t>
   </si>
   <si>
     <t xml:space="preserve">7.04618883132935</t>
@@ -4115,19 +4115,19 @@
     <t xml:space="preserve">7.02349853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86466646194458</t>
+    <t xml:space="preserve">6.86466693878174</t>
   </si>
   <si>
     <t xml:space="preserve">6.77739667892456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93448305130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88212060928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06887912750244</t>
+    <t xml:space="preserve">6.93448257446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88212108612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06887865066528</t>
   </si>
   <si>
     <t xml:space="preserve">6.88561153411865</t>
@@ -4142,22 +4142,22 @@
     <t xml:space="preserve">7.0566611289978</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16487598419189</t>
+    <t xml:space="preserve">7.16487646102905</t>
   </si>
   <si>
     <t xml:space="preserve">7.26087284088135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27483654022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.332435131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21898365020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25040006637573</t>
+    <t xml:space="preserve">7.27483701705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33243465423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21898317337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25040054321289</t>
   </si>
   <si>
     <t xml:space="preserve">7.09855031967163</t>
@@ -4166,13 +4166,13 @@
     <t xml:space="preserve">7.09505987167358</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89084815979004</t>
+    <t xml:space="preserve">6.89084768295288</t>
   </si>
   <si>
     <t xml:space="preserve">6.96066379547119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8157958984375</t>
+    <t xml:space="preserve">6.81579542160034</t>
   </si>
   <si>
     <t xml:space="preserve">6.82452249526978</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">6.68314504623413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79834127426147</t>
+    <t xml:space="preserve">6.79834175109863</t>
   </si>
   <si>
     <t xml:space="preserve">6.9379734992981</t>
@@ -4190,61 +4190,61 @@
     <t xml:space="preserve">7.1421856880188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03920650482178</t>
+    <t xml:space="preserve">7.03920698165894</t>
   </si>
   <si>
     <t xml:space="preserve">6.92051935195923</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8262677192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84197616577148</t>
+    <t xml:space="preserve">6.82626819610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84197664260864</t>
   </si>
   <si>
     <t xml:space="preserve">6.68489027023315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79485082626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89782953262329</t>
+    <t xml:space="preserve">6.79485034942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89782905578613</t>
   </si>
   <si>
     <t xml:space="preserve">7.07062435150146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32719850540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28705406188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26261758804321</t>
+    <t xml:space="preserve">7.32719802856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28705453872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26261806488037</t>
   </si>
   <si>
     <t xml:space="preserve">7.19280195236206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35861539840698</t>
+    <t xml:space="preserve">7.3586163520813</t>
   </si>
   <si>
     <t xml:space="preserve">7.42668628692627</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49650192260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71642351150513</t>
+    <t xml:space="preserve">7.49650239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71642255783081</t>
   </si>
   <si>
     <t xml:space="preserve">7.65707921981812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69722366333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71991395950317</t>
+    <t xml:space="preserve">7.69722270965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71991300582886</t>
   </si>
   <si>
     <t xml:space="preserve">7.67976999282837</t>
@@ -4262,34 +4262,34 @@
     <t xml:space="preserve">8.06026744842529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975475311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51232528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41109275817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4686918258667</t>
+    <t xml:space="preserve">8.15975570678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51232624053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41109180450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46869087219238</t>
   </si>
   <si>
     <t xml:space="preserve">8.50010871887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39887523651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34127712249756</t>
+    <t xml:space="preserve">8.39887428283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34127616882324</t>
   </si>
   <si>
     <t xml:space="preserve">8.38142108917236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34394836425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30469036102295</t>
+    <t xml:space="preserve">8.34394931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30469131469727</t>
   </si>
   <si>
     <t xml:space="preserve">8.39034366607666</t>
@@ -4301,16 +4301,16 @@
     <t xml:space="preserve">8.42781639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33145713806152</t>
+    <t xml:space="preserve">8.33145809173584</t>
   </si>
   <si>
     <t xml:space="preserve">8.40640354156494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37428283691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4313850402832</t>
+    <t xml:space="preserve">8.37428379058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43138408660889</t>
   </si>
   <si>
     <t xml:space="preserve">8.40997123718262</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">8.33859443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44030666351318</t>
+    <t xml:space="preserve">8.4403076171875</t>
   </si>
   <si>
     <t xml:space="preserve">8.28863143920898</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">8.36714649200439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46885681152344</t>
+    <t xml:space="preserve">8.46885776519775</t>
   </si>
   <si>
     <t xml:space="preserve">8.47064208984375</t>
@@ -4358,7 +4358,7 @@
     <t xml:space="preserve">8.22617721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23688411712646</t>
+    <t xml:space="preserve">8.23688316345215</t>
   </si>
   <si>
     <t xml:space="preserve">8.16193771362305</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">8.60625839233398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48670196533203</t>
+    <t xml:space="preserve">8.48670101165771</t>
   </si>
   <si>
     <t xml:space="preserve">8.57056999206543</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">8.55451011657715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65443801879883</t>
+    <t xml:space="preserve">8.65443706512451</t>
   </si>
   <si>
     <t xml:space="preserve">8.57949161529541</t>
@@ -4394,19 +4394,19 @@
     <t xml:space="preserve">8.65800666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68120384216309</t>
+    <t xml:space="preserve">8.68120288848877</t>
   </si>
   <si>
     <t xml:space="preserve">8.72938346862793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67406558990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71332263946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52239036560059</t>
+    <t xml:space="preserve">8.6740665435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71332359313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5223913192749</t>
   </si>
   <si>
     <t xml:space="preserve">8.54915618896484</t>
@@ -4415,13 +4415,13 @@
     <t xml:space="preserve">8.59019947052002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59912109375</t>
+    <t xml:space="preserve">8.59912014007568</t>
   </si>
   <si>
     <t xml:space="preserve">8.72224521636963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69369506835938</t>
+    <t xml:space="preserve">8.69369602203369</t>
   </si>
   <si>
     <t xml:space="preserve">8.73116779327393</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">9.15407562255859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96671104431152</t>
+    <t xml:space="preserve">8.96671199798584</t>
   </si>
   <si>
     <t xml:space="preserve">9.0960807800293</t>
@@ -4454,7 +4454,7 @@
     <t xml:space="preserve">9.04701042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12730884552002</t>
+    <t xml:space="preserve">9.1273078918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.12284851074219</t>
@@ -4466,34 +4466,34 @@
     <t xml:space="preserve">8.9024715423584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79362297058105</t>
+    <t xml:space="preserve">8.79362201690674</t>
   </si>
   <si>
     <t xml:space="preserve">8.918532371521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10054302215576</t>
+    <t xml:space="preserve">9.10054206848145</t>
   </si>
   <si>
     <t xml:space="preserve">8.96224975585938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95778846740723</t>
+    <t xml:space="preserve">8.95778942108154</t>
   </si>
   <si>
     <t xml:space="preserve">9.03808784484863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20314693450928</t>
+    <t xml:space="preserve">9.20314598083496</t>
   </si>
   <si>
     <t xml:space="preserve">9.1451530456543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11838722229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05593204498291</t>
+    <t xml:space="preserve">9.11838626861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05593109130859</t>
   </si>
   <si>
     <t xml:space="preserve">8.9113941192627</t>
@@ -4505,13 +4505,13 @@
     <t xml:space="preserve">8.68655776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26721858978271</t>
+    <t xml:space="preserve">8.2672176361084</t>
   </si>
   <si>
     <t xml:space="preserve">8.0405969619751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12446403503418</t>
+    <t xml:space="preserve">8.1244649887085</t>
   </si>
   <si>
     <t xml:space="preserve">8.40104961395264</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">8.34573268890381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36179256439209</t>
+    <t xml:space="preserve">8.36179161071777</t>
   </si>
   <si>
     <t xml:space="preserve">8.20476341247559</t>
@@ -4559,7 +4559,7 @@
     <t xml:space="preserve">8.44387531280518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53309726715088</t>
+    <t xml:space="preserve">8.53309631347656</t>
   </si>
   <si>
     <t xml:space="preserve">8.44922924041748</t>
@@ -4589,7 +4589,7 @@
     <t xml:space="preserve">8.45458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49562358856201</t>
+    <t xml:space="preserve">8.49562454223633</t>
   </si>
   <si>
     <t xml:space="preserve">8.58484554290771</t>
@@ -4610,13 +4610,13 @@
     <t xml:space="preserve">8.64373016357422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61518096923828</t>
+    <t xml:space="preserve">8.61518001556396</t>
   </si>
   <si>
     <t xml:space="preserve">8.85964584350586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83466529846191</t>
+    <t xml:space="preserve">8.8346643447876</t>
   </si>
   <si>
     <t xml:space="preserve">8.63480854034424</t>
@@ -4625,25 +4625,25 @@
     <t xml:space="preserve">8.74008941650391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71689319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65086841583252</t>
+    <t xml:space="preserve">8.71689224243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65086936950684</t>
   </si>
   <si>
     <t xml:space="preserve">8.70797061920166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92210102081299</t>
+    <t xml:space="preserve">8.92210006713867</t>
   </si>
   <si>
     <t xml:space="preserve">8.83823299407959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87035179138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90068626403809</t>
+    <t xml:space="preserve">8.87035274505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9006872177124</t>
   </si>
   <si>
     <t xml:space="preserve">8.83644866943359</t>
@@ -4652,13 +4652,13 @@
     <t xml:space="preserve">8.91317844390869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93994426727295</t>
+    <t xml:space="preserve">8.93994522094727</t>
   </si>
   <si>
     <t xml:space="preserve">9.00686073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98009490966797</t>
+    <t xml:space="preserve">8.98009395599365</t>
   </si>
   <si>
     <t xml:space="preserve">9.00094032287598</t>
@@ -5334,6 +5334,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.1599998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1049995422363</t>
   </si>
 </sst>
 </file>
@@ -62173,7 +62176,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6493055556</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>1209356</v>
@@ -62194,6 +62197,32 @@
         <v>1773</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6495486111</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>1608219</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>12.1599998474121</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>12.0200004577637</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>12.1350002288818</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>12.1049995422363</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1689920425415</t>
+    <t xml:space="preserve">4.16899108886719</t>
   </si>
   <si>
     <t xml:space="preserve">PST.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">4.24381256103516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21986961364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18096303939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14205598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24081897735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29169654846191</t>
+    <t xml:space="preserve">4.21987009048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18096256256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14205646514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24081945419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29169750213623</t>
   </si>
   <si>
     <t xml:space="preserve">4.26775503158569</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">4.01037263870239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7889039516449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93555164337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98643016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90263152122498</t>
+    <t xml:space="preserve">3.78890419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93555212020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98643040657043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90263104438782</t>
   </si>
   <si>
     <t xml:space="preserve">4.01635837554932</t>
@@ -95,79 +95,79 @@
     <t xml:space="preserve">4.06723642349243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98343777656555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08519220352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97445893287659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89066004753113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77094793319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58240056037903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2082986831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.094571352005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38487434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23822665214539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2501974105835</t>
+    <t xml:space="preserve">3.98343682289124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08519268035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97445869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89065980911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77094721794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58240079879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829844474792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09457111358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38487410545349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23822641372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25019836425781</t>
   </si>
   <si>
     <t xml:space="preserve">3.34895992279053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33399653434753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46867275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45370984077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52852892875671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65422821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57342195510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53750729560852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63926339149475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69014167785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75299024581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72006940841675</t>
+    <t xml:space="preserve">3.33399629592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46867299079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45370864868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52852940559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65422749519348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57342123985291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53750777244568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63926267623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69014143943787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75299048423767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72006988525391</t>
   </si>
   <si>
     <t xml:space="preserve">3.68714880943298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71109080314636</t>
+    <t xml:space="preserve">3.71109104156494</t>
   </si>
   <si>
     <t xml:space="preserve">3.66919183731079</t>
@@ -176,49 +176,49 @@
     <t xml:space="preserve">3.69313430786133</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66619849205017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85773992538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88467407226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88168168067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8517529964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83080363273621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84576773643494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92058849334717</t>
+    <t xml:space="preserve">3.66619920730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85773873329163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88467311859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88168144226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85175347328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83080387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84576845169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92058801651001</t>
   </si>
   <si>
     <t xml:space="preserve">4.05227184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03431510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96548104286194</t>
+    <t xml:space="preserve">4.03431463241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9654803276062</t>
   </si>
   <si>
     <t xml:space="preserve">4.0403003692627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98044419288635</t>
+    <t xml:space="preserve">3.98044443130493</t>
   </si>
   <si>
     <t xml:space="preserve">3.92657423019409</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86073231697083</t>
+    <t xml:space="preserve">3.86073184013367</t>
   </si>
   <si>
     <t xml:space="preserve">3.74999737739563</t>
@@ -227,76 +227,76 @@
     <t xml:space="preserve">3.80985355377197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82781076431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8487606048584</t>
+    <t xml:space="preserve">3.8278112411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84876084327698</t>
   </si>
   <si>
     <t xml:space="preserve">3.86671757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95051574707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87868785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8756959438324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90562343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87270259857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92358136177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92956686019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99840116500854</t>
+    <t xml:space="preserve">3.95051646232605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87868881225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87569570541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90562415122986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87270307540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92358064651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92956638336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99840188026428</t>
   </si>
   <si>
     <t xml:space="preserve">4.04927921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05825853347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99241590499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93255925178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05526542663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03132295608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01336479187012</t>
+    <t xml:space="preserve">4.05825805664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99241471290588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93255996704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02234363555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05526494979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03132247924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01336574554443</t>
   </si>
   <si>
     <t xml:space="preserve">4.04329347610474</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93854546546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04628658294678</t>
+    <t xml:space="preserve">3.93854594230652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04628705978394</t>
   </si>
   <si>
     <t xml:space="preserve">4.00139427185059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09117889404297</t>
+    <t xml:space="preserve">4.09117841720581</t>
   </si>
   <si>
     <t xml:space="preserve">4.09716463088989</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">4.12110710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11811399459839</t>
+    <t xml:space="preserve">4.11811304092407</t>
   </si>
   <si>
     <t xml:space="preserve">4.13008499145508</t>
@@ -317,13 +317,13 @@
     <t xml:space="preserve">4.1061429977417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11512136459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19891977310181</t>
+    <t xml:space="preserve">4.11512184143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18994235992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19892024993896</t>
   </si>
   <si>
     <t xml:space="preserve">4.10015773773193</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">4.03730821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0193510055542</t>
+    <t xml:space="preserve">4.01935148239136</t>
   </si>
   <si>
     <t xml:space="preserve">4.13906383514404</t>
@@ -341,169 +341,169 @@
     <t xml:space="preserve">4.23349142074585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17998266220093</t>
+    <t xml:space="preserve">4.17998218536377</t>
   </si>
   <si>
     <t xml:space="preserve">4.17053985595703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2177529335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88410973548889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65433692932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75191187858582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74561595916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84948706626892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76450181007385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67007493972778</t>
+    <t xml:space="preserve">4.21775245666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88411021232605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65433669090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75191164016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74561643600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84948635101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76450204849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67007446289062</t>
   </si>
   <si>
     <t xml:space="preserve">3.6291561126709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60082793235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73617458343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90614318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89669990539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98798012733459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91873335838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188024520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89984774589539</t>
+    <t xml:space="preserve">3.60082817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7361741065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90614295005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89670085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98797965049744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9187331199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188096046448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89984846115112</t>
   </si>
   <si>
     <t xml:space="preserve">3.95965147018433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94706153869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90299510955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89355301856995</t>
+    <t xml:space="preserve">3.94706177711487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90299582481384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89355278015137</t>
   </si>
   <si>
     <t xml:space="preserve">3.84633898735046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82745313644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76764965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06037521362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03834056854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06666946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07296371459961</t>
+    <t xml:space="preserve">3.82745289802551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76764988899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06037473678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0383415222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06666898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07296419143677</t>
   </si>
   <si>
     <t xml:space="preserve">4.12962102890015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1422119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05722713470459</t>
+    <t xml:space="preserve">4.14221096038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05722665786743</t>
   </si>
   <si>
     <t xml:space="preserve">3.97538995742798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01630783081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91558599472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93132400512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99742245674133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95335650444031</t>
+    <t xml:space="preserve">4.01630878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91558504104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93132424354553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99742221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95335721969604</t>
   </si>
   <si>
     <t xml:space="preserve">3.90929055213928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92817568778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87152004241943</t>
+    <t xml:space="preserve">3.92817616462708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87151956558228</t>
   </si>
   <si>
     <t xml:space="preserve">3.94391369819641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93447136878967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95650291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9690945148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03204584121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01945543289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.805419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86207675933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85892939567566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82430601119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84319162368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85263395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83060145378113</t>
+    <t xml:space="preserve">3.93447065353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95650386810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96909379959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0320463180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01945495605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80542039871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86207699775696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85892915725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82430577278137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84319186210632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8526349067688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83060169219971</t>
   </si>
   <si>
     <t xml:space="preserve">3.82115817070007</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">3.79912543296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80227327346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7393217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78653454780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80856776237488</t>
+    <t xml:space="preserve">3.80227303504944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73932123184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78653502464294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80856847763062</t>
   </si>
   <si>
     <t xml:space="preserve">3.75505948066711</t>
@@ -533,40 +533,40 @@
     <t xml:space="preserve">3.81801128387451</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89040541648865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86837196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74876379966736</t>
+    <t xml:space="preserve">3.89040517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86837267875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74876356124878</t>
   </si>
   <si>
     <t xml:space="preserve">3.72673106193542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75820732116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79283022880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338766098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77079725265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76135492324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71414136886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67322278022766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59453296661377</t>
+    <t xml:space="preserve">3.75820684432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79282975196838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338694572449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77079677581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76135396957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71414089202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67322254180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59453320503235</t>
   </si>
   <si>
     <t xml:space="preserve">3.55676198005676</t>
@@ -575,163 +575,163 @@
     <t xml:space="preserve">3.55046677589417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54417204856873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53472852706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48751544952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62600874900818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69210720062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69525575637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6858127117157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483228683472</t>
+    <t xml:space="preserve">3.54417181015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53472900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48751473426819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62600898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69210815429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69525527954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68581295013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98483204841614</t>
   </si>
   <si>
     <t xml:space="preserve">4.00057029724121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99112772941589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.981684923172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0351939201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99427509307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02889823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04778337478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0226035118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96594715118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88096213340759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84004330635071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81171560287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83689570426941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6826651096344</t>
+    <t xml:space="preserve">3.99112749099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98168444633484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03519344329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99427461624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0288987159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04778480529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02260303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96594738960266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88096261024475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84004426002502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8117151260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83689641952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68266487121582</t>
   </si>
   <si>
     <t xml:space="preserve">3.66063189506531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67951726913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77709221839905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77394485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83374929428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95020961761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07611131668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06352233886719</t>
+    <t xml:space="preserve">3.67951822280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77709174156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77394461631775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83374834060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95020914077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07611227035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06352186203003</t>
   </si>
   <si>
     <t xml:space="preserve">4.05407905578613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01316070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08870220184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05093145370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92502856254578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9627993106842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00371837615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02575159072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93761897087097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00686502456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0918493270874</t>
+    <t xml:space="preserve">4.01316022872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08870267868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05093097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92502808570862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96280026435852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00371742248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0257511138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93761825561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00686597824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09185028076172</t>
   </si>
   <si>
     <t xml:space="preserve">4.10444068908691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97224259376526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94076681137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981754302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07925939559937</t>
+    <t xml:space="preserve">3.97224187850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94076657295227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06981801986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07925987243652</t>
   </si>
   <si>
     <t xml:space="preserve">4.04576826095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05916452407837</t>
+    <t xml:space="preserve">4.05916500091553</t>
   </si>
   <si>
     <t xml:space="preserve">4.07256174087524</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01227712631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01897478103638</t>
+    <t xml:space="preserve">4.0122766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01897525787354</t>
   </si>
   <si>
     <t xml:space="preserve">4.03237152099609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99218225479126</t>
+    <t xml:space="preserve">3.99218249320984</t>
   </si>
   <si>
     <t xml:space="preserve">4.07926034927368</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">4.01562595367432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0223240852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99888038635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98213458061218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05246639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06251430511475</t>
+    <t xml:space="preserve">4.02232456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99887919425964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98213505744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05246686935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06251335144043</t>
   </si>
   <si>
     <t xml:space="preserve">4.10270357131958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08260822296143</t>
+    <t xml:space="preserve">4.08260869979858</t>
   </si>
   <si>
     <t xml:space="preserve">4.06586313247681</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">4.05581569671631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00557851791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99553084373474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03572082519531</t>
+    <t xml:space="preserve">4.00557899475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99553155899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03572034835815</t>
   </si>
   <si>
     <t xml:space="preserve">4.1797342300415</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">4.15629053115845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16633796691895</t>
+    <t xml:space="preserve">4.16633749008179</t>
   </si>
   <si>
     <t xml:space="preserve">4.16968679428101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20987510681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09265613555908</t>
+    <t xml:space="preserve">4.209876537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09265661239624</t>
   </si>
   <si>
     <t xml:space="preserve">4.1060528755188</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">4.16298866271973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17303562164307</t>
+    <t xml:space="preserve">4.17303514480591</t>
   </si>
   <si>
     <t xml:space="preserve">4.11945009231567</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">4.1161003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0759105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12279844284058</t>
+    <t xml:space="preserve">4.07591104507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12279891967773</t>
   </si>
   <si>
     <t xml:space="preserve">4.18643236160278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15963888168335</t>
+    <t xml:space="preserve">4.15963983535767</t>
   </si>
   <si>
     <t xml:space="preserve">4.14959192276001</t>
@@ -845,43 +845,43 @@
     <t xml:space="preserve">4.12614774703979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14289379119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11275100708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13619565963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19647932052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12949705123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20317840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21657466888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1998291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20652723312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.189781665802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10940217971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0960054397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0859580039978</t>
+    <t xml:space="preserve">4.14289331436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11275148391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13619518280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19647979736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12949657440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20317792892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21657514572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19982862472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20652770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18978214263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09600448608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08595752716064</t>
   </si>
   <si>
     <t xml:space="preserve">4.26346254348755</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">4.2936053276062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26681137084961</t>
+    <t xml:space="preserve">4.26681184768677</t>
   </si>
   <si>
     <t xml:space="preserve">4.25341510772705</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">4.24001836776733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25676488876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27016162872314</t>
+    <t xml:space="preserve">4.25676441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27016067504883</t>
   </si>
   <si>
     <t xml:space="preserve">4.29025602340698</t>
@@ -914,19 +914,19 @@
     <t xml:space="preserve">4.32039880752563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33379411697388</t>
+    <t xml:space="preserve">4.33379459381104</t>
   </si>
   <si>
     <t xml:space="preserve">4.3137001991272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34719085693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38068246841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37733364105225</t>
+    <t xml:space="preserve">4.34719181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38068294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37733316421509</t>
   </si>
   <si>
     <t xml:space="preserve">4.40747594833374</t>
@@ -935,94 +935,94 @@
     <t xml:space="preserve">4.50460147857666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50125217437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48450708389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45436429977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47110986709595</t>
+    <t xml:space="preserve">4.50125169754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48450660705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45436334609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47110939025879</t>
   </si>
   <si>
     <t xml:space="preserve">4.48115730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4557032585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43694829940796</t>
+    <t xml:space="preserve">4.45570373535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43694925308228</t>
   </si>
   <si>
     <t xml:space="preserve">4.46374177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41015577316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41953325271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28690671920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4007773399353</t>
+    <t xml:space="preserve">4.41015529632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41953229904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28690719604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40077781677246</t>
   </si>
   <si>
     <t xml:space="preserve">4.31771898269653</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31101989746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32977628707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37264442443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40881538391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45838308334351</t>
+    <t xml:space="preserve">4.3110203742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32977533340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37264394760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40881490707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45838356018066</t>
   </si>
   <si>
     <t xml:space="preserve">4.46508121490479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54144287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52804517745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49187469482422</t>
+    <t xml:space="preserve">4.54144191741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52804565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49187517166138</t>
   </si>
   <si>
     <t xml:space="preserve">4.49589347839355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45704364776611</t>
+    <t xml:space="preserve">4.45704317092896</t>
   </si>
   <si>
     <t xml:space="preserve">4.71559762954712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73033332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70086145401001</t>
+    <t xml:space="preserve">4.73033380508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70086193084717</t>
   </si>
   <si>
     <t xml:space="preserve">4.59904718399048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6285195350647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66736936569214</t>
+    <t xml:space="preserve">4.62851905822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6673698425293</t>
   </si>
   <si>
     <t xml:space="preserve">4.79061841964722</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">4.91252756118774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88707399368286</t>
+    <t xml:space="preserve">4.88707447052002</t>
   </si>
   <si>
     <t xml:space="preserve">4.97013235092163</t>
@@ -1043,91 +1043,91 @@
     <t xml:space="preserve">4.79999589920044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87635564804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95271635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91520595550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9486985206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93932104110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8937726020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85358190536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83616638183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8522424697876</t>
+    <t xml:space="preserve">4.87635660171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95271682739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91520690917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94869756698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93932056427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89377212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85358238220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8361668586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85224199295044</t>
   </si>
   <si>
     <t xml:space="preserve">4.9272632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93664121627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97415256500244</t>
+    <t xml:space="preserve">4.93664169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97415161132812</t>
   </si>
   <si>
     <t xml:space="preserve">5.05721092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05185174942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09070205688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1469669342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13892889022827</t>
+    <t xml:space="preserve">5.05185127258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09070158004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14696741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13892936706543</t>
   </si>
   <si>
     <t xml:space="preserve">5.14294862747192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14026880264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17108154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21796989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18581819534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19653463363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27155542373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27691411972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29968786239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31040620803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33987808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42963552474976</t>
+    <t xml:space="preserve">5.14026975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17108106613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21796941757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18581867218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19653511047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27155590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2769136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2996883392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31040573120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33987855911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4296350479126</t>
   </si>
   <si>
     <t xml:space="preserve">5.41489887237549</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">5.40552139282227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46178770065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43633460998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41088008880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45910739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50465631484985</t>
+    <t xml:space="preserve">5.46178722381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43633413314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41088056564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45910835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5046558380127</t>
   </si>
   <si>
     <t xml:space="preserve">5.29834842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28629302978516</t>
+    <t xml:space="preserve">5.286292552948</t>
   </si>
   <si>
     <t xml:space="preserve">5.10409879684448</t>
@@ -1163,58 +1163,58 @@
     <t xml:space="preserve">5.11481523513794</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15634489059448</t>
+    <t xml:space="preserve">5.15634441375732</t>
   </si>
   <si>
     <t xml:space="preserve">5.1308913230896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16170358657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08266305923462</t>
+    <t xml:space="preserve">5.16170454025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08266401290894</t>
   </si>
   <si>
     <t xml:space="preserve">4.91922569274902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69818162918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89511108398438</t>
+    <t xml:space="preserve">4.69818115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89511156082153</t>
   </si>
   <si>
     <t xml:space="preserve">4.90582895278931</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00362396240234</t>
+    <t xml:space="preserve">5.00362348556519</t>
   </si>
   <si>
     <t xml:space="preserve">5.03175735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89913129806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89645147323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87769603729248</t>
+    <t xml:space="preserve">4.89913082122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89645099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87769651412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.7450704574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92860317230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02237892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11749410629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23806428909302</t>
+    <t xml:space="preserve">4.92860269546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02237939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11749458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23806476593018</t>
   </si>
   <si>
     <t xml:space="preserve">5.1107964515686</t>
@@ -1223,112 +1223,112 @@
     <t xml:space="preserve">5.19018745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24264287948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26674270629883</t>
+    <t xml:space="preserve">5.24264240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26674318313599</t>
   </si>
   <si>
     <t xml:space="preserve">5.20152902603149</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20720052719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13915109634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1632513999939</t>
+    <t xml:space="preserve">5.207200050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13915061950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16325092315674</t>
   </si>
   <si>
     <t xml:space="preserve">5.08953094482422</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08244276046753</t>
+    <t xml:space="preserve">5.08244228363037</t>
   </si>
   <si>
     <t xml:space="preserve">5.13347959518433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14623928070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26816129684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30927467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35889434814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30218648910522</t>
+    <t xml:space="preserve">5.14623880386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26816034317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30927419662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35889387130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30218553543091</t>
   </si>
   <si>
     <t xml:space="preserve">5.38015937805176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36739921569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44537305831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5020809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53185224533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46805667877197</t>
+    <t xml:space="preserve">5.3673996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44537258148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50208044052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53185272216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46805572509766</t>
   </si>
   <si>
     <t xml:space="preserve">5.48223304748535</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46522045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4751443862915</t>
+    <t xml:space="preserve">5.46522092819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47514533996582</t>
   </si>
   <si>
     <t xml:space="preserve">5.56445932388306</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58855962753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61266088485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64668607711792</t>
+    <t xml:space="preserve">5.58856058120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61266136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64668560028076</t>
   </si>
   <si>
     <t xml:space="preserve">5.63818025588989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33337497711182</t>
+    <t xml:space="preserve">5.33337593078613</t>
   </si>
   <si>
     <t xml:space="preserve">5.27950191497803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26248979568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19869422912598</t>
+    <t xml:space="preserve">5.26248931884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19869375228882</t>
   </si>
   <si>
     <t xml:space="preserve">5.03565883636475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0143928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06684732437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91657161712646</t>
+    <t xml:space="preserve">5.01439332962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06684827804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91657257080078</t>
   </si>
   <si>
     <t xml:space="preserve">4.8556113243103</t>
@@ -1337,40 +1337,40 @@
     <t xml:space="preserve">4.77905511856079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.930748462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83434629440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81591606140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80740928649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78897905349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81024408340454</t>
+    <t xml:space="preserve">4.93074893951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83434581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81591558456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80740976333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78897953033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8102445602417</t>
   </si>
   <si>
     <t xml:space="preserve">4.74786615371704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70108270645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78047370910645</t>
+    <t xml:space="preserve">4.70108222961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78047323226929</t>
   </si>
   <si>
     <t xml:space="preserve">4.9066481590271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00163459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97044515609741</t>
+    <t xml:space="preserve">5.001633644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97044467926025</t>
   </si>
   <si>
     <t xml:space="preserve">4.9902925491333</t>
@@ -1379,55 +1379,55 @@
     <t xml:space="preserve">5.10512590408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07818984985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99879837036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87120532989502</t>
+    <t xml:space="preserve">5.07818937301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99879789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87120676040649</t>
   </si>
   <si>
     <t xml:space="preserve">4.89955997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94634342193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92224264144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90948390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97611522674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01722860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04132890701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10087251663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13064432144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09662008285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87829399108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82583951950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73935985565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74928331375122</t>
+    <t xml:space="preserve">4.94634437561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92224311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90948295593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97611570358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01722812652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0413293838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10087299346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13064384460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09661865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87829446792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82583904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73936033248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74928426742554</t>
   </si>
   <si>
     <t xml:space="preserve">4.75353717803955</t>
@@ -1439,43 +1439,43 @@
     <t xml:space="preserve">4.50543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52954053878784</t>
+    <t xml:space="preserve">4.52954006195068</t>
   </si>
   <si>
     <t xml:space="preserve">4.57490730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44873285293579</t>
+    <t xml:space="preserve">4.44873189926147</t>
   </si>
   <si>
     <t xml:space="preserve">4.42888498306274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44589710235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51961755752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46290826797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33815145492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4444785118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42037773132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43030214309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25167322158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34382247924805</t>
+    <t xml:space="preserve">4.4458966255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51961708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46290969848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33815097808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44447898864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42037868499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43030166625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25167274475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34382200241089</t>
   </si>
   <si>
     <t xml:space="preserve">4.34807538986206</t>
@@ -1484,19 +1484,19 @@
     <t xml:space="preserve">4.48559284210205</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38635301589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50118684768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64437437057495</t>
+    <t xml:space="preserve">4.38635396957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50118732452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64437389373779</t>
   </si>
   <si>
     <t xml:space="preserve">4.68123435974121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61602115631104</t>
+    <t xml:space="preserve">4.61602020263672</t>
   </si>
   <si>
     <t xml:space="preserve">4.58624839782715</t>
@@ -1505,28 +1505,28 @@
     <t xml:space="preserve">4.73794221878052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83718204498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86978769302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87971115112305</t>
+    <t xml:space="preserve">4.83718109130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86978816986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87971210479736</t>
   </si>
   <si>
     <t xml:space="preserve">4.88254737854004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72660160064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60751438140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61885595321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64579153060913</t>
+    <t xml:space="preserve">4.72660112380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60751485824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61885499954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64579200744629</t>
   </si>
   <si>
     <t xml:space="preserve">4.5181999206543</t>
@@ -1535,16 +1535,16 @@
     <t xml:space="preserve">4.66705751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64295768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84852313995361</t>
+    <t xml:space="preserve">4.64295625686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8485221862793</t>
   </si>
   <si>
     <t xml:space="preserve">4.82300424575806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75070190429688</t>
+    <t xml:space="preserve">4.75070095062256</t>
   </si>
   <si>
     <t xml:space="preserve">4.75211954116821</t>
@@ -1562,19 +1562,19 @@
     <t xml:space="preserve">4.63445091247559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65713310241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60326147079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64862680435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8357629776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91231870651245</t>
+    <t xml:space="preserve">4.65713405609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60326099395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64862728118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83576345443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91231822967529</t>
   </si>
   <si>
     <t xml:space="preserve">4.88821792602539</t>
@@ -1586,19 +1586,19 @@
     <t xml:space="preserve">5.03849411010742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96902704238892</t>
+    <t xml:space="preserve">4.96902751922607</t>
   </si>
   <si>
     <t xml:space="preserve">4.89672422409058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84285116195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95059680938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94067287445068</t>
+    <t xml:space="preserve">4.8428521156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95059728622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94067335128784</t>
   </si>
   <si>
     <t xml:space="preserve">4.96052074432373</t>
@@ -1607,28 +1607,28 @@
     <t xml:space="preserve">5.02148199081421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98745679855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03707647323608</t>
+    <t xml:space="preserve">4.98745727539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03707551956177</t>
   </si>
   <si>
     <t xml:space="preserve">5.10370826721191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11646699905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14056825637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11788463592529</t>
+    <t xml:space="preserve">5.11646795272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14056777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11788415908813</t>
   </si>
   <si>
     <t xml:space="preserve">5.21287059783936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24547719955444</t>
+    <t xml:space="preserve">5.2454776763916</t>
   </si>
   <si>
     <t xml:space="preserve">5.37732362747192</t>
@@ -1640,31 +1640,31 @@
     <t xml:space="preserve">5.33621072769165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38583040237427</t>
+    <t xml:space="preserve">5.38582992553711</t>
   </si>
   <si>
     <t xml:space="preserve">5.39858865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45246124267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42835998535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43686723709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32628631591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20861768722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33053922653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4184365272522</t>
+    <t xml:space="preserve">5.45246171951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42836093902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43686676025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32628583908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2086181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33054065704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41843748092651</t>
   </si>
   <si>
     <t xml:space="preserve">5.44820785522461</t>
@@ -1673,88 +1673,88 @@
     <t xml:space="preserve">5.2837553024292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30076885223389</t>
+    <t xml:space="preserve">5.30076837539673</t>
   </si>
   <si>
     <t xml:space="preserve">5.36456394195557</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4439549446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49924564361572</t>
+    <t xml:space="preserve">5.44395542144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49924612045288</t>
   </si>
   <si>
     <t xml:space="preserve">5.43403148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49073886871338</t>
+    <t xml:space="preserve">5.49073934555054</t>
   </si>
   <si>
     <t xml:space="preserve">5.51058721542358</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49357414245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4779806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51625776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53894138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59848403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59990262985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62116765975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62542009353638</t>
+    <t xml:space="preserve">5.49357509613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47798013687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51625728607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53894090652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59848356246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59990167617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62116718292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62542152404785</t>
   </si>
   <si>
     <t xml:space="preserve">5.59423160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61975002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63109159469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63392639160156</t>
+    <t xml:space="preserve">5.61974954605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63109064102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63392686843872</t>
   </si>
   <si>
     <t xml:space="preserve">5.53752279281616</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60131931304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62825584411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64243316650391</t>
+    <t xml:space="preserve">5.60132026672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62825632095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64243268966675</t>
   </si>
   <si>
     <t xml:space="preserve">5.66511583328247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72749519348145</t>
+    <t xml:space="preserve">5.72749471664429</t>
   </si>
   <si>
     <t xml:space="preserve">5.7771143913269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92597103118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98268032073975</t>
+    <t xml:space="preserve">5.92597150802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98267936706543</t>
   </si>
   <si>
     <t xml:space="preserve">6.12303161621094</t>
@@ -1763,94 +1763,94 @@
     <t xml:space="preserve">6.06774234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08900690078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11310768127441</t>
+    <t xml:space="preserve">6.08900737762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11310815811157</t>
   </si>
   <si>
     <t xml:space="preserve">6.11452627182007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09326028823853</t>
+    <t xml:space="preserve">6.09326076507568</t>
   </si>
   <si>
     <t xml:space="preserve">6.14713287353516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13153743743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14996814727783</t>
+    <t xml:space="preserve">6.13153791427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14996767044067</t>
   </si>
   <si>
     <t xml:space="preserve">6.19958734512329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19533491134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2194356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3257622718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34844636917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33852243423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37254667282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36120462417603</t>
+    <t xml:space="preserve">6.19533395767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21943616867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32576274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34844589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33852195739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37254619598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36120557785034</t>
   </si>
   <si>
     <t xml:space="preserve">6.42925405502319</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38105249404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540090560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74823665618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70712327957153</t>
+    <t xml:space="preserve">6.38105297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74823617935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70712280273438</t>
   </si>
   <si>
     <t xml:space="preserve">6.56535339355469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53841686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.558265209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64474439620972</t>
+    <t xml:space="preserve">6.53841733932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55826473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64474391937256</t>
   </si>
   <si>
     <t xml:space="preserve">6.74114751815796</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69152927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62631368637085</t>
+    <t xml:space="preserve">6.69152736663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62631464004517</t>
   </si>
   <si>
     <t xml:space="preserve">6.67593383789062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46469688415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38530683517456</t>
+    <t xml:space="preserve">6.46469736099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38530540466309</t>
   </si>
   <si>
     <t xml:space="preserve">6.37963485717773</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">6.30591487884521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50014019012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45902681350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54267024993896</t>
+    <t xml:space="preserve">6.50014066696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45902633666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54266977310181</t>
   </si>
   <si>
     <t xml:space="preserve">6.39664793014526</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">6.45335531234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49446773529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21518182754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32292795181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30733156204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25771284103394</t>
+    <t xml:space="preserve">6.49446821212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21518135070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32292747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30733299255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25771331787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.22510528564453</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">6.17974042892456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33710336685181</t>
+    <t xml:space="preserve">6.33710432052612</t>
   </si>
   <si>
     <t xml:space="preserve">6.29315567016602</t>
@@ -1907,103 +1907,103 @@
     <t xml:space="preserve">6.32717990875244</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45193767547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51289844512939</t>
+    <t xml:space="preserve">6.45193815231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51289796829224</t>
   </si>
   <si>
     <t xml:space="preserve">6.54408836364746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56960678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53558206558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58520126342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64332628250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74398374557495</t>
+    <t xml:space="preserve">6.56960725784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53558158874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58520030975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6433253288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74398279190063</t>
   </si>
   <si>
     <t xml:space="preserve">6.86365509033203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81608390808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78783845901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79378509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88298082351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87108898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0361008644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20260000228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24719905853271</t>
+    <t xml:space="preserve">6.81608486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78783893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79378461837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88298034667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87108850479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03610134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20260095596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24719953536987</t>
   </si>
   <si>
     <t xml:space="preserve">7.22044038772583</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21003246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17584180831909</t>
+    <t xml:space="preserve">7.21003293991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17584228515625</t>
   </si>
   <si>
     <t xml:space="preserve">7.24571228027344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17435455322266</t>
+    <t xml:space="preserve">7.17435503005981</t>
   </si>
   <si>
     <t xml:space="preserve">7.17881536483765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14759683609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12529706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11043119430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98704290390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01826143264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97366333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04204750061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99150371551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.126784324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94095849990845</t>
+    <t xml:space="preserve">7.14759635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12529850006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11043167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9870433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01826190948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97366428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04204702377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99150276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12678289413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94095945358276</t>
   </si>
   <si>
     <t xml:space="preserve">7.18030214309692</t>
@@ -2012,31 +2012,31 @@
     <t xml:space="preserve">7.25165748596191</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16692304611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05245447158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04799365997314</t>
+    <t xml:space="preserve">7.16692209243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05245399475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04799556732178</t>
   </si>
   <si>
     <t xml:space="preserve">7.16394805908203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68526172637939</t>
+    <t xml:space="preserve">6.68526315689087</t>
   </si>
   <si>
     <t xml:space="preserve">6.7640528678894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92014598846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79675817489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06137228012085</t>
+    <t xml:space="preserve">6.9201455116272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79675674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06137323379517</t>
   </si>
   <si>
     <t xml:space="preserve">7.01231527328491</t>
@@ -2048,16 +2048,16 @@
     <t xml:space="preserve">7.183274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00190877914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05988597869873</t>
+    <t xml:space="preserve">7.00190782546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05988645553589</t>
   </si>
   <si>
     <t xml:space="preserve">6.98555660247803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31409788131714</t>
+    <t xml:space="preserve">7.31409597396851</t>
   </si>
   <si>
     <t xml:space="preserve">7.26355171203613</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">7.35869312286377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49992275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47018957138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48877286911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49248886108398</t>
+    <t xml:space="preserve">7.49992227554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47019004821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48877096176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49248790740967</t>
   </si>
   <si>
     <t xml:space="preserve">7.36612796783447</t>
@@ -2087,19 +2087,19 @@
     <t xml:space="preserve">7.39586019515991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5259370803833</t>
+    <t xml:space="preserve">7.52593755722046</t>
   </si>
   <si>
     <t xml:space="preserve">7.57053518295288</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47762298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41369819641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55195283889771</t>
+    <t xml:space="preserve">7.47762250900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41369771957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55195236206055</t>
   </si>
   <si>
     <t xml:space="preserve">7.566819190979</t>
@@ -2108,34 +2108,34 @@
     <t xml:space="preserve">7.48133850097656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63743209838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59283542633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58911800384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62628412246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75264358520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64486694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40626668930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42261791229248</t>
+    <t xml:space="preserve">7.63743257522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59283447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58911848068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62628364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75264549255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64486646652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40626621246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4226188659668</t>
   </si>
   <si>
     <t xml:space="preserve">7.41815853118896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999963760376</t>
+    <t xml:space="preserve">7.6299991607666</t>
   </si>
   <si>
     <t xml:space="preserve">7.52965497970581</t>
@@ -2144,49 +2144,49 @@
     <t xml:space="preserve">7.6188497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86414003372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87528896331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98306894302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8678560256958</t>
+    <t xml:space="preserve">7.86413955688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87528944015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98306846618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86785554885864</t>
   </si>
   <si>
     <t xml:space="preserve">7.95705270767212</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00164985656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02766799926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12057971954346</t>
+    <t xml:space="preserve">8.00165176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02766704559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12058067321777</t>
   </si>
   <si>
     <t xml:space="preserve">8.13916206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16889381408691</t>
+    <t xml:space="preserve">8.16889476776123</t>
   </si>
   <si>
     <t xml:space="preserve">8.07226467132568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10942935943604</t>
+    <t xml:space="preserve">8.10942840576172</t>
   </si>
   <si>
     <t xml:space="preserve">8.09456348419189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08713150024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19862461090088</t>
+    <t xml:space="preserve">8.08713054656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19862747192383</t>
   </si>
   <si>
     <t xml:space="preserve">8.24694061279297</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">8.17261028289795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05739879608154</t>
+    <t xml:space="preserve">8.05739784240723</t>
   </si>
   <si>
     <t xml:space="preserve">8.15402793884277</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">8.32870483398438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26180648803711</t>
+    <t xml:space="preserve">8.26180553436279</t>
   </si>
   <si>
     <t xml:space="preserve">8.28038883209229</t>
@@ -2216,25 +2216,25 @@
     <t xml:space="preserve">8.29525470733643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33972358703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19651985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27189159393311</t>
+    <t xml:space="preserve">8.33972263336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19652080535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27188968658447</t>
   </si>
   <si>
     <t xml:space="preserve">8.17014026641846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23797416687012</t>
+    <t xml:space="preserve">8.23797512054443</t>
   </si>
   <si>
     <t xml:space="preserve">8.26058483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18521404266357</t>
+    <t xml:space="preserve">8.18521499633789</t>
   </si>
   <si>
     <t xml:space="preserve">8.13245677947998</t>
@@ -2243,37 +2243,37 @@
     <t xml:space="preserve">8.01563167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98171472549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72168684005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80459547042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90634489059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76314115524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77444696426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67646646499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78575325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69907808303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82720565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66515922546387</t>
+    <t xml:space="preserve">7.98171520233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72168731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80459356307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90634346008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76314258575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77444648742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67646551132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78575277328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6990761756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8272066116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66516017913818</t>
   </si>
   <si>
     <t xml:space="preserve">7.73299360275269</t>
@@ -2282,82 +2282,82 @@
     <t xml:space="preserve">7.66139125823975</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75937271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86112308502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62747478485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68400192260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58602094650269</t>
+    <t xml:space="preserve">7.7593731880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86112356185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62747573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68400239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58602046966553</t>
   </si>
   <si>
     <t xml:space="preserve">7.52044820785522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71414947509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60863208770752</t>
+    <t xml:space="preserve">7.71414995193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60863256454468</t>
   </si>
   <si>
     <t xml:space="preserve">7.72922468185425</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69530773162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65008592605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58225297927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57094764709473</t>
+    <t xml:space="preserve">7.69530820846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65008449554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58225250244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57094669342041</t>
   </si>
   <si>
     <t xml:space="preserve">7.75183629989624</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82343912124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8460488319397</t>
+    <t xml:space="preserve">7.82343769073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84604835510254</t>
   </si>
   <si>
     <t xml:space="preserve">7.74429845809937</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97794675827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35102939605713</t>
+    <t xml:space="preserve">7.97794580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35103034973145</t>
   </si>
   <si>
     <t xml:space="preserve">8.28696537017822</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80082702636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91765069961548</t>
+    <t xml:space="preserve">7.80082559585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91765022277832</t>
   </si>
   <si>
     <t xml:space="preserve">8.06839179992676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08346462249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13622379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21912956237793</t>
+    <t xml:space="preserve">8.08346652984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1362247467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21913051605225</t>
   </si>
   <si>
     <t xml:space="preserve">8.31711196899414</t>
@@ -2366,37 +2366,37 @@
     <t xml:space="preserve">8.27565860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25304889678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24174404144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54699230194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67512130737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50553798675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51307678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9101128578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78951930999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94402885437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6010947227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24610233306885</t>
+    <t xml:space="preserve">8.25304794311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24174213409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54699420928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67512321472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50553894042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51307582855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91011238098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78952169418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94403028488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60109519958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24610185623169</t>
   </si>
   <si>
     <t xml:space="preserve">6.980797290802</t>
@@ -2405,28 +2405,28 @@
     <t xml:space="preserve">7.25062322616577</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30187511444092</t>
+    <t xml:space="preserve">7.30187463760376</t>
   </si>
   <si>
     <t xml:space="preserve">7.10892677307129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32750177383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37482070922852</t>
+    <t xml:space="preserve">7.32750129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3748197555542</t>
   </si>
   <si>
     <t xml:space="preserve">5.93767213821411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93917989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63075113296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08297252655029</t>
+    <t xml:space="preserve">5.93917942047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63075160980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08297300338745</t>
   </si>
   <si>
     <t xml:space="preserve">4.9005765914917</t>
@@ -2435,88 +2435,88 @@
     <t xml:space="preserve">4.89605474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80108880996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21110343933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22768497467041</t>
+    <t xml:space="preserve">4.80108833312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21110248565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22768449783325</t>
   </si>
   <si>
     <t xml:space="preserve">5.40857315063477</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77788734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83064651489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10348653793335</t>
+    <t xml:space="preserve">5.77788782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83064699172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10348701477051</t>
   </si>
   <si>
     <t xml:space="preserve">5.91807651519775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96631336212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81858730316162</t>
+    <t xml:space="preserve">5.96631240844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81858777999878</t>
   </si>
   <si>
     <t xml:space="preserve">5.57137298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85777950286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90149545669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05977296829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14720153808594</t>
+    <t xml:space="preserve">5.85778045654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90149450302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05977201461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1472020149231</t>
   </si>
   <si>
     <t xml:space="preserve">6.23915386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26025724411011</t>
+    <t xml:space="preserve">6.26025676727295</t>
   </si>
   <si>
     <t xml:space="preserve">6.28588342666626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73266506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77939558029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8035135269165</t>
+    <t xml:space="preserve">5.73266553878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77939462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80351305007935</t>
   </si>
   <si>
     <t xml:space="preserve">5.73718738555908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61508750915527</t>
+    <t xml:space="preserve">5.61508703231812</t>
   </si>
   <si>
     <t xml:space="preserve">5.70402431488037</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66633987426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57589435577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94068670272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93013620376587</t>
+    <t xml:space="preserve">5.66633939743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57589483261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94068717956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93013572692871</t>
   </si>
   <si>
     <t xml:space="preserve">6.05223512649536</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">5.84270572662354</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70100927352905</t>
+    <t xml:space="preserve">5.70100975036621</t>
   </si>
   <si>
     <t xml:space="preserve">5.53971672058105</t>
@@ -2534,31 +2534,31 @@
     <t xml:space="preserve">5.44776582717896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7236213684082</t>
+    <t xml:space="preserve">5.72362041473389</t>
   </si>
   <si>
     <t xml:space="preserve">5.84572076797485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61207246780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50956869125366</t>
+    <t xml:space="preserve">5.61207294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50956916809082</t>
   </si>
   <si>
     <t xml:space="preserve">5.41611003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62413263320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58041667938232</t>
+    <t xml:space="preserve">5.62413215637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58041715621948</t>
   </si>
   <si>
     <t xml:space="preserve">5.58946180343628</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55479097366333</t>
+    <t xml:space="preserve">5.55479145050049</t>
   </si>
   <si>
     <t xml:space="preserve">5.60905790328979</t>
@@ -2570,100 +2570,100 @@
     <t xml:space="preserve">5.91958379745483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94973182678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00399875640869</t>
+    <t xml:space="preserve">5.94973230361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00399827957153</t>
   </si>
   <si>
     <t xml:space="preserve">6.07333850860596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25724315643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45772743225098</t>
+    <t xml:space="preserve">6.25724220275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45772695541382</t>
   </si>
   <si>
     <t xml:space="preserve">6.60997581481934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74715042114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53912687301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46375703811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12308311462402</t>
+    <t xml:space="preserve">6.7471489906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53912734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46375751495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12308263778687</t>
   </si>
   <si>
     <t xml:space="preserve">6.21654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26930046081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39592361450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3672833442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32206058502197</t>
+    <t xml:space="preserve">6.2693018913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39592456817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36728382110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32206010818481</t>
   </si>
   <si>
     <t xml:space="preserve">6.19543933868408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32309103012085</t>
+    <t xml:space="preserve">6.32309150695801</t>
   </si>
   <si>
     <t xml:space="preserve">6.43116474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14610052108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18995666503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0662202835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25104188919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06152200698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07248544692993</t>
+    <t xml:space="preserve">6.1461009979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1899561882019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06622076034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25104236602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06152105331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07248592376709</t>
   </si>
   <si>
     <t xml:space="preserve">6.09911251068115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19778823852539</t>
+    <t xml:space="preserve">6.19778871536255</t>
   </si>
   <si>
     <t xml:space="preserve">6.163330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11477470397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97067737579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02236461639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13670301437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11320877075195</t>
+    <t xml:space="preserve">6.11477518081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9706768989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02236413955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13670349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11320924758911</t>
   </si>
   <si>
     <t xml:space="preserve">6.13983583450317</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">6.15706491470337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41080284118652</t>
+    <t xml:space="preserve">6.41080331802368</t>
   </si>
   <si>
     <t xml:space="preserve">6.45779180526733</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51574373245239</t>
+    <t xml:space="preserve">6.51574325561523</t>
   </si>
   <si>
     <t xml:space="preserve">6.41236925125122</t>
@@ -2687,19 +2687,19 @@
     <t xml:space="preserve">6.38104343414307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22128200531006</t>
+    <t xml:space="preserve">6.22128295898438</t>
   </si>
   <si>
     <t xml:space="preserve">6.18682432174683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17116165161133</t>
+    <t xml:space="preserve">6.17116117477417</t>
   </si>
   <si>
     <t xml:space="preserve">5.95971298217773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07091856002808</t>
+    <t xml:space="preserve">6.07091903686523</t>
   </si>
   <si>
     <t xml:space="preserve">6.18369102478027</t>
@@ -2708,160 +2708,160 @@
     <t xml:space="preserve">6.22598123550415</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22441530227661</t>
+    <t xml:space="preserve">6.22441482543945</t>
   </si>
   <si>
     <t xml:space="preserve">6.12730550765991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17586088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28393363952637</t>
+    <t xml:space="preserve">6.1758599281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28393459320068</t>
   </si>
   <si>
     <t xml:space="preserve">6.38417673110962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37634468078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29959630966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2729697227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17429399490356</t>
+    <t xml:space="preserve">6.37634420394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29959678649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27297067642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17429351806641</t>
   </si>
   <si>
     <t xml:space="preserve">6.15393209457397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21815013885498</t>
+    <t xml:space="preserve">6.21815061569214</t>
   </si>
   <si>
     <t xml:space="preserve">6.11164236068726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19465589523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21501779556274</t>
+    <t xml:space="preserve">6.194655418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21501731872559</t>
   </si>
   <si>
     <t xml:space="preserve">6.14296817779541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14766645431519</t>
+    <t xml:space="preserve">6.1476674079895</t>
   </si>
   <si>
     <t xml:space="preserve">6.05682277679443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01139974594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02393102645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23224639892578</t>
+    <t xml:space="preserve">6.01140069961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02393054962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23224687576294</t>
   </si>
   <si>
     <t xml:space="preserve">6.10381126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24947595596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23851156234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24164342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20561933517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07875108718872</t>
+    <t xml:space="preserve">6.24947547912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23851108551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24164438247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2056188583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0787501335144</t>
   </si>
   <si>
     <t xml:space="preserve">5.86730241775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95031499862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9988694190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98634052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94091749191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05368995666504</t>
+    <t xml:space="preserve">5.95031547546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99886989593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9863395690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94091796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05368947982788</t>
   </si>
   <si>
     <t xml:space="preserve">5.93308639526367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92682123184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88296461105347</t>
+    <t xml:space="preserve">5.92682075500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88296508789062</t>
   </si>
   <si>
     <t xml:space="preserve">5.91742324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33405542373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27923536300659</t>
+    <t xml:space="preserve">6.33405494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27923440933228</t>
   </si>
   <si>
     <t xml:space="preserve">6.2761025428772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27766895294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2917652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29333114624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97850799560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05212354660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05995512008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94718313217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95658016204834</t>
+    <t xml:space="preserve">6.27766799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29176568984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29333209991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97850847244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0521240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05995559692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94718217849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95657968521118</t>
   </si>
   <si>
     <t xml:space="preserve">5.94561624526978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85007333755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80778312683105</t>
+    <t xml:space="preserve">5.85007286071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80778360366821</t>
   </si>
   <si>
     <t xml:space="preserve">5.56344318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48826122283936</t>
+    <t xml:space="preserve">5.4882607460022</t>
   </si>
   <si>
     <t xml:space="preserve">5.48199605941772</t>
@@ -2873,10 +2873,10 @@
     <t xml:space="preserve">5.6668176651001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.845374584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03802728652954</t>
+    <t xml:space="preserve">5.84537506103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03802680969238</t>
   </si>
   <si>
     <t xml:space="preserve">5.93935108184814</t>
@@ -2891,61 +2891,61 @@
     <t xml:space="preserve">6.25574064254761</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44526052474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65984201431274</t>
+    <t xml:space="preserve">6.44526100158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65984153747559</t>
   </si>
   <si>
     <t xml:space="preserve">6.74598789215088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86032629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93394136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82743501663208</t>
+    <t xml:space="preserve">6.86032676696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93394184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82743549346924</t>
   </si>
   <si>
     <t xml:space="preserve">6.86351823806763</t>
   </si>
   <si>
-    <t xml:space="preserve">7.018310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95128726959229</t>
+    <t xml:space="preserve">7.01831102371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95128631591797</t>
   </si>
   <si>
     <t xml:space="preserve">7.02150249481201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81724071502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.871497631073</t>
+    <t xml:space="preserve">6.81723976135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87149858474731</t>
   </si>
   <si>
     <t xml:space="preserve">6.76138734817505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78532457351685</t>
+    <t xml:space="preserve">6.78532361984253</t>
   </si>
   <si>
     <t xml:space="preserve">6.70872640609741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69755601882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70713090896606</t>
+    <t xml:space="preserve">6.6975564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70713043212891</t>
   </si>
   <si>
     <t xml:space="preserve">6.71670532226562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66244888305664</t>
+    <t xml:space="preserve">6.66244792938232</t>
   </si>
   <si>
     <t xml:space="preserve">6.65766048431396</t>
@@ -2954,25 +2954,25 @@
     <t xml:space="preserve">6.7645788192749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69436407089233</t>
+    <t xml:space="preserve">6.69436454772949</t>
   </si>
   <si>
     <t xml:space="preserve">6.66883087158203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51563501358032</t>
+    <t xml:space="preserve">6.51563549041748</t>
   </si>
   <si>
     <t xml:space="preserve">6.64968156814575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6768102645874</t>
+    <t xml:space="preserve">6.67681074142456</t>
   </si>
   <si>
     <t xml:space="preserve">6.63851070404053</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65606498718262</t>
+    <t xml:space="preserve">6.65606546401978</t>
   </si>
   <si>
     <t xml:space="preserve">6.6129789352417</t>
@@ -2981,22 +2981,22 @@
     <t xml:space="preserve">6.81404829025269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95607471466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85713529586792</t>
+    <t xml:space="preserve">6.95607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8571343421936</t>
   </si>
   <si>
     <t xml:space="preserve">6.80926179885864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7294716835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66404485702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68638515472412</t>
+    <t xml:space="preserve">6.72947120666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66404390335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68638467788696</t>
   </si>
   <si>
     <t xml:space="preserve">6.63053226470947</t>
@@ -3005,16 +3005,16 @@
     <t xml:space="preserve">6.69915151596069</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63691473007202</t>
+    <t xml:space="preserve">6.63691520690918</t>
   </si>
   <si>
     <t xml:space="preserve">6.59702014923096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54914665222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67202377319336</t>
+    <t xml:space="preserve">6.54914712905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6720232963562</t>
   </si>
   <si>
     <t xml:space="preserve">6.5108470916748</t>
@@ -3026,10 +3026,10 @@
     <t xml:space="preserve">6.44382429122925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61776542663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60659503936768</t>
+    <t xml:space="preserve">6.6177659034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60659551620483</t>
   </si>
   <si>
     <t xml:space="preserve">7.0773549079895</t>
@@ -3038,901 +3038,901 @@
     <t xml:space="preserve">7.1906566619873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35661888122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63588285446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59120082855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69971466064453</t>
+    <t xml:space="preserve">7.3566198348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54492425918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63588333129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5912013053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69971561431885</t>
   </si>
   <si>
     <t xml:space="preserve">7.72205591201782</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79546403884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70131063461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5656681060791</t>
+    <t xml:space="preserve">7.79546308517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7013111114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56567001342773</t>
   </si>
   <si>
     <t xml:space="preserve">7.42364263534546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49864530563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69492864608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60237169265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61992502212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66620206832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5034327507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84174203872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88003969192505</t>
+    <t xml:space="preserve">7.49864482879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69492959976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60237121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6199254989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66620349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50343227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84174156188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88004112243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95823431015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8592963218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01089668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09068584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16249561309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12658977508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19840145111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15052700042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32606601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28218078613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34202289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25026512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38191795349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31010723114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3539924621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34601211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41782379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60134029388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66118240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64921474456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7050666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71703624725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59336185455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61330986022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6053295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50958251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5016040802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59735012054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58538246154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46968650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4656982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65719318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62527656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63724613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71304607391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70905494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69708728790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81677341461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75294208526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72102451324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77687740325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95640468597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91651058197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8048038482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80879306793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87262535095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00826835632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99629974365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96039390563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03619480133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1758279800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33540630340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21173191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11199474334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16784763336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17981624603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22769069671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41519641876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50296497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62265014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63860702514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56280708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58674430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55881690979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63062858581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57078647613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33141708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44958782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32238864898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21160316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37573051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34700775146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19519138336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15415859222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15005588531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25673866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17467594146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30597686767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16646862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20339775085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88335037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02285861968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05568408966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05158042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01875495910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89565944671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92438125610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62074947357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70691394805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98182582855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11723041534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19929504394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315235137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18288135528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16236591339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12954044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31828498840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45779323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50292873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53985691070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61781787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63833236694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58909511566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52754783630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47420597076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55216693878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43317317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36342144012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56857872009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54396057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51113414764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42496871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4660005569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51523876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54806327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40445232391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47010231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48651599884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57268238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7244987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63422870635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67115783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75732612609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8270788192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79015064239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88041973114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64243602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70808696746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76963424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72860145568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9255542755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86810970306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9912052154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99530792236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97889518737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1101970672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1471242904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2579097747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1963634490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.163537979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0527534484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3030452728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2661170959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2456007003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4015216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3112516403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2948389053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1266098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.212776184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1758460998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.298942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2250852584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2538080215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2086725234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1060934066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0486497879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0609588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96658611297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90093517303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88009929656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80092620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77175617218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62590980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23003768920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33004856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28421020507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.459228515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35921764373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28837871551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32171440124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45089340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31754779815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25087451934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20920372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21337127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23420715332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27587699890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34255027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3550500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14253044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2925443649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3842191696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46756076812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55090236663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63007640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60924053192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61757469177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75508880615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76759052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80509376525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72175216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75092124938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78009128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71341800689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66758060455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6759147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6384105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65924549102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7384204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57173824310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18836784362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4133882522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62174224853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50506496429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94260692596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95094013214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0758581161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13419723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17586708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99668312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16336631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24670791625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28004360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19670295715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97168159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93834590911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86333751678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36745834350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64248371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56330966949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21744251251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20410823822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08909797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56738233566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40403270721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74739837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43413066864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00742244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05576229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27411651611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22911071777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6008129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42162895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39662742614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42996311187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65081787109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6383171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79249668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67581939697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77582931518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8508358001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81333255767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6674861907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35495662689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22744464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38829231262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32078552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19577407836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11243438720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17744064331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04576015472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2574462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23077869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08576393127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85740900039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75239849090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72739744186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77740144729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81573915481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73739814758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67572546005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61571931838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50237560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30735635757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48070669174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65405654907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89407920837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05909538269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94575071334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0207576751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97242021560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94408416748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92074775695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07576274871826</t>
   </si>
   <si>
     <t xml:space="preserve">7.93908405303955</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95823431015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85929679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01089572906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09068584442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16249465942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12659168243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19840240478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1505298614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3260669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28218078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3420238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25026416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38191795349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31010723114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35399150848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34601211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41782379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60134029388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66118240356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64921379089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70506572723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72900295257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7170352935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59336185455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61330890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6053295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50958156585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50160312652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59735012054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58538246154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46968650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46569728851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65719413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62527847290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63724517822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71304702758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70905590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69708728790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81677341461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7529411315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72102546691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77687740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95640563964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91651058197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8048038482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80879211425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87262535095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00826740264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99629878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96039390563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03619575500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17582702636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33540725708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21173286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11199569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16784858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17981624603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22768974304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41519737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50296497344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62264919281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63860702514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56280708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58674430847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55881786346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63062858581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57078742980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33141613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44958686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32238960266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21160411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37573146820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34700870513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1951904296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15416049957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15005683898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25673770904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1746768951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30597686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16646957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20339775085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88335132598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02285861968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05568313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05158042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01875591278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89566040039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92438316345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62074851989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70691585540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98182582855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11722946166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.199294090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315235137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18288230895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16236591339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12954139709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31828689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45779418945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50292873382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53985786437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61781787872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63833236694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58909511566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52754688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47420692443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55216693878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43317604064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36342144012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56857872009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54396057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51113605499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42496776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46599960327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51523876190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54806423187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40445232391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47010326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48651695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57268333435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72449970245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6342306137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67115879058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75732517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8270788192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79015064239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88042068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64243698120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70808601379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76963329315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72860145568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92555522918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86810874938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9912052154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9953088760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97889518737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1101970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1471252441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2579107284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1963624954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1635389328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.052752494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3030462265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2661170959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2456016540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4015226364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3112516403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2948398590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1266098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.212776184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1758480072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.298942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2250862121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2538080215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2086734771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1060934066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0486497879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0609588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96658706665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90093612670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88010025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80092716217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77175807952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62590980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2300386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33004760742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28421115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45922660827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35921669006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28837871551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32171440124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45089340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31754684448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25087451934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20920372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21337032318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23420524597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27587699890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34254932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3550500869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1425313949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2925443649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38422107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46756076812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55090236663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63007736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60924053192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61757469177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75508880615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7675895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80509376525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72175121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75092124938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78009033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71341705322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66758060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67591381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6384105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65924739837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7384204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57173728942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18836784362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41339015960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62174224853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50506496429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94260692596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9509391784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07585716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13419628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17586708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99668502807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16336631774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24670791625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28004360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.196702003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97168064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93834590911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86333751678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36745834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64248275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56330871582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21744251251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20410823822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08909797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56738090515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4040322303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.747398853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43412971496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00742244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05576133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27411651611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22911071777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60081195831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42162895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39662742614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42996406555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65081882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63831615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79249858856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67582035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77582931518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8508358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81333255767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66748428344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53830718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35495567321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22744369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38829231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32078647613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19577407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1124324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17743968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04576015472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25744724273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23077869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0857629776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85740900039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75239944458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72739744186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77740097045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81573963165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73739862442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67572593688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61571836471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50237607955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30735683441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48070669174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65405654907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89407920837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05909633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94575071334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0207576751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97242021560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94408464431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92074871063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07576179504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.07076263427734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1274356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2774486541748</t>
+    <t xml:space="preserve">8.12743473052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27744960784912</t>
   </si>
   <si>
     <t xml:space="preserve">8.45913219451904</t>
@@ -3941,13 +3941,13 @@
     <t xml:space="preserve">8.35078907012939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3466215133667</t>
+    <t xml:space="preserve">8.34662342071533</t>
   </si>
   <si>
     <t xml:space="preserve">8.26744842529297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42579650878906</t>
+    <t xml:space="preserve">8.42579555511475</t>
   </si>
   <si>
     <t xml:space="preserve">8.40912818908691</t>
@@ -3956,7 +3956,7 @@
     <t xml:space="preserve">8.29244995117188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62738800048828</t>
+    <t xml:space="preserve">7.62738752365112</t>
   </si>
   <si>
     <t xml:space="preserve">7.37236261367798</t>
@@ -3965,61 +3965,61 @@
     <t xml:space="preserve">7.59905099868774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84907579421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45903778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49737596511841</t>
+    <t xml:space="preserve">7.84907531738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45903825759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49737501144409</t>
   </si>
   <si>
     <t xml:space="preserve">7.67453289031982</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60995292663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64486169815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58551788330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80718421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76878452301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92412567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86478233337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77751207351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78100204467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7740216255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.461594581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50872039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70246028900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58202648162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43890428543091</t>
+    <t xml:space="preserve">7.6099534034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64486122131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58551836013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80718374252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76878595352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92412614822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86478185653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77751159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78100252151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77402019500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46159362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50872087478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70245981216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58202695846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43890380859375</t>
   </si>
   <si>
     <t xml:space="preserve">7.4720664024353</t>
@@ -4028,28 +4028,28 @@
     <t xml:space="preserve">7.31498050689697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94321012496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11949586868286</t>
+    <t xml:space="preserve">6.94320964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1194953918457</t>
   </si>
   <si>
     <t xml:space="preserve">7.25389194488525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49475717544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32894325256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97113609313965</t>
+    <t xml:space="preserve">7.49475765228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32894372940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97113656997681</t>
   </si>
   <si>
     <t xml:space="preserve">7.06364250183105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0933141708374</t>
+    <t xml:space="preserve">7.09331512451172</t>
   </si>
   <si>
     <t xml:space="preserve">7.07760524749756</t>
@@ -4061,22 +4061,22 @@
     <t xml:space="preserve">7.03047943115234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.129967212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19978332519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11251354217529</t>
+    <t xml:space="preserve">7.12996768951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19978380203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11251401901245</t>
   </si>
   <si>
     <t xml:space="preserve">7.23294687271118</t>
   </si>
   <si>
-    <t xml:space="preserve">7.316725730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39875984191895</t>
+    <t xml:space="preserve">7.31672525405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39875936508179</t>
   </si>
   <si>
     <t xml:space="preserve">7.3306884765625</t>
@@ -4085,46 +4085,46 @@
     <t xml:space="preserve">7.29054498672485</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33418083190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4423942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44937610626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38654184341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28879976272583</t>
+    <t xml:space="preserve">7.33418035507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44239377975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44937658309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38654232025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28879928588867</t>
   </si>
   <si>
     <t xml:space="preserve">7.15614891052246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97462749481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08109664916992</t>
+    <t xml:space="preserve">6.97462701797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08109712600708</t>
   </si>
   <si>
     <t xml:space="preserve">7.04618883132935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02349853515625</t>
+    <t xml:space="preserve">7.02349901199341</t>
   </si>
   <si>
     <t xml:space="preserve">6.86466693878174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77739667892456</t>
+    <t xml:space="preserve">6.7773962020874</t>
   </si>
   <si>
     <t xml:space="preserve">6.93448257446289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88212108612061</t>
+    <t xml:space="preserve">6.88212060928345</t>
   </si>
   <si>
     <t xml:space="preserve">7.06887865066528</t>
@@ -4133,37 +4133,37 @@
     <t xml:space="preserve">6.88561153411865</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96415424346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98335361480713</t>
+    <t xml:space="preserve">6.9641547203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98335409164429</t>
   </si>
   <si>
     <t xml:space="preserve">7.0566611289978</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16487646102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26087284088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27483701705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33243465423584</t>
+    <t xml:space="preserve">7.16487598419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26087236404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27483654022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33243417739868</t>
   </si>
   <si>
     <t xml:space="preserve">7.21898317337036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25040054321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09855031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09505987167358</t>
+    <t xml:space="preserve">7.25040006637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09854984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09505939483643</t>
   </si>
   <si>
     <t xml:space="preserve">6.89084768295288</t>
@@ -4178,13 +4178,13 @@
     <t xml:space="preserve">6.82452249526978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68314504623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79834175109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9379734992981</t>
+    <t xml:space="preserve">6.68314456939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79834127426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93797302246094</t>
   </si>
   <si>
     <t xml:space="preserve">7.1421856880188</t>
@@ -4193,7 +4193,7 @@
     <t xml:space="preserve">7.03920698165894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92051935195923</t>
+    <t xml:space="preserve">6.92051982879639</t>
   </si>
   <si>
     <t xml:space="preserve">6.82626819610596</t>
@@ -4202,7 +4202,7 @@
     <t xml:space="preserve">6.84197664260864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68489027023315</t>
+    <t xml:space="preserve">6.684889793396</t>
   </si>
   <si>
     <t xml:space="preserve">6.79485034942627</t>
@@ -4223,10 +4223,10 @@
     <t xml:space="preserve">7.26261806488037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19280195236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3586163520813</t>
+    <t xml:space="preserve">7.19280242919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35861492156982</t>
   </si>
   <si>
     <t xml:space="preserve">7.42668628692627</t>
@@ -4235,13 +4235,13 @@
     <t xml:space="preserve">7.49650239944458</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71642255783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65707921981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69722270965576</t>
+    <t xml:space="preserve">7.71642303466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65708017349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69722318649292</t>
   </si>
   <si>
     <t xml:space="preserve">7.71991300582886</t>
@@ -4250,31 +4250,31 @@
     <t xml:space="preserve">7.67976999282837</t>
   </si>
   <si>
-    <t xml:space="preserve">7.632643699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8769998550415</t>
+    <t xml:space="preserve">7.63264322280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87700033187866</t>
   </si>
   <si>
     <t xml:space="preserve">8.01139545440674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06026744842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15975570678711</t>
+    <t xml:space="preserve">8.06026649475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15975475311279</t>
   </si>
   <si>
     <t xml:space="preserve">8.51232624053955</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41109180450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46869087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50010871887207</t>
+    <t xml:space="preserve">8.41109275817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4686918258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50010776519775</t>
   </si>
   <si>
     <t xml:space="preserve">8.39887428283691</t>
@@ -62202,7 +62202,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6495486111</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>1608219</v>
@@ -62223,6 +62223,32 @@
         <v>1774</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6502314815</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>2150966</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>12.2399997711182</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>12.0799999237061</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>12.1450004577637</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>12.1599998474121</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1777">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16899108886719</t>
+    <t xml:space="preserve">4.1689920425415</t>
   </si>
   <si>
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30965423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24381303787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21987009048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18096399307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14205646514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24081993103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29169750213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26775503158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21388530731201</t>
+    <t xml:space="preserve">4.309654712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24381256103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21986961364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18096303939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14205598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24081945419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29169845581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26775455474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21388387680054</t>
   </si>
   <si>
     <t xml:space="preserve">4.08818578720093</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">4.01037216186523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78890466690063</t>
+    <t xml:space="preserve">3.78890442848206</t>
   </si>
   <si>
     <t xml:space="preserve">3.93555212020874</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">3.90263080596924</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01635885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06723594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98343753814697</t>
+    <t xml:space="preserve">4.01635837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06723642349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98343777656555</t>
   </si>
   <si>
     <t xml:space="preserve">4.08519268035889</t>
@@ -104,178 +104,178 @@
     <t xml:space="preserve">3.97445845603943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89066052436829</t>
+    <t xml:space="preserve">3.89066028594971</t>
   </si>
   <si>
     <t xml:space="preserve">3.77094721794128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58240056037903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09457111358643</t>
+    <t xml:space="preserve">3.58240032196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829844474792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.094571352005</t>
   </si>
   <si>
     <t xml:space="preserve">3.38487458229065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23822689056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2501974105835</t>
+    <t xml:space="preserve">3.23822641372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25019764900208</t>
   </si>
   <si>
     <t xml:space="preserve">3.34896039962769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33399677276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46867299079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45370888710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52852916717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65422868728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57342076301575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53750777244568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63926339149475</t>
+    <t xml:space="preserve">3.33399653434753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46867346763611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45370936393738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52852964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65422773361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57342100143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53750729560852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63926267623901</t>
   </si>
   <si>
     <t xml:space="preserve">3.69014191627502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75298976898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72006893157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68714880943298</t>
+    <t xml:space="preserve">3.75299048423767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72006940841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68714833259583</t>
   </si>
   <si>
     <t xml:space="preserve">3.71109104156494</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66919159889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69313430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66619873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85773944854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88467407226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8816819190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85175323486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83080387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84576773643494</t>
+    <t xml:space="preserve">3.66919183731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69313478469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66619825363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85773992538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8846743106842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88168168067932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85175371170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83080410957336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84576869010925</t>
   </si>
   <si>
     <t xml:space="preserve">3.92058825492859</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0522723197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03431510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96548008918762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04030084609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98044490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92657446861267</t>
+    <t xml:space="preserve">4.05227184295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03431558609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96548104286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04030132293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98044466972351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9265730381012</t>
   </si>
   <si>
     <t xml:space="preserve">3.86073160171509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74999713897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80985331535339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8278112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84876036643982</t>
+    <t xml:space="preserve">3.74999809265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80985355377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82781052589417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84876012802124</t>
   </si>
   <si>
     <t xml:space="preserve">3.86671757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95051598548889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87868881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87569570541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9056248664856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87270331382751</t>
+    <t xml:space="preserve">3.95051670074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8786895275116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87569546699524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90562391281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87270379066467</t>
   </si>
   <si>
     <t xml:space="preserve">3.92358136177063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92956757545471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99840140342712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04927921295166</t>
+    <t xml:space="preserve">3.9295666217804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99840116500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04927968978882</t>
   </si>
   <si>
     <t xml:space="preserve">4.05825710296631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9924156665802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93255996704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02234363555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05526542663574</t>
+    <t xml:space="preserve">3.99241542816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93255972862244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02234411239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05526494979858</t>
   </si>
   <si>
     <t xml:space="preserve">4.03132247924805</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">4.01336526870728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04329299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93854570388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04628658294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0013952255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09716463088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06424283981323</t>
+    <t xml:space="preserve">4.04329347610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93854475021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04628610610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00139427185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09117841720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09716367721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06424331665039</t>
   </si>
   <si>
     <t xml:space="preserve">4.12110662460327</t>
@@ -311,16 +311,16 @@
     <t xml:space="preserve">4.11811351776123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13008499145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10614347457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11512088775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18994140625</t>
+    <t xml:space="preserve">4.13008546829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10614252090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11512136459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18994092941284</t>
   </si>
   <si>
     <t xml:space="preserve">4.19892024993896</t>
@@ -329,133 +329,133 @@
     <t xml:space="preserve">4.10015678405762</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03730821609497</t>
+    <t xml:space="preserve">4.03730726242065</t>
   </si>
   <si>
     <t xml:space="preserve">4.0193510055542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13906335830688</t>
+    <t xml:space="preserve">4.13906288146973</t>
   </si>
   <si>
     <t xml:space="preserve">4.23349094390869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17998266220093</t>
+    <t xml:space="preserve">4.17998218536377</t>
   </si>
   <si>
     <t xml:space="preserve">4.17053985595703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2177529335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88411045074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65433692932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75191116333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74561619758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84948635101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76450300216675</t>
+    <t xml:space="preserve">4.21775245666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88411068916321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65433597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75191259384155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74561667442322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84948658943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76450204849243</t>
   </si>
   <si>
     <t xml:space="preserve">3.67007493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6291561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60082745552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73617386817932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90614199638367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89670038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98797988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91873407363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188048362732</t>
+    <t xml:space="preserve">3.62915635108948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60082793235779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73617339134216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90614295005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89669919013977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98798108100891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91873335838318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188024520874</t>
   </si>
   <si>
     <t xml:space="preserve">3.89984750747681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95965218544006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94706106185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90299463272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8935534954071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84633922576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82745361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76764941215515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06037473678589</t>
+    <t xml:space="preserve">3.95965242385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94706153869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90299558639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89355301856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84633874893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82745337486267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76765012741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06037378311157</t>
   </si>
   <si>
     <t xml:space="preserve">4.0383415222168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06666898727417</t>
+    <t xml:space="preserve">4.06666946411133</t>
   </si>
   <si>
     <t xml:space="preserve">4.07296466827393</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1296215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14221143722534</t>
+    <t xml:space="preserve">4.12962055206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14221096038818</t>
   </si>
   <si>
     <t xml:space="preserve">4.05722665786743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9753897190094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01630783081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91558599472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93132305145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99742245674133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95335721969604</t>
+    <t xml:space="preserve">3.97539019584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01630878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91558575630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93132424354553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99742197990417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95335650444031</t>
   </si>
   <si>
     <t xml:space="preserve">3.90929102897644</t>
@@ -464,151 +464,151 @@
     <t xml:space="preserve">3.92817568778992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87152028083801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94391322135925</t>
+    <t xml:space="preserve">3.8715193271637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94391393661499</t>
   </si>
   <si>
     <t xml:space="preserve">3.93447113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95650410652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96909427642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0320463180542</t>
+    <t xml:space="preserve">3.95650434494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96909379959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03204679489136</t>
   </si>
   <si>
     <t xml:space="preserve">4.019455909729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80542016029358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86207723617554</t>
+    <t xml:space="preserve">3.80542063713074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86207699775696</t>
   </si>
   <si>
     <t xml:space="preserve">3.8589289188385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82430529594421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84319186210632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85263419151306</t>
+    <t xml:space="preserve">3.82430553436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84319162368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85263466835022</t>
   </si>
   <si>
     <t xml:space="preserve">3.83060121536255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82115817070007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81486320495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79912519454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80227303504944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7393217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78653526306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80856776237488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75505924224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81801104545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89040493965149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86837244033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74876379966736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72673106193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7582061290741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79282999038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338694572449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77079701423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76135492324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71414089202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67322206497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59453344345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55676198005676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55046606063843</t>
+    <t xml:space="preserve">3.82115840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81486344337463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79912424087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80227279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73932147026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78653478622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80856847763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75505876541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81801056861877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89040470123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86837196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7487645149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72673082351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75820660591125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79283022880554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338742256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77079749107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7613537311554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71414160728455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67322254180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59453272819519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5567615032196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55046677589417</t>
   </si>
   <si>
     <t xml:space="preserve">3.54417204856873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53472876548767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48751449584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62600874900818</t>
+    <t xml:space="preserve">3.53472900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48751473426819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62600803375244</t>
   </si>
   <si>
     <t xml:space="preserve">3.69210743904114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69525504112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68581318855286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483324050903</t>
+    <t xml:space="preserve">3.69525527954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68581295013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9848325252533</t>
   </si>
   <si>
     <t xml:space="preserve">4.00057029724121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99112772941589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98168420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03519439697266</t>
+    <t xml:space="preserve">3.99112749099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98168468475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0351939201355</t>
   </si>
   <si>
     <t xml:space="preserve">3.99427485466003</t>
@@ -617,76 +617,76 @@
     <t xml:space="preserve">4.02889823913574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04778432846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0226035118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96594619750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88096237182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84004378318787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81171560287476</t>
+    <t xml:space="preserve">4.04778385162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02260303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96594738960266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88096284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84004330635071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8117151260376</t>
   </si>
   <si>
     <t xml:space="preserve">3.83689618110657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68266487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66063237190247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6795175075531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77709245681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77394461631775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83374929428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95020866394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07611227035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06352138519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05407905578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01315975189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0887017250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05093145370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92502856254578</t>
+    <t xml:space="preserve">3.6826651096344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66063189506531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67951679229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77709197998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77394509315491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83374881744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95020985603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07611179351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06352233886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05407953262329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01316165924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08870267868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05093193054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9250283241272</t>
   </si>
   <si>
     <t xml:space="preserve">3.96279978752136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00371837615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0257511138916</t>
+    <t xml:space="preserve">4.00371789932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02575016021729</t>
   </si>
   <si>
     <t xml:space="preserve">3.93761873245239</t>
@@ -701,70 +701,70 @@
     <t xml:space="preserve">4.1044397354126</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9722421169281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94076657295227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981706619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07925939559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04576873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05916547775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07256174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01227617263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01897525787354</t>
+    <t xml:space="preserve">3.97224259376526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94076704978943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06981801986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07926034927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04576826095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05916500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07256126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01227712631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01897478103638</t>
   </si>
   <si>
     <t xml:space="preserve">4.03237152099609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99218106269836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07926034927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04241943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01562595367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0223240852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99887943267822</t>
+    <t xml:space="preserve">3.992182970047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07925987243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04241800308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01562643051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02232456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99887990951538</t>
   </si>
   <si>
     <t xml:space="preserve">3.98213458061218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05246639251709</t>
+    <t xml:space="preserve">4.05246686935425</t>
   </si>
   <si>
     <t xml:space="preserve">4.06251382827759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10270357131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08260822296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06586360931396</t>
+    <t xml:space="preserve">4.10270309448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08260869979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06586313247681</t>
   </si>
   <si>
     <t xml:space="preserve">4.05581521987915</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">4.00557851791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99553084373474</t>
+    <t xml:space="preserve">3.99553060531616</t>
   </si>
   <si>
     <t xml:space="preserve">4.03572082519531</t>
@@ -785,37 +785,37 @@
     <t xml:space="preserve">4.19313144683838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21322536468506</t>
+    <t xml:space="preserve">4.21322631835938</t>
   </si>
   <si>
     <t xml:space="preserve">4.15629005432129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16633796691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16968631744385</t>
+    <t xml:space="preserve">4.16633749008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16968679428101</t>
   </si>
   <si>
     <t xml:space="preserve">4.209876537323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09265661239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10605335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16298913955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17303609848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11945009231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09935474395752</t>
+    <t xml:space="preserve">4.09265613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10605239868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16298866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17303514480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11944913864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09935522079468</t>
   </si>
   <si>
     <t xml:space="preserve">4.08930730819702</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">4.1161003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07591104507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12279891967773</t>
+    <t xml:space="preserve">4.0759105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12279844284058</t>
   </si>
   <si>
     <t xml:space="preserve">4.18643236160278</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">4.14959144592285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15294075012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12614822387695</t>
+    <t xml:space="preserve">4.15294122695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12614774703979</t>
   </si>
   <si>
     <t xml:space="preserve">4.14289379119873</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">4.19647979736328</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12949657440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20317792892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21657466888428</t>
+    <t xml:space="preserve">4.12949752807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20317888259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21657514572144</t>
   </si>
   <si>
     <t xml:space="preserve">4.1998291015625</t>
@@ -875,16 +875,16 @@
     <t xml:space="preserve">4.189781665802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10940170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09600496292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08595848083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26346254348755</t>
+    <t xml:space="preserve">4.10940217971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0960054397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08595752716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26346302032471</t>
   </si>
   <si>
     <t xml:space="preserve">4.2936053276062</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">4.26681184768677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25341558456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24001932144165</t>
+    <t xml:space="preserve">4.25341463088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24001884460449</t>
   </si>
   <si>
     <t xml:space="preserve">4.25676441192627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27016067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29025602340698</t>
+    <t xml:space="preserve">4.2701621055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2902569770813</t>
   </si>
   <si>
     <t xml:space="preserve">4.30700159072876</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">4.32039785385132</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33379411697388</t>
+    <t xml:space="preserve">4.33379507064819</t>
   </si>
   <si>
     <t xml:space="preserve">4.3137001991272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34719133377075</t>
+    <t xml:space="preserve">4.34719181060791</t>
   </si>
   <si>
     <t xml:space="preserve">4.38068246841431</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">4.50460147857666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50125169754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48450660705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45436477661133</t>
+    <t xml:space="preserve">4.50125217437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48450613021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45436429977417</t>
   </si>
   <si>
     <t xml:space="preserve">4.47110986709595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48115730285645</t>
+    <t xml:space="preserve">4.48115682601929</t>
   </si>
   <si>
     <t xml:space="preserve">4.45570373535156</t>
@@ -956,43 +956,43 @@
     <t xml:space="preserve">4.43694829940796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46374130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41015577316284</t>
+    <t xml:space="preserve">4.46374225616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41015529632568</t>
   </si>
   <si>
     <t xml:space="preserve">4.41953325271606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28690719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40077829360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31771898269653</t>
+    <t xml:space="preserve">4.28690671920776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40077781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31771945953369</t>
   </si>
   <si>
     <t xml:space="preserve">4.3110203742981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3297758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37264490127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40881538391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45838356018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46508121490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54144144058228</t>
+    <t xml:space="preserve">4.32977676391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37264537811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40881586074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45838308334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46508169174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54144191741943</t>
   </si>
   <si>
     <t xml:space="preserve">4.52804517745972</t>
@@ -1001,22 +1001,22 @@
     <t xml:space="preserve">4.49187421798706</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49589347839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45704364776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71559762954712</t>
+    <t xml:space="preserve">4.49589395523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4570426940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71559715270996</t>
   </si>
   <si>
     <t xml:space="preserve">4.73033332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70086145401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59904718399048</t>
+    <t xml:space="preserve">4.70086097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59904766082764</t>
   </si>
   <si>
     <t xml:space="preserve">4.6285195350647</t>
@@ -1028,37 +1028,37 @@
     <t xml:space="preserve">4.79061841964722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91252708435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8870735168457</t>
+    <t xml:space="preserve">4.91252851486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88707399368286</t>
   </si>
   <si>
     <t xml:space="preserve">4.97013330459595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86295986175537</t>
+    <t xml:space="preserve">4.86296081542969</t>
   </si>
   <si>
     <t xml:space="preserve">4.79999589920044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87635707855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95271682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91520643234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94869804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93932008743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89377212524414</t>
+    <t xml:space="preserve">4.87635660171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95271635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91520690917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94869756698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9393196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8937726020813</t>
   </si>
   <si>
     <t xml:space="preserve">4.85358238220215</t>
@@ -1070,109 +1070,109 @@
     <t xml:space="preserve">4.8522424697876</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92726373672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93664169311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97415113449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05721092224121</t>
+    <t xml:space="preserve">4.92726278305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93664026260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97415161132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05720996856689</t>
   </si>
   <si>
     <t xml:space="preserve">5.05185174942017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09070205688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14696741104126</t>
+    <t xml:space="preserve">5.09070253372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14696836471558</t>
   </si>
   <si>
     <t xml:space="preserve">5.13892984390259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14294862747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14026832580566</t>
+    <t xml:space="preserve">5.14294815063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14026927947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.17108106613159</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21796894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18581771850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19653463363647</t>
+    <t xml:space="preserve">5.21796941757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18581819534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19653511047363</t>
   </si>
   <si>
     <t xml:space="preserve">5.27155542373657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27691555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29968929290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31040573120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33987903594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42963552474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41489887237549</t>
+    <t xml:space="preserve">5.27691507339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2996883392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31040620803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33987760543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4296350479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4148998260498</t>
   </si>
   <si>
     <t xml:space="preserve">5.40552091598511</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46178722381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43633460998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41088008880615</t>
+    <t xml:space="preserve">5.46178770065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43633413314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41088056564331</t>
   </si>
   <si>
     <t xml:space="preserve">5.45910787582397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50465679168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29834842681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28629207611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10409784317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11481618881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15634441375732</t>
+    <t xml:space="preserve">5.50465631484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29834890365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.286292552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10409832000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1148157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15634489059448</t>
   </si>
   <si>
     <t xml:space="preserve">5.13089084625244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16170310974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08266401290894</t>
+    <t xml:space="preserve">5.16170358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08266353607178</t>
   </si>
   <si>
     <t xml:space="preserve">4.91922521591187</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">4.89511203765869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90582895278931</t>
+    <t xml:space="preserve">4.90582847595215</t>
   </si>
   <si>
     <t xml:space="preserve">5.0036244392395</t>
@@ -1196,28 +1196,28 @@
     <t xml:space="preserve">4.89913082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89645147323608</t>
+    <t xml:space="preserve">4.89645099639893</t>
   </si>
   <si>
     <t xml:space="preserve">4.87769603729248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74506998062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92860269546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02237892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11749601364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23806428909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11079740524292</t>
+    <t xml:space="preserve">4.7450704574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92860221862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02237939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11749505996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23806381225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11079692840576</t>
   </si>
   <si>
     <t xml:space="preserve">5.19018793106079</t>
@@ -1226,22 +1226,22 @@
     <t xml:space="preserve">5.24264240264893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26674318313599</t>
+    <t xml:space="preserve">5.26674365997314</t>
   </si>
   <si>
     <t xml:space="preserve">5.20152902603149</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20719957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13915109634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1632513999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08953046798706</t>
+    <t xml:space="preserve">5.20720052719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13915014266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16325092315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08953094482422</t>
   </si>
   <si>
     <t xml:space="preserve">5.08244323730469</t>
@@ -1250,28 +1250,28 @@
     <t xml:space="preserve">5.13347959518433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14623928070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26816034317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30927467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35889387130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30218553543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38015937805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36739921569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44537258148193</t>
+    <t xml:space="preserve">5.14623880386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26816082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3092737197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35889291763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30218648910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38015985488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3673996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44537353515625</t>
   </si>
   <si>
     <t xml:space="preserve">5.5020809173584</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">5.53185224533081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46805667877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48223352432251</t>
+    <t xml:space="preserve">5.46805620193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48223304748535</t>
   </si>
   <si>
     <t xml:space="preserve">5.46522045135498</t>
@@ -1292,22 +1292,22 @@
     <t xml:space="preserve">5.4751443862915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5644588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58856058120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61266136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64668560028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63817930221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33337497711182</t>
+    <t xml:space="preserve">5.56445980072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58855962753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61266183853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64668607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63817977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33337545394897</t>
   </si>
   <si>
     <t xml:space="preserve">5.27950191497803</t>
@@ -1316,94 +1316,94 @@
     <t xml:space="preserve">5.26248979568481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19869327545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11079692840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0356593132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0143928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06684732437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91657161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85561084747314</t>
+    <t xml:space="preserve">5.19869422912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1107964515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03565979003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01439332962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0668478012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91657257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8556113243103</t>
   </si>
   <si>
     <t xml:space="preserve">4.77905559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93074893951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83434581756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81591463088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80740976333618</t>
+    <t xml:space="preserve">4.93074941635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83434534072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81591653823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80740928649902</t>
   </si>
   <si>
     <t xml:space="preserve">4.78897953033447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8102445602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74786615371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7010817527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78047275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90664768218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00163412094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97044515609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99029302597046</t>
+    <t xml:space="preserve">4.81024503707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74786567687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70108222961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78047323226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90664863586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00163459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97044467926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99029207229614</t>
   </si>
   <si>
     <t xml:space="preserve">5.10512590408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07818937301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99879884719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87120532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89955997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94634389877319</t>
+    <t xml:space="preserve">5.07819032669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99879837036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87120580673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89955949783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94634342193604</t>
   </si>
   <si>
     <t xml:space="preserve">4.92224264144897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90948390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97611474990845</t>
+    <t xml:space="preserve">4.90948486328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97611522674561</t>
   </si>
   <si>
     <t xml:space="preserve">5.0172290802002</t>
@@ -1412,112 +1412,112 @@
     <t xml:space="preserve">5.04132986068726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10087251663208</t>
+    <t xml:space="preserve">5.10087299346924</t>
   </si>
   <si>
     <t xml:space="preserve">5.13064432144165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09662008285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87829446792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82583951950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7393593788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74928379058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75353622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67839908599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50543928146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52954149246216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57490730285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44873237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42888498306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44589614868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51961755752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46290969848633</t>
+    <t xml:space="preserve">5.09661912918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87829494476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82583999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73935985565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74928426742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75353670120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67839813232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52954006195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57490682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44873142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42888402938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4458966255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51961612701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46290874481201</t>
   </si>
   <si>
     <t xml:space="preserve">4.3381519317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44447946548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4203782081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43030214309692</t>
+    <t xml:space="preserve">4.44447898864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42037773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43030166625977</t>
   </si>
   <si>
     <t xml:space="preserve">4.25167226791382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34382247924805</t>
+    <t xml:space="preserve">4.34382295608521</t>
   </si>
   <si>
     <t xml:space="preserve">4.34807538986206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48559236526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38635396957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50118684768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64437484741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68123435974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61602020263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58624792098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73794221878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83718109130859</t>
+    <t xml:space="preserve">4.48559284210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38635349273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50118732452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64437389373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68123483657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61602067947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58624935150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73794269561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83718013763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.86978816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87971210479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8825478553772</t>
+    <t xml:space="preserve">4.87971162796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88254690170288</t>
   </si>
   <si>
     <t xml:space="preserve">4.72660112380981</t>
@@ -1532,16 +1532,16 @@
     <t xml:space="preserve">4.64579153060913</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5181999206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66705751419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64295625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84852266311646</t>
+    <t xml:space="preserve">4.51820039749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66705799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64295673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8485221862793</t>
   </si>
   <si>
     <t xml:space="preserve">4.82300424575806</t>
@@ -1550,19 +1550,19 @@
     <t xml:space="preserve">4.75070142745972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75211906433105</t>
+    <t xml:space="preserve">4.75212001800537</t>
   </si>
   <si>
     <t xml:space="preserve">4.86695241928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82867527008057</t>
+    <t xml:space="preserve">4.82867479324341</t>
   </si>
   <si>
     <t xml:space="preserve">4.89247131347656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63445138931274</t>
+    <t xml:space="preserve">4.63444995880127</t>
   </si>
   <si>
     <t xml:space="preserve">4.65713405609131</t>
@@ -1574,127 +1574,127 @@
     <t xml:space="preserve">4.64862775802612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83576345443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91231870651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88821792602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88112926483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03849363327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96902704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89672422409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8428521156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95059776306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94067287445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96052169799805</t>
+    <t xml:space="preserve">4.8357629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91231822967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88821744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8811297416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03849411010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96902751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89672374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84285163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95059633255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94067239761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96051979064941</t>
   </si>
   <si>
     <t xml:space="preserve">5.02148151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98745632171631</t>
+    <t xml:space="preserve">4.98745679855347</t>
   </si>
   <si>
     <t xml:space="preserve">5.03707599639893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10370826721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11646747589111</t>
+    <t xml:space="preserve">5.10370874404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1164665222168</t>
   </si>
   <si>
     <t xml:space="preserve">5.14056825637817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11788463592529</t>
+    <t xml:space="preserve">5.11788511276245</t>
   </si>
   <si>
     <t xml:space="preserve">5.21287059783936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24547863006592</t>
+    <t xml:space="preserve">5.2454776763916</t>
   </si>
   <si>
     <t xml:space="preserve">5.37732362747192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38724756240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33621025085449</t>
+    <t xml:space="preserve">5.38724803924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33620977401733</t>
   </si>
   <si>
     <t xml:space="preserve">5.38582992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39858913421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45246076583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42836046218872</t>
+    <t xml:space="preserve">5.39858865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45246171951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42835998535156</t>
   </si>
   <si>
     <t xml:space="preserve">5.43686676025391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32628679275513</t>
+    <t xml:space="preserve">5.32628631591797</t>
   </si>
   <si>
     <t xml:space="preserve">5.20861768722534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33053970336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41843700408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44820833206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2837553024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30076837539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36456394195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4439549446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49924516677856</t>
+    <t xml:space="preserve">5.33053922653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4184365272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44820880889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28375577926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30076789855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36456441879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44395446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49924564361572</t>
   </si>
   <si>
     <t xml:space="preserve">5.43403100967407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49073886871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51058673858643</t>
+    <t xml:space="preserve">5.49073934555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51058769226074</t>
   </si>
   <si>
     <t xml:space="preserve">5.49357461929321</t>
@@ -1706,127 +1706,127 @@
     <t xml:space="preserve">5.51625776290894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53894138336182</t>
+    <t xml:space="preserve">5.53894090652466</t>
   </si>
   <si>
     <t xml:space="preserve">5.5984845161438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59990167617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62116670608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62541961669922</t>
+    <t xml:space="preserve">5.59990262985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62116718292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62542057037354</t>
   </si>
   <si>
     <t xml:space="preserve">5.59423112869263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61974954605103</t>
+    <t xml:space="preserve">5.61975002288818</t>
   </si>
   <si>
     <t xml:space="preserve">5.63109064102173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63392686843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53752374649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60131978988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62825584411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64243316650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66511631011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72749376296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7771143913269</t>
+    <t xml:space="preserve">5.63392639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53752279281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60131931304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62825536727905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64243268966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66511678695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72749423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77711296081543</t>
   </si>
   <si>
     <t xml:space="preserve">5.92597198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98267984390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12303161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0677433013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08900737762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11310863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11452674865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09326028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.147132396698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1315393447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14996767044067</t>
+    <t xml:space="preserve">5.98268032073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12303256988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06774187088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08900690078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11310815811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11452579498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09326076507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14713287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13153791427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14996862411499</t>
   </si>
   <si>
     <t xml:space="preserve">6.19958782196045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19533395767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2194356918335</t>
+    <t xml:space="preserve">6.19533348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21943521499634</t>
   </si>
   <si>
     <t xml:space="preserve">6.32576274871826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3484468460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33852195739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37254619598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36120462417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42925310134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38105297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74540090560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74823665618896</t>
+    <t xml:space="preserve">6.34844589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33852243423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37254667282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36120510101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42925453186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38105249404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74540042877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74823713302612</t>
   </si>
   <si>
     <t xml:space="preserve">6.70712327957153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56535339355469</t>
+    <t xml:space="preserve">6.56535291671753</t>
   </si>
   <si>
     <t xml:space="preserve">6.53841686248779</t>
@@ -1835,43 +1835,43 @@
     <t xml:space="preserve">6.55826473236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6447434425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74114942550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6915283203125</t>
+    <t xml:space="preserve">6.64474391937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7411470413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69152736663818</t>
   </si>
   <si>
     <t xml:space="preserve">6.62631416320801</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67593336105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46469736099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38530588150024</t>
+    <t xml:space="preserve">6.67593383789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46469688415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38530540466309</t>
   </si>
   <si>
     <t xml:space="preserve">6.37963485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30591440200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50013875961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4590277671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54266834259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39664745330811</t>
+    <t xml:space="preserve">6.30591487884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50014019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45902681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54267024993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39664793014526</t>
   </si>
   <si>
     <t xml:space="preserve">6.45335531234741</t>
@@ -1880,79 +1880,79 @@
     <t xml:space="preserve">6.494469165802</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21518182754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32292652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30733156204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25771331787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22510623931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16698122024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1797399520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33710384368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29315614700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32717943191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45193815231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51289844512939</t>
+    <t xml:space="preserve">6.21518135070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32292747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30733251571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25771284103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22510528564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16698026657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17974042892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33710479736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29315567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32718086242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45193862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51289749145508</t>
   </si>
   <si>
     <t xml:space="preserve">6.54408836364746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56960678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53558111190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58520126342773</t>
+    <t xml:space="preserve">6.56960582733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53558206558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58520269393921</t>
   </si>
   <si>
     <t xml:space="preserve">6.64332675933838</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74398374557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86365509033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8160834312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78783798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.793785572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88298177719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87108755111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03610038757324</t>
+    <t xml:space="preserve">6.74398279190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86365461349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81608390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78783702850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79378461837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88298034667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87108898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03610229492188</t>
   </si>
   <si>
     <t xml:space="preserve">7.20260047912598</t>
@@ -1967,40 +1967,40 @@
     <t xml:space="preserve">7.21003341674805</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17584133148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2457127571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17435455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17881536483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14759635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12529802322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11043167114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9870433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01826190948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97366285324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04204702377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99150371551514</t>
+    <t xml:space="preserve">7.17584276199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24571180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17435693740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17881488800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14759588241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12529850006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11043119430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98704290390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01826143264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97366428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04204750061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99150323867798</t>
   </si>
   <si>
     <t xml:space="preserve">7.126784324646</t>
@@ -2009,160 +2009,160 @@
     <t xml:space="preserve">6.94095849990845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18030214309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25165891647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16692209243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05245351791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04799461364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16394948959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68526268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76405191421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92014598846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79675722122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06137371063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01231622695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20854568481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.183274269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00190925598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05988693237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98555707931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31409692764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26355171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34085559844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35869407653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4999213218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47019004821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48877191543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49248838424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36612701416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39585971832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52593803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57053661346436</t>
+    <t xml:space="preserve">7.18030071258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25165748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16692304611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05245399475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04799365997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16394853591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68526315689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7640528678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92014503479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79675674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06137275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01231575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20854711532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18327331542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00190877914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05988597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98555612564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31409645080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26355218887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34085512161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35869312286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49992227554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4701886177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48877382278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4924898147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36612749099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39586019515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52593660354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57053470611572</t>
   </si>
   <si>
     <t xml:space="preserve">7.47762298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41369771957397</t>
+    <t xml:space="preserve">7.41369867324829</t>
   </si>
   <si>
     <t xml:space="preserve">7.55195188522339</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56681823730469</t>
+    <t xml:space="preserve">7.56681966781616</t>
   </si>
   <si>
     <t xml:space="preserve">7.48133897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63743257522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59283447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58911943435669</t>
+    <t xml:space="preserve">7.63743305206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59283351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58911848068237</t>
   </si>
   <si>
     <t xml:space="preserve">7.62628412246704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75264549255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6448655128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40626573562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42261743545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41815853118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62999963760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52965354919434</t>
+    <t xml:space="preserve">7.75264358520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64486598968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40626668930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42261934280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41815710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52965450286865</t>
   </si>
   <si>
     <t xml:space="preserve">7.61885023117065</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86413908004761</t>
+    <t xml:space="preserve">7.86414098739624</t>
   </si>
   <si>
     <t xml:space="preserve">7.87528991699219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98306798934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86785745620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95705270767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00164890289307</t>
+    <t xml:space="preserve">7.98306846618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86785697937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9570517539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0016508102417</t>
   </si>
   <si>
     <t xml:space="preserve">8.02766704559326</t>
@@ -2174,31 +2174,31 @@
     <t xml:space="preserve">8.13916110992432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16889381408691</t>
+    <t xml:space="preserve">8.16889476776123</t>
   </si>
   <si>
     <t xml:space="preserve">8.07226467132568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10943126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09456443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08713054656982</t>
+    <t xml:space="preserve">8.10942935943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09456539154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08713150024414</t>
   </si>
   <si>
     <t xml:space="preserve">8.1986255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24694156646729</t>
+    <t xml:space="preserve">8.24694061279297</t>
   </si>
   <si>
     <t xml:space="preserve">8.30268955230713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17260932922363</t>
+    <t xml:space="preserve">8.17261028289795</t>
   </si>
   <si>
     <t xml:space="preserve">8.05739879608154</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">8.15402793884277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32870292663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26180648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2803897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29525566101074</t>
+    <t xml:space="preserve">8.32870388031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26180744171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28039073944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29525470733643</t>
   </si>
   <si>
     <t xml:space="preserve">8.33972358703613</t>
@@ -2228,16 +2228,16 @@
     <t xml:space="preserve">8.27189159393311</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17014122009277</t>
+    <t xml:space="preserve">8.17014026641846</t>
   </si>
   <si>
     <t xml:space="preserve">8.23797512054443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26058578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18521499633789</t>
+    <t xml:space="preserve">8.26058483123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18521404266357</t>
   </si>
   <si>
     <t xml:space="preserve">8.13245582580566</t>
@@ -2249,22 +2249,22 @@
     <t xml:space="preserve">7.98171472549438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72168827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80459499359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90634346008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76314258575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77444648742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67646646499634</t>
+    <t xml:space="preserve">7.72168731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80459356307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90634489059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76314210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77444744110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67646503448486</t>
   </si>
   <si>
     <t xml:space="preserve">7.7857518196106</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">7.8272066116333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66515874862671</t>
+    <t xml:space="preserve">7.66515970230103</t>
   </si>
   <si>
     <t xml:space="preserve">7.73299407958984</t>
@@ -2285,22 +2285,22 @@
     <t xml:space="preserve">7.6613917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75937271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86112356185913</t>
+    <t xml:space="preserve">7.75937223434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8611216545105</t>
   </si>
   <si>
     <t xml:space="preserve">7.62747430801392</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68400287628174</t>
+    <t xml:space="preserve">7.6840033531189</t>
   </si>
   <si>
     <t xml:space="preserve">7.58602094650269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5204496383667</t>
+    <t xml:space="preserve">7.52044820785522</t>
   </si>
   <si>
     <t xml:space="preserve">7.71414995193481</t>
@@ -2312,127 +2312,127 @@
     <t xml:space="preserve">7.72922468185425</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69530868530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65008592605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58225297927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57094526290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75183486938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82343721389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84604692459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74429845809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97794675827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35102939605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28696346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80082702636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.917649269104</t>
+    <t xml:space="preserve">7.69530916213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65008544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58225202560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57094717025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75183582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82343816757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84604835510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74429893493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97794723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35102844238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28696441650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80082607269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91765069961548</t>
   </si>
   <si>
     <t xml:space="preserve">8.06839084625244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08346557617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13622570037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21913242340088</t>
+    <t xml:space="preserve">8.08346462249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13622379302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21913051605225</t>
   </si>
   <si>
     <t xml:space="preserve">8.31711387634277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27565860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25304794311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24174213409424</t>
+    <t xml:space="preserve">8.27565956115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25304889678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24174308776855</t>
   </si>
   <si>
     <t xml:space="preserve">8.5469913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67512321472168</t>
+    <t xml:space="preserve">8.67512226104736</t>
   </si>
   <si>
     <t xml:space="preserve">8.50553894042969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51307678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91011333465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78952217102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94402980804443</t>
+    <t xml:space="preserve">8.51307582855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91011238098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78952026367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94403123855591</t>
   </si>
   <si>
     <t xml:space="preserve">7.60109519958496</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24610042572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98079776763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25062274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30187368392944</t>
+    <t xml:space="preserve">7.24610090255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98079681396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25062227249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3018741607666</t>
   </si>
   <si>
     <t xml:space="preserve">7.10892724990845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32750129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37482118606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93767261505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93917989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63075113296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08297300338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9005765914917</t>
+    <t xml:space="preserve">7.32750177383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37482023239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93767213821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93917942047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63075160980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08297348022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90057706832886</t>
   </si>
   <si>
     <t xml:space="preserve">4.89605522155762</t>
@@ -2441,34 +2441,34 @@
     <t xml:space="preserve">4.80108785629272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21110248565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22768449783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40857267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77788734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83064651489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10348653793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91807651519775</t>
+    <t xml:space="preserve">5.21110200881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22768402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40857315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77788782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83064603805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10348749160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9180760383606</t>
   </si>
   <si>
     <t xml:space="preserve">5.96631383895874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81858730316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57137250900269</t>
+    <t xml:space="preserve">5.81858777999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57137298583984</t>
   </si>
   <si>
     <t xml:space="preserve">5.85777950286865</t>
@@ -2477,37 +2477,37 @@
     <t xml:space="preserve">5.90149450302124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05977296829224</t>
+    <t xml:space="preserve">6.05977249145508</t>
   </si>
   <si>
     <t xml:space="preserve">6.14720249176025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23915386199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26025772094727</t>
+    <t xml:space="preserve">6.2391529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26025724411011</t>
   </si>
   <si>
     <t xml:space="preserve">6.28588342666626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73266506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77939414978027</t>
+    <t xml:space="preserve">5.73266458511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77939462661743</t>
   </si>
   <si>
     <t xml:space="preserve">5.8035135269165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73718738555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61508798599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70402479171753</t>
+    <t xml:space="preserve">5.73718786239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61508750915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70402526855469</t>
   </si>
   <si>
     <t xml:space="preserve">5.66633939743042</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">5.57589483261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94068670272827</t>
+    <t xml:space="preserve">5.94068717956543</t>
   </si>
   <si>
     <t xml:space="preserve">5.93013525009155</t>
@@ -2531,37 +2531,37 @@
     <t xml:space="preserve">5.70101022720337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53971719741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44776630401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72362089157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84572124481201</t>
+    <t xml:space="preserve">5.53971672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44776582717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72362041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8457202911377</t>
   </si>
   <si>
     <t xml:space="preserve">5.61207294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50956869125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41610956192017</t>
+    <t xml:space="preserve">5.50956916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41611003875732</t>
   </si>
   <si>
     <t xml:space="preserve">5.62413215637207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58041763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58946084976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55479192733765</t>
+    <t xml:space="preserve">5.58041667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58946180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55479097366333</t>
   </si>
   <si>
     <t xml:space="preserve">5.60905838012695</t>
@@ -2570,82 +2570,82 @@
     <t xml:space="preserve">5.8321533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91958379745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94973134994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00399827957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07333946228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25724315643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45772790908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60997629165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74714851379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53912687301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4637565612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12308311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21654272079468</t>
+    <t xml:space="preserve">5.91958332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94973182678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00399875640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07333850860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25724220275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45772743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60997533798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7471489906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53912782669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46375751495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12308263778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21654224395752</t>
   </si>
   <si>
     <t xml:space="preserve">6.2693018913269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39592456817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3672833442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32206106185913</t>
+    <t xml:space="preserve">6.39592361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36728382110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32206058502197</t>
   </si>
   <si>
     <t xml:space="preserve">6.19543933868408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32309103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43116474151611</t>
+    <t xml:space="preserve">6.32309150695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43116426467896</t>
   </si>
   <si>
     <t xml:space="preserve">6.1461009979248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1899561882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0662202835083</t>
+    <t xml:space="preserve">6.18995666503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06622076034546</t>
   </si>
   <si>
     <t xml:space="preserve">6.25104141235352</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06152153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07248544692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09911203384399</t>
+    <t xml:space="preserve">6.06152105331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07248592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09911251068115</t>
   </si>
   <si>
     <t xml:space="preserve">6.19778823852539</t>
@@ -2654,28 +2654,28 @@
     <t xml:space="preserve">6.163330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11477518081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9706768989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02236461639404</t>
+    <t xml:space="preserve">6.11477613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97067737579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02236413955688</t>
   </si>
   <si>
     <t xml:space="preserve">6.13670301437378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11320972442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13983583450317</t>
+    <t xml:space="preserve">6.11320924758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13983535766602</t>
   </si>
   <si>
     <t xml:space="preserve">6.15706491470337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41080236434937</t>
+    <t xml:space="preserve">6.41080331802368</t>
   </si>
   <si>
     <t xml:space="preserve">6.45779132843018</t>
@@ -2684,10 +2684,10 @@
     <t xml:space="preserve">6.51574373245239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41236877441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38104343414307</t>
+    <t xml:space="preserve">6.41236925125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38104248046875</t>
   </si>
   <si>
     <t xml:space="preserve">6.22128248214722</t>
@@ -2699,73 +2699,73 @@
     <t xml:space="preserve">6.17116117477417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95971250534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07091903686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18369150161743</t>
+    <t xml:space="preserve">5.95971298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07091856002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18369197845459</t>
   </si>
   <si>
     <t xml:space="preserve">6.22598123550415</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22441530227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12730503082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17586040496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28393363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38417625427246</t>
+    <t xml:space="preserve">6.22441482543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12730550765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1758599281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28393411636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38417673110962</t>
   </si>
   <si>
     <t xml:space="preserve">6.37634515762329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29959678649902</t>
+    <t xml:space="preserve">6.29959630966187</t>
   </si>
   <si>
     <t xml:space="preserve">6.27297019958496</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17429399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15393257141113</t>
+    <t xml:space="preserve">6.17429351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15393161773682</t>
   </si>
   <si>
     <t xml:space="preserve">6.21815013885498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11164236068726</t>
+    <t xml:space="preserve">6.11164283752441</t>
   </si>
   <si>
     <t xml:space="preserve">6.194655418396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21501684188843</t>
+    <t xml:space="preserve">6.21501731872559</t>
   </si>
   <si>
     <t xml:space="preserve">6.14296817779541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14766597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05682277679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01140069961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02393007278442</t>
+    <t xml:space="preserve">6.14766693115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05682229995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01140022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0239315032959</t>
   </si>
   <si>
     <t xml:space="preserve">6.2322473526001</t>
@@ -2774,22 +2774,22 @@
     <t xml:space="preserve">6.10381126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24947595596313</t>
+    <t xml:space="preserve">6.24947547912598</t>
   </si>
   <si>
     <t xml:space="preserve">6.23851156234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24164390563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20562028884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07875108718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86730194091797</t>
+    <t xml:space="preserve">6.24164342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20561933517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07875061035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86730146408081</t>
   </si>
   <si>
     <t xml:space="preserve">5.95031547546387</t>
@@ -2798,46 +2798,46 @@
     <t xml:space="preserve">5.9988694190979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98634004592896</t>
+    <t xml:space="preserve">5.9863395690918</t>
   </si>
   <si>
     <t xml:space="preserve">5.94091701507568</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05368900299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93308687210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92682075500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88296556472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91742372512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33405494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27923488616943</t>
+    <t xml:space="preserve">6.05368947982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93308591842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9268217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88296461105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91742324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33405590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27923440933228</t>
   </si>
   <si>
     <t xml:space="preserve">6.27610206604004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27766895294189</t>
+    <t xml:space="preserve">6.27766847610474</t>
   </si>
   <si>
     <t xml:space="preserve">6.29176568984985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29333209991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97850942611694</t>
+    <t xml:space="preserve">6.29333162307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97850799560547</t>
   </si>
   <si>
     <t xml:space="preserve">6.05212354660034</t>
@@ -2846,10 +2846,10 @@
     <t xml:space="preserve">6.05995464324951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94718265533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9565806388855</t>
+    <t xml:space="preserve">5.94718217849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95657968521118</t>
   </si>
   <si>
     <t xml:space="preserve">5.94561624526978</t>
@@ -2858,28 +2858,28 @@
     <t xml:space="preserve">5.85007333755493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8077826499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56344318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48826169967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48199558258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61356449127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6668176651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84537410736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03802728652954</t>
+    <t xml:space="preserve">5.80778360366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56344366073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48826122283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48199605941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61356496810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66681814193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84537315368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03802633285522</t>
   </si>
   <si>
     <t xml:space="preserve">5.9393515586853</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">6.14923334121704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3011622428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25574064254761</t>
+    <t xml:space="preserve">6.30116271972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25574111938477</t>
   </si>
   <si>
     <t xml:space="preserve">6.44526100158691</t>
@@ -2903,55 +2903,55 @@
     <t xml:space="preserve">6.74598789215088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86032581329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93394231796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82743549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86351871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01830911636353</t>
+    <t xml:space="preserve">6.86032676696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93394327163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82743501663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86351823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.018310546875</t>
   </si>
   <si>
     <t xml:space="preserve">6.95128726959229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02150249481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81723976135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.871497631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76138687133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78532409667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70872640609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69755506515503</t>
+    <t xml:space="preserve">7.02150201797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81723928451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87149858474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76138734817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78532457351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70872592926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69755601882935</t>
   </si>
   <si>
     <t xml:space="preserve">6.70713043212891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71670532226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66244840621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65766048431396</t>
+    <t xml:space="preserve">6.71670484542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66244792938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65766096115112</t>
   </si>
   <si>
     <t xml:space="preserve">6.76457834243774</t>
@@ -2963,97 +2963,97 @@
     <t xml:space="preserve">6.66883134841919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51563549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64968109130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67681074142456</t>
+    <t xml:space="preserve">6.51563501358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64968156814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67680978775024</t>
   </si>
   <si>
     <t xml:space="preserve">6.63851118087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65606498718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61297845840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81404876708984</t>
+    <t xml:space="preserve">6.65606451034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61297798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81404829025269</t>
   </si>
   <si>
     <t xml:space="preserve">6.95607471466064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85713529586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80926132202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72947120666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66404390335083</t>
+    <t xml:space="preserve">6.8571343421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80926179885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7294716835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66404485702515</t>
   </si>
   <si>
     <t xml:space="preserve">6.68638515472412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63053321838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69915056228638</t>
+    <t xml:space="preserve">6.63053226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69915199279785</t>
   </si>
   <si>
     <t xml:space="preserve">6.63691520690918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59702062606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54914617538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6720232963562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51084756851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56989145278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44382429122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61776542663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60659456253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07735538482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1906566619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35661935806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54492378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63588380813599</t>
+    <t xml:space="preserve">6.59702014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54914665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67202377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5108470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56989192962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44382381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6177659034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60659503936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07735443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19065713882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35662078857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54492330551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63588237762451</t>
   </si>
   <si>
     <t xml:space="preserve">7.59120082855225</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69971656799316</t>
+    <t xml:space="preserve">7.69971513748169</t>
   </si>
   <si>
     <t xml:space="preserve">7.72205638885498</t>
@@ -3062,40 +3062,40 @@
     <t xml:space="preserve">7.79546356201172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70131254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56566905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42364358901978</t>
+    <t xml:space="preserve">7.7013111114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56566953659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4236421585083</t>
   </si>
   <si>
     <t xml:space="preserve">7.49864482879639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69492816925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60237216949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61992597579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66620492935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50343322753906</t>
+    <t xml:space="preserve">7.69492769241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60237264633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6199254989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66620349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5034327507019</t>
   </si>
   <si>
     <t xml:space="preserve">7.84174108505249</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88004064559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908452987671</t>
+    <t xml:space="preserve">7.88004016876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908500671387</t>
   </si>
   <si>
     <t xml:space="preserve">7.9582347869873</t>
@@ -3104,19 +3104,19 @@
     <t xml:space="preserve">7.85929584503174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01089572906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09068584442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16249656677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12659168243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19840145111084</t>
+    <t xml:space="preserve">8.01089668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09068775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16249561309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12659072875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19840049743652</t>
   </si>
   <si>
     <t xml:space="preserve">8.15052795410156</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">8.32606601715088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28218078613281</t>
+    <t xml:space="preserve">8.28218173980713</t>
   </si>
   <si>
     <t xml:space="preserve">8.34202289581299</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">8.25026512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38191795349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31010627746582</t>
+    <t xml:space="preserve">8.38191699981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31010723114014</t>
   </si>
   <si>
     <t xml:space="preserve">8.3539924621582</t>
@@ -3146,10 +3146,10 @@
     <t xml:space="preserve">8.34601306915283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41782283782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60133934020996</t>
+    <t xml:space="preserve">8.41782379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60134029388428</t>
   </si>
   <si>
     <t xml:space="preserve">8.66118240356445</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">8.64921379089355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7050666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72900295257568</t>
+    <t xml:space="preserve">8.70506572723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72900390625</t>
   </si>
   <si>
     <t xml:space="preserve">8.71703624725342</t>
@@ -3170,25 +3170,25 @@
     <t xml:space="preserve">8.59336185455322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61330890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60533046722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50958156585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50160312652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59735107421875</t>
+    <t xml:space="preserve">8.61330795288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6053295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50958251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50160217285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59735012054443</t>
   </si>
   <si>
     <t xml:space="preserve">8.58538246154785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46968746185303</t>
+    <t xml:space="preserve">8.46968555450439</t>
   </si>
   <si>
     <t xml:space="preserve">8.46569728851318</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">8.65719413757324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62527751922607</t>
+    <t xml:space="preserve">8.62527656555176</t>
   </si>
   <si>
     <t xml:space="preserve">8.63724613189697</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">8.71304512023926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70905685424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69708728790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8167724609375</t>
+    <t xml:space="preserve">8.70905590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69708824157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81677341461182</t>
   </si>
   <si>
     <t xml:space="preserve">8.7529411315918</t>
@@ -3221,34 +3221,34 @@
     <t xml:space="preserve">8.72102546691895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77687835693359</t>
+    <t xml:space="preserve">8.77687740325928</t>
   </si>
   <si>
     <t xml:space="preserve">8.9564037322998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91651058197021</t>
+    <t xml:space="preserve">8.9165096282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.8048038482666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80879306793213</t>
+    <t xml:space="preserve">8.80879402160645</t>
   </si>
   <si>
     <t xml:space="preserve">8.87262535095215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00826930999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99629974365234</t>
+    <t xml:space="preserve">9.00826835632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99629878997803</t>
   </si>
   <si>
     <t xml:space="preserve">8.96039390563965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03619384765625</t>
+    <t xml:space="preserve">9.03619480133057</t>
   </si>
   <si>
     <t xml:space="preserve">9.17582607269287</t>
@@ -3266,55 +3266,55 @@
     <t xml:space="preserve">9.16784763336182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1798152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22768878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41519546508789</t>
+    <t xml:space="preserve">9.17981624603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22769069671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41519641876221</t>
   </si>
   <si>
     <t xml:space="preserve">9.50296497344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62264919281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6386079788208</t>
+    <t xml:space="preserve">9.62264823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63860702514648</t>
   </si>
   <si>
     <t xml:space="preserve">9.56280708312988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.586745262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55881786346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63062763214111</t>
+    <t xml:space="preserve">9.58674430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55881690979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63062858581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.57078647613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33141708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44958877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32238864898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21160507202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37573051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34700870513916</t>
+    <t xml:space="preserve">9.33141613006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44958782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32238960266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21160316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37573146820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34700775146484</t>
   </si>
   <si>
     <t xml:space="preserve">9.19519138336182</t>
@@ -3332,58 +3332,58 @@
     <t xml:space="preserve">9.17467594146729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30597686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16646862030029</t>
+    <t xml:space="preserve">9.30597591400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16646957397461</t>
   </si>
   <si>
     <t xml:space="preserve">9.20339775085449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88334941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02285861968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05568408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05158042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01875591278076</t>
+    <t xml:space="preserve">8.88335132598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02285957336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05568313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05157947540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01875495910645</t>
   </si>
   <si>
     <t xml:space="preserve">8.89566040039062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92438125610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62074851989746</t>
+    <t xml:space="preserve">8.92438316345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62074756622314</t>
   </si>
   <si>
     <t xml:space="preserve">8.7069149017334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98182582855225</t>
+    <t xml:space="preserve">8.98182773590088</t>
   </si>
   <si>
     <t xml:space="preserve">9.11723136901855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19929504394531</t>
+    <t xml:space="preserve">9.199294090271</t>
   </si>
   <si>
     <t xml:space="preserve">9.27315235137939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18288135528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16236591339111</t>
+    <t xml:space="preserve">9.18288230895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16236686706543</t>
   </si>
   <si>
     <t xml:space="preserve">9.12954139709473</t>
@@ -3407,10 +3407,10 @@
     <t xml:space="preserve">9.63833332061768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58909606933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52754783630371</t>
+    <t xml:space="preserve">9.58909702301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52754592895508</t>
   </si>
   <si>
     <t xml:space="preserve">9.47420692443848</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">9.55216693878174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43317413330078</t>
+    <t xml:space="preserve">9.43317604064941</t>
   </si>
   <si>
     <t xml:space="preserve">9.36342144012451</t>
@@ -3428,49 +3428,49 @@
     <t xml:space="preserve">9.56858062744141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54396152496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51113510131836</t>
+    <t xml:space="preserve">9.54395961761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51113605499268</t>
   </si>
   <si>
     <t xml:space="preserve">9.42496871948242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4660005569458</t>
+    <t xml:space="preserve">9.46599960327148</t>
   </si>
   <si>
     <t xml:space="preserve">9.51523876190186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54806327819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40445232391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47010326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48651599884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57268238067627</t>
+    <t xml:space="preserve">9.54806423187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40445327758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4701042175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48651695251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57268333435059</t>
   </si>
   <si>
     <t xml:space="preserve">9.72449970245361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6342306137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67115879058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75732612609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8270788192749</t>
+    <t xml:space="preserve">9.63422966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6711597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82707977294922</t>
   </si>
   <si>
     <t xml:space="preserve">9.79015064239502</t>
@@ -3479,22 +3479,22 @@
     <t xml:space="preserve">9.88042068481445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64243793487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70808792114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76963424682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72860336303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9255542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86810874938965</t>
+    <t xml:space="preserve">9.64243507385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70808696746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76963520050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72860240936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92555522918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86811065673828</t>
   </si>
   <si>
     <t xml:space="preserve">9.9912052154541</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">9.9953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97889518737793</t>
+    <t xml:space="preserve">9.97889614105225</t>
   </si>
   <si>
     <t xml:space="preserve">10.1101970672607</t>
@@ -3512,7 +3512,7 @@
     <t xml:space="preserve">10.1471252441406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2579097747803</t>
+    <t xml:space="preserve">10.2579107284546</t>
   </si>
   <si>
     <t xml:space="preserve">10.196364402771</t>
@@ -3521,10 +3521,10 @@
     <t xml:space="preserve">10.1635389328003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0527534484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3030471801758</t>
+    <t xml:space="preserve">10.0527515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3030452728271</t>
   </si>
   <si>
     <t xml:space="preserve">10.2661170959473</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">10.2456016540527</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4015226364136</t>
+    <t xml:space="preserve">10.4015207290649</t>
   </si>
   <si>
     <t xml:space="preserve">10.3112525939941</t>
@@ -3542,43 +3542,43 @@
     <t xml:space="preserve">10.2948398590088</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1266107559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2127771377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1758460998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2989435195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2250852584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2538080215454</t>
+    <t xml:space="preserve">10.1266098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.212776184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1758480072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2989416122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2250862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2538070678711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2086725234985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1060943603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0486507415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0609588623047</t>
+    <t xml:space="preserve">10.1060934066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0486497879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.060959815979</t>
   </si>
   <si>
     <t xml:space="preserve">9.96658706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90093517303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88010025024414</t>
+    <t xml:space="preserve">9.90093612670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88009929656982</t>
   </si>
   <si>
     <t xml:space="preserve">9.80092620849609</t>
@@ -3590,22 +3590,22 @@
     <t xml:space="preserve">9.62590980529785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23003959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33004951477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28421115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45922660827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35921669006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28837776184082</t>
+    <t xml:space="preserve">9.2300386428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33004856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28421020507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.459228515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35921764373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28837871551514</t>
   </si>
   <si>
     <t xml:space="preserve">9.32171440124512</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">9.31754779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25087547302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20920372009277</t>
+    <t xml:space="preserve">9.25087356567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20920467376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.21337127685547</t>
@@ -3635,58 +3635,58 @@
     <t xml:space="preserve">9.34254932403564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35505104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14253044128418</t>
+    <t xml:space="preserve">9.3550500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14252948760986</t>
   </si>
   <si>
     <t xml:space="preserve">9.29254341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3842191696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46756172180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5509033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63007640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60924053192139</t>
+    <t xml:space="preserve">9.38422012329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46756076812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55090236663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63007736206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6092414855957</t>
   </si>
   <si>
     <t xml:space="preserve">9.61757564544678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75508785247803</t>
+    <t xml:space="preserve">9.75508880615234</t>
   </si>
   <si>
     <t xml:space="preserve">9.76759052276611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80509376525879</t>
+    <t xml:space="preserve">9.80509281158447</t>
   </si>
   <si>
     <t xml:space="preserve">9.72175216674805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75092124938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78008937835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71341705322266</t>
+    <t xml:space="preserve">9.75092029571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78009128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71341896057129</t>
   </si>
   <si>
     <t xml:space="preserve">9.66758060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6759147644043</t>
+    <t xml:space="preserve">9.67591381072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.6384105682373</t>
@@ -3695,22 +3695,22 @@
     <t xml:space="preserve">9.65924549102783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7384204864502</t>
+    <t xml:space="preserve">9.73841953277588</t>
   </si>
   <si>
     <t xml:space="preserve">9.57173824310303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18836784362793</t>
+    <t xml:space="preserve">9.18836879730225</t>
   </si>
   <si>
     <t xml:space="preserve">9.41338920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62174320220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50506591796875</t>
+    <t xml:space="preserve">9.62174224853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50506401062012</t>
   </si>
   <si>
     <t xml:space="preserve">9.94260692596436</t>
@@ -3722,40 +3722,40 @@
     <t xml:space="preserve">9.07585716247559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13419723510742</t>
+    <t xml:space="preserve">9.13419628143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.17586708068848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99668407440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16336631774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24670791625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28004455566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19670295715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97168064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93834495544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86333847045898</t>
+    <t xml:space="preserve">8.99668312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16336536407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24670696258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28004360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.196702003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97168159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93834590911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86333751678467</t>
   </si>
   <si>
     <t xml:space="preserve">8.36745738983154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64248371124268</t>
+    <t xml:space="preserve">8.64248275756836</t>
   </si>
   <si>
     <t xml:space="preserve">8.56330966949463</t>
@@ -3764,19 +3764,19 @@
     <t xml:space="preserve">8.21744251251221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2041072845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08909702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56738233566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40403270721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74739742279053</t>
+    <t xml:space="preserve">8.20410823822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08909893035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56738185882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40403318405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74739837646484</t>
   </si>
   <si>
     <t xml:space="preserve">8.43412971496582</t>
@@ -3788,43 +3788,43 @@
     <t xml:space="preserve">8.05576133728027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27411460876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22911071777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60081195831299</t>
+    <t xml:space="preserve">8.27411651611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22911167144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6008129119873</t>
   </si>
   <si>
     <t xml:space="preserve">8.42162799835205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39662647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42996215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65081691741943</t>
+    <t xml:space="preserve">8.39662742614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42996311187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65081787109375</t>
   </si>
   <si>
     <t xml:space="preserve">8.63831615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7924976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67581844329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77582740783691</t>
+    <t xml:space="preserve">8.79249668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67582035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77582931518555</t>
   </si>
   <si>
     <t xml:space="preserve">8.85083675384521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81333351135254</t>
+    <t xml:space="preserve">8.81333255767822</t>
   </si>
   <si>
     <t xml:space="preserve">8.6674861907959</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">8.53830623626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35495471954346</t>
+    <t xml:space="preserve">8.35495662689209</t>
   </si>
   <si>
     <t xml:space="preserve">8.22744369506836</t>
@@ -3845,13 +3845,13 @@
     <t xml:space="preserve">8.32078647613525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19577503204346</t>
+    <t xml:space="preserve">8.19577407836914</t>
   </si>
   <si>
     <t xml:space="preserve">8.11243343353271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17743968963623</t>
+    <t xml:space="preserve">8.17743873596191</t>
   </si>
   <si>
     <t xml:space="preserve">8.04576015472412</t>
@@ -3860,37 +3860,37 @@
     <t xml:space="preserve">8.2574462890625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23077964782715</t>
+    <t xml:space="preserve">8.23077774047852</t>
   </si>
   <si>
     <t xml:space="preserve">8.08576393127441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85740947723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75239849090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72739791870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77740097045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81573867797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73739767074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67572498321533</t>
+    <t xml:space="preserve">7.85740995407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75239944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7273964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77740144729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81573915481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73739862442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67572546005249</t>
   </si>
   <si>
     <t xml:space="preserve">7.61571931838989</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50237512588501</t>
+    <t xml:space="preserve">7.50237560272217</t>
   </si>
   <si>
     <t xml:space="preserve">7.30735635757446</t>
@@ -3899,127 +3899,127 @@
     <t xml:space="preserve">7.48070669174194</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65405607223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89407968521118</t>
+    <t xml:space="preserve">7.65405702590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89407920837402</t>
   </si>
   <si>
     <t xml:space="preserve">8.05909538269043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94575119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02075672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97241973876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94408464431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92074871063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07576274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07076263427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12743473052979</t>
+    <t xml:space="preserve">7.94575071334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02075862884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97241926193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94408416748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92074775695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07576179504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908405303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07076168060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12743377685547</t>
   </si>
   <si>
     <t xml:space="preserve">8.27744960784912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45913219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35079002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34662342071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26744842529297</t>
+    <t xml:space="preserve">8.45913314819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35078907012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34662246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26744747161865</t>
   </si>
   <si>
     <t xml:space="preserve">8.42579650878906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4091272354126</t>
+    <t xml:space="preserve">8.40912818908691</t>
   </si>
   <si>
     <t xml:space="preserve">8.29245090484619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62738800048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37236309051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59905099868774</t>
+    <t xml:space="preserve">7.62738752365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37236261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5990514755249</t>
   </si>
   <si>
     <t xml:space="preserve">7.84907531738281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45903778076172</t>
+    <t xml:space="preserve">7.45903730392456</t>
   </si>
   <si>
     <t xml:space="preserve">7.49737548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67453289031982</t>
+    <t xml:space="preserve">7.67453336715698</t>
   </si>
   <si>
     <t xml:space="preserve">7.6099534034729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64486122131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58551788330078</t>
+    <t xml:space="preserve">7.64486169815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58551836013794</t>
   </si>
   <si>
     <t xml:space="preserve">7.80718421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76878595352173</t>
+    <t xml:space="preserve">7.76878547668457</t>
   </si>
   <si>
     <t xml:space="preserve">7.92412614822388</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86478233337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77751207351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78100347518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77402067184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46159410476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50872039794922</t>
+    <t xml:space="preserve">7.86478281021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.777512550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78100395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77402019500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46159505844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50871992111206</t>
   </si>
   <si>
     <t xml:space="preserve">7.70245933532715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58202648162842</t>
+    <t xml:space="preserve">7.58202695846558</t>
   </si>
   <si>
     <t xml:space="preserve">7.43890380859375</t>
@@ -4028,16 +4028,16 @@
     <t xml:space="preserve">7.47206687927246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31498050689697</t>
+    <t xml:space="preserve">7.31498098373413</t>
   </si>
   <si>
     <t xml:space="preserve">6.94320964813232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1194953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25389194488525</t>
+    <t xml:space="preserve">7.11949491500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2538914680481</t>
   </si>
   <si>
     <t xml:space="preserve">7.49475717544556</t>
@@ -4052,19 +4052,19 @@
     <t xml:space="preserve">7.06364250183105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09331512451172</t>
+    <t xml:space="preserve">7.09331464767456</t>
   </si>
   <si>
     <t xml:space="preserve">7.07760524749756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0898232460022</t>
+    <t xml:space="preserve">7.08982276916504</t>
   </si>
   <si>
     <t xml:space="preserve">7.03047943115234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12996816635132</t>
+    <t xml:space="preserve">7.12996768951416</t>
   </si>
   <si>
     <t xml:space="preserve">7.19978380203247</t>
@@ -4073,13 +4073,13 @@
     <t xml:space="preserve">7.11251354217529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23294687271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31672525405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39875936508179</t>
+    <t xml:space="preserve">7.23294639587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31672620773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39875888824463</t>
   </si>
   <si>
     <t xml:space="preserve">7.3306884765625</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">7.4423942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44937610626221</t>
+    <t xml:space="preserve">7.44937658309937</t>
   </si>
   <si>
     <t xml:space="preserve">7.38654184341431</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28879928588867</t>
+    <t xml:space="preserve">7.28879976272583</t>
   </si>
   <si>
     <t xml:space="preserve">7.15614891052246</t>
@@ -4109,31 +4109,31 @@
     <t xml:space="preserve">6.97462701797485</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08109664916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04618883132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02349853515625</t>
+    <t xml:space="preserve">7.08109712600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04618835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02349901199341</t>
   </si>
   <si>
     <t xml:space="preserve">6.86466693878174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77739667892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93448209762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88212108612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0688796043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88561153411865</t>
+    <t xml:space="preserve">6.7773962020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93448305130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88212060928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06887912750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88561105728149</t>
   </si>
   <si>
     <t xml:space="preserve">6.9641547203064</t>
@@ -4142,7 +4142,7 @@
     <t xml:space="preserve">6.98335409164429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0566611289978</t>
+    <t xml:space="preserve">7.05666160583496</t>
   </si>
   <si>
     <t xml:space="preserve">7.16487598419189</t>
@@ -4160,7 +4160,7 @@
     <t xml:space="preserve">7.21898365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25040054321289</t>
+    <t xml:space="preserve">7.25040006637573</t>
   </si>
   <si>
     <t xml:space="preserve">7.09855031967163</t>
@@ -4169,25 +4169,25 @@
     <t xml:space="preserve">7.09505987167358</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89084768295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96066331863403</t>
+    <t xml:space="preserve">6.89084815979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96066379547119</t>
   </si>
   <si>
     <t xml:space="preserve">6.81579542160034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82452297210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68314456939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79834175109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9379734992981</t>
+    <t xml:space="preserve">6.82452249526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68314504623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79834079742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93797302246094</t>
   </si>
   <si>
     <t xml:space="preserve">7.1421856880188</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">7.03920650482178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92051935195923</t>
+    <t xml:space="preserve">6.92051982879639</t>
   </si>
   <si>
     <t xml:space="preserve">6.8262677192688</t>
@@ -4214,31 +4214,31 @@
     <t xml:space="preserve">6.89782905578613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07062435150146</t>
+    <t xml:space="preserve">7.07062387466431</t>
   </si>
   <si>
     <t xml:space="preserve">7.32719802856445</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28705453872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26261758804321</t>
+    <t xml:space="preserve">7.28705406188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26261854171753</t>
   </si>
   <si>
     <t xml:space="preserve">7.19280195236206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35861539840698</t>
+    <t xml:space="preserve">7.3586163520813</t>
   </si>
   <si>
     <t xml:space="preserve">7.42668628692627</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49650192260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71642255783081</t>
+    <t xml:space="preserve">7.49650239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71642303466797</t>
   </si>
   <si>
     <t xml:space="preserve">7.65707921981812</t>
@@ -4247,16 +4247,16 @@
     <t xml:space="preserve">7.69722366333008</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71991348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67976951599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63264322280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87700033187866</t>
+    <t xml:space="preserve">7.71991300582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67976999282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.632643699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87699937820435</t>
   </si>
   <si>
     <t xml:space="preserve">8.01139545440674</t>
@@ -4265,34 +4265,34 @@
     <t xml:space="preserve">8.06026649475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975475311279</t>
+    <t xml:space="preserve">8.15975570678711</t>
   </si>
   <si>
     <t xml:space="preserve">8.51232624053955</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41109180450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46869087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50010871887207</t>
+    <t xml:space="preserve">8.41109275817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4686918258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50010776519775</t>
   </si>
   <si>
     <t xml:space="preserve">8.39887428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34127712249756</t>
+    <t xml:space="preserve">8.34127616882324</t>
   </si>
   <si>
     <t xml:space="preserve">8.38142108917236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34394836425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30469131469727</t>
+    <t xml:space="preserve">8.34394931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30469036102295</t>
   </si>
   <si>
     <t xml:space="preserve">8.39034366607666</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">8.40640258789062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37428379058838</t>
+    <t xml:space="preserve">8.37428283691406</t>
   </si>
   <si>
     <t xml:space="preserve">8.43138408660889</t>
@@ -4319,10 +4319,10 @@
     <t xml:space="preserve">8.40997123718262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33859443664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4403076171875</t>
+    <t xml:space="preserve">8.33859539031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44030666351318</t>
   </si>
   <si>
     <t xml:space="preserve">8.28863143920898</t>
@@ -4343,16 +4343,16 @@
     <t xml:space="preserve">8.02810668945312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07271671295166</t>
+    <t xml:space="preserve">8.07271766662598</t>
   </si>
   <si>
     <t xml:space="preserve">8.07985401153564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21903896331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28684711456299</t>
+    <t xml:space="preserve">8.21903800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2868480682373</t>
   </si>
   <si>
     <t xml:space="preserve">8.21725463867188</t>
@@ -4361,13 +4361,13 @@
     <t xml:space="preserve">8.22617816925049</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23688316345215</t>
+    <t xml:space="preserve">8.23688411712646</t>
   </si>
   <si>
     <t xml:space="preserve">8.16193771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25294399261475</t>
+    <t xml:space="preserve">8.25294303894043</t>
   </si>
   <si>
     <t xml:space="preserve">8.14230918884277</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">8.39748096466064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60625743865967</t>
+    <t xml:space="preserve">8.60625839233398</t>
   </si>
   <si>
     <t xml:space="preserve">8.48670196533203</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">8.57056999206543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55451011657715</t>
+    <t xml:space="preserve">8.55451107025146</t>
   </si>
   <si>
     <t xml:space="preserve">8.65443706512451</t>
@@ -4400,7 +4400,7 @@
     <t xml:space="preserve">8.68120288848877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72938442230225</t>
+    <t xml:space="preserve">8.72938346862793</t>
   </si>
   <si>
     <t xml:space="preserve">8.6740665435791</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">8.5223913192749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54915618896484</t>
+    <t xml:space="preserve">8.54915714263916</t>
   </si>
   <si>
     <t xml:space="preserve">8.5901985168457</t>
@@ -4424,19 +4424,19 @@
     <t xml:space="preserve">8.72224521636963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69369602203369</t>
+    <t xml:space="preserve">8.69369506835938</t>
   </si>
   <si>
     <t xml:space="preserve">8.73116779327393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7579345703125</t>
+    <t xml:space="preserve">8.75793361663818</t>
   </si>
   <si>
     <t xml:space="preserve">9.09162044525146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99347686767578</t>
+    <t xml:space="preserve">8.9934778213501</t>
   </si>
   <si>
     <t xml:space="preserve">9.00239944458008</t>
@@ -4454,10 +4454,10 @@
     <t xml:space="preserve">9.09608173370361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04700946807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12730884552002</t>
+    <t xml:space="preserve">9.04701042175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1273078918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.12284851074219</t>
@@ -4469,7 +4469,7 @@
     <t xml:space="preserve">8.9024715423584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79362201690674</t>
+    <t xml:space="preserve">8.79362297058105</t>
   </si>
   <si>
     <t xml:space="preserve">8.918532371521</t>
@@ -4487,7 +4487,7 @@
     <t xml:space="preserve">9.03808784484863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20314598083496</t>
+    <t xml:space="preserve">9.20314693450928</t>
   </si>
   <si>
     <t xml:space="preserve">9.1451530456543</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">9.11838626861572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05593109130859</t>
+    <t xml:space="preserve">9.05593204498291</t>
   </si>
   <si>
     <t xml:space="preserve">8.91139316558838</t>
@@ -4535,10 +4535,10 @@
     <t xml:space="preserve">8.48848628997803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39569568634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32075119018555</t>
+    <t xml:space="preserve">8.39569664001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32075023651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.14944648742676</t>
@@ -4547,10 +4547,10 @@
     <t xml:space="preserve">8.24580478668213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34216403961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37785339355469</t>
+    <t xml:space="preserve">8.34216499328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37785243988037</t>
   </si>
   <si>
     <t xml:space="preserve">8.51525211334229</t>
@@ -4559,16 +4559,16 @@
     <t xml:space="preserve">8.38677501678467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44387531280518</t>
+    <t xml:space="preserve">8.44387626647949</t>
   </si>
   <si>
     <t xml:space="preserve">8.53309726715088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44922924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54737281799316</t>
+    <t xml:space="preserve">8.4492301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54737186431885</t>
   </si>
   <si>
     <t xml:space="preserve">8.46528911590576</t>
@@ -4577,13 +4577,13 @@
     <t xml:space="preserve">8.40283489227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49740886688232</t>
+    <t xml:space="preserve">8.49740982055664</t>
   </si>
   <si>
     <t xml:space="preserve">8.21011638641357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.283278465271</t>
+    <t xml:space="preserve">8.28327941894531</t>
   </si>
   <si>
     <t xml:space="preserve">8.19227313995361</t>
@@ -4595,10 +4595,10 @@
     <t xml:space="preserve">8.49562454223633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58484554290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47956466674805</t>
+    <t xml:space="preserve">8.5848445892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47956371307373</t>
   </si>
   <si>
     <t xml:space="preserve">8.56878566741943</t>
@@ -4613,7 +4613,7 @@
     <t xml:space="preserve">8.64373111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61518001556396</t>
+    <t xml:space="preserve">8.61518096923828</t>
   </si>
   <si>
     <t xml:space="preserve">8.85964584350586</t>
@@ -4622,16 +4622,16 @@
     <t xml:space="preserve">8.8346643447876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63480854034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74008846282959</t>
+    <t xml:space="preserve">8.63480949401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74008941650391</t>
   </si>
   <si>
     <t xml:space="preserve">8.71689224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65086936950684</t>
+    <t xml:space="preserve">8.65086841583252</t>
   </si>
   <si>
     <t xml:space="preserve">8.70797061920166</t>
@@ -5340,6 +5340,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.1049995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2200002670288</t>
   </si>
 </sst>
 </file>
@@ -62257,7 +62260,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6493055556</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>947261</v>
@@ -62278,6 +62281,32 @@
         <v>1770</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.649375</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>1380753</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>12.2700004577637</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>12.1149997711182</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>12.1149997711182</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>12.2200002670288</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1780">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,70 +38,70 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16899251937866</t>
+    <t xml:space="preserve">4.1689920425415</t>
   </si>
   <si>
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30965423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24381160736084</t>
+    <t xml:space="preserve">4.30965375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24381303787231</t>
   </si>
   <si>
     <t xml:space="preserve">4.21986961364746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18096351623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14205694198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24081945419312</t>
+    <t xml:space="preserve">4.18096303939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14205598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24081897735596</t>
   </si>
   <si>
     <t xml:space="preserve">4.29169797897339</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26775503158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21388387680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08818626403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01037216186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78890347480774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93555188179016</t>
+    <t xml:space="preserve">4.26775455474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2138843536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08818674087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01037263870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78890490531921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93555235862732</t>
   </si>
   <si>
     <t xml:space="preserve">3.98643016815186</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90263104438782</t>
+    <t xml:space="preserve">3.90263080596924</t>
   </si>
   <si>
     <t xml:space="preserve">4.01635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06723546981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98343706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08519315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97445893287659</t>
+    <t xml:space="preserve">4.06723642349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98343777656555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08519268035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97445845603943</t>
   </si>
   <si>
     <t xml:space="preserve">3.89066028594971</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">3.77094721794128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58239984512329</t>
+    <t xml:space="preserve">3.58240008354187</t>
   </si>
   <si>
     <t xml:space="preserve">3.20829844474792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09457087516785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38487458229065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23822546005249</t>
+    <t xml:space="preserve">3.094571352005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38487434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23822569847107</t>
   </si>
   <si>
     <t xml:space="preserve">3.2501974105835</t>
@@ -131,34 +131,34 @@
     <t xml:space="preserve">3.34896016120911</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33399701118469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46867299079895</t>
+    <t xml:space="preserve">3.33399605751038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46867275238037</t>
   </si>
   <si>
     <t xml:space="preserve">3.4537091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52852964401245</t>
+    <t xml:space="preserve">3.52852940559387</t>
   </si>
   <si>
     <t xml:space="preserve">3.65422797203064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57342100143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53750777244568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63926267623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69014143943787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75299048423767</t>
+    <t xml:space="preserve">3.57342147827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53750801086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63926339149475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69014120101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75299119949341</t>
   </si>
   <si>
     <t xml:space="preserve">3.72006988525391</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">3.6871485710144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7110903263092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66919183731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69313430786133</t>
+    <t xml:space="preserve">3.71109127998352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66919231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69313478469849</t>
   </si>
   <si>
     <t xml:space="preserve">3.66619825363159</t>
@@ -182,10 +182,10 @@
     <t xml:space="preserve">3.85773897171021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88467454910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88168215751648</t>
+    <t xml:space="preserve">3.8846743106842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88168120384216</t>
   </si>
   <si>
     <t xml:space="preserve">3.85175371170044</t>
@@ -194,130 +194,130 @@
     <t xml:space="preserve">3.83080363273621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84576797485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92058873176575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05227279663086</t>
+    <t xml:space="preserve">3.84576749801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92058920860291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0522723197937</t>
   </si>
   <si>
     <t xml:space="preserve">4.03431510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9654803276062</t>
+    <t xml:space="preserve">3.96548008918762</t>
   </si>
   <si>
     <t xml:space="preserve">4.04030084609985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98044562339783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92657351493835</t>
+    <t xml:space="preserve">3.98044443130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9265730381012</t>
   </si>
   <si>
     <t xml:space="preserve">3.86073136329651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74999761581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80985379219055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8278112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84876084327698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86671757698059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95051622390747</t>
+    <t xml:space="preserve">3.74999737739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80985450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82781100273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84876108169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86671710014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95051717758179</t>
   </si>
   <si>
     <t xml:space="preserve">3.87868857383728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87569570541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90562415122986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87270307540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92358040809631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92956686019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99840092658997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0492787361145</t>
+    <t xml:space="preserve">3.87569642066956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90562343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87270331382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92358136177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92956709861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99840044975281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04927921295166</t>
   </si>
   <si>
     <t xml:space="preserve">4.05825757980347</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99241614341736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93255996704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02234315872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05526447296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03132200241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01336574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04329395294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93854546546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04628658294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00139427185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117937088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09716463088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06424427032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12110662460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11811351776123</t>
+    <t xml:space="preserve">3.99241590499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93255972862244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02234411239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05526494979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03132295608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01336479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04329347610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93854475021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04628610610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00139379501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09117889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09716367721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06424331665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12110710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11811494827271</t>
   </si>
   <si>
     <t xml:space="preserve">4.13008499145508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10614347457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11512136459351</t>
+    <t xml:space="preserve">4.10614252090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11512088775635</t>
   </si>
   <si>
     <t xml:space="preserve">4.18994140625</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">4.19891977310181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10015678405762</t>
+    <t xml:space="preserve">4.10015630722046</t>
   </si>
   <si>
     <t xml:space="preserve">4.03730821609497</t>
@@ -335,250 +335,250 @@
     <t xml:space="preserve">4.01935148239136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13906240463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23349046707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17998170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17053890228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21775245666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88410997390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65433669090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75191211700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74561667442322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8494861125946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76450181007385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67007422447205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62915563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60082793235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7361741065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90614342689514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89670038223267</t>
+    <t xml:space="preserve">4.13906383514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23349094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17998266220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17053985595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21775388717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88411068916321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65433645248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75191140174866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74561619758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84948658943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76450204849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67007446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62915587425232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60082769393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73617434501648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90614295005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89670014381409</t>
   </si>
   <si>
     <t xml:space="preserve">3.98798012733459</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91873359680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9218807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89984774589539</t>
+    <t xml:space="preserve">3.91873335838318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188119888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89984846115112</t>
   </si>
   <si>
     <t xml:space="preserve">3.95965147018433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94706130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90299534797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89355230331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84633898735046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82745313644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76764941215515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06037378311157</t>
+    <t xml:space="preserve">3.94706153869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90299558639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89355254173279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84633922576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82745385169983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76764965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06037330627441</t>
   </si>
   <si>
     <t xml:space="preserve">4.0383415222168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06666803359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07296466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1296215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14221143722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05722713470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9753897190094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01630878448486</t>
+    <t xml:space="preserve">4.06666946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07296419143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12962102890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14221096038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05722665786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97538924217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01630830764771</t>
   </si>
   <si>
     <t xml:space="preserve">3.91558575630188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93132305145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99742269515991</t>
+    <t xml:space="preserve">3.93132328987122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99742341041565</t>
   </si>
   <si>
     <t xml:space="preserve">3.95335745811462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90929055213928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92817640304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87152004241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94391369819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93447160720825</t>
+    <t xml:space="preserve">3.90929102897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92817568778992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87152028083801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94391393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93447113037109</t>
   </si>
   <si>
     <t xml:space="preserve">3.95650482177734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96909475326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0320463180542</t>
+    <t xml:space="preserve">3.96909427642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03204679489136</t>
   </si>
   <si>
     <t xml:space="preserve">4.019455909729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80542087554932</t>
+    <t xml:space="preserve">3.8054211139679</t>
   </si>
   <si>
     <t xml:space="preserve">3.86207699775696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85892963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82430648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84319138526917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85263419151306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83060073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82115864753723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81486320495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79912519454956</t>
+    <t xml:space="preserve">3.85892939567566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82430553436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8431921005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85263466835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83060121536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82115888595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81486392021179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7991247177124</t>
   </si>
   <si>
     <t xml:space="preserve">3.80227327346802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7393217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7865355014801</t>
+    <t xml:space="preserve">3.73932147026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78653478622437</t>
   </si>
   <si>
     <t xml:space="preserve">3.80856847763062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75505924224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81801128387451</t>
+    <t xml:space="preserve">3.75505995750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81801104545593</t>
   </si>
   <si>
     <t xml:space="preserve">3.89040422439575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86837148666382</t>
+    <t xml:space="preserve">3.86837196350098</t>
   </si>
   <si>
     <t xml:space="preserve">3.74876427650452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72673082351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7582061290741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79283022880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338837623596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77079725265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76135420799255</t>
+    <t xml:space="preserve">3.72673058509827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75820660591125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79282975196838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7833878993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77079796791077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76135468482971</t>
   </si>
   <si>
     <t xml:space="preserve">3.71414065361023</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67322278022766</t>
+    <t xml:space="preserve">3.67322254180908</t>
   </si>
   <si>
     <t xml:space="preserve">3.59453272819519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55676174163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55046629905701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54417181015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53472852706909</t>
+    <t xml:space="preserve">3.55676198005676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55046677589417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54417157173157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53472971916199</t>
   </si>
   <si>
     <t xml:space="preserve">3.48751497268677</t>
@@ -587,10 +587,10 @@
     <t xml:space="preserve">3.62600898742676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69210743904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69525551795959</t>
+    <t xml:space="preserve">3.69210720062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69525504112244</t>
   </si>
   <si>
     <t xml:space="preserve">3.68581247329712</t>
@@ -599,37 +599,37 @@
     <t xml:space="preserve">3.9848325252533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00057029724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112820625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98168444633484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03519344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99427437782288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0288987159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04778385162354</t>
+    <t xml:space="preserve">4.00057125091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112844467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98168420791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03519439697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99427485466003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02889776229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04778432846069</t>
   </si>
   <si>
     <t xml:space="preserve">4.02260303497314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96594715118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88096237182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84004378318787</t>
+    <t xml:space="preserve">3.9659469127655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88096165657043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84004330635071</t>
   </si>
   <si>
     <t xml:space="preserve">3.81171560287476</t>
@@ -638,58 +638,58 @@
     <t xml:space="preserve">3.83689570426941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68266487121582</t>
+    <t xml:space="preserve">3.68266463279724</t>
   </si>
   <si>
     <t xml:space="preserve">3.66063213348389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67951726913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77709269523621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77394509315491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83374905586243</t>
+    <t xml:space="preserve">3.67951798439026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77709245681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77394461631775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83374834060669</t>
   </si>
   <si>
     <t xml:space="preserve">3.95020985603333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07611179351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06352186203003</t>
+    <t xml:space="preserve">4.07611227035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06352138519287</t>
   </si>
   <si>
     <t xml:space="preserve">4.05407953262329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01315975189209</t>
+    <t xml:space="preserve">4.01316070556641</t>
   </si>
   <si>
     <t xml:space="preserve">4.08870315551758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05093193054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9250283241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96279907226562</t>
+    <t xml:space="preserve">4.05093145370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92502784729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96279883384705</t>
   </si>
   <si>
     <t xml:space="preserve">4.00371789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02575016021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93761897087097</t>
+    <t xml:space="preserve">4.02575063705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93761873245239</t>
   </si>
   <si>
     <t xml:space="preserve">4.00686502456665</t>
@@ -698,55 +698,55 @@
     <t xml:space="preserve">4.09185028076172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10444021224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97224140167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94076609611511</t>
+    <t xml:space="preserve">4.10444068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9722421169281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94076657295227</t>
   </si>
   <si>
     <t xml:space="preserve">4.06981706619263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07926082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04576826095581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05916500091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07256078720093</t>
+    <t xml:space="preserve">4.07925987243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04576873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05916547775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07256174087524</t>
   </si>
   <si>
     <t xml:space="preserve">4.01227760314941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01897573471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03237199783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99218249320984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07926034927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04241895675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01562547683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0223240852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99887943267822</t>
+    <t xml:space="preserve">4.01897525787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03237152099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99218153953552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07925939559937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04241847991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01562595367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02232456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99887990951538</t>
   </si>
   <si>
     <t xml:space="preserve">3.98213458061218</t>
@@ -755,31 +755,31 @@
     <t xml:space="preserve">4.05246686935425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0625147819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10270357131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08260869979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06586313247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05581617355347</t>
+    <t xml:space="preserve">4.06251430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10270404815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08260822296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06586360931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05581569671631</t>
   </si>
   <si>
     <t xml:space="preserve">4.00557851791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99553155899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03572082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1797342300415</t>
+    <t xml:space="preserve">3.99553179740906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03572034835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17973375320435</t>
   </si>
   <si>
     <t xml:space="preserve">4.19313097000122</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">4.21322536468506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15629053115845</t>
+    <t xml:space="preserve">4.15629005432129</t>
   </si>
   <si>
     <t xml:space="preserve">4.16633749008179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16968631744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.209876537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09265613555908</t>
+    <t xml:space="preserve">4.16968679428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20987701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09265661239624</t>
   </si>
   <si>
     <t xml:space="preserve">4.1060528755188</t>
@@ -812,34 +812,34 @@
     <t xml:space="preserve">4.17303609848022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11944961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09935426712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08930730819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11609983444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07591009140015</t>
+    <t xml:space="preserve">4.11945009231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09935522079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08930778503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1161003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0759105682373</t>
   </si>
   <si>
     <t xml:space="preserve">4.12279844284058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18643283843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15963935852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14959192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15294075012207</t>
+    <t xml:space="preserve">4.18643236160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15963983535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14959239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15294122695923</t>
   </si>
   <si>
     <t xml:space="preserve">4.12614774703979</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">4.14289331436157</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11275148391724</t>
+    <t xml:space="preserve">4.11275196075439</t>
   </si>
   <si>
     <t xml:space="preserve">4.13619565963745</t>
@@ -857,169 +857,169 @@
     <t xml:space="preserve">4.19647979736328</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12949752807617</t>
+    <t xml:space="preserve">4.1294960975647</t>
   </si>
   <si>
     <t xml:space="preserve">4.20317888259888</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21657466888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19982862472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20652770996094</t>
+    <t xml:space="preserve">4.21657419204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1998291015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2065281867981</t>
   </si>
   <si>
     <t xml:space="preserve">4.189781665802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10940170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09600496292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0859580039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26346206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2936053276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26681232452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25341463088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24001932144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25676441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27016067504883</t>
+    <t xml:space="preserve">4.10940217971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0960054397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08595752716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26346254348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29360580444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26681137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25341606140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24001884460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25676536560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27016115188599</t>
   </si>
   <si>
     <t xml:space="preserve">4.29025650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3070011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32039833068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33379507064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3137001991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34719181060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38068294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37733316421509</t>
+    <t xml:space="preserve">4.30700206756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32039737701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33379459381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31370067596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34719133377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38068246841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37733364105225</t>
   </si>
   <si>
     <t xml:space="preserve">4.40747594833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5046010017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5012526512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48450660705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45436429977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47110986709595</t>
+    <t xml:space="preserve">4.50460147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50125169754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48450613021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45436382293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47111034393311</t>
   </si>
   <si>
     <t xml:space="preserve">4.48115730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45570373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43694877624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46374082565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41015577316284</t>
+    <t xml:space="preserve">4.45570421218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4369478225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46374177932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41015529632568</t>
   </si>
   <si>
     <t xml:space="preserve">4.41953277587891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28690671920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40077781677246</t>
+    <t xml:space="preserve">4.28690624237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40077829360962</t>
   </si>
   <si>
     <t xml:space="preserve">4.31771945953369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31101989746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32977628707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37264537811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40881538391113</t>
+    <t xml:space="preserve">4.31102085113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3297758102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37264490127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40881490707397</t>
   </si>
   <si>
     <t xml:space="preserve">4.45838260650635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46508073806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54144144058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52804613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49187469482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49589395523071</t>
+    <t xml:space="preserve">4.46508121490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54144239425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52804517745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49187517166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49589347839355</t>
   </si>
   <si>
     <t xml:space="preserve">4.45704317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71559715270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73033428192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70086097717285</t>
+    <t xml:space="preserve">4.71559762954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73033380508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70086050033569</t>
   </si>
   <si>
     <t xml:space="preserve">4.59904766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62852001190186</t>
+    <t xml:space="preserve">4.6285195350647</t>
   </si>
   <si>
     <t xml:space="preserve">4.6673698425293</t>
@@ -1028,136 +1028,136 @@
     <t xml:space="preserve">4.79061841964722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91252708435059</t>
+    <t xml:space="preserve">4.91252756118774</t>
   </si>
   <si>
     <t xml:space="preserve">4.88707399368286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97013330459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86296033859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7999963760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87635612487793</t>
+    <t xml:space="preserve">4.97013282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86296081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79999589920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87635564804077</t>
   </si>
   <si>
     <t xml:space="preserve">4.95271682739258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91520690917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94869756698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93932008743286</t>
+    <t xml:space="preserve">4.91520547866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94869804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93932056427002</t>
   </si>
   <si>
     <t xml:space="preserve">4.8937726020813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85358190536499</t>
+    <t xml:space="preserve">4.85358238220215</t>
   </si>
   <si>
     <t xml:space="preserve">4.8361668586731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85224294662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92726278305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93664073944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97415161132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05721044540405</t>
+    <t xml:space="preserve">4.85224199295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92726373672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93664026260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97415208816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05721092224121</t>
   </si>
   <si>
     <t xml:space="preserve">5.05185174942017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09070158004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14696788787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13892936706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14294910430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14026880264282</t>
+    <t xml:space="preserve">5.09070205688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1469669342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13892889022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14294767379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14026927947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.17108106613159</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21796894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18581676483154</t>
+    <t xml:space="preserve">5.21796989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18581771850586</t>
   </si>
   <si>
     <t xml:space="preserve">5.19653463363647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27155542373657</t>
+    <t xml:space="preserve">5.27155590057373</t>
   </si>
   <si>
     <t xml:space="preserve">5.27691459655762</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29968881607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31040620803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33987808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4296350479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4148998260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40552139282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46178770065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43633365631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41088056564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45910739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5046558380127</t>
+    <t xml:space="preserve">5.2996883392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31040573120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33987855911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42963552474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41489887237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40552091598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46178722381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43633317947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41088008880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45910787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50465631484985</t>
   </si>
   <si>
     <t xml:space="preserve">5.29834842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28629159927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10409784317017</t>
+    <t xml:space="preserve">5.28629207611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10409832000732</t>
   </si>
   <si>
     <t xml:space="preserve">5.11481523513794</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">5.16170406341553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08266401290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91922569274902</t>
+    <t xml:space="preserve">5.08266353607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91922521591187</t>
   </si>
   <si>
     <t xml:space="preserve">4.69818210601807</t>
@@ -1184,19 +1184,19 @@
     <t xml:space="preserve">4.89511203765869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90582895278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0036244392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03175592422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89913082122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89645147323608</t>
+    <t xml:space="preserve">4.90582799911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00362396240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03175687789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89913034439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89645099639893</t>
   </si>
   <si>
     <t xml:space="preserve">4.87769651412964</t>
@@ -1208,127 +1208,127 @@
     <t xml:space="preserve">4.92860317230225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02237939834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11749505996704</t>
+    <t xml:space="preserve">5.02237892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11749458312988</t>
   </si>
   <si>
     <t xml:space="preserve">5.23806428909302</t>
   </si>
   <si>
+    <t xml:space="preserve">5.11079692840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19018793106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24264192581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26674318313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20152807235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20719957351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13915061950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16325187683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08953094482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08244323730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13347959518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14623975753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26816177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30927467346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35889387130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30218553543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3801589012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36740016937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44537401199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50208044052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53185224533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46805572509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48223352432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4652214050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4751443862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56445980072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58856010437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61266136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64668560028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63817930221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33337497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27950191497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26248979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19869422912598</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1107964515686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19018745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24264144897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26674270629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20152902603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.207200050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13915061950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16325092315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08953094482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08244180679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13348007202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14623880386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26816129684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3092737197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35889291763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30218553543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3801589012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36740016937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44537353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50208139419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53185272216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46805667877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48223304748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46522092819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4751443862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56445980072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58856010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61266088485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64668560028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63817930221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33337545394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27950191497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26249074935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19869375228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11079692840576</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.03565883636475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01439332962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06684827804565</t>
+    <t xml:space="preserve">5.01439380645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0668478012085</t>
   </si>
   <si>
     <t xml:space="preserve">4.91657209396362</t>
@@ -1337,25 +1337,25 @@
     <t xml:space="preserve">4.85561084747314</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77905511856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.930748462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83434677124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81591558456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80740976333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78897905349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81024503707886</t>
+    <t xml:space="preserve">4.77905607223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93074893951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83434581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81591606140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80740928649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78897953033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8102445602417</t>
   </si>
   <si>
     <t xml:space="preserve">4.7478666305542</t>
@@ -1367,73 +1367,73 @@
     <t xml:space="preserve">4.78047323226929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90664863586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00163459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9704442024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99029159545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10512590408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07818984985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99879837036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87120532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89955997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94634437561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92224264144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90948390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97611474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01722812652588</t>
+    <t xml:space="preserve">4.9066481590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00163412094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97044515609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99029207229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10512638092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07818937301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99879884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87120580673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89955949783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94634389877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92224216461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90948438644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97611570358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0172290802002</t>
   </si>
   <si>
     <t xml:space="preserve">5.0413293838501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10087299346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13064384460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09662008285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87829351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82583904266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73936033248901</t>
+    <t xml:space="preserve">5.10087251663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13064336776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09661960601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87829446792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82583999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7393593788147</t>
   </si>
   <si>
     <t xml:space="preserve">4.74928379058838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75353622436523</t>
+    <t xml:space="preserve">4.75353765487671</t>
   </si>
   <si>
     <t xml:space="preserve">4.67839908599854</t>
@@ -1442,34 +1442,34 @@
     <t xml:space="preserve">4.50544023513794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52954006195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5749077796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44873237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42888498306274</t>
+    <t xml:space="preserve">4.52954053878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57490730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44873189926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4288854598999</t>
   </si>
   <si>
     <t xml:space="preserve">4.4458966255188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51961755752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46290969848633</t>
+    <t xml:space="preserve">4.51961708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46290922164917</t>
   </si>
   <si>
     <t xml:space="preserve">4.3381519317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4444785118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42037773132324</t>
+    <t xml:space="preserve">4.44447946548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42037868499756</t>
   </si>
   <si>
     <t xml:space="preserve">4.43030166625977</t>
@@ -1478,91 +1478,91 @@
     <t xml:space="preserve">4.25167274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34382247924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34807586669922</t>
+    <t xml:space="preserve">4.34382295608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34807538986206</t>
   </si>
   <si>
     <t xml:space="preserve">4.48559236526489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38635349273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50118684768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64437437057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68123435974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61602020263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58624935150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73794221878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83718061447144</t>
+    <t xml:space="preserve">4.38635396957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50118732452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64437389373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68123483657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61602115631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58624839782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73794269561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83718109130859</t>
   </si>
   <si>
     <t xml:space="preserve">4.86978769302368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87971305847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88254690170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72660064697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60751390457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61885595321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64579200744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51819944381714</t>
+    <t xml:space="preserve">4.87971115112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88254737854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72660112380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60751438140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61885499954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64579153060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51819896697998</t>
   </si>
   <si>
     <t xml:space="preserve">4.66705751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64295625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8485221862793</t>
+    <t xml:space="preserve">4.64295673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84852266311646</t>
   </si>
   <si>
     <t xml:space="preserve">4.82300424575806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75070238113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75212001800537</t>
+    <t xml:space="preserve">4.75070095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75211954116821</t>
   </si>
   <si>
     <t xml:space="preserve">4.86695289611816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82867527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8924708366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63444995880127</t>
+    <t xml:space="preserve">4.82867479324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89247131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63445091247559</t>
   </si>
   <si>
     <t xml:space="preserve">4.65713357925415</t>
@@ -1571,82 +1571,82 @@
     <t xml:space="preserve">4.60326099395752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64862775802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83576345443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91231966018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88821744918823</t>
+    <t xml:space="preserve">4.64862728118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8357629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91231870651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88821840286255</t>
   </si>
   <si>
     <t xml:space="preserve">4.8811297416687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03849411010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96902751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89672374725342</t>
+    <t xml:space="preserve">5.03849458694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96902656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89672470092773</t>
   </si>
   <si>
     <t xml:space="preserve">4.84285163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95059728622437</t>
+    <t xml:space="preserve">4.95059680938721</t>
   </si>
   <si>
     <t xml:space="preserve">4.94067287445068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96051979064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02148151397705</t>
+    <t xml:space="preserve">4.96052074432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02148199081421</t>
   </si>
   <si>
     <t xml:space="preserve">4.98745632171631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03707647323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10370779037476</t>
+    <t xml:space="preserve">5.03707551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10370826721191</t>
   </si>
   <si>
     <t xml:space="preserve">5.11646747589111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14056777954102</t>
+    <t xml:space="preserve">5.14056825637817</t>
   </si>
   <si>
     <t xml:space="preserve">5.11788511276245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21287059783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2454776763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37732362747192</t>
+    <t xml:space="preserve">5.21287107467651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24547815322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37732410430908</t>
   </si>
   <si>
     <t xml:space="preserve">5.38724756240845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33620929718018</t>
+    <t xml:space="preserve">5.33620977401733</t>
   </si>
   <si>
     <t xml:space="preserve">5.38582944869995</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39858913421631</t>
+    <t xml:space="preserve">5.39858961105347</t>
   </si>
   <si>
     <t xml:space="preserve">5.45246124267578</t>
@@ -1661,31 +1661,31 @@
     <t xml:space="preserve">5.32628631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2086181640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33053874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41843605041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44820785522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2837553024292</t>
+    <t xml:space="preserve">5.20861721038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33053970336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41843700408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44820833206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28375577926636</t>
   </si>
   <si>
     <t xml:space="preserve">5.30076742172241</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36456441879272</t>
+    <t xml:space="preserve">5.36456394195557</t>
   </si>
   <si>
     <t xml:space="preserve">5.44395542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49924468994141</t>
+    <t xml:space="preserve">5.49924564361572</t>
   </si>
   <si>
     <t xml:space="preserve">5.43403100967407</t>
@@ -1700,67 +1700,67 @@
     <t xml:space="preserve">5.49357461929321</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47797966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51625776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53894138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59848356246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59990215301514</t>
+    <t xml:space="preserve">5.47798013687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51625823974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53894090652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59848403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59990167617798</t>
   </si>
   <si>
     <t xml:space="preserve">5.62116718292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62542057037354</t>
+    <t xml:space="preserve">5.62542009353638</t>
   </si>
   <si>
     <t xml:space="preserve">5.59423112869263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61974954605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6310920715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63392686843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53752326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60132026672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62825584411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64243268966675</t>
+    <t xml:space="preserve">5.61975002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63109111785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63392639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53752374649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60131931304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62825632095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64243221282959</t>
   </si>
   <si>
     <t xml:space="preserve">5.66511583328247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72749423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77711296081543</t>
+    <t xml:space="preserve">5.72749471664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77711391448975</t>
   </si>
   <si>
     <t xml:space="preserve">5.92597150802612</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9826807975769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12303113937378</t>
+    <t xml:space="preserve">5.98267984390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1230320930481</t>
   </si>
   <si>
     <t xml:space="preserve">6.06774187088013</t>
@@ -1769,25 +1769,25 @@
     <t xml:space="preserve">6.08900737762451</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11310768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11452579498291</t>
+    <t xml:space="preserve">6.11310815811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11452722549438</t>
   </si>
   <si>
     <t xml:space="preserve">6.09326028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14713382720947</t>
+    <t xml:space="preserve">6.14713144302368</t>
   </si>
   <si>
     <t xml:space="preserve">6.13153743743896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14996767044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19958782196045</t>
+    <t xml:space="preserve">6.14996862411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19958829879761</t>
   </si>
   <si>
     <t xml:space="preserve">6.19533395767212</t>
@@ -1799,55 +1799,55 @@
     <t xml:space="preserve">6.32576274871826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34844636917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33852291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37254619598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3612060546875</t>
+    <t xml:space="preserve">6.34844589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33852195739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3725471496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36120367050171</t>
   </si>
   <si>
     <t xml:space="preserve">6.42925405502319</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38105297088623</t>
+    <t xml:space="preserve">6.38105249404907</t>
   </si>
   <si>
     <t xml:space="preserve">6.74540138244629</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74823713302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70712280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56535387039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53841686248779</t>
+    <t xml:space="preserve">6.74823617935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70712232589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56535339355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53841781616211</t>
   </si>
   <si>
     <t xml:space="preserve">6.55826473236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64474487304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74114608764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69152784347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62631511688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67593431472778</t>
+    <t xml:space="preserve">6.64474391937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74114894866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69152879714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62631368637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67593383789062</t>
   </si>
   <si>
     <t xml:space="preserve">6.46469640731812</t>
@@ -1856,217 +1856,217 @@
     <t xml:space="preserve">6.38530588150024</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37963581085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30591440200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50014066696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45902633666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54266977310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39664745330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45335531234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49446868896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21518230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32292795181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30733251571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25771331787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22510528564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16698026657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17974042892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33710336685181</t>
+    <t xml:space="preserve">6.37963533401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30591487884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5001392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45902729034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54267024993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39664840698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45335578918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49446821212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21518278121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32292747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30733203887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25771427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22510576248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1669807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1797399520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33710384368896</t>
   </si>
   <si>
     <t xml:space="preserve">6.29315567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32717943191528</t>
+    <t xml:space="preserve">6.32717990875244</t>
   </si>
   <si>
     <t xml:space="preserve">6.45193767547607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51289844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54408884048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56960678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53558254241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58520126342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64332675933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74398279190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86365509033203</t>
+    <t xml:space="preserve">6.51289796829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54408836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5696063041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53558206558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58520174026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64332628250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74398231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86365461349487</t>
   </si>
   <si>
     <t xml:space="preserve">6.81608390808105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78783750534058</t>
+    <t xml:space="preserve">6.78783845901489</t>
   </si>
   <si>
     <t xml:space="preserve">6.79378461837769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88297986984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87108850479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03610134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20260190963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24719858169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22044086456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21003437042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17584276199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24571323394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17435550689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17881488800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14759635925293</t>
+    <t xml:space="preserve">6.88298034667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87108898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0361008644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20260095596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24719905853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22044038772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21003293991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17584133148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2457127571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17435598373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17881536483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14759683609009</t>
   </si>
   <si>
     <t xml:space="preserve">7.12529706954956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11043214797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98704195022583</t>
+    <t xml:space="preserve">7.11042976379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98704290390015</t>
   </si>
   <si>
     <t xml:space="preserve">7.01826190948486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97366285324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04204750061035</t>
+    <t xml:space="preserve">6.97366333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04204607009888</t>
   </si>
   <si>
     <t xml:space="preserve">6.99150323867798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12678384780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94095849990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18030118942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25165796279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16692161560059</t>
+    <t xml:space="preserve">7.12678527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94095706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18030261993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25165843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16692399978638</t>
   </si>
   <si>
     <t xml:space="preserve">7.05245351791382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04799461364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16394948959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68526172637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7640528678894</t>
+    <t xml:space="preserve">7.0479941368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16394853591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68526220321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76405191421509</t>
   </si>
   <si>
     <t xml:space="preserve">6.9201455116272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79675674438477</t>
+    <t xml:space="preserve">6.79675769805908</t>
   </si>
   <si>
     <t xml:space="preserve">7.06137371063232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01231622695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20854663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.183274269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00190877914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05988740921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98555660247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31409692764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26355218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34085607528687</t>
+    <t xml:space="preserve">7.01231527328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20854711532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18327379226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0019097328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05988597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98555612564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31409597396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26355171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34085464477539</t>
   </si>
   <si>
     <t xml:space="preserve">7.35869407653809</t>
@@ -2075,37 +2075,37 @@
     <t xml:space="preserve">7.49992179870605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47018957138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48877239227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4924898147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36612796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39586067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5259370803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57053565979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47762441635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41369676589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55195331573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56681823730469</t>
+    <t xml:space="preserve">7.47019052505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48877286911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49248743057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36612749099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39585876464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52593803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5705361366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47762250900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41369771957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55195283889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.566819190979</t>
   </si>
   <si>
     <t xml:space="preserve">7.48133850097656</t>
@@ -2117,55 +2117,55 @@
     <t xml:space="preserve">7.59283494949341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58911848068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62628507614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75264358520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6448655128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40626621246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42261838912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41815853118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63000059127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52965450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61884927749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86413908004761</t>
+    <t xml:space="preserve">7.58911895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62628269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75264596939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64486598968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4062647819519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42261934280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41815757751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52965402603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61885070800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86414003372192</t>
   </si>
   <si>
     <t xml:space="preserve">7.87528991699219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98306846618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86785650253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95705413818359</t>
+    <t xml:space="preserve">7.98306798934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8678560256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95705270767212</t>
   </si>
   <si>
     <t xml:space="preserve">8.00164985656738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02766704559326</t>
+    <t xml:space="preserve">8.02766609191895</t>
   </si>
   <si>
     <t xml:space="preserve">8.12057971954346</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">8.13916110992432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1688928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07226467132568</t>
+    <t xml:space="preserve">8.16889381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07226371765137</t>
   </si>
   <si>
     <t xml:space="preserve">8.10943031311035</t>
@@ -2189,139 +2189,139 @@
     <t xml:space="preserve">8.08713054656982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19862651824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24694156646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30268859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17261028289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05739879608154</t>
+    <t xml:space="preserve">8.19862461090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24694061279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30268955230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17261123657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05739784240723</t>
   </si>
   <si>
     <t xml:space="preserve">8.15402793884277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32870483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26180744171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2803897857666</t>
+    <t xml:space="preserve">8.32870388031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26180648803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28038787841797</t>
   </si>
   <si>
     <t xml:space="preserve">8.29525566101074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33972358703613</t>
+    <t xml:space="preserve">8.33972549438477</t>
   </si>
   <si>
     <t xml:space="preserve">8.19652080535889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27189159393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17014217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23797607421875</t>
+    <t xml:space="preserve">8.27188968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17014026641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2379732131958</t>
   </si>
   <si>
     <t xml:space="preserve">8.26058483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18521499633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13245677947998</t>
+    <t xml:space="preserve">8.18521404266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13245582580566</t>
   </si>
   <si>
     <t xml:space="preserve">8.01563262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98171663284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72168827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80459451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90634489059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76314258575439</t>
+    <t xml:space="preserve">7.9817156791687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72168684005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80459499359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90634393692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76314067840576</t>
   </si>
   <si>
     <t xml:space="preserve">7.77444696426392</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6764669418335</t>
+    <t xml:space="preserve">7.67646598815918</t>
   </si>
   <si>
     <t xml:space="preserve">7.78575277328491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6990761756897</t>
+    <t xml:space="preserve">7.69907712936401</t>
   </si>
   <si>
     <t xml:space="preserve">7.8272066116333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66516065597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.732994556427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6613917350769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75937271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86112260818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62747526168823</t>
+    <t xml:space="preserve">7.66515970230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73299264907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66139221191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75937461853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86112403869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62747573852539</t>
   </si>
   <si>
     <t xml:space="preserve">7.68400192260742</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58602094650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52044868469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71415042877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60863208770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72922468185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69530820846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65008687973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5822548866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57094621658325</t>
+    <t xml:space="preserve">7.58602046966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52044773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71415185928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60863256454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72922515869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69530868530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65008544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58225250244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57094669342041</t>
   </si>
   <si>
     <t xml:space="preserve">7.75183582305908</t>
@@ -2330,34 +2330,34 @@
     <t xml:space="preserve">7.82343721389771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84604930877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74429941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97794723510742</t>
+    <t xml:space="preserve">7.84604787826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74429845809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97794628143311</t>
   </si>
   <si>
     <t xml:space="preserve">8.35102939605713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28696441650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80082702636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91765069961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06839275360107</t>
+    <t xml:space="preserve">8.28696537017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80082654953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91765022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06839084625244</t>
   </si>
   <si>
     <t xml:space="preserve">8.08346557617188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13622379302979</t>
+    <t xml:space="preserve">8.1362247467041</t>
   </si>
   <si>
     <t xml:space="preserve">8.21913242340088</t>
@@ -2372,31 +2372,31 @@
     <t xml:space="preserve">8.25304794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24174213409424</t>
+    <t xml:space="preserve">8.24174308776855</t>
   </si>
   <si>
     <t xml:space="preserve">8.54699230194092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67512130737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50553894042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51307582855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9101128578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78952169418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94403123855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60109615325928</t>
+    <t xml:space="preserve">8.67512321472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50553798675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51307678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91011333465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78951978683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94402980804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6010947227478</t>
   </si>
   <si>
     <t xml:space="preserve">7.24610090255737</t>
@@ -2405,16 +2405,16 @@
     <t xml:space="preserve">6.98079776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25062227249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30187463760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10892629623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32750177383423</t>
+    <t xml:space="preserve">7.25062322616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30187559127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10892724990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32750034332275</t>
   </si>
   <si>
     <t xml:space="preserve">6.37482023239136</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">5.93767261505127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93918037414551</t>
+    <t xml:space="preserve">5.93917989730835</t>
   </si>
   <si>
     <t xml:space="preserve">4.63075160980225</t>
@@ -2432,25 +2432,25 @@
     <t xml:space="preserve">5.08297300338745</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90057754516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89605522155762</t>
+    <t xml:space="preserve">4.90057706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89605474472046</t>
   </si>
   <si>
     <t xml:space="preserve">4.80108833312988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2111029624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22768449783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40857362747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77788782119751</t>
+    <t xml:space="preserve">5.21110248565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22768402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40857267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77788686752319</t>
   </si>
   <si>
     <t xml:space="preserve">5.83064603805542</t>
@@ -2459,16 +2459,16 @@
     <t xml:space="preserve">6.10348653793335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91807651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96631336212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81858730316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57137298583984</t>
+    <t xml:space="preserve">5.91807699203491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96631383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81858777999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57137250900269</t>
   </si>
   <si>
     <t xml:space="preserve">5.85777997970581</t>
@@ -2477,19 +2477,19 @@
     <t xml:space="preserve">5.9014949798584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05977249145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14720249176025</t>
+    <t xml:space="preserve">6.05977296829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14720106124878</t>
   </si>
   <si>
     <t xml:space="preserve">6.23915338516235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26025724411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2858829498291</t>
+    <t xml:space="preserve">6.26025772094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28588247299194</t>
   </si>
   <si>
     <t xml:space="preserve">5.73266506195068</t>
@@ -2498,22 +2498,22 @@
     <t xml:space="preserve">5.77939510345459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8035135269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73718690872192</t>
+    <t xml:space="preserve">5.80351305007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73718738555908</t>
   </si>
   <si>
     <t xml:space="preserve">5.61508750915527</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70402526855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66633987426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57589530944824</t>
+    <t xml:space="preserve">5.70402383804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66633939743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57589483261108</t>
   </si>
   <si>
     <t xml:space="preserve">5.94068765640259</t>
@@ -2525,37 +2525,37 @@
     <t xml:space="preserve">6.05223512649536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84270572662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70101022720337</t>
+    <t xml:space="preserve">5.84270524978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70100975036621</t>
   </si>
   <si>
     <t xml:space="preserve">5.53971719741821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44776630401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7236213684082</t>
+    <t xml:space="preserve">5.4477653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72362089157104</t>
   </si>
   <si>
     <t xml:space="preserve">5.84572124481201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61207246780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50956916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41611003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62413215637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58041715621948</t>
+    <t xml:space="preserve">5.61207294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5095682144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41610956192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62413263320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58041667938232</t>
   </si>
   <si>
     <t xml:space="preserve">5.58946180343628</t>
@@ -2564,52 +2564,52 @@
     <t xml:space="preserve">5.55479097366333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60905838012695</t>
+    <t xml:space="preserve">5.60905742645264</t>
   </si>
   <si>
     <t xml:space="preserve">5.83215379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91958332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94973182678223</t>
+    <t xml:space="preserve">5.91958379745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94973230361938</t>
   </si>
   <si>
     <t xml:space="preserve">6.00399875640869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07333850860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25724267959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45772743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60997581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74714994430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53912734985352</t>
+    <t xml:space="preserve">6.0733380317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25724220275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45772790908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60997629165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74714946746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53912782669067</t>
   </si>
   <si>
     <t xml:space="preserve">6.46375751495361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12308359146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21654176712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2693018913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39592456817627</t>
+    <t xml:space="preserve">6.12308311462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21654319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26930141448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39592361450195</t>
   </si>
   <si>
     <t xml:space="preserve">6.3672833442688</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">6.19543933868408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32309150695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43116426467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14610004425049</t>
+    <t xml:space="preserve">6.32309103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43116474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14610147476196</t>
   </si>
   <si>
     <t xml:space="preserve">6.18995714187622</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">6.06621980667114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25104188919067</t>
+    <t xml:space="preserve">6.25104236602783</t>
   </si>
   <si>
     <t xml:space="preserve">6.06152105331421</t>
@@ -2645,16 +2645,16 @@
     <t xml:space="preserve">6.07248544692993</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09911251068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19778871536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16332960128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11477470397949</t>
+    <t xml:space="preserve">6.09911155700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19778823852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.163330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11477518081665</t>
   </si>
   <si>
     <t xml:space="preserve">5.9706768989563</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">6.02236461639404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13670301437378</t>
+    <t xml:space="preserve">6.13670253753662</t>
   </si>
   <si>
     <t xml:space="preserve">6.11320877075195</t>
@@ -2675,49 +2675,49 @@
     <t xml:space="preserve">6.15706491470337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41080331802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45779132843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51574373245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41236925125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38104343414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22128343582153</t>
+    <t xml:space="preserve">6.41080236434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45779228210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51574420928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41236877441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38104295730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22128248214722</t>
   </si>
   <si>
     <t xml:space="preserve">6.18682432174683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17116212844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95971250534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07091903686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18369150161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22598123550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22441530227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12730550765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17586040496826</t>
+    <t xml:space="preserve">6.17116069793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95971298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07091856002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18369102478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22598075866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22441482543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12730503082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17586088180542</t>
   </si>
   <si>
     <t xml:space="preserve">6.28393411636353</t>
@@ -2726,25 +2726,25 @@
     <t xml:space="preserve">6.38417625427246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37634468078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29959678649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27297019958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17429399490356</t>
+    <t xml:space="preserve">6.37634515762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29959583282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27297067642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17429447174072</t>
   </si>
   <si>
     <t xml:space="preserve">6.15393161773682</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21814918518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11164236068726</t>
+    <t xml:space="preserve">6.21815013885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11164283752441</t>
   </si>
   <si>
     <t xml:space="preserve">6.194655418396</t>
@@ -2759,25 +2759,25 @@
     <t xml:space="preserve">6.14766693115234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05682229995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01139974594116</t>
+    <t xml:space="preserve">6.05682325363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01140022277832</t>
   </si>
   <si>
     <t xml:space="preserve">6.02393054962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23224687576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10381126403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24947500228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23851156234741</t>
+    <t xml:space="preserve">6.23224639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10381174087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24947595596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23851203918457</t>
   </si>
   <si>
     <t xml:space="preserve">6.24164342880249</t>
@@ -2786,19 +2786,19 @@
     <t xml:space="preserve">6.20561981201172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07875108718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86730194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95031547546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9988694190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98633909225464</t>
+    <t xml:space="preserve">6.07875061035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86730241775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95031499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99886989593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98634004592896</t>
   </si>
   <si>
     <t xml:space="preserve">5.94091749191284</t>
@@ -2807,70 +2807,70 @@
     <t xml:space="preserve">6.05368995666504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93308639526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9268217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88296461105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91742324829102</t>
+    <t xml:space="preserve">5.93308591842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92682075500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88296556472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91742372512817</t>
   </si>
   <si>
     <t xml:space="preserve">6.33405494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27923440933228</t>
+    <t xml:space="preserve">6.27923488616943</t>
   </si>
   <si>
     <t xml:space="preserve">6.2761025428772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27766895294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2917652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29333257675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97850799560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05212354660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05995464324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94718265533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95657968521118</t>
+    <t xml:space="preserve">6.27766847610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29176616668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29333114624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97850847244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0521240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05995512008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94718313217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95658016204834</t>
   </si>
   <si>
     <t xml:space="preserve">5.94561624526978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85007333755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80778312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56344270706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48826122283936</t>
+    <t xml:space="preserve">5.85007286071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80778360366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56344366073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4882607460022</t>
   </si>
   <si>
     <t xml:space="preserve">5.48199653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61356353759766</t>
+    <t xml:space="preserve">5.61356401443481</t>
   </si>
   <si>
     <t xml:space="preserve">5.66681718826294</t>
@@ -2879,103 +2879,103 @@
     <t xml:space="preserve">5.84537410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03802728652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93935203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14923334121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30116319656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25574016571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44526052474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65984201431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74598789215088</t>
+    <t xml:space="preserve">6.03802680969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93935108184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14923429489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30116271972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25574064254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44526195526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6598424911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74598741531372</t>
   </si>
   <si>
     <t xml:space="preserve">6.86032676696777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93394231796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82743549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86351919174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01831007003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95128631591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02150201797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81723928451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.871497631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76138734817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78532409667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70872640609741</t>
+    <t xml:space="preserve">6.93394136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82743501663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86351871490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01830959320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95128726959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02150249481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8172402381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87149715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76138687133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78532457351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70872688293457</t>
   </si>
   <si>
     <t xml:space="preserve">6.69755554199219</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70713090896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71670436859131</t>
+    <t xml:space="preserve">6.70713043212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71670484542847</t>
   </si>
   <si>
     <t xml:space="preserve">6.66244888305664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65766048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7645788192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69436502456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66883039474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51563501358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64968204498291</t>
+    <t xml:space="preserve">6.65766096115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76457834243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69436454772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66883087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51563453674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64968156814575</t>
   </si>
   <si>
     <t xml:space="preserve">6.6768102645874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63851070404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65606451034546</t>
+    <t xml:space="preserve">6.63851118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65606546401978</t>
   </si>
   <si>
     <t xml:space="preserve">6.61297845840454</t>
@@ -2984,13 +2984,13 @@
     <t xml:space="preserve">6.81404829025269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9560751914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85713481903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80926179885864</t>
+    <t xml:space="preserve">6.95607471466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85713529586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80926132202148</t>
   </si>
   <si>
     <t xml:space="preserve">6.72947120666504</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">6.68638515472412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63053226470947</t>
+    <t xml:space="preserve">6.63053274154663</t>
   </si>
   <si>
     <t xml:space="preserve">6.69915103912354</t>
@@ -3011,91 +3011,91 @@
     <t xml:space="preserve">6.63691520690918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59702014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54914617538452</t>
+    <t xml:space="preserve">6.59702110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54914665222168</t>
   </si>
   <si>
     <t xml:space="preserve">6.6720232963562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51084756851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56989288330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44382381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6177659034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60659503936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0773549079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1906566619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35662078857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54492378234863</t>
+    <t xml:space="preserve">6.5108470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56989145278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44382476806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61776542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60659408569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07735443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19065618515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35661935806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54492330551147</t>
   </si>
   <si>
     <t xml:space="preserve">7.63588333129883</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5912013053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69971561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72205686569214</t>
+    <t xml:space="preserve">7.59120035171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69971513748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7220573425293</t>
   </si>
   <si>
     <t xml:space="preserve">7.79546451568604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7013111114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56567001342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42364311218262</t>
+    <t xml:space="preserve">7.70131254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56566905975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42364263534546</t>
   </si>
   <si>
     <t xml:space="preserve">7.49864482879639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69492769241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60237216949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61992597579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66620302200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50343322753906</t>
+    <t xml:space="preserve">7.6949291229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60237312316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61992645263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66620349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50343179702759</t>
   </si>
   <si>
     <t xml:space="preserve">7.84174203872681</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88004112243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908500671387</t>
+    <t xml:space="preserve">7.88003969192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908357620239</t>
   </si>
   <si>
     <t xml:space="preserve">7.9582347869873</t>
@@ -3104,16 +3104,16 @@
     <t xml:space="preserve">7.85929584503174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01089477539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0906867980957</t>
+    <t xml:space="preserve">8.01089382171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09068584442139</t>
   </si>
   <si>
     <t xml:space="preserve">8.16249561309814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12659072875977</t>
+    <t xml:space="preserve">8.12659168243408</t>
   </si>
   <si>
     <t xml:space="preserve">8.19840145111084</t>
@@ -3125,64 +3125,64 @@
     <t xml:space="preserve">8.32606506347656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28218173980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3420238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25026607513428</t>
+    <t xml:space="preserve">8.28218078613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34202289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25026512145996</t>
   </si>
   <si>
     <t xml:space="preserve">8.38191795349121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31010723114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3539924621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34601306915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41782474517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60134029388428</t>
+    <t xml:space="preserve">8.31010818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35399150848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34601211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41782379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60133934020996</t>
   </si>
   <si>
     <t xml:space="preserve">8.66118240356445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64921474456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70506572723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72900199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7170352935791</t>
+    <t xml:space="preserve">8.64921283721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7050666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72900295257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71703624725342</t>
   </si>
   <si>
     <t xml:space="preserve">8.59336185455322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61330795288086</t>
+    <t xml:space="preserve">8.61330890655518</t>
   </si>
   <si>
     <t xml:space="preserve">8.6053295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50958156585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50160121917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59735107421875</t>
+    <t xml:space="preserve">8.50958251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50160312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59735012054443</t>
   </si>
   <si>
     <t xml:space="preserve">8.58538246154785</t>
@@ -3191,19 +3191,19 @@
     <t xml:space="preserve">8.46968650817871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46569633483887</t>
+    <t xml:space="preserve">8.46569728851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.65719318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62527751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63724517822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71304607391357</t>
+    <t xml:space="preserve">8.62527847290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63724422454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71304512023926</t>
   </si>
   <si>
     <t xml:space="preserve">8.70905590057373</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">8.69708728790283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81677341461182</t>
+    <t xml:space="preserve">8.8167724609375</t>
   </si>
   <si>
     <t xml:space="preserve">8.7529411315918</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">8.95640468597412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91651058197021</t>
+    <t xml:space="preserve">8.9165096282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.80480480194092</t>
@@ -3236,52 +3236,52 @@
     <t xml:space="preserve">8.80879402160645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87262630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00826835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99629878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96039390563965</t>
+    <t xml:space="preserve">8.87262439727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00826740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99629974365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96039485931396</t>
   </si>
   <si>
     <t xml:space="preserve">9.03619384765625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17582607269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33540725708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21173191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11199569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16784858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17981624603271</t>
+    <t xml:space="preserve">9.17582702636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33540439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21173286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11199474334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16784763336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1798152923584</t>
   </si>
   <si>
     <t xml:space="preserve">9.22768974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41519546508789</t>
+    <t xml:space="preserve">9.41519641876221</t>
   </si>
   <si>
     <t xml:space="preserve">9.50296497344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62264919281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63860607147217</t>
+    <t xml:space="preserve">9.62265014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63860702514648</t>
   </si>
   <si>
     <t xml:space="preserve">9.56280708312988</t>
@@ -3290,10 +3290,10 @@
     <t xml:space="preserve">9.586745262146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55881690979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63062858581543</t>
+    <t xml:space="preserve">9.55881786346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63062763214111</t>
   </si>
   <si>
     <t xml:space="preserve">9.57078552246094</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">9.44958877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32238864898682</t>
+    <t xml:space="preserve">9.32239055633545</t>
   </si>
   <si>
     <t xml:space="preserve">9.21160411834717</t>
@@ -3317,22 +3317,22 @@
     <t xml:space="preserve">9.34700870513916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19519138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15416049957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15005588531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25673866271973</t>
+    <t xml:space="preserve">9.1951904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15415859222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15005683898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25673961639404</t>
   </si>
   <si>
     <t xml:space="preserve">9.17467594146729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3059778213501</t>
+    <t xml:space="preserve">9.30597686767578</t>
   </si>
   <si>
     <t xml:space="preserve">9.16646957397461</t>
@@ -3341,22 +3341,22 @@
     <t xml:space="preserve">9.20339775085449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88335037231445</t>
+    <t xml:space="preserve">8.88335132598877</t>
   </si>
   <si>
     <t xml:space="preserve">9.02285861968994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05568408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05158042907715</t>
+    <t xml:space="preserve">9.05568313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05157947540283</t>
   </si>
   <si>
     <t xml:space="preserve">9.01875591278076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89566135406494</t>
+    <t xml:space="preserve">8.89566040039062</t>
   </si>
   <si>
     <t xml:space="preserve">8.92438316345215</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">8.98182678222656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11723136901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19929599761963</t>
+    <t xml:space="preserve">9.11723232269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19929504394531</t>
   </si>
   <si>
     <t xml:space="preserve">9.27315139770508</t>
@@ -3383,10 +3383,10 @@
     <t xml:space="preserve">9.18288135528564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16236591339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12954044342041</t>
+    <t xml:space="preserve">9.16236782073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12954139709473</t>
   </si>
   <si>
     <t xml:space="preserve">9.31828689575195</t>
@@ -3398,22 +3398,22 @@
     <t xml:space="preserve">9.50292873382568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53985786437988</t>
+    <t xml:space="preserve">9.53985691070557</t>
   </si>
   <si>
     <t xml:space="preserve">9.61781787872314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63833236694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58909606933594</t>
+    <t xml:space="preserve">9.63833332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58909511566162</t>
   </si>
   <si>
     <t xml:space="preserve">9.52754688262939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47420597076416</t>
+    <t xml:space="preserve">9.47420692443848</t>
   </si>
   <si>
     <t xml:space="preserve">9.55216693878174</t>
@@ -3422,52 +3422,52 @@
     <t xml:space="preserve">9.4331750869751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36342144012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56857967376709</t>
+    <t xml:space="preserve">9.3634204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56858062744141</t>
   </si>
   <si>
     <t xml:space="preserve">9.54396057128906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51113414764404</t>
+    <t xml:space="preserve">9.51113605499268</t>
   </si>
   <si>
     <t xml:space="preserve">9.42496871948242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46599960327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51523876190186</t>
+    <t xml:space="preserve">9.4660005569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51523971557617</t>
   </si>
   <si>
     <t xml:space="preserve">9.54806423187256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40445327758789</t>
+    <t xml:space="preserve">9.40445232391357</t>
   </si>
   <si>
     <t xml:space="preserve">9.4701042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48651695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57268238067627</t>
+    <t xml:space="preserve">9.48651599884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57268333435059</t>
   </si>
   <si>
     <t xml:space="preserve">9.72449970245361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6342306137085</t>
+    <t xml:space="preserve">9.63422966003418</t>
   </si>
   <si>
     <t xml:space="preserve">9.67115879058838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75732421875</t>
+    <t xml:space="preserve">9.75732517242432</t>
   </si>
   <si>
     <t xml:space="preserve">9.8270788192749</t>
@@ -3488,22 +3488,22 @@
     <t xml:space="preserve">9.76963424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72860145568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92555618286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86811065673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9912052154541</t>
+    <t xml:space="preserve">9.72860336303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92555522918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86810970306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99120616912842</t>
   </si>
   <si>
     <t xml:space="preserve">9.99530792236328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97889614105225</t>
+    <t xml:space="preserve">9.97889709472656</t>
   </si>
   <si>
     <t xml:space="preserve">10.1101980209351</t>
@@ -3512,16 +3512,16 @@
     <t xml:space="preserve">10.1471252441406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2579097747803</t>
+    <t xml:space="preserve">10.2579107284546</t>
   </si>
   <si>
     <t xml:space="preserve">10.1963634490967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.163537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0527534484863</t>
+    <t xml:space="preserve">10.1635389328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0527515411377</t>
   </si>
   <si>
     <t xml:space="preserve">10.3030462265015</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">10.2456007003784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4015226364136</t>
+    <t xml:space="preserve">10.4015216827393</t>
   </si>
   <si>
     <t xml:space="preserve">10.3112516403198</t>
@@ -3545,13 +3545,13 @@
     <t xml:space="preserve">10.1266098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2127752304077</t>
+    <t xml:space="preserve">10.2127771377563</t>
   </si>
   <si>
     <t xml:space="preserve">10.1758480072021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2989435195923</t>
+    <t xml:space="preserve">10.2989416122437</t>
   </si>
   <si>
     <t xml:space="preserve">10.2250862121582</t>
@@ -3560,16 +3560,16 @@
     <t xml:space="preserve">10.2538080215454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2086734771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1060934066772</t>
+    <t xml:space="preserve">10.2086725234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1060924530029</t>
   </si>
   <si>
     <t xml:space="preserve">10.0486488342285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.060959815979</t>
+    <t xml:space="preserve">10.0609588623047</t>
   </si>
   <si>
     <t xml:space="preserve">9.96658706665039</t>
@@ -3581,22 +3581,22 @@
     <t xml:space="preserve">9.88009929656982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80092525482178</t>
+    <t xml:space="preserve">9.80092620849609</t>
   </si>
   <si>
     <t xml:space="preserve">9.77175712585449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62590980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23003768920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33004856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28421115875244</t>
+    <t xml:space="preserve">9.62590885162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2300386428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33004760742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28421020507812</t>
   </si>
   <si>
     <t xml:space="preserve">9.45922756195068</t>
@@ -3608,19 +3608,19 @@
     <t xml:space="preserve">9.28837776184082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32171440124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45089340209961</t>
+    <t xml:space="preserve">9.32171535491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45089244842529</t>
   </si>
   <si>
     <t xml:space="preserve">9.31754779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25087356567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20920372009277</t>
+    <t xml:space="preserve">9.25087451934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20920467376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.21337127685547</t>
@@ -3629,58 +3629,58 @@
     <t xml:space="preserve">9.234206199646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27587604522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34254932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35505104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14253044128418</t>
+    <t xml:space="preserve">9.27587699890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34254837036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3550500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1425313949585</t>
   </si>
   <si>
     <t xml:space="preserve">9.2925443649292</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38422107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46755981445312</t>
+    <t xml:space="preserve">9.38422012329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46756172180176</t>
   </si>
   <si>
     <t xml:space="preserve">9.55090236663818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63007640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60924243927002</t>
+    <t xml:space="preserve">9.63007736206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6092414855957</t>
   </si>
   <si>
     <t xml:space="preserve">9.61757564544678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75508880615234</t>
+    <t xml:space="preserve">9.75508785247803</t>
   </si>
   <si>
     <t xml:space="preserve">9.7675895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80509376525879</t>
+    <t xml:space="preserve">9.80509281158447</t>
   </si>
   <si>
     <t xml:space="preserve">9.72175216674805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75092220306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78009128570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71341896057129</t>
+    <t xml:space="preserve">9.75092029571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78008937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71341800689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.66758060455322</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">9.6384105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65924549102783</t>
+    <t xml:space="preserve">9.65924739837646</t>
   </si>
   <si>
     <t xml:space="preserve">9.7384204864502</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">9.57173824310303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18836784362793</t>
+    <t xml:space="preserve">9.18836688995361</t>
   </si>
   <si>
     <t xml:space="preserve">9.41338920593262</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">9.62174224853516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50506401062012</t>
+    <t xml:space="preserve">9.50506496429443</t>
   </si>
   <si>
     <t xml:space="preserve">9.94260692596436</t>
@@ -3725,52 +3725,52 @@
     <t xml:space="preserve">9.13419628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17586708068848</t>
+    <t xml:space="preserve">9.17586803436279</t>
   </si>
   <si>
     <t xml:space="preserve">8.99668312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16336536407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24670696258545</t>
+    <t xml:space="preserve">9.16336631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24670791625977</t>
   </si>
   <si>
     <t xml:space="preserve">9.28004360198975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19670295715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97168064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93834590911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86333751678467</t>
+    <t xml:space="preserve">9.196702003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97168159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93834495544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86333847045898</t>
   </si>
   <si>
     <t xml:space="preserve">8.36745738983154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64248371124268</t>
+    <t xml:space="preserve">8.64248275756836</t>
   </si>
   <si>
     <t xml:space="preserve">8.56330871582031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21744251251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20410919189453</t>
+    <t xml:space="preserve">8.21744346618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20410823822021</t>
   </si>
   <si>
     <t xml:space="preserve">8.08909797668457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56738090515137</t>
+    <t xml:space="preserve">7.56738138198853</t>
   </si>
   <si>
     <t xml:space="preserve">7.4040322303772</t>
@@ -3779,13 +3779,13 @@
     <t xml:space="preserve">7.74739837646484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43413066864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00742340087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05576133728027</t>
+    <t xml:space="preserve">8.43412971496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00742244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05576229095459</t>
   </si>
   <si>
     <t xml:space="preserve">8.27411556243896</t>
@@ -3794,10 +3794,10 @@
     <t xml:space="preserve">8.22911071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60081195831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42162895202637</t>
+    <t xml:space="preserve">8.60081386566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42162799835205</t>
   </si>
   <si>
     <t xml:space="preserve">8.39662647247314</t>
@@ -3812,34 +3812,34 @@
     <t xml:space="preserve">8.63831520080566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7924976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67581844329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77582931518555</t>
+    <t xml:space="preserve">8.79249668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67581939697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77582836151123</t>
   </si>
   <si>
     <t xml:space="preserve">8.8508358001709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81333255767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66748523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53830718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35495662689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22744464874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38829326629639</t>
+    <t xml:space="preserve">8.81333351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66748428344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53830623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35495567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22744274139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38829231262207</t>
   </si>
   <si>
     <t xml:space="preserve">8.32078647613525</t>
@@ -3848,85 +3848,85 @@
     <t xml:space="preserve">8.19577407836914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11243343353271</t>
+    <t xml:space="preserve">8.11243438720703</t>
   </si>
   <si>
     <t xml:space="preserve">8.17743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04576015472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25744724273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2307767868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08576488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85740947723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75239992141724</t>
+    <t xml:space="preserve">8.04576110839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2574462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23077869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0857629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8574104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75239944458008</t>
   </si>
   <si>
     <t xml:space="preserve">7.72739696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7774019241333</t>
+    <t xml:space="preserve">7.77740097045898</t>
   </si>
   <si>
     <t xml:space="preserve">7.81573867797852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73739767074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67572546005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61571979522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50237655639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30735731124878</t>
+    <t xml:space="preserve">7.73739862442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67572498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61571931838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50237512588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30735683441162</t>
   </si>
   <si>
     <t xml:space="preserve">7.4807071685791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65405607223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89407968521118</t>
+    <t xml:space="preserve">7.65405654907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8940806388855</t>
   </si>
   <si>
     <t xml:space="preserve">8.05909442901611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94575166702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0207576751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97242021560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94408273696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92074823379517</t>
+    <t xml:space="preserve">7.94575119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02075672149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97242069244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94408369064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92074775695801</t>
   </si>
   <si>
     <t xml:space="preserve">8.07576179504395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93908309936523</t>
+    <t xml:space="preserve">7.93908262252808</t>
   </si>
   <si>
     <t xml:space="preserve">8.07076263427734</t>
@@ -3935,55 +3935,55 @@
     <t xml:space="preserve">8.12743377685547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2774486541748</t>
+    <t xml:space="preserve">8.27744960784912</t>
   </si>
   <si>
     <t xml:space="preserve">8.45913219451904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35078907012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34662246704102</t>
+    <t xml:space="preserve">8.35079002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34662342071533</t>
   </si>
   <si>
     <t xml:space="preserve">8.26744842529297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42579650878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40912818908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29245185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62738752365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37236309051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59905099868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84907484054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45903730392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49737405776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67453241348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60995388031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64486122131348</t>
+    <t xml:space="preserve">8.42579555511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4091272354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29245090484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62738704681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37236261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59905195236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84907531738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45903778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49737501144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67453336715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60995292663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64486217498779</t>
   </si>
   <si>
     <t xml:space="preserve">7.58551836013794</t>
@@ -3995,19 +3995,19 @@
     <t xml:space="preserve">7.76878499984741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92412614822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86478137969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77751111984253</t>
+    <t xml:space="preserve">7.92412519454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86478233337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77751207351685</t>
   </si>
   <si>
     <t xml:space="preserve">7.78100347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77402210235596</t>
+    <t xml:space="preserve">7.77402114868164</t>
   </si>
   <si>
     <t xml:space="preserve">7.461594581604</t>
@@ -4016,7 +4016,7 @@
     <t xml:space="preserve">7.50871992111206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70246076583862</t>
+    <t xml:space="preserve">7.70245981216431</t>
   </si>
   <si>
     <t xml:space="preserve">7.58202648162842</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">7.47206735610962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31498003005981</t>
+    <t xml:space="preserve">7.31498050689697</t>
   </si>
   <si>
     <t xml:space="preserve">6.94320964813232</t>
@@ -4037,7 +4037,7 @@
     <t xml:space="preserve">7.1194953918457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25389242172241</t>
+    <t xml:space="preserve">7.25389194488525</t>
   </si>
   <si>
     <t xml:space="preserve">7.4947566986084</t>
@@ -4046,7 +4046,7 @@
     <t xml:space="preserve">7.32894372940063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97113609313965</t>
+    <t xml:space="preserve">6.97113656997681</t>
   </si>
   <si>
     <t xml:space="preserve">7.06364250183105</t>
@@ -4067,7 +4067,7 @@
     <t xml:space="preserve">7.12996816635132</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19978427886963</t>
+    <t xml:space="preserve">7.19978380203247</t>
   </si>
   <si>
     <t xml:space="preserve">7.11251354217529</t>
@@ -4076,25 +4076,25 @@
     <t xml:space="preserve">7.23294639587402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.316725730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39875936508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3306884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2905445098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33417940139771</t>
+    <t xml:space="preserve">7.31672620773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39875888824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33068895339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29054498672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33417987823486</t>
   </si>
   <si>
     <t xml:space="preserve">7.4423942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44937705993652</t>
+    <t xml:space="preserve">7.44937658309937</t>
   </si>
   <si>
     <t xml:space="preserve">7.38654136657715</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">7.28879976272583</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1561484336853</t>
+    <t xml:space="preserve">7.15614891052246</t>
   </si>
   <si>
     <t xml:space="preserve">6.97462749481201</t>
@@ -4115,10 +4115,10 @@
     <t xml:space="preserve">7.04618883132935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02349853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86466693878174</t>
+    <t xml:space="preserve">7.02349901199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8646674156189</t>
   </si>
   <si>
     <t xml:space="preserve">6.7773962020874</t>
@@ -4130,10 +4130,10 @@
     <t xml:space="preserve">6.88212060928345</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06887912750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88561153411865</t>
+    <t xml:space="preserve">7.06887865066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88561105728149</t>
   </si>
   <si>
     <t xml:space="preserve">6.9641547203064</t>
@@ -4142,7 +4142,7 @@
     <t xml:space="preserve">6.98335409164429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0566611289978</t>
+    <t xml:space="preserve">7.05666160583496</t>
   </si>
   <si>
     <t xml:space="preserve">7.16487550735474</t>
@@ -4181,13 +4181,13 @@
     <t xml:space="preserve">6.82452249526978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68314456939697</t>
+    <t xml:space="preserve">6.68314504623413</t>
   </si>
   <si>
     <t xml:space="preserve">6.79834127426147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9379734992981</t>
+    <t xml:space="preserve">6.93797302246094</t>
   </si>
   <si>
     <t xml:space="preserve">7.1421856880188</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">6.68489027023315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79485034942627</t>
+    <t xml:space="preserve">6.79484987258911</t>
   </si>
   <si>
     <t xml:space="preserve">6.89782905578613</t>
@@ -4217,25 +4217,25 @@
     <t xml:space="preserve">7.07062435150146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32719850540161</t>
+    <t xml:space="preserve">7.32719802856445</t>
   </si>
   <si>
     <t xml:space="preserve">7.28705406188965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26261758804321</t>
+    <t xml:space="preserve">7.26261806488037</t>
   </si>
   <si>
     <t xml:space="preserve">7.1928014755249</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35861539840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42668628692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49650192260742</t>
+    <t xml:space="preserve">7.35861587524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42668676376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49650287628174</t>
   </si>
   <si>
     <t xml:space="preserve">7.71642255783081</t>
@@ -4247,7 +4247,7 @@
     <t xml:space="preserve">7.69722318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71991395950317</t>
+    <t xml:space="preserve">7.71991300582886</t>
   </si>
   <si>
     <t xml:space="preserve">7.67976999282837</t>
@@ -4271,7 +4271,7 @@
     <t xml:space="preserve">8.51232528686523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41109275817871</t>
+    <t xml:space="preserve">8.41109180450439</t>
   </si>
   <si>
     <t xml:space="preserve">8.4686918258667</t>
@@ -4286,19 +4286,19 @@
     <t xml:space="preserve">8.34127712249756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38142013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34394836425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30469036102295</t>
+    <t xml:space="preserve">8.38142108917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34394931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30469131469727</t>
   </si>
   <si>
     <t xml:space="preserve">8.39034366607666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28149318695068</t>
+    <t xml:space="preserve">8.281494140625</t>
   </si>
   <si>
     <t xml:space="preserve">8.42781639099121</t>
@@ -4313,10 +4313,10 @@
     <t xml:space="preserve">8.37428283691406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4313850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40997123718262</t>
+    <t xml:space="preserve">8.43138408660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40997219085693</t>
   </si>
   <si>
     <t xml:space="preserve">8.33859539031982</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">8.44030666351318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28863048553467</t>
+    <t xml:space="preserve">8.28863143920898</t>
   </si>
   <si>
     <t xml:space="preserve">8.3653621673584</t>
@@ -4340,25 +4340,25 @@
     <t xml:space="preserve">8.47064208984375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02810668945312</t>
+    <t xml:space="preserve">8.02810573577881</t>
   </si>
   <si>
     <t xml:space="preserve">8.07271671295166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07985401153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21903896331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28684711456299</t>
+    <t xml:space="preserve">8.07985496520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21903800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2868480682373</t>
   </si>
   <si>
     <t xml:space="preserve">8.21725463867188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22617626190186</t>
+    <t xml:space="preserve">8.22617721557617</t>
   </si>
   <si>
     <t xml:space="preserve">8.23688411712646</t>
@@ -4376,19 +4376,19 @@
     <t xml:space="preserve">8.39748096466064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60625839233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48670291900635</t>
+    <t xml:space="preserve">8.6062593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48670196533203</t>
   </si>
   <si>
     <t xml:space="preserve">8.57056999206543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55450916290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65443801879883</t>
+    <t xml:space="preserve">8.55451011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65443706512451</t>
   </si>
   <si>
     <t xml:space="preserve">8.57949256896973</t>
@@ -4403,13 +4403,13 @@
     <t xml:space="preserve">8.72938346862793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67406558990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71332263946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52239036560059</t>
+    <t xml:space="preserve">8.6740665435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71332359313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5223913192749</t>
   </si>
   <si>
     <t xml:space="preserve">8.54915714263916</t>
@@ -4418,10 +4418,10 @@
     <t xml:space="preserve">8.5901985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59912014007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72224426269531</t>
+    <t xml:space="preserve">8.59911918640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72224521636963</t>
   </si>
   <si>
     <t xml:space="preserve">8.69369506835938</t>
@@ -4436,13 +4436,13 @@
     <t xml:space="preserve">9.09162044525146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99347686767578</t>
+    <t xml:space="preserve">8.9934778213501</t>
   </si>
   <si>
     <t xml:space="preserve">9.00239944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01132106781006</t>
+    <t xml:space="preserve">9.01132202148438</t>
   </si>
   <si>
     <t xml:space="preserve">9.15407562255859</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">9.04701042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12730884552002</t>
+    <t xml:space="preserve">9.1273078918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.12284755706787</t>
@@ -4472,7 +4472,7 @@
     <t xml:space="preserve">8.79362201690674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.918532371521</t>
+    <t xml:space="preserve">8.91853141784668</t>
   </si>
   <si>
     <t xml:space="preserve">9.10054302215576</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">8.95778846740723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03808784484863</t>
+    <t xml:space="preserve">9.03808879852295</t>
   </si>
   <si>
     <t xml:space="preserve">9.20314598083496</t>
@@ -4502,22 +4502,22 @@
     <t xml:space="preserve">8.9113941192627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55094051361084</t>
+    <t xml:space="preserve">8.55094146728516</t>
   </si>
   <si>
     <t xml:space="preserve">8.68655776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26721858978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04059600830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12446403503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40104961395264</t>
+    <t xml:space="preserve">8.2672176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0405969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1244649887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40105056762695</t>
   </si>
   <si>
     <t xml:space="preserve">8.34573268890381</t>
@@ -4553,31 +4553,31 @@
     <t xml:space="preserve">8.37785243988037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5152530670166</t>
+    <t xml:space="preserve">8.51525211334229</t>
   </si>
   <si>
     <t xml:space="preserve">8.38677406311035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44387531280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53309726715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44922924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54737281799316</t>
+    <t xml:space="preserve">8.44387626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53309631347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4492301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54737186431885</t>
   </si>
   <si>
     <t xml:space="preserve">8.46528816223145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40283584594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49740791320801</t>
+    <t xml:space="preserve">8.40283489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49740886688232</t>
   </si>
   <si>
     <t xml:space="preserve">8.21011638641357</t>
@@ -4586,13 +4586,13 @@
     <t xml:space="preserve">8.28327941894531</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1922721862793</t>
+    <t xml:space="preserve">8.19227313995361</t>
   </si>
   <si>
     <t xml:space="preserve">8.45458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49562454223633</t>
+    <t xml:space="preserve">8.49562549591064</t>
   </si>
   <si>
     <t xml:space="preserve">8.5848445892334</t>
@@ -4601,7 +4601,7 @@
     <t xml:space="preserve">8.47956371307373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56878471374512</t>
+    <t xml:space="preserve">8.56878566741943</t>
   </si>
   <si>
     <t xml:space="preserve">8.64551544189453</t>
@@ -4610,7 +4610,7 @@
     <t xml:space="preserve">8.5919828414917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64373111724854</t>
+    <t xml:space="preserve">8.64373016357422</t>
   </si>
   <si>
     <t xml:space="preserve">8.61518096923828</t>
@@ -4622,10 +4622,10 @@
     <t xml:space="preserve">8.8346643447876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63480854034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74008941650391</t>
+    <t xml:space="preserve">8.63480949401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74008846282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.71689319610596</t>
@@ -4661,28 +4661,28 @@
     <t xml:space="preserve">9.00686073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98009490966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00094032287598</t>
+    <t xml:space="preserve">8.98009395599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00094127655029</t>
   </si>
   <si>
     <t xml:space="preserve">8.90951347351074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87965965270996</t>
+    <t xml:space="preserve">8.87965869903564</t>
   </si>
   <si>
     <t xml:space="preserve">8.84420776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88339138031006</t>
+    <t xml:space="preserve">8.88339233398438</t>
   </si>
   <si>
     <t xml:space="preserve">8.85353755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06997776031494</t>
+    <t xml:space="preserve">9.06997871398926</t>
   </si>
   <si>
     <t xml:space="preserve">9.18006420135498</t>
@@ -4706,7 +4706,7 @@
     <t xml:space="preserve">9.04758739471436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11662483215332</t>
+    <t xml:space="preserve">9.11662578582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.12595367431641</t>
@@ -4724,19 +4724,19 @@
     <t xml:space="preserve">9.26962566375732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27335739135742</t>
+    <t xml:space="preserve">9.27335643768311</t>
   </si>
   <si>
     <t xml:space="preserve">9.29948043823242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42262649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43195629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54390811920166</t>
+    <t xml:space="preserve">9.42262744903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43195533752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54390716552734</t>
   </si>
   <si>
     <t xml:space="preserve">9.64186668395996</t>
@@ -4754,7 +4754,7 @@
     <t xml:space="preserve">9.59521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38531017303467</t>
+    <t xml:space="preserve">9.38530921936035</t>
   </si>
   <si>
     <t xml:space="preserve">9.38064479827881</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">9.3993034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26776027679443</t>
+    <t xml:space="preserve">9.26775932312012</t>
   </si>
   <si>
     <t xml:space="preserve">9.41329765319824</t>
@@ -4772,7 +4772,7 @@
     <t xml:space="preserve">9.4879322052002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45527935028076</t>
+    <t xml:space="preserve">9.45528030395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.47860240936279</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">9.37598037719727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38997459411621</t>
+    <t xml:space="preserve">9.38997364044189</t>
   </si>
   <si>
     <t xml:space="preserve">9.41796207427979</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">9.47393798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39463806152344</t>
+    <t xml:space="preserve">9.39463901519775</t>
   </si>
   <si>
     <t xml:space="preserve">9.60454845428467</t>
@@ -4820,7 +4820,7 @@
     <t xml:space="preserve">9.49726104736328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44128608703613</t>
+    <t xml:space="preserve">9.44128513336182</t>
   </si>
   <si>
     <t xml:space="preserve">9.43662071228027</t>
@@ -4832,13 +4832,13 @@
     <t xml:space="preserve">9.4086332321167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34332752227783</t>
+    <t xml:space="preserve">9.34332847595215</t>
   </si>
   <si>
     <t xml:space="preserve">9.26029586791992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20431995391846</t>
+    <t xml:space="preserve">9.20432090759277</t>
   </si>
   <si>
     <t xml:space="preserve">9.02706241607666</t>
@@ -4850,13 +4850,13 @@
     <t xml:space="preserve">8.90764808654785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90204906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10729598999023</t>
+    <t xml:space="preserve">8.98974514007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90205001831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10729503631592</t>
   </si>
   <si>
     <t xml:space="preserve">9.17446613311768</t>
@@ -4865,10 +4865,10 @@
     <t xml:space="preserve">9.09423446655273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20991802215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23417377471924</t>
+    <t xml:space="preserve">9.20991706848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23417472839355</t>
   </si>
   <si>
     <t xml:space="preserve">9.03639221191406</t>
@@ -4877,19 +4877,19 @@
     <t xml:space="preserve">8.57179164886475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55126667022705</t>
+    <t xml:space="preserve">8.55126762390137</t>
   </si>
   <si>
     <t xml:space="preserve">8.55499935150146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4896936416626</t>
+    <t xml:space="preserve">8.48969459533691</t>
   </si>
   <si>
     <t xml:space="preserve">8.61097431182861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52887725830078</t>
+    <t xml:space="preserve">8.52887630462646</t>
   </si>
   <si>
     <t xml:space="preserve">8.58112049102783</t>
@@ -5349,6 +5349,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.210000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1700000762939</t>
   </si>
 </sst>
 </file>
@@ -62344,7 +62347,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6496412037</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>1271731</v>
@@ -62365,6 +62368,32 @@
         <v>1778</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6494907407</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>1853125</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>12.1850004196167</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>11.9899997711182</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>12.1099996566772</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>12.1700000762939</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PST.MI.xlsx
+++ b/data/PST.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="1781">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">PST.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30965375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24381303787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21986961364746</t>
+    <t xml:space="preserve">4.30965423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.243812084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21987009048462</t>
   </si>
   <si>
     <t xml:space="preserve">4.18096303939819</t>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">4.14205598831177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24081897735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29169797897339</t>
+    <t xml:space="preserve">4.24081945419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29169750213623</t>
   </si>
   <si>
     <t xml:space="preserve">4.26775455474854</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">4.2138843536377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08818674087524</t>
+    <t xml:space="preserve">4.08818578720093</t>
   </si>
   <si>
     <t xml:space="preserve">4.01037263870239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78890490531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93555235862732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98643016815186</t>
+    <t xml:space="preserve">3.78890442848206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93555116653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98643064498901</t>
   </si>
   <si>
     <t xml:space="preserve">3.90263080596924</t>
@@ -92,25 +92,25 @@
     <t xml:space="preserve">4.01635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06723642349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98343777656555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08519268035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97445845603943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89066028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77094721794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58240008354187</t>
+    <t xml:space="preserve">4.06723594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98343658447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08519220352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97445869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89065980911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77094793319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58240032196045</t>
   </si>
   <si>
     <t xml:space="preserve">3.20829844474792</t>
@@ -122,43 +122,43 @@
     <t xml:space="preserve">3.38487434387207</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23822569847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2501974105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34896016120911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33399605751038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46867275238037</t>
+    <t xml:space="preserve">3.23822617530823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25019693374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34896039962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33399701118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46867299079895</t>
   </si>
   <si>
     <t xml:space="preserve">3.4537091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52852940559387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65422797203064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57342147827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53750801086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63926339149475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69014120101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75299119949341</t>
+    <t xml:space="preserve">3.52852892875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65422749519348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57342195510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53750777244568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63926362991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6901421546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75299072265625</t>
   </si>
   <si>
     <t xml:space="preserve">3.72006988525391</t>
@@ -170,163 +170,163 @@
     <t xml:space="preserve">3.71109127998352</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66919231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69313478469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66619825363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85773897171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8846743106842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88168120384216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85175371170044</t>
+    <t xml:space="preserve">3.66919159889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69313359260559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66619873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85773992538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88467478752136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88168144226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8517529964447</t>
   </si>
   <si>
     <t xml:space="preserve">3.83080363273621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84576749801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92058920860291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0522723197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03431510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96548008918762</t>
+    <t xml:space="preserve">3.8457670211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92058801651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05227184295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03431415557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96548056602478</t>
   </si>
   <si>
     <t xml:space="preserve">4.04030084609985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98044443130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9265730381012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86073136329651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74999737739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80985450744629</t>
+    <t xml:space="preserve">3.98044466972351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92657351493835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86073160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74999856948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80985379219055</t>
   </si>
   <si>
     <t xml:space="preserve">3.82781100273132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84876108169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86671710014343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95051717758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87868857383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87569642066956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90562343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87270331382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92358136177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92956709861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99840044975281</t>
+    <t xml:space="preserve">3.84876012802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86671757698059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95051646232605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87868928909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8756959438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90562319755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87270307540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92358112335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9295666217804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99840116500854</t>
   </si>
   <si>
     <t xml:space="preserve">4.04927921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05825757980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99241590499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93255972862244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05526494979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03132295608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01336479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04329347610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93854475021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04628610610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00139379501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09716367721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06424331665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12110710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11811494827271</t>
+    <t xml:space="preserve">4.05825710296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9924156665802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93255949020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02234363555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05526542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03132152557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01336431503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04329299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9385449886322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04628658294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00139427185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09117841720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09716415405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06424283981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12110614776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11811399459839</t>
   </si>
   <si>
     <t xml:space="preserve">4.13008499145508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10614252090454</t>
+    <t xml:space="preserve">4.1061429977417</t>
   </si>
   <si>
     <t xml:space="preserve">4.11512088775635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18994140625</t>
+    <t xml:space="preserve">4.18994188308716</t>
   </si>
   <si>
     <t xml:space="preserve">4.19891977310181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10015630722046</t>
+    <t xml:space="preserve">4.10015726089478</t>
   </si>
   <si>
     <t xml:space="preserve">4.03730821609497</t>
@@ -338,40 +338,40 @@
     <t xml:space="preserve">4.13906383514404</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23349094390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17998266220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17053985595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21775388717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88411068916321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65433645248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75191140174866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74561619758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84948658943176</t>
+    <t xml:space="preserve">4.23349142074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17998170852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17053937911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2177529335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88410925865173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65433669090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75191164016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74561595916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8494861125946</t>
   </si>
   <si>
     <t xml:space="preserve">3.76450204849243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67007446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62915587425232</t>
+    <t xml:space="preserve">3.67007422447205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62915635108948</t>
   </si>
   <si>
     <t xml:space="preserve">3.60082769393921</t>
@@ -380,160 +380,160 @@
     <t xml:space="preserve">3.73617434501648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90614295005798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89670014381409</t>
+    <t xml:space="preserve">3.9061427116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89670038223267</t>
   </si>
   <si>
     <t xml:space="preserve">3.98798012733459</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91873335838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188119888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89984846115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95965147018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94706153869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90299558639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89355254173279</t>
+    <t xml:space="preserve">3.91873288154602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9218807220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89984798431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95965194702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94706106185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90299582481384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89355301856995</t>
   </si>
   <si>
     <t xml:space="preserve">3.84633922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82745385169983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76764965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06037330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0383415222168</t>
+    <t xml:space="preserve">3.82745313644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76764988899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06037378311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03834104537964</t>
   </si>
   <si>
     <t xml:space="preserve">4.06666946411133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07296419143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12962102890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14221096038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05722665786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97538924217224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01630830764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91558575630188</t>
+    <t xml:space="preserve">4.07296466827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12962055206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14221143722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05722761154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9753897190094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01630783081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91558504104614</t>
   </si>
   <si>
     <t xml:space="preserve">3.93132328987122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99742341041565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95335745811462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929102897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92817568778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87152028083801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94391393661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93447113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95650482177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96909427642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03204679489136</t>
+    <t xml:space="preserve">3.99742317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95335721969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90928983688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9281759262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87151980400085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94391417503357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93447065353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95650458335876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9690945148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03204584121704</t>
   </si>
   <si>
     <t xml:space="preserve">4.019455909729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8054211139679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86207699775696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85892939567566</t>
+    <t xml:space="preserve">3.80542087554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86207747459412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85892915725708</t>
   </si>
   <si>
     <t xml:space="preserve">3.82430553436279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8431921005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85263466835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83060121536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82115888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81486392021179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7991247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80227327346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73932147026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78653478622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80856847763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75505995750427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81801104545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89040422439575</t>
+    <t xml:space="preserve">3.84319090843201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85263419151306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83060193061829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82115912437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81486320495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79912543296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80227303504944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73932194709778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78653526306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80856823921204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75505924224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81801080703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89040470123291</t>
   </si>
   <si>
     <t xml:space="preserve">3.86837196350098</t>
@@ -542,262 +542,262 @@
     <t xml:space="preserve">3.74876427650452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72673058509827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75820660591125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79282975196838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7833878993988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77079796791077</t>
+    <t xml:space="preserve">3.72673106193542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75820708274841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79282999038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338718414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77079749107361</t>
   </si>
   <si>
     <t xml:space="preserve">3.76135468482971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71414065361023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67322254180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59453272819519</t>
+    <t xml:space="preserve">3.71414089202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67322301864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59453320503235</t>
   </si>
   <si>
     <t xml:space="preserve">3.55676198005676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55046677589417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54417157173157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53472971916199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48751497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62600898742676</t>
+    <t xml:space="preserve">3.55046701431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5441722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53472900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48751544952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62600874900818</t>
   </si>
   <si>
     <t xml:space="preserve">3.69210720062256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69525504112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68581247329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9848325252533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00057125091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112844467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98168420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03519439697266</t>
+    <t xml:space="preserve">3.69525551795959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68581318855286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98483228683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00057029724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98168444633484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03519344329834</t>
   </si>
   <si>
     <t xml:space="preserve">3.99427485466003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02889776229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04778432846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02260303497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9659469127655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88096165657043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84004330635071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81171560287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83689570426941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68266463279724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66063213348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67951798439026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77709245681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77394461631775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83374834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95020985603333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07611227035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06352138519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05407953262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01316070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08870315551758</t>
+    <t xml:space="preserve">4.0288987159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04778385162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0226035118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96594715118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88096308708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84004378318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81171536445618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83689641952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6826639175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66063189506531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67951774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77709150314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77394485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83374857902527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95020890235901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07611131668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06352233886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05407905578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01316118240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08870267868042</t>
   </si>
   <si>
     <t xml:space="preserve">4.05093145370483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92502784729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96279883384705</t>
+    <t xml:space="preserve">3.92502808570862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9627993106842</t>
   </si>
   <si>
     <t xml:space="preserve">4.00371789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02575063705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93761873245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00686502456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09185028076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10444068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9722421169281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94076657295227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981706619263</t>
+    <t xml:space="preserve">4.0257511138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93761849403381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00686597824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09184980392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10444021224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97224235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94076633453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06981754302979</t>
   </si>
   <si>
     <t xml:space="preserve">4.07925987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04576873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05916547775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07256174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01227760314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01897525787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03237152099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99218153953552</t>
+    <t xml:space="preserve">4.04576826095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05916500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07256078720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01227712631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01897430419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03237199783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99218201637268</t>
   </si>
   <si>
     <t xml:space="preserve">4.07925939559937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04241847991943</t>
+    <t xml:space="preserve">4.04241943359375</t>
   </si>
   <si>
     <t xml:space="preserve">4.01562595367432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02232456207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99887990951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98213458061218</t>
+    <t xml:space="preserve">4.0223240852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99888038635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9821343421936</t>
   </si>
   <si>
     <t xml:space="preserve">4.05246686935425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06251430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10270404815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08260822296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06586360931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05581569671631</t>
+    <t xml:space="preserve">4.06251382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10270357131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08260917663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06586408615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05581521987915</t>
   </si>
   <si>
     <t xml:space="preserve">4.00557851791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99553179740906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03572034835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17973375320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19313097000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21322536468506</t>
+    <t xml:space="preserve">3.99553108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03572082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1797342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19313049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21322584152222</t>
   </si>
   <si>
     <t xml:space="preserve">4.15629005432129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16633749008179</t>
+    <t xml:space="preserve">4.16633701324463</t>
   </si>
   <si>
     <t xml:space="preserve">4.16968679428101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20987701416016</t>
+    <t xml:space="preserve">4.209876537323</t>
   </si>
   <si>
     <t xml:space="preserve">4.09265661239624</t>
@@ -809,22 +809,22 @@
     <t xml:space="preserve">4.16298913955688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17303609848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11945009231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09935522079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08930778503418</t>
+    <t xml:space="preserve">4.17303562164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11944961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09935474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08930683135986</t>
   </si>
   <si>
     <t xml:space="preserve">4.1161003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0759105682373</t>
+    <t xml:space="preserve">4.07591152191162</t>
   </si>
   <si>
     <t xml:space="preserve">4.12279844284058</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">4.18643236160278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15963983535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14959239959717</t>
+    <t xml:space="preserve">4.15963840484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14959192276001</t>
   </si>
   <si>
     <t xml:space="preserve">4.15294122695923</t>
@@ -845,106 +845,106 @@
     <t xml:space="preserve">4.12614774703979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14289331436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11275196075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13619565963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19647979736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1294960975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20317888259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21657419204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1998291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2065281867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.189781665802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10940217971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0960054397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08595752716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26346254348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29360580444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26681137084961</t>
+    <t xml:space="preserve">4.14289379119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11275100708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13619518280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19648027420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12949752807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20317840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21657466888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19982862472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20652770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18978118896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10940265655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09600496292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0859580039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26346302032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29360485076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26681184768677</t>
   </si>
   <si>
     <t xml:space="preserve">4.25341606140137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24001884460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25676536560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27016115188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29025650024414</t>
+    <t xml:space="preserve">4.24001836776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25676393508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27016162872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29025554656982</t>
   </si>
   <si>
     <t xml:space="preserve">4.30700206756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32039737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33379459381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31370067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34719133377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38068246841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37733364105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40747594833374</t>
+    <t xml:space="preserve">4.32039785385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33379507064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31369972229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34719181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38068294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37733316421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4074764251709</t>
   </si>
   <si>
     <t xml:space="preserve">4.50460147857666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50125169754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48450613021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45436382293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47111034393311</t>
+    <t xml:space="preserve">4.50125217437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48450708389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45436477661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47110986709595</t>
   </si>
   <si>
     <t xml:space="preserve">4.48115730285645</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">4.45570421218872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4369478225708</t>
+    <t xml:space="preserve">4.43694829940796</t>
   </si>
   <si>
     <t xml:space="preserve">4.46374177932739</t>
@@ -962,43 +962,43 @@
     <t xml:space="preserve">4.41015529632568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41953277587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28690624237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40077829360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31771945953369</t>
+    <t xml:space="preserve">4.41953372955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28690719604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40077781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31771898269653</t>
   </si>
   <si>
     <t xml:space="preserve">4.31102085113525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3297758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37264490127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40881490707397</t>
+    <t xml:space="preserve">4.32977628707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37264585494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40881586074829</t>
   </si>
   <si>
     <t xml:space="preserve">4.45838260650635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46508121490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54144239425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52804517745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49187517166138</t>
+    <t xml:space="preserve">4.46508169174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54144144058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52804613113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49187421798706</t>
   </si>
   <si>
     <t xml:space="preserve">4.49589347839355</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">4.71559762954712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73033380508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70086050033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59904766082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6285195350647</t>
+    <t xml:space="preserve">4.73033332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70086097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59904718399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62852001190186</t>
   </si>
   <si>
     <t xml:space="preserve">4.6673698425293</t>
@@ -1031,31 +1031,31 @@
     <t xml:space="preserve">4.91252756118774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88707399368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97013282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86296081542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79999589920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87635564804077</t>
+    <t xml:space="preserve">4.8870735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97013330459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86296033859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79999494552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87635707855225</t>
   </si>
   <si>
     <t xml:space="preserve">4.95271682739258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91520547866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94869804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93932056427002</t>
+    <t xml:space="preserve">4.91520595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9486985206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9393196105957</t>
   </si>
   <si>
     <t xml:space="preserve">4.8937726020813</t>
@@ -1064,115 +1064,115 @@
     <t xml:space="preserve">4.85358238220215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8361668586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85224199295044</t>
+    <t xml:space="preserve">4.83616638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85224294662476</t>
   </si>
   <si>
     <t xml:space="preserve">4.92726373672485</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93664026260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97415208816528</t>
+    <t xml:space="preserve">4.93664169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97415161132812</t>
   </si>
   <si>
     <t xml:space="preserve">5.05721092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05185174942017</t>
+    <t xml:space="preserve">5.05185222625732</t>
   </si>
   <si>
     <t xml:space="preserve">5.09070205688477</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1469669342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13892889022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14294767379761</t>
+    <t xml:space="preserve">5.14696788787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13892936706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14294862747192</t>
   </si>
   <si>
     <t xml:space="preserve">5.14026927947998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17108106613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21796989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18581771850586</t>
+    <t xml:space="preserve">5.17108201980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21796941757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1858172416687</t>
   </si>
   <si>
     <t xml:space="preserve">5.19653463363647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27155590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27691459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2996883392334</t>
+    <t xml:space="preserve">5.27155542373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2769136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29968881607056</t>
   </si>
   <si>
     <t xml:space="preserve">5.31040573120117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33987855911255</t>
+    <t xml:space="preserve">5.33987808227539</t>
   </si>
   <si>
     <t xml:space="preserve">5.42963552474976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41489887237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40552091598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46178722381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43633317947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41088008880615</t>
+    <t xml:space="preserve">5.41489839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40552139282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46178770065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43633413314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41088056564331</t>
   </si>
   <si>
     <t xml:space="preserve">5.45910787582397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50465631484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29834842681885</t>
+    <t xml:space="preserve">5.50465726852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29834890365601</t>
   </si>
   <si>
     <t xml:space="preserve">5.28629207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10409832000732</t>
+    <t xml:space="preserve">5.10409879684448</t>
   </si>
   <si>
     <t xml:space="preserve">5.11481523513794</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15634489059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1308913230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16170406341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08266353607178</t>
+    <t xml:space="preserve">5.15634441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13089084625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16170310974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08266305923462</t>
   </si>
   <si>
     <t xml:space="preserve">4.91922521591187</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">4.89511203765869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90582799911499</t>
+    <t xml:space="preserve">4.90582895278931</t>
   </si>
   <si>
     <t xml:space="preserve">5.00362396240234</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">5.03175687789917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89913034439087</t>
+    <t xml:space="preserve">4.89913082122803</t>
   </si>
   <si>
     <t xml:space="preserve">4.89645099639893</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">4.7450704574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92860317230225</t>
+    <t xml:space="preserve">4.9286036491394</t>
   </si>
   <si>
     <t xml:space="preserve">5.02237892150879</t>
@@ -1220,79 +1220,79 @@
     <t xml:space="preserve">5.11079692840576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19018793106079</t>
+    <t xml:space="preserve">5.19018697738647</t>
   </si>
   <si>
     <t xml:space="preserve">5.24264192581177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26674318313599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20152807235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20719957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13915061950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16325187683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08953094482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08244323730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13347959518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14623975753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26816177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30927467346191</t>
+    <t xml:space="preserve">5.26674222946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20152854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.207200050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13915014266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16325235366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08953189849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08244276046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13347911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14623928070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26816082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3092737197876</t>
   </si>
   <si>
     <t xml:space="preserve">5.35889387130737</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30218553543091</t>
+    <t xml:space="preserve">5.30218601226807</t>
   </si>
   <si>
     <t xml:space="preserve">5.3801589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36740016937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44537401199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50208044052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53185224533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46805572509766</t>
+    <t xml:space="preserve">5.3673996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44537305831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50208139419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53185272216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46805620193481</t>
   </si>
   <si>
     <t xml:space="preserve">5.48223352432251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4652214050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4751443862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56445980072021</t>
+    <t xml:space="preserve">5.46522092819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47514486312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56445932388306</t>
   </si>
   <si>
     <t xml:space="preserve">5.58856010437012</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">5.61266136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64668560028076</t>
+    <t xml:space="preserve">5.64668607711792</t>
   </si>
   <si>
     <t xml:space="preserve">5.63817930221558</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">5.33337497711182</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27950191497803</t>
+    <t xml:space="preserve">5.27950239181519</t>
   </si>
   <si>
     <t xml:space="preserve">5.26248979568481</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">5.1107964515686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03565883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01439380645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0668478012085</t>
+    <t xml:space="preserve">5.0356593132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01439237594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06684827804565</t>
   </si>
   <si>
     <t xml:space="preserve">4.91657209396362</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve">4.85561084747314</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77905607223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93074893951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83434581756592</t>
+    <t xml:space="preserve">4.77905559539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.930748462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83434534072876</t>
   </si>
   <si>
     <t xml:space="preserve">4.81591606140137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80740928649902</t>
+    <t xml:space="preserve">4.80740976333618</t>
   </si>
   <si>
     <t xml:space="preserve">4.78897953033447</t>
@@ -1358,55 +1358,55 @@
     <t xml:space="preserve">4.8102445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7478666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70108222961426</t>
+    <t xml:space="preserve">4.74786615371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70108270645142</t>
   </si>
   <si>
     <t xml:space="preserve">4.78047323226929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9066481590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00163412094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97044515609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99029207229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10512638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07818937301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99879884719849</t>
+    <t xml:space="preserve">4.90664911270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.001633644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97044467926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9902925491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10512590408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0781888961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99879837036133</t>
   </si>
   <si>
     <t xml:space="preserve">4.87120580673218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89955949783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94634389877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92224216461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90948438644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97611570358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0172290802002</t>
+    <t xml:space="preserve">4.89956045150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94634342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92224264144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90948343276978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97611522674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01722812652588</t>
   </si>
   <si>
     <t xml:space="preserve">5.0413293838501</t>
@@ -1415,43 +1415,43 @@
     <t xml:space="preserve">5.10087251663208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13064336776733</t>
+    <t xml:space="preserve">5.13064432144165</t>
   </si>
   <si>
     <t xml:space="preserve">5.09661960601807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87829446792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82583999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7393593788147</t>
+    <t xml:space="preserve">4.87829399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82583951950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73935985565186</t>
   </si>
   <si>
     <t xml:space="preserve">4.74928379058838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75353765487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67839908599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50544023513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52954053878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57490730285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44873189926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4288854598999</t>
+    <t xml:space="preserve">4.75353670120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67839956283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.529541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57490682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44873237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42888450622559</t>
   </si>
   <si>
     <t xml:space="preserve">4.4458966255188</t>
@@ -1469,16 +1469,16 @@
     <t xml:space="preserve">4.44447946548462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42037868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43030166625977</t>
+    <t xml:space="preserve">4.42037773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43030214309692</t>
   </si>
   <si>
     <t xml:space="preserve">4.25167274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34382295608521</t>
+    <t xml:space="preserve">4.34382247924805</t>
   </si>
   <si>
     <t xml:space="preserve">4.34807538986206</t>
@@ -1487,52 +1487,52 @@
     <t xml:space="preserve">4.48559236526489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38635396957397</t>
+    <t xml:space="preserve">4.38635349273682</t>
   </si>
   <si>
     <t xml:space="preserve">4.50118732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64437389373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68123483657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61602115631104</t>
+    <t xml:space="preserve">4.64437484741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68123435974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61602067947388</t>
   </si>
   <si>
     <t xml:space="preserve">4.58624839782715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73794269561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83718109130859</t>
+    <t xml:space="preserve">4.73794174194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83718156814575</t>
   </si>
   <si>
     <t xml:space="preserve">4.86978769302368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87971115112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88254737854004</t>
+    <t xml:space="preserve">4.87971210479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88254690170288</t>
   </si>
   <si>
     <t xml:space="preserve">4.72660112380981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60751438140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61885499954224</t>
+    <t xml:space="preserve">4.60751485824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61885547637939</t>
   </si>
   <si>
     <t xml:space="preserve">4.64579153060913</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51819896697998</t>
+    <t xml:space="preserve">4.5181999206543</t>
   </si>
   <si>
     <t xml:space="preserve">4.66705751419067</t>
@@ -1544,58 +1544,58 @@
     <t xml:space="preserve">4.84852266311646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82300424575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75070095062256</t>
+    <t xml:space="preserve">4.82300472259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75070238113403</t>
   </si>
   <si>
     <t xml:space="preserve">4.75211954116821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86695289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82867479324341</t>
+    <t xml:space="preserve">4.86695241928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82867431640625</t>
   </si>
   <si>
     <t xml:space="preserve">4.89247131347656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63445091247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65713357925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60326099395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64862728118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8357629776001</t>
+    <t xml:space="preserve">4.63445043563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65713405609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60326147079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64862680435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83576345443726</t>
   </si>
   <si>
     <t xml:space="preserve">4.91231870651245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88821840286255</t>
+    <t xml:space="preserve">4.88821887969971</t>
   </si>
   <si>
     <t xml:space="preserve">4.8811297416687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03849458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96902656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89672470092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84285163879395</t>
+    <t xml:space="preserve">5.03849411010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96902704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89672517776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84285116195679</t>
   </si>
   <si>
     <t xml:space="preserve">4.95059680938721</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">4.94067287445068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96052074432373</t>
+    <t xml:space="preserve">4.96052122116089</t>
   </si>
   <si>
     <t xml:space="preserve">5.02148199081421</t>
@@ -1613,55 +1613,55 @@
     <t xml:space="preserve">4.98745632171631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03707551956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10370826721191</t>
+    <t xml:space="preserve">5.03707599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10370779037476</t>
   </si>
   <si>
     <t xml:space="preserve">5.11646747589111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14056825637817</t>
+    <t xml:space="preserve">5.14056777954102</t>
   </si>
   <si>
     <t xml:space="preserve">5.11788511276245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21287107467651</t>
+    <t xml:space="preserve">5.21287059783936</t>
   </si>
   <si>
     <t xml:space="preserve">5.24547815322876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37732410430908</t>
+    <t xml:space="preserve">5.37732315063477</t>
   </si>
   <si>
     <t xml:space="preserve">5.38724756240845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33620977401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38582944869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39858961105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45246124267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42836046218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43686723709106</t>
+    <t xml:space="preserve">5.33621025085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38582992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39859008789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45246076583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42835998535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43686676025391</t>
   </si>
   <si>
     <t xml:space="preserve">5.32628631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20861721038818</t>
+    <t xml:space="preserve">5.20861768722534</t>
   </si>
   <si>
     <t xml:space="preserve">5.33053970336914</t>
@@ -1670,28 +1670,28 @@
     <t xml:space="preserve">5.41843700408936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44820833206177</t>
+    <t xml:space="preserve">5.44820785522461</t>
   </si>
   <si>
     <t xml:space="preserve">5.28375577926636</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30076742172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36456394195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44395542144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49924564361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43403100967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49073934555054</t>
+    <t xml:space="preserve">5.30076789855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36456441879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4439549446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49924516677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43403148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49073886871338</t>
   </si>
   <si>
     <t xml:space="preserve">5.51058673858643</t>
@@ -1703,25 +1703,25 @@
     <t xml:space="preserve">5.47798013687134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51625823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53894090652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59848403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59990167617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62116718292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62542009353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59423112869263</t>
+    <t xml:space="preserve">5.51625776290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53894186019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59848499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59990215301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62116765975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62542057037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59423160552979</t>
   </si>
   <si>
     <t xml:space="preserve">5.61975002288818</t>
@@ -1733,34 +1733,34 @@
     <t xml:space="preserve">5.63392639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53752374649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60131931304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62825632095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64243221282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66511583328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72749471664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77711391448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92597150802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98267984390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1230320930481</t>
+    <t xml:space="preserve">5.53752326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60131978988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62825536727905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64243268966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66511678695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72749376296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7771143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92597198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98268032073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12303161621094</t>
   </si>
   <si>
     <t xml:space="preserve">6.06774187088013</t>
@@ -1769,85 +1769,85 @@
     <t xml:space="preserve">6.08900737762451</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11310815811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11452722549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09326028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14713144302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13153743743896</t>
+    <t xml:space="preserve">6.11310768127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11452579498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09325981140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14713191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13153839111328</t>
   </si>
   <si>
     <t xml:space="preserve">6.14996862411499</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19958829879761</t>
+    <t xml:space="preserve">6.19958782196045</t>
   </si>
   <si>
     <t xml:space="preserve">6.19533395767212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21943521499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32576274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34844589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33852195739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3725471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36120367050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42925405502319</t>
+    <t xml:space="preserve">6.2194356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32576370239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34844636917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33852291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37254571914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36120557785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42925500869751</t>
   </si>
   <si>
     <t xml:space="preserve">6.38105249404907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74540138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74823617935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70712232589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56535339355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53841781616211</t>
+    <t xml:space="preserve">6.74539995193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74823713302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70712280273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56535387039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53841686248779</t>
   </si>
   <si>
     <t xml:space="preserve">6.55826473236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64474391937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74114894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69152879714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62631368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67593383789062</t>
+    <t xml:space="preserve">6.64474439620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74114847183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6915283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62631464004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6759352684021</t>
   </si>
   <si>
     <t xml:space="preserve">6.46469640731812</t>
@@ -1856,52 +1856,52 @@
     <t xml:space="preserve">6.38530588150024</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37963533401489</t>
+    <t xml:space="preserve">6.37963485717773</t>
   </si>
   <si>
     <t xml:space="preserve">6.30591487884521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5001392364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45902729034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54267024993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39664840698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45335578918457</t>
+    <t xml:space="preserve">6.50013971328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45902681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54266881942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39664793014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45335626602173</t>
   </si>
   <si>
     <t xml:space="preserve">6.49446821212769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21518278121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32292747497559</t>
+    <t xml:space="preserve">6.21518182754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32292652130127</t>
   </si>
   <si>
     <t xml:space="preserve">6.30733203887939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25771427154541</t>
+    <t xml:space="preserve">6.25771331787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.22510576248169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1669807434082</t>
+    <t xml:space="preserve">6.16697978973389</t>
   </si>
   <si>
     <t xml:space="preserve">6.1797399520874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33710384368896</t>
+    <t xml:space="preserve">6.33710432052612</t>
   </si>
   <si>
     <t xml:space="preserve">6.29315567016602</t>
@@ -1910,19 +1910,19 @@
     <t xml:space="preserve">6.32717990875244</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45193767547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51289796829224</t>
+    <t xml:space="preserve">6.45193815231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51289939880371</t>
   </si>
   <si>
     <t xml:space="preserve">6.54408836364746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5696063041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53558206558228</t>
+    <t xml:space="preserve">6.56960678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53558158874512</t>
   </si>
   <si>
     <t xml:space="preserve">6.58520174026489</t>
@@ -1931,10 +1931,10 @@
     <t xml:space="preserve">6.64332628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74398231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86365461349487</t>
+    <t xml:space="preserve">6.74398374557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86365509033203</t>
   </si>
   <si>
     <t xml:space="preserve">6.81608390808105</t>
@@ -1943,118 +1943,118 @@
     <t xml:space="preserve">6.78783845901489</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79378461837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88298034667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87108898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0361008644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20260095596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24719905853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22044038772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21003293991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17584133148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2457127571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17435598373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17881536483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14759683609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12529706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11042976379395</t>
+    <t xml:space="preserve">6.793785572052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.882981300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8710880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03610181808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20260000228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24719858169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22043991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21003389358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17584085464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24571228027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17435550689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17881488800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14759588241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12529754638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11043214797974</t>
   </si>
   <si>
     <t xml:space="preserve">6.98704290390015</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01826190948486</t>
+    <t xml:space="preserve">7.01826238632202</t>
   </si>
   <si>
     <t xml:space="preserve">6.97366333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04204607009888</t>
+    <t xml:space="preserve">7.04204654693604</t>
   </si>
   <si>
     <t xml:space="preserve">6.99150323867798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12678527832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94095706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18030261993408</t>
+    <t xml:space="preserve">7.12678337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94095897674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18030118942261</t>
   </si>
   <si>
     <t xml:space="preserve">7.25165843963623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16692399978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05245351791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0479941368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16394853591919</t>
+    <t xml:space="preserve">7.16692304611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0524525642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04799365997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16394901275635</t>
   </si>
   <si>
     <t xml:space="preserve">6.68526220321655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76405191421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9201455116272</t>
+    <t xml:space="preserve">6.76405239105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92014646530151</t>
   </si>
   <si>
     <t xml:space="preserve">6.79675769805908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06137371063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01231527328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20854711532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18327379226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0019097328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05988597869873</t>
+    <t xml:space="preserve">7.06137323379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01231622695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20854759216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18327474594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00190925598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05988693237305</t>
   </si>
   <si>
     <t xml:space="preserve">6.98555612564087</t>
@@ -2063,46 +2063,46 @@
     <t xml:space="preserve">7.31409597396851</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26355171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34085464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35869407653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49992179870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47019052505493</t>
+    <t xml:space="preserve">7.26355266571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34085559844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35869550704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4999213218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47019004821777</t>
   </si>
   <si>
     <t xml:space="preserve">7.48877286911011</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49248743057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36612749099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39585876464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52593803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5705361366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47762250900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41369771957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55195283889771</t>
+    <t xml:space="preserve">7.49248886108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36612701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39585781097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52593755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57053565979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.477623462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41369915008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55195188522339</t>
   </si>
   <si>
     <t xml:space="preserve">7.566819190979</t>
@@ -2111,58 +2111,58 @@
     <t xml:space="preserve">7.48133850097656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63743257522583</t>
+    <t xml:space="preserve">7.63743209838867</t>
   </si>
   <si>
     <t xml:space="preserve">7.59283494949341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58911895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62628269195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75264596939087</t>
+    <t xml:space="preserve">7.58911848068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62628364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75264501571655</t>
   </si>
   <si>
     <t xml:space="preserve">7.64486598968506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4062647819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42261934280396</t>
+    <t xml:space="preserve">7.40626525878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42261743545532</t>
   </si>
   <si>
     <t xml:space="preserve">7.41815757751465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63000011444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52965402603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61885070800781</t>
+    <t xml:space="preserve">7.62999868392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52965497970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61884927749634</t>
   </si>
   <si>
     <t xml:space="preserve">7.86414003372192</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87528991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98306798934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8678560256958</t>
+    <t xml:space="preserve">7.87528944015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98306846618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86785650253296</t>
   </si>
   <si>
     <t xml:space="preserve">7.95705270767212</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00164985656738</t>
+    <t xml:space="preserve">8.0016508102417</t>
   </si>
   <si>
     <t xml:space="preserve">8.02766609191895</t>
@@ -2171,37 +2171,37 @@
     <t xml:space="preserve">8.12057971954346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13916110992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16889381408691</t>
+    <t xml:space="preserve">8.13916397094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1688928604126</t>
   </si>
   <si>
     <t xml:space="preserve">8.07226371765137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10943031311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09456443786621</t>
+    <t xml:space="preserve">8.10942840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09456253051758</t>
   </si>
   <si>
     <t xml:space="preserve">8.08713054656982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19862461090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24694061279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30268955230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17261123657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05739784240723</t>
+    <t xml:space="preserve">8.19862651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24694156646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3026876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17261028289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05739974975586</t>
   </si>
   <si>
     <t xml:space="preserve">8.15402793884277</t>
@@ -2213,46 +2213,46 @@
     <t xml:space="preserve">8.26180648803711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28038787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29525566101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33972549438477</t>
+    <t xml:space="preserve">8.28038883209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29525470733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33972454071045</t>
   </si>
   <si>
     <t xml:space="preserve">8.19652080535889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27188968658447</t>
+    <t xml:space="preserve">8.27189064025879</t>
   </si>
   <si>
     <t xml:space="preserve">8.17014026641846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2379732131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26058483123779</t>
+    <t xml:space="preserve">8.23797416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26058578491211</t>
   </si>
   <si>
     <t xml:space="preserve">8.18521404266357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13245582580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01563262939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9817156791687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72168684005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80459499359131</t>
+    <t xml:space="preserve">8.13245677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01563167572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98171472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72168731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80459451675415</t>
   </si>
   <si>
     <t xml:space="preserve">7.90634393692017</t>
@@ -2261,37 +2261,37 @@
     <t xml:space="preserve">7.76314067840576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77444696426392</t>
+    <t xml:space="preserve">7.77444648742676</t>
   </si>
   <si>
     <t xml:space="preserve">7.67646598815918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78575277328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69907712936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8272066116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66515970230103</t>
+    <t xml:space="preserve">7.78575325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69907665252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82720613479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66516017913818</t>
   </si>
   <si>
     <t xml:space="preserve">7.73299264907837</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66139221191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75937461853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86112403869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62747573852539</t>
+    <t xml:space="preserve">7.6613917350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75937271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86112213134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62747478485107</t>
   </si>
   <si>
     <t xml:space="preserve">7.68400192260742</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">7.58602046966553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52044773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71415185928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60863256454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72922515869141</t>
+    <t xml:space="preserve">7.52044868469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71415042877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60863161087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72922468185425</t>
   </si>
   <si>
     <t xml:space="preserve">7.69530868530273</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">7.65008544921875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58225250244141</t>
+    <t xml:space="preserve">7.58225345611572</t>
   </si>
   <si>
     <t xml:space="preserve">7.57094669342041</t>
@@ -2330,16 +2330,16 @@
     <t xml:space="preserve">7.82343721389771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84604787826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74429845809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97794628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35102939605713</t>
+    <t xml:space="preserve">7.84604835510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74429798126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97794723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35102844238281</t>
   </si>
   <si>
     <t xml:space="preserve">8.28696537017822</t>
@@ -2348,94 +2348,94 @@
     <t xml:space="preserve">7.80082654953003</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91765022277832</t>
+    <t xml:space="preserve">7.91765069961548</t>
   </si>
   <si>
     <t xml:space="preserve">8.06839084625244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08346557617188</t>
+    <t xml:space="preserve">8.08346652984619</t>
   </si>
   <si>
     <t xml:space="preserve">8.1362247467041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21913242340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31711387634277</t>
+    <t xml:space="preserve">8.21913146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31711292266846</t>
   </si>
   <si>
     <t xml:space="preserve">8.27565956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25304794311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24174308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54699230194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67512321472168</t>
+    <t xml:space="preserve">8.25304698944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24174213409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54699325561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67512130737305</t>
   </si>
   <si>
     <t xml:space="preserve">8.50553798675537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51307678222656</t>
+    <t xml:space="preserve">8.51307582855225</t>
   </si>
   <si>
     <t xml:space="preserve">7.91011333465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78951978683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94402980804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6010947227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24610090255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98079776763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25062322616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30187559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10892724990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32750034332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37482023239136</t>
+    <t xml:space="preserve">7.78952074050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94402933120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60109567642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24610137939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98079919815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25062274932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30187511444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10892772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3274998664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37482118606567</t>
   </si>
   <si>
     <t xml:space="preserve">5.93767261505127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93917989730835</t>
+    <t xml:space="preserve">5.93917942047119</t>
   </si>
   <si>
     <t xml:space="preserve">4.63075160980225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08297300338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90057706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89605474472046</t>
+    <t xml:space="preserve">5.08297348022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9005765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89605569839478</t>
   </si>
   <si>
     <t xml:space="preserve">4.80108833312988</t>
@@ -2450,67 +2450,67 @@
     <t xml:space="preserve">5.40857267379761</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77788686752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83064603805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10348653793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91807699203491</t>
+    <t xml:space="preserve">5.77788782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83064651489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10348749160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9180760383606</t>
   </si>
   <si>
     <t xml:space="preserve">5.96631383895874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81858777999878</t>
+    <t xml:space="preserve">5.81858730316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.57137250900269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85777997970581</t>
+    <t xml:space="preserve">5.85778045654297</t>
   </si>
   <si>
     <t xml:space="preserve">5.9014949798584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05977296829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14720106124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23915338516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26025772094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28588247299194</t>
+    <t xml:space="preserve">6.05977249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1472020149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23915433883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26025724411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28588342666626</t>
   </si>
   <si>
     <t xml:space="preserve">5.73266506195068</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77939510345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80351305007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73718738555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61508750915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70402383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66633939743042</t>
+    <t xml:space="preserve">5.77939462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80351400375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73718690872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61508703231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70402479171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66633987426758</t>
   </si>
   <si>
     <t xml:space="preserve">5.57589483261108</t>
@@ -2519,10 +2519,10 @@
     <t xml:space="preserve">5.94068765640259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93013525009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05223512649536</t>
+    <t xml:space="preserve">5.93013572692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05223560333252</t>
   </si>
   <si>
     <t xml:space="preserve">5.84270524978638</t>
@@ -2540,22 +2540,22 @@
     <t xml:space="preserve">5.72362089157104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84572124481201</t>
+    <t xml:space="preserve">5.8457202911377</t>
   </si>
   <si>
     <t xml:space="preserve">5.61207294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5095682144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41610956192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62413263320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58041667938232</t>
+    <t xml:space="preserve">5.50956869125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41611003875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62413120269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5804181098938</t>
   </si>
   <si>
     <t xml:space="preserve">5.58946180343628</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">5.55479097366333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60905742645264</t>
+    <t xml:space="preserve">5.60905838012695</t>
   </si>
   <si>
     <t xml:space="preserve">5.83215379714966</t>
@@ -2573,19 +2573,19 @@
     <t xml:space="preserve">5.91958379745483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94973230361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00399875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0733380317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25724220275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45772790908813</t>
+    <t xml:space="preserve">5.94973182678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00399827957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07333850860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25724267959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45772743225098</t>
   </si>
   <si>
     <t xml:space="preserve">6.60997629165649</t>
@@ -2594,22 +2594,22 @@
     <t xml:space="preserve">6.74714946746826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53912782669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46375751495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12308311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21654319763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26930141448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39592361450195</t>
+    <t xml:space="preserve">6.53912734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46375703811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12308263778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21654272079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26930236816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39592456817627</t>
   </si>
   <si>
     <t xml:space="preserve">6.3672833442688</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">6.43116474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14610147476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18995714187622</t>
+    <t xml:space="preserve">6.1461009979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18995666503906</t>
   </si>
   <si>
     <t xml:space="preserve">6.06621980667114</t>
@@ -2642,16 +2642,16 @@
     <t xml:space="preserve">6.06152105331421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07248544692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09911155700684</t>
+    <t xml:space="preserve">6.07248592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09911203384399</t>
   </si>
   <si>
     <t xml:space="preserve">6.19778823852539</t>
   </si>
   <si>
-    <t xml:space="preserve">6.163330078125</t>
+    <t xml:space="preserve">6.16332960128784</t>
   </si>
   <si>
     <t xml:space="preserve">6.11477518081665</t>
@@ -2660,94 +2660,94 @@
     <t xml:space="preserve">5.9706768989563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02236461639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13670253753662</t>
+    <t xml:space="preserve">6.02236413955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13670301437378</t>
   </si>
   <si>
     <t xml:space="preserve">6.11320877075195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13983535766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15706491470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41080236434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45779228210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51574420928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41236877441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38104295730591</t>
+    <t xml:space="preserve">6.13983583450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15706539154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41080284118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45779132843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51574373245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41236972808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38104343414307</t>
   </si>
   <si>
     <t xml:space="preserve">6.22128248214722</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18682432174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17116069793701</t>
+    <t xml:space="preserve">6.18682479858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17116117477417</t>
   </si>
   <si>
     <t xml:space="preserve">5.95971298217773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07091856002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18369102478027</t>
+    <t xml:space="preserve">6.07091903686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18369150161743</t>
   </si>
   <si>
     <t xml:space="preserve">6.22598075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22441482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12730503082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17586088180542</t>
+    <t xml:space="preserve">6.22441530227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12730598449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17586040496826</t>
   </si>
   <si>
     <t xml:space="preserve">6.28393411636353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38417625427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37634515762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29959583282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27297067642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17429447174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15393161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21815013885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11164283752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.194655418396</t>
+    <t xml:space="preserve">6.38417673110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37634420394897</t>
+  </si>
+  <si>
+   